--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project\TMS\TMS_API\DMS.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2668E5-46A3-4D64-A66C-D269823F9A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C94B6C2-328A-4180-9880-B41F2983965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="802" activeTab="4" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="802" activeTab="1" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="190">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -675,7 +675,7 @@
     <numFmt numFmtId="177" formatCode="&quot;Vinh, ngày &quot;\ d\ &quot;tháng &quot;\ m\ &quot;năm &quot;\ yyyy"/>
     <numFmt numFmtId="178" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="71">
+  <fonts count="72">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1096,13 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="17">
@@ -1625,7 +1632,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="362">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2158,182 +2165,142 @@
     <xf numFmtId="0" fontId="68" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="51" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2343,12 +2310,6 @@
     <xf numFmtId="164" fontId="51" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2364,20 +2325,17 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2389,6 +2347,42 @@
     </xf>
     <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="49" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2427,142 +2421,149 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="171" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="171" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="171" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="171" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2570,21 +2571,15 @@
     <xf numFmtId="0" fontId="68" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2596,6 +2591,58 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2631,57 +2678,24 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2695,21 +2709,11 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2741,7 +2745,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="10" xr:uid="{E00AEB10-11DA-4F4B-86BF-145D9E78C736}"/>
@@ -3297,13 +3313,13 @@
     </row>
     <row r="2" spans="1:27" ht="24.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -3326,29 +3342,29 @@
     </row>
     <row r="3" spans="1:27" ht="40.5" customHeight="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="284" t="s">
+      <c r="B3" s="199" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="285"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="187" t="s">
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="205" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="187" t="s">
+      <c r="F3" s="205" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="187" t="s">
+      <c r="G3" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="290" t="s">
+      <c r="H3" s="207" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="291"/>
-      <c r="J3" s="292" t="s">
+      <c r="I3" s="208"/>
+      <c r="J3" s="209" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="293"/>
-      <c r="L3" s="187" t="s">
+      <c r="K3" s="210"/>
+      <c r="L3" s="205" t="s">
         <v>108</v>
       </c>
       <c r="M3" s="24"/>
@@ -3362,7 +3378,7 @@
       <c r="U3" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="275" t="s">
+      <c r="V3" s="189" t="s">
         <v>143</v>
       </c>
       <c r="W3" s="63" t="s">
@@ -3375,21 +3391,21 @@
     </row>
     <row r="4" spans="1:27" ht="43.5" customHeight="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="287"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="289"/>
-      <c r="E4" s="188"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="206"/>
       <c r="H4" s="25" t="s">
         <v>109</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="294"/>
-      <c r="K4" s="295"/>
-      <c r="L4" s="188"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="212"/>
+      <c r="L4" s="206"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
@@ -3401,7 +3417,7 @@
       <c r="U4" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="V4" s="276"/>
+      <c r="V4" s="190"/>
       <c r="W4" s="63" t="s">
         <v>98</v>
       </c>
@@ -3412,17 +3428,17 @@
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="268"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
+      <c r="B5" s="213"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="213"/>
       <c r="E5" s="164"/>
       <c r="F5" s="164"/>
       <c r="G5" s="165"/>
       <c r="H5" s="164"/>
       <c r="I5" s="164"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="297"/>
-      <c r="L5" s="298"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="215"/>
+      <c r="L5" s="216"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
@@ -3443,17 +3459,17 @@
     </row>
     <row r="6" spans="1:27" ht="31.5" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="268"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
+      <c r="B6" s="213"/>
+      <c r="C6" s="213"/>
+      <c r="D6" s="213"/>
       <c r="E6" s="164"/>
       <c r="F6" s="164"/>
       <c r="G6" s="165"/>
       <c r="H6" s="164"/>
       <c r="I6" s="164"/>
-      <c r="J6" s="296"/>
-      <c r="K6" s="297"/>
-      <c r="L6" s="299"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="215"/>
+      <c r="L6" s="217"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
@@ -3472,17 +3488,17 @@
     </row>
     <row r="7" spans="1:27" ht="31.5" customHeight="1">
       <c r="A7" s="24"/>
-      <c r="B7" s="268"/>
-      <c r="C7" s="268"/>
-      <c r="D7" s="268"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
       <c r="E7" s="164"/>
       <c r="F7" s="164"/>
       <c r="G7" s="165"/>
       <c r="H7" s="164"/>
       <c r="I7" s="164"/>
-      <c r="J7" s="296"/>
-      <c r="K7" s="297"/>
-      <c r="L7" s="299"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="217"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
@@ -3501,17 +3517,17 @@
     </row>
     <row r="8" spans="1:27" ht="31.5" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="268"/>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
       <c r="E8" s="164"/>
       <c r="F8" s="164"/>
       <c r="G8" s="165"/>
       <c r="H8" s="164"/>
       <c r="I8" s="164"/>
-      <c r="J8" s="296"/>
-      <c r="K8" s="297"/>
-      <c r="L8" s="300"/>
+      <c r="J8" s="214"/>
+      <c r="K8" s="215"/>
+      <c r="L8" s="218"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -3549,23 +3565,23 @@
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="97"/>
-      <c r="U9" s="283"/>
-      <c r="V9" s="283"/>
-      <c r="W9" s="283"/>
-      <c r="X9" s="283"/>
+      <c r="U9" s="197"/>
+      <c r="V9" s="197"/>
+      <c r="W9" s="197"/>
+      <c r="X9" s="197"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
       <c r="AA9" s="31"/>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="271"/>
-      <c r="H10" s="271"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="222"/>
+      <c r="H10" s="222"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -3578,29 +3594,29 @@
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="97"/>
-      <c r="U10" s="281" t="s">
+      <c r="U10" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="277" t="s">
+      <c r="V10" s="191" t="s">
         <v>155</v>
       </c>
-      <c r="W10" s="278"/>
-      <c r="X10" s="279"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="193"/>
       <c r="Y10" s="65"/>
       <c r="Z10" s="65"/>
       <c r="AA10" s="65"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="272" t="s">
+      <c r="B11" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="272"/>
-      <c r="D11" s="272"/>
-      <c r="E11" s="273" t="s">
+      <c r="C11" s="223"/>
+      <c r="D11" s="223"/>
+      <c r="E11" s="224" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="273"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -3615,7 +3631,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
       <c r="T11" s="97"/>
-      <c r="U11" s="282"/>
+      <c r="U11" s="196"/>
       <c r="V11" s="49" t="s">
         <v>156</v>
       </c>
@@ -3631,11 +3647,11 @@
     </row>
     <row r="12" spans="1:27" ht="28.5" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="268"/>
-      <c r="C12" s="268"/>
-      <c r="D12" s="268"/>
-      <c r="E12" s="269"/>
-      <c r="F12" s="269"/>
+      <c r="B12" s="213"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="219"/>
+      <c r="F12" s="219"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -3662,11 +3678,11 @@
     </row>
     <row r="13" spans="1:27" ht="28.5" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="268"/>
-      <c r="C13" s="268"/>
-      <c r="D13" s="268"/>
-      <c r="E13" s="269"/>
-      <c r="F13" s="269"/>
+      <c r="B13" s="213"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="219"/>
+      <c r="F13" s="219"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -3691,11 +3707,11 @@
     </row>
     <row r="14" spans="1:27" ht="28.5" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="268"/>
-      <c r="C14" s="268"/>
-      <c r="D14" s="268"/>
-      <c r="E14" s="269"/>
-      <c r="F14" s="269"/>
+      <c r="B14" s="213"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="219"/>
+      <c r="F14" s="219"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -3720,11 +3736,11 @@
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="268"/>
-      <c r="C15" s="268"/>
-      <c r="D15" s="268"/>
-      <c r="E15" s="269"/>
-      <c r="F15" s="269"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="219"/>
+      <c r="F15" s="219"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -4010,10 +4026,10 @@
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="70"/>
-      <c r="U24" s="274"/>
-      <c r="V24" s="274"/>
-      <c r="W24" s="274"/>
-      <c r="X24" s="274"/>
+      <c r="U24" s="188"/>
+      <c r="V24" s="188"/>
+      <c r="W24" s="188"/>
+      <c r="X24" s="188"/>
       <c r="Y24" s="75"/>
       <c r="Z24" s="75"/>
       <c r="AA24" s="76"/>
@@ -4039,14 +4055,14 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
-      <c r="U25" s="280" t="s">
+      <c r="U25" s="194" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="280" t="s">
+      <c r="V25" s="194" t="s">
         <v>161</v>
       </c>
-      <c r="W25" s="280"/>
-      <c r="X25" s="280"/>
+      <c r="W25" s="194"/>
+      <c r="X25" s="194"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
@@ -4072,7 +4088,7 @@
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="55"/>
-      <c r="U26" s="280"/>
+      <c r="U26" s="194"/>
       <c r="V26" s="49" t="s">
         <v>162</v>
       </c>
@@ -4260,26 +4276,26 @@
       <c r="AA32" s="31"/>
     </row>
     <row r="33" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A33" s="237" t="s">
+      <c r="A33" s="220" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="237"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="237"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
       <c r="E33" s="34"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="238" t="s">
+      <c r="J33" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="K33" s="238"/>
-      <c r="L33" s="238"/>
-      <c r="M33" s="238"/>
-      <c r="N33" s="238"/>
-      <c r="O33" s="238"/>
-      <c r="P33" s="238"/>
+      <c r="K33" s="221"/>
+      <c r="L33" s="221"/>
+      <c r="M33" s="221"/>
+      <c r="N33" s="221"/>
+      <c r="O33" s="221"/>
+      <c r="P33" s="221"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="32"/>
       <c r="S33" s="32"/>
@@ -4293,26 +4309,26 @@
       <c r="AA33" s="36"/>
     </row>
     <row r="34" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A34" s="239" t="s">
+      <c r="A34" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="239"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="239"/>
+      <c r="B34" s="234"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
       <c r="E34" s="34"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="240" t="s">
+      <c r="J34" s="235" t="s">
         <v>119</v>
       </c>
-      <c r="K34" s="240"/>
-      <c r="L34" s="240"/>
-      <c r="M34" s="240"/>
-      <c r="N34" s="240"/>
-      <c r="O34" s="240"/>
-      <c r="P34" s="240"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="235"/>
+      <c r="M34" s="235"/>
+      <c r="N34" s="235"/>
+      <c r="O34" s="235"/>
+      <c r="P34" s="235"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
@@ -4355,24 +4371,24 @@
       <c r="AA35" s="31"/>
     </row>
     <row r="36" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A36" s="241" t="s">
+      <c r="A36" s="236" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="241"/>
-      <c r="C36" s="241"/>
-      <c r="D36" s="241"/>
-      <c r="E36" s="241"/>
-      <c r="F36" s="241"/>
-      <c r="G36" s="241"/>
-      <c r="H36" s="241"/>
-      <c r="I36" s="241"/>
-      <c r="J36" s="241"/>
-      <c r="K36" s="241"/>
-      <c r="L36" s="241"/>
-      <c r="M36" s="241"/>
-      <c r="N36" s="241"/>
-      <c r="O36" s="241"/>
-      <c r="P36" s="241"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="236"/>
+      <c r="D36" s="236"/>
+      <c r="E36" s="236"/>
+      <c r="F36" s="236"/>
+      <c r="G36" s="236"/>
+      <c r="H36" s="236"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="236"/>
+      <c r="K36" s="236"/>
+      <c r="L36" s="236"/>
+      <c r="M36" s="236"/>
+      <c r="N36" s="236"/>
+      <c r="O36" s="236"/>
+      <c r="P36" s="236"/>
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
       <c r="S36" s="41"/>
@@ -4386,22 +4402,22 @@
       <c r="AA36" s="31"/>
     </row>
     <row r="37" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A37" s="242"/>
-      <c r="B37" s="242"/>
-      <c r="C37" s="242"/>
-      <c r="D37" s="242"/>
-      <c r="E37" s="242"/>
-      <c r="F37" s="242"/>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242"/>
-      <c r="I37" s="242"/>
-      <c r="J37" s="242"/>
-      <c r="K37" s="242"/>
-      <c r="L37" s="242"/>
-      <c r="M37" s="242"/>
-      <c r="N37" s="242"/>
-      <c r="O37" s="242"/>
-      <c r="P37" s="242"/>
+      <c r="A37" s="237"/>
+      <c r="B37" s="237"/>
+      <c r="C37" s="237"/>
+      <c r="D37" s="237"/>
+      <c r="E37" s="237"/>
+      <c r="F37" s="237"/>
+      <c r="G37" s="237"/>
+      <c r="H37" s="237"/>
+      <c r="I37" s="237"/>
+      <c r="J37" s="237"/>
+      <c r="K37" s="237"/>
+      <c r="L37" s="237"/>
+      <c r="M37" s="237"/>
+      <c r="N37" s="237"/>
+      <c r="O37" s="237"/>
+      <c r="P37" s="237"/>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
@@ -4444,86 +4460,86 @@
       <c r="AA38" s="31"/>
     </row>
     <row r="39" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A39" s="208" t="s">
+      <c r="A39" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="208" t="s">
+      <c r="B39" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="208" t="s">
+      <c r="C39" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="247" t="s">
+      <c r="D39" s="241" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="217" t="s">
+      <c r="E39" s="244" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="223"/>
-      <c r="G39" s="218"/>
-      <c r="H39" s="247" t="s">
+      <c r="F39" s="245"/>
+      <c r="G39" s="246"/>
+      <c r="H39" s="241" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="217" t="s">
+      <c r="I39" s="244" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="223"/>
-      <c r="K39" s="223"/>
-      <c r="L39" s="218"/>
-      <c r="M39" s="217" t="s">
+      <c r="J39" s="245"/>
+      <c r="K39" s="245"/>
+      <c r="L39" s="246"/>
+      <c r="M39" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="223"/>
-      <c r="O39" s="223"/>
-      <c r="P39" s="218"/>
+      <c r="N39" s="245"/>
+      <c r="O39" s="245"/>
+      <c r="P39" s="246"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="47"/>
       <c r="S39" s="47"/>
       <c r="T39" s="47"/>
-      <c r="U39" s="261" t="s">
+      <c r="U39" s="225" t="s">
         <v>53</v>
       </c>
-      <c r="V39" s="261"/>
-      <c r="W39" s="261"/>
-      <c r="X39" s="261"/>
-      <c r="Y39" s="262"/>
-      <c r="Z39" s="263"/>
-      <c r="AA39" s="264"/>
+      <c r="V39" s="225"/>
+      <c r="W39" s="225"/>
+      <c r="X39" s="225"/>
+      <c r="Y39" s="226"/>
+      <c r="Z39" s="227"/>
+      <c r="AA39" s="228"/>
     </row>
     <row r="40" spans="1:27" ht="9.75" customHeight="1">
-      <c r="A40" s="209"/>
-      <c r="B40" s="209"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="221"/>
-      <c r="F40" s="225"/>
-      <c r="G40" s="222"/>
-      <c r="H40" s="248"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="225"/>
-      <c r="K40" s="225"/>
-      <c r="L40" s="222"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="225"/>
-      <c r="O40" s="225"/>
-      <c r="P40" s="222"/>
+      <c r="A40" s="239"/>
+      <c r="B40" s="239"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="242"/>
+      <c r="E40" s="247"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="249"/>
+      <c r="H40" s="242"/>
+      <c r="I40" s="247"/>
+      <c r="J40" s="248"/>
+      <c r="K40" s="248"/>
+      <c r="L40" s="249"/>
+      <c r="M40" s="247"/>
+      <c r="N40" s="248"/>
+      <c r="O40" s="248"/>
+      <c r="P40" s="249"/>
       <c r="Q40" s="47"/>
       <c r="R40" s="47"/>
       <c r="S40" s="47"/>
       <c r="T40" s="47"/>
-      <c r="U40" s="261"/>
-      <c r="V40" s="261"/>
-      <c r="W40" s="261"/>
-      <c r="X40" s="261"/>
-      <c r="Y40" s="265"/>
-      <c r="Z40" s="266"/>
-      <c r="AA40" s="267"/>
+      <c r="U40" s="225"/>
+      <c r="V40" s="225"/>
+      <c r="W40" s="225"/>
+      <c r="X40" s="225"/>
+      <c r="Y40" s="229"/>
+      <c r="Z40" s="230"/>
+      <c r="AA40" s="231"/>
     </row>
     <row r="41" spans="1:27" ht="45" customHeight="1">
-      <c r="A41" s="210"/>
-      <c r="B41" s="210"/>
-      <c r="C41" s="210"/>
-      <c r="D41" s="249"/>
+      <c r="A41" s="240"/>
+      <c r="B41" s="240"/>
+      <c r="C41" s="240"/>
+      <c r="D41" s="243"/>
       <c r="E41" s="48" t="s">
         <v>128</v>
       </c>
@@ -4533,28 +4549,28 @@
       <c r="G41" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="249"/>
-      <c r="I41" s="235" t="s">
+      <c r="H41" s="243"/>
+      <c r="I41" s="232" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="236"/>
-      <c r="K41" s="235" t="s">
+      <c r="J41" s="233"/>
+      <c r="K41" s="232" t="s">
         <v>132</v>
       </c>
-      <c r="L41" s="236"/>
-      <c r="M41" s="235" t="s">
+      <c r="L41" s="233"/>
+      <c r="M41" s="232" t="s">
         <v>133</v>
       </c>
-      <c r="N41" s="236"/>
-      <c r="O41" s="235" t="s">
+      <c r="N41" s="233"/>
+      <c r="O41" s="232" t="s">
         <v>132</v>
       </c>
-      <c r="P41" s="236"/>
+      <c r="P41" s="233"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="47"/>
       <c r="S41" s="47"/>
       <c r="T41" s="47"/>
-      <c r="U41" s="261"/>
+      <c r="U41" s="225"/>
       <c r="V41" s="49" t="s">
         <v>134</v>
       </c>
@@ -4583,14 +4599,14 @@
       <c r="F42" s="162"/>
       <c r="G42" s="162"/>
       <c r="H42" s="163"/>
-      <c r="I42" s="259"/>
-      <c r="J42" s="260"/>
-      <c r="K42" s="259"/>
-      <c r="L42" s="260"/>
-      <c r="M42" s="259"/>
-      <c r="N42" s="260"/>
-      <c r="O42" s="259"/>
-      <c r="P42" s="260"/>
+      <c r="I42" s="250"/>
+      <c r="J42" s="251"/>
+      <c r="K42" s="250"/>
+      <c r="L42" s="251"/>
+      <c r="M42" s="250"/>
+      <c r="N42" s="251"/>
+      <c r="O42" s="250"/>
+      <c r="P42" s="251"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
       <c r="S42" s="51"/>
@@ -4612,14 +4628,14 @@
       <c r="F43" s="162"/>
       <c r="G43" s="162"/>
       <c r="H43" s="163"/>
-      <c r="I43" s="259"/>
-      <c r="J43" s="260"/>
-      <c r="K43" s="259"/>
-      <c r="L43" s="260"/>
-      <c r="M43" s="259"/>
-      <c r="N43" s="260"/>
-      <c r="O43" s="259"/>
-      <c r="P43" s="260"/>
+      <c r="I43" s="250"/>
+      <c r="J43" s="251"/>
+      <c r="K43" s="250"/>
+      <c r="L43" s="251"/>
+      <c r="M43" s="250"/>
+      <c r="N43" s="251"/>
+      <c r="O43" s="250"/>
+      <c r="P43" s="251"/>
       <c r="Q43" s="51"/>
       <c r="R43" s="51"/>
       <c r="S43" s="51"/>
@@ -4641,14 +4657,14 @@
       <c r="F44" s="162"/>
       <c r="G44" s="162"/>
       <c r="H44" s="163"/>
-      <c r="I44" s="259"/>
-      <c r="J44" s="260"/>
-      <c r="K44" s="259"/>
-      <c r="L44" s="260"/>
-      <c r="M44" s="259"/>
-      <c r="N44" s="260"/>
-      <c r="O44" s="259"/>
-      <c r="P44" s="260"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="251"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="251"/>
+      <c r="M44" s="250"/>
+      <c r="N44" s="251"/>
+      <c r="O44" s="250"/>
+      <c r="P44" s="251"/>
       <c r="Q44" s="51"/>
       <c r="R44" s="51"/>
       <c r="S44" s="51"/>
@@ -4670,14 +4686,14 @@
       <c r="F45" s="162"/>
       <c r="G45" s="162"/>
       <c r="H45" s="163"/>
-      <c r="I45" s="259"/>
-      <c r="J45" s="260"/>
-      <c r="K45" s="259"/>
-      <c r="L45" s="260"/>
-      <c r="M45" s="259"/>
-      <c r="N45" s="260"/>
-      <c r="O45" s="259"/>
-      <c r="P45" s="260"/>
+      <c r="I45" s="250"/>
+      <c r="J45" s="251"/>
+      <c r="K45" s="250"/>
+      <c r="L45" s="251"/>
+      <c r="M45" s="250"/>
+      <c r="N45" s="251"/>
+      <c r="O45" s="250"/>
+      <c r="P45" s="251"/>
       <c r="Q45" s="51"/>
       <c r="R45" s="51"/>
       <c r="S45" s="51"/>
@@ -4729,60 +4745,60 @@
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="189"/>
-      <c r="K47" s="189"/>
-      <c r="L47" s="189"/>
-      <c r="M47" s="189"/>
-      <c r="N47" s="189"/>
-      <c r="O47" s="189"/>
-      <c r="P47" s="189"/>
+      <c r="J47" s="252"/>
+      <c r="K47" s="252"/>
+      <c r="L47" s="252"/>
+      <c r="M47" s="252"/>
+      <c r="N47" s="252"/>
+      <c r="O47" s="252"/>
+      <c r="P47" s="252"/>
       <c r="Q47" s="55"/>
       <c r="R47" s="55"/>
       <c r="S47" s="55"/>
       <c r="T47" s="55"/>
-      <c r="U47" s="250" t="s">
+      <c r="U47" s="253" t="s">
         <v>53</v>
       </c>
-      <c r="V47" s="253" t="s">
+      <c r="V47" s="256" t="s">
         <v>137</v>
       </c>
-      <c r="W47" s="254"/>
-      <c r="X47" s="255"/>
+      <c r="W47" s="257"/>
+      <c r="X47" s="258"/>
       <c r="Y47" s="56"/>
       <c r="Z47" s="56"/>
       <c r="AA47" s="56"/>
     </row>
     <row r="48" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A48" s="190" t="s">
+      <c r="A48" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="190"/>
-      <c r="C48" s="191" t="s">
+      <c r="B48" s="262"/>
+      <c r="C48" s="263" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="191"/>
-      <c r="E48" s="191"/>
-      <c r="F48" s="191"/>
-      <c r="G48" s="192" t="s">
+      <c r="D48" s="263"/>
+      <c r="E48" s="263"/>
+      <c r="F48" s="263"/>
+      <c r="G48" s="264" t="s">
         <v>140</v>
       </c>
-      <c r="H48" s="192"/>
-      <c r="I48" s="192"/>
-      <c r="J48" s="192"/>
-      <c r="K48" s="192"/>
-      <c r="L48" s="192"/>
-      <c r="M48" s="192"/>
-      <c r="N48" s="192"/>
-      <c r="O48" s="192"/>
-      <c r="P48" s="192"/>
+      <c r="H48" s="264"/>
+      <c r="I48" s="264"/>
+      <c r="J48" s="264"/>
+      <c r="K48" s="264"/>
+      <c r="L48" s="264"/>
+      <c r="M48" s="264"/>
+      <c r="N48" s="264"/>
+      <c r="O48" s="264"/>
+      <c r="P48" s="264"/>
       <c r="Q48" s="57"/>
       <c r="R48" s="57"/>
       <c r="S48" s="57"/>
       <c r="T48" s="57"/>
-      <c r="U48" s="251"/>
-      <c r="V48" s="256"/>
-      <c r="W48" s="257"/>
-      <c r="X48" s="258"/>
+      <c r="U48" s="254"/>
+      <c r="V48" s="259"/>
+      <c r="W48" s="260"/>
+      <c r="X48" s="261"/>
       <c r="Y48" s="56"/>
       <c r="Z48" s="56"/>
       <c r="AA48" s="56"/>
@@ -4797,18 +4813,18 @@
       <c r="G49" s="57"/>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
-      <c r="J49" s="192"/>
-      <c r="K49" s="192"/>
-      <c r="L49" s="192"/>
-      <c r="M49" s="192"/>
-      <c r="N49" s="192"/>
-      <c r="O49" s="192"/>
-      <c r="P49" s="192"/>
+      <c r="J49" s="264"/>
+      <c r="K49" s="264"/>
+      <c r="L49" s="264"/>
+      <c r="M49" s="264"/>
+      <c r="N49" s="264"/>
+      <c r="O49" s="264"/>
+      <c r="P49" s="264"/>
       <c r="Q49" s="57"/>
       <c r="R49" s="57"/>
       <c r="S49" s="57"/>
       <c r="T49" s="57"/>
-      <c r="U49" s="252"/>
+      <c r="U49" s="255"/>
       <c r="V49" s="49" t="s">
         <v>134</v>
       </c>
@@ -4948,15 +4964,15 @@
       <c r="G54" s="60"/>
       <c r="H54" s="60"/>
       <c r="I54" s="60"/>
-      <c r="J54" s="246" t="s">
+      <c r="J54" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="K54" s="246"/>
-      <c r="L54" s="246"/>
-      <c r="M54" s="246"/>
-      <c r="N54" s="246"/>
-      <c r="O54" s="246"/>
-      <c r="P54" s="246"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="187"/>
+      <c r="O54" s="187"/>
+      <c r="P54" s="187"/>
       <c r="Q54" s="60"/>
       <c r="R54" s="60"/>
       <c r="S54" s="60"/>
@@ -5440,26 +5456,26 @@
       <c r="AD70" s="32"/>
     </row>
     <row r="71" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A71" s="237" t="s">
+      <c r="A71" s="220" t="s">
         <v>116</v>
       </c>
-      <c r="B71" s="237"/>
-      <c r="C71" s="237"/>
-      <c r="D71" s="237"/>
+      <c r="B71" s="220"/>
+      <c r="C71" s="220"/>
+      <c r="D71" s="220"/>
       <c r="E71" s="34"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="34"/>
-      <c r="J71" s="238" t="s">
+      <c r="J71" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="K71" s="238"/>
-      <c r="L71" s="238"/>
-      <c r="M71" s="238"/>
-      <c r="N71" s="238"/>
-      <c r="O71" s="238"/>
-      <c r="P71" s="238"/>
+      <c r="K71" s="221"/>
+      <c r="L71" s="221"/>
+      <c r="M71" s="221"/>
+      <c r="N71" s="221"/>
+      <c r="O71" s="221"/>
+      <c r="P71" s="221"/>
       <c r="Q71" s="34"/>
       <c r="R71" s="34"/>
       <c r="S71" s="34"/>
@@ -5476,26 +5492,26 @@
       <c r="AD71" s="32"/>
     </row>
     <row r="72" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A72" s="239" t="s">
+      <c r="A72" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="239"/>
-      <c r="C72" s="239"/>
-      <c r="D72" s="239"/>
+      <c r="B72" s="234"/>
+      <c r="C72" s="234"/>
+      <c r="D72" s="234"/>
       <c r="E72" s="34"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
       <c r="I72" s="34"/>
-      <c r="J72" s="240" t="s">
+      <c r="J72" s="235" t="s">
         <v>119</v>
       </c>
-      <c r="K72" s="240"/>
-      <c r="L72" s="240"/>
-      <c r="M72" s="240"/>
-      <c r="N72" s="240"/>
-      <c r="O72" s="240"/>
-      <c r="P72" s="240"/>
+      <c r="K72" s="235"/>
+      <c r="L72" s="235"/>
+      <c r="M72" s="235"/>
+      <c r="N72" s="235"/>
+      <c r="O72" s="235"/>
+      <c r="P72" s="235"/>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
       <c r="S72" s="35"/>
@@ -5531,39 +5547,39 @@
       <c r="Q73" s="32"/>
       <c r="R73" s="32"/>
       <c r="S73" s="32"/>
-      <c r="T73" s="246" t="s">
+      <c r="T73" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="U73" s="246"/>
-      <c r="V73" s="246"/>
-      <c r="W73" s="246"/>
-      <c r="X73" s="246"/>
-      <c r="Y73" s="246"/>
-      <c r="Z73" s="246"/>
+      <c r="U73" s="187"/>
+      <c r="V73" s="187"/>
+      <c r="W73" s="187"/>
+      <c r="X73" s="187"/>
+      <c r="Y73" s="187"/>
+      <c r="Z73" s="187"/>
       <c r="AA73" s="60"/>
       <c r="AB73" s="60"/>
       <c r="AC73" s="60"/>
       <c r="AD73" s="60"/>
     </row>
     <row r="74" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A74" s="241" t="s">
+      <c r="A74" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="241"/>
-      <c r="C74" s="241"/>
-      <c r="D74" s="241"/>
-      <c r="E74" s="241"/>
-      <c r="F74" s="241"/>
-      <c r="G74" s="241"/>
-      <c r="H74" s="241"/>
-      <c r="I74" s="241"/>
-      <c r="J74" s="241"/>
-      <c r="K74" s="241"/>
-      <c r="L74" s="241"/>
-      <c r="M74" s="241"/>
-      <c r="N74" s="241"/>
-      <c r="O74" s="241"/>
-      <c r="P74" s="241"/>
+      <c r="B74" s="236"/>
+      <c r="C74" s="236"/>
+      <c r="D74" s="236"/>
+      <c r="E74" s="236"/>
+      <c r="F74" s="236"/>
+      <c r="G74" s="236"/>
+      <c r="H74" s="236"/>
+      <c r="I74" s="236"/>
+      <c r="J74" s="236"/>
+      <c r="K74" s="236"/>
+      <c r="L74" s="236"/>
+      <c r="M74" s="236"/>
+      <c r="N74" s="236"/>
+      <c r="O74" s="236"/>
+      <c r="P74" s="236"/>
       <c r="Q74" s="41"/>
       <c r="R74" s="41"/>
       <c r="S74" s="41"/>
@@ -5580,22 +5596,22 @@
       <c r="AD74" s="61"/>
     </row>
     <row r="75" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A75" s="242"/>
-      <c r="B75" s="242"/>
-      <c r="C75" s="242"/>
-      <c r="D75" s="242"/>
-      <c r="E75" s="242"/>
-      <c r="F75" s="242"/>
-      <c r="G75" s="242"/>
-      <c r="H75" s="242"/>
-      <c r="I75" s="242"/>
-      <c r="J75" s="242"/>
-      <c r="K75" s="242"/>
-      <c r="L75" s="242"/>
-      <c r="M75" s="242"/>
-      <c r="N75" s="242"/>
-      <c r="O75" s="242"/>
-      <c r="P75" s="242"/>
+      <c r="A75" s="237"/>
+      <c r="B75" s="237"/>
+      <c r="C75" s="237"/>
+      <c r="D75" s="237"/>
+      <c r="E75" s="237"/>
+      <c r="F75" s="237"/>
+      <c r="G75" s="237"/>
+      <c r="H75" s="237"/>
+      <c r="I75" s="237"/>
+      <c r="J75" s="237"/>
+      <c r="K75" s="237"/>
+      <c r="L75" s="237"/>
+      <c r="M75" s="237"/>
+      <c r="N75" s="237"/>
+      <c r="O75" s="237"/>
+      <c r="P75" s="237"/>
       <c r="Q75" s="44"/>
       <c r="R75" s="44"/>
       <c r="S75" s="44"/>
@@ -5646,46 +5662,46 @@
       <c r="AD76" s="61"/>
     </row>
     <row r="77" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A77" s="208" t="s">
+      <c r="A77" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="208" t="s">
+      <c r="B77" s="238" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="208" t="s">
+      <c r="C77" s="238" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="247" t="s">
+      <c r="D77" s="241" t="s">
         <v>123</v>
       </c>
-      <c r="E77" s="217" t="s">
+      <c r="E77" s="244" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="223"/>
-      <c r="G77" s="218"/>
-      <c r="H77" s="217" t="s">
+      <c r="F77" s="245"/>
+      <c r="G77" s="246"/>
+      <c r="H77" s="244" t="s">
         <v>147</v>
       </c>
-      <c r="I77" s="218"/>
-      <c r="J77" s="217" t="s">
+      <c r="I77" s="246"/>
+      <c r="J77" s="244" t="s">
         <v>148</v>
       </c>
-      <c r="K77" s="218"/>
-      <c r="L77" s="217" t="s">
+      <c r="K77" s="246"/>
+      <c r="L77" s="244" t="s">
         <v>149</v>
       </c>
-      <c r="M77" s="218"/>
-      <c r="N77" s="217" t="s">
+      <c r="M77" s="246"/>
+      <c r="N77" s="244" t="s">
         <v>150</v>
       </c>
-      <c r="O77" s="218"/>
-      <c r="P77" s="203" t="s">
+      <c r="O77" s="246"/>
+      <c r="P77" s="265" t="s">
         <v>151</v>
       </c>
-      <c r="Q77" s="203" t="s">
+      <c r="Q77" s="265" t="s">
         <v>152</v>
       </c>
-      <c r="R77" s="203" t="s">
+      <c r="R77" s="265" t="s">
         <v>153</v>
       </c>
       <c r="S77" s="64"/>
@@ -5702,24 +5718,24 @@
       <c r="AD77" s="61"/>
     </row>
     <row r="78" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A78" s="209"/>
-      <c r="B78" s="209"/>
-      <c r="C78" s="209"/>
-      <c r="D78" s="248"/>
-      <c r="E78" s="221"/>
-      <c r="F78" s="225"/>
-      <c r="G78" s="222"/>
-      <c r="H78" s="221"/>
-      <c r="I78" s="222"/>
-      <c r="J78" s="221"/>
-      <c r="K78" s="222"/>
-      <c r="L78" s="221"/>
-      <c r="M78" s="222"/>
-      <c r="N78" s="221"/>
-      <c r="O78" s="222"/>
-      <c r="P78" s="204"/>
-      <c r="Q78" s="204"/>
-      <c r="R78" s="204"/>
+      <c r="A78" s="239"/>
+      <c r="B78" s="239"/>
+      <c r="C78" s="239"/>
+      <c r="D78" s="242"/>
+      <c r="E78" s="247"/>
+      <c r="F78" s="248"/>
+      <c r="G78" s="249"/>
+      <c r="H78" s="247"/>
+      <c r="I78" s="249"/>
+      <c r="J78" s="247"/>
+      <c r="K78" s="249"/>
+      <c r="L78" s="247"/>
+      <c r="M78" s="249"/>
+      <c r="N78" s="247"/>
+      <c r="O78" s="249"/>
+      <c r="P78" s="266"/>
+      <c r="Q78" s="266"/>
+      <c r="R78" s="266"/>
       <c r="S78" s="31"/>
       <c r="T78" s="61"/>
       <c r="U78" s="61"/>
@@ -5734,46 +5750,46 @@
       <c r="AD78" s="61"/>
     </row>
     <row r="79" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A79" s="209"/>
-      <c r="B79" s="209"/>
-      <c r="C79" s="209"/>
-      <c r="D79" s="248"/>
-      <c r="E79" s="206" t="s">
+      <c r="A79" s="239"/>
+      <c r="B79" s="239"/>
+      <c r="C79" s="239"/>
+      <c r="D79" s="242"/>
+      <c r="E79" s="268" t="s">
         <v>128</v>
       </c>
-      <c r="F79" s="206" t="s">
+      <c r="F79" s="268" t="s">
         <v>129</v>
       </c>
-      <c r="G79" s="206" t="s">
+      <c r="G79" s="268" t="s">
         <v>130</v>
       </c>
-      <c r="H79" s="206" t="s">
+      <c r="H79" s="268" t="s">
         <v>154</v>
       </c>
-      <c r="I79" s="206" t="s">
+      <c r="I79" s="268" t="s">
         <v>132</v>
       </c>
-      <c r="J79" s="206" t="s">
+      <c r="J79" s="268" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="206" t="s">
+      <c r="K79" s="268" t="s">
         <v>132</v>
       </c>
-      <c r="L79" s="206" t="s">
+      <c r="L79" s="268" t="s">
         <v>128</v>
       </c>
-      <c r="M79" s="206" t="s">
+      <c r="M79" s="268" t="s">
         <v>130</v>
       </c>
-      <c r="N79" s="206" t="s">
+      <c r="N79" s="268" t="s">
         <v>133</v>
       </c>
-      <c r="O79" s="206" t="s">
+      <c r="O79" s="268" t="s">
         <v>132</v>
       </c>
-      <c r="P79" s="204"/>
-      <c r="Q79" s="204"/>
-      <c r="R79" s="204"/>
+      <c r="P79" s="266"/>
+      <c r="Q79" s="266"/>
+      <c r="R79" s="266"/>
       <c r="S79" s="31"/>
       <c r="T79" s="61"/>
       <c r="U79" s="61"/>
@@ -5788,24 +5804,24 @@
       <c r="AD79" s="61"/>
     </row>
     <row r="80" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A80" s="210"/>
-      <c r="B80" s="210"/>
-      <c r="C80" s="210"/>
-      <c r="D80" s="249"/>
-      <c r="E80" s="207"/>
-      <c r="F80" s="207"/>
-      <c r="G80" s="207"/>
-      <c r="H80" s="207"/>
-      <c r="I80" s="207"/>
-      <c r="J80" s="207"/>
-      <c r="K80" s="207"/>
-      <c r="L80" s="207"/>
-      <c r="M80" s="207"/>
-      <c r="N80" s="207"/>
-      <c r="O80" s="207"/>
-      <c r="P80" s="205"/>
-      <c r="Q80" s="205"/>
-      <c r="R80" s="205"/>
+      <c r="A80" s="240"/>
+      <c r="B80" s="240"/>
+      <c r="C80" s="240"/>
+      <c r="D80" s="243"/>
+      <c r="E80" s="269"/>
+      <c r="F80" s="269"/>
+      <c r="G80" s="269"/>
+      <c r="H80" s="269"/>
+      <c r="I80" s="269"/>
+      <c r="J80" s="269"/>
+      <c r="K80" s="269"/>
+      <c r="L80" s="269"/>
+      <c r="M80" s="269"/>
+      <c r="N80" s="269"/>
+      <c r="O80" s="269"/>
+      <c r="P80" s="267"/>
+      <c r="Q80" s="267"/>
+      <c r="R80" s="267"/>
       <c r="S80" s="66"/>
       <c r="T80" s="61"/>
       <c r="U80" s="61"/>
@@ -5826,22 +5842,22 @@
       <c r="B81" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="243"/>
-      <c r="D81" s="244"/>
-      <c r="E81" s="244"/>
-      <c r="F81" s="244"/>
-      <c r="G81" s="244"/>
-      <c r="H81" s="244"/>
-      <c r="I81" s="244"/>
-      <c r="J81" s="244"/>
-      <c r="K81" s="244"/>
-      <c r="L81" s="244"/>
-      <c r="M81" s="244"/>
-      <c r="N81" s="244"/>
-      <c r="O81" s="244"/>
-      <c r="P81" s="244"/>
-      <c r="Q81" s="244"/>
-      <c r="R81" s="245"/>
+      <c r="C81" s="288"/>
+      <c r="D81" s="289"/>
+      <c r="E81" s="289"/>
+      <c r="F81" s="289"/>
+      <c r="G81" s="289"/>
+      <c r="H81" s="289"/>
+      <c r="I81" s="289"/>
+      <c r="J81" s="289"/>
+      <c r="K81" s="289"/>
+      <c r="L81" s="289"/>
+      <c r="M81" s="289"/>
+      <c r="N81" s="289"/>
+      <c r="O81" s="289"/>
+      <c r="P81" s="289"/>
+      <c r="Q81" s="289"/>
+      <c r="R81" s="290"/>
       <c r="S81" s="67"/>
       <c r="T81" s="61"/>
       <c r="U81" s="61"/>
@@ -5990,22 +6006,22 @@
       <c r="B86" s="177" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="243"/>
-      <c r="D86" s="244"/>
-      <c r="E86" s="244"/>
-      <c r="F86" s="244"/>
-      <c r="G86" s="244"/>
-      <c r="H86" s="244"/>
-      <c r="I86" s="244"/>
-      <c r="J86" s="244"/>
-      <c r="K86" s="244"/>
-      <c r="L86" s="244"/>
-      <c r="M86" s="244"/>
-      <c r="N86" s="244"/>
-      <c r="O86" s="244"/>
-      <c r="P86" s="244"/>
-      <c r="Q86" s="244"/>
-      <c r="R86" s="245"/>
+      <c r="C86" s="288"/>
+      <c r="D86" s="289"/>
+      <c r="E86" s="289"/>
+      <c r="F86" s="289"/>
+      <c r="G86" s="289"/>
+      <c r="H86" s="289"/>
+      <c r="I86" s="289"/>
+      <c r="J86" s="289"/>
+      <c r="K86" s="289"/>
+      <c r="L86" s="289"/>
+      <c r="M86" s="289"/>
+      <c r="N86" s="289"/>
+      <c r="O86" s="289"/>
+      <c r="P86" s="289"/>
+      <c r="Q86" s="289"/>
+      <c r="R86" s="290"/>
       <c r="S86" s="69"/>
       <c r="T86" s="61"/>
       <c r="U86" s="61"/>
@@ -6179,13 +6195,13 @@
       <c r="G92" s="32"/>
       <c r="H92" s="32"/>
       <c r="I92" s="32"/>
-      <c r="J92" s="189"/>
-      <c r="K92" s="189"/>
-      <c r="L92" s="189"/>
-      <c r="M92" s="189"/>
-      <c r="N92" s="189"/>
-      <c r="O92" s="189"/>
-      <c r="P92" s="189"/>
+      <c r="J92" s="252"/>
+      <c r="K92" s="252"/>
+      <c r="L92" s="252"/>
+      <c r="M92" s="252"/>
+      <c r="N92" s="252"/>
+      <c r="O92" s="252"/>
+      <c r="P92" s="252"/>
       <c r="Q92" s="55"/>
       <c r="R92" s="55"/>
       <c r="S92" s="69"/>
@@ -6199,28 +6215,28 @@
       <c r="AA92" s="31"/>
     </row>
     <row r="93" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A93" s="190" t="s">
+      <c r="A93" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B93" s="190"/>
-      <c r="C93" s="191" t="s">
+      <c r="B93" s="262"/>
+      <c r="C93" s="263" t="s">
         <v>139</v>
       </c>
-      <c r="D93" s="191"/>
-      <c r="E93" s="191"/>
-      <c r="F93" s="191"/>
-      <c r="G93" s="192" t="s">
+      <c r="D93" s="263"/>
+      <c r="E93" s="263"/>
+      <c r="F93" s="263"/>
+      <c r="G93" s="264" t="s">
         <v>140</v>
       </c>
-      <c r="H93" s="192"/>
-      <c r="I93" s="192"/>
-      <c r="J93" s="192"/>
-      <c r="K93" s="192"/>
-      <c r="L93" s="192"/>
-      <c r="M93" s="192"/>
-      <c r="N93" s="192"/>
-      <c r="O93" s="192"/>
-      <c r="P93" s="192"/>
+      <c r="H93" s="264"/>
+      <c r="I93" s="264"/>
+      <c r="J93" s="264"/>
+      <c r="K93" s="264"/>
+      <c r="L93" s="264"/>
+      <c r="M93" s="264"/>
+      <c r="N93" s="264"/>
+      <c r="O93" s="264"/>
+      <c r="P93" s="264"/>
       <c r="Q93" s="78"/>
       <c r="R93" s="78"/>
       <c r="S93" s="69"/>
@@ -6243,13 +6259,13 @@
       <c r="G94" s="57"/>
       <c r="H94" s="57"/>
       <c r="I94" s="57"/>
-      <c r="J94" s="192"/>
-      <c r="K94" s="192"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="192"/>
-      <c r="O94" s="192"/>
-      <c r="P94" s="192"/>
+      <c r="J94" s="264"/>
+      <c r="K94" s="264"/>
+      <c r="L94" s="264"/>
+      <c r="M94" s="264"/>
+      <c r="N94" s="264"/>
+      <c r="O94" s="264"/>
+      <c r="P94" s="264"/>
       <c r="Q94" s="78"/>
       <c r="R94" s="78"/>
       <c r="S94" s="32"/>
@@ -6388,16 +6404,16 @@
       <c r="G99" s="60"/>
       <c r="H99" s="60"/>
       <c r="I99" s="60"/>
-      <c r="J99" s="246" t="str">
+      <c r="J99" s="187" t="str">
         <f>J54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K99" s="246"/>
-      <c r="L99" s="246"/>
-      <c r="M99" s="246"/>
-      <c r="N99" s="246"/>
-      <c r="O99" s="246"/>
-      <c r="P99" s="246"/>
+      <c r="K99" s="187"/>
+      <c r="L99" s="187"/>
+      <c r="M99" s="187"/>
+      <c r="N99" s="187"/>
+      <c r="O99" s="187"/>
+      <c r="P99" s="187"/>
       <c r="Q99" s="60"/>
       <c r="R99" s="60"/>
       <c r="S99" s="32"/>
@@ -6614,26 +6630,26 @@
       <c r="AA106" s="32"/>
     </row>
     <row r="107" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A107" s="237" t="s">
+      <c r="A107" s="220" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="237"/>
-      <c r="C107" s="237"/>
-      <c r="D107" s="237"/>
+      <c r="B107" s="220"/>
+      <c r="C107" s="220"/>
+      <c r="D107" s="220"/>
       <c r="E107" s="34"/>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
       <c r="I107" s="34"/>
-      <c r="J107" s="238" t="s">
+      <c r="J107" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="K107" s="238"/>
-      <c r="L107" s="238"/>
-      <c r="M107" s="238"/>
-      <c r="N107" s="238"/>
-      <c r="O107" s="238"/>
-      <c r="P107" s="238"/>
+      <c r="K107" s="221"/>
+      <c r="L107" s="221"/>
+      <c r="M107" s="221"/>
+      <c r="N107" s="221"/>
+      <c r="O107" s="221"/>
+      <c r="P107" s="221"/>
       <c r="Q107" s="34"/>
       <c r="R107" s="34"/>
       <c r="S107" s="32"/>
@@ -6647,38 +6663,38 @@
       <c r="AA107" s="32"/>
     </row>
     <row r="108" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A108" s="239" t="s">
+      <c r="A108" s="234" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="239"/>
-      <c r="C108" s="239"/>
-      <c r="D108" s="239"/>
+      <c r="B108" s="234"/>
+      <c r="C108" s="234"/>
+      <c r="D108" s="234"/>
       <c r="E108" s="34"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
       <c r="I108" s="34"/>
-      <c r="J108" s="240" t="s">
+      <c r="J108" s="235" t="s">
         <v>119</v>
       </c>
-      <c r="K108" s="240"/>
-      <c r="L108" s="240"/>
-      <c r="M108" s="240"/>
-      <c r="N108" s="240"/>
-      <c r="O108" s="240"/>
-      <c r="P108" s="240"/>
+      <c r="K108" s="235"/>
+      <c r="L108" s="235"/>
+      <c r="M108" s="235"/>
+      <c r="N108" s="235"/>
+      <c r="O108" s="235"/>
+      <c r="P108" s="235"/>
       <c r="Q108" s="35"/>
       <c r="R108" s="35"/>
       <c r="S108" s="32"/>
-      <c r="T108" s="246" t="s">
+      <c r="T108" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="U108" s="246"/>
-      <c r="V108" s="246"/>
-      <c r="W108" s="246"/>
-      <c r="X108" s="246"/>
-      <c r="Y108" s="246"/>
-      <c r="Z108" s="246"/>
+      <c r="U108" s="187"/>
+      <c r="V108" s="187"/>
+      <c r="W108" s="187"/>
+      <c r="X108" s="187"/>
+      <c r="Y108" s="187"/>
+      <c r="Z108" s="187"/>
       <c r="AA108" s="60"/>
     </row>
     <row r="109" spans="1:27" ht="24.75" customHeight="1">
@@ -6711,24 +6727,24 @@
       <c r="AA109" s="61"/>
     </row>
     <row r="110" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A110" s="241" t="s">
+      <c r="A110" s="236" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="241"/>
-      <c r="C110" s="241"/>
-      <c r="D110" s="241"/>
-      <c r="E110" s="241"/>
-      <c r="F110" s="241"/>
-      <c r="G110" s="241"/>
-      <c r="H110" s="241"/>
-      <c r="I110" s="241"/>
-      <c r="J110" s="241"/>
-      <c r="K110" s="241"/>
-      <c r="L110" s="241"/>
-      <c r="M110" s="241"/>
-      <c r="N110" s="241"/>
-      <c r="O110" s="241"/>
-      <c r="P110" s="241"/>
+      <c r="B110" s="236"/>
+      <c r="C110" s="236"/>
+      <c r="D110" s="236"/>
+      <c r="E110" s="236"/>
+      <c r="F110" s="236"/>
+      <c r="G110" s="236"/>
+      <c r="H110" s="236"/>
+      <c r="I110" s="236"/>
+      <c r="J110" s="236"/>
+      <c r="K110" s="236"/>
+      <c r="L110" s="236"/>
+      <c r="M110" s="236"/>
+      <c r="N110" s="236"/>
+      <c r="O110" s="236"/>
+      <c r="P110" s="236"/>
       <c r="Q110" s="41"/>
       <c r="R110" s="41"/>
       <c r="S110" s="34"/>
@@ -6742,25 +6758,25 @@
       <c r="AA110" s="61"/>
     </row>
     <row r="111" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A111" s="242">
+      <c r="A111" s="237">
         <f>A37</f>
         <v>0</v>
       </c>
-      <c r="B111" s="242"/>
-      <c r="C111" s="242"/>
-      <c r="D111" s="242"/>
-      <c r="E111" s="242"/>
-      <c r="F111" s="242"/>
-      <c r="G111" s="242"/>
-      <c r="H111" s="242"/>
-      <c r="I111" s="242"/>
-      <c r="J111" s="242"/>
-      <c r="K111" s="242"/>
-      <c r="L111" s="242"/>
-      <c r="M111" s="242"/>
-      <c r="N111" s="242"/>
-      <c r="O111" s="242"/>
-      <c r="P111" s="242"/>
+      <c r="B111" s="237"/>
+      <c r="C111" s="237"/>
+      <c r="D111" s="237"/>
+      <c r="E111" s="237"/>
+      <c r="F111" s="237"/>
+      <c r="G111" s="237"/>
+      <c r="H111" s="237"/>
+      <c r="I111" s="237"/>
+      <c r="J111" s="237"/>
+      <c r="K111" s="237"/>
+      <c r="L111" s="237"/>
+      <c r="M111" s="237"/>
+      <c r="N111" s="237"/>
+      <c r="O111" s="237"/>
+      <c r="P111" s="237"/>
       <c r="Q111" s="44"/>
       <c r="R111" s="44"/>
       <c r="S111" s="35"/>
@@ -6803,34 +6819,34 @@
       <c r="AA112" s="61"/>
     </row>
     <row r="113" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A113" s="208" t="s">
+      <c r="A113" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="211" t="s">
+      <c r="B113" s="270" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="212"/>
-      <c r="D113" s="217" t="s">
+      <c r="C113" s="271"/>
+      <c r="D113" s="244" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="218"/>
-      <c r="F113" s="217" t="s">
+      <c r="E113" s="246"/>
+      <c r="F113" s="244" t="s">
         <v>123</v>
       </c>
-      <c r="G113" s="223"/>
-      <c r="H113" s="218"/>
-      <c r="I113" s="217" t="s">
+      <c r="G113" s="245"/>
+      <c r="H113" s="246"/>
+      <c r="I113" s="244" t="s">
         <v>165</v>
       </c>
-      <c r="J113" s="223"/>
-      <c r="K113" s="223"/>
-      <c r="L113" s="218"/>
-      <c r="M113" s="226" t="s">
+      <c r="J113" s="245"/>
+      <c r="K113" s="245"/>
+      <c r="L113" s="246"/>
+      <c r="M113" s="279" t="s">
         <v>166</v>
       </c>
-      <c r="N113" s="227"/>
-      <c r="O113" s="227"/>
-      <c r="P113" s="228"/>
+      <c r="N113" s="280"/>
+      <c r="O113" s="280"/>
+      <c r="P113" s="281"/>
       <c r="Q113" s="81"/>
       <c r="R113" s="81"/>
       <c r="S113" s="41"/>
@@ -6844,22 +6860,22 @@
       <c r="AA113" s="61"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1">
-      <c r="A114" s="209"/>
-      <c r="B114" s="213"/>
-      <c r="C114" s="214"/>
-      <c r="D114" s="219"/>
-      <c r="E114" s="220"/>
-      <c r="F114" s="219"/>
-      <c r="G114" s="224"/>
-      <c r="H114" s="220"/>
-      <c r="I114" s="221"/>
-      <c r="J114" s="225"/>
-      <c r="K114" s="225"/>
-      <c r="L114" s="222"/>
-      <c r="M114" s="229"/>
-      <c r="N114" s="230"/>
-      <c r="O114" s="230"/>
-      <c r="P114" s="231"/>
+      <c r="A114" s="239"/>
+      <c r="B114" s="272"/>
+      <c r="C114" s="273"/>
+      <c r="D114" s="276"/>
+      <c r="E114" s="277"/>
+      <c r="F114" s="276"/>
+      <c r="G114" s="278"/>
+      <c r="H114" s="277"/>
+      <c r="I114" s="247"/>
+      <c r="J114" s="248"/>
+      <c r="K114" s="248"/>
+      <c r="L114" s="249"/>
+      <c r="M114" s="282"/>
+      <c r="N114" s="283"/>
+      <c r="O114" s="283"/>
+      <c r="P114" s="284"/>
       <c r="Q114" s="81"/>
       <c r="R114" s="81"/>
       <c r="S114" s="44"/>
@@ -6873,26 +6889,26 @@
       <c r="AA114" s="61"/>
     </row>
     <row r="115" spans="1:27" ht="42.75" customHeight="1">
-      <c r="A115" s="210"/>
-      <c r="B115" s="215"/>
-      <c r="C115" s="216"/>
-      <c r="D115" s="221"/>
-      <c r="E115" s="222"/>
-      <c r="F115" s="221"/>
-      <c r="G115" s="225"/>
-      <c r="H115" s="222"/>
-      <c r="I115" s="235" t="s">
+      <c r="A115" s="240"/>
+      <c r="B115" s="274"/>
+      <c r="C115" s="275"/>
+      <c r="D115" s="247"/>
+      <c r="E115" s="249"/>
+      <c r="F115" s="247"/>
+      <c r="G115" s="248"/>
+      <c r="H115" s="249"/>
+      <c r="I115" s="232" t="s">
         <v>167</v>
       </c>
-      <c r="J115" s="236"/>
-      <c r="K115" s="235" t="s">
+      <c r="J115" s="233"/>
+      <c r="K115" s="232" t="s">
         <v>168</v>
       </c>
-      <c r="L115" s="236"/>
-      <c r="M115" s="232"/>
-      <c r="N115" s="233"/>
-      <c r="O115" s="233"/>
-      <c r="P115" s="234"/>
+      <c r="L115" s="233"/>
+      <c r="M115" s="285"/>
+      <c r="N115" s="286"/>
+      <c r="O115" s="286"/>
+      <c r="P115" s="287"/>
       <c r="Q115" s="81"/>
       <c r="R115" s="81"/>
       <c r="S115" s="32"/>
@@ -6909,21 +6925,21 @@
       <c r="A116" s="50">
         <v>1</v>
       </c>
-      <c r="B116" s="193"/>
-      <c r="C116" s="194"/>
-      <c r="D116" s="195"/>
-      <c r="E116" s="196"/>
-      <c r="F116" s="197"/>
-      <c r="G116" s="198"/>
-      <c r="H116" s="199"/>
-      <c r="I116" s="200"/>
-      <c r="J116" s="201"/>
-      <c r="K116" s="200"/>
-      <c r="L116" s="201"/>
-      <c r="M116" s="200"/>
-      <c r="N116" s="202"/>
-      <c r="O116" s="202"/>
-      <c r="P116" s="201"/>
+      <c r="B116" s="294"/>
+      <c r="C116" s="295"/>
+      <c r="D116" s="296"/>
+      <c r="E116" s="297"/>
+      <c r="F116" s="298"/>
+      <c r="G116" s="299"/>
+      <c r="H116" s="300"/>
+      <c r="I116" s="291"/>
+      <c r="J116" s="293"/>
+      <c r="K116" s="291"/>
+      <c r="L116" s="293"/>
+      <c r="M116" s="291"/>
+      <c r="N116" s="292"/>
+      <c r="O116" s="292"/>
+      <c r="P116" s="293"/>
       <c r="Q116" s="83"/>
       <c r="R116" s="83"/>
       <c r="S116" s="81"/>
@@ -6940,21 +6956,21 @@
       <c r="A117" s="50">
         <v>2</v>
       </c>
-      <c r="B117" s="193"/>
-      <c r="C117" s="194"/>
-      <c r="D117" s="195"/>
-      <c r="E117" s="196"/>
-      <c r="F117" s="197"/>
-      <c r="G117" s="198"/>
-      <c r="H117" s="199"/>
-      <c r="I117" s="200"/>
-      <c r="J117" s="201"/>
-      <c r="K117" s="200"/>
-      <c r="L117" s="201"/>
-      <c r="M117" s="200"/>
-      <c r="N117" s="202"/>
-      <c r="O117" s="202"/>
-      <c r="P117" s="201"/>
+      <c r="B117" s="294"/>
+      <c r="C117" s="295"/>
+      <c r="D117" s="296"/>
+      <c r="E117" s="297"/>
+      <c r="F117" s="298"/>
+      <c r="G117" s="299"/>
+      <c r="H117" s="300"/>
+      <c r="I117" s="291"/>
+      <c r="J117" s="293"/>
+      <c r="K117" s="291"/>
+      <c r="L117" s="293"/>
+      <c r="M117" s="291"/>
+      <c r="N117" s="292"/>
+      <c r="O117" s="292"/>
+      <c r="P117" s="293"/>
       <c r="Q117" s="83"/>
       <c r="R117" s="83"/>
       <c r="S117" s="82"/>
@@ -6971,21 +6987,21 @@
       <c r="A118" s="50">
         <v>3</v>
       </c>
-      <c r="B118" s="193"/>
-      <c r="C118" s="194"/>
-      <c r="D118" s="195"/>
-      <c r="E118" s="196"/>
-      <c r="F118" s="197"/>
-      <c r="G118" s="198"/>
-      <c r="H118" s="199"/>
-      <c r="I118" s="200"/>
-      <c r="J118" s="201"/>
-      <c r="K118" s="200"/>
-      <c r="L118" s="201"/>
-      <c r="M118" s="200"/>
-      <c r="N118" s="202"/>
-      <c r="O118" s="202"/>
-      <c r="P118" s="201"/>
+      <c r="B118" s="294"/>
+      <c r="C118" s="295"/>
+      <c r="D118" s="296"/>
+      <c r="E118" s="297"/>
+      <c r="F118" s="298"/>
+      <c r="G118" s="299"/>
+      <c r="H118" s="300"/>
+      <c r="I118" s="291"/>
+      <c r="J118" s="293"/>
+      <c r="K118" s="291"/>
+      <c r="L118" s="293"/>
+      <c r="M118" s="291"/>
+      <c r="N118" s="292"/>
+      <c r="O118" s="292"/>
+      <c r="P118" s="293"/>
       <c r="Q118" s="83"/>
       <c r="R118" s="83"/>
       <c r="S118" s="83"/>
@@ -7002,21 +7018,21 @@
       <c r="A119" s="50">
         <v>4</v>
       </c>
-      <c r="B119" s="193"/>
-      <c r="C119" s="194"/>
-      <c r="D119" s="195"/>
-      <c r="E119" s="196"/>
-      <c r="F119" s="197"/>
-      <c r="G119" s="198"/>
-      <c r="H119" s="199"/>
-      <c r="I119" s="200"/>
-      <c r="J119" s="201"/>
-      <c r="K119" s="200"/>
-      <c r="L119" s="201"/>
-      <c r="M119" s="200"/>
-      <c r="N119" s="202"/>
-      <c r="O119" s="202"/>
-      <c r="P119" s="201"/>
+      <c r="B119" s="294"/>
+      <c r="C119" s="295"/>
+      <c r="D119" s="296"/>
+      <c r="E119" s="297"/>
+      <c r="F119" s="298"/>
+      <c r="G119" s="299"/>
+      <c r="H119" s="300"/>
+      <c r="I119" s="291"/>
+      <c r="J119" s="293"/>
+      <c r="K119" s="291"/>
+      <c r="L119" s="293"/>
+      <c r="M119" s="291"/>
+      <c r="N119" s="292"/>
+      <c r="O119" s="292"/>
+      <c r="P119" s="293"/>
       <c r="Q119" s="83"/>
       <c r="R119" s="83"/>
       <c r="S119" s="83"/>
@@ -7130,13 +7146,13 @@
       <c r="G123" s="32"/>
       <c r="H123" s="32"/>
       <c r="I123" s="32"/>
-      <c r="J123" s="189"/>
-      <c r="K123" s="189"/>
-      <c r="L123" s="189"/>
-      <c r="M123" s="189"/>
-      <c r="N123" s="189"/>
-      <c r="O123" s="189"/>
-      <c r="P123" s="189"/>
+      <c r="J123" s="252"/>
+      <c r="K123" s="252"/>
+      <c r="L123" s="252"/>
+      <c r="M123" s="252"/>
+      <c r="N123" s="252"/>
+      <c r="O123" s="252"/>
+      <c r="P123" s="252"/>
       <c r="Q123" s="55"/>
       <c r="R123" s="55"/>
       <c r="S123" s="32"/>
@@ -7150,28 +7166,28 @@
       <c r="AA123" s="31"/>
     </row>
     <row r="124" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A124" s="190" t="s">
+      <c r="A124" s="262" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="190"/>
-      <c r="C124" s="191" t="s">
+      <c r="B124" s="262"/>
+      <c r="C124" s="263" t="s">
         <v>139</v>
       </c>
-      <c r="D124" s="191"/>
-      <c r="E124" s="191"/>
-      <c r="F124" s="191"/>
-      <c r="G124" s="192" t="s">
+      <c r="D124" s="263"/>
+      <c r="E124" s="263"/>
+      <c r="F124" s="263"/>
+      <c r="G124" s="264" t="s">
         <v>140</v>
       </c>
-      <c r="H124" s="192"/>
-      <c r="I124" s="192"/>
-      <c r="J124" s="192"/>
-      <c r="K124" s="192"/>
-      <c r="L124" s="192"/>
-      <c r="M124" s="192"/>
-      <c r="N124" s="192"/>
-      <c r="O124" s="192"/>
-      <c r="P124" s="192"/>
+      <c r="H124" s="264"/>
+      <c r="I124" s="264"/>
+      <c r="J124" s="264"/>
+      <c r="K124" s="264"/>
+      <c r="L124" s="264"/>
+      <c r="M124" s="264"/>
+      <c r="N124" s="264"/>
+      <c r="O124" s="264"/>
+      <c r="P124" s="264"/>
       <c r="Q124" s="57"/>
       <c r="R124" s="57"/>
       <c r="S124" s="88"/>
@@ -7194,13 +7210,13 @@
       <c r="G125" s="57"/>
       <c r="H125" s="57"/>
       <c r="I125" s="57"/>
-      <c r="J125" s="192"/>
-      <c r="K125" s="192"/>
-      <c r="L125" s="192"/>
-      <c r="M125" s="192"/>
-      <c r="N125" s="192"/>
-      <c r="O125" s="192"/>
-      <c r="P125" s="192"/>
+      <c r="J125" s="264"/>
+      <c r="K125" s="264"/>
+      <c r="L125" s="264"/>
+      <c r="M125" s="264"/>
+      <c r="N125" s="264"/>
+      <c r="O125" s="264"/>
+      <c r="P125" s="264"/>
       <c r="Q125" s="57"/>
       <c r="R125" s="57"/>
       <c r="S125" s="88"/>
@@ -7215,6 +7231,147 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J123:P123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="J124:P124"/>
+    <mergeCell ref="J125:P125"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="K119:L119"/>
+    <mergeCell ref="M119:P119"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="K116:L116"/>
+    <mergeCell ref="M116:P116"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="K118:L118"/>
+    <mergeCell ref="M118:P118"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="J92:P92"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:C115"/>
+    <mergeCell ref="D113:E115"/>
+    <mergeCell ref="F113:H115"/>
+    <mergeCell ref="I113:L114"/>
+    <mergeCell ref="M113:P115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="J107:P107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="A110:P110"/>
+    <mergeCell ref="A111:P111"/>
+    <mergeCell ref="C81:R81"/>
+    <mergeCell ref="C86:R86"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="J94:P94"/>
+    <mergeCell ref="J99:P99"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:G78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:X48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="T73:Z73"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="I39:L40"/>
+    <mergeCell ref="M39:P40"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="Y39:AA40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
     <mergeCell ref="T108:Z108"/>
     <mergeCell ref="U24:X24"/>
     <mergeCell ref="V3:V4"/>
@@ -7239,147 +7396,6 @@
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="Y39:AA40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="J34:P34"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="I39:L40"/>
-    <mergeCell ref="M39:P40"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:X48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="T73:Z73"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:G78"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:C115"/>
-    <mergeCell ref="D113:E115"/>
-    <mergeCell ref="F113:H115"/>
-    <mergeCell ref="I113:L114"/>
-    <mergeCell ref="M113:P115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="J107:P107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="A110:P110"/>
-    <mergeCell ref="A111:P111"/>
-    <mergeCell ref="C81:R81"/>
-    <mergeCell ref="C86:R86"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:P93"/>
-    <mergeCell ref="J94:P94"/>
-    <mergeCell ref="J99:P99"/>
-    <mergeCell ref="M118:P118"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="J92:P92"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J123:P123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="C124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="J124:P124"/>
-    <mergeCell ref="J125:P125"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="K119:L119"/>
-    <mergeCell ref="M119:P119"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="K116:L116"/>
-    <mergeCell ref="M116:P116"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="I118:J118"/>
-    <mergeCell ref="K118:L118"/>
   </mergeCells>
   <conditionalFormatting sqref="B9 B16">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -7412,65 +7428,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="350" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A2" s="360" t="s">
+      <c r="A2" s="359" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="360"/>
-      <c r="C2" s="360"/>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="359"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A3" s="353"/>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="353"/>
-      <c r="G3" s="353"/>
+      <c r="A3" s="352"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
     </row>
     <row r="4" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="356" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
+      <c r="B4" s="356"/>
+      <c r="C4" s="356"/>
+      <c r="D4" s="356"/>
+      <c r="E4" s="356"/>
+      <c r="F4" s="356"/>
+      <c r="G4" s="356"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="357" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="358" t="s">
+      <c r="B5" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="359" t="s">
+      <c r="C5" s="358" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
     </row>
     <row r="6" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A6" s="358"/>
-      <c r="B6" s="358"/>
+      <c r="A6" s="357"/>
+      <c r="B6" s="357"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7488,8 +7504,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A7" s="358"/>
-      <c r="B7" s="358"/>
+      <c r="A7" s="357"/>
+      <c r="B7" s="357"/>
       <c r="C7" s="118" t="s">
         <v>40</v>
       </c>
@@ -7544,72 +7560,72 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.65" customHeight="1">
       <c r="B1" s="153"/>
-      <c r="C1" s="351" t="s">
+      <c r="C1" s="350" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
     </row>
     <row r="2" spans="1:8" ht="20.65" customHeight="1">
       <c r="B2" s="154"/>
-      <c r="C2" s="360" t="s">
+      <c r="C2" s="359" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="360"/>
-      <c r="E2" s="360"/>
-      <c r="F2" s="360"/>
-      <c r="G2" s="360"/>
+      <c r="D2" s="359"/>
+      <c r="E2" s="359"/>
+      <c r="F2" s="359"/>
+      <c r="G2" s="359"/>
     </row>
     <row r="3" spans="1:8" ht="20.65" customHeight="1">
       <c r="B3" s="154"/>
-      <c r="C3" s="360" t="s">
+      <c r="C3" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="360"/>
-      <c r="E3" s="360"/>
-      <c r="F3" s="360"/>
-      <c r="G3" s="360"/>
+      <c r="D3" s="359"/>
+      <c r="E3" s="359"/>
+      <c r="F3" s="359"/>
+      <c r="G3" s="359"/>
     </row>
     <row r="4" spans="1:8" ht="20.65" customHeight="1">
       <c r="A4" s="144"/>
       <c r="B4" s="155"/>
-      <c r="C4" s="353"/>
-      <c r="D4" s="353"/>
-      <c r="E4" s="353"/>
-      <c r="F4" s="353"/>
-      <c r="G4" s="353"/>
+      <c r="C4" s="352"/>
+      <c r="D4" s="352"/>
+      <c r="E4" s="352"/>
+      <c r="F4" s="352"/>
+      <c r="G4" s="352"/>
     </row>
     <row r="5" spans="1:8" ht="20.65" customHeight="1">
       <c r="B5" s="156"/>
-      <c r="C5" s="357" t="s">
+      <c r="C5" s="356" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="357"/>
-      <c r="E5" s="357"/>
-      <c r="F5" s="357"/>
-      <c r="G5" s="357"/>
+      <c r="D5" s="356"/>
+      <c r="E5" s="356"/>
+      <c r="F5" s="356"/>
+      <c r="G5" s="356"/>
     </row>
     <row r="6" spans="1:8" ht="20.65" customHeight="1">
-      <c r="A6" s="358" t="s">
+      <c r="A6" s="357" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="358" t="s">
+      <c r="B6" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="359" t="s">
+      <c r="C6" s="358" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
+      <c r="D6" s="358"/>
+      <c r="E6" s="358"/>
+      <c r="F6" s="358"/>
+      <c r="G6" s="358"/>
       <c r="H6" s="181"/>
     </row>
     <row r="7" spans="1:8" ht="20.65" customHeight="1">
-      <c r="A7" s="358"/>
-      <c r="B7" s="358"/>
+      <c r="A7" s="357"/>
+      <c r="B7" s="357"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -7627,8 +7643,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.65" customHeight="1">
-      <c r="A8" s="358"/>
-      <c r="B8" s="358"/>
+      <c r="A8" s="357"/>
+      <c r="B8" s="357"/>
       <c r="C8" s="157" t="s">
         <v>40</v>
       </c>
@@ -7825,10 +7841,10 @@
         <v>96</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="310" t="s">
+      <c r="N2" s="342" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="310"/>
+      <c r="O2" s="342"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>97</v>
@@ -38183,378 +38199,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A15F11-E8E6-427F-BB71-523356BC2BC1}">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="184" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="184" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="184" customWidth="1"/>
-    <col min="4" max="38" width="14.7109375" style="184" customWidth="1"/>
-    <col min="39" max="16384" width="20.7109375" style="184"/>
+    <col min="1" max="1" width="6.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="4" customWidth="1"/>
+    <col min="4" max="32" width="14.7109375" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="20.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="30" customHeight="1">
-      <c r="A1" s="301" t="s">
+    <row r="1" spans="1:32" ht="30" customHeight="1">
+      <c r="A1" s="360" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-    </row>
-    <row r="2" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="302"/>
-      <c r="B2" s="302"/>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
-      <c r="N2" s="302"/>
-    </row>
-    <row r="3" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="Y3" s="184" t="s">
+      <c r="B1" s="360"/>
+      <c r="C1" s="360"/>
+      <c r="D1" s="360"/>
+      <c r="E1" s="360"/>
+      <c r="F1" s="360"/>
+      <c r="G1" s="360"/>
+      <c r="H1" s="360"/>
+      <c r="I1" s="360"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+    </row>
+    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="344"/>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
+    </row>
+    <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="V3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="303" t="s">
+    <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="362" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="362" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="303" t="s">
+      <c r="D4" s="362" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303" t="s">
+      <c r="E4" s="362"/>
+      <c r="F4" s="362"/>
+      <c r="G4" s="362"/>
+      <c r="H4" s="362" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303" t="s">
+      <c r="I4" s="362"/>
+      <c r="J4" s="362"/>
+      <c r="K4" s="362" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303" t="s">
+      <c r="L4" s="362"/>
+      <c r="M4" s="362" t="s">
         <v>8</v>
       </c>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
-      <c r="R4" s="303"/>
-      <c r="S4" s="303"/>
-      <c r="T4" s="303"/>
-      <c r="U4" s="303"/>
-      <c r="V4" s="303"/>
-      <c r="W4" s="303"/>
-      <c r="X4" s="303" t="s">
+      <c r="N4" s="362"/>
+      <c r="O4" s="362"/>
+      <c r="P4" s="362"/>
+      <c r="Q4" s="362"/>
+      <c r="R4" s="362"/>
+      <c r="S4" s="362"/>
+      <c r="T4" s="362"/>
+      <c r="U4" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="303"/>
-      <c r="Z4" s="303"/>
-      <c r="AA4" s="303"/>
-      <c r="AB4" s="303"/>
-      <c r="AC4" s="303" t="s">
+      <c r="V4" s="362"/>
+      <c r="W4" s="362"/>
+      <c r="X4" s="362"/>
+      <c r="Y4" s="362" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" s="303"/>
-      <c r="AE4" s="303" t="s">
+      <c r="Z4" s="362"/>
+      <c r="AA4" s="362" t="s">
         <v>19</v>
       </c>
-      <c r="AF4" s="303"/>
-      <c r="AG4" s="303" t="s">
+      <c r="AB4" s="362"/>
+      <c r="AC4" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="AH4" s="303"/>
-      <c r="AI4" s="303" t="s">
+      <c r="AD4" s="362"/>
+      <c r="AE4" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="AJ4" s="303"/>
-      <c r="AK4" s="303" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL4" s="303"/>
-    </row>
-    <row r="5" spans="1:38" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="303"/>
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="303" t="s">
+      <c r="AF4" s="362"/>
+    </row>
+    <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="362"/>
+      <c r="B5" s="362"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="362"/>
+      <c r="H5" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="303" t="s">
+      <c r="I5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="303" t="s">
+      <c r="J5" s="362" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="303"/>
-      <c r="M5" s="303"/>
-      <c r="N5" s="303"/>
-      <c r="O5" s="303"/>
-      <c r="P5" s="303"/>
-      <c r="Q5" s="303"/>
-      <c r="R5" s="303"/>
-      <c r="S5" s="303"/>
-      <c r="T5" s="303"/>
-      <c r="U5" s="303"/>
-      <c r="V5" s="303"/>
-      <c r="W5" s="303"/>
-      <c r="X5" s="303"/>
-      <c r="Y5" s="303"/>
-      <c r="Z5" s="303"/>
-      <c r="AA5" s="303"/>
-      <c r="AB5" s="303"/>
-      <c r="AC5" s="303"/>
-      <c r="AD5" s="303"/>
-      <c r="AE5" s="303"/>
-      <c r="AF5" s="303"/>
-      <c r="AG5" s="303"/>
-      <c r="AH5" s="303"/>
-      <c r="AI5" s="303"/>
-      <c r="AJ5" s="303"/>
-      <c r="AK5" s="303"/>
-      <c r="AL5" s="303"/>
-    </row>
-    <row r="6" spans="1:38" ht="21.95" customHeight="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="303" t="s">
+      <c r="K5" s="362"/>
+      <c r="L5" s="362"/>
+      <c r="M5" s="362"/>
+      <c r="N5" s="362"/>
+      <c r="O5" s="362"/>
+      <c r="P5" s="362"/>
+      <c r="Q5" s="362"/>
+      <c r="R5" s="362"/>
+      <c r="S5" s="362"/>
+      <c r="T5" s="362"/>
+      <c r="U5" s="362"/>
+      <c r="V5" s="362"/>
+      <c r="W5" s="362"/>
+      <c r="X5" s="362"/>
+      <c r="Y5" s="362"/>
+      <c r="Z5" s="362"/>
+      <c r="AA5" s="362"/>
+      <c r="AB5" s="362"/>
+      <c r="AC5" s="362"/>
+      <c r="AD5" s="362"/>
+      <c r="AE5" s="362"/>
+      <c r="AF5" s="362"/>
+    </row>
+    <row r="6" spans="1:32" ht="21.95" customHeight="1">
+      <c r="A6" s="362"/>
+      <c r="B6" s="362"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="303" t="s">
+      <c r="E6" s="362" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="303" t="s">
+      <c r="F6" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="303" t="s">
+      <c r="G6" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="303" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="186" t="s">
+      <c r="H6" s="362"/>
+      <c r="I6" s="362"/>
+      <c r="J6" s="362"/>
+      <c r="K6" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="186" t="s">
+      <c r="L6" s="364" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="303" t="s">
+      <c r="M6" s="362" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="303"/>
-      <c r="P6" s="303" t="s">
+      <c r="N6" s="362"/>
+      <c r="O6" s="362" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303" t="s">
+      <c r="P6" s="362"/>
+      <c r="Q6" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303" t="s">
+      <c r="R6" s="362"/>
+      <c r="S6" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="303"/>
-      <c r="V6" s="304" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" s="303"/>
-      <c r="X6" s="303" t="s">
+      <c r="T6" s="362"/>
+      <c r="U6" s="362" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="303" t="s">
+      <c r="V6" s="362" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="303" t="s">
+      <c r="W6" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="303" t="s">
+      <c r="X6" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="AB6" s="303" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC6" s="303" t="s">
+      <c r="Y6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="303" t="s">
+      <c r="Z6" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="303" t="s">
+      <c r="AA6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="303" t="s">
+      <c r="AB6" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="303" t="s">
+      <c r="AC6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="303" t="s">
+      <c r="AD6" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="303" t="s">
+      <c r="AE6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="303" t="s">
+      <c r="AF6" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="303" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL6" s="303" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="39.75" customHeight="1">
-      <c r="A7" s="303"/>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="186" t="s">
+    </row>
+    <row r="7" spans="1:32" ht="39.75" customHeight="1">
+      <c r="A7" s="362"/>
+      <c r="B7" s="362"/>
+      <c r="C7" s="362"/>
+      <c r="D7" s="362"/>
+      <c r="E7" s="362"/>
+      <c r="F7" s="362"/>
+      <c r="G7" s="362"/>
+      <c r="H7" s="362"/>
+      <c r="I7" s="362"/>
+      <c r="J7" s="362"/>
+      <c r="K7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="186" t="s">
+      <c r="L7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="186" t="s">
+      <c r="M7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="186" t="s">
+      <c r="N7" s="364" t="s">
         <v>188</v>
       </c>
-      <c r="P7" s="186" t="s">
+      <c r="O7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="186" t="s">
+      <c r="P7" s="364" t="s">
         <v>188</v>
       </c>
-      <c r="R7" s="186" t="s">
+      <c r="Q7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="186" t="s">
+      <c r="R7" s="364" t="s">
         <v>188</v>
       </c>
-      <c r="T7" s="186" t="s">
+      <c r="S7" s="364" t="s">
         <v>17</v>
       </c>
-      <c r="U7" s="186" t="s">
+      <c r="T7" s="364" t="s">
         <v>188</v>
       </c>
-      <c r="V7" s="186" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="186" t="s">
-        <v>188</v>
-      </c>
-      <c r="X7" s="303"/>
-      <c r="Y7" s="303"/>
-      <c r="Z7" s="303"/>
-      <c r="AA7" s="303"/>
-      <c r="AB7" s="303"/>
-      <c r="AC7" s="303"/>
-      <c r="AD7" s="303"/>
-      <c r="AE7" s="303"/>
-      <c r="AF7" s="303"/>
-      <c r="AG7" s="303"/>
-      <c r="AH7" s="303"/>
-      <c r="AI7" s="303"/>
-      <c r="AJ7" s="303"/>
-      <c r="AK7" s="303"/>
-      <c r="AL7" s="303"/>
+      <c r="U7" s="362"/>
+      <c r="V7" s="362"/>
+      <c r="W7" s="362"/>
+      <c r="X7" s="362"/>
+      <c r="Y7" s="362"/>
+      <c r="Z7" s="362"/>
+      <c r="AA7" s="362"/>
+      <c r="AB7" s="362"/>
+      <c r="AC7" s="362"/>
+      <c r="AD7" s="362"/>
+      <c r="AE7" s="362"/>
+      <c r="AF7" s="362"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="N4:W5"/>
-    <mergeCell ref="X4:AB5"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF5"/>
-    <mergeCell ref="AG4:AH5"/>
-    <mergeCell ref="AI4:AJ5"/>
-    <mergeCell ref="AK4:AL5"/>
+  <mergeCells count="37">
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="X6:X7"/>
-    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D4:H5"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:G5"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="M4:T5"/>
+    <mergeCell ref="U4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="AA4:AB5"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38583,282 +38551,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="185" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="303" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
     </row>
     <row r="2" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="305"/>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305"/>
-      <c r="J2" s="305"/>
-      <c r="K2" s="305"/>
-      <c r="L2" s="305"/>
-      <c r="M2" s="305"/>
-      <c r="N2" s="305"/>
-      <c r="O2" s="305"/>
+      <c r="A2" s="304"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
     </row>
     <row r="4" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="301" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="301" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="303" t="s">
+      <c r="D4" s="301" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303" t="s">
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
+      <c r="I4" s="301"/>
+      <c r="J4" s="301" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303"/>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303" t="s">
+      <c r="K4" s="301"/>
+      <c r="L4" s="301"/>
+      <c r="M4" s="301"/>
+      <c r="N4" s="301" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="303" t="s">
+      <c r="O4" s="301" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="303" t="s">
+      <c r="P4" s="301" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="303"/>
-      <c r="R4" s="303" t="s">
+      <c r="Q4" s="301"/>
+      <c r="R4" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="303"/>
-      <c r="T4" s="303"/>
-      <c r="U4" s="303"/>
-      <c r="V4" s="303"/>
-      <c r="W4" s="303"/>
-      <c r="X4" s="303"/>
-      <c r="Y4" s="303"/>
-      <c r="Z4" s="303"/>
-      <c r="AA4" s="303"/>
-      <c r="AB4" s="303" t="s">
+      <c r="S4" s="301"/>
+      <c r="T4" s="301"/>
+      <c r="U4" s="301"/>
+      <c r="V4" s="301"/>
+      <c r="W4" s="301"/>
+      <c r="X4" s="301"/>
+      <c r="Y4" s="301"/>
+      <c r="Z4" s="301"/>
+      <c r="AA4" s="301"/>
+      <c r="AB4" s="301" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="303" t="s">
+      <c r="AC4" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="303"/>
-      <c r="AE4" s="303"/>
-      <c r="AF4" s="303"/>
-      <c r="AG4" s="303"/>
-      <c r="AH4" s="303"/>
-      <c r="AI4" s="303"/>
-      <c r="AJ4" s="303"/>
-      <c r="AK4" s="303"/>
-      <c r="AL4" s="303"/>
-      <c r="AM4" s="303"/>
-      <c r="AN4" s="303"/>
-      <c r="AO4" s="303"/>
-      <c r="AP4" s="303"/>
-      <c r="AQ4" s="303"/>
+      <c r="AD4" s="301"/>
+      <c r="AE4" s="301"/>
+      <c r="AF4" s="301"/>
+      <c r="AG4" s="301"/>
+      <c r="AH4" s="301"/>
+      <c r="AI4" s="301"/>
+      <c r="AJ4" s="301"/>
+      <c r="AK4" s="301"/>
+      <c r="AL4" s="301"/>
+      <c r="AM4" s="301"/>
+      <c r="AN4" s="301"/>
+      <c r="AO4" s="301"/>
+      <c r="AP4" s="301"/>
+      <c r="AQ4" s="301"/>
     </row>
     <row r="5" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="303"/>
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="303"/>
-      <c r="J5" s="303"/>
-      <c r="K5" s="303"/>
-      <c r="L5" s="303"/>
-      <c r="M5" s="303"/>
-      <c r="N5" s="303"/>
-      <c r="O5" s="303"/>
-      <c r="P5" s="303"/>
-      <c r="Q5" s="303"/>
-      <c r="R5" s="303" t="s">
+      <c r="A5" s="301"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
+      <c r="I5" s="301"/>
+      <c r="J5" s="301"/>
+      <c r="K5" s="301"/>
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="301"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="301" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="303"/>
-      <c r="T5" s="303" t="s">
+      <c r="S5" s="301"/>
+      <c r="T5" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="303"/>
-      <c r="V5" s="303" t="s">
+      <c r="U5" s="301"/>
+      <c r="V5" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="303"/>
-      <c r="X5" s="304" t="s">
+      <c r="W5" s="301"/>
+      <c r="X5" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="304"/>
-      <c r="Z5" s="303" t="s">
+      <c r="Y5" s="302"/>
+      <c r="Z5" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="303"/>
-      <c r="AB5" s="303"/>
-      <c r="AC5" s="303"/>
-      <c r="AD5" s="303"/>
-      <c r="AE5" s="303"/>
-      <c r="AF5" s="303"/>
-      <c r="AG5" s="303"/>
-      <c r="AH5" s="303" t="s">
+      <c r="AA5" s="301"/>
+      <c r="AB5" s="301"/>
+      <c r="AC5" s="301"/>
+      <c r="AD5" s="301"/>
+      <c r="AE5" s="301"/>
+      <c r="AF5" s="301"/>
+      <c r="AG5" s="301"/>
+      <c r="AH5" s="301" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="303"/>
-      <c r="AJ5" s="303" t="s">
+      <c r="AI5" s="301"/>
+      <c r="AJ5" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="AK5" s="303"/>
-      <c r="AL5" s="303" t="s">
+      <c r="AK5" s="301"/>
+      <c r="AL5" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="AM5" s="303"/>
-      <c r="AN5" s="304" t="s">
+      <c r="AM5" s="301"/>
+      <c r="AN5" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="AO5" s="303"/>
-      <c r="AP5" s="304" t="s">
+      <c r="AO5" s="301"/>
+      <c r="AP5" s="302" t="s">
         <v>22</v>
       </c>
-      <c r="AQ5" s="303"/>
+      <c r="AQ5" s="301"/>
     </row>
     <row r="6" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303" t="s">
+      <c r="A6" s="301"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="303" t="s">
+      <c r="F6" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="303" t="s">
+      <c r="G6" s="301" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="303" t="s">
+      <c r="H6" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="303" t="s">
+      <c r="I6" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="303" t="s">
+      <c r="J6" s="301" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="303" t="s">
+      <c r="K6" s="301" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="303" t="s">
+      <c r="L6" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="303" t="s">
+      <c r="M6" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="303"/>
-      <c r="O6" s="303"/>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="303"/>
-      <c r="V6" s="303"/>
-      <c r="W6" s="303"/>
-      <c r="X6" s="304"/>
-      <c r="Y6" s="304"/>
-      <c r="Z6" s="303"/>
-      <c r="AA6" s="303"/>
-      <c r="AB6" s="303"/>
-      <c r="AC6" s="303" t="s">
+      <c r="N6" s="301"/>
+      <c r="O6" s="301"/>
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301"/>
+      <c r="R6" s="301"/>
+      <c r="S6" s="301"/>
+      <c r="T6" s="301"/>
+      <c r="U6" s="301"/>
+      <c r="V6" s="301"/>
+      <c r="W6" s="301"/>
+      <c r="X6" s="302"/>
+      <c r="Y6" s="302"/>
+      <c r="Z6" s="301"/>
+      <c r="AA6" s="301"/>
+      <c r="AB6" s="301"/>
+      <c r="AC6" s="301" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="303" t="s">
+      <c r="AD6" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="AE6" s="303" t="s">
+      <c r="AE6" s="301" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="303" t="s">
+      <c r="AF6" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="AG6" s="303" t="s">
+      <c r="AG6" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="303" t="s">
+      <c r="AH6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="303" t="s">
+      <c r="AI6" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="303" t="s">
+      <c r="AJ6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="303" t="s">
+      <c r="AK6" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="303" t="s">
+      <c r="AL6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="303" t="s">
+      <c r="AM6" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="303" t="s">
+      <c r="AN6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="303" t="s">
+      <c r="AO6" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="303" t="s">
+      <c r="AP6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="303" t="s">
+      <c r="AQ6" s="301" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="38.25" customHeight="1">
-      <c r="A7" s="303"/>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="303"/>
-      <c r="O7" s="303"/>
+      <c r="A7" s="301"/>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="301"/>
+      <c r="L7" s="301"/>
+      <c r="M7" s="301"/>
+      <c r="N7" s="301"/>
+      <c r="O7" s="301"/>
       <c r="P7" s="186" t="s">
         <v>13</v>
       </c>
@@ -38895,25 +38863,58 @@
       <c r="AA7" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="303"/>
-      <c r="AC7" s="303"/>
-      <c r="AD7" s="303"/>
-      <c r="AE7" s="303"/>
-      <c r="AF7" s="303"/>
-      <c r="AG7" s="303"/>
-      <c r="AH7" s="303"/>
-      <c r="AI7" s="303"/>
-      <c r="AJ7" s="303"/>
-      <c r="AK7" s="303"/>
-      <c r="AL7" s="303"/>
-      <c r="AM7" s="303"/>
-      <c r="AN7" s="303"/>
-      <c r="AO7" s="303"/>
-      <c r="AP7" s="303"/>
-      <c r="AQ7" s="303"/>
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="301"/>
+      <c r="AE7" s="301"/>
+      <c r="AF7" s="301"/>
+      <c r="AG7" s="301"/>
+      <c r="AH7" s="301"/>
+      <c r="AI7" s="301"/>
+      <c r="AJ7" s="301"/>
+      <c r="AK7" s="301"/>
+      <c r="AL7" s="301"/>
+      <c r="AM7" s="301"/>
+      <c r="AN7" s="301"/>
+      <c r="AO7" s="301"/>
+      <c r="AP7" s="301"/>
+      <c r="AQ7" s="301"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="AH4:AQ4"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="J4:M5"/>
+    <mergeCell ref="R4:AA4"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="Z5:AA6"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="P4:Q6"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AG5"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="N4:N7"/>
@@ -38930,39 +38931,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="P4:Q6"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AG5"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AH6:AH7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38989,34 +38957,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="305"/>
     </row>
     <row r="2" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="307"/>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
+      <c r="A2" s="306"/>
+      <c r="B2" s="306"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="306"/>
+      <c r="F2" s="306"/>
+      <c r="G2" s="306"/>
+      <c r="H2" s="306"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="306"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="306"/>
     </row>
     <row r="3" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="Y3" s="184" t="s">
@@ -39024,232 +38992,232 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="A4" s="301" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="301" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303" t="s">
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303" t="s">
+      <c r="I4" s="301"/>
+      <c r="J4" s="301"/>
+      <c r="K4" s="301"/>
+      <c r="L4" s="301" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="303" t="s">
+      <c r="M4" s="301" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="303"/>
-      <c r="O4" s="303" t="s">
+      <c r="N4" s="301"/>
+      <c r="O4" s="301" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
-      <c r="R4" s="303"/>
-      <c r="S4" s="303"/>
-      <c r="T4" s="303"/>
-      <c r="U4" s="303"/>
-      <c r="V4" s="303"/>
-      <c r="W4" s="303"/>
-      <c r="X4" s="303"/>
-      <c r="Y4" s="303" t="s">
+      <c r="P4" s="301"/>
+      <c r="Q4" s="301"/>
+      <c r="R4" s="301"/>
+      <c r="S4" s="301"/>
+      <c r="T4" s="301"/>
+      <c r="U4" s="301"/>
+      <c r="V4" s="301"/>
+      <c r="W4" s="301"/>
+      <c r="X4" s="301"/>
+      <c r="Y4" s="301" t="s">
         <v>83</v>
       </c>
-      <c r="Z4" s="303" t="s">
+      <c r="Z4" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="303"/>
-      <c r="AB4" s="303"/>
-      <c r="AC4" s="303"/>
-      <c r="AD4" s="303"/>
-      <c r="AE4" s="303" t="s">
+      <c r="AA4" s="301"/>
+      <c r="AB4" s="301"/>
+      <c r="AC4" s="301"/>
+      <c r="AD4" s="301"/>
+      <c r="AE4" s="301" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" s="303"/>
-      <c r="AG4" s="303"/>
-      <c r="AH4" s="303"/>
-      <c r="AI4" s="303"/>
-      <c r="AJ4" s="303"/>
-      <c r="AK4" s="303"/>
-      <c r="AL4" s="303"/>
-      <c r="AM4" s="303"/>
-      <c r="AN4" s="303"/>
+      <c r="AF4" s="301"/>
+      <c r="AG4" s="301"/>
+      <c r="AH4" s="301"/>
+      <c r="AI4" s="301"/>
+      <c r="AJ4" s="301"/>
+      <c r="AK4" s="301"/>
+      <c r="AL4" s="301"/>
+      <c r="AM4" s="301"/>
+      <c r="AN4" s="301"/>
     </row>
     <row r="5" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="303"/>
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303" t="s">
+      <c r="A5" s="301"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="303" t="s">
+      <c r="I5" s="301" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="303" t="s">
+      <c r="J5" s="301" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="303" t="s">
+      <c r="K5" s="301" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="303"/>
-      <c r="M5" s="303"/>
-      <c r="N5" s="303"/>
-      <c r="O5" s="303"/>
-      <c r="P5" s="303"/>
-      <c r="Q5" s="303"/>
-      <c r="R5" s="303"/>
-      <c r="S5" s="303"/>
-      <c r="T5" s="303"/>
-      <c r="U5" s="303"/>
-      <c r="V5" s="303"/>
-      <c r="W5" s="303"/>
-      <c r="X5" s="303"/>
-      <c r="Y5" s="303"/>
-      <c r="Z5" s="303"/>
-      <c r="AA5" s="303"/>
-      <c r="AB5" s="303"/>
-      <c r="AC5" s="303"/>
-      <c r="AD5" s="303"/>
-      <c r="AE5" s="303" t="s">
+      <c r="L5" s="301"/>
+      <c r="M5" s="301"/>
+      <c r="N5" s="301"/>
+      <c r="O5" s="301"/>
+      <c r="P5" s="301"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="301"/>
+      <c r="S5" s="301"/>
+      <c r="T5" s="301"/>
+      <c r="U5" s="301"/>
+      <c r="V5" s="301"/>
+      <c r="W5" s="301"/>
+      <c r="X5" s="301"/>
+      <c r="Y5" s="301"/>
+      <c r="Z5" s="301"/>
+      <c r="AA5" s="301"/>
+      <c r="AB5" s="301"/>
+      <c r="AC5" s="301"/>
+      <c r="AD5" s="301"/>
+      <c r="AE5" s="301" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="303"/>
-      <c r="AG5" s="303" t="s">
+      <c r="AF5" s="301"/>
+      <c r="AG5" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="AH5" s="303"/>
-      <c r="AI5" s="303" t="s">
+      <c r="AH5" s="301"/>
+      <c r="AI5" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="AJ5" s="303"/>
-      <c r="AK5" s="304" t="s">
+      <c r="AJ5" s="301"/>
+      <c r="AK5" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="AL5" s="303"/>
-      <c r="AM5" s="304" t="s">
+      <c r="AL5" s="301"/>
+      <c r="AM5" s="302" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="303"/>
+      <c r="AN5" s="301"/>
     </row>
     <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303" t="s">
+      <c r="A6" s="301"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="303" t="s">
+      <c r="D6" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="303" t="s">
+      <c r="E6" s="301" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="303" t="s">
+      <c r="F6" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="303" t="s">
+      <c r="G6" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303"/>
-      <c r="O6" s="303" t="s">
+      <c r="H6" s="301"/>
+      <c r="I6" s="301"/>
+      <c r="J6" s="301"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="301"/>
+      <c r="M6" s="301"/>
+      <c r="N6" s="301"/>
+      <c r="O6" s="301" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="303"/>
-      <c r="Q6" s="303" t="s">
+      <c r="P6" s="301"/>
+      <c r="Q6" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="303"/>
-      <c r="S6" s="303" t="s">
+      <c r="R6" s="301"/>
+      <c r="S6" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="303"/>
-      <c r="U6" s="304" t="s">
+      <c r="T6" s="301"/>
+      <c r="U6" s="302" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="303"/>
-      <c r="W6" s="304" t="s">
+      <c r="V6" s="301"/>
+      <c r="W6" s="302" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="303"/>
-      <c r="Y6" s="303"/>
-      <c r="Z6" s="303" t="s">
+      <c r="X6" s="301"/>
+      <c r="Y6" s="301"/>
+      <c r="Z6" s="301" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="303" t="s">
+      <c r="AA6" s="301" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="303" t="s">
+      <c r="AB6" s="301" t="s">
         <v>20</v>
       </c>
-      <c r="AC6" s="303" t="s">
+      <c r="AC6" s="301" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="303" t="s">
+      <c r="AD6" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="AE6" s="303" t="s">
+      <c r="AE6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="303" t="s">
+      <c r="AF6" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="303" t="s">
+      <c r="AG6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="303" t="s">
+      <c r="AH6" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="303" t="s">
+      <c r="AI6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="303" t="s">
+      <c r="AJ6" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="303" t="s">
+      <c r="AK6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="303" t="s">
+      <c r="AL6" s="301" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="303" t="s">
+      <c r="AM6" s="301" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="303" t="s">
+      <c r="AN6" s="301" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="303"/>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
+      <c r="A7" s="301"/>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
+      <c r="I7" s="301"/>
+      <c r="J7" s="301"/>
+      <c r="K7" s="301"/>
+      <c r="L7" s="301"/>
       <c r="M7" s="186" t="s">
         <v>13</v>
       </c>
@@ -39286,39 +39254,41 @@
       <c r="X7" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="303"/>
-      <c r="Z7" s="303"/>
-      <c r="AA7" s="303"/>
-      <c r="AB7" s="303"/>
-      <c r="AC7" s="303"/>
-      <c r="AD7" s="303"/>
-      <c r="AE7" s="303"/>
-      <c r="AF7" s="303"/>
-      <c r="AG7" s="303"/>
-      <c r="AH7" s="303"/>
-      <c r="AI7" s="303"/>
-      <c r="AJ7" s="303"/>
-      <c r="AK7" s="303"/>
-      <c r="AL7" s="303"/>
-      <c r="AM7" s="303"/>
-      <c r="AN7" s="303"/>
+      <c r="Y7" s="301"/>
+      <c r="Z7" s="301"/>
+      <c r="AA7" s="301"/>
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="301"/>
+      <c r="AD7" s="301"/>
+      <c r="AE7" s="301"/>
+      <c r="AF7" s="301"/>
+      <c r="AG7" s="301"/>
+      <c r="AH7" s="301"/>
+      <c r="AI7" s="301"/>
+      <c r="AJ7" s="301"/>
+      <c r="AK7" s="301"/>
+      <c r="AL7" s="301"/>
+      <c r="AM7" s="301"/>
+      <c r="AN7" s="301"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="O4:X5"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
     <mergeCell ref="AM5:AN5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -39335,22 +39305,20 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="C4:G5"/>
     <mergeCell ref="M4:N6"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="O4:X5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39358,432 +39326,341 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D9DA80-7EC5-4B5B-A6AE-C781D0317D2F}">
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="184" customWidth="1"/>
-    <col min="2" max="2" width="50.7109375" style="184" customWidth="1"/>
-    <col min="3" max="16384" width="14.7109375" style="184"/>
+    <col min="1" max="1" width="6.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="14.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="32.25" customHeight="1">
-      <c r="A1" s="301" t="s">
+    <row r="1" spans="1:33" ht="32.25" customHeight="1">
+      <c r="A1" s="360" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="361"/>
-      <c r="R1" s="361"/>
-      <c r="S1" s="361"/>
-      <c r="T1" s="361"/>
-      <c r="U1" s="361"/>
-      <c r="V1" s="361"/>
-      <c r="W1" s="361"/>
-      <c r="X1" s="361"/>
-      <c r="Y1" s="361"/>
-      <c r="Z1" s="361"/>
-      <c r="AA1" s="361"/>
-      <c r="AB1" s="361"/>
-      <c r="AC1" s="361"/>
-      <c r="AD1" s="361"/>
-      <c r="AE1" s="361"/>
-      <c r="AF1" s="361"/>
-      <c r="AG1" s="361"/>
-      <c r="AH1" s="361"/>
-      <c r="AI1" s="361"/>
-      <c r="AJ1" s="361"/>
-      <c r="AK1" s="361"/>
-    </row>
-    <row r="2" spans="1:39" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="302"/>
-      <c r="B2" s="302"/>
-      <c r="C2" s="302"/>
-      <c r="D2" s="302"/>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="302"/>
-      <c r="H2" s="302"/>
-      <c r="I2" s="302"/>
-      <c r="J2" s="302"/>
-      <c r="K2" s="302"/>
-      <c r="L2" s="302"/>
-      <c r="M2" s="302"/>
-      <c r="N2" s="302"/>
-      <c r="O2" s="302"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="361"/>
-      <c r="R2" s="361"/>
-      <c r="S2" s="361"/>
-      <c r="T2" s="361"/>
-      <c r="U2" s="361"/>
-      <c r="V2" s="361"/>
-      <c r="W2" s="361"/>
-      <c r="X2" s="361"/>
-      <c r="Y2" s="361"/>
-      <c r="Z2" s="361"/>
-      <c r="AA2" s="361"/>
-      <c r="AB2" s="361"/>
-      <c r="AC2" s="361"/>
-      <c r="AD2" s="361"/>
-      <c r="AE2" s="361"/>
-      <c r="AF2" s="361"/>
-      <c r="AG2" s="361"/>
-      <c r="AH2" s="361"/>
-      <c r="AI2" s="361"/>
-      <c r="AJ2" s="361"/>
-      <c r="AK2" s="361"/>
-    </row>
-    <row r="3" spans="1:39" ht="20.100000000000001" customHeight="1">
-      <c r="Z3" s="305" t="s">
+      <c r="B1" s="360"/>
+      <c r="C1" s="360"/>
+      <c r="D1" s="360"/>
+      <c r="E1" s="360"/>
+      <c r="F1" s="360"/>
+      <c r="G1" s="360"/>
+      <c r="H1" s="360"/>
+      <c r="I1" s="360"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
+      <c r="O1" s="360"/>
+    </row>
+    <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="344"/>
+      <c r="B2" s="344"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
+      <c r="J2" s="344"/>
+      <c r="K2" s="344"/>
+      <c r="L2" s="344"/>
+      <c r="M2" s="344"/>
+      <c r="N2" s="344"/>
+      <c r="O2" s="344"/>
+    </row>
+    <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="W3" s="361" t="s">
         <v>1</v>
       </c>
-      <c r="AA3" s="305"/>
-      <c r="AB3" s="305"/>
-      <c r="AC3" s="305"/>
-    </row>
-    <row r="4" spans="1:39" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="303" t="s">
+      <c r="X3" s="361"/>
+      <c r="Y3" s="361"/>
+    </row>
+    <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="303" t="s">
+      <c r="B4" s="362" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="303" t="s">
+      <c r="C4" s="362" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303" t="s">
+      <c r="D4" s="362"/>
+      <c r="E4" s="362"/>
+      <c r="F4" s="362"/>
+      <c r="G4" s="362" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="303"/>
-      <c r="J4" s="303"/>
-      <c r="K4" s="303"/>
-      <c r="L4" s="303" t="s">
+      <c r="H4" s="362"/>
+      <c r="I4" s="362"/>
+      <c r="J4" s="362"/>
+      <c r="K4" s="362" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="303"/>
-      <c r="N4" s="303" t="s">
+      <c r="L4" s="362"/>
+      <c r="M4" s="362" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="303"/>
-      <c r="P4" s="303"/>
-      <c r="Q4" s="303"/>
-      <c r="R4" s="303"/>
-      <c r="S4" s="303"/>
-      <c r="T4" s="303"/>
-      <c r="U4" s="303"/>
-      <c r="V4" s="303"/>
-      <c r="W4" s="303"/>
-      <c r="X4" s="303" t="s">
+      <c r="N4" s="362"/>
+      <c r="O4" s="362"/>
+      <c r="P4" s="362"/>
+      <c r="Q4" s="362"/>
+      <c r="R4" s="362"/>
+      <c r="S4" s="362"/>
+      <c r="T4" s="362"/>
+      <c r="U4" s="362" t="s">
         <v>83</v>
       </c>
-      <c r="Y4" s="303" t="s">
+      <c r="V4" s="362" t="s">
         <v>9</v>
       </c>
-      <c r="Z4" s="303"/>
-      <c r="AA4" s="303"/>
-      <c r="AB4" s="303"/>
-      <c r="AC4" s="303"/>
-      <c r="AD4" s="303" t="s">
+      <c r="W4" s="362"/>
+      <c r="X4" s="362"/>
+      <c r="Y4" s="362"/>
+      <c r="Z4" s="362" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" s="303"/>
-      <c r="AF4" s="303"/>
-      <c r="AG4" s="303"/>
-      <c r="AH4" s="303"/>
-      <c r="AI4" s="303"/>
-      <c r="AJ4" s="303"/>
-      <c r="AK4" s="303"/>
-      <c r="AL4" s="303"/>
-      <c r="AM4" s="303"/>
-    </row>
-    <row r="5" spans="1:39" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="303"/>
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303" t="s">
+      <c r="AA4" s="362"/>
+      <c r="AB4" s="362"/>
+      <c r="AC4" s="362"/>
+      <c r="AD4" s="362"/>
+      <c r="AE4" s="362"/>
+      <c r="AF4" s="362"/>
+      <c r="AG4" s="362"/>
+    </row>
+    <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="362"/>
+      <c r="B5" s="362"/>
+      <c r="C5" s="362"/>
+      <c r="D5" s="362"/>
+      <c r="E5" s="362"/>
+      <c r="F5" s="362"/>
+      <c r="G5" s="362" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="303" t="s">
+      <c r="H5" s="362" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="303" t="s">
+      <c r="I5" s="362" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="303" t="s">
+      <c r="J5" s="362" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="303"/>
-      <c r="M5" s="303"/>
-      <c r="N5" s="303"/>
-      <c r="O5" s="303"/>
-      <c r="P5" s="303"/>
-      <c r="Q5" s="303"/>
-      <c r="R5" s="303"/>
-      <c r="S5" s="303"/>
-      <c r="T5" s="303"/>
-      <c r="U5" s="303"/>
-      <c r="V5" s="303"/>
-      <c r="W5" s="303"/>
-      <c r="X5" s="303"/>
-      <c r="Y5" s="303"/>
-      <c r="Z5" s="303"/>
-      <c r="AA5" s="303"/>
-      <c r="AB5" s="303"/>
-      <c r="AC5" s="303"/>
-      <c r="AD5" s="303" t="s">
+      <c r="K5" s="362"/>
+      <c r="L5" s="362"/>
+      <c r="M5" s="362"/>
+      <c r="N5" s="362"/>
+      <c r="O5" s="362"/>
+      <c r="P5" s="362"/>
+      <c r="Q5" s="362"/>
+      <c r="R5" s="362"/>
+      <c r="S5" s="362"/>
+      <c r="T5" s="362"/>
+      <c r="U5" s="362"/>
+      <c r="V5" s="362"/>
+      <c r="W5" s="362"/>
+      <c r="X5" s="362"/>
+      <c r="Y5" s="362"/>
+      <c r="Z5" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="303"/>
-      <c r="AF5" s="303" t="s">
+      <c r="AA5" s="362"/>
+      <c r="AB5" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="303"/>
-      <c r="AH5" s="303" t="s">
+      <c r="AC5" s="362"/>
+      <c r="AD5" s="362" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="303"/>
-      <c r="AJ5" s="304" t="s">
+      <c r="AE5" s="362"/>
+      <c r="AF5" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="303"/>
-      <c r="AL5" s="304" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM5" s="303"/>
-    </row>
-    <row r="6" spans="1:39" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="303"/>
-      <c r="B6" s="303"/>
-      <c r="C6" s="303" t="s">
+      <c r="AG5" s="362"/>
+    </row>
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="362"/>
+      <c r="B6" s="362"/>
+      <c r="C6" s="362" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="303" t="s">
+      <c r="D6" s="362" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="303" t="s">
+      <c r="E6" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="303" t="s">
+      <c r="F6" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="303" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
-      <c r="M6" s="303"/>
-      <c r="N6" s="303" t="s">
+      <c r="G6" s="362"/>
+      <c r="H6" s="362"/>
+      <c r="I6" s="362"/>
+      <c r="J6" s="362"/>
+      <c r="K6" s="362"/>
+      <c r="L6" s="362"/>
+      <c r="M6" s="362" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="303"/>
-      <c r="P6" s="303" t="s">
+      <c r="N6" s="362"/>
+      <c r="O6" s="362" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="303"/>
-      <c r="R6" s="303" t="s">
+      <c r="P6" s="362"/>
+      <c r="Q6" s="362" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="303"/>
-      <c r="T6" s="304" t="s">
+      <c r="R6" s="362"/>
+      <c r="S6" s="363" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="303"/>
-      <c r="V6" s="304" t="s">
-        <v>22</v>
-      </c>
-      <c r="W6" s="303"/>
-      <c r="X6" s="303"/>
-      <c r="Y6" s="303" t="s">
+      <c r="T6" s="362"/>
+      <c r="U6" s="362"/>
+      <c r="V6" s="362" t="s">
         <v>18</v>
       </c>
-      <c r="Z6" s="303" t="s">
+      <c r="W6" s="362" t="s">
         <v>19</v>
       </c>
-      <c r="AA6" s="303" t="s">
+      <c r="X6" s="362" t="s">
         <v>20</v>
       </c>
-      <c r="AB6" s="303" t="s">
+      <c r="Y6" s="362" t="s">
         <v>21</v>
       </c>
-      <c r="AC6" s="303" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD6" s="303" t="s">
+      <c r="Z6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="303" t="s">
+      <c r="AA6" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="303" t="s">
+      <c r="AB6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="303" t="s">
+      <c r="AC6" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="303" t="s">
+      <c r="AD6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="303" t="s">
+      <c r="AE6" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="303" t="s">
+      <c r="AF6" s="362" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="303" t="s">
+      <c r="AG6" s="362" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="303" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM6" s="303" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="303"/>
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
-      <c r="I7" s="303"/>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="186" t="s">
+    </row>
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="362"/>
+      <c r="B7" s="362"/>
+      <c r="C7" s="362"/>
+      <c r="D7" s="362"/>
+      <c r="E7" s="362"/>
+      <c r="F7" s="362"/>
+      <c r="G7" s="362"/>
+      <c r="H7" s="362"/>
+      <c r="I7" s="362"/>
+      <c r="J7" s="362"/>
+      <c r="K7" s="364" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="186" t="s">
+      <c r="L7" s="364" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="186" t="s">
+      <c r="M7" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="186" t="s">
+      <c r="N7" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="186" t="s">
+      <c r="O7" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" s="186" t="s">
+      <c r="P7" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="R7" s="186" t="s">
+      <c r="Q7" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="186" t="s">
+      <c r="R7" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="186" t="s">
+      <c r="S7" s="364" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="186" t="s">
+      <c r="T7" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="186" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="186" t="s">
-        <v>34</v>
-      </c>
-      <c r="X7" s="303"/>
-      <c r="Y7" s="303"/>
-      <c r="Z7" s="303"/>
-      <c r="AA7" s="303"/>
-      <c r="AB7" s="303"/>
-      <c r="AC7" s="303"/>
-      <c r="AD7" s="303"/>
-      <c r="AE7" s="303"/>
-      <c r="AF7" s="303"/>
-      <c r="AG7" s="303"/>
-      <c r="AH7" s="303"/>
-      <c r="AI7" s="303"/>
-      <c r="AJ7" s="303"/>
-      <c r="AK7" s="303"/>
-      <c r="AL7" s="303"/>
-      <c r="AM7" s="303"/>
+      <c r="U7" s="362"/>
+      <c r="V7" s="362"/>
+      <c r="W7" s="362"/>
+      <c r="X7" s="362"/>
+      <c r="Y7" s="362"/>
+      <c r="Z7" s="362"/>
+      <c r="AA7" s="362"/>
+      <c r="AB7" s="362"/>
+      <c r="AC7" s="362"/>
+      <c r="AD7" s="362"/>
+      <c r="AE7" s="362"/>
+      <c r="AF7" s="362"/>
+      <c r="AG7" s="362"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="Z3:AC3"/>
+  <mergeCells count="40">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="W3:Y3"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:G5"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:M6"/>
-    <mergeCell ref="N4:W5"/>
-    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L6"/>
+    <mergeCell ref="M4:T5"/>
+    <mergeCell ref="U4:U7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="Y4:AC5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AD4:AM4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39816,12 +39693,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" customHeight="1">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="327" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
       <c r="E1" s="171"/>
       <c r="F1" s="7"/>
       <c r="G1" s="171"/>
@@ -39835,22 +39712,22 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="315" t="s">
+      <c r="R1" s="327" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="315"/>
-      <c r="T1" s="315"/>
-      <c r="U1" s="315"/>
-      <c r="V1" s="315"/>
-      <c r="W1" s="315"/>
+      <c r="S1" s="327"/>
+      <c r="T1" s="327"/>
+      <c r="U1" s="327"/>
+      <c r="V1" s="327"/>
+      <c r="W1" s="327"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="316" t="s">
+      <c r="A2" s="328" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
       <c r="E2" s="172"/>
       <c r="F2" s="119"/>
       <c r="G2" s="172"/>
@@ -39864,249 +39741,249 @@
       <c r="O2" s="119"/>
       <c r="P2" s="119"/>
       <c r="Q2" s="119"/>
-      <c r="R2" s="316" t="s">
+      <c r="R2" s="328" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="328"/>
+      <c r="U2" s="328"/>
+      <c r="V2" s="328"/>
+      <c r="W2" s="328"/>
     </row>
     <row r="3" spans="1:23" ht="21" customHeight="1">
-      <c r="A3" s="317" t="s">
+      <c r="A3" s="329" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
-      <c r="G3" s="317"/>
-      <c r="H3" s="317"/>
-      <c r="I3" s="317"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="317"/>
-      <c r="L3" s="317"/>
-      <c r="M3" s="317"/>
-      <c r="N3" s="317"/>
-      <c r="O3" s="317"/>
-      <c r="P3" s="317"/>
-      <c r="Q3" s="317"/>
-      <c r="R3" s="317"/>
-      <c r="S3" s="317"/>
-      <c r="T3" s="317"/>
-      <c r="U3" s="317"/>
-      <c r="V3" s="317"/>
-      <c r="W3" s="317"/>
+      <c r="B3" s="329"/>
+      <c r="C3" s="329"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
+      <c r="H3" s="329"/>
+      <c r="I3" s="329"/>
+      <c r="J3" s="329"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="329"/>
+      <c r="M3" s="329"/>
+      <c r="N3" s="329"/>
+      <c r="O3" s="329"/>
+      <c r="P3" s="329"/>
+      <c r="Q3" s="329"/>
+      <c r="R3" s="329"/>
+      <c r="S3" s="329"/>
+      <c r="T3" s="329"/>
+      <c r="U3" s="329"/>
+      <c r="V3" s="329"/>
+      <c r="W3" s="329"/>
     </row>
     <row r="4" spans="1:23" ht="21" customHeight="1">
-      <c r="A4" s="318"/>
-      <c r="B4" s="318"/>
-      <c r="C4" s="318"/>
-      <c r="D4" s="318"/>
-      <c r="E4" s="318"/>
-      <c r="F4" s="318"/>
-      <c r="G4" s="318"/>
-      <c r="H4" s="318"/>
-      <c r="I4" s="318"/>
-      <c r="J4" s="318"/>
-      <c r="K4" s="318"/>
-      <c r="L4" s="318"/>
-      <c r="M4" s="318"/>
-      <c r="N4" s="318"/>
-      <c r="O4" s="318"/>
-      <c r="P4" s="318"/>
-      <c r="Q4" s="318"/>
-      <c r="R4" s="318"/>
-      <c r="S4" s="318"/>
-      <c r="T4" s="318"/>
-      <c r="U4" s="318"/>
-      <c r="V4" s="318"/>
-      <c r="W4" s="318"/>
+      <c r="A4" s="330"/>
+      <c r="B4" s="330"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
+      <c r="J4" s="330"/>
+      <c r="K4" s="330"/>
+      <c r="L4" s="330"/>
+      <c r="M4" s="330"/>
+      <c r="N4" s="330"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="330"/>
+      <c r="Q4" s="330"/>
+      <c r="R4" s="330"/>
+      <c r="S4" s="330"/>
+      <c r="T4" s="330"/>
+      <c r="U4" s="330"/>
+      <c r="V4" s="330"/>
+      <c r="W4" s="330"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="319"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="319"/>
-      <c r="D5" s="319"/>
-      <c r="E5" s="319"/>
-      <c r="F5" s="319"/>
-      <c r="G5" s="319"/>
-      <c r="H5" s="319"/>
-      <c r="I5" s="319"/>
-      <c r="J5" s="319"/>
-      <c r="K5" s="319"/>
-      <c r="L5" s="319"/>
-      <c r="M5" s="319"/>
-      <c r="N5" s="319"/>
-      <c r="O5" s="319"/>
-      <c r="P5" s="319"/>
-      <c r="Q5" s="319"/>
-      <c r="R5" s="319"/>
-      <c r="S5" s="319"/>
-      <c r="T5" s="319"/>
-      <c r="U5" s="319"/>
-      <c r="V5" s="319"/>
-      <c r="W5" s="319"/>
+      <c r="A5" s="331"/>
+      <c r="B5" s="331"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="331"/>
+      <c r="P5" s="331"/>
+      <c r="Q5" s="331"/>
+      <c r="R5" s="331"/>
+      <c r="S5" s="331"/>
+      <c r="T5" s="331"/>
+      <c r="U5" s="331"/>
+      <c r="V5" s="331"/>
+      <c r="W5" s="331"/>
     </row>
     <row r="6" spans="1:23" ht="21" customHeight="1">
-      <c r="A6" s="337" t="s">
+      <c r="A6" s="315" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="337" t="s">
+      <c r="B6" s="315" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="337" t="s">
+      <c r="C6" s="315" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="337" t="s">
+      <c r="D6" s="315" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="308" t="s">
+      <c r="E6" s="318" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="308" t="s">
+      <c r="F6" s="318" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="308" t="s">
+      <c r="G6" s="318" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="308" t="s">
+      <c r="H6" s="318" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="308" t="s">
+      <c r="I6" s="318" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="320" t="s">
+      <c r="J6" s="332" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="321"/>
-      <c r="L6" s="311" t="s">
+      <c r="K6" s="333"/>
+      <c r="L6" s="307" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="324"/>
-      <c r="N6" s="324"/>
-      <c r="O6" s="312"/>
-      <c r="P6" s="311" t="s">
+      <c r="M6" s="336"/>
+      <c r="N6" s="336"/>
+      <c r="O6" s="308"/>
+      <c r="P6" s="307" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="312"/>
-      <c r="R6" s="311" t="s">
+      <c r="Q6" s="308"/>
+      <c r="R6" s="307" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="312"/>
-      <c r="T6" s="311" t="s">
+      <c r="S6" s="308"/>
+      <c r="T6" s="307" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="312"/>
-      <c r="V6" s="311" t="s">
+      <c r="U6" s="308"/>
+      <c r="V6" s="307" t="s">
         <v>75</v>
       </c>
-      <c r="W6" s="312"/>
+      <c r="W6" s="308"/>
     </row>
     <row r="7" spans="1:23" ht="21" customHeight="1">
-      <c r="A7" s="338"/>
-      <c r="B7" s="338"/>
-      <c r="C7" s="338"/>
-      <c r="D7" s="338"/>
-      <c r="E7" s="309"/>
-      <c r="F7" s="309"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="322"/>
-      <c r="K7" s="323"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="325"/>
-      <c r="N7" s="325"/>
-      <c r="O7" s="314"/>
-      <c r="P7" s="313"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="313"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="313"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="313"/>
-      <c r="W7" s="314"/>
+      <c r="A7" s="316"/>
+      <c r="B7" s="316"/>
+      <c r="C7" s="316"/>
+      <c r="D7" s="316"/>
+      <c r="E7" s="319"/>
+      <c r="F7" s="319"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="319"/>
+      <c r="I7" s="319"/>
+      <c r="J7" s="334"/>
+      <c r="K7" s="335"/>
+      <c r="L7" s="309"/>
+      <c r="M7" s="337"/>
+      <c r="N7" s="337"/>
+      <c r="O7" s="310"/>
+      <c r="P7" s="309"/>
+      <c r="Q7" s="310"/>
+      <c r="R7" s="309"/>
+      <c r="S7" s="310"/>
+      <c r="T7" s="309"/>
+      <c r="U7" s="310"/>
+      <c r="V7" s="309"/>
+      <c r="W7" s="310"/>
     </row>
     <row r="8" spans="1:23" ht="21" customHeight="1">
-      <c r="A8" s="338"/>
-      <c r="B8" s="338"/>
-      <c r="C8" s="338"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="309"/>
-      <c r="F8" s="309"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="331" t="s">
+      <c r="A8" s="316"/>
+      <c r="B8" s="316"/>
+      <c r="C8" s="316"/>
+      <c r="D8" s="316"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="319"/>
+      <c r="I8" s="319"/>
+      <c r="J8" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="329" t="s">
+      <c r="K8" s="321" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="327" t="s">
+      <c r="L8" s="313" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="327" t="s">
+      <c r="M8" s="313" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="327" t="s">
+      <c r="N8" s="313" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="327" t="s">
+      <c r="O8" s="313" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="331" t="s">
+      <c r="P8" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="331" t="s">
+      <c r="Q8" s="311" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="331" t="s">
+      <c r="R8" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="331" t="s">
+      <c r="S8" s="311" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="331" t="s">
+      <c r="T8" s="311" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="331" t="s">
+      <c r="U8" s="311" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="335" t="s">
+      <c r="V8" s="325" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="333" t="s">
+      <c r="W8" s="323" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1">
-      <c r="A9" s="339"/>
-      <c r="B9" s="339"/>
-      <c r="C9" s="339"/>
-      <c r="D9" s="339"/>
-      <c r="E9" s="326"/>
-      <c r="F9" s="326"/>
-      <c r="G9" s="326"/>
-      <c r="H9" s="326"/>
-      <c r="I9" s="326"/>
-      <c r="J9" s="332"/>
-      <c r="K9" s="330"/>
-      <c r="L9" s="328"/>
-      <c r="M9" s="328"/>
-      <c r="N9" s="328"/>
-      <c r="O9" s="328"/>
-      <c r="P9" s="332"/>
-      <c r="Q9" s="332"/>
-      <c r="R9" s="332"/>
-      <c r="S9" s="332"/>
-      <c r="T9" s="332"/>
-      <c r="U9" s="332"/>
-      <c r="V9" s="336"/>
-      <c r="W9" s="334"/>
+      <c r="A9" s="317"/>
+      <c r="B9" s="317"/>
+      <c r="C9" s="317"/>
+      <c r="D9" s="317"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="320"/>
+      <c r="J9" s="312"/>
+      <c r="K9" s="322"/>
+      <c r="L9" s="314"/>
+      <c r="M9" s="314"/>
+      <c r="N9" s="314"/>
+      <c r="O9" s="314"/>
+      <c r="P9" s="312"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="312"/>
+      <c r="S9" s="312"/>
+      <c r="T9" s="312"/>
+      <c r="U9" s="312"/>
+      <c r="V9" s="326"/>
+      <c r="W9" s="324"/>
     </row>
     <row r="305" spans="1:41" s="107" customFormat="1" ht="24" customHeight="1">
       <c r="A305" s="183"/>
@@ -40405,26 +40282,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="V6:W7"/>
     <mergeCell ref="T6:U7"/>
     <mergeCell ref="A1:D1"/>
@@ -40441,6 +40298,26 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40476,40 +40353,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="344" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="344"/>
+      <c r="G1" s="344"/>
+      <c r="H1" s="344"/>
+      <c r="I1" s="344"/>
+      <c r="J1" s="344"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="344"/>
+      <c r="N1" s="344"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="345" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
-      <c r="I2" s="343"/>
-      <c r="J2" s="343"/>
-      <c r="K2" s="343"/>
-      <c r="L2" s="343"/>
-      <c r="M2" s="343"/>
-      <c r="N2" s="343"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
+      <c r="J2" s="345"/>
+      <c r="K2" s="345"/>
+      <c r="L2" s="345"/>
+      <c r="M2" s="345"/>
+      <c r="N2" s="345"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" customHeight="1">
       <c r="A3" s="11"/>
@@ -40528,54 +40405,54 @@
       <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="346" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="344"/>
-      <c r="C4" s="344"/>
-      <c r="D4" s="344"/>
-      <c r="E4" s="344"/>
-      <c r="F4" s="344"/>
-      <c r="G4" s="344"/>
-      <c r="H4" s="344"/>
-      <c r="I4" s="344"/>
-      <c r="J4" s="344"/>
-      <c r="K4" s="344"/>
-      <c r="L4" s="344"/>
-      <c r="M4" s="344"/>
-      <c r="N4" s="344"/>
+      <c r="B4" s="346"/>
+      <c r="C4" s="346"/>
+      <c r="D4" s="346"/>
+      <c r="E4" s="346"/>
+      <c r="F4" s="346"/>
+      <c r="G4" s="346"/>
+      <c r="H4" s="346"/>
+      <c r="I4" s="346"/>
+      <c r="J4" s="346"/>
+      <c r="K4" s="346"/>
+      <c r="L4" s="346"/>
+      <c r="M4" s="346"/>
+      <c r="N4" s="346"/>
     </row>
     <row r="5" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A5" s="345"/>
-      <c r="B5" s="345"/>
-      <c r="C5" s="345"/>
-      <c r="D5" s="345"/>
-      <c r="E5" s="345"/>
-      <c r="F5" s="345"/>
-      <c r="G5" s="345"/>
-      <c r="H5" s="345"/>
-      <c r="I5" s="345"/>
-      <c r="J5" s="345"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="345"/>
-      <c r="M5" s="345"/>
-      <c r="N5" s="345"/>
+      <c r="A5" s="347"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="347"/>
+      <c r="L5" s="347"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="347"/>
     </row>
     <row r="6" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A6" s="345"/>
-      <c r="B6" s="345"/>
-      <c r="C6" s="345"/>
-      <c r="D6" s="345"/>
-      <c r="E6" s="345"/>
-      <c r="F6" s="345"/>
-      <c r="G6" s="345"/>
-      <c r="H6" s="345"/>
-      <c r="I6" s="345"/>
-      <c r="J6" s="345"/>
-      <c r="K6" s="345"/>
-      <c r="L6" s="345"/>
-      <c r="M6" s="345"/>
-      <c r="N6" s="345"/>
+      <c r="A6" s="347"/>
+      <c r="B6" s="347"/>
+      <c r="C6" s="347"/>
+      <c r="D6" s="347"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="347"/>
+      <c r="G6" s="347"/>
+      <c r="H6" s="347"/>
+      <c r="I6" s="347"/>
+      <c r="J6" s="347"/>
+      <c r="K6" s="347"/>
+      <c r="L6" s="347"/>
+      <c r="M6" s="347"/>
+      <c r="N6" s="347"/>
     </row>
     <row r="7" spans="1:14" ht="21.6" customHeight="1">
       <c r="A7" s="20"/>
@@ -40594,117 +40471,105 @@
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A8" s="346" t="s">
+      <c r="A8" s="338" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="346" t="s">
+      <c r="B8" s="338" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="347" t="s">
+      <c r="C8" s="339" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="346" t="s">
+      <c r="D8" s="338" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="310" t="s">
+      <c r="E8" s="342" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="310"/>
-      <c r="G8" s="310" t="s">
+      <c r="F8" s="342"/>
+      <c r="G8" s="342" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="310"/>
-      <c r="I8" s="310"/>
-      <c r="J8" s="310"/>
-      <c r="K8" s="310" t="s">
+      <c r="H8" s="342"/>
+      <c r="I8" s="342"/>
+      <c r="J8" s="342"/>
+      <c r="K8" s="342" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="310" t="s">
+      <c r="L8" s="342" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="340" t="s">
+      <c r="M8" s="348" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="340"/>
+      <c r="N8" s="348"/>
     </row>
     <row r="9" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A9" s="346"/>
-      <c r="B9" s="346"/>
-      <c r="C9" s="348"/>
-      <c r="D9" s="346"/>
-      <c r="E9" s="310"/>
-      <c r="F9" s="310"/>
-      <c r="G9" s="310"/>
-      <c r="H9" s="310"/>
-      <c r="I9" s="310"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="310"/>
-      <c r="L9" s="310"/>
-      <c r="M9" s="340"/>
-      <c r="N9" s="340"/>
+      <c r="A9" s="338"/>
+      <c r="B9" s="338"/>
+      <c r="C9" s="340"/>
+      <c r="D9" s="338"/>
+      <c r="E9" s="342"/>
+      <c r="F9" s="342"/>
+      <c r="G9" s="342"/>
+      <c r="H9" s="342"/>
+      <c r="I9" s="342"/>
+      <c r="J9" s="342"/>
+      <c r="K9" s="342"/>
+      <c r="L9" s="342"/>
+      <c r="M9" s="348"/>
+      <c r="N9" s="348"/>
     </row>
     <row r="10" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A10" s="346"/>
-      <c r="B10" s="346"/>
-      <c r="C10" s="348"/>
-      <c r="D10" s="346"/>
-      <c r="E10" s="350" t="s">
+      <c r="A10" s="338"/>
+      <c r="B10" s="338"/>
+      <c r="C10" s="340"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="343" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="350" t="s">
+      <c r="F10" s="343" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="310" t="s">
+      <c r="G10" s="342" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="310" t="s">
+      <c r="H10" s="342" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="310" t="s">
+      <c r="I10" s="342" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="310" t="s">
+      <c r="J10" s="342" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="310"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="341" t="s">
+      <c r="K10" s="342"/>
+      <c r="L10" s="342"/>
+      <c r="M10" s="349" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="341" t="s">
+      <c r="N10" s="349" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A11" s="346"/>
-      <c r="B11" s="346"/>
-      <c r="C11" s="349"/>
-      <c r="D11" s="346"/>
-      <c r="E11" s="350"/>
-      <c r="F11" s="350"/>
-      <c r="G11" s="310"/>
-      <c r="H11" s="310"/>
-      <c r="I11" s="310"/>
-      <c r="J11" s="310"/>
-      <c r="K11" s="310"/>
-      <c r="L11" s="310"/>
-      <c r="M11" s="341"/>
-      <c r="N11" s="341"/>
+      <c r="A11" s="338"/>
+      <c r="B11" s="338"/>
+      <c r="C11" s="341"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="343"/>
+      <c r="F11" s="343"/>
+      <c r="G11" s="342"/>
+      <c r="H11" s="342"/>
+      <c r="I11" s="342"/>
+      <c r="J11" s="342"/>
+      <c r="K11" s="342"/>
+      <c r="L11" s="342"/>
+      <c r="M11" s="349"/>
+      <c r="N11" s="349"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -40715,6 +40580,18 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40743,50 +40620,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="142" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="350" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
       <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:9" s="142" customFormat="1" ht="39" customHeight="1">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="351" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="352"/>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
-      <c r="F2" s="352"/>
-      <c r="G2" s="352"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
       <c r="H2" s="143"/>
       <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:9" s="142" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="353"/>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="353"/>
-      <c r="G3" s="353"/>
+      <c r="A3" s="352"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
       <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:9" s="146" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="354" t="s">
+      <c r="A4" s="353" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="354"/>
-      <c r="C4" s="354"/>
-      <c r="D4" s="354"/>
-      <c r="E4" s="354"/>
-      <c r="F4" s="354"/>
-      <c r="G4" s="354"/>
+      <c r="B4" s="353"/>
+      <c r="C4" s="353"/>
+      <c r="D4" s="353"/>
+      <c r="E4" s="353"/>
+      <c r="F4" s="353"/>
+      <c r="G4" s="353"/>
       <c r="H4" s="145"/>
     </row>
     <row r="5" spans="1:9" s="146" customFormat="1" ht="22.5" customHeight="1">
@@ -40797,24 +40674,24 @@
       <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:9" s="149" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="356" t="s">
+      <c r="A6" s="355" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="356" t="s">
+      <c r="B6" s="355" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="355" t="s">
+      <c r="C6" s="354" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="355"/>
-      <c r="E6" s="355"/>
-      <c r="F6" s="355"/>
-      <c r="G6" s="355"/>
+      <c r="D6" s="354"/>
+      <c r="E6" s="354"/>
+      <c r="F6" s="354"/>
+      <c r="G6" s="354"/>
       <c r="H6" s="180"/>
     </row>
     <row r="7" spans="1:9" s="146" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="356"/>
-      <c r="B7" s="356"/>
+      <c r="A7" s="355"/>
+      <c r="B7" s="355"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -40833,8 +40710,8 @@
       <c r="H7" s="150"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A8" s="356"/>
-      <c r="B8" s="356"/>
+      <c r="A8" s="355"/>
+      <c r="B8" s="355"/>
       <c r="C8" s="130" t="s">
         <v>40</v>
       </c>
@@ -40885,66 +40762,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A1" s="351" t="s">
+      <c r="A1" s="350" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="351"/>
-      <c r="F1" s="351"/>
-      <c r="G1" s="351"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
     </row>
     <row r="2" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A2" s="352" t="s">
+      <c r="A2" s="351" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="352"/>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
-      <c r="F2" s="352"/>
-      <c r="G2" s="352"/>
+      <c r="B2" s="351"/>
+      <c r="C2" s="351"/>
+      <c r="D2" s="351"/>
+      <c r="E2" s="351"/>
+      <c r="F2" s="351"/>
+      <c r="G2" s="351"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="353"/>
-      <c r="B3" s="353"/>
-      <c r="C3" s="353"/>
-      <c r="D3" s="353"/>
-      <c r="E3" s="353"/>
-      <c r="F3" s="353"/>
-      <c r="G3" s="353"/>
+      <c r="A3" s="352"/>
+      <c r="B3" s="352"/>
+      <c r="C3" s="352"/>
+      <c r="D3" s="352"/>
+      <c r="E3" s="352"/>
+      <c r="F3" s="352"/>
+      <c r="G3" s="352"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="357" t="s">
+      <c r="A4" s="356" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="357"/>
-      <c r="C4" s="357"/>
-      <c r="D4" s="357"/>
-      <c r="E4" s="357"/>
-      <c r="F4" s="357"/>
-      <c r="G4" s="357"/>
+      <c r="B4" s="356"/>
+      <c r="C4" s="356"/>
+      <c r="D4" s="356"/>
+      <c r="E4" s="356"/>
+      <c r="F4" s="356"/>
+      <c r="G4" s="356"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="358" t="s">
+      <c r="A5" s="357" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="358" t="s">
+      <c r="B5" s="357" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="359" t="s">
+      <c r="C5" s="358" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="359"/>
-      <c r="E5" s="359"/>
-      <c r="F5" s="359"/>
-      <c r="G5" s="359"/>
+      <c r="D5" s="358"/>
+      <c r="E5" s="358"/>
+      <c r="F5" s="358"/>
+      <c r="G5" s="358"/>
       <c r="H5" s="181"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="358"/>
-      <c r="B6" s="358"/>
+      <c r="A6" s="357"/>
+      <c r="B6" s="357"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -40962,8 +40839,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A7" s="358"/>
-      <c r="B7" s="358"/>
+      <c r="A7" s="357"/>
+      <c r="B7" s="357"/>
       <c r="C7" s="132" t="s">
         <v>40</v>
       </c>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C94B6C2-328A-4180-9880-B41F2983965A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E24464D-F266-4818-A230-04F4D804E5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="802" activeTab="1" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
@@ -1632,7 +1632,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="365">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2165,59 +2165,8 @@
     <xf numFmtId="0" fontId="68" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2225,82 +2174,176 @@
     <xf numFmtId="0" fontId="41" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="171" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="171" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="46" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="48" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="51" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2310,6 +2353,12 @@
     <xf numFmtId="164" fontId="51" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2325,17 +2374,20 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="41" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2347,42 +2399,6 @@
     </xf>
     <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="54" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="49" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2421,149 +2437,145 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="152" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="41" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="1" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="22" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="8" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="9" xfId="151" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="53" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="53" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="68" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2581,6 +2593,10 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2591,58 +2607,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2678,6 +2642,76 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2690,30 +2724,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2745,18 +2758,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="153">
@@ -3313,13 +3316,13 @@
     </row>
     <row r="2" spans="1:27" ht="24.75" customHeight="1">
       <c r="A2" s="24"/>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="198"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="198"/>
-      <c r="G2" s="198"/>
-      <c r="H2" s="198"/>
+      <c r="B2" s="271"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
       <c r="I2" s="24"/>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -3342,29 +3345,29 @@
     </row>
     <row r="3" spans="1:27" ht="40.5" customHeight="1">
       <c r="A3" s="24"/>
-      <c r="B3" s="199" t="s">
+      <c r="B3" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="205" t="s">
+      <c r="C3" s="286"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="205" t="s">
+      <c r="F3" s="188" t="s">
         <v>104</v>
       </c>
-      <c r="G3" s="205" t="s">
+      <c r="G3" s="188" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="207" t="s">
+      <c r="H3" s="291" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="208"/>
-      <c r="J3" s="209" t="s">
+      <c r="I3" s="292"/>
+      <c r="J3" s="293" t="s">
         <v>107</v>
       </c>
-      <c r="K3" s="210"/>
-      <c r="L3" s="205" t="s">
+      <c r="K3" s="294"/>
+      <c r="L3" s="188" t="s">
         <v>108</v>
       </c>
       <c r="M3" s="24"/>
@@ -3378,7 +3381,7 @@
       <c r="U3" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="V3" s="189" t="s">
+      <c r="V3" s="276" t="s">
         <v>143</v>
       </c>
       <c r="W3" s="63" t="s">
@@ -3391,21 +3394,21 @@
     </row>
     <row r="4" spans="1:27" ht="43.5" customHeight="1">
       <c r="A4" s="24"/>
-      <c r="B4" s="202"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="189"/>
+      <c r="G4" s="189"/>
       <c r="H4" s="25" t="s">
         <v>109</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="J4" s="211"/>
-      <c r="K4" s="212"/>
-      <c r="L4" s="206"/>
+      <c r="J4" s="295"/>
+      <c r="K4" s="296"/>
+      <c r="L4" s="189"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
@@ -3417,7 +3420,7 @@
       <c r="U4" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="V4" s="190"/>
+      <c r="V4" s="277"/>
       <c r="W4" s="63" t="s">
         <v>98</v>
       </c>
@@ -3428,17 +3431,17 @@
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="213"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="213"/>
+      <c r="B5" s="269"/>
+      <c r="C5" s="269"/>
+      <c r="D5" s="269"/>
       <c r="E5" s="164"/>
       <c r="F5" s="164"/>
       <c r="G5" s="165"/>
       <c r="H5" s="164"/>
       <c r="I5" s="164"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="216"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="299"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
@@ -3459,17 +3462,17 @@
     </row>
     <row r="6" spans="1:27" ht="31.5" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="213"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
+      <c r="B6" s="269"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="269"/>
       <c r="E6" s="164"/>
       <c r="F6" s="164"/>
       <c r="G6" s="165"/>
       <c r="H6" s="164"/>
       <c r="I6" s="164"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="215"/>
-      <c r="L6" s="217"/>
+      <c r="J6" s="297"/>
+      <c r="K6" s="298"/>
+      <c r="L6" s="300"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
       <c r="O6" s="24"/>
@@ -3488,17 +3491,17 @@
     </row>
     <row r="7" spans="1:27" ht="31.5" customHeight="1">
       <c r="A7" s="24"/>
-      <c r="B7" s="213"/>
-      <c r="C7" s="213"/>
-      <c r="D7" s="213"/>
+      <c r="B7" s="269"/>
+      <c r="C7" s="269"/>
+      <c r="D7" s="269"/>
       <c r="E7" s="164"/>
       <c r="F7" s="164"/>
       <c r="G7" s="165"/>
       <c r="H7" s="164"/>
       <c r="I7" s="164"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="217"/>
+      <c r="J7" s="297"/>
+      <c r="K7" s="298"/>
+      <c r="L7" s="300"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
@@ -3517,17 +3520,17 @@
     </row>
     <row r="8" spans="1:27" ht="31.5" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="213"/>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
+      <c r="B8" s="269"/>
+      <c r="C8" s="269"/>
+      <c r="D8" s="269"/>
       <c r="E8" s="164"/>
       <c r="F8" s="164"/>
       <c r="G8" s="165"/>
       <c r="H8" s="164"/>
       <c r="I8" s="164"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="215"/>
-      <c r="L8" s="218"/>
+      <c r="J8" s="297"/>
+      <c r="K8" s="298"/>
+      <c r="L8" s="301"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -3565,23 +3568,23 @@
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="97"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="197"/>
-      <c r="X9" s="197"/>
+      <c r="U9" s="284"/>
+      <c r="V9" s="284"/>
+      <c r="W9" s="284"/>
+      <c r="X9" s="284"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="31"/>
       <c r="AA9" s="31"/>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="222"/>
-      <c r="H10" s="222"/>
+      <c r="B10" s="271"/>
+      <c r="C10" s="271"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="271"/>
+      <c r="F10" s="271"/>
+      <c r="G10" s="272"/>
+      <c r="H10" s="272"/>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
       <c r="K10" s="24"/>
@@ -3594,29 +3597,29 @@
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="97"/>
-      <c r="U10" s="195" t="s">
+      <c r="U10" s="282" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="191" t="s">
+      <c r="V10" s="278" t="s">
         <v>155</v>
       </c>
-      <c r="W10" s="192"/>
-      <c r="X10" s="193"/>
+      <c r="W10" s="279"/>
+      <c r="X10" s="280"/>
       <c r="Y10" s="65"/>
       <c r="Z10" s="65"/>
       <c r="AA10" s="65"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="223" t="s">
+      <c r="B11" s="273" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="223"/>
-      <c r="D11" s="223"/>
-      <c r="E11" s="224" t="s">
+      <c r="C11" s="273"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="274" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="224"/>
+      <c r="F11" s="274"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -3631,7 +3634,7 @@
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
       <c r="T11" s="97"/>
-      <c r="U11" s="196"/>
+      <c r="U11" s="283"/>
       <c r="V11" s="49" t="s">
         <v>156</v>
       </c>
@@ -3647,11 +3650,11 @@
     </row>
     <row r="12" spans="1:27" ht="28.5" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="213"/>
-      <c r="C12" s="213"/>
-      <c r="D12" s="213"/>
-      <c r="E12" s="219"/>
-      <c r="F12" s="219"/>
+      <c r="B12" s="269"/>
+      <c r="C12" s="269"/>
+      <c r="D12" s="269"/>
+      <c r="E12" s="270"/>
+      <c r="F12" s="270"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
       <c r="I12" s="24"/>
@@ -3678,11 +3681,11 @@
     </row>
     <row r="13" spans="1:27" ht="28.5" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="213"/>
-      <c r="C13" s="213"/>
-      <c r="D13" s="213"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="270"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -3707,11 +3710,11 @@
     </row>
     <row r="14" spans="1:27" ht="28.5" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="213"/>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="219"/>
-      <c r="F14" s="219"/>
+      <c r="B14" s="269"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="269"/>
+      <c r="E14" s="270"/>
+      <c r="F14" s="270"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
       <c r="I14" s="24"/>
@@ -3736,11 +3739,11 @@
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="213"/>
-      <c r="D15" s="213"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
+      <c r="B15" s="269"/>
+      <c r="C15" s="269"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -4026,10 +4029,10 @@
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
       <c r="T24" s="70"/>
-      <c r="U24" s="188"/>
-      <c r="V24" s="188"/>
-      <c r="W24" s="188"/>
-      <c r="X24" s="188"/>
+      <c r="U24" s="275"/>
+      <c r="V24" s="275"/>
+      <c r="W24" s="275"/>
+      <c r="X24" s="275"/>
       <c r="Y24" s="75"/>
       <c r="Z24" s="75"/>
       <c r="AA24" s="76"/>
@@ -4055,14 +4058,14 @@
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
-      <c r="U25" s="194" t="s">
+      <c r="U25" s="281" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="194" t="s">
+      <c r="V25" s="281" t="s">
         <v>161</v>
       </c>
-      <c r="W25" s="194"/>
-      <c r="X25" s="194"/>
+      <c r="W25" s="281"/>
+      <c r="X25" s="281"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
       <c r="AA25" s="36"/>
@@ -4088,7 +4091,7 @@
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
       <c r="T26" s="55"/>
-      <c r="U26" s="194"/>
+      <c r="U26" s="281"/>
       <c r="V26" s="49" t="s">
         <v>162</v>
       </c>
@@ -4276,26 +4279,26 @@
       <c r="AA32" s="31"/>
     </row>
     <row r="33" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A33" s="220" t="s">
+      <c r="A33" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="220"/>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
+      <c r="B33" s="238"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="238"/>
       <c r="E33" s="34"/>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="221" t="s">
+      <c r="J33" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="K33" s="221"/>
-      <c r="L33" s="221"/>
-      <c r="M33" s="221"/>
-      <c r="N33" s="221"/>
-      <c r="O33" s="221"/>
-      <c r="P33" s="221"/>
+      <c r="K33" s="239"/>
+      <c r="L33" s="239"/>
+      <c r="M33" s="239"/>
+      <c r="N33" s="239"/>
+      <c r="O33" s="239"/>
+      <c r="P33" s="239"/>
       <c r="Q33" s="32"/>
       <c r="R33" s="32"/>
       <c r="S33" s="32"/>
@@ -4309,26 +4312,26 @@
       <c r="AA33" s="36"/>
     </row>
     <row r="34" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A34" s="234" t="s">
+      <c r="A34" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="234"/>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
+      <c r="B34" s="240"/>
+      <c r="C34" s="240"/>
+      <c r="D34" s="240"/>
       <c r="E34" s="34"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="235" t="s">
+      <c r="J34" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="K34" s="235"/>
-      <c r="L34" s="235"/>
-      <c r="M34" s="235"/>
-      <c r="N34" s="235"/>
-      <c r="O34" s="235"/>
-      <c r="P34" s="235"/>
+      <c r="K34" s="241"/>
+      <c r="L34" s="241"/>
+      <c r="M34" s="241"/>
+      <c r="N34" s="241"/>
+      <c r="O34" s="241"/>
+      <c r="P34" s="241"/>
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
@@ -4371,24 +4374,24 @@
       <c r="AA35" s="31"/>
     </row>
     <row r="36" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A36" s="236" t="s">
+      <c r="A36" s="242" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="236"/>
-      <c r="C36" s="236"/>
-      <c r="D36" s="236"/>
-      <c r="E36" s="236"/>
-      <c r="F36" s="236"/>
-      <c r="G36" s="236"/>
-      <c r="H36" s="236"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="236"/>
-      <c r="K36" s="236"/>
-      <c r="L36" s="236"/>
-      <c r="M36" s="236"/>
-      <c r="N36" s="236"/>
-      <c r="O36" s="236"/>
-      <c r="P36" s="236"/>
+      <c r="B36" s="242"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="242"/>
+      <c r="E36" s="242"/>
+      <c r="F36" s="242"/>
+      <c r="G36" s="242"/>
+      <c r="H36" s="242"/>
+      <c r="I36" s="242"/>
+      <c r="J36" s="242"/>
+      <c r="K36" s="242"/>
+      <c r="L36" s="242"/>
+      <c r="M36" s="242"/>
+      <c r="N36" s="242"/>
+      <c r="O36" s="242"/>
+      <c r="P36" s="242"/>
       <c r="Q36" s="41"/>
       <c r="R36" s="41"/>
       <c r="S36" s="41"/>
@@ -4402,22 +4405,22 @@
       <c r="AA36" s="31"/>
     </row>
     <row r="37" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A37" s="237"/>
-      <c r="B37" s="237"/>
-      <c r="C37" s="237"/>
-      <c r="D37" s="237"/>
-      <c r="E37" s="237"/>
-      <c r="F37" s="237"/>
-      <c r="G37" s="237"/>
-      <c r="H37" s="237"/>
-      <c r="I37" s="237"/>
-      <c r="J37" s="237"/>
-      <c r="K37" s="237"/>
-      <c r="L37" s="237"/>
-      <c r="M37" s="237"/>
-      <c r="N37" s="237"/>
-      <c r="O37" s="237"/>
-      <c r="P37" s="237"/>
+      <c r="A37" s="243"/>
+      <c r="B37" s="243"/>
+      <c r="C37" s="243"/>
+      <c r="D37" s="243"/>
+      <c r="E37" s="243"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="243"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="243"/>
+      <c r="J37" s="243"/>
+      <c r="K37" s="243"/>
+      <c r="L37" s="243"/>
+      <c r="M37" s="243"/>
+      <c r="N37" s="243"/>
+      <c r="O37" s="243"/>
+      <c r="P37" s="243"/>
       <c r="Q37" s="44"/>
       <c r="R37" s="44"/>
       <c r="S37" s="44"/>
@@ -4460,86 +4463,86 @@
       <c r="AA38" s="31"/>
     </row>
     <row r="39" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A39" s="238" t="s">
+      <c r="A39" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="238" t="s">
+      <c r="B39" s="209" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="238" t="s">
+      <c r="C39" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="241" t="s">
+      <c r="D39" s="248" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="244" t="s">
+      <c r="E39" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="F39" s="245"/>
-      <c r="G39" s="246"/>
-      <c r="H39" s="241" t="s">
+      <c r="F39" s="224"/>
+      <c r="G39" s="219"/>
+      <c r="H39" s="248" t="s">
         <v>125</v>
       </c>
-      <c r="I39" s="244" t="s">
+      <c r="I39" s="218" t="s">
         <v>126</v>
       </c>
-      <c r="J39" s="245"/>
-      <c r="K39" s="245"/>
-      <c r="L39" s="246"/>
-      <c r="M39" s="244" t="s">
+      <c r="J39" s="224"/>
+      <c r="K39" s="224"/>
+      <c r="L39" s="219"/>
+      <c r="M39" s="218" t="s">
         <v>127</v>
       </c>
-      <c r="N39" s="245"/>
-      <c r="O39" s="245"/>
-      <c r="P39" s="246"/>
+      <c r="N39" s="224"/>
+      <c r="O39" s="224"/>
+      <c r="P39" s="219"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="47"/>
       <c r="S39" s="47"/>
       <c r="T39" s="47"/>
-      <c r="U39" s="225" t="s">
+      <c r="U39" s="262" t="s">
         <v>53</v>
       </c>
-      <c r="V39" s="225"/>
-      <c r="W39" s="225"/>
-      <c r="X39" s="225"/>
-      <c r="Y39" s="226"/>
-      <c r="Z39" s="227"/>
-      <c r="AA39" s="228"/>
+      <c r="V39" s="262"/>
+      <c r="W39" s="262"/>
+      <c r="X39" s="262"/>
+      <c r="Y39" s="263"/>
+      <c r="Z39" s="264"/>
+      <c r="AA39" s="265"/>
     </row>
     <row r="40" spans="1:27" ht="9.75" customHeight="1">
-      <c r="A40" s="239"/>
-      <c r="B40" s="239"/>
-      <c r="C40" s="239"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="247"/>
-      <c r="F40" s="248"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="247"/>
-      <c r="J40" s="248"/>
-      <c r="K40" s="248"/>
-      <c r="L40" s="249"/>
-      <c r="M40" s="247"/>
-      <c r="N40" s="248"/>
-      <c r="O40" s="248"/>
-      <c r="P40" s="249"/>
+      <c r="A40" s="210"/>
+      <c r="B40" s="210"/>
+      <c r="C40" s="210"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="222"/>
+      <c r="F40" s="226"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="249"/>
+      <c r="I40" s="222"/>
+      <c r="J40" s="226"/>
+      <c r="K40" s="226"/>
+      <c r="L40" s="223"/>
+      <c r="M40" s="222"/>
+      <c r="N40" s="226"/>
+      <c r="O40" s="226"/>
+      <c r="P40" s="223"/>
       <c r="Q40" s="47"/>
       <c r="R40" s="47"/>
       <c r="S40" s="47"/>
       <c r="T40" s="47"/>
-      <c r="U40" s="225"/>
-      <c r="V40" s="225"/>
-      <c r="W40" s="225"/>
-      <c r="X40" s="225"/>
-      <c r="Y40" s="229"/>
-      <c r="Z40" s="230"/>
-      <c r="AA40" s="231"/>
+      <c r="U40" s="262"/>
+      <c r="V40" s="262"/>
+      <c r="W40" s="262"/>
+      <c r="X40" s="262"/>
+      <c r="Y40" s="266"/>
+      <c r="Z40" s="267"/>
+      <c r="AA40" s="268"/>
     </row>
     <row r="41" spans="1:27" ht="45" customHeight="1">
-      <c r="A41" s="240"/>
-      <c r="B41" s="240"/>
-      <c r="C41" s="240"/>
-      <c r="D41" s="243"/>
+      <c r="A41" s="211"/>
+      <c r="B41" s="211"/>
+      <c r="C41" s="211"/>
+      <c r="D41" s="250"/>
       <c r="E41" s="48" t="s">
         <v>128</v>
       </c>
@@ -4549,28 +4552,28 @@
       <c r="G41" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="H41" s="243"/>
-      <c r="I41" s="232" t="s">
+      <c r="H41" s="250"/>
+      <c r="I41" s="236" t="s">
         <v>131</v>
       </c>
-      <c r="J41" s="233"/>
-      <c r="K41" s="232" t="s">
+      <c r="J41" s="237"/>
+      <c r="K41" s="236" t="s">
         <v>132</v>
       </c>
-      <c r="L41" s="233"/>
-      <c r="M41" s="232" t="s">
+      <c r="L41" s="237"/>
+      <c r="M41" s="236" t="s">
         <v>133</v>
       </c>
-      <c r="N41" s="233"/>
-      <c r="O41" s="232" t="s">
+      <c r="N41" s="237"/>
+      <c r="O41" s="236" t="s">
         <v>132</v>
       </c>
-      <c r="P41" s="233"/>
+      <c r="P41" s="237"/>
       <c r="Q41" s="47"/>
       <c r="R41" s="47"/>
       <c r="S41" s="47"/>
       <c r="T41" s="47"/>
-      <c r="U41" s="225"/>
+      <c r="U41" s="262"/>
       <c r="V41" s="49" t="s">
         <v>134</v>
       </c>
@@ -4599,14 +4602,14 @@
       <c r="F42" s="162"/>
       <c r="G42" s="162"/>
       <c r="H42" s="163"/>
-      <c r="I42" s="250"/>
-      <c r="J42" s="251"/>
-      <c r="K42" s="250"/>
-      <c r="L42" s="251"/>
-      <c r="M42" s="250"/>
-      <c r="N42" s="251"/>
-      <c r="O42" s="250"/>
-      <c r="P42" s="251"/>
+      <c r="I42" s="260"/>
+      <c r="J42" s="261"/>
+      <c r="K42" s="260"/>
+      <c r="L42" s="261"/>
+      <c r="M42" s="260"/>
+      <c r="N42" s="261"/>
+      <c r="O42" s="260"/>
+      <c r="P42" s="261"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="51"/>
       <c r="S42" s="51"/>
@@ -4628,14 +4631,14 @@
       <c r="F43" s="162"/>
       <c r="G43" s="162"/>
       <c r="H43" s="163"/>
-      <c r="I43" s="250"/>
-      <c r="J43" s="251"/>
-      <c r="K43" s="250"/>
-      <c r="L43" s="251"/>
-      <c r="M43" s="250"/>
-      <c r="N43" s="251"/>
-      <c r="O43" s="250"/>
-      <c r="P43" s="251"/>
+      <c r="I43" s="260"/>
+      <c r="J43" s="261"/>
+      <c r="K43" s="260"/>
+      <c r="L43" s="261"/>
+      <c r="M43" s="260"/>
+      <c r="N43" s="261"/>
+      <c r="O43" s="260"/>
+      <c r="P43" s="261"/>
       <c r="Q43" s="51"/>
       <c r="R43" s="51"/>
       <c r="S43" s="51"/>
@@ -4657,14 +4660,14 @@
       <c r="F44" s="162"/>
       <c r="G44" s="162"/>
       <c r="H44" s="163"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="250"/>
-      <c r="N44" s="251"/>
-      <c r="O44" s="250"/>
-      <c r="P44" s="251"/>
+      <c r="I44" s="260"/>
+      <c r="J44" s="261"/>
+      <c r="K44" s="260"/>
+      <c r="L44" s="261"/>
+      <c r="M44" s="260"/>
+      <c r="N44" s="261"/>
+      <c r="O44" s="260"/>
+      <c r="P44" s="261"/>
       <c r="Q44" s="51"/>
       <c r="R44" s="51"/>
       <c r="S44" s="51"/>
@@ -4686,14 +4689,14 @@
       <c r="F45" s="162"/>
       <c r="G45" s="162"/>
       <c r="H45" s="163"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="251"/>
-      <c r="K45" s="250"/>
-      <c r="L45" s="251"/>
-      <c r="M45" s="250"/>
-      <c r="N45" s="251"/>
-      <c r="O45" s="250"/>
-      <c r="P45" s="251"/>
+      <c r="I45" s="260"/>
+      <c r="J45" s="261"/>
+      <c r="K45" s="260"/>
+      <c r="L45" s="261"/>
+      <c r="M45" s="260"/>
+      <c r="N45" s="261"/>
+      <c r="O45" s="260"/>
+      <c r="P45" s="261"/>
       <c r="Q45" s="51"/>
       <c r="R45" s="51"/>
       <c r="S45" s="51"/>
@@ -4745,60 +4748,60 @@
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
-      <c r="J47" s="252"/>
-      <c r="K47" s="252"/>
-      <c r="L47" s="252"/>
-      <c r="M47" s="252"/>
-      <c r="N47" s="252"/>
-      <c r="O47" s="252"/>
-      <c r="P47" s="252"/>
+      <c r="J47" s="190"/>
+      <c r="K47" s="190"/>
+      <c r="L47" s="190"/>
+      <c r="M47" s="190"/>
+      <c r="N47" s="190"/>
+      <c r="O47" s="190"/>
+      <c r="P47" s="190"/>
       <c r="Q47" s="55"/>
       <c r="R47" s="55"/>
       <c r="S47" s="55"/>
       <c r="T47" s="55"/>
-      <c r="U47" s="253" t="s">
+      <c r="U47" s="251" t="s">
         <v>53</v>
       </c>
-      <c r="V47" s="256" t="s">
+      <c r="V47" s="254" t="s">
         <v>137</v>
       </c>
-      <c r="W47" s="257"/>
-      <c r="X47" s="258"/>
+      <c r="W47" s="255"/>
+      <c r="X47" s="256"/>
       <c r="Y47" s="56"/>
       <c r="Z47" s="56"/>
       <c r="AA47" s="56"/>
     </row>
     <row r="48" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A48" s="262" t="s">
+      <c r="A48" s="191" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="262"/>
-      <c r="C48" s="263" t="s">
+      <c r="B48" s="191"/>
+      <c r="C48" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="D48" s="263"/>
-      <c r="E48" s="263"/>
-      <c r="F48" s="263"/>
-      <c r="G48" s="264" t="s">
+      <c r="D48" s="192"/>
+      <c r="E48" s="192"/>
+      <c r="F48" s="192"/>
+      <c r="G48" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="H48" s="264"/>
-      <c r="I48" s="264"/>
-      <c r="J48" s="264"/>
-      <c r="K48" s="264"/>
-      <c r="L48" s="264"/>
-      <c r="M48" s="264"/>
-      <c r="N48" s="264"/>
-      <c r="O48" s="264"/>
-      <c r="P48" s="264"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="193"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="193"/>
+      <c r="O48" s="193"/>
+      <c r="P48" s="193"/>
       <c r="Q48" s="57"/>
       <c r="R48" s="57"/>
       <c r="S48" s="57"/>
       <c r="T48" s="57"/>
-      <c r="U48" s="254"/>
-      <c r="V48" s="259"/>
-      <c r="W48" s="260"/>
-      <c r="X48" s="261"/>
+      <c r="U48" s="252"/>
+      <c r="V48" s="257"/>
+      <c r="W48" s="258"/>
+      <c r="X48" s="259"/>
       <c r="Y48" s="56"/>
       <c r="Z48" s="56"/>
       <c r="AA48" s="56"/>
@@ -4813,18 +4816,18 @@
       <c r="G49" s="57"/>
       <c r="H49" s="57"/>
       <c r="I49" s="57"/>
-      <c r="J49" s="264"/>
-      <c r="K49" s="264"/>
-      <c r="L49" s="264"/>
-      <c r="M49" s="264"/>
-      <c r="N49" s="264"/>
-      <c r="O49" s="264"/>
-      <c r="P49" s="264"/>
+      <c r="J49" s="193"/>
+      <c r="K49" s="193"/>
+      <c r="L49" s="193"/>
+      <c r="M49" s="193"/>
+      <c r="N49" s="193"/>
+      <c r="O49" s="193"/>
+      <c r="P49" s="193"/>
       <c r="Q49" s="57"/>
       <c r="R49" s="57"/>
       <c r="S49" s="57"/>
       <c r="T49" s="57"/>
-      <c r="U49" s="255"/>
+      <c r="U49" s="253"/>
       <c r="V49" s="49" t="s">
         <v>134</v>
       </c>
@@ -4964,15 +4967,15 @@
       <c r="G54" s="60"/>
       <c r="H54" s="60"/>
       <c r="I54" s="60"/>
-      <c r="J54" s="187" t="s">
+      <c r="J54" s="247" t="s">
         <v>141</v>
       </c>
-      <c r="K54" s="187"/>
-      <c r="L54" s="187"/>
-      <c r="M54" s="187"/>
-      <c r="N54" s="187"/>
-      <c r="O54" s="187"/>
-      <c r="P54" s="187"/>
+      <c r="K54" s="247"/>
+      <c r="L54" s="247"/>
+      <c r="M54" s="247"/>
+      <c r="N54" s="247"/>
+      <c r="O54" s="247"/>
+      <c r="P54" s="247"/>
       <c r="Q54" s="60"/>
       <c r="R54" s="60"/>
       <c r="S54" s="60"/>
@@ -5456,26 +5459,26 @@
       <c r="AD70" s="32"/>
     </row>
     <row r="71" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A71" s="220" t="s">
+      <c r="A71" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="B71" s="220"/>
-      <c r="C71" s="220"/>
-      <c r="D71" s="220"/>
+      <c r="B71" s="238"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="238"/>
       <c r="E71" s="34"/>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>
       <c r="H71" s="35"/>
       <c r="I71" s="34"/>
-      <c r="J71" s="221" t="s">
+      <c r="J71" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="K71" s="221"/>
-      <c r="L71" s="221"/>
-      <c r="M71" s="221"/>
-      <c r="N71" s="221"/>
-      <c r="O71" s="221"/>
-      <c r="P71" s="221"/>
+      <c r="K71" s="239"/>
+      <c r="L71" s="239"/>
+      <c r="M71" s="239"/>
+      <c r="N71" s="239"/>
+      <c r="O71" s="239"/>
+      <c r="P71" s="239"/>
       <c r="Q71" s="34"/>
       <c r="R71" s="34"/>
       <c r="S71" s="34"/>
@@ -5492,26 +5495,26 @@
       <c r="AD71" s="32"/>
     </row>
     <row r="72" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A72" s="234" t="s">
+      <c r="A72" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="234"/>
-      <c r="C72" s="234"/>
-      <c r="D72" s="234"/>
+      <c r="B72" s="240"/>
+      <c r="C72" s="240"/>
+      <c r="D72" s="240"/>
       <c r="E72" s="34"/>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
       <c r="I72" s="34"/>
-      <c r="J72" s="235" t="s">
+      <c r="J72" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="K72" s="235"/>
-      <c r="L72" s="235"/>
-      <c r="M72" s="235"/>
-      <c r="N72" s="235"/>
-      <c r="O72" s="235"/>
-      <c r="P72" s="235"/>
+      <c r="K72" s="241"/>
+      <c r="L72" s="241"/>
+      <c r="M72" s="241"/>
+      <c r="N72" s="241"/>
+      <c r="O72" s="241"/>
+      <c r="P72" s="241"/>
       <c r="Q72" s="35"/>
       <c r="R72" s="35"/>
       <c r="S72" s="35"/>
@@ -5547,39 +5550,39 @@
       <c r="Q73" s="32"/>
       <c r="R73" s="32"/>
       <c r="S73" s="32"/>
-      <c r="T73" s="187" t="s">
+      <c r="T73" s="247" t="s">
         <v>141</v>
       </c>
-      <c r="U73" s="187"/>
-      <c r="V73" s="187"/>
-      <c r="W73" s="187"/>
-      <c r="X73" s="187"/>
-      <c r="Y73" s="187"/>
-      <c r="Z73" s="187"/>
+      <c r="U73" s="247"/>
+      <c r="V73" s="247"/>
+      <c r="W73" s="247"/>
+      <c r="X73" s="247"/>
+      <c r="Y73" s="247"/>
+      <c r="Z73" s="247"/>
       <c r="AA73" s="60"/>
       <c r="AB73" s="60"/>
       <c r="AC73" s="60"/>
       <c r="AD73" s="60"/>
     </row>
     <row r="74" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A74" s="236" t="s">
+      <c r="A74" s="242" t="s">
         <v>145</v>
       </c>
-      <c r="B74" s="236"/>
-      <c r="C74" s="236"/>
-      <c r="D74" s="236"/>
-      <c r="E74" s="236"/>
-      <c r="F74" s="236"/>
-      <c r="G74" s="236"/>
-      <c r="H74" s="236"/>
-      <c r="I74" s="236"/>
-      <c r="J74" s="236"/>
-      <c r="K74" s="236"/>
-      <c r="L74" s="236"/>
-      <c r="M74" s="236"/>
-      <c r="N74" s="236"/>
-      <c r="O74" s="236"/>
-      <c r="P74" s="236"/>
+      <c r="B74" s="242"/>
+      <c r="C74" s="242"/>
+      <c r="D74" s="242"/>
+      <c r="E74" s="242"/>
+      <c r="F74" s="242"/>
+      <c r="G74" s="242"/>
+      <c r="H74" s="242"/>
+      <c r="I74" s="242"/>
+      <c r="J74" s="242"/>
+      <c r="K74" s="242"/>
+      <c r="L74" s="242"/>
+      <c r="M74" s="242"/>
+      <c r="N74" s="242"/>
+      <c r="O74" s="242"/>
+      <c r="P74" s="242"/>
       <c r="Q74" s="41"/>
       <c r="R74" s="41"/>
       <c r="S74" s="41"/>
@@ -5596,22 +5599,22 @@
       <c r="AD74" s="61"/>
     </row>
     <row r="75" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A75" s="237"/>
-      <c r="B75" s="237"/>
-      <c r="C75" s="237"/>
-      <c r="D75" s="237"/>
-      <c r="E75" s="237"/>
-      <c r="F75" s="237"/>
-      <c r="G75" s="237"/>
-      <c r="H75" s="237"/>
-      <c r="I75" s="237"/>
-      <c r="J75" s="237"/>
-      <c r="K75" s="237"/>
-      <c r="L75" s="237"/>
-      <c r="M75" s="237"/>
-      <c r="N75" s="237"/>
-      <c r="O75" s="237"/>
-      <c r="P75" s="237"/>
+      <c r="A75" s="243"/>
+      <c r="B75" s="243"/>
+      <c r="C75" s="243"/>
+      <c r="D75" s="243"/>
+      <c r="E75" s="243"/>
+      <c r="F75" s="243"/>
+      <c r="G75" s="243"/>
+      <c r="H75" s="243"/>
+      <c r="I75" s="243"/>
+      <c r="J75" s="243"/>
+      <c r="K75" s="243"/>
+      <c r="L75" s="243"/>
+      <c r="M75" s="243"/>
+      <c r="N75" s="243"/>
+      <c r="O75" s="243"/>
+      <c r="P75" s="243"/>
       <c r="Q75" s="44"/>
       <c r="R75" s="44"/>
       <c r="S75" s="44"/>
@@ -5662,46 +5665,46 @@
       <c r="AD76" s="61"/>
     </row>
     <row r="77" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A77" s="238" t="s">
+      <c r="A77" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="238" t="s">
+      <c r="B77" s="209" t="s">
         <v>121</v>
       </c>
-      <c r="C77" s="238" t="s">
+      <c r="C77" s="209" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="241" t="s">
+      <c r="D77" s="248" t="s">
         <v>123</v>
       </c>
-      <c r="E77" s="244" t="s">
+      <c r="E77" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="245"/>
-      <c r="G77" s="246"/>
-      <c r="H77" s="244" t="s">
+      <c r="F77" s="224"/>
+      <c r="G77" s="219"/>
+      <c r="H77" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="I77" s="246"/>
-      <c r="J77" s="244" t="s">
+      <c r="I77" s="219"/>
+      <c r="J77" s="218" t="s">
         <v>148</v>
       </c>
-      <c r="K77" s="246"/>
-      <c r="L77" s="244" t="s">
+      <c r="K77" s="219"/>
+      <c r="L77" s="218" t="s">
         <v>149</v>
       </c>
-      <c r="M77" s="246"/>
-      <c r="N77" s="244" t="s">
+      <c r="M77" s="219"/>
+      <c r="N77" s="218" t="s">
         <v>150</v>
       </c>
-      <c r="O77" s="246"/>
-      <c r="P77" s="265" t="s">
+      <c r="O77" s="219"/>
+      <c r="P77" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="Q77" s="265" t="s">
+      <c r="Q77" s="204" t="s">
         <v>152</v>
       </c>
-      <c r="R77" s="265" t="s">
+      <c r="R77" s="204" t="s">
         <v>153</v>
       </c>
       <c r="S77" s="64"/>
@@ -5718,24 +5721,24 @@
       <c r="AD77" s="61"/>
     </row>
     <row r="78" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A78" s="239"/>
-      <c r="B78" s="239"/>
-      <c r="C78" s="239"/>
-      <c r="D78" s="242"/>
-      <c r="E78" s="247"/>
-      <c r="F78" s="248"/>
-      <c r="G78" s="249"/>
-      <c r="H78" s="247"/>
-      <c r="I78" s="249"/>
-      <c r="J78" s="247"/>
-      <c r="K78" s="249"/>
-      <c r="L78" s="247"/>
-      <c r="M78" s="249"/>
-      <c r="N78" s="247"/>
-      <c r="O78" s="249"/>
-      <c r="P78" s="266"/>
-      <c r="Q78" s="266"/>
-      <c r="R78" s="266"/>
+      <c r="A78" s="210"/>
+      <c r="B78" s="210"/>
+      <c r="C78" s="210"/>
+      <c r="D78" s="249"/>
+      <c r="E78" s="222"/>
+      <c r="F78" s="226"/>
+      <c r="G78" s="223"/>
+      <c r="H78" s="222"/>
+      <c r="I78" s="223"/>
+      <c r="J78" s="222"/>
+      <c r="K78" s="223"/>
+      <c r="L78" s="222"/>
+      <c r="M78" s="223"/>
+      <c r="N78" s="222"/>
+      <c r="O78" s="223"/>
+      <c r="P78" s="205"/>
+      <c r="Q78" s="205"/>
+      <c r="R78" s="205"/>
       <c r="S78" s="31"/>
       <c r="T78" s="61"/>
       <c r="U78" s="61"/>
@@ -5750,46 +5753,46 @@
       <c r="AD78" s="61"/>
     </row>
     <row r="79" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A79" s="239"/>
-      <c r="B79" s="239"/>
-      <c r="C79" s="239"/>
-      <c r="D79" s="242"/>
-      <c r="E79" s="268" t="s">
+      <c r="A79" s="210"/>
+      <c r="B79" s="210"/>
+      <c r="C79" s="210"/>
+      <c r="D79" s="249"/>
+      <c r="E79" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="F79" s="268" t="s">
+      <c r="F79" s="207" t="s">
         <v>129</v>
       </c>
-      <c r="G79" s="268" t="s">
+      <c r="G79" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="H79" s="268" t="s">
+      <c r="H79" s="207" t="s">
         <v>154</v>
       </c>
-      <c r="I79" s="268" t="s">
+      <c r="I79" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="J79" s="268" t="s">
+      <c r="J79" s="207" t="s">
         <v>133</v>
       </c>
-      <c r="K79" s="268" t="s">
+      <c r="K79" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="L79" s="268" t="s">
+      <c r="L79" s="207" t="s">
         <v>128</v>
       </c>
-      <c r="M79" s="268" t="s">
+      <c r="M79" s="207" t="s">
         <v>130</v>
       </c>
-      <c r="N79" s="268" t="s">
+      <c r="N79" s="207" t="s">
         <v>133</v>
       </c>
-      <c r="O79" s="268" t="s">
+      <c r="O79" s="207" t="s">
         <v>132</v>
       </c>
-      <c r="P79" s="266"/>
-      <c r="Q79" s="266"/>
-      <c r="R79" s="266"/>
+      <c r="P79" s="205"/>
+      <c r="Q79" s="205"/>
+      <c r="R79" s="205"/>
       <c r="S79" s="31"/>
       <c r="T79" s="61"/>
       <c r="U79" s="61"/>
@@ -5804,24 +5807,24 @@
       <c r="AD79" s="61"/>
     </row>
     <row r="80" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A80" s="240"/>
-      <c r="B80" s="240"/>
-      <c r="C80" s="240"/>
-      <c r="D80" s="243"/>
-      <c r="E80" s="269"/>
-      <c r="F80" s="269"/>
-      <c r="G80" s="269"/>
-      <c r="H80" s="269"/>
-      <c r="I80" s="269"/>
-      <c r="J80" s="269"/>
-      <c r="K80" s="269"/>
-      <c r="L80" s="269"/>
-      <c r="M80" s="269"/>
-      <c r="N80" s="269"/>
-      <c r="O80" s="269"/>
-      <c r="P80" s="267"/>
-      <c r="Q80" s="267"/>
-      <c r="R80" s="267"/>
+      <c r="A80" s="211"/>
+      <c r="B80" s="211"/>
+      <c r="C80" s="211"/>
+      <c r="D80" s="250"/>
+      <c r="E80" s="208"/>
+      <c r="F80" s="208"/>
+      <c r="G80" s="208"/>
+      <c r="H80" s="208"/>
+      <c r="I80" s="208"/>
+      <c r="J80" s="208"/>
+      <c r="K80" s="208"/>
+      <c r="L80" s="208"/>
+      <c r="M80" s="208"/>
+      <c r="N80" s="208"/>
+      <c r="O80" s="208"/>
+      <c r="P80" s="206"/>
+      <c r="Q80" s="206"/>
+      <c r="R80" s="206"/>
       <c r="S80" s="66"/>
       <c r="T80" s="61"/>
       <c r="U80" s="61"/>
@@ -5842,22 +5845,22 @@
       <c r="B81" s="159" t="s">
         <v>158</v>
       </c>
-      <c r="C81" s="288"/>
-      <c r="D81" s="289"/>
-      <c r="E81" s="289"/>
-      <c r="F81" s="289"/>
-      <c r="G81" s="289"/>
-      <c r="H81" s="289"/>
-      <c r="I81" s="289"/>
-      <c r="J81" s="289"/>
-      <c r="K81" s="289"/>
-      <c r="L81" s="289"/>
-      <c r="M81" s="289"/>
-      <c r="N81" s="289"/>
-      <c r="O81" s="289"/>
-      <c r="P81" s="289"/>
-      <c r="Q81" s="289"/>
-      <c r="R81" s="290"/>
+      <c r="C81" s="244"/>
+      <c r="D81" s="245"/>
+      <c r="E81" s="245"/>
+      <c r="F81" s="245"/>
+      <c r="G81" s="245"/>
+      <c r="H81" s="245"/>
+      <c r="I81" s="245"/>
+      <c r="J81" s="245"/>
+      <c r="K81" s="245"/>
+      <c r="L81" s="245"/>
+      <c r="M81" s="245"/>
+      <c r="N81" s="245"/>
+      <c r="O81" s="245"/>
+      <c r="P81" s="245"/>
+      <c r="Q81" s="245"/>
+      <c r="R81" s="246"/>
       <c r="S81" s="67"/>
       <c r="T81" s="61"/>
       <c r="U81" s="61"/>
@@ -6006,22 +6009,22 @@
       <c r="B86" s="177" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="288"/>
-      <c r="D86" s="289"/>
-      <c r="E86" s="289"/>
-      <c r="F86" s="289"/>
-      <c r="G86" s="289"/>
-      <c r="H86" s="289"/>
-      <c r="I86" s="289"/>
-      <c r="J86" s="289"/>
-      <c r="K86" s="289"/>
-      <c r="L86" s="289"/>
-      <c r="M86" s="289"/>
-      <c r="N86" s="289"/>
-      <c r="O86" s="289"/>
-      <c r="P86" s="289"/>
-      <c r="Q86" s="289"/>
-      <c r="R86" s="290"/>
+      <c r="C86" s="244"/>
+      <c r="D86" s="245"/>
+      <c r="E86" s="245"/>
+      <c r="F86" s="245"/>
+      <c r="G86" s="245"/>
+      <c r="H86" s="245"/>
+      <c r="I86" s="245"/>
+      <c r="J86" s="245"/>
+      <c r="K86" s="245"/>
+      <c r="L86" s="245"/>
+      <c r="M86" s="245"/>
+      <c r="N86" s="245"/>
+      <c r="O86" s="245"/>
+      <c r="P86" s="245"/>
+      <c r="Q86" s="245"/>
+      <c r="R86" s="246"/>
       <c r="S86" s="69"/>
       <c r="T86" s="61"/>
       <c r="U86" s="61"/>
@@ -6195,13 +6198,13 @@
       <c r="G92" s="32"/>
       <c r="H92" s="32"/>
       <c r="I92" s="32"/>
-      <c r="J92" s="252"/>
-      <c r="K92" s="252"/>
-      <c r="L92" s="252"/>
-      <c r="M92" s="252"/>
-      <c r="N92" s="252"/>
-      <c r="O92" s="252"/>
-      <c r="P92" s="252"/>
+      <c r="J92" s="190"/>
+      <c r="K92" s="190"/>
+      <c r="L92" s="190"/>
+      <c r="M92" s="190"/>
+      <c r="N92" s="190"/>
+      <c r="O92" s="190"/>
+      <c r="P92" s="190"/>
       <c r="Q92" s="55"/>
       <c r="R92" s="55"/>
       <c r="S92" s="69"/>
@@ -6215,28 +6218,28 @@
       <c r="AA92" s="31"/>
     </row>
     <row r="93" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A93" s="262" t="s">
+      <c r="A93" s="191" t="s">
         <v>138</v>
       </c>
-      <c r="B93" s="262"/>
-      <c r="C93" s="263" t="s">
+      <c r="B93" s="191"/>
+      <c r="C93" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="D93" s="263"/>
-      <c r="E93" s="263"/>
-      <c r="F93" s="263"/>
-      <c r="G93" s="264" t="s">
+      <c r="D93" s="192"/>
+      <c r="E93" s="192"/>
+      <c r="F93" s="192"/>
+      <c r="G93" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="H93" s="264"/>
-      <c r="I93" s="264"/>
-      <c r="J93" s="264"/>
-      <c r="K93" s="264"/>
-      <c r="L93" s="264"/>
-      <c r="M93" s="264"/>
-      <c r="N93" s="264"/>
-      <c r="O93" s="264"/>
-      <c r="P93" s="264"/>
+      <c r="H93" s="193"/>
+      <c r="I93" s="193"/>
+      <c r="J93" s="193"/>
+      <c r="K93" s="193"/>
+      <c r="L93" s="193"/>
+      <c r="M93" s="193"/>
+      <c r="N93" s="193"/>
+      <c r="O93" s="193"/>
+      <c r="P93" s="193"/>
       <c r="Q93" s="78"/>
       <c r="R93" s="78"/>
       <c r="S93" s="69"/>
@@ -6259,13 +6262,13 @@
       <c r="G94" s="57"/>
       <c r="H94" s="57"/>
       <c r="I94" s="57"/>
-      <c r="J94" s="264"/>
-      <c r="K94" s="264"/>
-      <c r="L94" s="264"/>
-      <c r="M94" s="264"/>
-      <c r="N94" s="264"/>
-      <c r="O94" s="264"/>
-      <c r="P94" s="264"/>
+      <c r="J94" s="193"/>
+      <c r="K94" s="193"/>
+      <c r="L94" s="193"/>
+      <c r="M94" s="193"/>
+      <c r="N94" s="193"/>
+      <c r="O94" s="193"/>
+      <c r="P94" s="193"/>
       <c r="Q94" s="78"/>
       <c r="R94" s="78"/>
       <c r="S94" s="32"/>
@@ -6404,16 +6407,16 @@
       <c r="G99" s="60"/>
       <c r="H99" s="60"/>
       <c r="I99" s="60"/>
-      <c r="J99" s="187" t="str">
+      <c r="J99" s="247" t="str">
         <f>J54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K99" s="187"/>
-      <c r="L99" s="187"/>
-      <c r="M99" s="187"/>
-      <c r="N99" s="187"/>
-      <c r="O99" s="187"/>
-      <c r="P99" s="187"/>
+      <c r="K99" s="247"/>
+      <c r="L99" s="247"/>
+      <c r="M99" s="247"/>
+      <c r="N99" s="247"/>
+      <c r="O99" s="247"/>
+      <c r="P99" s="247"/>
       <c r="Q99" s="60"/>
       <c r="R99" s="60"/>
       <c r="S99" s="32"/>
@@ -6630,26 +6633,26 @@
       <c r="AA106" s="32"/>
     </row>
     <row r="107" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A107" s="220" t="s">
+      <c r="A107" s="238" t="s">
         <v>116</v>
       </c>
-      <c r="B107" s="220"/>
-      <c r="C107" s="220"/>
-      <c r="D107" s="220"/>
+      <c r="B107" s="238"/>
+      <c r="C107" s="238"/>
+      <c r="D107" s="238"/>
       <c r="E107" s="34"/>
       <c r="F107" s="35"/>
       <c r="G107" s="35"/>
       <c r="H107" s="35"/>
       <c r="I107" s="34"/>
-      <c r="J107" s="221" t="s">
+      <c r="J107" s="239" t="s">
         <v>117</v>
       </c>
-      <c r="K107" s="221"/>
-      <c r="L107" s="221"/>
-      <c r="M107" s="221"/>
-      <c r="N107" s="221"/>
-      <c r="O107" s="221"/>
-      <c r="P107" s="221"/>
+      <c r="K107" s="239"/>
+      <c r="L107" s="239"/>
+      <c r="M107" s="239"/>
+      <c r="N107" s="239"/>
+      <c r="O107" s="239"/>
+      <c r="P107" s="239"/>
       <c r="Q107" s="34"/>
       <c r="R107" s="34"/>
       <c r="S107" s="32"/>
@@ -6663,38 +6666,38 @@
       <c r="AA107" s="32"/>
     </row>
     <row r="108" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A108" s="234" t="s">
+      <c r="A108" s="240" t="s">
         <v>118</v>
       </c>
-      <c r="B108" s="234"/>
-      <c r="C108" s="234"/>
-      <c r="D108" s="234"/>
+      <c r="B108" s="240"/>
+      <c r="C108" s="240"/>
+      <c r="D108" s="240"/>
       <c r="E108" s="34"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
       <c r="I108" s="34"/>
-      <c r="J108" s="235" t="s">
+      <c r="J108" s="241" t="s">
         <v>119</v>
       </c>
-      <c r="K108" s="235"/>
-      <c r="L108" s="235"/>
-      <c r="M108" s="235"/>
-      <c r="N108" s="235"/>
-      <c r="O108" s="235"/>
-      <c r="P108" s="235"/>
+      <c r="K108" s="241"/>
+      <c r="L108" s="241"/>
+      <c r="M108" s="241"/>
+      <c r="N108" s="241"/>
+      <c r="O108" s="241"/>
+      <c r="P108" s="241"/>
       <c r="Q108" s="35"/>
       <c r="R108" s="35"/>
       <c r="S108" s="32"/>
-      <c r="T108" s="187" t="s">
+      <c r="T108" s="247" t="s">
         <v>141</v>
       </c>
-      <c r="U108" s="187"/>
-      <c r="V108" s="187"/>
-      <c r="W108" s="187"/>
-      <c r="X108" s="187"/>
-      <c r="Y108" s="187"/>
-      <c r="Z108" s="187"/>
+      <c r="U108" s="247"/>
+      <c r="V108" s="247"/>
+      <c r="W108" s="247"/>
+      <c r="X108" s="247"/>
+      <c r="Y108" s="247"/>
+      <c r="Z108" s="247"/>
       <c r="AA108" s="60"/>
     </row>
     <row r="109" spans="1:27" ht="24.75" customHeight="1">
@@ -6727,24 +6730,24 @@
       <c r="AA109" s="61"/>
     </row>
     <row r="110" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A110" s="236" t="s">
+      <c r="A110" s="242" t="s">
         <v>164</v>
       </c>
-      <c r="B110" s="236"/>
-      <c r="C110" s="236"/>
-      <c r="D110" s="236"/>
-      <c r="E110" s="236"/>
-      <c r="F110" s="236"/>
-      <c r="G110" s="236"/>
-      <c r="H110" s="236"/>
-      <c r="I110" s="236"/>
-      <c r="J110" s="236"/>
-      <c r="K110" s="236"/>
-      <c r="L110" s="236"/>
-      <c r="M110" s="236"/>
-      <c r="N110" s="236"/>
-      <c r="O110" s="236"/>
-      <c r="P110" s="236"/>
+      <c r="B110" s="242"/>
+      <c r="C110" s="242"/>
+      <c r="D110" s="242"/>
+      <c r="E110" s="242"/>
+      <c r="F110" s="242"/>
+      <c r="G110" s="242"/>
+      <c r="H110" s="242"/>
+      <c r="I110" s="242"/>
+      <c r="J110" s="242"/>
+      <c r="K110" s="242"/>
+      <c r="L110" s="242"/>
+      <c r="M110" s="242"/>
+      <c r="N110" s="242"/>
+      <c r="O110" s="242"/>
+      <c r="P110" s="242"/>
       <c r="Q110" s="41"/>
       <c r="R110" s="41"/>
       <c r="S110" s="34"/>
@@ -6758,25 +6761,25 @@
       <c r="AA110" s="61"/>
     </row>
     <row r="111" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A111" s="237">
+      <c r="A111" s="243">
         <f>A37</f>
         <v>0</v>
       </c>
-      <c r="B111" s="237"/>
-      <c r="C111" s="237"/>
-      <c r="D111" s="237"/>
-      <c r="E111" s="237"/>
-      <c r="F111" s="237"/>
-      <c r="G111" s="237"/>
-      <c r="H111" s="237"/>
-      <c r="I111" s="237"/>
-      <c r="J111" s="237"/>
-      <c r="K111" s="237"/>
-      <c r="L111" s="237"/>
-      <c r="M111" s="237"/>
-      <c r="N111" s="237"/>
-      <c r="O111" s="237"/>
-      <c r="P111" s="237"/>
+      <c r="B111" s="243"/>
+      <c r="C111" s="243"/>
+      <c r="D111" s="243"/>
+      <c r="E111" s="243"/>
+      <c r="F111" s="243"/>
+      <c r="G111" s="243"/>
+      <c r="H111" s="243"/>
+      <c r="I111" s="243"/>
+      <c r="J111" s="243"/>
+      <c r="K111" s="243"/>
+      <c r="L111" s="243"/>
+      <c r="M111" s="243"/>
+      <c r="N111" s="243"/>
+      <c r="O111" s="243"/>
+      <c r="P111" s="243"/>
       <c r="Q111" s="44"/>
       <c r="R111" s="44"/>
       <c r="S111" s="35"/>
@@ -6819,34 +6822,34 @@
       <c r="AA112" s="61"/>
     </row>
     <row r="113" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A113" s="238" t="s">
+      <c r="A113" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="270" t="s">
+      <c r="B113" s="212" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="271"/>
-      <c r="D113" s="244" t="s">
+      <c r="C113" s="213"/>
+      <c r="D113" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="E113" s="246"/>
-      <c r="F113" s="244" t="s">
+      <c r="E113" s="219"/>
+      <c r="F113" s="218" t="s">
         <v>123</v>
       </c>
-      <c r="G113" s="245"/>
-      <c r="H113" s="246"/>
-      <c r="I113" s="244" t="s">
+      <c r="G113" s="224"/>
+      <c r="H113" s="219"/>
+      <c r="I113" s="218" t="s">
         <v>165</v>
       </c>
-      <c r="J113" s="245"/>
-      <c r="K113" s="245"/>
-      <c r="L113" s="246"/>
-      <c r="M113" s="279" t="s">
+      <c r="J113" s="224"/>
+      <c r="K113" s="224"/>
+      <c r="L113" s="219"/>
+      <c r="M113" s="227" t="s">
         <v>166</v>
       </c>
-      <c r="N113" s="280"/>
-      <c r="O113" s="280"/>
-      <c r="P113" s="281"/>
+      <c r="N113" s="228"/>
+      <c r="O113" s="228"/>
+      <c r="P113" s="229"/>
       <c r="Q113" s="81"/>
       <c r="R113" s="81"/>
       <c r="S113" s="41"/>
@@ -6860,22 +6863,22 @@
       <c r="AA113" s="61"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1">
-      <c r="A114" s="239"/>
-      <c r="B114" s="272"/>
-      <c r="C114" s="273"/>
-      <c r="D114" s="276"/>
-      <c r="E114" s="277"/>
-      <c r="F114" s="276"/>
-      <c r="G114" s="278"/>
-      <c r="H114" s="277"/>
-      <c r="I114" s="247"/>
-      <c r="J114" s="248"/>
-      <c r="K114" s="248"/>
-      <c r="L114" s="249"/>
-      <c r="M114" s="282"/>
-      <c r="N114" s="283"/>
-      <c r="O114" s="283"/>
-      <c r="P114" s="284"/>
+      <c r="A114" s="210"/>
+      <c r="B114" s="214"/>
+      <c r="C114" s="215"/>
+      <c r="D114" s="220"/>
+      <c r="E114" s="221"/>
+      <c r="F114" s="220"/>
+      <c r="G114" s="225"/>
+      <c r="H114" s="221"/>
+      <c r="I114" s="222"/>
+      <c r="J114" s="226"/>
+      <c r="K114" s="226"/>
+      <c r="L114" s="223"/>
+      <c r="M114" s="230"/>
+      <c r="N114" s="231"/>
+      <c r="O114" s="231"/>
+      <c r="P114" s="232"/>
       <c r="Q114" s="81"/>
       <c r="R114" s="81"/>
       <c r="S114" s="44"/>
@@ -6889,26 +6892,26 @@
       <c r="AA114" s="61"/>
     </row>
     <row r="115" spans="1:27" ht="42.75" customHeight="1">
-      <c r="A115" s="240"/>
-      <c r="B115" s="274"/>
-      <c r="C115" s="275"/>
-      <c r="D115" s="247"/>
-      <c r="E115" s="249"/>
-      <c r="F115" s="247"/>
-      <c r="G115" s="248"/>
-      <c r="H115" s="249"/>
-      <c r="I115" s="232" t="s">
+      <c r="A115" s="211"/>
+      <c r="B115" s="216"/>
+      <c r="C115" s="217"/>
+      <c r="D115" s="222"/>
+      <c r="E115" s="223"/>
+      <c r="F115" s="222"/>
+      <c r="G115" s="226"/>
+      <c r="H115" s="223"/>
+      <c r="I115" s="236" t="s">
         <v>167</v>
       </c>
-      <c r="J115" s="233"/>
-      <c r="K115" s="232" t="s">
+      <c r="J115" s="237"/>
+      <c r="K115" s="236" t="s">
         <v>168</v>
       </c>
-      <c r="L115" s="233"/>
-      <c r="M115" s="285"/>
-      <c r="N115" s="286"/>
-      <c r="O115" s="286"/>
-      <c r="P115" s="287"/>
+      <c r="L115" s="237"/>
+      <c r="M115" s="233"/>
+      <c r="N115" s="234"/>
+      <c r="O115" s="234"/>
+      <c r="P115" s="235"/>
       <c r="Q115" s="81"/>
       <c r="R115" s="81"/>
       <c r="S115" s="32"/>
@@ -6925,21 +6928,21 @@
       <c r="A116" s="50">
         <v>1</v>
       </c>
-      <c r="B116" s="294"/>
-      <c r="C116" s="295"/>
-      <c r="D116" s="296"/>
-      <c r="E116" s="297"/>
-      <c r="F116" s="298"/>
-      <c r="G116" s="299"/>
-      <c r="H116" s="300"/>
-      <c r="I116" s="291"/>
-      <c r="J116" s="293"/>
-      <c r="K116" s="291"/>
-      <c r="L116" s="293"/>
-      <c r="M116" s="291"/>
-      <c r="N116" s="292"/>
-      <c r="O116" s="292"/>
-      <c r="P116" s="293"/>
+      <c r="B116" s="194"/>
+      <c r="C116" s="195"/>
+      <c r="D116" s="196"/>
+      <c r="E116" s="197"/>
+      <c r="F116" s="198"/>
+      <c r="G116" s="199"/>
+      <c r="H116" s="200"/>
+      <c r="I116" s="201"/>
+      <c r="J116" s="202"/>
+      <c r="K116" s="201"/>
+      <c r="L116" s="202"/>
+      <c r="M116" s="201"/>
+      <c r="N116" s="203"/>
+      <c r="O116" s="203"/>
+      <c r="P116" s="202"/>
       <c r="Q116" s="83"/>
       <c r="R116" s="83"/>
       <c r="S116" s="81"/>
@@ -6956,21 +6959,21 @@
       <c r="A117" s="50">
         <v>2</v>
       </c>
-      <c r="B117" s="294"/>
-      <c r="C117" s="295"/>
-      <c r="D117" s="296"/>
-      <c r="E117" s="297"/>
-      <c r="F117" s="298"/>
-      <c r="G117" s="299"/>
-      <c r="H117" s="300"/>
-      <c r="I117" s="291"/>
-      <c r="J117" s="293"/>
-      <c r="K117" s="291"/>
-      <c r="L117" s="293"/>
-      <c r="M117" s="291"/>
-      <c r="N117" s="292"/>
-      <c r="O117" s="292"/>
-      <c r="P117" s="293"/>
+      <c r="B117" s="194"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="196"/>
+      <c r="E117" s="197"/>
+      <c r="F117" s="198"/>
+      <c r="G117" s="199"/>
+      <c r="H117" s="200"/>
+      <c r="I117" s="201"/>
+      <c r="J117" s="202"/>
+      <c r="K117" s="201"/>
+      <c r="L117" s="202"/>
+      <c r="M117" s="201"/>
+      <c r="N117" s="203"/>
+      <c r="O117" s="203"/>
+      <c r="P117" s="202"/>
       <c r="Q117" s="83"/>
       <c r="R117" s="83"/>
       <c r="S117" s="82"/>
@@ -6987,21 +6990,21 @@
       <c r="A118" s="50">
         <v>3</v>
       </c>
-      <c r="B118" s="294"/>
-      <c r="C118" s="295"/>
-      <c r="D118" s="296"/>
-      <c r="E118" s="297"/>
-      <c r="F118" s="298"/>
-      <c r="G118" s="299"/>
-      <c r="H118" s="300"/>
-      <c r="I118" s="291"/>
-      <c r="J118" s="293"/>
-      <c r="K118" s="291"/>
-      <c r="L118" s="293"/>
-      <c r="M118" s="291"/>
-      <c r="N118" s="292"/>
-      <c r="O118" s="292"/>
-      <c r="P118" s="293"/>
+      <c r="B118" s="194"/>
+      <c r="C118" s="195"/>
+      <c r="D118" s="196"/>
+      <c r="E118" s="197"/>
+      <c r="F118" s="198"/>
+      <c r="G118" s="199"/>
+      <c r="H118" s="200"/>
+      <c r="I118" s="201"/>
+      <c r="J118" s="202"/>
+      <c r="K118" s="201"/>
+      <c r="L118" s="202"/>
+      <c r="M118" s="201"/>
+      <c r="N118" s="203"/>
+      <c r="O118" s="203"/>
+      <c r="P118" s="202"/>
       <c r="Q118" s="83"/>
       <c r="R118" s="83"/>
       <c r="S118" s="83"/>
@@ -7018,21 +7021,21 @@
       <c r="A119" s="50">
         <v>4</v>
       </c>
-      <c r="B119" s="294"/>
-      <c r="C119" s="295"/>
-      <c r="D119" s="296"/>
-      <c r="E119" s="297"/>
-      <c r="F119" s="298"/>
-      <c r="G119" s="299"/>
-      <c r="H119" s="300"/>
-      <c r="I119" s="291"/>
-      <c r="J119" s="293"/>
-      <c r="K119" s="291"/>
-      <c r="L119" s="293"/>
-      <c r="M119" s="291"/>
-      <c r="N119" s="292"/>
-      <c r="O119" s="292"/>
-      <c r="P119" s="293"/>
+      <c r="B119" s="194"/>
+      <c r="C119" s="195"/>
+      <c r="D119" s="196"/>
+      <c r="E119" s="197"/>
+      <c r="F119" s="198"/>
+      <c r="G119" s="199"/>
+      <c r="H119" s="200"/>
+      <c r="I119" s="201"/>
+      <c r="J119" s="202"/>
+      <c r="K119" s="201"/>
+      <c r="L119" s="202"/>
+      <c r="M119" s="201"/>
+      <c r="N119" s="203"/>
+      <c r="O119" s="203"/>
+      <c r="P119" s="202"/>
       <c r="Q119" s="83"/>
       <c r="R119" s="83"/>
       <c r="S119" s="83"/>
@@ -7146,13 +7149,13 @@
       <c r="G123" s="32"/>
       <c r="H123" s="32"/>
       <c r="I123" s="32"/>
-      <c r="J123" s="252"/>
-      <c r="K123" s="252"/>
-      <c r="L123" s="252"/>
-      <c r="M123" s="252"/>
-      <c r="N123" s="252"/>
-      <c r="O123" s="252"/>
-      <c r="P123" s="252"/>
+      <c r="J123" s="190"/>
+      <c r="K123" s="190"/>
+      <c r="L123" s="190"/>
+      <c r="M123" s="190"/>
+      <c r="N123" s="190"/>
+      <c r="O123" s="190"/>
+      <c r="P123" s="190"/>
       <c r="Q123" s="55"/>
       <c r="R123" s="55"/>
       <c r="S123" s="32"/>
@@ -7166,28 +7169,28 @@
       <c r="AA123" s="31"/>
     </row>
     <row r="124" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A124" s="262" t="s">
+      <c r="A124" s="191" t="s">
         <v>138</v>
       </c>
-      <c r="B124" s="262"/>
-      <c r="C124" s="263" t="s">
+      <c r="B124" s="191"/>
+      <c r="C124" s="192" t="s">
         <v>139</v>
       </c>
-      <c r="D124" s="263"/>
-      <c r="E124" s="263"/>
-      <c r="F124" s="263"/>
-      <c r="G124" s="264" t="s">
+      <c r="D124" s="192"/>
+      <c r="E124" s="192"/>
+      <c r="F124" s="192"/>
+      <c r="G124" s="193" t="s">
         <v>140</v>
       </c>
-      <c r="H124" s="264"/>
-      <c r="I124" s="264"/>
-      <c r="J124" s="264"/>
-      <c r="K124" s="264"/>
-      <c r="L124" s="264"/>
-      <c r="M124" s="264"/>
-      <c r="N124" s="264"/>
-      <c r="O124" s="264"/>
-      <c r="P124" s="264"/>
+      <c r="H124" s="193"/>
+      <c r="I124" s="193"/>
+      <c r="J124" s="193"/>
+      <c r="K124" s="193"/>
+      <c r="L124" s="193"/>
+      <c r="M124" s="193"/>
+      <c r="N124" s="193"/>
+      <c r="O124" s="193"/>
+      <c r="P124" s="193"/>
       <c r="Q124" s="57"/>
       <c r="R124" s="57"/>
       <c r="S124" s="88"/>
@@ -7210,13 +7213,13 @@
       <c r="G125" s="57"/>
       <c r="H125" s="57"/>
       <c r="I125" s="57"/>
-      <c r="J125" s="264"/>
-      <c r="K125" s="264"/>
-      <c r="L125" s="264"/>
-      <c r="M125" s="264"/>
-      <c r="N125" s="264"/>
-      <c r="O125" s="264"/>
-      <c r="P125" s="264"/>
+      <c r="J125" s="193"/>
+      <c r="K125" s="193"/>
+      <c r="L125" s="193"/>
+      <c r="M125" s="193"/>
+      <c r="N125" s="193"/>
+      <c r="O125" s="193"/>
+      <c r="P125" s="193"/>
       <c r="Q125" s="57"/>
       <c r="R125" s="57"/>
       <c r="S125" s="88"/>
@@ -7231,6 +7234,147 @@
     </row>
   </sheetData>
   <mergeCells count="165">
+    <mergeCell ref="T108:Z108"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="U39:U41"/>
+    <mergeCell ref="V39:X40"/>
+    <mergeCell ref="Y39:AA40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="J34:P34"/>
+    <mergeCell ref="A36:P36"/>
+    <mergeCell ref="A37:P37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:G40"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="I39:L40"/>
+    <mergeCell ref="M39:P40"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:X48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="T73:Z73"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="E77:G78"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:C115"/>
+    <mergeCell ref="D113:E115"/>
+    <mergeCell ref="F113:H115"/>
+    <mergeCell ref="I113:L114"/>
+    <mergeCell ref="M113:P115"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="K115:L115"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="J107:P107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="A110:P110"/>
+    <mergeCell ref="A111:P111"/>
+    <mergeCell ref="C81:R81"/>
+    <mergeCell ref="C86:R86"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="J93:P93"/>
+    <mergeCell ref="J94:P94"/>
+    <mergeCell ref="J99:P99"/>
+    <mergeCell ref="M118:P118"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="K117:L117"/>
+    <mergeCell ref="M117:P117"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="J92:P92"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="J123:P123"/>
     <mergeCell ref="A124:B124"/>
@@ -7255,147 +7399,6 @@
     <mergeCell ref="F118:H118"/>
     <mergeCell ref="I118:J118"/>
     <mergeCell ref="K118:L118"/>
-    <mergeCell ref="M118:P118"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="K117:L117"/>
-    <mergeCell ref="M117:P117"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="J92:P92"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:C115"/>
-    <mergeCell ref="D113:E115"/>
-    <mergeCell ref="F113:H115"/>
-    <mergeCell ref="I113:L114"/>
-    <mergeCell ref="M113:P115"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="K115:L115"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="J107:P107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="A110:P110"/>
-    <mergeCell ref="A111:P111"/>
-    <mergeCell ref="C81:R81"/>
-    <mergeCell ref="C86:R86"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="J93:P93"/>
-    <mergeCell ref="J94:P94"/>
-    <mergeCell ref="J99:P99"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="E77:G78"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:X48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="T73:Z73"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="I39:L40"/>
-    <mergeCell ref="M39:P40"/>
-    <mergeCell ref="U39:U41"/>
-    <mergeCell ref="V39:X40"/>
-    <mergeCell ref="Y39:AA40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="J34:P34"/>
-    <mergeCell ref="A36:P36"/>
-    <mergeCell ref="A37:P37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="D39:D41"/>
-    <mergeCell ref="E39:G40"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="T108:Z108"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="U25:U26"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:L8"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="B9 B16">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -7428,65 +7431,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="355" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="364" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
-      <c r="G2" s="359"/>
+      <c r="B2" s="364"/>
+      <c r="C2" s="364"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
     </row>
     <row r="3" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A3" s="352"/>
-      <c r="B3" s="352"/>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
-      <c r="F3" s="352"/>
-      <c r="G3" s="352"/>
+      <c r="A3" s="357"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="357"/>
     </row>
     <row r="4" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="361" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="356"/>
-      <c r="C4" s="356"/>
-      <c r="D4" s="356"/>
-      <c r="E4" s="356"/>
-      <c r="F4" s="356"/>
-      <c r="G4" s="356"/>
+      <c r="B4" s="361"/>
+      <c r="C4" s="361"/>
+      <c r="D4" s="361"/>
+      <c r="E4" s="361"/>
+      <c r="F4" s="361"/>
+      <c r="G4" s="361"/>
     </row>
     <row r="5" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="362" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="358" t="s">
+      <c r="C5" s="363" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="358"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="363"/>
     </row>
     <row r="6" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A6" s="357"/>
-      <c r="B6" s="357"/>
+      <c r="A6" s="362"/>
+      <c r="B6" s="362"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7504,8 +7507,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A7" s="357"/>
-      <c r="B7" s="357"/>
+      <c r="A7" s="362"/>
+      <c r="B7" s="362"/>
       <c r="C7" s="118" t="s">
         <v>40</v>
       </c>
@@ -7560,72 +7563,72 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.65" customHeight="1">
       <c r="B1" s="153"/>
-      <c r="C1" s="350" t="s">
+      <c r="C1" s="355" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
     </row>
     <row r="2" spans="1:8" ht="20.65" customHeight="1">
       <c r="B2" s="154"/>
-      <c r="C2" s="359" t="s">
+      <c r="C2" s="364" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
-      <c r="G2" s="359"/>
+      <c r="D2" s="364"/>
+      <c r="E2" s="364"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="364"/>
     </row>
     <row r="3" spans="1:8" ht="20.65" customHeight="1">
       <c r="B3" s="154"/>
-      <c r="C3" s="359" t="s">
+      <c r="C3" s="364" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="359"/>
-      <c r="E3" s="359"/>
-      <c r="F3" s="359"/>
-      <c r="G3" s="359"/>
+      <c r="D3" s="364"/>
+      <c r="E3" s="364"/>
+      <c r="F3" s="364"/>
+      <c r="G3" s="364"/>
     </row>
     <row r="4" spans="1:8" ht="20.65" customHeight="1">
       <c r="A4" s="144"/>
       <c r="B4" s="155"/>
-      <c r="C4" s="352"/>
-      <c r="D4" s="352"/>
-      <c r="E4" s="352"/>
-      <c r="F4" s="352"/>
-      <c r="G4" s="352"/>
+      <c r="C4" s="357"/>
+      <c r="D4" s="357"/>
+      <c r="E4" s="357"/>
+      <c r="F4" s="357"/>
+      <c r="G4" s="357"/>
     </row>
     <row r="5" spans="1:8" ht="20.65" customHeight="1">
       <c r="B5" s="156"/>
-      <c r="C5" s="356" t="s">
+      <c r="C5" s="361" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
+      <c r="D5" s="361"/>
+      <c r="E5" s="361"/>
+      <c r="F5" s="361"/>
+      <c r="G5" s="361"/>
     </row>
     <row r="6" spans="1:8" ht="20.65" customHeight="1">
-      <c r="A6" s="357" t="s">
+      <c r="A6" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="357" t="s">
+      <c r="B6" s="362" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="358" t="s">
+      <c r="C6" s="363" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="358"/>
-      <c r="E6" s="358"/>
-      <c r="F6" s="358"/>
-      <c r="G6" s="358"/>
+      <c r="D6" s="363"/>
+      <c r="E6" s="363"/>
+      <c r="F6" s="363"/>
+      <c r="G6" s="363"/>
       <c r="H6" s="181"/>
     </row>
     <row r="7" spans="1:8" ht="20.65" customHeight="1">
-      <c r="A7" s="357"/>
-      <c r="B7" s="357"/>
+      <c r="A7" s="362"/>
+      <c r="B7" s="362"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -7643,8 +7646,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.65" customHeight="1">
-      <c r="A8" s="357"/>
-      <c r="B8" s="357"/>
+      <c r="A8" s="362"/>
+      <c r="B8" s="362"/>
       <c r="C8" s="157" t="s">
         <v>40</v>
       </c>
@@ -7841,10 +7844,10 @@
         <v>96</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="342" t="s">
+      <c r="N2" s="344" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="342"/>
+      <c r="O2" s="344"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>97</v>
@@ -38217,37 +38220,37 @@
     <col min="33" max="16384" width="20.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" customHeight="1">
-      <c r="A1" s="360" t="s">
+    <row r="1" spans="1:32" s="128" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="G1" s="360"/>
-      <c r="H1" s="360"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
-      <c r="M1" s="360"/>
-    </row>
-    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="344"/>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+    </row>
+    <row r="2" spans="1:32" s="128" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="365"/>
+      <c r="B2" s="365"/>
+      <c r="C2" s="365"/>
+      <c r="D2" s="365"/>
+      <c r="E2" s="365"/>
+      <c r="F2" s="365"/>
+      <c r="G2" s="365"/>
+      <c r="H2" s="365"/>
+      <c r="I2" s="365"/>
+      <c r="J2" s="365"/>
+      <c r="K2" s="365"/>
+      <c r="L2" s="365"/>
+      <c r="M2" s="365"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -38255,243 +38258,252 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="362" t="s">
+      <c r="B4" s="302" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="362" t="s">
+      <c r="C4" s="302" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="362" t="s">
+      <c r="D4" s="302" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362"/>
-      <c r="H4" s="362" t="s">
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="362" t="s">
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="362"/>
-      <c r="M4" s="362" t="s">
+      <c r="L4" s="302"/>
+      <c r="M4" s="302" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="362"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="362"/>
-      <c r="Q4" s="362"/>
-      <c r="R4" s="362"/>
-      <c r="S4" s="362"/>
-      <c r="T4" s="362"/>
-      <c r="U4" s="362" t="s">
+      <c r="N4" s="302"/>
+      <c r="O4" s="302"/>
+      <c r="P4" s="302"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="302"/>
+      <c r="U4" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="362"/>
-      <c r="W4" s="362"/>
-      <c r="X4" s="362"/>
-      <c r="Y4" s="362" t="s">
+      <c r="V4" s="302"/>
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
+      <c r="Y4" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="362"/>
-      <c r="AA4" s="362" t="s">
+      <c r="Z4" s="302"/>
+      <c r="AA4" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="362"/>
-      <c r="AC4" s="362" t="s">
+      <c r="AB4" s="302"/>
+      <c r="AC4" s="302" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="362"/>
-      <c r="AE4" s="362" t="s">
+      <c r="AD4" s="302"/>
+      <c r="AE4" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="362"/>
+      <c r="AF4" s="302"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="362"/>
-      <c r="B5" s="362"/>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="362"/>
-      <c r="H5" s="362" t="s">
+      <c r="A5" s="302"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="302"/>
+      <c r="H5" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="362" t="s">
+      <c r="I5" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="362" t="s">
+      <c r="J5" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="362"/>
-      <c r="L5" s="362"/>
-      <c r="M5" s="362"/>
-      <c r="N5" s="362"/>
-      <c r="O5" s="362"/>
-      <c r="P5" s="362"/>
-      <c r="Q5" s="362"/>
-      <c r="R5" s="362"/>
-      <c r="S5" s="362"/>
-      <c r="T5" s="362"/>
-      <c r="U5" s="362"/>
-      <c r="V5" s="362"/>
-      <c r="W5" s="362"/>
-      <c r="X5" s="362"/>
-      <c r="Y5" s="362"/>
-      <c r="Z5" s="362"/>
-      <c r="AA5" s="362"/>
-      <c r="AB5" s="362"/>
-      <c r="AC5" s="362"/>
-      <c r="AD5" s="362"/>
-      <c r="AE5" s="362"/>
-      <c r="AF5" s="362"/>
+      <c r="K5" s="302"/>
+      <c r="L5" s="302"/>
+      <c r="M5" s="302"/>
+      <c r="N5" s="302"/>
+      <c r="O5" s="302"/>
+      <c r="P5" s="302"/>
+      <c r="Q5" s="302"/>
+      <c r="R5" s="302"/>
+      <c r="S5" s="302"/>
+      <c r="T5" s="302"/>
+      <c r="U5" s="302"/>
+      <c r="V5" s="302"/>
+      <c r="W5" s="302"/>
+      <c r="X5" s="302"/>
+      <c r="Y5" s="302"/>
+      <c r="Z5" s="302"/>
+      <c r="AA5" s="302"/>
+      <c r="AB5" s="302"/>
+      <c r="AC5" s="302"/>
+      <c r="AD5" s="302"/>
+      <c r="AE5" s="302"/>
+      <c r="AF5" s="302"/>
     </row>
     <row r="6" spans="1:32" ht="21.95" customHeight="1">
-      <c r="A6" s="362"/>
-      <c r="B6" s="362"/>
-      <c r="C6" s="362"/>
-      <c r="D6" s="362" t="s">
+      <c r="A6" s="302"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302"/>
+      <c r="D6" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="362" t="s">
+      <c r="E6" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="362" t="s">
+      <c r="F6" s="302" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="362" t="s">
+      <c r="G6" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="362"/>
-      <c r="I6" s="362"/>
-      <c r="J6" s="362"/>
-      <c r="K6" s="364" t="s">
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="364" t="s">
+      <c r="L6" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="362" t="s">
+      <c r="M6" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="362"/>
-      <c r="O6" s="362" t="s">
+      <c r="N6" s="302"/>
+      <c r="O6" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="362"/>
-      <c r="Q6" s="362" t="s">
+      <c r="P6" s="302"/>
+      <c r="Q6" s="302" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="362"/>
-      <c r="S6" s="362" t="s">
+      <c r="R6" s="302"/>
+      <c r="S6" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="362"/>
-      <c r="U6" s="362" t="s">
+      <c r="T6" s="302"/>
+      <c r="U6" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="362" t="s">
+      <c r="V6" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="362" t="s">
+      <c r="W6" s="302" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="362" t="s">
+      <c r="X6" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="362" t="s">
+      <c r="Y6" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="362" t="s">
+      <c r="Z6" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="362" t="s">
+      <c r="AA6" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="362" t="s">
+      <c r="AB6" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="362" t="s">
+      <c r="AC6" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="362" t="s">
+      <c r="AD6" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="362" t="s">
+      <c r="AE6" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="362" t="s">
+      <c r="AF6" s="302" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="39.75" customHeight="1">
-      <c r="A7" s="362"/>
-      <c r="B7" s="362"/>
-      <c r="C7" s="362"/>
-      <c r="D7" s="362"/>
-      <c r="E7" s="362"/>
-      <c r="F7" s="362"/>
-      <c r="G7" s="362"/>
-      <c r="H7" s="362"/>
-      <c r="I7" s="362"/>
-      <c r="J7" s="362"/>
-      <c r="K7" s="364" t="s">
+      <c r="A7" s="302"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="L7" s="364" t="s">
+      <c r="L7" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="364" t="s">
+      <c r="M7" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="364" t="s">
+      <c r="N7" s="187" t="s">
         <v>188</v>
       </c>
-      <c r="O7" s="364" t="s">
+      <c r="O7" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="364" t="s">
+      <c r="P7" s="187" t="s">
         <v>188</v>
       </c>
-      <c r="Q7" s="364" t="s">
+      <c r="Q7" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="R7" s="364" t="s">
+      <c r="R7" s="187" t="s">
         <v>188</v>
       </c>
-      <c r="S7" s="364" t="s">
+      <c r="S7" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="T7" s="364" t="s">
+      <c r="T7" s="187" t="s">
         <v>188</v>
       </c>
-      <c r="U7" s="362"/>
-      <c r="V7" s="362"/>
-      <c r="W7" s="362"/>
-      <c r="X7" s="362"/>
-      <c r="Y7" s="362"/>
-      <c r="Z7" s="362"/>
-      <c r="AA7" s="362"/>
-      <c r="AB7" s="362"/>
-      <c r="AC7" s="362"/>
-      <c r="AD7" s="362"/>
-      <c r="AE7" s="362"/>
-      <c r="AF7" s="362"/>
+      <c r="U7" s="302"/>
+      <c r="V7" s="302"/>
+      <c r="W7" s="302"/>
+      <c r="X7" s="302"/>
+      <c r="Y7" s="302"/>
+      <c r="Z7" s="302"/>
+      <c r="AA7" s="302"/>
+      <c r="AB7" s="302"/>
+      <c r="AC7" s="302"/>
+      <c r="AD7" s="302"/>
+      <c r="AE7" s="302"/>
+      <c r="AF7" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AA4:AB5"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M4:T5"/>
+    <mergeCell ref="U4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M6:N6"/>
     <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -38508,21 +38520,12 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L5"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="M4:T5"/>
-    <mergeCell ref="U4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="AA4:AB5"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38551,282 +38554,282 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="185" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="307" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
     </row>
     <row r="2" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="304"/>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="304"/>
-      <c r="F2" s="304"/>
-      <c r="G2" s="304"/>
-      <c r="H2" s="304"/>
-      <c r="I2" s="304"/>
-      <c r="J2" s="304"/>
-      <c r="K2" s="304"/>
-      <c r="L2" s="304"/>
-      <c r="M2" s="304"/>
-      <c r="N2" s="304"/>
-      <c r="O2" s="304"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="308"/>
+      <c r="C2" s="308"/>
+      <c r="D2" s="308"/>
+      <c r="E2" s="308"/>
+      <c r="F2" s="308"/>
+      <c r="G2" s="308"/>
+      <c r="H2" s="308"/>
+      <c r="I2" s="308"/>
+      <c r="J2" s="308"/>
+      <c r="K2" s="308"/>
+      <c r="L2" s="308"/>
+      <c r="M2" s="308"/>
+      <c r="N2" s="308"/>
+      <c r="O2" s="308"/>
     </row>
     <row r="4" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="305" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="301" t="s">
+      <c r="B4" s="305" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="301" t="s">
+      <c r="D4" s="305" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301" t="s">
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="305"/>
+      <c r="I4" s="305"/>
+      <c r="J4" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301" t="s">
+      <c r="K4" s="305"/>
+      <c r="L4" s="305"/>
+      <c r="M4" s="305"/>
+      <c r="N4" s="305" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="301" t="s">
+      <c r="O4" s="305" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="301" t="s">
+      <c r="P4" s="305" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="301" t="s">
+      <c r="Q4" s="305"/>
+      <c r="R4" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="301"/>
-      <c r="T4" s="301"/>
-      <c r="U4" s="301"/>
-      <c r="V4" s="301"/>
-      <c r="W4" s="301"/>
-      <c r="X4" s="301"/>
-      <c r="Y4" s="301"/>
-      <c r="Z4" s="301"/>
-      <c r="AA4" s="301"/>
-      <c r="AB4" s="301" t="s">
+      <c r="S4" s="305"/>
+      <c r="T4" s="305"/>
+      <c r="U4" s="305"/>
+      <c r="V4" s="305"/>
+      <c r="W4" s="305"/>
+      <c r="X4" s="305"/>
+      <c r="Y4" s="305"/>
+      <c r="Z4" s="305"/>
+      <c r="AA4" s="305"/>
+      <c r="AB4" s="305" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="301" t="s">
+      <c r="AC4" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="301"/>
-      <c r="AE4" s="301"/>
-      <c r="AF4" s="301"/>
-      <c r="AG4" s="301"/>
-      <c r="AH4" s="301"/>
-      <c r="AI4" s="301"/>
-      <c r="AJ4" s="301"/>
-      <c r="AK4" s="301"/>
-      <c r="AL4" s="301"/>
-      <c r="AM4" s="301"/>
-      <c r="AN4" s="301"/>
-      <c r="AO4" s="301"/>
-      <c r="AP4" s="301"/>
-      <c r="AQ4" s="301"/>
+      <c r="AD4" s="305"/>
+      <c r="AE4" s="305"/>
+      <c r="AF4" s="305"/>
+      <c r="AG4" s="305"/>
+      <c r="AH4" s="305"/>
+      <c r="AI4" s="305"/>
+      <c r="AJ4" s="305"/>
+      <c r="AK4" s="305"/>
+      <c r="AL4" s="305"/>
+      <c r="AM4" s="305"/>
+      <c r="AN4" s="305"/>
+      <c r="AO4" s="305"/>
+      <c r="AP4" s="305"/>
+      <c r="AQ4" s="305"/>
     </row>
     <row r="5" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="301"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
-      <c r="I5" s="301"/>
-      <c r="J5" s="301"/>
-      <c r="K5" s="301"/>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="301"/>
-      <c r="O5" s="301"/>
-      <c r="P5" s="301"/>
-      <c r="Q5" s="301"/>
-      <c r="R5" s="301" t="s">
+      <c r="A5" s="305"/>
+      <c r="B5" s="305"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="305"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="305"/>
+      <c r="H5" s="305"/>
+      <c r="I5" s="305"/>
+      <c r="J5" s="305"/>
+      <c r="K5" s="305"/>
+      <c r="L5" s="305"/>
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
+      <c r="O5" s="305"/>
+      <c r="P5" s="305"/>
+      <c r="Q5" s="305"/>
+      <c r="R5" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="301"/>
-      <c r="T5" s="301" t="s">
+      <c r="S5" s="305"/>
+      <c r="T5" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="301"/>
-      <c r="V5" s="301" t="s">
+      <c r="U5" s="305"/>
+      <c r="V5" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="301"/>
-      <c r="X5" s="302" t="s">
+      <c r="W5" s="305"/>
+      <c r="X5" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="302"/>
-      <c r="Z5" s="301" t="s">
+      <c r="Y5" s="306"/>
+      <c r="Z5" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="301"/>
-      <c r="AB5" s="301"/>
-      <c r="AC5" s="301"/>
-      <c r="AD5" s="301"/>
-      <c r="AE5" s="301"/>
-      <c r="AF5" s="301"/>
-      <c r="AG5" s="301"/>
-      <c r="AH5" s="301" t="s">
+      <c r="AA5" s="305"/>
+      <c r="AB5" s="305"/>
+      <c r="AC5" s="305"/>
+      <c r="AD5" s="305"/>
+      <c r="AE5" s="305"/>
+      <c r="AF5" s="305"/>
+      <c r="AG5" s="305"/>
+      <c r="AH5" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="301"/>
-      <c r="AJ5" s="301" t="s">
+      <c r="AI5" s="305"/>
+      <c r="AJ5" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="AK5" s="301"/>
-      <c r="AL5" s="301" t="s">
+      <c r="AK5" s="305"/>
+      <c r="AL5" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="AM5" s="301"/>
-      <c r="AN5" s="302" t="s">
+      <c r="AM5" s="305"/>
+      <c r="AN5" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="AO5" s="301"/>
-      <c r="AP5" s="302" t="s">
+      <c r="AO5" s="305"/>
+      <c r="AP5" s="306" t="s">
         <v>22</v>
       </c>
-      <c r="AQ5" s="301"/>
+      <c r="AQ5" s="305"/>
     </row>
     <row r="6" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="301"/>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301" t="s">
+      <c r="A6" s="305"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="305"/>
+      <c r="D6" s="305"/>
+      <c r="E6" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="301" t="s">
+      <c r="F6" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="301" t="s">
+      <c r="G6" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="301" t="s">
+      <c r="H6" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="301" t="s">
+      <c r="I6" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="301" t="s">
+      <c r="J6" s="305" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="301" t="s">
+      <c r="K6" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="301" t="s">
+      <c r="L6" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="301" t="s">
+      <c r="M6" s="305" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="301"/>
-      <c r="O6" s="301"/>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301"/>
-      <c r="T6" s="301"/>
-      <c r="U6" s="301"/>
-      <c r="V6" s="301"/>
-      <c r="W6" s="301"/>
-      <c r="X6" s="302"/>
-      <c r="Y6" s="302"/>
-      <c r="Z6" s="301"/>
-      <c r="AA6" s="301"/>
-      <c r="AB6" s="301"/>
-      <c r="AC6" s="301" t="s">
+      <c r="N6" s="305"/>
+      <c r="O6" s="305"/>
+      <c r="P6" s="305"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="306"/>
+      <c r="Y6" s="306"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="305"/>
+      <c r="AB6" s="305"/>
+      <c r="AC6" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="301" t="s">
+      <c r="AD6" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="AE6" s="301" t="s">
+      <c r="AE6" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="301" t="s">
+      <c r="AF6" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="AG6" s="301" t="s">
+      <c r="AG6" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="AH6" s="301" t="s">
+      <c r="AH6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="301" t="s">
+      <c r="AI6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="301" t="s">
+      <c r="AJ6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="301" t="s">
+      <c r="AK6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="301" t="s">
+      <c r="AL6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="301" t="s">
+      <c r="AM6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="301" t="s">
+      <c r="AN6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="301" t="s">
+      <c r="AO6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="301" t="s">
+      <c r="AP6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AQ6" s="301" t="s">
+      <c r="AQ6" s="305" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="38.25" customHeight="1">
-      <c r="A7" s="301"/>
-      <c r="B7" s="301"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="301"/>
-      <c r="M7" s="301"/>
-      <c r="N7" s="301"/>
-      <c r="O7" s="301"/>
+      <c r="A7" s="305"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="305"/>
+      <c r="N7" s="305"/>
+      <c r="O7" s="305"/>
       <c r="P7" s="186" t="s">
         <v>13</v>
       </c>
@@ -38863,25 +38866,58 @@
       <c r="AA7" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="301"/>
-      <c r="AC7" s="301"/>
-      <c r="AD7" s="301"/>
-      <c r="AE7" s="301"/>
-      <c r="AF7" s="301"/>
-      <c r="AG7" s="301"/>
-      <c r="AH7" s="301"/>
-      <c r="AI7" s="301"/>
-      <c r="AJ7" s="301"/>
-      <c r="AK7" s="301"/>
-      <c r="AL7" s="301"/>
-      <c r="AM7" s="301"/>
-      <c r="AN7" s="301"/>
-      <c r="AO7" s="301"/>
-      <c r="AP7" s="301"/>
-      <c r="AQ7" s="301"/>
+      <c r="AB7" s="305"/>
+      <c r="AC7" s="305"/>
+      <c r="AD7" s="305"/>
+      <c r="AE7" s="305"/>
+      <c r="AF7" s="305"/>
+      <c r="AG7" s="305"/>
+      <c r="AH7" s="305"/>
+      <c r="AI7" s="305"/>
+      <c r="AJ7" s="305"/>
+      <c r="AK7" s="305"/>
+      <c r="AL7" s="305"/>
+      <c r="AM7" s="305"/>
+      <c r="AN7" s="305"/>
+      <c r="AO7" s="305"/>
+      <c r="AP7" s="305"/>
+      <c r="AQ7" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="V5:W6"/>
+    <mergeCell ref="X5:Y6"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:I5"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="P4:Q6"/>
+    <mergeCell ref="AB4:AB7"/>
+    <mergeCell ref="AC4:AG5"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AM6:AM7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
@@ -38898,39 +38934,6 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="AQ6:AQ7"/>
     <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="P4:Q6"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AG5"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="X5:Y6"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38957,34 +38960,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="30" customHeight="1">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="309" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
     </row>
     <row r="2" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="306"/>
-      <c r="B2" s="306"/>
-      <c r="C2" s="306"/>
-      <c r="D2" s="306"/>
-      <c r="E2" s="306"/>
-      <c r="F2" s="306"/>
-      <c r="G2" s="306"/>
-      <c r="H2" s="306"/>
-      <c r="I2" s="306"/>
-      <c r="J2" s="306"/>
-      <c r="K2" s="306"/>
-      <c r="L2" s="306"/>
+      <c r="A2" s="310"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="310"/>
+      <c r="G2" s="310"/>
+      <c r="H2" s="310"/>
+      <c r="I2" s="310"/>
+      <c r="J2" s="310"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="310"/>
     </row>
     <row r="3" spans="1:40" ht="20.100000000000001" customHeight="1">
       <c r="Y3" s="184" t="s">
@@ -38992,232 +38995,232 @@
       </c>
     </row>
     <row r="4" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="305" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="301" t="s">
+      <c r="B4" s="305" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="301" t="s">
+      <c r="C4" s="305" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301" t="s">
+      <c r="D4" s="305"/>
+      <c r="E4" s="305"/>
+      <c r="F4" s="305"/>
+      <c r="G4" s="305"/>
+      <c r="H4" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301" t="s">
+      <c r="I4" s="305"/>
+      <c r="J4" s="305"/>
+      <c r="K4" s="305"/>
+      <c r="L4" s="305" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="301" t="s">
+      <c r="M4" s="305" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="301"/>
-      <c r="O4" s="301" t="s">
+      <c r="N4" s="305"/>
+      <c r="O4" s="305" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="301"/>
-      <c r="Q4" s="301"/>
-      <c r="R4" s="301"/>
-      <c r="S4" s="301"/>
-      <c r="T4" s="301"/>
-      <c r="U4" s="301"/>
-      <c r="V4" s="301"/>
-      <c r="W4" s="301"/>
-      <c r="X4" s="301"/>
-      <c r="Y4" s="301" t="s">
+      <c r="P4" s="305"/>
+      <c r="Q4" s="305"/>
+      <c r="R4" s="305"/>
+      <c r="S4" s="305"/>
+      <c r="T4" s="305"/>
+      <c r="U4" s="305"/>
+      <c r="V4" s="305"/>
+      <c r="W4" s="305"/>
+      <c r="X4" s="305"/>
+      <c r="Y4" s="305" t="s">
         <v>83</v>
       </c>
-      <c r="Z4" s="301" t="s">
+      <c r="Z4" s="305" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="301"/>
-      <c r="AB4" s="301"/>
-      <c r="AC4" s="301"/>
-      <c r="AD4" s="301"/>
-      <c r="AE4" s="301" t="s">
+      <c r="AA4" s="305"/>
+      <c r="AB4" s="305"/>
+      <c r="AC4" s="305"/>
+      <c r="AD4" s="305"/>
+      <c r="AE4" s="305" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" s="301"/>
-      <c r="AG4" s="301"/>
-      <c r="AH4" s="301"/>
-      <c r="AI4" s="301"/>
-      <c r="AJ4" s="301"/>
-      <c r="AK4" s="301"/>
-      <c r="AL4" s="301"/>
-      <c r="AM4" s="301"/>
-      <c r="AN4" s="301"/>
+      <c r="AF4" s="305"/>
+      <c r="AG4" s="305"/>
+      <c r="AH4" s="305"/>
+      <c r="AI4" s="305"/>
+      <c r="AJ4" s="305"/>
+      <c r="AK4" s="305"/>
+      <c r="AL4" s="305"/>
+      <c r="AM4" s="305"/>
+      <c r="AN4" s="305"/>
     </row>
     <row r="5" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="301"/>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301" t="s">
+      <c r="A5" s="305"/>
+      <c r="B5" s="305"/>
+      <c r="C5" s="305"/>
+      <c r="D5" s="305"/>
+      <c r="E5" s="305"/>
+      <c r="F5" s="305"/>
+      <c r="G5" s="305"/>
+      <c r="H5" s="305" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="301" t="s">
+      <c r="I5" s="305" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="301" t="s">
+      <c r="J5" s="305" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="301" t="s">
+      <c r="K5" s="305" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="301"/>
-      <c r="M5" s="301"/>
-      <c r="N5" s="301"/>
-      <c r="O5" s="301"/>
-      <c r="P5" s="301"/>
-      <c r="Q5" s="301"/>
-      <c r="R5" s="301"/>
-      <c r="S5" s="301"/>
-      <c r="T5" s="301"/>
-      <c r="U5" s="301"/>
-      <c r="V5" s="301"/>
-      <c r="W5" s="301"/>
-      <c r="X5" s="301"/>
-      <c r="Y5" s="301"/>
-      <c r="Z5" s="301"/>
-      <c r="AA5" s="301"/>
-      <c r="AB5" s="301"/>
-      <c r="AC5" s="301"/>
-      <c r="AD5" s="301"/>
-      <c r="AE5" s="301" t="s">
+      <c r="L5" s="305"/>
+      <c r="M5" s="305"/>
+      <c r="N5" s="305"/>
+      <c r="O5" s="305"/>
+      <c r="P5" s="305"/>
+      <c r="Q5" s="305"/>
+      <c r="R5" s="305"/>
+      <c r="S5" s="305"/>
+      <c r="T5" s="305"/>
+      <c r="U5" s="305"/>
+      <c r="V5" s="305"/>
+      <c r="W5" s="305"/>
+      <c r="X5" s="305"/>
+      <c r="Y5" s="305"/>
+      <c r="Z5" s="305"/>
+      <c r="AA5" s="305"/>
+      <c r="AB5" s="305"/>
+      <c r="AC5" s="305"/>
+      <c r="AD5" s="305"/>
+      <c r="AE5" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="301"/>
-      <c r="AG5" s="301" t="s">
+      <c r="AF5" s="305"/>
+      <c r="AG5" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="AH5" s="301"/>
-      <c r="AI5" s="301" t="s">
+      <c r="AH5" s="305"/>
+      <c r="AI5" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="AJ5" s="301"/>
-      <c r="AK5" s="302" t="s">
+      <c r="AJ5" s="305"/>
+      <c r="AK5" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="AL5" s="301"/>
-      <c r="AM5" s="302" t="s">
+      <c r="AL5" s="305"/>
+      <c r="AM5" s="306" t="s">
         <v>22</v>
       </c>
-      <c r="AN5" s="301"/>
+      <c r="AN5" s="305"/>
     </row>
     <row r="6" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="301"/>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301" t="s">
+      <c r="A6" s="305"/>
+      <c r="B6" s="305"/>
+      <c r="C6" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="301" t="s">
+      <c r="D6" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="301" t="s">
+      <c r="E6" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="301" t="s">
+      <c r="F6" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="301" t="s">
+      <c r="G6" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="301"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="301"/>
-      <c r="M6" s="301"/>
-      <c r="N6" s="301"/>
-      <c r="O6" s="301" t="s">
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="305" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="301"/>
-      <c r="Q6" s="301" t="s">
+      <c r="P6" s="305"/>
+      <c r="Q6" s="305" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="301"/>
-      <c r="S6" s="301" t="s">
+      <c r="R6" s="305"/>
+      <c r="S6" s="305" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="301"/>
-      <c r="U6" s="302" t="s">
+      <c r="T6" s="305"/>
+      <c r="U6" s="306" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="301"/>
-      <c r="W6" s="302" t="s">
+      <c r="V6" s="305"/>
+      <c r="W6" s="306" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="301"/>
-      <c r="Y6" s="301"/>
-      <c r="Z6" s="301" t="s">
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="301" t="s">
+      <c r="AA6" s="305" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="301" t="s">
+      <c r="AB6" s="305" t="s">
         <v>20</v>
       </c>
-      <c r="AC6" s="301" t="s">
+      <c r="AC6" s="305" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="301" t="s">
+      <c r="AD6" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="AE6" s="301" t="s">
+      <c r="AE6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="301" t="s">
+      <c r="AF6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="301" t="s">
+      <c r="AG6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="301" t="s">
+      <c r="AH6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="301" t="s">
+      <c r="AI6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="301" t="s">
+      <c r="AJ6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="301" t="s">
+      <c r="AK6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="301" t="s">
+      <c r="AL6" s="305" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="301" t="s">
+      <c r="AM6" s="305" t="s">
         <v>15</v>
       </c>
-      <c r="AN6" s="301" t="s">
+      <c r="AN6" s="305" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="301"/>
-      <c r="B7" s="301"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="301"/>
+      <c r="A7" s="305"/>
+      <c r="B7" s="305"/>
+      <c r="C7" s="305"/>
+      <c r="D7" s="305"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
       <c r="M7" s="186" t="s">
         <v>13</v>
       </c>
@@ -39254,41 +39257,39 @@
       <c r="X7" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="301"/>
-      <c r="Z7" s="301"/>
-      <c r="AA7" s="301"/>
-      <c r="AB7" s="301"/>
-      <c r="AC7" s="301"/>
-      <c r="AD7" s="301"/>
-      <c r="AE7" s="301"/>
-      <c r="AF7" s="301"/>
-      <c r="AG7" s="301"/>
-      <c r="AH7" s="301"/>
-      <c r="AI7" s="301"/>
-      <c r="AJ7" s="301"/>
-      <c r="AK7" s="301"/>
-      <c r="AL7" s="301"/>
-      <c r="AM7" s="301"/>
-      <c r="AN7" s="301"/>
+      <c r="Y7" s="305"/>
+      <c r="Z7" s="305"/>
+      <c r="AA7" s="305"/>
+      <c r="AB7" s="305"/>
+      <c r="AC7" s="305"/>
+      <c r="AD7" s="305"/>
+      <c r="AE7" s="305"/>
+      <c r="AF7" s="305"/>
+      <c r="AG7" s="305"/>
+      <c r="AH7" s="305"/>
+      <c r="AI7" s="305"/>
+      <c r="AJ7" s="305"/>
+      <c r="AK7" s="305"/>
+      <c r="AL7" s="305"/>
+      <c r="AM7" s="305"/>
+      <c r="AN7" s="305"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="O4:X5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:L7"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="AM5:AN5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
@@ -39305,20 +39306,22 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="C4:G5"/>
     <mergeCell ref="M4:N6"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="O4:X5"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AG5:AH5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39343,306 +39346,286 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="32.25" customHeight="1">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="303" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="360"/>
-      <c r="C1" s="360"/>
-      <c r="D1" s="360"/>
-      <c r="E1" s="360"/>
-      <c r="F1" s="360"/>
-      <c r="G1" s="360"/>
-      <c r="H1" s="360"/>
-      <c r="I1" s="360"/>
-      <c r="J1" s="360"/>
-      <c r="K1" s="360"/>
-      <c r="L1" s="360"/>
-      <c r="M1" s="360"/>
-      <c r="N1" s="360"/>
-      <c r="O1" s="360"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="344"/>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
-      <c r="J2" s="344"/>
-      <c r="K2" s="344"/>
-      <c r="L2" s="344"/>
-      <c r="M2" s="344"/>
-      <c r="N2" s="344"/>
-      <c r="O2" s="344"/>
+      <c r="A2" s="304"/>
+      <c r="B2" s="304"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
+      <c r="G2" s="304"/>
+      <c r="H2" s="304"/>
+      <c r="I2" s="304"/>
+      <c r="J2" s="304"/>
+      <c r="K2" s="304"/>
+      <c r="L2" s="304"/>
+      <c r="M2" s="304"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
     </row>
     <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="W3" s="361" t="s">
+      <c r="W3" s="312" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="361"/>
-      <c r="Y3" s="361"/>
+      <c r="X3" s="312"/>
+      <c r="Y3" s="312"/>
     </row>
     <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="362" t="s">
+      <c r="A4" s="302" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="362" t="s">
+      <c r="B4" s="302" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="362" t="s">
+      <c r="C4" s="302" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="362"/>
-      <c r="E4" s="362"/>
-      <c r="F4" s="362"/>
-      <c r="G4" s="362" t="s">
+      <c r="D4" s="302"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="302" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="362"/>
-      <c r="I4" s="362"/>
-      <c r="J4" s="362"/>
-      <c r="K4" s="362" t="s">
+      <c r="H4" s="302"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="302" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="362"/>
-      <c r="M4" s="362" t="s">
+      <c r="L4" s="302"/>
+      <c r="M4" s="302" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="362"/>
-      <c r="O4" s="362"/>
-      <c r="P4" s="362"/>
-      <c r="Q4" s="362"/>
-      <c r="R4" s="362"/>
-      <c r="S4" s="362"/>
-      <c r="T4" s="362"/>
-      <c r="U4" s="362" t="s">
+      <c r="N4" s="302"/>
+      <c r="O4" s="302"/>
+      <c r="P4" s="302"/>
+      <c r="Q4" s="302"/>
+      <c r="R4" s="302"/>
+      <c r="S4" s="302"/>
+      <c r="T4" s="302"/>
+      <c r="U4" s="302" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="362" t="s">
+      <c r="V4" s="302" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="362"/>
-      <c r="X4" s="362"/>
-      <c r="Y4" s="362"/>
-      <c r="Z4" s="362" t="s">
+      <c r="W4" s="302"/>
+      <c r="X4" s="302"/>
+      <c r="Y4" s="302"/>
+      <c r="Z4" s="302" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="362"/>
-      <c r="AB4" s="362"/>
-      <c r="AC4" s="362"/>
-      <c r="AD4" s="362"/>
-      <c r="AE4" s="362"/>
-      <c r="AF4" s="362"/>
-      <c r="AG4" s="362"/>
+      <c r="AA4" s="302"/>
+      <c r="AB4" s="302"/>
+      <c r="AC4" s="302"/>
+      <c r="AD4" s="302"/>
+      <c r="AE4" s="302"/>
+      <c r="AF4" s="302"/>
+      <c r="AG4" s="302"/>
     </row>
     <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="362"/>
-      <c r="B5" s="362"/>
-      <c r="C5" s="362"/>
-      <c r="D5" s="362"/>
-      <c r="E5" s="362"/>
-      <c r="F5" s="362"/>
-      <c r="G5" s="362" t="s">
+      <c r="A5" s="302"/>
+      <c r="B5" s="302"/>
+      <c r="C5" s="302"/>
+      <c r="D5" s="302"/>
+      <c r="E5" s="302"/>
+      <c r="F5" s="302"/>
+      <c r="G5" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="362" t="s">
+      <c r="H5" s="302" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="362" t="s">
+      <c r="I5" s="302" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="362" t="s">
+      <c r="J5" s="302" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="362"/>
-      <c r="L5" s="362"/>
-      <c r="M5" s="362"/>
-      <c r="N5" s="362"/>
-      <c r="O5" s="362"/>
-      <c r="P5" s="362"/>
-      <c r="Q5" s="362"/>
-      <c r="R5" s="362"/>
-      <c r="S5" s="362"/>
-      <c r="T5" s="362"/>
-      <c r="U5" s="362"/>
-      <c r="V5" s="362"/>
-      <c r="W5" s="362"/>
-      <c r="X5" s="362"/>
-      <c r="Y5" s="362"/>
-      <c r="Z5" s="362" t="s">
+      <c r="K5" s="302"/>
+      <c r="L5" s="302"/>
+      <c r="M5" s="302"/>
+      <c r="N5" s="302"/>
+      <c r="O5" s="302"/>
+      <c r="P5" s="302"/>
+      <c r="Q5" s="302"/>
+      <c r="R5" s="302"/>
+      <c r="S5" s="302"/>
+      <c r="T5" s="302"/>
+      <c r="U5" s="302"/>
+      <c r="V5" s="302"/>
+      <c r="W5" s="302"/>
+      <c r="X5" s="302"/>
+      <c r="Y5" s="302"/>
+      <c r="Z5" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="362"/>
-      <c r="AB5" s="362" t="s">
+      <c r="AA5" s="302"/>
+      <c r="AB5" s="302" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="362"/>
-      <c r="AD5" s="362" t="s">
+      <c r="AC5" s="302"/>
+      <c r="AD5" s="302" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="362"/>
-      <c r="AF5" s="363" t="s">
+      <c r="AE5" s="302"/>
+      <c r="AF5" s="311" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="362"/>
+      <c r="AG5" s="302"/>
     </row>
     <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="362"/>
-      <c r="B6" s="362"/>
-      <c r="C6" s="362" t="s">
+      <c r="A6" s="302"/>
+      <c r="B6" s="302"/>
+      <c r="C6" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="362" t="s">
+      <c r="D6" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="362" t="s">
+      <c r="E6" s="302" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="362" t="s">
+      <c r="F6" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="362"/>
-      <c r="H6" s="362"/>
-      <c r="I6" s="362"/>
-      <c r="J6" s="362"/>
-      <c r="K6" s="362"/>
-      <c r="L6" s="362"/>
-      <c r="M6" s="362" t="s">
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="302" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="362"/>
-      <c r="O6" s="362" t="s">
+      <c r="N6" s="302"/>
+      <c r="O6" s="302" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="362"/>
-      <c r="Q6" s="362" t="s">
+      <c r="P6" s="302"/>
+      <c r="Q6" s="302" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="362"/>
-      <c r="S6" s="363" t="s">
+      <c r="R6" s="302"/>
+      <c r="S6" s="311" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="362"/>
-      <c r="U6" s="362"/>
-      <c r="V6" s="362" t="s">
+      <c r="T6" s="302"/>
+      <c r="U6" s="302"/>
+      <c r="V6" s="302" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="362" t="s">
+      <c r="W6" s="302" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="362" t="s">
+      <c r="X6" s="302" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="362" t="s">
+      <c r="Y6" s="302" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="362" t="s">
+      <c r="Z6" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="362" t="s">
+      <c r="AA6" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="362" t="s">
+      <c r="AB6" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="362" t="s">
+      <c r="AC6" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="362" t="s">
+      <c r="AD6" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="362" t="s">
+      <c r="AE6" s="302" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="362" t="s">
+      <c r="AF6" s="302" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="362" t="s">
+      <c r="AG6" s="302" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="362"/>
-      <c r="B7" s="362"/>
-      <c r="C7" s="362"/>
-      <c r="D7" s="362"/>
-      <c r="E7" s="362"/>
-      <c r="F7" s="362"/>
-      <c r="G7" s="362"/>
-      <c r="H7" s="362"/>
-      <c r="I7" s="362"/>
-      <c r="J7" s="362"/>
-      <c r="K7" s="364" t="s">
+      <c r="A7" s="302"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="302"/>
+      <c r="D7" s="302"/>
+      <c r="E7" s="302"/>
+      <c r="F7" s="302"/>
+      <c r="G7" s="302"/>
+      <c r="H7" s="302"/>
+      <c r="I7" s="302"/>
+      <c r="J7" s="302"/>
+      <c r="K7" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="364" t="s">
+      <c r="L7" s="187" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="364" t="s">
+      <c r="M7" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="364" t="s">
+      <c r="N7" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="364" t="s">
+      <c r="O7" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="364" t="s">
+      <c r="P7" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="364" t="s">
+      <c r="Q7" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="364" t="s">
+      <c r="R7" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="364" t="s">
+      <c r="S7" s="187" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="364" t="s">
+      <c r="T7" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="362"/>
-      <c r="V7" s="362"/>
-      <c r="W7" s="362"/>
-      <c r="X7" s="362"/>
-      <c r="Y7" s="362"/>
-      <c r="Z7" s="362"/>
-      <c r="AA7" s="362"/>
-      <c r="AB7" s="362"/>
-      <c r="AC7" s="362"/>
-      <c r="AD7" s="362"/>
-      <c r="AE7" s="362"/>
-      <c r="AF7" s="362"/>
-      <c r="AG7" s="362"/>
+      <c r="U7" s="302"/>
+      <c r="V7" s="302"/>
+      <c r="W7" s="302"/>
+      <c r="X7" s="302"/>
+      <c r="Y7" s="302"/>
+      <c r="Z7" s="302"/>
+      <c r="AA7" s="302"/>
+      <c r="AB7" s="302"/>
+      <c r="AC7" s="302"/>
+      <c r="AD7" s="302"/>
+      <c r="AE7" s="302"/>
+      <c r="AF7" s="302"/>
+      <c r="AG7" s="302"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="Z4:AG4"/>
     <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AB5:AC5"/>
@@ -39659,8 +39642,28 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="V4:Y5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39693,12 +39696,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="21" customHeight="1">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="317" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
       <c r="E1" s="171"/>
       <c r="F1" s="7"/>
       <c r="G1" s="171"/>
@@ -39712,22 +39715,22 @@
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
-      <c r="R1" s="327" t="s">
+      <c r="R1" s="317" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="327"/>
-      <c r="T1" s="327"/>
-      <c r="U1" s="327"/>
-      <c r="V1" s="327"/>
-      <c r="W1" s="327"/>
+      <c r="S1" s="317"/>
+      <c r="T1" s="317"/>
+      <c r="U1" s="317"/>
+      <c r="V1" s="317"/>
+      <c r="W1" s="317"/>
     </row>
     <row r="2" spans="1:23" ht="21" customHeight="1">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="318" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
       <c r="E2" s="172"/>
       <c r="F2" s="119"/>
       <c r="G2" s="172"/>
@@ -39741,249 +39744,249 @@
       <c r="O2" s="119"/>
       <c r="P2" s="119"/>
       <c r="Q2" s="119"/>
-      <c r="R2" s="328" t="s">
+      <c r="R2" s="318" t="s">
         <v>174</v>
       </c>
-      <c r="S2" s="328"/>
-      <c r="T2" s="328"/>
-      <c r="U2" s="328"/>
-      <c r="V2" s="328"/>
-      <c r="W2" s="328"/>
+      <c r="S2" s="318"/>
+      <c r="T2" s="318"/>
+      <c r="U2" s="318"/>
+      <c r="V2" s="318"/>
+      <c r="W2" s="318"/>
     </row>
     <row r="3" spans="1:23" ht="21" customHeight="1">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="319" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="329"/>
-      <c r="C3" s="329"/>
-      <c r="D3" s="329"/>
-      <c r="E3" s="329"/>
-      <c r="F3" s="329"/>
-      <c r="G3" s="329"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="329"/>
-      <c r="N3" s="329"/>
-      <c r="O3" s="329"/>
-      <c r="P3" s="329"/>
-      <c r="Q3" s="329"/>
-      <c r="R3" s="329"/>
-      <c r="S3" s="329"/>
-      <c r="T3" s="329"/>
-      <c r="U3" s="329"/>
-      <c r="V3" s="329"/>
-      <c r="W3" s="329"/>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
+      <c r="G3" s="319"/>
+      <c r="H3" s="319"/>
+      <c r="I3" s="319"/>
+      <c r="J3" s="319"/>
+      <c r="K3" s="319"/>
+      <c r="L3" s="319"/>
+      <c r="M3" s="319"/>
+      <c r="N3" s="319"/>
+      <c r="O3" s="319"/>
+      <c r="P3" s="319"/>
+      <c r="Q3" s="319"/>
+      <c r="R3" s="319"/>
+      <c r="S3" s="319"/>
+      <c r="T3" s="319"/>
+      <c r="U3" s="319"/>
+      <c r="V3" s="319"/>
+      <c r="W3" s="319"/>
     </row>
     <row r="4" spans="1:23" ht="21" customHeight="1">
-      <c r="A4" s="330"/>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330"/>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="330"/>
-      <c r="T4" s="330"/>
-      <c r="U4" s="330"/>
-      <c r="V4" s="330"/>
-      <c r="W4" s="330"/>
+      <c r="A4" s="320"/>
+      <c r="B4" s="320"/>
+      <c r="C4" s="320"/>
+      <c r="D4" s="320"/>
+      <c r="E4" s="320"/>
+      <c r="F4" s="320"/>
+      <c r="G4" s="320"/>
+      <c r="H4" s="320"/>
+      <c r="I4" s="320"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="320"/>
+      <c r="L4" s="320"/>
+      <c r="M4" s="320"/>
+      <c r="N4" s="320"/>
+      <c r="O4" s="320"/>
+      <c r="P4" s="320"/>
+      <c r="Q4" s="320"/>
+      <c r="R4" s="320"/>
+      <c r="S4" s="320"/>
+      <c r="T4" s="320"/>
+      <c r="U4" s="320"/>
+      <c r="V4" s="320"/>
+      <c r="W4" s="320"/>
     </row>
     <row r="5" spans="1:23" ht="21" customHeight="1">
-      <c r="A5" s="331"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="331"/>
-      <c r="D5" s="331"/>
-      <c r="E5" s="331"/>
-      <c r="F5" s="331"/>
-      <c r="G5" s="331"/>
-      <c r="H5" s="331"/>
-      <c r="I5" s="331"/>
-      <c r="J5" s="331"/>
-      <c r="K5" s="331"/>
-      <c r="L5" s="331"/>
-      <c r="M5" s="331"/>
-      <c r="N5" s="331"/>
-      <c r="O5" s="331"/>
-      <c r="P5" s="331"/>
-      <c r="Q5" s="331"/>
-      <c r="R5" s="331"/>
-      <c r="S5" s="331"/>
-      <c r="T5" s="331"/>
-      <c r="U5" s="331"/>
-      <c r="V5" s="331"/>
-      <c r="W5" s="331"/>
+      <c r="A5" s="321"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="321"/>
+      <c r="D5" s="321"/>
+      <c r="E5" s="321"/>
+      <c r="F5" s="321"/>
+      <c r="G5" s="321"/>
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
+      <c r="M5" s="321"/>
+      <c r="N5" s="321"/>
+      <c r="O5" s="321"/>
+      <c r="P5" s="321"/>
+      <c r="Q5" s="321"/>
+      <c r="R5" s="321"/>
+      <c r="S5" s="321"/>
+      <c r="T5" s="321"/>
+      <c r="U5" s="321"/>
+      <c r="V5" s="321"/>
+      <c r="W5" s="321"/>
     </row>
     <row r="6" spans="1:23" ht="21" customHeight="1">
-      <c r="A6" s="315" t="s">
+      <c r="A6" s="341" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="315" t="s">
+      <c r="B6" s="341" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="315" t="s">
+      <c r="C6" s="341" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="315" t="s">
+      <c r="D6" s="341" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="318" t="s">
+      <c r="E6" s="328" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="318" t="s">
+      <c r="F6" s="328" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="318" t="s">
+      <c r="G6" s="328" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="318" t="s">
+      <c r="H6" s="328" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="318" t="s">
+      <c r="I6" s="328" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="332" t="s">
+      <c r="J6" s="322" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="333"/>
-      <c r="L6" s="307" t="s">
+      <c r="K6" s="323"/>
+      <c r="L6" s="313" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="336"/>
-      <c r="N6" s="336"/>
-      <c r="O6" s="308"/>
-      <c r="P6" s="307" t="s">
+      <c r="M6" s="326"/>
+      <c r="N6" s="326"/>
+      <c r="O6" s="314"/>
+      <c r="P6" s="313" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="308"/>
-      <c r="R6" s="307" t="s">
+      <c r="Q6" s="314"/>
+      <c r="R6" s="313" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="308"/>
-      <c r="T6" s="307" t="s">
+      <c r="S6" s="314"/>
+      <c r="T6" s="313" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="308"/>
-      <c r="V6" s="307" t="s">
+      <c r="U6" s="314"/>
+      <c r="V6" s="313" t="s">
         <v>75</v>
       </c>
-      <c r="W6" s="308"/>
+      <c r="W6" s="314"/>
     </row>
     <row r="7" spans="1:23" ht="21" customHeight="1">
-      <c r="A7" s="316"/>
-      <c r="B7" s="316"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="316"/>
-      <c r="E7" s="319"/>
-      <c r="F7" s="319"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="319"/>
-      <c r="I7" s="319"/>
-      <c r="J7" s="334"/>
-      <c r="K7" s="335"/>
-      <c r="L7" s="309"/>
-      <c r="M7" s="337"/>
-      <c r="N7" s="337"/>
-      <c r="O7" s="310"/>
-      <c r="P7" s="309"/>
-      <c r="Q7" s="310"/>
-      <c r="R7" s="309"/>
-      <c r="S7" s="310"/>
-      <c r="T7" s="309"/>
-      <c r="U7" s="310"/>
-      <c r="V7" s="309"/>
-      <c r="W7" s="310"/>
+      <c r="A7" s="342"/>
+      <c r="B7" s="342"/>
+      <c r="C7" s="342"/>
+      <c r="D7" s="342"/>
+      <c r="E7" s="329"/>
+      <c r="F7" s="329"/>
+      <c r="G7" s="329"/>
+      <c r="H7" s="329"/>
+      <c r="I7" s="329"/>
+      <c r="J7" s="324"/>
+      <c r="K7" s="325"/>
+      <c r="L7" s="315"/>
+      <c r="M7" s="327"/>
+      <c r="N7" s="327"/>
+      <c r="O7" s="316"/>
+      <c r="P7" s="315"/>
+      <c r="Q7" s="316"/>
+      <c r="R7" s="315"/>
+      <c r="S7" s="316"/>
+      <c r="T7" s="315"/>
+      <c r="U7" s="316"/>
+      <c r="V7" s="315"/>
+      <c r="W7" s="316"/>
     </row>
     <row r="8" spans="1:23" ht="21" customHeight="1">
-      <c r="A8" s="316"/>
-      <c r="B8" s="316"/>
-      <c r="C8" s="316"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="319"/>
-      <c r="F8" s="319"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="319"/>
-      <c r="I8" s="319"/>
-      <c r="J8" s="311" t="s">
+      <c r="A8" s="342"/>
+      <c r="B8" s="342"/>
+      <c r="C8" s="342"/>
+      <c r="D8" s="342"/>
+      <c r="E8" s="329"/>
+      <c r="F8" s="329"/>
+      <c r="G8" s="329"/>
+      <c r="H8" s="329"/>
+      <c r="I8" s="329"/>
+      <c r="J8" s="335" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="321" t="s">
+      <c r="K8" s="333" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="313" t="s">
+      <c r="L8" s="331" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="313" t="s">
+      <c r="M8" s="331" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="313" t="s">
+      <c r="N8" s="331" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="313" t="s">
+      <c r="O8" s="331" t="s">
         <v>100</v>
       </c>
-      <c r="P8" s="311" t="s">
+      <c r="P8" s="335" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="311" t="s">
+      <c r="Q8" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="311" t="s">
+      <c r="R8" s="335" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="311" t="s">
+      <c r="S8" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="311" t="s">
+      <c r="T8" s="335" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="311" t="s">
+      <c r="U8" s="335" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="325" t="s">
+      <c r="V8" s="339" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="323" t="s">
+      <c r="W8" s="337" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="21" customHeight="1">
-      <c r="A9" s="317"/>
-      <c r="B9" s="317"/>
-      <c r="C9" s="317"/>
-      <c r="D9" s="317"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="320"/>
-      <c r="J9" s="312"/>
-      <c r="K9" s="322"/>
-      <c r="L9" s="314"/>
-      <c r="M9" s="314"/>
-      <c r="N9" s="314"/>
-      <c r="O9" s="314"/>
-      <c r="P9" s="312"/>
-      <c r="Q9" s="312"/>
-      <c r="R9" s="312"/>
-      <c r="S9" s="312"/>
-      <c r="T9" s="312"/>
-      <c r="U9" s="312"/>
-      <c r="V9" s="326"/>
-      <c r="W9" s="324"/>
+      <c r="A9" s="343"/>
+      <c r="B9" s="343"/>
+      <c r="C9" s="343"/>
+      <c r="D9" s="343"/>
+      <c r="E9" s="330"/>
+      <c r="F9" s="330"/>
+      <c r="G9" s="330"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="330"/>
+      <c r="J9" s="336"/>
+      <c r="K9" s="334"/>
+      <c r="L9" s="332"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="332"/>
+      <c r="O9" s="332"/>
+      <c r="P9" s="336"/>
+      <c r="Q9" s="336"/>
+      <c r="R9" s="336"/>
+      <c r="S9" s="336"/>
+      <c r="T9" s="336"/>
+      <c r="U9" s="336"/>
+      <c r="V9" s="340"/>
+      <c r="W9" s="338"/>
     </row>
     <row r="305" spans="1:41" s="107" customFormat="1" ht="24" customHeight="1">
       <c r="A305" s="183"/>
@@ -40282,6 +40285,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="V6:W7"/>
     <mergeCell ref="T6:U7"/>
     <mergeCell ref="A1:D1"/>
@@ -40298,26 +40321,6 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40353,40 +40356,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="304" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
-      <c r="G1" s="344"/>
-      <c r="H1" s="344"/>
-      <c r="I1" s="344"/>
-      <c r="J1" s="344"/>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="344"/>
-      <c r="N1" s="344"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="304"/>
+      <c r="K1" s="304"/>
+      <c r="L1" s="304"/>
+      <c r="M1" s="304"/>
+      <c r="N1" s="304"/>
     </row>
     <row r="2" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A2" s="345" t="s">
+      <c r="A2" s="347" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="345"/>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="345"/>
-      <c r="K2" s="345"/>
-      <c r="L2" s="345"/>
-      <c r="M2" s="345"/>
-      <c r="N2" s="345"/>
+      <c r="B2" s="347"/>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
+      <c r="J2" s="347"/>
+      <c r="K2" s="347"/>
+      <c r="L2" s="347"/>
+      <c r="M2" s="347"/>
+      <c r="N2" s="347"/>
     </row>
     <row r="3" spans="1:14" ht="21.6" customHeight="1">
       <c r="A3" s="11"/>
@@ -40405,54 +40408,54 @@
       <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A4" s="346" t="s">
+      <c r="A4" s="348" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="346"/>
-      <c r="C4" s="346"/>
-      <c r="D4" s="346"/>
-      <c r="E4" s="346"/>
-      <c r="F4" s="346"/>
-      <c r="G4" s="346"/>
-      <c r="H4" s="346"/>
-      <c r="I4" s="346"/>
-      <c r="J4" s="346"/>
-      <c r="K4" s="346"/>
-      <c r="L4" s="346"/>
-      <c r="M4" s="346"/>
-      <c r="N4" s="346"/>
+      <c r="B4" s="348"/>
+      <c r="C4" s="348"/>
+      <c r="D4" s="348"/>
+      <c r="E4" s="348"/>
+      <c r="F4" s="348"/>
+      <c r="G4" s="348"/>
+      <c r="H4" s="348"/>
+      <c r="I4" s="348"/>
+      <c r="J4" s="348"/>
+      <c r="K4" s="348"/>
+      <c r="L4" s="348"/>
+      <c r="M4" s="348"/>
+      <c r="N4" s="348"/>
     </row>
     <row r="5" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A5" s="347"/>
-      <c r="B5" s="347"/>
-      <c r="C5" s="347"/>
-      <c r="D5" s="347"/>
-      <c r="E5" s="347"/>
-      <c r="F5" s="347"/>
-      <c r="G5" s="347"/>
-      <c r="H5" s="347"/>
-      <c r="I5" s="347"/>
-      <c r="J5" s="347"/>
-      <c r="K5" s="347"/>
-      <c r="L5" s="347"/>
-      <c r="M5" s="347"/>
-      <c r="N5" s="347"/>
+      <c r="A5" s="349"/>
+      <c r="B5" s="349"/>
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="349"/>
+      <c r="J5" s="349"/>
+      <c r="K5" s="349"/>
+      <c r="L5" s="349"/>
+      <c r="M5" s="349"/>
+      <c r="N5" s="349"/>
     </row>
     <row r="6" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A6" s="347"/>
-      <c r="B6" s="347"/>
-      <c r="C6" s="347"/>
-      <c r="D6" s="347"/>
-      <c r="E6" s="347"/>
-      <c r="F6" s="347"/>
-      <c r="G6" s="347"/>
-      <c r="H6" s="347"/>
-      <c r="I6" s="347"/>
-      <c r="J6" s="347"/>
-      <c r="K6" s="347"/>
-      <c r="L6" s="347"/>
-      <c r="M6" s="347"/>
-      <c r="N6" s="347"/>
+      <c r="A6" s="349"/>
+      <c r="B6" s="349"/>
+      <c r="C6" s="349"/>
+      <c r="D6" s="349"/>
+      <c r="E6" s="349"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="349"/>
+      <c r="H6" s="349"/>
+      <c r="I6" s="349"/>
+      <c r="J6" s="349"/>
+      <c r="K6" s="349"/>
+      <c r="L6" s="349"/>
+      <c r="M6" s="349"/>
+      <c r="N6" s="349"/>
     </row>
     <row r="7" spans="1:14" ht="21.6" customHeight="1">
       <c r="A7" s="20"/>
@@ -40471,105 +40474,117 @@
       <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A8" s="338" t="s">
+      <c r="A8" s="350" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="338" t="s">
+      <c r="B8" s="350" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="339" t="s">
+      <c r="C8" s="351" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="338" t="s">
+      <c r="D8" s="350" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="342" t="s">
+      <c r="E8" s="344" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="342"/>
-      <c r="G8" s="342" t="s">
+      <c r="F8" s="344"/>
+      <c r="G8" s="344" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="342"/>
-      <c r="I8" s="342"/>
-      <c r="J8" s="342"/>
-      <c r="K8" s="342" t="s">
+      <c r="H8" s="344"/>
+      <c r="I8" s="344"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="344" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="342" t="s">
+      <c r="L8" s="344" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="348" t="s">
+      <c r="M8" s="345" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="348"/>
+      <c r="N8" s="345"/>
     </row>
     <row r="9" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A9" s="338"/>
-      <c r="B9" s="338"/>
-      <c r="C9" s="340"/>
-      <c r="D9" s="338"/>
-      <c r="E9" s="342"/>
-      <c r="F9" s="342"/>
-      <c r="G9" s="342"/>
-      <c r="H9" s="342"/>
-      <c r="I9" s="342"/>
-      <c r="J9" s="342"/>
-      <c r="K9" s="342"/>
-      <c r="L9" s="342"/>
-      <c r="M9" s="348"/>
-      <c r="N9" s="348"/>
+      <c r="A9" s="350"/>
+      <c r="B9" s="350"/>
+      <c r="C9" s="352"/>
+      <c r="D9" s="350"/>
+      <c r="E9" s="344"/>
+      <c r="F9" s="344"/>
+      <c r="G9" s="344"/>
+      <c r="H9" s="344"/>
+      <c r="I9" s="344"/>
+      <c r="J9" s="344"/>
+      <c r="K9" s="344"/>
+      <c r="L9" s="344"/>
+      <c r="M9" s="345"/>
+      <c r="N9" s="345"/>
     </row>
     <row r="10" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A10" s="338"/>
-      <c r="B10" s="338"/>
-      <c r="C10" s="340"/>
-      <c r="D10" s="338"/>
-      <c r="E10" s="343" t="s">
+      <c r="A10" s="350"/>
+      <c r="B10" s="350"/>
+      <c r="C10" s="352"/>
+      <c r="D10" s="350"/>
+      <c r="E10" s="354" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="343" t="s">
+      <c r="F10" s="354" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="342" t="s">
+      <c r="G10" s="344" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="342" t="s">
+      <c r="H10" s="344" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="342" t="s">
+      <c r="I10" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="342" t="s">
+      <c r="J10" s="344" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="342"/>
-      <c r="L10" s="342"/>
-      <c r="M10" s="349" t="s">
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="346" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="349" t="s">
+      <c r="N10" s="346" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="21.6" customHeight="1">
-      <c r="A11" s="338"/>
-      <c r="B11" s="338"/>
-      <c r="C11" s="341"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="343"/>
-      <c r="F11" s="343"/>
-      <c r="G11" s="342"/>
-      <c r="H11" s="342"/>
-      <c r="I11" s="342"/>
-      <c r="J11" s="342"/>
-      <c r="K11" s="342"/>
-      <c r="L11" s="342"/>
-      <c r="M11" s="349"/>
-      <c r="N11" s="349"/>
+      <c r="A11" s="350"/>
+      <c r="B11" s="350"/>
+      <c r="C11" s="353"/>
+      <c r="D11" s="350"/>
+      <c r="E11" s="354"/>
+      <c r="F11" s="354"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="344"/>
+      <c r="I11" s="344"/>
+      <c r="J11" s="344"/>
+      <c r="K11" s="344"/>
+      <c r="L11" s="344"/>
+      <c r="M11" s="346"/>
+      <c r="N11" s="346"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -40580,18 +40595,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40620,50 +40623,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="142" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="355" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
       <c r="H1" s="141"/>
     </row>
     <row r="2" spans="1:9" s="142" customFormat="1" ht="39" customHeight="1">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="356" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="351"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
       <c r="H2" s="143"/>
       <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:9" s="142" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A3" s="352"/>
-      <c r="B3" s="352"/>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
-      <c r="F3" s="352"/>
-      <c r="G3" s="352"/>
+      <c r="A3" s="357"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="357"/>
       <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:9" s="146" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A4" s="353" t="s">
+      <c r="A4" s="358" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="353"/>
-      <c r="C4" s="353"/>
-      <c r="D4" s="353"/>
-      <c r="E4" s="353"/>
-      <c r="F4" s="353"/>
-      <c r="G4" s="353"/>
+      <c r="B4" s="358"/>
+      <c r="C4" s="358"/>
+      <c r="D4" s="358"/>
+      <c r="E4" s="358"/>
+      <c r="F4" s="358"/>
+      <c r="G4" s="358"/>
       <c r="H4" s="145"/>
     </row>
     <row r="5" spans="1:9" s="146" customFormat="1" ht="22.5" customHeight="1">
@@ -40674,24 +40677,24 @@
       <c r="F5" s="148"/>
     </row>
     <row r="6" spans="1:9" s="149" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A6" s="355" t="s">
+      <c r="A6" s="360" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="355" t="s">
+      <c r="B6" s="360" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="354" t="s">
+      <c r="C6" s="359" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="354"/>
-      <c r="E6" s="354"/>
-      <c r="F6" s="354"/>
-      <c r="G6" s="354"/>
+      <c r="D6" s="359"/>
+      <c r="E6" s="359"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="359"/>
       <c r="H6" s="180"/>
     </row>
     <row r="7" spans="1:9" s="146" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="355"/>
-      <c r="B7" s="355"/>
+      <c r="A7" s="360"/>
+      <c r="B7" s="360"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -40710,8 +40713,8 @@
       <c r="H7" s="150"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A8" s="355"/>
-      <c r="B8" s="355"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="360"/>
       <c r="C8" s="130" t="s">
         <v>40</v>
       </c>
@@ -40762,66 +40765,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="355" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="350"/>
-      <c r="C1" s="350"/>
-      <c r="D1" s="350"/>
-      <c r="E1" s="350"/>
-      <c r="F1" s="350"/>
-      <c r="G1" s="350"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
     </row>
     <row r="2" spans="1:8" ht="43.5" customHeight="1">
-      <c r="A2" s="351" t="s">
+      <c r="A2" s="356" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="351"/>
-      <c r="C2" s="351"/>
-      <c r="D2" s="351"/>
-      <c r="E2" s="351"/>
-      <c r="F2" s="351"/>
-      <c r="G2" s="351"/>
+      <c r="B2" s="356"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="352"/>
-      <c r="B3" s="352"/>
-      <c r="C3" s="352"/>
-      <c r="D3" s="352"/>
-      <c r="E3" s="352"/>
-      <c r="F3" s="352"/>
-      <c r="G3" s="352"/>
+      <c r="A3" s="357"/>
+      <c r="B3" s="357"/>
+      <c r="C3" s="357"/>
+      <c r="D3" s="357"/>
+      <c r="E3" s="357"/>
+      <c r="F3" s="357"/>
+      <c r="G3" s="357"/>
     </row>
     <row r="4" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A4" s="356" t="s">
+      <c r="A4" s="361" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="356"/>
-      <c r="C4" s="356"/>
-      <c r="D4" s="356"/>
-      <c r="E4" s="356"/>
-      <c r="F4" s="356"/>
-      <c r="G4" s="356"/>
+      <c r="B4" s="361"/>
+      <c r="C4" s="361"/>
+      <c r="D4" s="361"/>
+      <c r="E4" s="361"/>
+      <c r="F4" s="361"/>
+      <c r="G4" s="361"/>
     </row>
     <row r="5" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="362" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="357" t="s">
+      <c r="B5" s="362" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="358" t="s">
+      <c r="C5" s="363" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="358"/>
+      <c r="D5" s="363"/>
+      <c r="E5" s="363"/>
+      <c r="F5" s="363"/>
+      <c r="G5" s="363"/>
       <c r="H5" s="181"/>
     </row>
     <row r="6" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A6" s="357"/>
-      <c r="B6" s="357"/>
+      <c r="A6" s="362"/>
+      <c r="B6" s="362"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -40839,8 +40842,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A7" s="357"/>
-      <c r="B7" s="357"/>
+      <c r="A7" s="362"/>
+      <c r="B7" s="362"/>
       <c r="C7" s="132" t="s">
         <v>40</v>
       </c>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project\TMS_PLX\TMS_API\DMS.API\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5165CE-F329-4D97-8ED4-22E4B95C3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A528A8-FB74-4F85-B446-D380F2F11D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="802" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" tabRatio="802" activeTab="13" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -37,23 +37,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="190">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -1526,7 +1515,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="352">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1973,6 +1962,88 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2382,10 +2453,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2433,6 +2510,14 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2504,6 +2589,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2515,115 +2609,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="32" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="153">
     <cellStyle name="20% - Accent1 2" xfId="10" xr:uid="{E00AEB10-11DA-4F4B-86BF-145D9E78C736}"/>
@@ -3119,7 +3107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DFD16-6734-4240-8F57-B4E46BBCF2BD}">
   <dimension ref="A1:AD125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.75" customHeight="1"/>
   <cols>
@@ -3177,13 +3165,13 @@
     </row>
     <row r="2" spans="1:27" ht="24.75" customHeight="1">
       <c r="A2" s="17"/>
-      <c r="B2" s="236"/>
-      <c r="C2" s="236"/>
-      <c r="D2" s="236"/>
-      <c r="E2" s="236"/>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
       <c r="I2" s="17"/>
       <c r="J2" s="17"/>
       <c r="K2" s="17"/>
@@ -3206,29 +3194,29 @@
     </row>
     <row r="3" spans="1:27" ht="40.5" customHeight="1">
       <c r="A3" s="17"/>
-      <c r="B3" s="250" t="s">
+      <c r="B3" s="280" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="153" t="s">
+      <c r="C3" s="281"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="183" t="s">
         <v>102</v>
       </c>
-      <c r="F3" s="153" t="s">
+      <c r="F3" s="183" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="183" t="s">
         <v>104</v>
       </c>
-      <c r="H3" s="256" t="s">
+      <c r="H3" s="286" t="s">
         <v>105</v>
       </c>
-      <c r="I3" s="257"/>
-      <c r="J3" s="258" t="s">
+      <c r="I3" s="287"/>
+      <c r="J3" s="288" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="259"/>
-      <c r="L3" s="153" t="s">
+      <c r="K3" s="289"/>
+      <c r="L3" s="183" t="s">
         <v>107</v>
       </c>
       <c r="M3" s="17"/>
@@ -3242,7 +3230,7 @@
       <c r="U3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="V3" s="241" t="s">
+      <c r="V3" s="271" t="s">
         <v>142</v>
       </c>
       <c r="W3" s="56" t="s">
@@ -3255,21 +3243,21 @@
     </row>
     <row r="4" spans="1:27" ht="43.5" customHeight="1">
       <c r="A4" s="17"/>
-      <c r="B4" s="253"/>
-      <c r="C4" s="254"/>
-      <c r="D4" s="255"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="285"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
       <c r="H4" s="18" t="s">
         <v>108</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="J4" s="260"/>
-      <c r="K4" s="261"/>
-      <c r="L4" s="154"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="291"/>
+      <c r="L4" s="184"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -3281,7 +3269,7 @@
       <c r="U4" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="V4" s="242"/>
+      <c r="V4" s="272"/>
       <c r="W4" s="56" t="s">
         <v>98</v>
       </c>
@@ -3292,17 +3280,17 @@
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="17"/>
-      <c r="B5" s="234"/>
-      <c r="C5" s="234"/>
-      <c r="D5" s="234"/>
+      <c r="B5" s="264"/>
+      <c r="C5" s="264"/>
+      <c r="D5" s="264"/>
       <c r="E5" s="137"/>
       <c r="F5" s="137"/>
       <c r="G5" s="138"/>
       <c r="H5" s="137"/>
       <c r="I5" s="137"/>
-      <c r="J5" s="262"/>
-      <c r="K5" s="263"/>
-      <c r="L5" s="264"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="293"/>
+      <c r="L5" s="294"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -3323,17 +3311,17 @@
     </row>
     <row r="6" spans="1:27" ht="31.5" customHeight="1">
       <c r="A6" s="17"/>
-      <c r="B6" s="234"/>
-      <c r="C6" s="234"/>
-      <c r="D6" s="234"/>
+      <c r="B6" s="264"/>
+      <c r="C6" s="264"/>
+      <c r="D6" s="264"/>
       <c r="E6" s="137"/>
       <c r="F6" s="137"/>
       <c r="G6" s="138"/>
       <c r="H6" s="137"/>
       <c r="I6" s="137"/>
-      <c r="J6" s="262"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="265"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="293"/>
+      <c r="L6" s="295"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
       <c r="O6" s="17"/>
@@ -3352,17 +3340,17 @@
     </row>
     <row r="7" spans="1:27" ht="31.5" customHeight="1">
       <c r="A7" s="17"/>
-      <c r="B7" s="234"/>
-      <c r="C7" s="234"/>
-      <c r="D7" s="234"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="264"/>
+      <c r="D7" s="264"/>
       <c r="E7" s="137"/>
       <c r="F7" s="137"/>
       <c r="G7" s="138"/>
       <c r="H7" s="137"/>
       <c r="I7" s="137"/>
-      <c r="J7" s="262"/>
-      <c r="K7" s="263"/>
-      <c r="L7" s="265"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="295"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -3381,17 +3369,17 @@
     </row>
     <row r="8" spans="1:27" ht="31.5" customHeight="1">
       <c r="A8" s="17"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="234"/>
-      <c r="D8" s="234"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
       <c r="E8" s="137"/>
       <c r="F8" s="137"/>
       <c r="G8" s="138"/>
       <c r="H8" s="137"/>
       <c r="I8" s="137"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="263"/>
-      <c r="L8" s="266"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="293"/>
+      <c r="L8" s="296"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -3429,23 +3417,23 @@
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="90"/>
-      <c r="U9" s="249"/>
-      <c r="V9" s="249"/>
-      <c r="W9" s="249"/>
-      <c r="X9" s="249"/>
+      <c r="U9" s="279"/>
+      <c r="V9" s="279"/>
+      <c r="W9" s="279"/>
+      <c r="X9" s="279"/>
       <c r="Y9" s="24"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
     </row>
     <row r="10" spans="1:27" ht="33" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="236"/>
-      <c r="C10" s="236"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="236"/>
-      <c r="F10" s="236"/>
-      <c r="G10" s="237"/>
-      <c r="H10" s="237"/>
+      <c r="B10" s="266"/>
+      <c r="C10" s="266"/>
+      <c r="D10" s="266"/>
+      <c r="E10" s="266"/>
+      <c r="F10" s="266"/>
+      <c r="G10" s="267"/>
+      <c r="H10" s="267"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
       <c r="K10" s="17"/>
@@ -3458,29 +3446,29 @@
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="90"/>
-      <c r="U10" s="247" t="s">
+      <c r="U10" s="277" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="243" t="s">
+      <c r="V10" s="273" t="s">
         <v>154</v>
       </c>
-      <c r="W10" s="244"/>
-      <c r="X10" s="245"/>
+      <c r="W10" s="274"/>
+      <c r="X10" s="275"/>
       <c r="Y10" s="58"/>
       <c r="Z10" s="58"/>
       <c r="AA10" s="58"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1">
       <c r="A11" s="17"/>
-      <c r="B11" s="238" t="s">
+      <c r="B11" s="268" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="238"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="239" t="s">
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269" t="s">
         <v>110</v>
       </c>
-      <c r="F11" s="239"/>
+      <c r="F11" s="269"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
@@ -3495,7 +3483,7 @@
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
       <c r="T11" s="90"/>
-      <c r="U11" s="248"/>
+      <c r="U11" s="278"/>
       <c r="V11" s="42" t="s">
         <v>155</v>
       </c>
@@ -3511,11 +3499,11 @@
     </row>
     <row r="12" spans="1:27" ht="28.5" customHeight="1">
       <c r="A12" s="17"/>
-      <c r="B12" s="234"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="234"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
+      <c r="B12" s="264"/>
+      <c r="C12" s="264"/>
+      <c r="D12" s="264"/>
+      <c r="E12" s="265"/>
+      <c r="F12" s="265"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
@@ -3542,11 +3530,11 @@
     </row>
     <row r="13" spans="1:27" ht="28.5" customHeight="1">
       <c r="A13" s="17"/>
-      <c r="B13" s="234"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="234"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
+      <c r="B13" s="264"/>
+      <c r="C13" s="264"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="265"/>
+      <c r="F13" s="265"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
@@ -3571,11 +3559,11 @@
     </row>
     <row r="14" spans="1:27" ht="28.5" customHeight="1">
       <c r="A14" s="17"/>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
+      <c r="B14" s="264"/>
+      <c r="C14" s="264"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="265"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -3600,11 +3588,11 @@
     </row>
     <row r="15" spans="1:27" ht="28.5" customHeight="1">
       <c r="A15" s="17"/>
-      <c r="B15" s="234"/>
-      <c r="C15" s="234"/>
-      <c r="D15" s="234"/>
-      <c r="E15" s="235"/>
-      <c r="F15" s="235"/>
+      <c r="B15" s="264"/>
+      <c r="C15" s="264"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="265"/>
+      <c r="F15" s="265"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -3890,10 +3878,10 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="63"/>
-      <c r="U24" s="240"/>
-      <c r="V24" s="240"/>
-      <c r="W24" s="240"/>
-      <c r="X24" s="240"/>
+      <c r="U24" s="270"/>
+      <c r="V24" s="270"/>
+      <c r="W24" s="270"/>
+      <c r="X24" s="270"/>
       <c r="Y24" s="68"/>
       <c r="Z24" s="68"/>
       <c r="AA24" s="69"/>
@@ -3919,14 +3907,14 @@
       <c r="R25" s="25"/>
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
-      <c r="U25" s="246" t="s">
+      <c r="U25" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="246" t="s">
+      <c r="V25" s="276" t="s">
         <v>160</v>
       </c>
-      <c r="W25" s="246"/>
-      <c r="X25" s="246"/>
+      <c r="W25" s="276"/>
+      <c r="X25" s="276"/>
       <c r="Y25" s="29"/>
       <c r="Z25" s="29"/>
       <c r="AA25" s="29"/>
@@ -3952,7 +3940,7 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
       <c r="T26" s="48"/>
-      <c r="U26" s="246"/>
+      <c r="U26" s="276"/>
       <c r="V26" s="42" t="s">
         <v>161</v>
       </c>
@@ -4140,26 +4128,26 @@
       <c r="AA32" s="24"/>
     </row>
     <row r="33" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A33" s="203" t="s">
+      <c r="A33" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="203"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="203"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
       <c r="I33" s="27"/>
-      <c r="J33" s="204" t="s">
+      <c r="J33" s="234" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="204"/>
-      <c r="L33" s="204"/>
-      <c r="M33" s="204"/>
-      <c r="N33" s="204"/>
-      <c r="O33" s="204"/>
-      <c r="P33" s="204"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="234"/>
+      <c r="M33" s="234"/>
+      <c r="N33" s="234"/>
+      <c r="O33" s="234"/>
+      <c r="P33" s="234"/>
       <c r="Q33" s="25"/>
       <c r="R33" s="25"/>
       <c r="S33" s="25"/>
@@ -4173,26 +4161,26 @@
       <c r="AA33" s="29"/>
     </row>
     <row r="34" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A34" s="205" t="s">
+      <c r="A34" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
+      <c r="B34" s="235"/>
+      <c r="C34" s="235"/>
+      <c r="D34" s="235"/>
       <c r="E34" s="27"/>
       <c r="F34" s="30"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
       <c r="I34" s="27"/>
-      <c r="J34" s="206" t="s">
+      <c r="J34" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="K34" s="206"/>
-      <c r="L34" s="206"/>
-      <c r="M34" s="206"/>
-      <c r="N34" s="206"/>
-      <c r="O34" s="206"/>
-      <c r="P34" s="206"/>
+      <c r="K34" s="236"/>
+      <c r="L34" s="236"/>
+      <c r="M34" s="236"/>
+      <c r="N34" s="236"/>
+      <c r="O34" s="236"/>
+      <c r="P34" s="236"/>
       <c r="Q34" s="25"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
@@ -4235,24 +4223,24 @@
       <c r="AA35" s="24"/>
     </row>
     <row r="36" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A36" s="207" t="s">
+      <c r="A36" s="237" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="207"/>
-      <c r="C36" s="207"/>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="207"/>
-      <c r="J36" s="207"/>
-      <c r="K36" s="207"/>
-      <c r="L36" s="207"/>
-      <c r="M36" s="207"/>
-      <c r="N36" s="207"/>
-      <c r="O36" s="207"/>
-      <c r="P36" s="207"/>
+      <c r="B36" s="237"/>
+      <c r="C36" s="237"/>
+      <c r="D36" s="237"/>
+      <c r="E36" s="237"/>
+      <c r="F36" s="237"/>
+      <c r="G36" s="237"/>
+      <c r="H36" s="237"/>
+      <c r="I36" s="237"/>
+      <c r="J36" s="237"/>
+      <c r="K36" s="237"/>
+      <c r="L36" s="237"/>
+      <c r="M36" s="237"/>
+      <c r="N36" s="237"/>
+      <c r="O36" s="237"/>
+      <c r="P36" s="237"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="34"/>
       <c r="S36" s="34"/>
@@ -4266,22 +4254,22 @@
       <c r="AA36" s="24"/>
     </row>
     <row r="37" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A37" s="208"/>
-      <c r="B37" s="208"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="208"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="208"/>
-      <c r="J37" s="208"/>
-      <c r="K37" s="208"/>
-      <c r="L37" s="208"/>
-      <c r="M37" s="208"/>
-      <c r="N37" s="208"/>
-      <c r="O37" s="208"/>
-      <c r="P37" s="208"/>
+      <c r="A37" s="238"/>
+      <c r="B37" s="238"/>
+      <c r="C37" s="238"/>
+      <c r="D37" s="238"/>
+      <c r="E37" s="238"/>
+      <c r="F37" s="238"/>
+      <c r="G37" s="238"/>
+      <c r="H37" s="238"/>
+      <c r="I37" s="238"/>
+      <c r="J37" s="238"/>
+      <c r="K37" s="238"/>
+      <c r="L37" s="238"/>
+      <c r="M37" s="238"/>
+      <c r="N37" s="238"/>
+      <c r="O37" s="238"/>
+      <c r="P37" s="238"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
@@ -4324,86 +4312,86 @@
       <c r="AA38" s="24"/>
     </row>
     <row r="39" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A39" s="174" t="s">
+      <c r="A39" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="174" t="s">
+      <c r="B39" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="C39" s="174" t="s">
+      <c r="C39" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="213" t="s">
+      <c r="D39" s="243" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="183" t="s">
+      <c r="E39" s="213" t="s">
         <v>123</v>
       </c>
-      <c r="F39" s="189"/>
-      <c r="G39" s="184"/>
-      <c r="H39" s="213" t="s">
+      <c r="F39" s="219"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="243" t="s">
         <v>124</v>
       </c>
-      <c r="I39" s="183" t="s">
+      <c r="I39" s="213" t="s">
         <v>125</v>
       </c>
-      <c r="J39" s="189"/>
-      <c r="K39" s="189"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="183" t="s">
+      <c r="J39" s="219"/>
+      <c r="K39" s="219"/>
+      <c r="L39" s="214"/>
+      <c r="M39" s="213" t="s">
         <v>126</v>
       </c>
-      <c r="N39" s="189"/>
-      <c r="O39" s="189"/>
-      <c r="P39" s="184"/>
+      <c r="N39" s="219"/>
+      <c r="O39" s="219"/>
+      <c r="P39" s="214"/>
       <c r="Q39" s="40"/>
       <c r="R39" s="40"/>
       <c r="S39" s="40"/>
       <c r="T39" s="40"/>
-      <c r="U39" s="227" t="s">
+      <c r="U39" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="V39" s="227"/>
-      <c r="W39" s="227"/>
-      <c r="X39" s="227"/>
-      <c r="Y39" s="228"/>
-      <c r="Z39" s="229"/>
-      <c r="AA39" s="230"/>
+      <c r="V39" s="257"/>
+      <c r="W39" s="257"/>
+      <c r="X39" s="257"/>
+      <c r="Y39" s="258"/>
+      <c r="Z39" s="259"/>
+      <c r="AA39" s="260"/>
     </row>
     <row r="40" spans="1:27" ht="9.75" customHeight="1">
-      <c r="A40" s="175"/>
-      <c r="B40" s="175"/>
-      <c r="C40" s="175"/>
-      <c r="D40" s="214"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="191"/>
-      <c r="K40" s="191"/>
-      <c r="L40" s="188"/>
-      <c r="M40" s="187"/>
-      <c r="N40" s="191"/>
-      <c r="O40" s="191"/>
-      <c r="P40" s="188"/>
+      <c r="A40" s="205"/>
+      <c r="B40" s="205"/>
+      <c r="C40" s="205"/>
+      <c r="D40" s="244"/>
+      <c r="E40" s="217"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="244"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="221"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="217"/>
+      <c r="N40" s="221"/>
+      <c r="O40" s="221"/>
+      <c r="P40" s="218"/>
       <c r="Q40" s="40"/>
       <c r="R40" s="40"/>
       <c r="S40" s="40"/>
       <c r="T40" s="40"/>
-      <c r="U40" s="227"/>
-      <c r="V40" s="227"/>
-      <c r="W40" s="227"/>
-      <c r="X40" s="227"/>
-      <c r="Y40" s="231"/>
-      <c r="Z40" s="232"/>
-      <c r="AA40" s="233"/>
+      <c r="U40" s="257"/>
+      <c r="V40" s="257"/>
+      <c r="W40" s="257"/>
+      <c r="X40" s="257"/>
+      <c r="Y40" s="261"/>
+      <c r="Z40" s="262"/>
+      <c r="AA40" s="263"/>
     </row>
     <row r="41" spans="1:27" ht="45" customHeight="1">
-      <c r="A41" s="176"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="215"/>
+      <c r="A41" s="206"/>
+      <c r="B41" s="206"/>
+      <c r="C41" s="206"/>
+      <c r="D41" s="245"/>
       <c r="E41" s="41" t="s">
         <v>127</v>
       </c>
@@ -4413,28 +4401,28 @@
       <c r="G41" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="H41" s="215"/>
-      <c r="I41" s="201" t="s">
+      <c r="H41" s="245"/>
+      <c r="I41" s="231" t="s">
         <v>130</v>
       </c>
-      <c r="J41" s="202"/>
-      <c r="K41" s="201" t="s">
+      <c r="J41" s="232"/>
+      <c r="K41" s="231" t="s">
         <v>131</v>
       </c>
-      <c r="L41" s="202"/>
-      <c r="M41" s="201" t="s">
+      <c r="L41" s="232"/>
+      <c r="M41" s="231" t="s">
         <v>132</v>
       </c>
-      <c r="N41" s="202"/>
-      <c r="O41" s="201" t="s">
+      <c r="N41" s="232"/>
+      <c r="O41" s="231" t="s">
         <v>131</v>
       </c>
-      <c r="P41" s="202"/>
+      <c r="P41" s="232"/>
       <c r="Q41" s="40"/>
       <c r="R41" s="40"/>
       <c r="S41" s="40"/>
       <c r="T41" s="40"/>
-      <c r="U41" s="227"/>
+      <c r="U41" s="257"/>
       <c r="V41" s="42" t="s">
         <v>133</v>
       </c>
@@ -4463,14 +4451,14 @@
       <c r="F42" s="135"/>
       <c r="G42" s="135"/>
       <c r="H42" s="136"/>
-      <c r="I42" s="225"/>
-      <c r="J42" s="226"/>
-      <c r="K42" s="225"/>
-      <c r="L42" s="226"/>
-      <c r="M42" s="225"/>
-      <c r="N42" s="226"/>
-      <c r="O42" s="225"/>
-      <c r="P42" s="226"/>
+      <c r="I42" s="255"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="255"/>
+      <c r="L42" s="256"/>
+      <c r="M42" s="255"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="255"/>
+      <c r="P42" s="256"/>
       <c r="Q42" s="44"/>
       <c r="R42" s="44"/>
       <c r="S42" s="44"/>
@@ -4492,14 +4480,14 @@
       <c r="F43" s="135"/>
       <c r="G43" s="135"/>
       <c r="H43" s="136"/>
-      <c r="I43" s="225"/>
-      <c r="J43" s="226"/>
-      <c r="K43" s="225"/>
-      <c r="L43" s="226"/>
-      <c r="M43" s="225"/>
-      <c r="N43" s="226"/>
-      <c r="O43" s="225"/>
-      <c r="P43" s="226"/>
+      <c r="I43" s="255"/>
+      <c r="J43" s="256"/>
+      <c r="K43" s="255"/>
+      <c r="L43" s="256"/>
+      <c r="M43" s="255"/>
+      <c r="N43" s="256"/>
+      <c r="O43" s="255"/>
+      <c r="P43" s="256"/>
       <c r="Q43" s="44"/>
       <c r="R43" s="44"/>
       <c r="S43" s="44"/>
@@ -4521,14 +4509,14 @@
       <c r="F44" s="135"/>
       <c r="G44" s="135"/>
       <c r="H44" s="136"/>
-      <c r="I44" s="225"/>
-      <c r="J44" s="226"/>
-      <c r="K44" s="225"/>
-      <c r="L44" s="226"/>
-      <c r="M44" s="225"/>
-      <c r="N44" s="226"/>
-      <c r="O44" s="225"/>
-      <c r="P44" s="226"/>
+      <c r="I44" s="255"/>
+      <c r="J44" s="256"/>
+      <c r="K44" s="255"/>
+      <c r="L44" s="256"/>
+      <c r="M44" s="255"/>
+      <c r="N44" s="256"/>
+      <c r="O44" s="255"/>
+      <c r="P44" s="256"/>
       <c r="Q44" s="44"/>
       <c r="R44" s="44"/>
       <c r="S44" s="44"/>
@@ -4550,14 +4538,14 @@
       <c r="F45" s="135"/>
       <c r="G45" s="135"/>
       <c r="H45" s="136"/>
-      <c r="I45" s="225"/>
-      <c r="J45" s="226"/>
-      <c r="K45" s="225"/>
-      <c r="L45" s="226"/>
-      <c r="M45" s="225"/>
-      <c r="N45" s="226"/>
-      <c r="O45" s="225"/>
-      <c r="P45" s="226"/>
+      <c r="I45" s="255"/>
+      <c r="J45" s="256"/>
+      <c r="K45" s="255"/>
+      <c r="L45" s="256"/>
+      <c r="M45" s="255"/>
+      <c r="N45" s="256"/>
+      <c r="O45" s="255"/>
+      <c r="P45" s="256"/>
       <c r="Q45" s="44"/>
       <c r="R45" s="44"/>
       <c r="S45" s="44"/>
@@ -4609,60 +4597,60 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="155"/>
-      <c r="L47" s="155"/>
-      <c r="M47" s="155"/>
-      <c r="N47" s="155"/>
-      <c r="O47" s="155"/>
-      <c r="P47" s="155"/>
+      <c r="J47" s="185"/>
+      <c r="K47" s="185"/>
+      <c r="L47" s="185"/>
+      <c r="M47" s="185"/>
+      <c r="N47" s="185"/>
+      <c r="O47" s="185"/>
+      <c r="P47" s="185"/>
       <c r="Q47" s="48"/>
       <c r="R47" s="48"/>
       <c r="S47" s="48"/>
       <c r="T47" s="48"/>
-      <c r="U47" s="216" t="s">
+      <c r="U47" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="V47" s="219" t="s">
+      <c r="V47" s="249" t="s">
         <v>136</v>
       </c>
-      <c r="W47" s="220"/>
-      <c r="X47" s="221"/>
+      <c r="W47" s="250"/>
+      <c r="X47" s="251"/>
       <c r="Y47" s="49"/>
       <c r="Z47" s="49"/>
       <c r="AA47" s="49"/>
     </row>
     <row r="48" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A48" s="156" t="s">
+      <c r="A48" s="186" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="156"/>
-      <c r="C48" s="157" t="s">
+      <c r="B48" s="186"/>
+      <c r="C48" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="D48" s="157"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="158" t="s">
+      <c r="D48" s="187"/>
+      <c r="E48" s="187"/>
+      <c r="F48" s="187"/>
+      <c r="G48" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="H48" s="158"/>
-      <c r="I48" s="158"/>
-      <c r="J48" s="158"/>
-      <c r="K48" s="158"/>
-      <c r="L48" s="158"/>
-      <c r="M48" s="158"/>
-      <c r="N48" s="158"/>
-      <c r="O48" s="158"/>
-      <c r="P48" s="158"/>
+      <c r="H48" s="188"/>
+      <c r="I48" s="188"/>
+      <c r="J48" s="188"/>
+      <c r="K48" s="188"/>
+      <c r="L48" s="188"/>
+      <c r="M48" s="188"/>
+      <c r="N48" s="188"/>
+      <c r="O48" s="188"/>
+      <c r="P48" s="188"/>
       <c r="Q48" s="50"/>
       <c r="R48" s="50"/>
       <c r="S48" s="50"/>
       <c r="T48" s="50"/>
-      <c r="U48" s="217"/>
-      <c r="V48" s="222"/>
-      <c r="W48" s="223"/>
-      <c r="X48" s="224"/>
+      <c r="U48" s="247"/>
+      <c r="V48" s="252"/>
+      <c r="W48" s="253"/>
+      <c r="X48" s="254"/>
       <c r="Y48" s="49"/>
       <c r="Z48" s="49"/>
       <c r="AA48" s="49"/>
@@ -4677,18 +4665,18 @@
       <c r="G49" s="50"/>
       <c r="H49" s="50"/>
       <c r="I49" s="50"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="158"/>
-      <c r="O49" s="158"/>
-      <c r="P49" s="158"/>
+      <c r="J49" s="188"/>
+      <c r="K49" s="188"/>
+      <c r="L49" s="188"/>
+      <c r="M49" s="188"/>
+      <c r="N49" s="188"/>
+      <c r="O49" s="188"/>
+      <c r="P49" s="188"/>
       <c r="Q49" s="50"/>
       <c r="R49" s="50"/>
       <c r="S49" s="50"/>
       <c r="T49" s="50"/>
-      <c r="U49" s="218"/>
+      <c r="U49" s="248"/>
       <c r="V49" s="42" t="s">
         <v>133</v>
       </c>
@@ -4828,15 +4816,15 @@
       <c r="G54" s="53"/>
       <c r="H54" s="53"/>
       <c r="I54" s="53"/>
-      <c r="J54" s="212" t="s">
+      <c r="J54" s="242" t="s">
         <v>140</v>
       </c>
-      <c r="K54" s="212"/>
-      <c r="L54" s="212"/>
-      <c r="M54" s="212"/>
-      <c r="N54" s="212"/>
-      <c r="O54" s="212"/>
-      <c r="P54" s="212"/>
+      <c r="K54" s="242"/>
+      <c r="L54" s="242"/>
+      <c r="M54" s="242"/>
+      <c r="N54" s="242"/>
+      <c r="O54" s="242"/>
+      <c r="P54" s="242"/>
       <c r="Q54" s="53"/>
       <c r="R54" s="53"/>
       <c r="S54" s="53"/>
@@ -5320,26 +5308,26 @@
       <c r="AD70" s="25"/>
     </row>
     <row r="71" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A71" s="203" t="s">
+      <c r="A71" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="203"/>
-      <c r="C71" s="203"/>
-      <c r="D71" s="203"/>
+      <c r="B71" s="233"/>
+      <c r="C71" s="233"/>
+      <c r="D71" s="233"/>
       <c r="E71" s="27"/>
       <c r="F71" s="28"/>
       <c r="G71" s="28"/>
       <c r="H71" s="28"/>
       <c r="I71" s="27"/>
-      <c r="J71" s="204" t="s">
+      <c r="J71" s="234" t="s">
         <v>116</v>
       </c>
-      <c r="K71" s="204"/>
-      <c r="L71" s="204"/>
-      <c r="M71" s="204"/>
-      <c r="N71" s="204"/>
-      <c r="O71" s="204"/>
-      <c r="P71" s="204"/>
+      <c r="K71" s="234"/>
+      <c r="L71" s="234"/>
+      <c r="M71" s="234"/>
+      <c r="N71" s="234"/>
+      <c r="O71" s="234"/>
+      <c r="P71" s="234"/>
       <c r="Q71" s="27"/>
       <c r="R71" s="27"/>
       <c r="S71" s="27"/>
@@ -5356,26 +5344,26 @@
       <c r="AD71" s="25"/>
     </row>
     <row r="72" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A72" s="205" t="s">
+      <c r="A72" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="B72" s="205"/>
-      <c r="C72" s="205"/>
-      <c r="D72" s="205"/>
+      <c r="B72" s="235"/>
+      <c r="C72" s="235"/>
+      <c r="D72" s="235"/>
       <c r="E72" s="27"/>
       <c r="F72" s="30"/>
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
       <c r="I72" s="27"/>
-      <c r="J72" s="206" t="s">
+      <c r="J72" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="K72" s="206"/>
-      <c r="L72" s="206"/>
-      <c r="M72" s="206"/>
-      <c r="N72" s="206"/>
-      <c r="O72" s="206"/>
-      <c r="P72" s="206"/>
+      <c r="K72" s="236"/>
+      <c r="L72" s="236"/>
+      <c r="M72" s="236"/>
+      <c r="N72" s="236"/>
+      <c r="O72" s="236"/>
+      <c r="P72" s="236"/>
       <c r="Q72" s="28"/>
       <c r="R72" s="28"/>
       <c r="S72" s="28"/>
@@ -5411,39 +5399,39 @@
       <c r="Q73" s="25"/>
       <c r="R73" s="25"/>
       <c r="S73" s="25"/>
-      <c r="T73" s="212" t="s">
+      <c r="T73" s="242" t="s">
         <v>140</v>
       </c>
-      <c r="U73" s="212"/>
-      <c r="V73" s="212"/>
-      <c r="W73" s="212"/>
-      <c r="X73" s="212"/>
-      <c r="Y73" s="212"/>
-      <c r="Z73" s="212"/>
+      <c r="U73" s="242"/>
+      <c r="V73" s="242"/>
+      <c r="W73" s="242"/>
+      <c r="X73" s="242"/>
+      <c r="Y73" s="242"/>
+      <c r="Z73" s="242"/>
       <c r="AA73" s="53"/>
       <c r="AB73" s="53"/>
       <c r="AC73" s="53"/>
       <c r="AD73" s="53"/>
     </row>
     <row r="74" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A74" s="207" t="s">
+      <c r="A74" s="237" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="207"/>
-      <c r="C74" s="207"/>
-      <c r="D74" s="207"/>
-      <c r="E74" s="207"/>
-      <c r="F74" s="207"/>
-      <c r="G74" s="207"/>
-      <c r="H74" s="207"/>
-      <c r="I74" s="207"/>
-      <c r="J74" s="207"/>
-      <c r="K74" s="207"/>
-      <c r="L74" s="207"/>
-      <c r="M74" s="207"/>
-      <c r="N74" s="207"/>
-      <c r="O74" s="207"/>
-      <c r="P74" s="207"/>
+      <c r="B74" s="237"/>
+      <c r="C74" s="237"/>
+      <c r="D74" s="237"/>
+      <c r="E74" s="237"/>
+      <c r="F74" s="237"/>
+      <c r="G74" s="237"/>
+      <c r="H74" s="237"/>
+      <c r="I74" s="237"/>
+      <c r="J74" s="237"/>
+      <c r="K74" s="237"/>
+      <c r="L74" s="237"/>
+      <c r="M74" s="237"/>
+      <c r="N74" s="237"/>
+      <c r="O74" s="237"/>
+      <c r="P74" s="237"/>
       <c r="Q74" s="34"/>
       <c r="R74" s="34"/>
       <c r="S74" s="34"/>
@@ -5460,22 +5448,22 @@
       <c r="AD74" s="54"/>
     </row>
     <row r="75" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A75" s="208"/>
-      <c r="B75" s="208"/>
-      <c r="C75" s="208"/>
-      <c r="D75" s="208"/>
-      <c r="E75" s="208"/>
-      <c r="F75" s="208"/>
-      <c r="G75" s="208"/>
-      <c r="H75" s="208"/>
-      <c r="I75" s="208"/>
-      <c r="J75" s="208"/>
-      <c r="K75" s="208"/>
-      <c r="L75" s="208"/>
-      <c r="M75" s="208"/>
-      <c r="N75" s="208"/>
-      <c r="O75" s="208"/>
-      <c r="P75" s="208"/>
+      <c r="A75" s="238"/>
+      <c r="B75" s="238"/>
+      <c r="C75" s="238"/>
+      <c r="D75" s="238"/>
+      <c r="E75" s="238"/>
+      <c r="F75" s="238"/>
+      <c r="G75" s="238"/>
+      <c r="H75" s="238"/>
+      <c r="I75" s="238"/>
+      <c r="J75" s="238"/>
+      <c r="K75" s="238"/>
+      <c r="L75" s="238"/>
+      <c r="M75" s="238"/>
+      <c r="N75" s="238"/>
+      <c r="O75" s="238"/>
+      <c r="P75" s="238"/>
       <c r="Q75" s="37"/>
       <c r="R75" s="37"/>
       <c r="S75" s="37"/>
@@ -5526,46 +5514,46 @@
       <c r="AD76" s="54"/>
     </row>
     <row r="77" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A77" s="174" t="s">
+      <c r="A77" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="174" t="s">
+      <c r="B77" s="204" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="174" t="s">
+      <c r="C77" s="204" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="213" t="s">
+      <c r="D77" s="243" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="183" t="s">
+      <c r="E77" s="213" t="s">
         <v>123</v>
       </c>
-      <c r="F77" s="189"/>
-      <c r="G77" s="184"/>
-      <c r="H77" s="183" t="s">
+      <c r="F77" s="219"/>
+      <c r="G77" s="214"/>
+      <c r="H77" s="213" t="s">
         <v>146</v>
       </c>
-      <c r="I77" s="184"/>
-      <c r="J77" s="183" t="s">
+      <c r="I77" s="214"/>
+      <c r="J77" s="213" t="s">
         <v>147</v>
       </c>
-      <c r="K77" s="184"/>
-      <c r="L77" s="183" t="s">
+      <c r="K77" s="214"/>
+      <c r="L77" s="213" t="s">
         <v>148</v>
       </c>
-      <c r="M77" s="184"/>
-      <c r="N77" s="183" t="s">
+      <c r="M77" s="214"/>
+      <c r="N77" s="213" t="s">
         <v>149</v>
       </c>
-      <c r="O77" s="184"/>
-      <c r="P77" s="169" t="s">
+      <c r="O77" s="214"/>
+      <c r="P77" s="199" t="s">
         <v>150</v>
       </c>
-      <c r="Q77" s="169" t="s">
+      <c r="Q77" s="199" t="s">
         <v>151</v>
       </c>
-      <c r="R77" s="169" t="s">
+      <c r="R77" s="199" t="s">
         <v>152</v>
       </c>
       <c r="S77" s="57"/>
@@ -5582,24 +5570,24 @@
       <c r="AD77" s="54"/>
     </row>
     <row r="78" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A78" s="175"/>
-      <c r="B78" s="175"/>
-      <c r="C78" s="175"/>
-      <c r="D78" s="214"/>
-      <c r="E78" s="187"/>
-      <c r="F78" s="191"/>
-      <c r="G78" s="188"/>
-      <c r="H78" s="187"/>
-      <c r="I78" s="188"/>
-      <c r="J78" s="187"/>
-      <c r="K78" s="188"/>
-      <c r="L78" s="187"/>
-      <c r="M78" s="188"/>
-      <c r="N78" s="187"/>
-      <c r="O78" s="188"/>
-      <c r="P78" s="170"/>
-      <c r="Q78" s="170"/>
-      <c r="R78" s="170"/>
+      <c r="A78" s="205"/>
+      <c r="B78" s="205"/>
+      <c r="C78" s="205"/>
+      <c r="D78" s="244"/>
+      <c r="E78" s="217"/>
+      <c r="F78" s="221"/>
+      <c r="G78" s="218"/>
+      <c r="H78" s="217"/>
+      <c r="I78" s="218"/>
+      <c r="J78" s="217"/>
+      <c r="K78" s="218"/>
+      <c r="L78" s="217"/>
+      <c r="M78" s="218"/>
+      <c r="N78" s="217"/>
+      <c r="O78" s="218"/>
+      <c r="P78" s="200"/>
+      <c r="Q78" s="200"/>
+      <c r="R78" s="200"/>
       <c r="S78" s="24"/>
       <c r="T78" s="54"/>
       <c r="U78" s="54"/>
@@ -5614,46 +5602,46 @@
       <c r="AD78" s="54"/>
     </row>
     <row r="79" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A79" s="175"/>
-      <c r="B79" s="175"/>
-      <c r="C79" s="175"/>
-      <c r="D79" s="214"/>
-      <c r="E79" s="172" t="s">
+      <c r="A79" s="205"/>
+      <c r="B79" s="205"/>
+      <c r="C79" s="205"/>
+      <c r="D79" s="244"/>
+      <c r="E79" s="202" t="s">
         <v>127</v>
       </c>
-      <c r="F79" s="172" t="s">
+      <c r="F79" s="202" t="s">
         <v>128</v>
       </c>
-      <c r="G79" s="172" t="s">
+      <c r="G79" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="H79" s="172" t="s">
+      <c r="H79" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="I79" s="172" t="s">
+      <c r="I79" s="202" t="s">
         <v>131</v>
       </c>
-      <c r="J79" s="172" t="s">
+      <c r="J79" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="K79" s="172" t="s">
+      <c r="K79" s="202" t="s">
         <v>131</v>
       </c>
-      <c r="L79" s="172" t="s">
+      <c r="L79" s="202" t="s">
         <v>127</v>
       </c>
-      <c r="M79" s="172" t="s">
+      <c r="M79" s="202" t="s">
         <v>129</v>
       </c>
-      <c r="N79" s="172" t="s">
+      <c r="N79" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="O79" s="172" t="s">
+      <c r="O79" s="202" t="s">
         <v>131</v>
       </c>
-      <c r="P79" s="170"/>
-      <c r="Q79" s="170"/>
-      <c r="R79" s="170"/>
+      <c r="P79" s="200"/>
+      <c r="Q79" s="200"/>
+      <c r="R79" s="200"/>
       <c r="S79" s="24"/>
       <c r="T79" s="54"/>
       <c r="U79" s="54"/>
@@ -5668,24 +5656,24 @@
       <c r="AD79" s="54"/>
     </row>
     <row r="80" spans="1:30" ht="29.25" customHeight="1">
-      <c r="A80" s="176"/>
-      <c r="B80" s="176"/>
-      <c r="C80" s="176"/>
-      <c r="D80" s="215"/>
-      <c r="E80" s="173"/>
-      <c r="F80" s="173"/>
-      <c r="G80" s="173"/>
-      <c r="H80" s="173"/>
-      <c r="I80" s="173"/>
-      <c r="J80" s="173"/>
-      <c r="K80" s="173"/>
-      <c r="L80" s="173"/>
-      <c r="M80" s="173"/>
-      <c r="N80" s="173"/>
-      <c r="O80" s="173"/>
-      <c r="P80" s="171"/>
-      <c r="Q80" s="171"/>
-      <c r="R80" s="171"/>
+      <c r="A80" s="206"/>
+      <c r="B80" s="206"/>
+      <c r="C80" s="206"/>
+      <c r="D80" s="245"/>
+      <c r="E80" s="203"/>
+      <c r="F80" s="203"/>
+      <c r="G80" s="203"/>
+      <c r="H80" s="203"/>
+      <c r="I80" s="203"/>
+      <c r="J80" s="203"/>
+      <c r="K80" s="203"/>
+      <c r="L80" s="203"/>
+      <c r="M80" s="203"/>
+      <c r="N80" s="203"/>
+      <c r="O80" s="203"/>
+      <c r="P80" s="201"/>
+      <c r="Q80" s="201"/>
+      <c r="R80" s="201"/>
       <c r="S80" s="59"/>
       <c r="T80" s="54"/>
       <c r="U80" s="54"/>
@@ -5706,22 +5694,22 @@
       <c r="B81" s="132" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="209"/>
-      <c r="D81" s="210"/>
-      <c r="E81" s="210"/>
-      <c r="F81" s="210"/>
-      <c r="G81" s="210"/>
-      <c r="H81" s="210"/>
-      <c r="I81" s="210"/>
-      <c r="J81" s="210"/>
-      <c r="K81" s="210"/>
-      <c r="L81" s="210"/>
-      <c r="M81" s="210"/>
-      <c r="N81" s="210"/>
-      <c r="O81" s="210"/>
-      <c r="P81" s="210"/>
-      <c r="Q81" s="210"/>
-      <c r="R81" s="211"/>
+      <c r="C81" s="239"/>
+      <c r="D81" s="240"/>
+      <c r="E81" s="240"/>
+      <c r="F81" s="240"/>
+      <c r="G81" s="240"/>
+      <c r="H81" s="240"/>
+      <c r="I81" s="240"/>
+      <c r="J81" s="240"/>
+      <c r="K81" s="240"/>
+      <c r="L81" s="240"/>
+      <c r="M81" s="240"/>
+      <c r="N81" s="240"/>
+      <c r="O81" s="240"/>
+      <c r="P81" s="240"/>
+      <c r="Q81" s="240"/>
+      <c r="R81" s="241"/>
       <c r="S81" s="60"/>
       <c r="T81" s="54"/>
       <c r="U81" s="54"/>
@@ -5870,22 +5858,22 @@
       <c r="B86" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="C86" s="209"/>
-      <c r="D86" s="210"/>
-      <c r="E86" s="210"/>
-      <c r="F86" s="210"/>
-      <c r="G86" s="210"/>
-      <c r="H86" s="210"/>
-      <c r="I86" s="210"/>
-      <c r="J86" s="210"/>
-      <c r="K86" s="210"/>
-      <c r="L86" s="210"/>
-      <c r="M86" s="210"/>
-      <c r="N86" s="210"/>
-      <c r="O86" s="210"/>
-      <c r="P86" s="210"/>
-      <c r="Q86" s="210"/>
-      <c r="R86" s="211"/>
+      <c r="C86" s="239"/>
+      <c r="D86" s="240"/>
+      <c r="E86" s="240"/>
+      <c r="F86" s="240"/>
+      <c r="G86" s="240"/>
+      <c r="H86" s="240"/>
+      <c r="I86" s="240"/>
+      <c r="J86" s="240"/>
+      <c r="K86" s="240"/>
+      <c r="L86" s="240"/>
+      <c r="M86" s="240"/>
+      <c r="N86" s="240"/>
+      <c r="O86" s="240"/>
+      <c r="P86" s="240"/>
+      <c r="Q86" s="240"/>
+      <c r="R86" s="241"/>
       <c r="S86" s="62"/>
       <c r="T86" s="54"/>
       <c r="U86" s="54"/>
@@ -6059,13 +6047,13 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="155"/>
-      <c r="K92" s="155"/>
-      <c r="L92" s="155"/>
-      <c r="M92" s="155"/>
-      <c r="N92" s="155"/>
-      <c r="O92" s="155"/>
-      <c r="P92" s="155"/>
+      <c r="J92" s="185"/>
+      <c r="K92" s="185"/>
+      <c r="L92" s="185"/>
+      <c r="M92" s="185"/>
+      <c r="N92" s="185"/>
+      <c r="O92" s="185"/>
+      <c r="P92" s="185"/>
       <c r="Q92" s="48"/>
       <c r="R92" s="48"/>
       <c r="S92" s="62"/>
@@ -6079,28 +6067,28 @@
       <c r="AA92" s="24"/>
     </row>
     <row r="93" spans="1:30" ht="24.75" customHeight="1">
-      <c r="A93" s="156" t="s">
+      <c r="A93" s="186" t="s">
         <v>137</v>
       </c>
-      <c r="B93" s="156"/>
-      <c r="C93" s="157" t="s">
+      <c r="B93" s="186"/>
+      <c r="C93" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="D93" s="157"/>
-      <c r="E93" s="157"/>
-      <c r="F93" s="157"/>
-      <c r="G93" s="158" t="s">
+      <c r="D93" s="187"/>
+      <c r="E93" s="187"/>
+      <c r="F93" s="187"/>
+      <c r="G93" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="H93" s="158"/>
-      <c r="I93" s="158"/>
-      <c r="J93" s="158"/>
-      <c r="K93" s="158"/>
-      <c r="L93" s="158"/>
-      <c r="M93" s="158"/>
-      <c r="N93" s="158"/>
-      <c r="O93" s="158"/>
-      <c r="P93" s="158"/>
+      <c r="H93" s="188"/>
+      <c r="I93" s="188"/>
+      <c r="J93" s="188"/>
+      <c r="K93" s="188"/>
+      <c r="L93" s="188"/>
+      <c r="M93" s="188"/>
+      <c r="N93" s="188"/>
+      <c r="O93" s="188"/>
+      <c r="P93" s="188"/>
       <c r="Q93" s="71"/>
       <c r="R93" s="71"/>
       <c r="S93" s="62"/>
@@ -6123,13 +6111,13 @@
       <c r="G94" s="50"/>
       <c r="H94" s="50"/>
       <c r="I94" s="50"/>
-      <c r="J94" s="158"/>
-      <c r="K94" s="158"/>
-      <c r="L94" s="158"/>
-      <c r="M94" s="158"/>
-      <c r="N94" s="158"/>
-      <c r="O94" s="158"/>
-      <c r="P94" s="158"/>
+      <c r="J94" s="188"/>
+      <c r="K94" s="188"/>
+      <c r="L94" s="188"/>
+      <c r="M94" s="188"/>
+      <c r="N94" s="188"/>
+      <c r="O94" s="188"/>
+      <c r="P94" s="188"/>
       <c r="Q94" s="71"/>
       <c r="R94" s="71"/>
       <c r="S94" s="25"/>
@@ -6268,16 +6256,16 @@
       <c r="G99" s="53"/>
       <c r="H99" s="53"/>
       <c r="I99" s="53"/>
-      <c r="J99" s="212" t="str">
+      <c r="J99" s="242" t="str">
         <f>J54</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K99" s="212"/>
-      <c r="L99" s="212"/>
-      <c r="M99" s="212"/>
-      <c r="N99" s="212"/>
-      <c r="O99" s="212"/>
-      <c r="P99" s="212"/>
+      <c r="K99" s="242"/>
+      <c r="L99" s="242"/>
+      <c r="M99" s="242"/>
+      <c r="N99" s="242"/>
+      <c r="O99" s="242"/>
+      <c r="P99" s="242"/>
       <c r="Q99" s="53"/>
       <c r="R99" s="53"/>
       <c r="S99" s="25"/>
@@ -6494,26 +6482,26 @@
       <c r="AA106" s="25"/>
     </row>
     <row r="107" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A107" s="203" t="s">
+      <c r="A107" s="233" t="s">
         <v>115</v>
       </c>
-      <c r="B107" s="203"/>
-      <c r="C107" s="203"/>
-      <c r="D107" s="203"/>
+      <c r="B107" s="233"/>
+      <c r="C107" s="233"/>
+      <c r="D107" s="233"/>
       <c r="E107" s="27"/>
       <c r="F107" s="28"/>
       <c r="G107" s="28"/>
       <c r="H107" s="28"/>
       <c r="I107" s="27"/>
-      <c r="J107" s="204" t="s">
+      <c r="J107" s="234" t="s">
         <v>116</v>
       </c>
-      <c r="K107" s="204"/>
-      <c r="L107" s="204"/>
-      <c r="M107" s="204"/>
-      <c r="N107" s="204"/>
-      <c r="O107" s="204"/>
-      <c r="P107" s="204"/>
+      <c r="K107" s="234"/>
+      <c r="L107" s="234"/>
+      <c r="M107" s="234"/>
+      <c r="N107" s="234"/>
+      <c r="O107" s="234"/>
+      <c r="P107" s="234"/>
       <c r="Q107" s="27"/>
       <c r="R107" s="27"/>
       <c r="S107" s="25"/>
@@ -6527,38 +6515,38 @@
       <c r="AA107" s="25"/>
     </row>
     <row r="108" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A108" s="205" t="s">
+      <c r="A108" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="B108" s="205"/>
-      <c r="C108" s="205"/>
-      <c r="D108" s="205"/>
+      <c r="B108" s="235"/>
+      <c r="C108" s="235"/>
+      <c r="D108" s="235"/>
       <c r="E108" s="27"/>
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
       <c r="H108" s="30"/>
       <c r="I108" s="27"/>
-      <c r="J108" s="206" t="s">
+      <c r="J108" s="236" t="s">
         <v>118</v>
       </c>
-      <c r="K108" s="206"/>
-      <c r="L108" s="206"/>
-      <c r="M108" s="206"/>
-      <c r="N108" s="206"/>
-      <c r="O108" s="206"/>
-      <c r="P108" s="206"/>
+      <c r="K108" s="236"/>
+      <c r="L108" s="236"/>
+      <c r="M108" s="236"/>
+      <c r="N108" s="236"/>
+      <c r="O108" s="236"/>
+      <c r="P108" s="236"/>
       <c r="Q108" s="28"/>
       <c r="R108" s="28"/>
       <c r="S108" s="25"/>
-      <c r="T108" s="212" t="s">
+      <c r="T108" s="242" t="s">
         <v>140</v>
       </c>
-      <c r="U108" s="212"/>
-      <c r="V108" s="212"/>
-      <c r="W108" s="212"/>
-      <c r="X108" s="212"/>
-      <c r="Y108" s="212"/>
-      <c r="Z108" s="212"/>
+      <c r="U108" s="242"/>
+      <c r="V108" s="242"/>
+      <c r="W108" s="242"/>
+      <c r="X108" s="242"/>
+      <c r="Y108" s="242"/>
+      <c r="Z108" s="242"/>
       <c r="AA108" s="53"/>
     </row>
     <row r="109" spans="1:27" ht="24.75" customHeight="1">
@@ -6591,24 +6579,24 @@
       <c r="AA109" s="54"/>
     </row>
     <row r="110" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A110" s="207" t="s">
+      <c r="A110" s="237" t="s">
         <v>163</v>
       </c>
-      <c r="B110" s="207"/>
-      <c r="C110" s="207"/>
-      <c r="D110" s="207"/>
-      <c r="E110" s="207"/>
-      <c r="F110" s="207"/>
-      <c r="G110" s="207"/>
-      <c r="H110" s="207"/>
-      <c r="I110" s="207"/>
-      <c r="J110" s="207"/>
-      <c r="K110" s="207"/>
-      <c r="L110" s="207"/>
-      <c r="M110" s="207"/>
-      <c r="N110" s="207"/>
-      <c r="O110" s="207"/>
-      <c r="P110" s="207"/>
+      <c r="B110" s="237"/>
+      <c r="C110" s="237"/>
+      <c r="D110" s="237"/>
+      <c r="E110" s="237"/>
+      <c r="F110" s="237"/>
+      <c r="G110" s="237"/>
+      <c r="H110" s="237"/>
+      <c r="I110" s="237"/>
+      <c r="J110" s="237"/>
+      <c r="K110" s="237"/>
+      <c r="L110" s="237"/>
+      <c r="M110" s="237"/>
+      <c r="N110" s="237"/>
+      <c r="O110" s="237"/>
+      <c r="P110" s="237"/>
       <c r="Q110" s="34"/>
       <c r="R110" s="34"/>
       <c r="S110" s="27"/>
@@ -6622,25 +6610,25 @@
       <c r="AA110" s="54"/>
     </row>
     <row r="111" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A111" s="208">
+      <c r="A111" s="238">
         <f>A37</f>
         <v>0</v>
       </c>
-      <c r="B111" s="208"/>
-      <c r="C111" s="208"/>
-      <c r="D111" s="208"/>
-      <c r="E111" s="208"/>
-      <c r="F111" s="208"/>
-      <c r="G111" s="208"/>
-      <c r="H111" s="208"/>
-      <c r="I111" s="208"/>
-      <c r="J111" s="208"/>
-      <c r="K111" s="208"/>
-      <c r="L111" s="208"/>
-      <c r="M111" s="208"/>
-      <c r="N111" s="208"/>
-      <c r="O111" s="208"/>
-      <c r="P111" s="208"/>
+      <c r="B111" s="238"/>
+      <c r="C111" s="238"/>
+      <c r="D111" s="238"/>
+      <c r="E111" s="238"/>
+      <c r="F111" s="238"/>
+      <c r="G111" s="238"/>
+      <c r="H111" s="238"/>
+      <c r="I111" s="238"/>
+      <c r="J111" s="238"/>
+      <c r="K111" s="238"/>
+      <c r="L111" s="238"/>
+      <c r="M111" s="238"/>
+      <c r="N111" s="238"/>
+      <c r="O111" s="238"/>
+      <c r="P111" s="238"/>
       <c r="Q111" s="37"/>
       <c r="R111" s="37"/>
       <c r="S111" s="28"/>
@@ -6683,34 +6671,34 @@
       <c r="AA112" s="54"/>
     </row>
     <row r="113" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A113" s="174" t="s">
+      <c r="A113" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="B113" s="177" t="s">
+      <c r="B113" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="C113" s="178"/>
-      <c r="D113" s="183" t="s">
+      <c r="C113" s="208"/>
+      <c r="D113" s="213" t="s">
         <v>121</v>
       </c>
-      <c r="E113" s="184"/>
-      <c r="F113" s="183" t="s">
+      <c r="E113" s="214"/>
+      <c r="F113" s="213" t="s">
         <v>122</v>
       </c>
-      <c r="G113" s="189"/>
-      <c r="H113" s="184"/>
-      <c r="I113" s="183" t="s">
+      <c r="G113" s="219"/>
+      <c r="H113" s="214"/>
+      <c r="I113" s="213" t="s">
         <v>164</v>
       </c>
-      <c r="J113" s="189"/>
-      <c r="K113" s="189"/>
-      <c r="L113" s="184"/>
-      <c r="M113" s="192" t="s">
+      <c r="J113" s="219"/>
+      <c r="K113" s="219"/>
+      <c r="L113" s="214"/>
+      <c r="M113" s="222" t="s">
         <v>165</v>
       </c>
-      <c r="N113" s="193"/>
-      <c r="O113" s="193"/>
-      <c r="P113" s="194"/>
+      <c r="N113" s="223"/>
+      <c r="O113" s="223"/>
+      <c r="P113" s="224"/>
       <c r="Q113" s="74"/>
       <c r="R113" s="74"/>
       <c r="S113" s="34"/>
@@ -6724,22 +6712,22 @@
       <c r="AA113" s="54"/>
     </row>
     <row r="114" spans="1:27" ht="12" customHeight="1">
-      <c r="A114" s="175"/>
-      <c r="B114" s="179"/>
-      <c r="C114" s="180"/>
-      <c r="D114" s="185"/>
-      <c r="E114" s="186"/>
-      <c r="F114" s="185"/>
-      <c r="G114" s="190"/>
-      <c r="H114" s="186"/>
-      <c r="I114" s="187"/>
-      <c r="J114" s="191"/>
-      <c r="K114" s="191"/>
-      <c r="L114" s="188"/>
-      <c r="M114" s="195"/>
-      <c r="N114" s="196"/>
-      <c r="O114" s="196"/>
-      <c r="P114" s="197"/>
+      <c r="A114" s="205"/>
+      <c r="B114" s="209"/>
+      <c r="C114" s="210"/>
+      <c r="D114" s="215"/>
+      <c r="E114" s="216"/>
+      <c r="F114" s="215"/>
+      <c r="G114" s="220"/>
+      <c r="H114" s="216"/>
+      <c r="I114" s="217"/>
+      <c r="J114" s="221"/>
+      <c r="K114" s="221"/>
+      <c r="L114" s="218"/>
+      <c r="M114" s="225"/>
+      <c r="N114" s="226"/>
+      <c r="O114" s="226"/>
+      <c r="P114" s="227"/>
       <c r="Q114" s="74"/>
       <c r="R114" s="74"/>
       <c r="S114" s="37"/>
@@ -6753,26 +6741,26 @@
       <c r="AA114" s="54"/>
     </row>
     <row r="115" spans="1:27" ht="42.75" customHeight="1">
-      <c r="A115" s="176"/>
-      <c r="B115" s="181"/>
-      <c r="C115" s="182"/>
-      <c r="D115" s="187"/>
-      <c r="E115" s="188"/>
-      <c r="F115" s="187"/>
-      <c r="G115" s="191"/>
-      <c r="H115" s="188"/>
-      <c r="I115" s="201" t="s">
+      <c r="A115" s="206"/>
+      <c r="B115" s="211"/>
+      <c r="C115" s="212"/>
+      <c r="D115" s="217"/>
+      <c r="E115" s="218"/>
+      <c r="F115" s="217"/>
+      <c r="G115" s="221"/>
+      <c r="H115" s="218"/>
+      <c r="I115" s="231" t="s">
         <v>166</v>
       </c>
-      <c r="J115" s="202"/>
-      <c r="K115" s="201" t="s">
+      <c r="J115" s="232"/>
+      <c r="K115" s="231" t="s">
         <v>167</v>
       </c>
-      <c r="L115" s="202"/>
-      <c r="M115" s="198"/>
-      <c r="N115" s="199"/>
-      <c r="O115" s="199"/>
-      <c r="P115" s="200"/>
+      <c r="L115" s="232"/>
+      <c r="M115" s="228"/>
+      <c r="N115" s="229"/>
+      <c r="O115" s="229"/>
+      <c r="P115" s="230"/>
       <c r="Q115" s="74"/>
       <c r="R115" s="74"/>
       <c r="S115" s="25"/>
@@ -6789,21 +6777,21 @@
       <c r="A116" s="43">
         <v>1</v>
       </c>
-      <c r="B116" s="159"/>
-      <c r="C116" s="160"/>
-      <c r="D116" s="161"/>
-      <c r="E116" s="162"/>
-      <c r="F116" s="163"/>
-      <c r="G116" s="164"/>
-      <c r="H116" s="165"/>
-      <c r="I116" s="166"/>
-      <c r="J116" s="167"/>
-      <c r="K116" s="166"/>
-      <c r="L116" s="167"/>
-      <c r="M116" s="166"/>
-      <c r="N116" s="168"/>
-      <c r="O116" s="168"/>
-      <c r="P116" s="167"/>
+      <c r="B116" s="189"/>
+      <c r="C116" s="190"/>
+      <c r="D116" s="191"/>
+      <c r="E116" s="192"/>
+      <c r="F116" s="193"/>
+      <c r="G116" s="194"/>
+      <c r="H116" s="195"/>
+      <c r="I116" s="196"/>
+      <c r="J116" s="197"/>
+      <c r="K116" s="196"/>
+      <c r="L116" s="197"/>
+      <c r="M116" s="196"/>
+      <c r="N116" s="198"/>
+      <c r="O116" s="198"/>
+      <c r="P116" s="197"/>
       <c r="Q116" s="76"/>
       <c r="R116" s="76"/>
       <c r="S116" s="74"/>
@@ -6820,21 +6808,21 @@
       <c r="A117" s="43">
         <v>2</v>
       </c>
-      <c r="B117" s="159"/>
-      <c r="C117" s="160"/>
-      <c r="D117" s="161"/>
-      <c r="E117" s="162"/>
-      <c r="F117" s="163"/>
-      <c r="G117" s="164"/>
-      <c r="H117" s="165"/>
-      <c r="I117" s="166"/>
-      <c r="J117" s="167"/>
-      <c r="K117" s="166"/>
-      <c r="L117" s="167"/>
-      <c r="M117" s="166"/>
-      <c r="N117" s="168"/>
-      <c r="O117" s="168"/>
-      <c r="P117" s="167"/>
+      <c r="B117" s="189"/>
+      <c r="C117" s="190"/>
+      <c r="D117" s="191"/>
+      <c r="E117" s="192"/>
+      <c r="F117" s="193"/>
+      <c r="G117" s="194"/>
+      <c r="H117" s="195"/>
+      <c r="I117" s="196"/>
+      <c r="J117" s="197"/>
+      <c r="K117" s="196"/>
+      <c r="L117" s="197"/>
+      <c r="M117" s="196"/>
+      <c r="N117" s="198"/>
+      <c r="O117" s="198"/>
+      <c r="P117" s="197"/>
       <c r="Q117" s="76"/>
       <c r="R117" s="76"/>
       <c r="S117" s="75"/>
@@ -6851,21 +6839,21 @@
       <c r="A118" s="43">
         <v>3</v>
       </c>
-      <c r="B118" s="159"/>
-      <c r="C118" s="160"/>
-      <c r="D118" s="161"/>
-      <c r="E118" s="162"/>
-      <c r="F118" s="163"/>
-      <c r="G118" s="164"/>
-      <c r="H118" s="165"/>
-      <c r="I118" s="166"/>
-      <c r="J118" s="167"/>
-      <c r="K118" s="166"/>
-      <c r="L118" s="167"/>
-      <c r="M118" s="166"/>
-      <c r="N118" s="168"/>
-      <c r="O118" s="168"/>
-      <c r="P118" s="167"/>
+      <c r="B118" s="189"/>
+      <c r="C118" s="190"/>
+      <c r="D118" s="191"/>
+      <c r="E118" s="192"/>
+      <c r="F118" s="193"/>
+      <c r="G118" s="194"/>
+      <c r="H118" s="195"/>
+      <c r="I118" s="196"/>
+      <c r="J118" s="197"/>
+      <c r="K118" s="196"/>
+      <c r="L118" s="197"/>
+      <c r="M118" s="196"/>
+      <c r="N118" s="198"/>
+      <c r="O118" s="198"/>
+      <c r="P118" s="197"/>
       <c r="Q118" s="76"/>
       <c r="R118" s="76"/>
       <c r="S118" s="76"/>
@@ -6882,21 +6870,21 @@
       <c r="A119" s="43">
         <v>4</v>
       </c>
-      <c r="B119" s="159"/>
-      <c r="C119" s="160"/>
-      <c r="D119" s="161"/>
-      <c r="E119" s="162"/>
-      <c r="F119" s="163"/>
-      <c r="G119" s="164"/>
-      <c r="H119" s="165"/>
-      <c r="I119" s="166"/>
-      <c r="J119" s="167"/>
-      <c r="K119" s="166"/>
-      <c r="L119" s="167"/>
-      <c r="M119" s="166"/>
-      <c r="N119" s="168"/>
-      <c r="O119" s="168"/>
-      <c r="P119" s="167"/>
+      <c r="B119" s="189"/>
+      <c r="C119" s="190"/>
+      <c r="D119" s="191"/>
+      <c r="E119" s="192"/>
+      <c r="F119" s="193"/>
+      <c r="G119" s="194"/>
+      <c r="H119" s="195"/>
+      <c r="I119" s="196"/>
+      <c r="J119" s="197"/>
+      <c r="K119" s="196"/>
+      <c r="L119" s="197"/>
+      <c r="M119" s="196"/>
+      <c r="N119" s="198"/>
+      <c r="O119" s="198"/>
+      <c r="P119" s="197"/>
       <c r="Q119" s="76"/>
       <c r="R119" s="76"/>
       <c r="S119" s="76"/>
@@ -7010,13 +6998,13 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="155"/>
-      <c r="K123" s="155"/>
-      <c r="L123" s="155"/>
-      <c r="M123" s="155"/>
-      <c r="N123" s="155"/>
-      <c r="O123" s="155"/>
-      <c r="P123" s="155"/>
+      <c r="J123" s="185"/>
+      <c r="K123" s="185"/>
+      <c r="L123" s="185"/>
+      <c r="M123" s="185"/>
+      <c r="N123" s="185"/>
+      <c r="O123" s="185"/>
+      <c r="P123" s="185"/>
       <c r="Q123" s="48"/>
       <c r="R123" s="48"/>
       <c r="S123" s="25"/>
@@ -7030,28 +7018,28 @@
       <c r="AA123" s="24"/>
     </row>
     <row r="124" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A124" s="156" t="s">
+      <c r="A124" s="186" t="s">
         <v>137</v>
       </c>
-      <c r="B124" s="156"/>
-      <c r="C124" s="157" t="s">
+      <c r="B124" s="186"/>
+      <c r="C124" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="D124" s="157"/>
-      <c r="E124" s="157"/>
-      <c r="F124" s="157"/>
-      <c r="G124" s="158" t="s">
+      <c r="D124" s="187"/>
+      <c r="E124" s="187"/>
+      <c r="F124" s="187"/>
+      <c r="G124" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="H124" s="158"/>
-      <c r="I124" s="158"/>
-      <c r="J124" s="158"/>
-      <c r="K124" s="158"/>
-      <c r="L124" s="158"/>
-      <c r="M124" s="158"/>
-      <c r="N124" s="158"/>
-      <c r="O124" s="158"/>
-      <c r="P124" s="158"/>
+      <c r="H124" s="188"/>
+      <c r="I124" s="188"/>
+      <c r="J124" s="188"/>
+      <c r="K124" s="188"/>
+      <c r="L124" s="188"/>
+      <c r="M124" s="188"/>
+      <c r="N124" s="188"/>
+      <c r="O124" s="188"/>
+      <c r="P124" s="188"/>
       <c r="Q124" s="50"/>
       <c r="R124" s="50"/>
       <c r="S124" s="81"/>
@@ -7074,13 +7062,13 @@
       <c r="G125" s="50"/>
       <c r="H125" s="50"/>
       <c r="I125" s="50"/>
-      <c r="J125" s="158"/>
-      <c r="K125" s="158"/>
-      <c r="L125" s="158"/>
-      <c r="M125" s="158"/>
-      <c r="N125" s="158"/>
-      <c r="O125" s="158"/>
-      <c r="P125" s="158"/>
+      <c r="J125" s="188"/>
+      <c r="K125" s="188"/>
+      <c r="L125" s="188"/>
+      <c r="M125" s="188"/>
+      <c r="N125" s="188"/>
+      <c r="O125" s="188"/>
+      <c r="P125" s="188"/>
       <c r="Q125" s="50"/>
       <c r="R125" s="50"/>
       <c r="S125" s="81"/>
@@ -7283,76 +7271,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="343"/>
-    <col min="2" max="2" width="39" style="344" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="345" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="345" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="345" customWidth="1"/>
-    <col min="6" max="6" width="16" style="345" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="343" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="343"/>
+    <col min="1" max="1" width="9.28515625" style="172"/>
+    <col min="2" max="2" width="39" style="173" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="174" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" style="174" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="174" customWidth="1"/>
+    <col min="6" max="6" width="16" style="174" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="172" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="172"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="341" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="313" t="s">
+      <c r="A2" s="350" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="313"/>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="309"/>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
+      <c r="A3" s="343"/>
+      <c r="B3" s="343"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="343"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="310" t="s">
+      <c r="A4" s="347" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
+      <c r="B4" s="347"/>
+      <c r="C4" s="347"/>
+      <c r="D4" s="347"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="347"/>
+      <c r="G4" s="347"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="311" t="s">
+      <c r="A5" s="348" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="311" t="s">
+      <c r="B5" s="348" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="312" t="s">
+      <c r="C5" s="349" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="311"/>
-      <c r="B6" s="311"/>
+      <c r="A6" s="348"/>
+      <c r="B6" s="348"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -7370,8 +7358,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="311"/>
-      <c r="B7" s="311"/>
+      <c r="A7" s="348"/>
+      <c r="B7" s="348"/>
       <c r="C7" s="99" t="s">
         <v>40</v>
       </c>
@@ -7415,84 +7403,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="343" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" style="344" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="345" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="345" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" style="345" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="345" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="343" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.140625" style="343"/>
+    <col min="1" max="1" width="6.7109375" style="172" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" style="173" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="174" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="174" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="174" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="174" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="172" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.140625" style="172"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="126"/>
-      <c r="C1" s="307" t="s">
+      <c r="C1" s="341" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="127"/>
-      <c r="C2" s="313" t="s">
+      <c r="C2" s="350" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
+      <c r="D2" s="350"/>
+      <c r="E2" s="350"/>
+      <c r="F2" s="350"/>
+      <c r="G2" s="350"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="127"/>
-      <c r="C3" s="313" t="s">
+      <c r="C3" s="350" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
+      <c r="D3" s="350"/>
+      <c r="E3" s="350"/>
+      <c r="F3" s="350"/>
+      <c r="G3" s="350"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="121"/>
       <c r="B4" s="128"/>
-      <c r="C4" s="309"/>
-      <c r="D4" s="309"/>
-      <c r="E4" s="309"/>
-      <c r="F4" s="309"/>
-      <c r="G4" s="309"/>
+      <c r="C4" s="343"/>
+      <c r="D4" s="343"/>
+      <c r="E4" s="343"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="343"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="129"/>
-      <c r="C5" s="310" t="s">
+      <c r="C5" s="347" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
-      <c r="G5" s="310"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="311" t="s">
+      <c r="A6" s="348" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="311" t="s">
+      <c r="B6" s="348" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="312" t="s">
+      <c r="C6" s="349" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="312"/>
-      <c r="H6" s="352"/>
+      <c r="D6" s="349"/>
+      <c r="E6" s="349"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="349"/>
+      <c r="H6" s="181"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="311"/>
-      <c r="B7" s="311"/>
+      <c r="A7" s="348"/>
+      <c r="B7" s="348"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -7510,8 +7498,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="311"/>
-      <c r="B8" s="311"/>
+      <c r="A8" s="348"/>
+      <c r="B8" s="348"/>
       <c r="C8" s="130" t="s">
         <v>40</v>
       </c>
@@ -7545,21 +7533,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520B7366-B8E3-4E0A-8551-32D5C6538177}">
-  <dimension ref="A2:T2"/>
+  <dimension ref="A2:U2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="56.85546875" style="117" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" style="117" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="118" customWidth="1"/>
+    <col min="3" max="3" width="27" style="117" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="118" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="118"/>
     <col min="6" max="6" width="10.5703125" style="118" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="118" customWidth="1"/>
@@ -7569,16 +7557,18 @@
     <col min="11" max="11" width="11.28515625" style="118" customWidth="1"/>
     <col min="12" max="12" width="15.5703125" style="117" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" style="118" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="117" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="117" customWidth="1"/>
     <col min="15" max="15" width="9.28515625" style="117"/>
-    <col min="16" max="16" width="17.140625" style="118" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" style="118" customWidth="1"/>
     <col min="17" max="17" width="15.5703125" style="118" customWidth="1"/>
     <col min="18" max="18" width="16.7109375" style="118" customWidth="1"/>
     <col min="19" max="19" width="12.28515625" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9.28515625" style="4"/>
+    <col min="20" max="20" width="19.42578125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="30" customHeight="1">
+    <row r="2" spans="1:21" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7620,15 +7610,16 @@
       <c r="O2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="182"/>
+      <c r="Q2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="3"/>
       <c r="T2" s="3"/>
+      <c r="U2" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7708,10 +7699,10 @@
         <v>96</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="297" t="s">
+      <c r="N2" s="331" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="297"/>
+      <c r="O2" s="331"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>97</v>
@@ -7733,13 +7724,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B781F7-9248-4E3E-949E-2748ABA6A834}">
-  <dimension ref="A3:T3"/>
+  <dimension ref="A3:U3"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7747,25 +7738,26 @@
     <col min="1" max="1" width="5.28515625" style="4" customWidth="1"/>
     <col min="2" max="2" width="37.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="118" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="118" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="118" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="117" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="118" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="118" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="117"/>
-    <col min="13" max="13" width="8.28515625" style="118" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="117" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="117" customWidth="1"/>
-    <col min="16" max="16" width="22.42578125" style="118" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="118" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="118" customWidth="1"/>
-    <col min="19" max="16384" width="9.28515625" style="4"/>
+    <col min="4" max="4" width="11.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="118" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" style="118" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="118" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="117" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="118" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="118" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="117"/>
+    <col min="14" max="14" width="8.28515625" style="118" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="117" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="117" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="118" customWidth="1"/>
+    <col min="18" max="18" width="10.5703125" style="118" customWidth="1"/>
+    <col min="19" max="19" width="21.7109375" style="118" customWidth="1"/>
+    <col min="20" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" ht="30" customHeight="1">
+    <row r="3" spans="1:21" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -7775,41 +7767,42 @@
       <c r="C3" s="107" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="351"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="S3" s="98"/>
       <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7907,13 +7900,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C490802F-3B1F-4B4F-9CF0-122A8585FB71}">
-  <dimension ref="A2:S2"/>
+  <dimension ref="A2:T2"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7921,26 +7914,26 @@
     <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="62.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="54.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="118" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="118"/>
-    <col min="8" max="8" width="9.28515625" style="117"/>
-    <col min="9" max="9" width="15.7109375" style="117" customWidth="1"/>
-    <col min="10" max="10" width="29.28515625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="117"/>
-    <col min="12" max="12" width="9.28515625" style="118"/>
-    <col min="13" max="13" width="9.28515625" style="4"/>
-    <col min="14" max="14" width="8" style="4" customWidth="1"/>
-    <col min="15" max="15" width="26.5703125" style="118" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="118" customWidth="1"/>
-    <col min="17" max="17" width="25.7109375" style="118" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="9.28515625" style="4"/>
+    <col min="4" max="5" width="15.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" style="118" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="118"/>
+    <col min="9" max="9" width="9.28515625" style="117"/>
+    <col min="10" max="10" width="15.7109375" style="117" customWidth="1"/>
+    <col min="11" max="11" width="29.28515625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="117"/>
+    <col min="13" max="13" width="9.28515625" style="118"/>
+    <col min="14" max="14" width="9.28515625" style="4"/>
+    <col min="15" max="15" width="8" style="4" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" style="118" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" style="118" customWidth="1"/>
+    <col min="18" max="18" width="25.7109375" style="118" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9.28515625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="30" customHeight="1">
+    <row r="2" spans="1:20" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -7953,39 +7946,40 @@
       <c r="D2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="N2" s="105"/>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="105"/>
+      <c r="P2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="R2" s="98"/>
-      <c r="S2" s="3"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38085,36 +38079,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="109" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="297" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
     </row>
     <row r="2" spans="1:32" s="109" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="268"/>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="268"/>
-      <c r="M2" s="268"/>
+      <c r="A2" s="298"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -38122,192 +38116,192 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="269" t="s">
+      <c r="A4" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="269" t="s">
+      <c r="C4" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="269" t="s">
+      <c r="D4" s="299" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="269"/>
-      <c r="F4" s="269"/>
-      <c r="G4" s="269"/>
-      <c r="H4" s="269" t="s">
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="269"/>
-      <c r="J4" s="269"/>
-      <c r="K4" s="269" t="s">
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="269"/>
-      <c r="M4" s="269" t="s">
+      <c r="L4" s="299"/>
+      <c r="M4" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="269"/>
-      <c r="O4" s="269"/>
-      <c r="P4" s="269"/>
-      <c r="Q4" s="269"/>
-      <c r="R4" s="269"/>
-      <c r="S4" s="269"/>
-      <c r="T4" s="269"/>
-      <c r="U4" s="269" t="s">
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="299"/>
+      <c r="U4" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="269"/>
-      <c r="W4" s="269"/>
-      <c r="X4" s="269"/>
-      <c r="Y4" s="269" t="s">
+      <c r="V4" s="299"/>
+      <c r="W4" s="299"/>
+      <c r="X4" s="299"/>
+      <c r="Y4" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="269"/>
-      <c r="AA4" s="269" t="s">
+      <c r="Z4" s="299"/>
+      <c r="AA4" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="269"/>
-      <c r="AC4" s="269" t="s">
+      <c r="AB4" s="299"/>
+      <c r="AC4" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="269"/>
-      <c r="AE4" s="269" t="s">
+      <c r="AD4" s="299"/>
+      <c r="AE4" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="269"/>
+      <c r="AF4" s="299"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="269"/>
-      <c r="B5" s="269"/>
-      <c r="C5" s="269"/>
-      <c r="D5" s="269"/>
-      <c r="E5" s="269"/>
-      <c r="F5" s="269"/>
-      <c r="G5" s="269"/>
-      <c r="H5" s="269" t="s">
+      <c r="A5" s="299"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="269" t="s">
+      <c r="I5" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="269" t="s">
+      <c r="J5" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="269"/>
-      <c r="L5" s="269"/>
-      <c r="M5" s="269"/>
-      <c r="N5" s="269"/>
-      <c r="O5" s="269"/>
-      <c r="P5" s="269"/>
-      <c r="Q5" s="269"/>
-      <c r="R5" s="269"/>
-      <c r="S5" s="269"/>
-      <c r="T5" s="269"/>
-      <c r="U5" s="269"/>
-      <c r="V5" s="269"/>
-      <c r="W5" s="269"/>
-      <c r="X5" s="269"/>
-      <c r="Y5" s="269"/>
-      <c r="Z5" s="269"/>
-      <c r="AA5" s="269"/>
-      <c r="AB5" s="269"/>
-      <c r="AC5" s="269"/>
-      <c r="AD5" s="269"/>
-      <c r="AE5" s="269"/>
-      <c r="AF5" s="269"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="299"/>
+      <c r="P5" s="299"/>
+      <c r="Q5" s="299"/>
+      <c r="R5" s="299"/>
+      <c r="S5" s="299"/>
+      <c r="T5" s="299"/>
+      <c r="U5" s="299"/>
+      <c r="V5" s="299"/>
+      <c r="W5" s="299"/>
+      <c r="X5" s="299"/>
+      <c r="Y5" s="299"/>
+      <c r="Z5" s="299"/>
+      <c r="AA5" s="299"/>
+      <c r="AB5" s="299"/>
+      <c r="AC5" s="299"/>
+      <c r="AD5" s="299"/>
+      <c r="AE5" s="299"/>
+      <c r="AF5" s="299"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="269"/>
-      <c r="B6" s="269"/>
-      <c r="C6" s="269"/>
-      <c r="D6" s="269" t="s">
+      <c r="A6" s="299"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="269" t="s">
+      <c r="E6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="269" t="s">
+      <c r="F6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="269" t="s">
+      <c r="G6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="269"/>
-      <c r="I6" s="269"/>
-      <c r="J6" s="269"/>
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="269" t="s">
+      <c r="M6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="269"/>
-      <c r="O6" s="269" t="s">
+      <c r="N6" s="299"/>
+      <c r="O6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="269"/>
-      <c r="Q6" s="269" t="s">
+      <c r="P6" s="299"/>
+      <c r="Q6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="269"/>
-      <c r="S6" s="269" t="s">
+      <c r="R6" s="299"/>
+      <c r="S6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="269"/>
-      <c r="U6" s="269" t="s">
+      <c r="T6" s="299"/>
+      <c r="U6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="269" t="s">
+      <c r="V6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="269" t="s">
+      <c r="W6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="269" t="s">
+      <c r="X6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="269" t="s">
+      <c r="Y6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="269" t="s">
+      <c r="Z6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="269" t="s">
+      <c r="AA6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="269" t="s">
+      <c r="AB6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="269" t="s">
+      <c r="AC6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="269" t="s">
+      <c r="AD6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="269" t="s">
+      <c r="AE6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="269" t="s">
+      <c r="AF6" s="299" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="269"/>
-      <c r="B7" s="269"/>
-      <c r="C7" s="269"/>
-      <c r="D7" s="269"/>
-      <c r="E7" s="269"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="269"/>
-      <c r="H7" s="269"/>
-      <c r="I7" s="269"/>
-      <c r="J7" s="269"/>
+      <c r="A7" s="299"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
       <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
@@ -38338,18 +38332,18 @@
       <c r="T7" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="U7" s="269"/>
-      <c r="V7" s="269"/>
-      <c r="W7" s="269"/>
-      <c r="X7" s="269"/>
-      <c r="Y7" s="269"/>
-      <c r="Z7" s="269"/>
-      <c r="AA7" s="269"/>
-      <c r="AB7" s="269"/>
-      <c r="AC7" s="269"/>
-      <c r="AD7" s="269"/>
-      <c r="AE7" s="269"/>
-      <c r="AF7" s="269"/>
+      <c r="U7" s="299"/>
+      <c r="V7" s="299"/>
+      <c r="W7" s="299"/>
+      <c r="X7" s="299"/>
+      <c r="Y7" s="299"/>
+      <c r="Z7" s="299"/>
+      <c r="AA7" s="299"/>
+      <c r="AB7" s="299"/>
+      <c r="AC7" s="299"/>
+      <c r="AD7" s="299"/>
+      <c r="AE7" s="299"/>
+      <c r="AF7" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -38398,13 +38392,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8C4A2F-FEFF-4285-A50E-C1999272D349}">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A7"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -38413,391 +38407,343 @@
     <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="4"/>
     <col min="4" max="4" width="10.7109375" style="4" customWidth="1"/>
-    <col min="5" max="43" width="14.7109375" style="4" customWidth="1"/>
-    <col min="44" max="16384" width="20.7109375" style="4"/>
+    <col min="5" max="37" width="14.7109375" style="4" customWidth="1"/>
+    <col min="38" max="16384" width="20.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="314" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="267" t="s">
+    <row r="1" spans="1:37" s="153" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="297" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="267"/>
-    </row>
-    <row r="2" spans="1:43" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="271"/>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
-      <c r="J2" s="271"/>
-      <c r="K2" s="271"/>
-      <c r="L2" s="271"/>
-      <c r="M2" s="271"/>
-      <c r="N2" s="271"/>
-      <c r="O2" s="271"/>
-    </row>
-    <row r="4" spans="1:43" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="315" t="s">
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
+      <c r="N1" s="297"/>
+    </row>
+    <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="301"/>
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+    </row>
+    <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="315" t="s">
+      <c r="B4" s="299" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="315" t="s">
+      <c r="D4" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="315" t="s">
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
+      <c r="I4" s="299" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="315"/>
-      <c r="L4" s="315"/>
-      <c r="M4" s="315"/>
-      <c r="N4" s="315" t="s">
+      <c r="J4" s="299"/>
+      <c r="K4" s="299"/>
+      <c r="L4" s="299"/>
+      <c r="M4" s="299" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="315" t="s">
+      <c r="N4" s="299" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="315" t="s">
+      <c r="O4" s="299" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="315"/>
-      <c r="R4" s="315" t="s">
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="S4" s="315"/>
-      <c r="T4" s="315"/>
-      <c r="U4" s="315"/>
-      <c r="V4" s="315"/>
-      <c r="W4" s="315"/>
-      <c r="X4" s="315"/>
-      <c r="Y4" s="315"/>
-      <c r="Z4" s="315"/>
-      <c r="AA4" s="315"/>
-      <c r="AB4" s="315" t="s">
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="299"/>
+      <c r="U4" s="299"/>
+      <c r="V4" s="299"/>
+      <c r="W4" s="299"/>
+      <c r="X4" s="299"/>
+      <c r="Y4" s="299" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="315" t="s">
+      <c r="Z4" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="315"/>
-      <c r="AE4" s="315"/>
-      <c r="AF4" s="315"/>
-      <c r="AG4" s="315"/>
-      <c r="AH4" s="315"/>
-      <c r="AI4" s="315"/>
-      <c r="AJ4" s="315"/>
-      <c r="AK4" s="315"/>
-      <c r="AL4" s="315"/>
-      <c r="AM4" s="315"/>
-      <c r="AN4" s="315"/>
-      <c r="AO4" s="315"/>
-      <c r="AP4" s="315"/>
-      <c r="AQ4" s="315"/>
-    </row>
-    <row r="5" spans="1:43" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="315"/>
-      <c r="B5" s="315"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315"/>
-      <c r="I5" s="315"/>
-      <c r="J5" s="315"/>
-      <c r="K5" s="315"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="315"/>
-      <c r="N5" s="315"/>
-      <c r="O5" s="315"/>
-      <c r="P5" s="315"/>
-      <c r="Q5" s="315"/>
-      <c r="R5" s="315" t="s">
+      <c r="AA4" s="299"/>
+      <c r="AB4" s="299"/>
+      <c r="AC4" s="299"/>
+      <c r="AD4" s="299"/>
+      <c r="AE4" s="299"/>
+      <c r="AF4" s="299"/>
+      <c r="AG4" s="299"/>
+      <c r="AH4" s="299"/>
+      <c r="AI4" s="299"/>
+      <c r="AJ4" s="299"/>
+      <c r="AK4" s="299"/>
+    </row>
+    <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="299"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="299"/>
+      <c r="P5" s="299"/>
+      <c r="Q5" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="315"/>
-      <c r="T5" s="315" t="s">
+      <c r="R5" s="299"/>
+      <c r="S5" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="U5" s="315"/>
-      <c r="V5" s="315" t="s">
+      <c r="T5" s="299"/>
+      <c r="U5" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="315"/>
-      <c r="X5" s="317" t="s">
+      <c r="V5" s="299"/>
+      <c r="W5" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="Y5" s="317"/>
-      <c r="Z5" s="315" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA5" s="315"/>
-      <c r="AB5" s="315"/>
-      <c r="AC5" s="315"/>
-      <c r="AD5" s="315"/>
-      <c r="AE5" s="315"/>
-      <c r="AF5" s="315"/>
-      <c r="AG5" s="315"/>
-      <c r="AH5" s="315" t="s">
+      <c r="X5" s="300"/>
+      <c r="Y5" s="299"/>
+      <c r="Z5" s="299"/>
+      <c r="AA5" s="299"/>
+      <c r="AB5" s="299"/>
+      <c r="AC5" s="299"/>
+      <c r="AD5" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="AI5" s="315"/>
-      <c r="AJ5" s="315" t="s">
+      <c r="AE5" s="299"/>
+      <c r="AF5" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="AK5" s="315"/>
-      <c r="AL5" s="315" t="s">
+      <c r="AG5" s="299"/>
+      <c r="AH5" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="AM5" s="315"/>
-      <c r="AN5" s="317" t="s">
+      <c r="AI5" s="299"/>
+      <c r="AJ5" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="AO5" s="315"/>
-      <c r="AP5" s="317" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ5" s="315"/>
-    </row>
-    <row r="6" spans="1:43" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="315"/>
-      <c r="B6" s="315"/>
-      <c r="C6" s="315"/>
-      <c r="D6" s="315"/>
-      <c r="E6" s="315" t="s">
+      <c r="AK5" s="299"/>
+    </row>
+    <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="299"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="315" t="s">
+      <c r="F6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="315" t="s">
+      <c r="G6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="315" t="s">
+      <c r="H6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="315" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="315" t="s">
+      <c r="I6" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="315" t="s">
+      <c r="J6" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="315" t="s">
+      <c r="K6" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="315" t="s">
+      <c r="L6" s="299" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="315"/>
-      <c r="O6" s="315"/>
-      <c r="P6" s="315"/>
-      <c r="Q6" s="315"/>
-      <c r="R6" s="315"/>
-      <c r="S6" s="315"/>
-      <c r="T6" s="315"/>
-      <c r="U6" s="315"/>
-      <c r="V6" s="315"/>
-      <c r="W6" s="315"/>
-      <c r="X6" s="317"/>
-      <c r="Y6" s="317"/>
-      <c r="Z6" s="315"/>
-      <c r="AA6" s="315"/>
-      <c r="AB6" s="315"/>
-      <c r="AC6" s="315" t="s">
+      <c r="M6" s="299"/>
+      <c r="N6" s="299"/>
+      <c r="O6" s="299"/>
+      <c r="P6" s="299"/>
+      <c r="Q6" s="299"/>
+      <c r="R6" s="299"/>
+      <c r="S6" s="299"/>
+      <c r="T6" s="299"/>
+      <c r="U6" s="299"/>
+      <c r="V6" s="299"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="299"/>
+      <c r="Z6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" s="315" t="s">
+      <c r="AA6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="AE6" s="315" t="s">
+      <c r="AB6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="AF6" s="315" t="s">
+      <c r="AC6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="AG6" s="315" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH6" s="315" t="s">
+      <c r="AD6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="315" t="s">
+      <c r="AE6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="315" t="s">
+      <c r="AF6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="315" t="s">
+      <c r="AG6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AL6" s="315" t="s">
+      <c r="AH6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="315" t="s">
+      <c r="AI6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="315" t="s">
+      <c r="AJ6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AO6" s="315" t="s">
+      <c r="AK6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="315" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ6" s="315" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="315"/>
-      <c r="B7" s="315"/>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="315"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="315"/>
-      <c r="N7" s="315"/>
-      <c r="O7" s="315"/>
-      <c r="P7" s="318" t="s">
+    </row>
+    <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="299"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="299"/>
+      <c r="N7" s="299"/>
+      <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="318" t="s">
+      <c r="P7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="318" t="s">
+      <c r="Q7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="S7" s="318" t="s">
+      <c r="R7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="318" t="s">
+      <c r="S7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U7" s="318" t="s">
+      <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="318" t="s">
+      <c r="U7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="W7" s="318" t="s">
+      <c r="V7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="X7" s="318" t="s">
+      <c r="W7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Y7" s="318" t="s">
+      <c r="X7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Z7" s="318" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA7" s="318" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" s="315"/>
-      <c r="AC7" s="315"/>
-      <c r="AD7" s="315"/>
-      <c r="AE7" s="315"/>
-      <c r="AF7" s="315"/>
-      <c r="AG7" s="315"/>
-      <c r="AH7" s="315"/>
-      <c r="AI7" s="315"/>
-      <c r="AJ7" s="315"/>
-      <c r="AK7" s="315"/>
-      <c r="AL7" s="315"/>
-      <c r="AM7" s="315"/>
-      <c r="AN7" s="315"/>
-      <c r="AO7" s="315"/>
-      <c r="AP7" s="315"/>
-      <c r="AQ7" s="315"/>
+      <c r="Y7" s="299"/>
+      <c r="Z7" s="299"/>
+      <c r="AA7" s="299"/>
+      <c r="AB7" s="299"/>
+      <c r="AC7" s="299"/>
+      <c r="AD7" s="299"/>
+      <c r="AE7" s="299"/>
+      <c r="AF7" s="299"/>
+      <c r="AG7" s="299"/>
+      <c r="AH7" s="299"/>
+      <c r="AI7" s="299"/>
+      <c r="AJ7" s="299"/>
+      <c r="AK7" s="299"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="V5:W6"/>
-    <mergeCell ref="X5:Y6"/>
+  <mergeCells count="43">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="W5:X6"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:I5"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="P4:Q6"/>
-    <mergeCell ref="AB4:AB7"/>
-    <mergeCell ref="AC4:AG5"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="O4:P6"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:AC5"/>
+    <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="AF6:AF7"/>
     <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="I4:L5"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="AH4:AQ4"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="J4:M5"/>
-    <mergeCell ref="R4:AA4"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="Z5:AA6"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AC6:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38806,386 +38752,338 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51211369-2362-46D0-A3BB-A4E21FBB5D29}">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A7"/>
+      <selection pane="bottomRight" activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" style="4" customWidth="1"/>
-    <col min="3" max="40" width="14.7109375" style="4" customWidth="1"/>
-    <col min="41" max="16384" width="20.7109375" style="4"/>
+    <col min="3" max="34" width="14.7109375" style="4" customWidth="1"/>
+    <col min="35" max="16384" width="20.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="30" customHeight="1">
-      <c r="A1" s="319" t="s">
+    <row r="1" spans="1:34" ht="30" customHeight="1">
+      <c r="A1" s="302" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="319"/>
-      <c r="C1" s="319"/>
-      <c r="D1" s="319"/>
-      <c r="E1" s="319"/>
-      <c r="F1" s="319"/>
-      <c r="G1" s="319"/>
-      <c r="H1" s="319"/>
-      <c r="I1" s="319"/>
-      <c r="J1" s="319"/>
-      <c r="K1" s="319"/>
-      <c r="L1" s="319"/>
-    </row>
-    <row r="2" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="268"/>
-      <c r="B2" s="268"/>
-      <c r="C2" s="268"/>
-      <c r="D2" s="268"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="268"/>
-      <c r="K2" s="268"/>
-      <c r="L2" s="268"/>
-    </row>
-    <row r="3" spans="1:40" ht="20.100000000000001" customHeight="1">
-      <c r="Y3" s="4" t="s">
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
+      <c r="J1" s="302"/>
+      <c r="K1" s="302"/>
+    </row>
+    <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="298"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+    </row>
+    <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1">
+      <c r="V3" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="315" t="s">
+    <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="299" t="s">
         <v>188</v>
       </c>
-      <c r="B4" s="315" t="s">
+      <c r="B4" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="299" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315"/>
-      <c r="H4" s="315" t="s">
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="315"/>
-      <c r="J4" s="315"/>
-      <c r="K4" s="315"/>
-      <c r="L4" s="315" t="s">
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="315" t="s">
+      <c r="L4" s="299" t="s">
         <v>81</v>
       </c>
-      <c r="N4" s="315"/>
-      <c r="O4" s="315" t="s">
+      <c r="M4" s="299"/>
+      <c r="N4" s="299" t="s">
         <v>82</v>
       </c>
-      <c r="P4" s="315"/>
-      <c r="Q4" s="315"/>
-      <c r="R4" s="315"/>
-      <c r="S4" s="315"/>
-      <c r="T4" s="315"/>
-      <c r="U4" s="315"/>
-      <c r="V4" s="315"/>
-      <c r="W4" s="315"/>
-      <c r="X4" s="315"/>
-      <c r="Y4" s="315" t="s">
+      <c r="O4" s="299"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="299"/>
+      <c r="U4" s="299"/>
+      <c r="V4" s="299" t="s">
         <v>83</v>
       </c>
-      <c r="Z4" s="315" t="s">
+      <c r="W4" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="315"/>
-      <c r="AB4" s="315"/>
-      <c r="AC4" s="315"/>
-      <c r="AD4" s="315"/>
-      <c r="AE4" s="315" t="s">
+      <c r="X4" s="299"/>
+      <c r="Y4" s="299"/>
+      <c r="Z4" s="299"/>
+      <c r="AA4" s="299" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" s="315"/>
-      <c r="AG4" s="315"/>
-      <c r="AH4" s="315"/>
-      <c r="AI4" s="315"/>
-      <c r="AJ4" s="315"/>
-      <c r="AK4" s="315"/>
-      <c r="AL4" s="315"/>
-      <c r="AM4" s="315"/>
-      <c r="AN4" s="315"/>
-    </row>
-    <row r="5" spans="1:40" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="315"/>
-      <c r="B5" s="315"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315"/>
-      <c r="H5" s="315" t="s">
+      <c r="AB4" s="299"/>
+      <c r="AC4" s="299"/>
+      <c r="AD4" s="299"/>
+      <c r="AE4" s="299"/>
+      <c r="AF4" s="299"/>
+      <c r="AG4" s="299"/>
+      <c r="AH4" s="299"/>
+    </row>
+    <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="299"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="315" t="s">
+      <c r="H5" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="315" t="s">
+      <c r="I5" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="315" t="s">
+      <c r="J5" s="299" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="315"/>
-      <c r="M5" s="315"/>
-      <c r="N5" s="315"/>
-      <c r="O5" s="315"/>
-      <c r="P5" s="315"/>
-      <c r="Q5" s="315"/>
-      <c r="R5" s="315"/>
-      <c r="S5" s="315"/>
-      <c r="T5" s="315"/>
-      <c r="U5" s="315"/>
-      <c r="V5" s="315"/>
-      <c r="W5" s="315"/>
-      <c r="X5" s="315"/>
-      <c r="Y5" s="315"/>
-      <c r="Z5" s="315"/>
-      <c r="AA5" s="315"/>
-      <c r="AB5" s="315"/>
-      <c r="AC5" s="315"/>
-      <c r="AD5" s="315"/>
-      <c r="AE5" s="315" t="s">
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="299"/>
+      <c r="P5" s="299"/>
+      <c r="Q5" s="299"/>
+      <c r="R5" s="299"/>
+      <c r="S5" s="299"/>
+      <c r="T5" s="299"/>
+      <c r="U5" s="299"/>
+      <c r="V5" s="299"/>
+      <c r="W5" s="299"/>
+      <c r="X5" s="299"/>
+      <c r="Y5" s="299"/>
+      <c r="Z5" s="299"/>
+      <c r="AA5" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="AF5" s="315"/>
-      <c r="AG5" s="315" t="s">
+      <c r="AB5" s="299"/>
+      <c r="AC5" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="AH5" s="315"/>
-      <c r="AI5" s="315" t="s">
+      <c r="AD5" s="299"/>
+      <c r="AE5" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="AJ5" s="315"/>
-      <c r="AK5" s="317" t="s">
+      <c r="AF5" s="299"/>
+      <c r="AG5" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="AL5" s="315"/>
-      <c r="AM5" s="317" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN5" s="315"/>
-    </row>
-    <row r="6" spans="1:40" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="315"/>
-      <c r="B6" s="315"/>
-      <c r="C6" s="315" t="s">
+      <c r="AH5" s="299"/>
+    </row>
+    <row r="6" spans="1:34" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="299"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="315" t="s">
+      <c r="D6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="315" t="s">
+      <c r="E6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="315" t="s">
+      <c r="F6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="315" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="315"/>
-      <c r="K6" s="315"/>
-      <c r="L6" s="315"/>
-      <c r="M6" s="315"/>
-      <c r="N6" s="315"/>
-      <c r="O6" s="315" t="s">
+      <c r="G6" s="299"/>
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="299"/>
+      <c r="M6" s="299"/>
+      <c r="N6" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="315"/>
-      <c r="Q6" s="315" t="s">
+      <c r="O6" s="299"/>
+      <c r="P6" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="315"/>
-      <c r="S6" s="315" t="s">
+      <c r="Q6" s="299"/>
+      <c r="R6" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="T6" s="315"/>
-      <c r="U6" s="317" t="s">
+      <c r="S6" s="299"/>
+      <c r="T6" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="V6" s="315"/>
-      <c r="W6" s="317" t="s">
-        <v>22</v>
-      </c>
-      <c r="X6" s="315"/>
-      <c r="Y6" s="315"/>
-      <c r="Z6" s="315" t="s">
+      <c r="U6" s="299"/>
+      <c r="V6" s="299"/>
+      <c r="W6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="315" t="s">
+      <c r="X6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="315" t="s">
+      <c r="Y6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="AC6" s="315" t="s">
+      <c r="Z6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="315" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE6" s="315" t="s">
+      <c r="AA6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="315" t="s">
+      <c r="AB6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="315" t="s">
+      <c r="AC6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="315" t="s">
+      <c r="AD6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AI6" s="315" t="s">
+      <c r="AE6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AJ6" s="315" t="s">
+      <c r="AF6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AK6" s="315" t="s">
+      <c r="AG6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="315" t="s">
+      <c r="AH6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AM6" s="315" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN6" s="315" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="315"/>
-      <c r="B7" s="315"/>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="315"/>
-      <c r="L7" s="315"/>
-      <c r="M7" s="318" t="s">
+    </row>
+    <row r="7" spans="1:34" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="299"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="318" t="s">
+      <c r="M7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="318" t="s">
+      <c r="N7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="318" t="s">
+      <c r="O7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="318" t="s">
+      <c r="P7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="318" t="s">
+      <c r="Q7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="318" t="s">
+      <c r="R7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="318" t="s">
+      <c r="S7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="318" t="s">
+      <c r="T7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V7" s="318" t="s">
+      <c r="U7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W7" s="318" t="s">
-        <v>33</v>
-      </c>
-      <c r="X7" s="318" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" s="315"/>
-      <c r="Z7" s="315"/>
-      <c r="AA7" s="315"/>
-      <c r="AB7" s="315"/>
-      <c r="AC7" s="315"/>
-      <c r="AD7" s="315"/>
-      <c r="AE7" s="315"/>
-      <c r="AF7" s="315"/>
-      <c r="AG7" s="315"/>
-      <c r="AH7" s="315"/>
-      <c r="AI7" s="315"/>
-      <c r="AJ7" s="315"/>
-      <c r="AK7" s="315"/>
-      <c r="AL7" s="315"/>
-      <c r="AM7" s="315"/>
-      <c r="AN7" s="315"/>
+      <c r="V7" s="299"/>
+      <c r="W7" s="299"/>
+      <c r="X7" s="299"/>
+      <c r="Y7" s="299"/>
+      <c r="Z7" s="299"/>
+      <c r="AA7" s="299"/>
+      <c r="AB7" s="299"/>
+      <c r="AC7" s="299"/>
+      <c r="AD7" s="299"/>
+      <c r="AE7" s="299"/>
+      <c r="AF7" s="299"/>
+      <c r="AG7" s="299"/>
+      <c r="AH7" s="299"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="AI5:AJ5"/>
+  <mergeCells count="40">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:K7"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:L7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="W4:Z5"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="L4:M6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:U5"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="Z4:AD5"/>
-    <mergeCell ref="AE4:AN4"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="C4:G5"/>
-    <mergeCell ref="M4:N6"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AD6:AD7"/>
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="AF6:AF7"/>
     <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="O4:X5"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AG5:AH5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39210,281 +39108,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="297" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
-      <c r="J1" s="267"/>
-      <c r="K1" s="267"/>
-      <c r="L1" s="267"/>
-      <c r="M1" s="267"/>
-      <c r="N1" s="267"/>
-      <c r="O1" s="267"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="297"/>
+      <c r="E1" s="297"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="297"/>
+      <c r="M1" s="297"/>
+      <c r="N1" s="297"/>
+      <c r="O1" s="297"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="270"/>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270"/>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270"/>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270"/>
+      <c r="A2" s="303"/>
+      <c r="B2" s="303"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="303"/>
+      <c r="E2" s="303"/>
+      <c r="F2" s="303"/>
+      <c r="G2" s="303"/>
+      <c r="H2" s="303"/>
+      <c r="I2" s="303"/>
+      <c r="J2" s="303"/>
+      <c r="K2" s="303"/>
+      <c r="L2" s="303"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="303"/>
+      <c r="O2" s="303"/>
     </row>
     <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="W3" s="271" t="s">
+      <c r="W3" s="301" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-    </row>
-    <row r="4" spans="1:33" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="315" t="s">
+      <c r="X3" s="301"/>
+      <c r="Y3" s="301"/>
+    </row>
+    <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="315" t="s">
+      <c r="B4" s="299" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="315" t="s">
+      <c r="C4" s="299" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="315"/>
-      <c r="E4" s="315"/>
-      <c r="F4" s="315"/>
-      <c r="G4" s="315" t="s">
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="315"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="315"/>
-      <c r="K4" s="315" t="s">
+      <c r="H4" s="299"/>
+      <c r="I4" s="299"/>
+      <c r="J4" s="299"/>
+      <c r="K4" s="299" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="315"/>
-      <c r="M4" s="315" t="s">
+      <c r="L4" s="299"/>
+      <c r="M4" s="299" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="315"/>
-      <c r="O4" s="315"/>
-      <c r="P4" s="315"/>
-      <c r="Q4" s="315"/>
-      <c r="R4" s="315"/>
-      <c r="S4" s="315"/>
-      <c r="T4" s="315"/>
-      <c r="U4" s="315" t="s">
+      <c r="N4" s="299"/>
+      <c r="O4" s="299"/>
+      <c r="P4" s="299"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="299"/>
+      <c r="S4" s="299"/>
+      <c r="T4" s="299"/>
+      <c r="U4" s="299" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="315" t="s">
+      <c r="V4" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="315"/>
-      <c r="X4" s="315"/>
-      <c r="Y4" s="315"/>
-      <c r="Z4" s="315" t="s">
+      <c r="W4" s="299"/>
+      <c r="X4" s="299"/>
+      <c r="Y4" s="299"/>
+      <c r="Z4" s="299" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="315"/>
-      <c r="AB4" s="315"/>
-      <c r="AC4" s="315"/>
-      <c r="AD4" s="315"/>
-      <c r="AE4" s="315"/>
-      <c r="AF4" s="315"/>
-      <c r="AG4" s="315"/>
-    </row>
-    <row r="5" spans="1:33" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="315"/>
-      <c r="B5" s="315"/>
-      <c r="C5" s="315"/>
-      <c r="D5" s="315"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
-      <c r="G5" s="315" t="s">
+      <c r="AA4" s="299"/>
+      <c r="AB4" s="299"/>
+      <c r="AC4" s="299"/>
+      <c r="AD4" s="299"/>
+      <c r="AE4" s="299"/>
+      <c r="AF4" s="299"/>
+      <c r="AG4" s="299"/>
+    </row>
+    <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="299"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="315" t="s">
+      <c r="H5" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="315" t="s">
+      <c r="I5" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="315" t="s">
+      <c r="J5" s="299" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="315"/>
-      <c r="L5" s="315"/>
-      <c r="M5" s="315"/>
-      <c r="N5" s="315"/>
-      <c r="O5" s="315"/>
-      <c r="P5" s="315"/>
-      <c r="Q5" s="315"/>
-      <c r="R5" s="315"/>
-      <c r="S5" s="315"/>
-      <c r="T5" s="315"/>
-      <c r="U5" s="315"/>
-      <c r="V5" s="315"/>
-      <c r="W5" s="315"/>
-      <c r="X5" s="315"/>
-      <c r="Y5" s="315"/>
-      <c r="Z5" s="315" t="s">
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="299"/>
+      <c r="N5" s="299"/>
+      <c r="O5" s="299"/>
+      <c r="P5" s="299"/>
+      <c r="Q5" s="299"/>
+      <c r="R5" s="299"/>
+      <c r="S5" s="299"/>
+      <c r="T5" s="299"/>
+      <c r="U5" s="299"/>
+      <c r="V5" s="299"/>
+      <c r="W5" s="299"/>
+      <c r="X5" s="299"/>
+      <c r="Y5" s="299"/>
+      <c r="Z5" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="315"/>
-      <c r="AB5" s="315" t="s">
+      <c r="AA5" s="299"/>
+      <c r="AB5" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="315"/>
-      <c r="AD5" s="315" t="s">
+      <c r="AC5" s="299"/>
+      <c r="AD5" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="315"/>
-      <c r="AF5" s="317" t="s">
+      <c r="AE5" s="299"/>
+      <c r="AF5" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="315"/>
-    </row>
-    <row r="6" spans="1:33" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="315"/>
-      <c r="B6" s="315"/>
-      <c r="C6" s="315" t="s">
+      <c r="AG5" s="299"/>
+    </row>
+    <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="299"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="315" t="s">
+      <c r="D6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="315" t="s">
+      <c r="E6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="315" t="s">
+      <c r="F6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="315"/>
-      <c r="H6" s="315"/>
-      <c r="I6" s="315"/>
-      <c r="J6" s="315"/>
-      <c r="K6" s="315"/>
-      <c r="L6" s="315"/>
-      <c r="M6" s="315" t="s">
+      <c r="G6" s="299"/>
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="299"/>
+      <c r="M6" s="299" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="315"/>
-      <c r="O6" s="315" t="s">
+      <c r="N6" s="299"/>
+      <c r="O6" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="315"/>
-      <c r="Q6" s="315" t="s">
+      <c r="P6" s="299"/>
+      <c r="Q6" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="315"/>
-      <c r="S6" s="317" t="s">
+      <c r="R6" s="299"/>
+      <c r="S6" s="300" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="315"/>
-      <c r="U6" s="315"/>
-      <c r="V6" s="315" t="s">
+      <c r="T6" s="299"/>
+      <c r="U6" s="299"/>
+      <c r="V6" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="315" t="s">
+      <c r="W6" s="299" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="315" t="s">
+      <c r="X6" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="315" t="s">
+      <c r="Y6" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="315" t="s">
+      <c r="Z6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="315" t="s">
+      <c r="AA6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="315" t="s">
+      <c r="AB6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="315" t="s">
+      <c r="AC6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="315" t="s">
+      <c r="AD6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="315" t="s">
+      <c r="AE6" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="315" t="s">
+      <c r="AF6" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="315" t="s">
+      <c r="AG6" s="299" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="316" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="315"/>
-      <c r="B7" s="315"/>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
-      <c r="I7" s="315"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="318" t="s">
+    <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="299"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="318" t="s">
+      <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="318" t="s">
+      <c r="M7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N7" s="318" t="s">
+      <c r="N7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="318" t="s">
+      <c r="O7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P7" s="318" t="s">
+      <c r="P7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="318" t="s">
+      <c r="Q7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R7" s="318" t="s">
+      <c r="R7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="318" t="s">
+      <c r="S7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="318" t="s">
+      <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="315"/>
-      <c r="V7" s="315"/>
-      <c r="W7" s="315"/>
-      <c r="X7" s="315"/>
-      <c r="Y7" s="315"/>
-      <c r="Z7" s="315"/>
-      <c r="AA7" s="315"/>
-      <c r="AB7" s="315"/>
-      <c r="AC7" s="315"/>
-      <c r="AD7" s="315"/>
-      <c r="AE7" s="315"/>
-      <c r="AF7" s="315"/>
-      <c r="AG7" s="315"/>
+      <c r="U7" s="299"/>
+      <c r="V7" s="299"/>
+      <c r="W7" s="299"/>
+      <c r="X7" s="299"/>
+      <c r="Y7" s="299"/>
+      <c r="Z7" s="299"/>
+      <c r="AA7" s="299"/>
+      <c r="AB7" s="299"/>
+      <c r="AC7" s="299"/>
+      <c r="AD7" s="299"/>
+      <c r="AE7" s="299"/>
+      <c r="AF7" s="299"/>
+      <c r="AG7" s="299"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -39503,6 +39401,7 @@
     <mergeCell ref="AB6:AB7"/>
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="W3:Y3"/>
@@ -39519,7 +39418,6 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="X6:X7"/>
     <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
@@ -39560,12 +39458,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="276" t="s">
+      <c r="A1" s="308" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
       <c r="E1" s="144"/>
       <c r="F1" s="6"/>
       <c r="G1" s="144"/>
@@ -39579,22 +39477,22 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="276" t="s">
+      <c r="R1" s="308" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="276"/>
-      <c r="T1" s="276"/>
-      <c r="U1" s="276"/>
-      <c r="V1" s="276"/>
-      <c r="W1" s="276"/>
+      <c r="S1" s="308"/>
+      <c r="T1" s="308"/>
+      <c r="U1" s="308"/>
+      <c r="V1" s="308"/>
+      <c r="W1" s="308"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="309" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
+      <c r="B2" s="309"/>
+      <c r="C2" s="309"/>
+      <c r="D2" s="309"/>
       <c r="E2" s="145"/>
       <c r="F2" s="100"/>
       <c r="G2" s="145"/>
@@ -39608,251 +39506,251 @@
       <c r="O2" s="100"/>
       <c r="P2" s="100"/>
       <c r="Q2" s="100"/>
-      <c r="R2" s="277" t="s">
+      <c r="R2" s="309" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="277"/>
-      <c r="T2" s="277"/>
-      <c r="U2" s="277"/>
-      <c r="V2" s="277"/>
-      <c r="W2" s="277"/>
+      <c r="S2" s="309"/>
+      <c r="T2" s="309"/>
+      <c r="U2" s="309"/>
+      <c r="V2" s="309"/>
+      <c r="W2" s="309"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
-      <c r="A3" s="278" t="s">
+      <c r="A3" s="310" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="278"/>
-      <c r="F3" s="278"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="278"/>
-      <c r="J3" s="278"/>
-      <c r="K3" s="278"/>
-      <c r="L3" s="278"/>
-      <c r="M3" s="278"/>
-      <c r="N3" s="278"/>
-      <c r="O3" s="278"/>
-      <c r="P3" s="278"/>
-      <c r="Q3" s="278"/>
-      <c r="R3" s="278"/>
-      <c r="S3" s="278"/>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
+      <c r="B3" s="310"/>
+      <c r="C3" s="310"/>
+      <c r="D3" s="310"/>
+      <c r="E3" s="310"/>
+      <c r="F3" s="310"/>
+      <c r="G3" s="310"/>
+      <c r="H3" s="310"/>
+      <c r="I3" s="310"/>
+      <c r="J3" s="310"/>
+      <c r="K3" s="310"/>
+      <c r="L3" s="310"/>
+      <c r="M3" s="310"/>
+      <c r="N3" s="310"/>
+      <c r="O3" s="310"/>
+      <c r="P3" s="310"/>
+      <c r="Q3" s="310"/>
+      <c r="R3" s="310"/>
+      <c r="S3" s="310"/>
+      <c r="T3" s="310"/>
+      <c r="U3" s="310"/>
+      <c r="V3" s="310"/>
+      <c r="W3" s="310"/>
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="279"/>
-      <c r="B4" s="279"/>
-      <c r="C4" s="279"/>
-      <c r="D4" s="279"/>
-      <c r="E4" s="279"/>
-      <c r="F4" s="279"/>
-      <c r="G4" s="279"/>
-      <c r="H4" s="279"/>
-      <c r="I4" s="279"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="279"/>
-      <c r="L4" s="279"/>
-      <c r="M4" s="279"/>
-      <c r="N4" s="279"/>
-      <c r="O4" s="279"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="279"/>
-      <c r="R4" s="279"/>
-      <c r="S4" s="279"/>
-      <c r="T4" s="279"/>
-      <c r="U4" s="279"/>
-      <c r="V4" s="279"/>
-      <c r="W4" s="279"/>
+      <c r="A4" s="311"/>
+      <c r="B4" s="311"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="311"/>
+      <c r="M4" s="311"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="311"/>
+      <c r="P4" s="311"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="280"/>
-      <c r="B5" s="280"/>
-      <c r="C5" s="280"/>
-      <c r="D5" s="280"/>
-      <c r="E5" s="280"/>
-      <c r="F5" s="280"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="280"/>
-      <c r="I5" s="280"/>
-      <c r="J5" s="280"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="280"/>
-      <c r="M5" s="280"/>
-      <c r="N5" s="280"/>
-      <c r="O5" s="280"/>
-      <c r="P5" s="280"/>
-      <c r="Q5" s="280"/>
-      <c r="R5" s="280"/>
-      <c r="S5" s="280"/>
-      <c r="T5" s="280"/>
-      <c r="U5" s="280"/>
-      <c r="V5" s="280"/>
-      <c r="W5" s="280"/>
+      <c r="A5" s="312"/>
+      <c r="B5" s="312"/>
+      <c r="C5" s="312"/>
+      <c r="D5" s="312"/>
+      <c r="E5" s="312"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="312"/>
+      <c r="H5" s="312"/>
+      <c r="I5" s="312"/>
+      <c r="J5" s="312"/>
+      <c r="K5" s="312"/>
+      <c r="L5" s="312"/>
+      <c r="M5" s="312"/>
+      <c r="N5" s="312"/>
+      <c r="O5" s="312"/>
+      <c r="P5" s="312"/>
+      <c r="Q5" s="312"/>
+      <c r="R5" s="312"/>
+      <c r="S5" s="312"/>
+      <c r="T5" s="312"/>
+      <c r="U5" s="312"/>
+      <c r="V5" s="312"/>
+      <c r="W5" s="312"/>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="294" t="s">
+      <c r="A6" s="328" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="294" t="s">
+      <c r="B6" s="328" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="294" t="s">
+      <c r="C6" s="328" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="294" t="s">
+      <c r="D6" s="328" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="283" t="s">
+      <c r="E6" s="315" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="283" t="s">
+      <c r="F6" s="315" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="283" t="s">
+      <c r="G6" s="315" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="283" t="s">
+      <c r="H6" s="315" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="283" t="s">
+      <c r="I6" s="315" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="272" t="s">
+      <c r="J6" s="304" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="273"/>
-      <c r="L6" s="272" t="s">
+      <c r="K6" s="305"/>
+      <c r="L6" s="304" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="281"/>
-      <c r="N6" s="281"/>
-      <c r="O6" s="273"/>
-      <c r="P6" s="272" t="s">
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="305"/>
+      <c r="P6" s="304" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="273"/>
-      <c r="R6" s="272" t="s">
+      <c r="Q6" s="305"/>
+      <c r="R6" s="304" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="273"/>
-      <c r="T6" s="272" t="s">
+      <c r="S6" s="305"/>
+      <c r="T6" s="304" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="273"/>
-      <c r="V6" s="272" t="s">
+      <c r="U6" s="305"/>
+      <c r="V6" s="304" t="s">
         <v>75</v>
       </c>
-      <c r="W6" s="273"/>
+      <c r="W6" s="305"/>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="295"/>
-      <c r="B7" s="295"/>
-      <c r="C7" s="295"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="274"/>
-      <c r="K7" s="275"/>
-      <c r="L7" s="274"/>
-      <c r="M7" s="282"/>
-      <c r="N7" s="282"/>
-      <c r="O7" s="275"/>
-      <c r="P7" s="274"/>
-      <c r="Q7" s="275"/>
-      <c r="R7" s="274"/>
-      <c r="S7" s="275"/>
-      <c r="T7" s="274"/>
-      <c r="U7" s="275"/>
-      <c r="V7" s="274"/>
-      <c r="W7" s="275"/>
+      <c r="A7" s="329"/>
+      <c r="B7" s="329"/>
+      <c r="C7" s="329"/>
+      <c r="D7" s="329"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="306"/>
+      <c r="K7" s="307"/>
+      <c r="L7" s="306"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="307"/>
+      <c r="P7" s="306"/>
+      <c r="Q7" s="307"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="307"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="307"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="307"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="295"/>
-      <c r="B8" s="295"/>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="288" t="s">
+      <c r="A8" s="329"/>
+      <c r="B8" s="329"/>
+      <c r="C8" s="329"/>
+      <c r="D8" s="329"/>
+      <c r="E8" s="316"/>
+      <c r="F8" s="316"/>
+      <c r="G8" s="316"/>
+      <c r="H8" s="316"/>
+      <c r="I8" s="316"/>
+      <c r="J8" s="322" t="s">
         <v>76</v>
       </c>
       <c r="K8" s="320" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="286" t="s">
+      <c r="L8" s="318" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="286" t="s">
+      <c r="M8" s="318" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="286" t="s">
+      <c r="N8" s="318" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="286" t="s">
+      <c r="O8" s="318" t="s">
         <v>189</v>
       </c>
-      <c r="P8" s="288" t="s">
+      <c r="P8" s="322" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="288" t="s">
+      <c r="Q8" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="288" t="s">
+      <c r="R8" s="322" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="288" t="s">
+      <c r="S8" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="288" t="s">
+      <c r="T8" s="322" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="288" t="s">
+      <c r="U8" s="322" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="292" t="s">
+      <c r="V8" s="326" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="290" t="s">
+      <c r="W8" s="324" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="296"/>
-      <c r="B9" s="296"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="289"/>
+      <c r="A9" s="330"/>
+      <c r="B9" s="330"/>
+      <c r="C9" s="330"/>
+      <c r="D9" s="330"/>
+      <c r="E9" s="317"/>
+      <c r="F9" s="317"/>
+      <c r="G9" s="317"/>
+      <c r="H9" s="317"/>
+      <c r="I9" s="317"/>
+      <c r="J9" s="323"/>
       <c r="K9" s="321"/>
-      <c r="L9" s="287"/>
-      <c r="M9" s="287"/>
-      <c r="N9" s="287"/>
-      <c r="O9" s="287"/>
-      <c r="P9" s="289"/>
-      <c r="Q9" s="289"/>
-      <c r="R9" s="289"/>
-      <c r="S9" s="289"/>
-      <c r="T9" s="289"/>
-      <c r="U9" s="289"/>
-      <c r="V9" s="293"/>
-      <c r="W9" s="291"/>
-    </row>
-    <row r="226" spans="1:31" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L9" s="319"/>
+      <c r="M9" s="319"/>
+      <c r="N9" s="319"/>
+      <c r="O9" s="319"/>
+      <c r="P9" s="323"/>
+      <c r="Q9" s="323"/>
+      <c r="R9" s="323"/>
+      <c r="S9" s="323"/>
+      <c r="T9" s="323"/>
+      <c r="U9" s="323"/>
+      <c r="V9" s="327"/>
+      <c r="W9" s="325"/>
+    </row>
+    <row r="226" spans="1:31" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="152"/>
       <c r="B226" s="152"/>
       <c r="C226" s="152"/>
@@ -39878,17 +39776,17 @@
       <c r="W226" s="152"/>
       <c r="X226" s="152"/>
       <c r="Y226" s="152"/>
-      <c r="Z226" s="322"/>
-      <c r="AA226" s="323"/>
-      <c r="AB226" s="323"/>
-      <c r="AC226" s="324"/>
-      <c r="AD226" s="325"/>
-      <c r="AE226" s="326"/>
-    </row>
-    <row r="227" spans="1:31" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A227" s="328"/>
-      <c r="B227" s="329"/>
-      <c r="C227" s="330"/>
+      <c r="Z226" s="154"/>
+      <c r="AA226" s="155"/>
+      <c r="AB226" s="155"/>
+      <c r="AC226" s="156"/>
+      <c r="AD226" s="157"/>
+      <c r="AE226" s="158"/>
+    </row>
+    <row r="227" spans="1:31" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A227" s="160"/>
+      <c r="B227" s="161"/>
+      <c r="C227" s="162"/>
       <c r="E227" s="152"/>
       <c r="F227" s="152"/>
       <c r="G227" s="152"/>
@@ -39909,146 +39807,146 @@
       <c r="V227" s="152"/>
       <c r="W227" s="152"/>
       <c r="X227" s="152"/>
-      <c r="Y227" s="322"/>
-      <c r="Z227" s="322"/>
-      <c r="AA227" s="323"/>
-      <c r="AB227" s="323"/>
-      <c r="AC227" s="324"/>
-      <c r="AD227" s="325"/>
-      <c r="AE227" s="326"/>
-    </row>
-    <row r="228" spans="1:31" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A228" s="328"/>
-      <c r="B228" s="329"/>
-      <c r="C228" s="328"/>
-      <c r="E228" s="331"/>
-      <c r="F228" s="332"/>
-      <c r="G228" s="333"/>
-      <c r="H228" s="332"/>
-      <c r="I228" s="333"/>
-      <c r="J228" s="332"/>
-      <c r="K228" s="332"/>
-      <c r="L228" s="332"/>
-      <c r="M228" s="332"/>
-      <c r="N228" s="332"/>
-      <c r="O228" s="332"/>
-      <c r="P228" s="332"/>
-      <c r="Q228" s="332"/>
-      <c r="R228" s="332"/>
-      <c r="S228" s="332"/>
-      <c r="T228" s="332"/>
-      <c r="U228" s="332"/>
-      <c r="V228" s="332"/>
-      <c r="W228" s="332"/>
-      <c r="X228" s="334"/>
-      <c r="Y228" s="334"/>
-      <c r="Z228" s="334"/>
-      <c r="AA228" s="323"/>
-      <c r="AB228" s="323"/>
-      <c r="AC228" s="324"/>
-      <c r="AD228" s="325"/>
-      <c r="AE228" s="326"/>
-    </row>
-    <row r="229" spans="1:31" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A229" s="328"/>
-      <c r="B229" s="329"/>
-      <c r="C229" s="328"/>
-      <c r="E229" s="331"/>
-      <c r="F229" s="332"/>
-      <c r="G229" s="333"/>
-      <c r="H229" s="332"/>
-      <c r="I229" s="333"/>
-      <c r="J229" s="332"/>
-      <c r="K229" s="332"/>
-      <c r="L229" s="332"/>
-      <c r="M229" s="332"/>
-      <c r="N229" s="332"/>
-      <c r="O229" s="332"/>
-      <c r="P229" s="332"/>
-      <c r="Q229" s="332"/>
-      <c r="R229" s="332"/>
-      <c r="S229" s="332"/>
-      <c r="T229" s="332"/>
-      <c r="U229" s="332"/>
-      <c r="V229" s="332"/>
-      <c r="W229" s="332"/>
-      <c r="X229" s="334"/>
-      <c r="Y229" s="334"/>
-      <c r="Z229" s="334"/>
-      <c r="AA229" s="323"/>
-      <c r="AB229" s="323"/>
-      <c r="AC229" s="324"/>
-      <c r="AD229" s="325"/>
-      <c r="AE229" s="326"/>
-    </row>
-    <row r="230" spans="1:31" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A230" s="328"/>
-      <c r="B230" s="329"/>
-      <c r="C230" s="328"/>
-      <c r="E230" s="331"/>
-      <c r="F230" s="332"/>
-      <c r="G230" s="333"/>
-      <c r="H230" s="332"/>
-      <c r="I230" s="333"/>
-      <c r="J230" s="332"/>
-      <c r="K230" s="332"/>
-      <c r="L230" s="332"/>
-      <c r="M230" s="332"/>
-      <c r="N230" s="332"/>
-      <c r="O230" s="332"/>
-      <c r="P230" s="332"/>
-      <c r="Q230" s="332"/>
-      <c r="R230" s="332"/>
-      <c r="S230" s="332"/>
-      <c r="T230" s="332"/>
-      <c r="U230" s="332"/>
-      <c r="V230" s="332"/>
-      <c r="W230" s="332"/>
-      <c r="X230" s="334"/>
-      <c r="Y230" s="334"/>
-      <c r="Z230" s="334"/>
-      <c r="AA230" s="323"/>
-      <c r="AB230" s="323"/>
-      <c r="AC230" s="324"/>
-      <c r="AD230" s="325"/>
-      <c r="AE230" s="326"/>
-    </row>
-    <row r="231" spans="1:31" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A231" s="328"/>
-      <c r="B231" s="329"/>
-      <c r="C231" s="328"/>
-      <c r="E231" s="331"/>
-      <c r="F231" s="332"/>
-      <c r="G231" s="333"/>
-      <c r="H231" s="332"/>
-      <c r="I231" s="333"/>
-      <c r="J231" s="332"/>
-      <c r="K231" s="332"/>
-      <c r="L231" s="332"/>
-      <c r="M231" s="332"/>
-      <c r="N231" s="332"/>
-      <c r="O231" s="332"/>
-      <c r="P231" s="332"/>
-      <c r="Q231" s="332"/>
-      <c r="R231" s="335"/>
-      <c r="S231" s="332"/>
-      <c r="T231" s="332"/>
-      <c r="U231" s="332"/>
-      <c r="V231" s="332"/>
-      <c r="W231" s="332"/>
-      <c r="X231" s="334"/>
-      <c r="Y231" s="334"/>
-      <c r="Z231" s="334"/>
-      <c r="AA231" s="323"/>
-      <c r="AB231" s="323"/>
-      <c r="AC231" s="324"/>
-      <c r="AD231" s="325"/>
-      <c r="AE231" s="326"/>
-    </row>
-    <row r="232" spans="1:31" s="327" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A232" s="328"/>
-      <c r="B232" s="329"/>
-      <c r="C232" s="328"/>
+      <c r="Y227" s="154"/>
+      <c r="Z227" s="154"/>
+      <c r="AA227" s="155"/>
+      <c r="AB227" s="155"/>
+      <c r="AC227" s="156"/>
+      <c r="AD227" s="157"/>
+      <c r="AE227" s="158"/>
+    </row>
+    <row r="228" spans="1:31" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A228" s="160"/>
+      <c r="B228" s="161"/>
+      <c r="C228" s="160"/>
+      <c r="E228" s="163"/>
+      <c r="F228" s="164"/>
+      <c r="G228" s="165"/>
+      <c r="H228" s="164"/>
+      <c r="I228" s="165"/>
+      <c r="J228" s="164"/>
+      <c r="K228" s="164"/>
+      <c r="L228" s="164"/>
+      <c r="M228" s="164"/>
+      <c r="N228" s="164"/>
+      <c r="O228" s="164"/>
+      <c r="P228" s="164"/>
+      <c r="Q228" s="164"/>
+      <c r="R228" s="164"/>
+      <c r="S228" s="164"/>
+      <c r="T228" s="164"/>
+      <c r="U228" s="164"/>
+      <c r="V228" s="164"/>
+      <c r="W228" s="164"/>
+      <c r="X228" s="166"/>
+      <c r="Y228" s="166"/>
+      <c r="Z228" s="166"/>
+      <c r="AA228" s="155"/>
+      <c r="AB228" s="155"/>
+      <c r="AC228" s="156"/>
+      <c r="AD228" s="157"/>
+      <c r="AE228" s="158"/>
+    </row>
+    <row r="229" spans="1:31" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A229" s="160"/>
+      <c r="B229" s="161"/>
+      <c r="C229" s="160"/>
+      <c r="E229" s="163"/>
+      <c r="F229" s="164"/>
+      <c r="G229" s="165"/>
+      <c r="H229" s="164"/>
+      <c r="I229" s="165"/>
+      <c r="J229" s="164"/>
+      <c r="K229" s="164"/>
+      <c r="L229" s="164"/>
+      <c r="M229" s="164"/>
+      <c r="N229" s="164"/>
+      <c r="O229" s="164"/>
+      <c r="P229" s="164"/>
+      <c r="Q229" s="164"/>
+      <c r="R229" s="164"/>
+      <c r="S229" s="164"/>
+      <c r="T229" s="164"/>
+      <c r="U229" s="164"/>
+      <c r="V229" s="164"/>
+      <c r="W229" s="164"/>
+      <c r="X229" s="166"/>
+      <c r="Y229" s="166"/>
+      <c r="Z229" s="166"/>
+      <c r="AA229" s="155"/>
+      <c r="AB229" s="155"/>
+      <c r="AC229" s="156"/>
+      <c r="AD229" s="157"/>
+      <c r="AE229" s="158"/>
+    </row>
+    <row r="230" spans="1:31" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A230" s="160"/>
+      <c r="B230" s="161"/>
+      <c r="C230" s="160"/>
+      <c r="E230" s="163"/>
+      <c r="F230" s="164"/>
+      <c r="G230" s="165"/>
+      <c r="H230" s="164"/>
+      <c r="I230" s="165"/>
+      <c r="J230" s="164"/>
+      <c r="K230" s="164"/>
+      <c r="L230" s="164"/>
+      <c r="M230" s="164"/>
+      <c r="N230" s="164"/>
+      <c r="O230" s="164"/>
+      <c r="P230" s="164"/>
+      <c r="Q230" s="164"/>
+      <c r="R230" s="164"/>
+      <c r="S230" s="164"/>
+      <c r="T230" s="164"/>
+      <c r="U230" s="164"/>
+      <c r="V230" s="164"/>
+      <c r="W230" s="164"/>
+      <c r="X230" s="166"/>
+      <c r="Y230" s="166"/>
+      <c r="Z230" s="166"/>
+      <c r="AA230" s="155"/>
+      <c r="AB230" s="155"/>
+      <c r="AC230" s="156"/>
+      <c r="AD230" s="157"/>
+      <c r="AE230" s="158"/>
+    </row>
+    <row r="231" spans="1:31" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A231" s="160"/>
+      <c r="B231" s="161"/>
+      <c r="C231" s="160"/>
+      <c r="E231" s="163"/>
+      <c r="F231" s="164"/>
+      <c r="G231" s="165"/>
+      <c r="H231" s="164"/>
+      <c r="I231" s="165"/>
+      <c r="J231" s="164"/>
+      <c r="K231" s="164"/>
+      <c r="L231" s="164"/>
+      <c r="M231" s="164"/>
+      <c r="N231" s="164"/>
+      <c r="O231" s="164"/>
+      <c r="P231" s="164"/>
+      <c r="Q231" s="164"/>
+      <c r="R231" s="167"/>
+      <c r="S231" s="164"/>
+      <c r="T231" s="164"/>
+      <c r="U231" s="164"/>
+      <c r="V231" s="164"/>
+      <c r="W231" s="164"/>
+      <c r="X231" s="166"/>
+      <c r="Y231" s="166"/>
+      <c r="Z231" s="166"/>
+      <c r="AA231" s="155"/>
+      <c r="AB231" s="155"/>
+      <c r="AC231" s="156"/>
+      <c r="AD231" s="157"/>
+      <c r="AE231" s="158"/>
+    </row>
+    <row r="232" spans="1:31" s="159" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A232" s="160"/>
+      <c r="B232" s="161"/>
+      <c r="C232" s="160"/>
       <c r="E232" s="152"/>
       <c r="F232" s="152"/>
       <c r="G232" s="152"/>
@@ -40069,13 +39967,13 @@
       <c r="V232" s="152"/>
       <c r="W232" s="152"/>
       <c r="X232" s="152"/>
-      <c r="Y232" s="322"/>
-      <c r="Z232" s="322"/>
-      <c r="AA232" s="323"/>
-      <c r="AB232" s="323"/>
-      <c r="AC232" s="324"/>
-      <c r="AD232" s="325"/>
-      <c r="AE232" s="326"/>
+      <c r="Y232" s="154"/>
+      <c r="Z232" s="154"/>
+      <c r="AA232" s="155"/>
+      <c r="AB232" s="155"/>
+      <c r="AC232" s="156"/>
+      <c r="AD232" s="157"/>
+      <c r="AE232" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -40150,40 +40048,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="303" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="334" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="300"/>
-      <c r="C2" s="300"/>
-      <c r="D2" s="300"/>
-      <c r="E2" s="300"/>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="300"/>
-      <c r="L2" s="300"/>
-      <c r="M2" s="300"/>
-      <c r="N2" s="300"/>
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8"/>
@@ -40202,54 +40100,54 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="301" t="s">
+      <c r="A4" s="335" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
-      <c r="I4" s="301"/>
-      <c r="J4" s="301"/>
-      <c r="K4" s="301"/>
-      <c r="L4" s="301"/>
-      <c r="M4" s="301"/>
-      <c r="N4" s="301"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="335"/>
+      <c r="D4" s="335"/>
+      <c r="E4" s="335"/>
+      <c r="F4" s="335"/>
+      <c r="G4" s="335"/>
+      <c r="H4" s="335"/>
+      <c r="I4" s="335"/>
+      <c r="J4" s="335"/>
+      <c r="K4" s="335"/>
+      <c r="L4" s="335"/>
+      <c r="M4" s="335"/>
+      <c r="N4" s="335"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="302"/>
-      <c r="B5" s="302"/>
-      <c r="C5" s="302"/>
-      <c r="D5" s="302"/>
-      <c r="E5" s="302"/>
-      <c r="F5" s="302"/>
-      <c r="G5" s="302"/>
-      <c r="H5" s="302"/>
-      <c r="I5" s="302"/>
-      <c r="J5" s="302"/>
-      <c r="K5" s="302"/>
-      <c r="L5" s="302"/>
-      <c r="M5" s="302"/>
-      <c r="N5" s="302"/>
+      <c r="A5" s="336"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="336"/>
+      <c r="G5" s="336"/>
+      <c r="H5" s="336"/>
+      <c r="I5" s="336"/>
+      <c r="J5" s="336"/>
+      <c r="K5" s="336"/>
+      <c r="L5" s="336"/>
+      <c r="M5" s="336"/>
+      <c r="N5" s="336"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="302"/>
-      <c r="B6" s="302"/>
-      <c r="C6" s="302"/>
-      <c r="D6" s="302"/>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="302"/>
-      <c r="N6" s="302"/>
+      <c r="A6" s="336"/>
+      <c r="B6" s="336"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="336"/>
+      <c r="G6" s="336"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
+      <c r="J6" s="336"/>
+      <c r="K6" s="336"/>
+      <c r="L6" s="336"/>
+      <c r="M6" s="336"/>
+      <c r="N6" s="336"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="109"/>
@@ -40261,106 +40159,106 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="336"/>
-      <c r="N7" s="336"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="168"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="269" t="s">
+      <c r="A8" s="299" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="269" t="s">
+      <c r="B8" s="299" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="303" t="s">
+      <c r="C8" s="337" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="269" t="s">
+      <c r="D8" s="299" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="297" t="s">
+      <c r="E8" s="331" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="297"/>
-      <c r="G8" s="297" t="s">
+      <c r="F8" s="331"/>
+      <c r="G8" s="331" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="297"/>
-      <c r="I8" s="297"/>
-      <c r="J8" s="297"/>
-      <c r="K8" s="297" t="s">
+      <c r="H8" s="331"/>
+      <c r="I8" s="331"/>
+      <c r="J8" s="331"/>
+      <c r="K8" s="331" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="297" t="s">
+      <c r="L8" s="331" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="298" t="s">
+      <c r="M8" s="332" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="298"/>
+      <c r="N8" s="332"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="269"/>
-      <c r="B9" s="269"/>
-      <c r="C9" s="304"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="297"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="297"/>
-      <c r="L9" s="297"/>
-      <c r="M9" s="298"/>
-      <c r="N9" s="298"/>
+      <c r="A9" s="299"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="338"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="331"/>
+      <c r="H9" s="331"/>
+      <c r="I9" s="331"/>
+      <c r="J9" s="331"/>
+      <c r="K9" s="331"/>
+      <c r="L9" s="331"/>
+      <c r="M9" s="332"/>
+      <c r="N9" s="332"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="269"/>
-      <c r="B10" s="269"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="269"/>
-      <c r="E10" s="306" t="s">
+      <c r="A10" s="299"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="340" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="306" t="s">
+      <c r="F10" s="340" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="297" t="s">
+      <c r="G10" s="331" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="297" t="s">
+      <c r="H10" s="331" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="297" t="s">
+      <c r="I10" s="331" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="297" t="s">
+      <c r="J10" s="331" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="297"/>
-      <c r="L10" s="297"/>
-      <c r="M10" s="299" t="s">
+      <c r="K10" s="331"/>
+      <c r="L10" s="331"/>
+      <c r="M10" s="333" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="299" t="s">
+      <c r="N10" s="333" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="269"/>
-      <c r="B11" s="269"/>
-      <c r="C11" s="305"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="306"/>
-      <c r="F11" s="306"/>
-      <c r="G11" s="297"/>
-      <c r="H11" s="297"/>
-      <c r="I11" s="297"/>
-      <c r="J11" s="297"/>
-      <c r="K11" s="297"/>
-      <c r="L11" s="297"/>
-      <c r="M11" s="299"/>
-      <c r="N11" s="299"/>
+      <c r="A11" s="299"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="339"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="340"/>
+      <c r="F11" s="340"/>
+      <c r="G11" s="331"/>
+      <c r="H11" s="331"/>
+      <c r="I11" s="331"/>
+      <c r="J11" s="331"/>
+      <c r="K11" s="331"/>
+      <c r="L11" s="331"/>
+      <c r="M11" s="333"/>
+      <c r="N11" s="333"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -40404,89 +40302,89 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="349" customWidth="1"/>
-    <col min="2" max="2" width="38" style="350" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="351" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="351" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" style="351" customWidth="1"/>
-    <col min="6" max="6" width="18" style="351" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="349" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="349"/>
+    <col min="1" max="1" width="8.5703125" style="178" customWidth="1"/>
+    <col min="2" max="2" width="38" style="179" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="180" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="180" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="180" customWidth="1"/>
+    <col min="6" max="6" width="18" style="180" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="178" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="178"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="346" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="307" t="s">
+    <row r="1" spans="1:9" s="175" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="341" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
       <c r="H1" s="119"/>
     </row>
-    <row r="2" spans="1:9" s="346" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="308" t="s">
+    <row r="2" spans="1:9" s="175" customFormat="1" ht="39.950000000000003" customHeight="1">
+      <c r="A2" s="342" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
       <c r="H2" s="120"/>
       <c r="I2" s="120"/>
     </row>
-    <row r="3" spans="1:9" s="346" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="309"/>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
+    <row r="3" spans="1:9" s="175" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="343"/>
+      <c r="B3" s="343"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="343"/>
       <c r="H3" s="121"/>
     </row>
-    <row r="4" spans="1:9" s="338" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="337" t="s">
+    <row r="4" spans="1:9" s="169" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="344" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="337"/>
-      <c r="C4" s="337"/>
-      <c r="D4" s="337"/>
-      <c r="E4" s="337"/>
-      <c r="F4" s="337"/>
-      <c r="G4" s="337"/>
-      <c r="H4" s="328"/>
-    </row>
-    <row r="5" spans="1:9" s="338" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="339"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
+      <c r="B4" s="344"/>
+      <c r="C4" s="344"/>
+      <c r="D4" s="344"/>
+      <c r="E4" s="344"/>
+      <c r="F4" s="344"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="160"/>
+    </row>
+    <row r="5" spans="1:9" s="169" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="170"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
     </row>
     <row r="6" spans="1:9" s="122" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="341" t="s">
+      <c r="A6" s="346" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="341" t="s">
+      <c r="B6" s="346" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="342" t="s">
+      <c r="C6" s="345" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="342"/>
-      <c r="E6" s="342"/>
-      <c r="F6" s="342"/>
-      <c r="G6" s="342"/>
+      <c r="D6" s="345"/>
+      <c r="E6" s="345"/>
+      <c r="F6" s="345"/>
+      <c r="G6" s="345"/>
       <c r="H6" s="151"/>
     </row>
-    <row r="7" spans="1:9" s="338" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="341"/>
-      <c r="B7" s="341"/>
+    <row r="7" spans="1:9" s="169" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="346"/>
+      <c r="B7" s="346"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -40505,21 +40403,21 @@
       <c r="H7" s="123"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="341"/>
-      <c r="B8" s="341"/>
-      <c r="C8" s="347" t="s">
+      <c r="A8" s="346"/>
+      <c r="B8" s="346"/>
+      <c r="C8" s="176" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="348" t="s">
+      <c r="D8" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="348" t="s">
+      <c r="E8" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="348" t="s">
+      <c r="F8" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="348"/>
+      <c r="G8" s="177"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -40548,77 +40446,77 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="343"/>
-    <col min="2" max="2" width="36.28515625" style="344" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="345" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="345" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="345" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="345" customWidth="1"/>
-    <col min="7" max="7" width="14" style="343" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="343"/>
+    <col min="1" max="1" width="9.28515625" style="172"/>
+    <col min="2" max="2" width="36.28515625" style="173" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="174" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="174" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="174" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="174" customWidth="1"/>
+    <col min="7" max="7" width="14" style="172" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.28515625" style="172"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="341" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
+      <c r="B1" s="341"/>
+      <c r="C1" s="341"/>
+      <c r="D1" s="341"/>
+      <c r="E1" s="341"/>
+      <c r="F1" s="341"/>
+      <c r="G1" s="341"/>
     </row>
     <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="342" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="308"/>
-      <c r="C2" s="308"/>
-      <c r="D2" s="308"/>
-      <c r="E2" s="308"/>
-      <c r="F2" s="308"/>
-      <c r="G2" s="308"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="342"/>
+      <c r="D2" s="342"/>
+      <c r="E2" s="342"/>
+      <c r="F2" s="342"/>
+      <c r="G2" s="342"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="309"/>
-      <c r="B3" s="309"/>
-      <c r="C3" s="309"/>
-      <c r="D3" s="309"/>
-      <c r="E3" s="309"/>
-      <c r="F3" s="309"/>
-      <c r="G3" s="309"/>
+      <c r="A3" s="343"/>
+      <c r="B3" s="343"/>
+      <c r="C3" s="343"/>
+      <c r="D3" s="343"/>
+      <c r="E3" s="343"/>
+      <c r="F3" s="343"/>
+      <c r="G3" s="343"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="310" t="s">
+      <c r="A4" s="347" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
-      <c r="G4" s="310"/>
+      <c r="B4" s="347"/>
+      <c r="C4" s="347"/>
+      <c r="D4" s="347"/>
+      <c r="E4" s="347"/>
+      <c r="F4" s="347"/>
+      <c r="G4" s="347"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="311" t="s">
+      <c r="A5" s="348" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="311" t="s">
+      <c r="B5" s="348" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="312" t="s">
+      <c r="C5" s="349" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="312"/>
-      <c r="E5" s="312"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="312"/>
-      <c r="H5" s="352"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="181"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="311"/>
-      <c r="B6" s="311"/>
+      <c r="A6" s="348"/>
+      <c r="B6" s="348"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -40636,8 +40534,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="311"/>
-      <c r="B7" s="311"/>
+      <c r="A7" s="348"/>
+      <c r="B7" s="348"/>
       <c r="C7" s="111" t="s">
         <v>40</v>
       </c>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78DA199-7D70-486C-A5B5-8F1702D771A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D584CD-370B-40CD-B564-F3B9B5E161DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" tabRatio="802" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="229">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -736,10 +736,13 @@
     <t>(8)</t>
   </si>
   <si>
-    <t>BIỂU TÍNH GIÁ BÁN CHO TỔNG CÔNG TY DỊCH VỤ XĂNG DẦU PETROLIMEX TẠI KHO HÀ NAM NINH</t>
+    <t>31.12.9999</t>
   </si>
   <si>
-    <t>LTT CÓ THUẾ VAT &amp; BVMT</t>
+    <t>Vùng thị trường trung tâm</t>
+  </si>
+  <si>
+    <t>Các vùng thị trường còn lại</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2161,7 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2581,9 +2584,6 @@
     <xf numFmtId="176" fontId="56" fillId="2" borderId="23" xfId="159" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="1" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="49" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2835,26 +2835,6 @@
       <alignment horizontal="centerContinuous"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="46" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2889,14 +2869,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2975,6 +2947,15 @@
     <xf numFmtId="0" fontId="39" fillId="2" borderId="33" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="1" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="11" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3113,6 +3094,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3121,284 +3138,243 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="21" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="21" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="18" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="21" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="21" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3453,21 +3429,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3505,12 +3478,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3564,8 +3531,26 @@
     <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3636,13 +3621,7 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="11" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="212" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3810,14 +3789,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="239">
     <cellStyle name="20% - Accent1 2" xfId="10" xr:uid="{E00AEB10-11DA-4F4B-86BF-145D9E78C736}"/>
@@ -4399,8 +4374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DFD16-6734-4240-8F57-B4E46BBCF2BD}">
   <dimension ref="A2:AH200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88:C91"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L100" sqref="L100:P100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="30" customHeight="1"/>
@@ -4432,350 +4407,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="30" customHeight="1">
-      <c r="G2" s="428"/>
-      <c r="H2" s="429"/>
-      <c r="I2" s="429"/>
-      <c r="J2" s="429"/>
-      <c r="K2" s="429"/>
-      <c r="L2" s="429"/>
-      <c r="M2" s="430"/>
-      <c r="R2" s="452" t="s">
+      <c r="G2" s="419"/>
+      <c r="H2" s="420"/>
+      <c r="I2" s="420"/>
+      <c r="J2" s="420"/>
+      <c r="K2" s="420"/>
+      <c r="L2" s="420"/>
+      <c r="M2" s="421"/>
+      <c r="R2" s="448" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="453"/>
-      <c r="T2" s="453"/>
-      <c r="U2" s="453"/>
-      <c r="V2" s="453"/>
-      <c r="W2" s="453"/>
-      <c r="X2" s="453"/>
-      <c r="Y2" s="453"/>
-      <c r="Z2" s="454"/>
+      <c r="S2" s="449"/>
+      <c r="T2" s="449"/>
+      <c r="U2" s="449"/>
+      <c r="V2" s="449"/>
+      <c r="W2" s="449"/>
+      <c r="X2" s="449"/>
+      <c r="Y2" s="449"/>
+      <c r="Z2" s="450"/>
     </row>
     <row r="3" spans="2:26" ht="30" customHeight="1">
-      <c r="B3" s="404" t="s">
+      <c r="B3" s="396" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="404"/>
-      <c r="D3" s="404"/>
-      <c r="E3" s="404"/>
-      <c r="G3" s="431"/>
-      <c r="H3" s="432"/>
-      <c r="I3" s="432"/>
-      <c r="J3" s="432"/>
-      <c r="K3" s="432"/>
-      <c r="L3" s="432"/>
-      <c r="M3" s="433"/>
-      <c r="R3" s="458"/>
-      <c r="S3" s="459"/>
-      <c r="T3" s="459"/>
-      <c r="U3" s="459"/>
-      <c r="V3" s="459"/>
-      <c r="W3" s="459"/>
-      <c r="X3" s="459"/>
-      <c r="Y3" s="459"/>
-      <c r="Z3" s="460"/>
+      <c r="C3" s="396"/>
+      <c r="D3" s="396"/>
+      <c r="E3" s="396"/>
+      <c r="G3" s="422"/>
+      <c r="H3" s="423"/>
+      <c r="I3" s="423"/>
+      <c r="J3" s="423"/>
+      <c r="K3" s="423"/>
+      <c r="L3" s="423"/>
+      <c r="M3" s="424"/>
+      <c r="R3" s="262"/>
+      <c r="S3" s="454"/>
+      <c r="T3" s="454"/>
+      <c r="U3" s="454"/>
+      <c r="V3" s="454"/>
+      <c r="W3" s="454"/>
+      <c r="X3" s="454"/>
+      <c r="Y3" s="454"/>
+      <c r="Z3" s="263"/>
     </row>
     <row r="4" spans="2:26" ht="42" customHeight="1">
-      <c r="B4" s="404"/>
-      <c r="C4" s="404"/>
-      <c r="D4" s="404"/>
-      <c r="E4" s="404"/>
-      <c r="G4" s="411" t="s">
+      <c r="B4" s="396"/>
+      <c r="C4" s="396"/>
+      <c r="D4" s="396"/>
+      <c r="E4" s="396"/>
+      <c r="G4" s="404" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="412"/>
-      <c r="I4" s="434" t="s">
+      <c r="H4" s="405"/>
+      <c r="I4" s="425" t="s">
         <v>177</v>
       </c>
-      <c r="J4" s="435"/>
-      <c r="K4" s="435"/>
-      <c r="L4" s="435"/>
-      <c r="M4" s="436"/>
-      <c r="R4" s="455" t="s">
+      <c r="J4" s="426"/>
+      <c r="K4" s="426"/>
+      <c r="L4" s="426"/>
+      <c r="M4" s="427"/>
+      <c r="R4" s="451" t="s">
         <v>178</v>
       </c>
-      <c r="S4" s="456"/>
-      <c r="T4" s="456"/>
-      <c r="U4" s="456"/>
-      <c r="V4" s="456"/>
-      <c r="W4" s="456"/>
-      <c r="X4" s="456"/>
-      <c r="Y4" s="456"/>
-      <c r="Z4" s="457"/>
+      <c r="S4" s="452"/>
+      <c r="T4" s="452"/>
+      <c r="U4" s="452"/>
+      <c r="V4" s="452"/>
+      <c r="W4" s="452"/>
+      <c r="X4" s="452"/>
+      <c r="Y4" s="452"/>
+      <c r="Z4" s="453"/>
     </row>
     <row r="5" spans="2:26" ht="63" customHeight="1">
-      <c r="B5" s="248" t="s">
+      <c r="B5" s="240" t="s">
         <v>179</v>
       </c>
-      <c r="C5" s="404" t="s">
+      <c r="C5" s="396" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="404"/>
-      <c r="E5" s="248" t="s">
+      <c r="D5" s="396"/>
+      <c r="E5" s="240" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="413"/>
-      <c r="H5" s="414"/>
-      <c r="I5" s="415" t="s">
+      <c r="G5" s="406"/>
+      <c r="H5" s="407"/>
+      <c r="I5" s="408" t="s">
         <v>182</v>
       </c>
-      <c r="J5" s="416"/>
-      <c r="K5" s="425" t="s">
+      <c r="J5" s="409"/>
+      <c r="K5" s="416" t="s">
         <v>183</v>
       </c>
-      <c r="L5" s="426"/>
-      <c r="M5" s="427"/>
-      <c r="R5" s="267" t="s">
+      <c r="L5" s="417"/>
+      <c r="M5" s="418"/>
+      <c r="R5" s="259" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="438" t="s">
+      <c r="S5" s="434" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="439"/>
-      <c r="U5" s="438" t="s">
+      <c r="T5" s="435"/>
+      <c r="U5" s="434" t="s">
         <v>184</v>
       </c>
-      <c r="V5" s="439"/>
-      <c r="W5" s="438" t="s">
+      <c r="V5" s="435"/>
+      <c r="W5" s="434" t="s">
         <v>185</v>
       </c>
-      <c r="X5" s="439"/>
-      <c r="Y5" s="438" t="s">
+      <c r="X5" s="435"/>
+      <c r="Y5" s="434" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" s="439"/>
+      <c r="Z5" s="435"/>
     </row>
     <row r="6" spans="2:26" ht="30" customHeight="1">
-      <c r="B6" s="249"/>
-      <c r="C6" s="437"/>
-      <c r="D6" s="437"/>
-      <c r="E6" s="249"/>
-      <c r="G6" s="283"/>
-      <c r="H6" s="284"/>
-      <c r="I6" s="417"/>
-      <c r="J6" s="418"/>
-      <c r="K6" s="419"/>
-      <c r="L6" s="420"/>
-      <c r="M6" s="421"/>
-      <c r="R6" s="268" t="s">
+      <c r="B6" s="241"/>
+      <c r="C6" s="397"/>
+      <c r="D6" s="397"/>
+      <c r="E6" s="241"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="394"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="410"/>
+      <c r="L6" s="411"/>
+      <c r="M6" s="412"/>
+      <c r="R6" s="260" t="s">
         <v>144</v>
       </c>
-      <c r="S6" s="440"/>
-      <c r="T6" s="441"/>
-      <c r="U6" s="441"/>
-      <c r="V6" s="441"/>
-      <c r="W6" s="441"/>
-      <c r="X6" s="441"/>
-      <c r="Y6" s="441"/>
-      <c r="Z6" s="442"/>
+      <c r="S6" s="436"/>
+      <c r="T6" s="437"/>
+      <c r="U6" s="437"/>
+      <c r="V6" s="437"/>
+      <c r="W6" s="437"/>
+      <c r="X6" s="437"/>
+      <c r="Y6" s="437"/>
+      <c r="Z6" s="438"/>
     </row>
     <row r="7" spans="2:26" ht="30" customHeight="1">
-      <c r="B7" s="249"/>
-      <c r="C7" s="437"/>
-      <c r="D7" s="437"/>
-      <c r="E7" s="249"/>
-      <c r="G7" s="283"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="417"/>
-      <c r="J7" s="418"/>
-      <c r="K7" s="419"/>
-      <c r="L7" s="420"/>
-      <c r="M7" s="421"/>
-      <c r="R7" s="255">
+      <c r="B7" s="241"/>
+      <c r="C7" s="397"/>
+      <c r="D7" s="397"/>
+      <c r="E7" s="241"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="279"/>
+      <c r="I7" s="394"/>
+      <c r="J7" s="395"/>
+      <c r="K7" s="410"/>
+      <c r="L7" s="411"/>
+      <c r="M7" s="412"/>
+      <c r="R7" s="247">
         <v>1</v>
       </c>
-      <c r="S7" s="303"/>
-      <c r="T7" s="304"/>
-      <c r="U7" s="281"/>
-      <c r="V7" s="282"/>
-      <c r="W7" s="281"/>
-      <c r="X7" s="282"/>
-      <c r="Y7" s="281"/>
-      <c r="Z7" s="282"/>
+      <c r="S7" s="298"/>
+      <c r="T7" s="299"/>
+      <c r="U7" s="276"/>
+      <c r="V7" s="277"/>
+      <c r="W7" s="276"/>
+      <c r="X7" s="277"/>
+      <c r="Y7" s="276"/>
+      <c r="Z7" s="277"/>
     </row>
     <row r="8" spans="2:26" ht="30" customHeight="1">
-      <c r="B8" s="249"/>
-      <c r="C8" s="437"/>
-      <c r="D8" s="437"/>
-      <c r="E8" s="249"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="417"/>
-      <c r="J8" s="418"/>
-      <c r="K8" s="419"/>
-      <c r="L8" s="420"/>
-      <c r="M8" s="421"/>
-      <c r="R8" s="255">
+      <c r="B8" s="241"/>
+      <c r="C8" s="397"/>
+      <c r="D8" s="397"/>
+      <c r="E8" s="241"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="279"/>
+      <c r="I8" s="394"/>
+      <c r="J8" s="395"/>
+      <c r="K8" s="410"/>
+      <c r="L8" s="411"/>
+      <c r="M8" s="412"/>
+      <c r="R8" s="247">
         <v>2</v>
       </c>
-      <c r="S8" s="303"/>
-      <c r="T8" s="304"/>
-      <c r="U8" s="281"/>
-      <c r="V8" s="282"/>
-      <c r="W8" s="281"/>
-      <c r="X8" s="282"/>
-      <c r="Y8" s="281"/>
-      <c r="Z8" s="282"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="299"/>
+      <c r="U8" s="276"/>
+      <c r="V8" s="277"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="277"/>
+      <c r="Y8" s="276"/>
+      <c r="Z8" s="277"/>
     </row>
     <row r="9" spans="2:26" ht="30" customHeight="1">
-      <c r="B9" s="249"/>
-      <c r="C9" s="437"/>
-      <c r="D9" s="437"/>
-      <c r="E9" s="249"/>
-      <c r="G9" s="283"/>
-      <c r="H9" s="284"/>
-      <c r="I9" s="417"/>
-      <c r="J9" s="418"/>
-      <c r="K9" s="419"/>
-      <c r="L9" s="420"/>
-      <c r="M9" s="421"/>
-      <c r="R9" s="255">
+      <c r="B9" s="241"/>
+      <c r="C9" s="397"/>
+      <c r="D9" s="397"/>
+      <c r="E9" s="241"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="279"/>
+      <c r="I9" s="394"/>
+      <c r="J9" s="395"/>
+      <c r="K9" s="410"/>
+      <c r="L9" s="411"/>
+      <c r="M9" s="412"/>
+      <c r="R9" s="247">
         <v>3</v>
       </c>
-      <c r="S9" s="303"/>
-      <c r="T9" s="304"/>
-      <c r="U9" s="281"/>
-      <c r="V9" s="282"/>
-      <c r="W9" s="281"/>
-      <c r="X9" s="282"/>
-      <c r="Y9" s="281"/>
-      <c r="Z9" s="282"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="299"/>
+      <c r="U9" s="276"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="276"/>
+      <c r="X9" s="277"/>
+      <c r="Y9" s="276"/>
+      <c r="Z9" s="277"/>
     </row>
     <row r="10" spans="2:26" ht="30" customHeight="1">
-      <c r="G10" s="405" t="s">
+      <c r="G10" s="398" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="406"/>
-      <c r="I10" s="406"/>
-      <c r="J10" s="406"/>
-      <c r="K10" s="406"/>
-      <c r="L10" s="406"/>
-      <c r="M10" s="407"/>
-      <c r="R10" s="255">
+      <c r="H10" s="399"/>
+      <c r="I10" s="399"/>
+      <c r="J10" s="399"/>
+      <c r="K10" s="399"/>
+      <c r="L10" s="399"/>
+      <c r="M10" s="400"/>
+      <c r="R10" s="247">
         <v>4</v>
       </c>
-      <c r="S10" s="303"/>
-      <c r="T10" s="304"/>
-      <c r="U10" s="281"/>
-      <c r="V10" s="282"/>
-      <c r="W10" s="281"/>
-      <c r="X10" s="282"/>
-      <c r="Y10" s="281"/>
-      <c r="Z10" s="282"/>
+      <c r="S10" s="298"/>
+      <c r="T10" s="299"/>
+      <c r="U10" s="276"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="276"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="276"/>
+      <c r="Z10" s="277"/>
     </row>
     <row r="11" spans="2:26" ht="30" customHeight="1">
-      <c r="G11" s="422" t="s">
+      <c r="G11" s="413" t="s">
         <v>187</v>
       </c>
-      <c r="H11" s="423"/>
-      <c r="I11" s="423"/>
-      <c r="J11" s="423"/>
-      <c r="K11" s="423"/>
-      <c r="L11" s="423"/>
-      <c r="M11" s="424"/>
-      <c r="R11" s="268" t="s">
+      <c r="H11" s="414"/>
+      <c r="I11" s="414"/>
+      <c r="J11" s="414"/>
+      <c r="K11" s="414"/>
+      <c r="L11" s="414"/>
+      <c r="M11" s="415"/>
+      <c r="R11" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="S11" s="440"/>
-      <c r="T11" s="441"/>
-      <c r="U11" s="441"/>
-      <c r="V11" s="441"/>
-      <c r="W11" s="441"/>
-      <c r="X11" s="441"/>
-      <c r="Y11" s="441"/>
-      <c r="Z11" s="442"/>
+      <c r="S11" s="436"/>
+      <c r="T11" s="437"/>
+      <c r="U11" s="437"/>
+      <c r="V11" s="437"/>
+      <c r="W11" s="437"/>
+      <c r="X11" s="437"/>
+      <c r="Y11" s="437"/>
+      <c r="Z11" s="438"/>
     </row>
     <row r="12" spans="2:26" ht="30" customHeight="1">
-      <c r="G12" s="405" t="s">
+      <c r="G12" s="398" t="s">
         <v>188</v>
       </c>
-      <c r="H12" s="406"/>
-      <c r="I12" s="406"/>
-      <c r="J12" s="406"/>
-      <c r="K12" s="406"/>
-      <c r="L12" s="406"/>
-      <c r="M12" s="407"/>
-      <c r="R12" s="255">
+      <c r="H12" s="399"/>
+      <c r="I12" s="399"/>
+      <c r="J12" s="399"/>
+      <c r="K12" s="399"/>
+      <c r="L12" s="399"/>
+      <c r="M12" s="400"/>
+      <c r="R12" s="247">
         <v>1</v>
       </c>
-      <c r="S12" s="303"/>
-      <c r="T12" s="304"/>
-      <c r="U12" s="281"/>
-      <c r="V12" s="282"/>
-      <c r="W12" s="281"/>
-      <c r="X12" s="282"/>
-      <c r="Y12" s="281"/>
-      <c r="Z12" s="282"/>
+      <c r="S12" s="298"/>
+      <c r="T12" s="299"/>
+      <c r="U12" s="276"/>
+      <c r="V12" s="277"/>
+      <c r="W12" s="276"/>
+      <c r="X12" s="277"/>
+      <c r="Y12" s="276"/>
+      <c r="Z12" s="277"/>
     </row>
     <row r="13" spans="2:26" ht="30" customHeight="1">
-      <c r="G13" s="408" t="s">
+      <c r="G13" s="401" t="s">
         <v>189</v>
       </c>
-      <c r="H13" s="409"/>
-      <c r="I13" s="409"/>
-      <c r="J13" s="409"/>
-      <c r="K13" s="409"/>
-      <c r="L13" s="409"/>
-      <c r="M13" s="410"/>
-      <c r="R13" s="255">
+      <c r="H13" s="402"/>
+      <c r="I13" s="402"/>
+      <c r="J13" s="402"/>
+      <c r="K13" s="402"/>
+      <c r="L13" s="402"/>
+      <c r="M13" s="403"/>
+      <c r="R13" s="247">
         <v>2</v>
       </c>
-      <c r="S13" s="303"/>
-      <c r="T13" s="304"/>
-      <c r="U13" s="281"/>
-      <c r="V13" s="282"/>
-      <c r="W13" s="281"/>
-      <c r="X13" s="282"/>
-      <c r="Y13" s="281"/>
-      <c r="Z13" s="282"/>
+      <c r="S13" s="298"/>
+      <c r="T13" s="299"/>
+      <c r="U13" s="276"/>
+      <c r="V13" s="277"/>
+      <c r="W13" s="276"/>
+      <c r="X13" s="277"/>
+      <c r="Y13" s="276"/>
+      <c r="Z13" s="277"/>
     </row>
     <row r="14" spans="2:26" ht="30" customHeight="1">
-      <c r="R14" s="255">
+      <c r="R14" s="247">
         <v>3</v>
       </c>
-      <c r="S14" s="303"/>
-      <c r="T14" s="304"/>
-      <c r="U14" s="281"/>
-      <c r="V14" s="282"/>
-      <c r="W14" s="281"/>
-      <c r="X14" s="282"/>
-      <c r="Y14" s="281"/>
-      <c r="Z14" s="282"/>
+      <c r="S14" s="298"/>
+      <c r="T14" s="299"/>
+      <c r="U14" s="276"/>
+      <c r="V14" s="277"/>
+      <c r="W14" s="276"/>
+      <c r="X14" s="277"/>
+      <c r="Y14" s="276"/>
+      <c r="Z14" s="277"/>
     </row>
     <row r="15" spans="2:26" ht="30" customHeight="1">
-      <c r="R15" s="255">
+      <c r="R15" s="247">
         <v>4</v>
       </c>
-      <c r="S15" s="303"/>
-      <c r="T15" s="304"/>
-      <c r="U15" s="281"/>
-      <c r="V15" s="282"/>
-      <c r="W15" s="281"/>
-      <c r="X15" s="282"/>
-      <c r="Y15" s="281"/>
-      <c r="Z15" s="282"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="299"/>
+      <c r="U15" s="276"/>
+      <c r="V15" s="277"/>
+      <c r="W15" s="276"/>
+      <c r="X15" s="277"/>
+      <c r="Y15" s="276"/>
+      <c r="Z15" s="277"/>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
-      <c r="A31" s="297" t="s">
+      <c r="A31" s="292" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="297"/>
-      <c r="C31" s="297"/>
-      <c r="D31" s="297"/>
+      <c r="B31" s="292"/>
+      <c r="C31" s="292"/>
+      <c r="D31" s="292"/>
       <c r="E31" s="89"/>
       <c r="F31" s="90"/>
       <c r="G31" s="90"/>
       <c r="H31" s="90"/>
       <c r="I31" s="89"/>
-      <c r="J31" s="298" t="s">
+      <c r="J31" s="293" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="298"/>
-      <c r="L31" s="298"/>
-      <c r="M31" s="298"/>
-      <c r="N31" s="298"/>
-      <c r="O31" s="298"/>
-      <c r="P31" s="298"/>
+      <c r="K31" s="293"/>
+      <c r="L31" s="293"/>
+      <c r="M31" s="293"/>
+      <c r="N31" s="293"/>
+      <c r="O31" s="293"/>
+      <c r="P31" s="293"/>
       <c r="Q31" s="89"/>
       <c r="R31" s="89"/>
       <c r="S31" s="89"/>
@@ -4785,26 +4760,26 @@
       <c r="W31" s="91"/>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
-      <c r="A32" s="299" t="s">
+      <c r="A32" s="294" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="299"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="299"/>
+      <c r="B32" s="294"/>
+      <c r="C32" s="294"/>
+      <c r="D32" s="294"/>
       <c r="E32" s="89"/>
       <c r="F32" s="92"/>
       <c r="G32" s="92"/>
       <c r="H32" s="92"/>
       <c r="I32" s="89"/>
-      <c r="J32" s="300" t="s">
+      <c r="J32" s="295" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="300"/>
-      <c r="L32" s="300"/>
-      <c r="M32" s="300"/>
-      <c r="N32" s="300"/>
-      <c r="O32" s="300"/>
-      <c r="P32" s="300"/>
+      <c r="K32" s="295"/>
+      <c r="L32" s="295"/>
+      <c r="M32" s="295"/>
+      <c r="N32" s="295"/>
+      <c r="O32" s="295"/>
+      <c r="P32" s="295"/>
       <c r="Q32" s="90"/>
       <c r="R32" s="90"/>
       <c r="S32" s="90"/>
@@ -4843,24 +4818,24 @@
       <c r="AA33" s="91"/>
     </row>
     <row r="34" spans="1:27" ht="30" customHeight="1">
-      <c r="A34" s="286" t="s">
+      <c r="A34" s="281" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="286"/>
-      <c r="C34" s="286"/>
-      <c r="D34" s="286"/>
-      <c r="E34" s="286"/>
-      <c r="F34" s="286"/>
-      <c r="G34" s="286"/>
-      <c r="H34" s="286"/>
-      <c r="I34" s="286"/>
-      <c r="J34" s="286"/>
-      <c r="K34" s="286"/>
-      <c r="L34" s="286"/>
-      <c r="M34" s="286"/>
-      <c r="N34" s="286"/>
-      <c r="O34" s="286"/>
-      <c r="P34" s="286"/>
+      <c r="B34" s="281"/>
+      <c r="C34" s="281"/>
+      <c r="D34" s="281"/>
+      <c r="E34" s="281"/>
+      <c r="F34" s="281"/>
+      <c r="G34" s="281"/>
+      <c r="H34" s="281"/>
+      <c r="I34" s="281"/>
+      <c r="J34" s="281"/>
+      <c r="K34" s="281"/>
+      <c r="L34" s="281"/>
+      <c r="M34" s="281"/>
+      <c r="N34" s="281"/>
+      <c r="O34" s="281"/>
+      <c r="P34" s="281"/>
       <c r="Q34" s="99"/>
       <c r="R34" s="99"/>
       <c r="S34" s="99"/>
@@ -4874,22 +4849,22 @@
       <c r="AA34" s="88"/>
     </row>
     <row r="35" spans="1:27" ht="30" customHeight="1">
-      <c r="A35" s="287"/>
-      <c r="B35" s="287"/>
-      <c r="C35" s="287"/>
-      <c r="D35" s="287"/>
-      <c r="E35" s="287"/>
-      <c r="F35" s="287"/>
-      <c r="G35" s="287"/>
-      <c r="H35" s="287"/>
-      <c r="I35" s="287"/>
-      <c r="J35" s="287"/>
-      <c r="K35" s="287"/>
-      <c r="L35" s="287"/>
-      <c r="M35" s="287"/>
-      <c r="N35" s="287"/>
-      <c r="O35" s="287"/>
-      <c r="P35" s="287"/>
+      <c r="A35" s="282"/>
+      <c r="B35" s="282"/>
+      <c r="C35" s="282"/>
+      <c r="D35" s="282"/>
+      <c r="E35" s="282"/>
+      <c r="F35" s="282"/>
+      <c r="G35" s="282"/>
+      <c r="H35" s="282"/>
+      <c r="I35" s="282"/>
+      <c r="J35" s="282"/>
+      <c r="K35" s="282"/>
+      <c r="L35" s="282"/>
+      <c r="M35" s="282"/>
+      <c r="N35" s="282"/>
+      <c r="O35" s="282"/>
+      <c r="P35" s="282"/>
       <c r="Q35" s="101"/>
       <c r="R35" s="101"/>
       <c r="S35" s="101"/>
@@ -4932,92 +4907,92 @@
       <c r="AA36" s="88"/>
     </row>
     <row r="37" spans="1:27" ht="30" customHeight="1">
-      <c r="A37" s="401" t="s">
+      <c r="A37" s="372" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="401" t="s">
+      <c r="B37" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="401" t="s">
+      <c r="C37" s="372" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="294" t="s">
+      <c r="D37" s="289" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="288" t="s">
+      <c r="E37" s="283" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="289"/>
-      <c r="G37" s="290"/>
-      <c r="H37" s="294" t="s">
+      <c r="F37" s="284"/>
+      <c r="G37" s="285"/>
+      <c r="H37" s="289" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="288" t="s">
+      <c r="I37" s="283" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="289"/>
-      <c r="K37" s="289"/>
-      <c r="L37" s="290"/>
-      <c r="M37" s="288" t="s">
+      <c r="J37" s="284"/>
+      <c r="K37" s="284"/>
+      <c r="L37" s="285"/>
+      <c r="M37" s="283" t="s">
         <v>114</v>
       </c>
-      <c r="N37" s="289"/>
-      <c r="O37" s="289"/>
-      <c r="P37" s="290"/>
+      <c r="N37" s="284"/>
+      <c r="O37" s="284"/>
+      <c r="P37" s="285"/>
       <c r="Q37" s="105"/>
       <c r="R37" s="105"/>
       <c r="S37" s="105"/>
-      <c r="T37" s="313" t="s">
+      <c r="T37" s="306" t="s">
         <v>173</v>
       </c>
-      <c r="U37" s="330" t="s">
+      <c r="U37" s="327" t="s">
         <v>53</v>
       </c>
-      <c r="V37" s="330" t="s">
+      <c r="V37" s="327" t="s">
         <v>190</v>
       </c>
-      <c r="W37" s="330"/>
-      <c r="X37" s="330"/>
-      <c r="Y37" s="285" t="s">
+      <c r="W37" s="327"/>
+      <c r="X37" s="327"/>
+      <c r="Y37" s="280" t="s">
         <v>191</v>
       </c>
       <c r="Z37" s="106"/>
       <c r="AA37" s="106"/>
     </row>
     <row r="38" spans="1:27" ht="30" customHeight="1">
-      <c r="A38" s="402"/>
-      <c r="B38" s="402"/>
-      <c r="C38" s="402"/>
-      <c r="D38" s="295"/>
-      <c r="E38" s="291"/>
-      <c r="F38" s="292"/>
-      <c r="G38" s="293"/>
-      <c r="H38" s="295"/>
-      <c r="I38" s="291"/>
-      <c r="J38" s="292"/>
-      <c r="K38" s="292"/>
-      <c r="L38" s="293"/>
-      <c r="M38" s="291"/>
-      <c r="N38" s="292"/>
-      <c r="O38" s="292"/>
-      <c r="P38" s="293"/>
+      <c r="A38" s="373"/>
+      <c r="B38" s="373"/>
+      <c r="C38" s="373"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="286"/>
+      <c r="F38" s="287"/>
+      <c r="G38" s="288"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="286"/>
+      <c r="J38" s="287"/>
+      <c r="K38" s="287"/>
+      <c r="L38" s="288"/>
+      <c r="M38" s="286"/>
+      <c r="N38" s="287"/>
+      <c r="O38" s="287"/>
+      <c r="P38" s="288"/>
       <c r="Q38" s="105"/>
       <c r="R38" s="105"/>
       <c r="S38" s="105"/>
-      <c r="T38" s="314"/>
-      <c r="U38" s="330"/>
-      <c r="V38" s="330"/>
-      <c r="W38" s="330"/>
-      <c r="X38" s="330"/>
-      <c r="Y38" s="285"/>
+      <c r="T38" s="307"/>
+      <c r="U38" s="327"/>
+      <c r="V38" s="327"/>
+      <c r="W38" s="327"/>
+      <c r="X38" s="327"/>
+      <c r="Y38" s="280"/>
       <c r="Z38" s="106"/>
       <c r="AA38" s="106"/>
     </row>
     <row r="39" spans="1:27" ht="34.5" customHeight="1">
-      <c r="A39" s="403"/>
-      <c r="B39" s="403"/>
-      <c r="C39" s="403"/>
-      <c r="D39" s="296"/>
+      <c r="A39" s="374"/>
+      <c r="B39" s="374"/>
+      <c r="C39" s="374"/>
+      <c r="D39" s="291"/>
       <c r="E39" s="107" t="s">
         <v>115</v>
       </c>
@@ -5027,28 +5002,28 @@
       <c r="G39" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="296"/>
-      <c r="I39" s="309" t="s">
+      <c r="H39" s="291"/>
+      <c r="I39" s="302" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="310"/>
-      <c r="K39" s="309" t="s">
+      <c r="J39" s="303"/>
+      <c r="K39" s="302" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="310"/>
-      <c r="M39" s="309" t="s">
+      <c r="L39" s="303"/>
+      <c r="M39" s="302" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="310"/>
-      <c r="O39" s="309" t="s">
+      <c r="N39" s="303"/>
+      <c r="O39" s="302" t="s">
         <v>119</v>
       </c>
-      <c r="P39" s="310"/>
+      <c r="P39" s="303"/>
       <c r="Q39" s="105"/>
       <c r="R39" s="105"/>
       <c r="S39" s="105"/>
-      <c r="T39" s="315"/>
-      <c r="U39" s="330"/>
+      <c r="T39" s="308"/>
+      <c r="U39" s="327"/>
       <c r="V39" s="108" t="s">
         <v>121</v>
       </c>
@@ -5058,7 +5033,7 @@
       <c r="X39" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="Y39" s="285"/>
+      <c r="Y39" s="280"/>
       <c r="Z39" s="109"/>
       <c r="AA39" s="109"/>
     </row>
@@ -5087,33 +5062,33 @@
       <c r="H40" s="112">
         <v>-6</v>
       </c>
-      <c r="I40" s="311">
+      <c r="I40" s="304">
         <v>-7</v>
       </c>
-      <c r="J40" s="312"/>
-      <c r="K40" s="311">
+      <c r="J40" s="305"/>
+      <c r="K40" s="304">
         <v>-8</v>
       </c>
-      <c r="L40" s="312"/>
-      <c r="M40" s="301" t="s">
+      <c r="L40" s="305"/>
+      <c r="M40" s="296" t="s">
         <v>199</v>
       </c>
-      <c r="N40" s="302"/>
-      <c r="O40" s="301" t="s">
+      <c r="N40" s="297"/>
+      <c r="O40" s="296" t="s">
         <v>200</v>
       </c>
-      <c r="P40" s="302"/>
+      <c r="P40" s="297"/>
       <c r="Q40" s="113"/>
       <c r="R40" s="113"/>
       <c r="S40" s="113"/>
       <c r="T40" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="U40" s="272"/>
-      <c r="V40" s="273"/>
-      <c r="W40" s="273"/>
-      <c r="X40" s="273"/>
-      <c r="Y40" s="274"/>
+      <c r="U40" s="267"/>
+      <c r="V40" s="268"/>
+      <c r="W40" s="268"/>
+      <c r="X40" s="268"/>
+      <c r="Y40" s="269"/>
       <c r="Z40" s="115"/>
       <c r="AA40" s="115"/>
     </row>
@@ -5128,24 +5103,24 @@
       <c r="F41" s="120"/>
       <c r="G41" s="120"/>
       <c r="H41" s="125"/>
-      <c r="I41" s="515"/>
-      <c r="J41" s="516"/>
-      <c r="K41" s="305"/>
-      <c r="L41" s="306"/>
-      <c r="M41" s="305"/>
-      <c r="N41" s="306"/>
-      <c r="O41" s="305"/>
-      <c r="P41" s="306"/>
+      <c r="I41" s="309"/>
+      <c r="J41" s="310"/>
+      <c r="K41" s="300"/>
+      <c r="L41" s="301"/>
+      <c r="M41" s="300"/>
+      <c r="N41" s="301"/>
+      <c r="O41" s="300"/>
+      <c r="P41" s="301"/>
       <c r="Q41" s="121"/>
       <c r="R41" s="121"/>
       <c r="S41" s="121"/>
-      <c r="T41" s="250">
+      <c r="T41" s="242">
         <v>1</v>
       </c>
-      <c r="U41" s="254"/>
+      <c r="U41" s="246"/>
       <c r="V41" s="93"/>
       <c r="W41" s="93"/>
-      <c r="Y41" s="251" t="s">
+      <c r="Y41" s="243" t="s">
         <v>201</v>
       </c>
       <c r="Z41" s="122"/>
@@ -5162,25 +5137,25 @@
       <c r="F42" s="120"/>
       <c r="G42" s="120"/>
       <c r="H42" s="125"/>
-      <c r="I42" s="515"/>
-      <c r="J42" s="516"/>
-      <c r="K42" s="305"/>
-      <c r="L42" s="306"/>
-      <c r="M42" s="305"/>
-      <c r="N42" s="306"/>
-      <c r="O42" s="305"/>
-      <c r="P42" s="306"/>
+      <c r="I42" s="309"/>
+      <c r="J42" s="310"/>
+      <c r="K42" s="300"/>
+      <c r="L42" s="301"/>
+      <c r="M42" s="300"/>
+      <c r="N42" s="301"/>
+      <c r="O42" s="300"/>
+      <c r="P42" s="301"/>
       <c r="Q42" s="121"/>
       <c r="R42" s="121"/>
       <c r="S42" s="121"/>
-      <c r="T42" s="256">
+      <c r="T42" s="248">
         <v>2</v>
       </c>
-      <c r="U42" s="247"/>
+      <c r="U42" s="239"/>
       <c r="V42" s="88"/>
       <c r="W42" s="88"/>
       <c r="X42" s="89"/>
-      <c r="Y42" s="251" t="s">
+      <c r="Y42" s="243" t="s">
         <v>201</v>
       </c>
       <c r="Z42" s="122"/>
@@ -5197,25 +5172,25 @@
       <c r="F43" s="120"/>
       <c r="G43" s="120"/>
       <c r="H43" s="125"/>
-      <c r="I43" s="515"/>
-      <c r="J43" s="516"/>
-      <c r="K43" s="305"/>
-      <c r="L43" s="306"/>
-      <c r="M43" s="305"/>
-      <c r="N43" s="306"/>
-      <c r="O43" s="305"/>
-      <c r="P43" s="306"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="310"/>
+      <c r="K43" s="300"/>
+      <c r="L43" s="301"/>
+      <c r="M43" s="300"/>
+      <c r="N43" s="301"/>
+      <c r="O43" s="300"/>
+      <c r="P43" s="301"/>
       <c r="Q43" s="121"/>
       <c r="R43" s="121"/>
       <c r="S43" s="121"/>
-      <c r="T43" s="256">
+      <c r="T43" s="248">
         <v>3</v>
       </c>
-      <c r="U43" s="247"/>
+      <c r="U43" s="239"/>
       <c r="V43" s="100"/>
       <c r="W43" s="100"/>
       <c r="X43" s="100"/>
-      <c r="Y43" s="251" t="s">
+      <c r="Y43" s="243" t="s">
         <v>201</v>
       </c>
       <c r="Z43" s="122"/>
@@ -5232,25 +5207,25 @@
       <c r="F44" s="120"/>
       <c r="G44" s="120"/>
       <c r="H44" s="125"/>
-      <c r="I44" s="334"/>
-      <c r="J44" s="335"/>
-      <c r="K44" s="307"/>
-      <c r="L44" s="308"/>
-      <c r="M44" s="307"/>
-      <c r="N44" s="308"/>
-      <c r="O44" s="307"/>
-      <c r="P44" s="308"/>
+      <c r="I44" s="331"/>
+      <c r="J44" s="332"/>
+      <c r="K44" s="311"/>
+      <c r="L44" s="312"/>
+      <c r="M44" s="311"/>
+      <c r="N44" s="312"/>
+      <c r="O44" s="311"/>
+      <c r="P44" s="312"/>
       <c r="Q44" s="121"/>
       <c r="R44" s="121"/>
       <c r="S44" s="121"/>
-      <c r="T44" s="257">
+      <c r="T44" s="249">
         <v>4</v>
       </c>
-      <c r="U44" s="246"/>
+      <c r="U44" s="238"/>
       <c r="V44" s="102"/>
       <c r="W44" s="102"/>
       <c r="X44" s="102"/>
-      <c r="Y44" s="251" t="s">
+      <c r="Y44" s="243" t="s">
         <v>201</v>
       </c>
       <c r="Z44" s="122"/>
@@ -5260,14 +5235,14 @@
       <c r="Q45" s="121"/>
       <c r="R45" s="121"/>
       <c r="S45" s="121"/>
-      <c r="T45" s="252" t="s">
+      <c r="T45" s="244" t="s">
         <v>155</v>
       </c>
-      <c r="U45" s="269"/>
-      <c r="V45" s="270"/>
-      <c r="W45" s="270"/>
-      <c r="X45" s="270"/>
-      <c r="Y45" s="271"/>
+      <c r="U45" s="264"/>
+      <c r="V45" s="265"/>
+      <c r="W45" s="265"/>
+      <c r="X45" s="265"/>
+      <c r="Y45" s="266"/>
       <c r="Z45" s="122"/>
       <c r="AA45" s="122"/>
     </row>
@@ -5291,14 +5266,14 @@
       <c r="Q46" s="88"/>
       <c r="R46" s="88"/>
       <c r="S46" s="88"/>
-      <c r="T46" s="253">
+      <c r="T46" s="245">
         <v>1</v>
       </c>
-      <c r="U46" s="254"/>
-      <c r="V46" s="266"/>
-      <c r="W46" s="265"/>
-      <c r="X46" s="264"/>
-      <c r="Y46" s="251" t="s">
+      <c r="U46" s="246"/>
+      <c r="V46" s="258"/>
+      <c r="W46" s="257"/>
+      <c r="X46" s="256"/>
+      <c r="Y46" s="243" t="s">
         <v>201</v>
       </c>
       <c r="Z46" s="88"/>
@@ -5314,63 +5289,63 @@
       <c r="G47" s="88"/>
       <c r="H47" s="88"/>
       <c r="I47" s="88"/>
-      <c r="J47" s="331"/>
-      <c r="K47" s="331"/>
-      <c r="L47" s="331"/>
-      <c r="M47" s="331"/>
-      <c r="N47" s="331"/>
-      <c r="O47" s="331"/>
-      <c r="P47" s="331"/>
+      <c r="J47" s="328"/>
+      <c r="K47" s="328"/>
+      <c r="L47" s="328"/>
+      <c r="M47" s="328"/>
+      <c r="N47" s="328"/>
+      <c r="O47" s="328"/>
+      <c r="P47" s="328"/>
       <c r="Q47" s="130"/>
       <c r="R47" s="130"/>
       <c r="S47" s="130"/>
-      <c r="T47" s="258">
+      <c r="T47" s="250">
         <v>2</v>
       </c>
-      <c r="U47" s="247"/>
-      <c r="V47" s="243"/>
+      <c r="U47" s="239"/>
+      <c r="V47" s="235"/>
       <c r="W47" s="88"/>
-      <c r="X47" s="244"/>
-      <c r="Y47" s="251" t="s">
+      <c r="X47" s="236"/>
+      <c r="Y47" s="243" t="s">
         <v>201</v>
       </c>
       <c r="Z47" s="131"/>
       <c r="AA47" s="131"/>
     </row>
     <row r="48" spans="1:27" ht="30" customHeight="1">
-      <c r="A48" s="316" t="s">
+      <c r="A48" s="378" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="316"/>
-      <c r="C48" s="317" t="s">
+      <c r="B48" s="378"/>
+      <c r="C48" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="317"/>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="318" t="s">
+      <c r="D48" s="313"/>
+      <c r="E48" s="313"/>
+      <c r="F48" s="313"/>
+      <c r="G48" s="314" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="318"/>
-      <c r="I48" s="318"/>
-      <c r="J48" s="318"/>
-      <c r="K48" s="318"/>
-      <c r="L48" s="318"/>
-      <c r="M48" s="318"/>
-      <c r="N48" s="318"/>
-      <c r="O48" s="318"/>
-      <c r="P48" s="318"/>
+      <c r="H48" s="314"/>
+      <c r="I48" s="314"/>
+      <c r="J48" s="314"/>
+      <c r="K48" s="314"/>
+      <c r="L48" s="314"/>
+      <c r="M48" s="314"/>
+      <c r="N48" s="314"/>
+      <c r="O48" s="314"/>
+      <c r="P48" s="314"/>
       <c r="Q48" s="132"/>
       <c r="R48" s="132"/>
       <c r="S48" s="132"/>
-      <c r="T48" s="258">
+      <c r="T48" s="250">
         <v>3</v>
       </c>
-      <c r="U48" s="247"/>
-      <c r="V48" s="263"/>
+      <c r="U48" s="239"/>
+      <c r="V48" s="255"/>
       <c r="W48" s="100"/>
-      <c r="X48" s="262"/>
-      <c r="Y48" s="251" t="s">
+      <c r="X48" s="254"/>
+      <c r="Y48" s="243" t="s">
         <v>201</v>
       </c>
       <c r="Z48" s="131"/>
@@ -5386,24 +5361,24 @@
       <c r="G49" s="132"/>
       <c r="H49" s="132"/>
       <c r="I49" s="132"/>
-      <c r="J49" s="318"/>
-      <c r="K49" s="318"/>
-      <c r="L49" s="318"/>
-      <c r="M49" s="318"/>
-      <c r="N49" s="318"/>
-      <c r="O49" s="318"/>
-      <c r="P49" s="318"/>
+      <c r="J49" s="314"/>
+      <c r="K49" s="314"/>
+      <c r="L49" s="314"/>
+      <c r="M49" s="314"/>
+      <c r="N49" s="314"/>
+      <c r="O49" s="314"/>
+      <c r="P49" s="314"/>
       <c r="Q49" s="132"/>
       <c r="R49" s="132"/>
       <c r="S49" s="132"/>
-      <c r="T49" s="259">
+      <c r="T49" s="251">
         <v>4</v>
       </c>
-      <c r="U49" s="246"/>
-      <c r="V49" s="245"/>
-      <c r="W49" s="261"/>
-      <c r="X49" s="260"/>
-      <c r="Y49" s="251" t="s">
+      <c r="U49" s="238"/>
+      <c r="V49" s="237"/>
+      <c r="W49" s="253"/>
+      <c r="X49" s="252"/>
+      <c r="Y49" s="243" t="s">
         <v>201</v>
       </c>
       <c r="Z49" s="131"/>
@@ -5459,14 +5434,14 @@
       <c r="R51" s="88"/>
       <c r="S51" s="88"/>
       <c r="T51" s="88"/>
-      <c r="U51" s="443" t="s">
+      <c r="U51" s="439" t="s">
         <v>53</v>
       </c>
-      <c r="V51" s="446" t="s">
+      <c r="V51" s="442" t="s">
         <v>124</v>
       </c>
-      <c r="W51" s="447"/>
-      <c r="X51" s="448"/>
+      <c r="W51" s="443"/>
+      <c r="X51" s="444"/>
       <c r="Y51" s="88"/>
       <c r="Z51" s="88"/>
       <c r="AA51" s="88"/>
@@ -5492,10 +5467,10 @@
       <c r="R52" s="88"/>
       <c r="S52" s="88"/>
       <c r="T52" s="88"/>
-      <c r="U52" s="444"/>
-      <c r="V52" s="449"/>
-      <c r="W52" s="450"/>
-      <c r="X52" s="451"/>
+      <c r="U52" s="440"/>
+      <c r="V52" s="445"/>
+      <c r="W52" s="446"/>
+      <c r="X52" s="447"/>
       <c r="Y52" s="88"/>
       <c r="Z52" s="88"/>
       <c r="AA52" s="88"/>
@@ -5521,7 +5496,7 @@
       <c r="R53" s="88"/>
       <c r="S53" s="88"/>
       <c r="T53" s="134"/>
-      <c r="U53" s="445"/>
+      <c r="U53" s="441"/>
       <c r="V53" s="135" t="s">
         <v>121</v>
       </c>
@@ -5545,13 +5520,13 @@
       <c r="G54" s="134"/>
       <c r="H54" s="134"/>
       <c r="I54" s="134"/>
-      <c r="J54" s="350"/>
-      <c r="K54" s="350"/>
-      <c r="L54" s="350"/>
-      <c r="M54" s="350"/>
-      <c r="N54" s="350"/>
-      <c r="O54" s="350"/>
-      <c r="P54" s="350"/>
+      <c r="J54" s="315"/>
+      <c r="K54" s="315"/>
+      <c r="L54" s="315"/>
+      <c r="M54" s="315"/>
+      <c r="N54" s="315"/>
+      <c r="O54" s="315"/>
+      <c r="P54" s="315"/>
       <c r="Q54" s="134"/>
       <c r="R54" s="134"/>
       <c r="S54" s="134"/>
@@ -5585,9 +5560,7 @@
       <c r="R55" s="137"/>
       <c r="S55" s="137"/>
       <c r="T55" s="137"/>
-      <c r="U55" s="138" t="s">
-        <v>19</v>
-      </c>
+      <c r="U55" s="138"/>
       <c r="V55" s="139"/>
       <c r="W55" s="139"/>
       <c r="X55" s="140"/>
@@ -5616,9 +5589,7 @@
       <c r="R56" s="137"/>
       <c r="S56" s="137"/>
       <c r="T56" s="137"/>
-      <c r="U56" s="138" t="s">
-        <v>20</v>
-      </c>
+      <c r="U56" s="138"/>
       <c r="V56" s="139"/>
       <c r="W56" s="139"/>
       <c r="X56" s="140"/>
@@ -5647,9 +5618,7 @@
       <c r="R57" s="137"/>
       <c r="S57" s="137"/>
       <c r="T57" s="137"/>
-      <c r="U57" s="138" t="s">
-        <v>21</v>
-      </c>
+      <c r="U57" s="138"/>
       <c r="V57" s="139"/>
       <c r="W57" s="139"/>
       <c r="X57" s="140"/>
@@ -6050,26 +6019,26 @@
       <c r="AD70" s="88"/>
     </row>
     <row r="71" spans="1:31" ht="30" customHeight="1">
-      <c r="A71" s="297" t="s">
+      <c r="A71" s="292" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="297"/>
-      <c r="C71" s="297"/>
-      <c r="D71" s="297"/>
+      <c r="B71" s="292"/>
+      <c r="C71" s="292"/>
+      <c r="D71" s="292"/>
       <c r="E71" s="89"/>
       <c r="F71" s="90"/>
       <c r="G71" s="90"/>
       <c r="H71" s="90"/>
       <c r="I71" s="89"/>
-      <c r="J71" s="298" t="s">
+      <c r="J71" s="293" t="s">
         <v>104</v>
       </c>
-      <c r="K71" s="298"/>
-      <c r="L71" s="298"/>
-      <c r="M71" s="298"/>
-      <c r="N71" s="298"/>
-      <c r="O71" s="298"/>
-      <c r="P71" s="298"/>
+      <c r="K71" s="293"/>
+      <c r="L71" s="293"/>
+      <c r="M71" s="293"/>
+      <c r="N71" s="293"/>
+      <c r="O71" s="293"/>
+      <c r="P71" s="293"/>
       <c r="Q71" s="89"/>
       <c r="R71" s="89"/>
       <c r="S71" s="89"/>
@@ -6086,26 +6055,26 @@
       <c r="AD71" s="91"/>
     </row>
     <row r="72" spans="1:31" ht="30" customHeight="1">
-      <c r="A72" s="299" t="s">
+      <c r="A72" s="294" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="299"/>
-      <c r="C72" s="299"/>
-      <c r="D72" s="299"/>
+      <c r="B72" s="294"/>
+      <c r="C72" s="294"/>
+      <c r="D72" s="294"/>
       <c r="E72" s="89"/>
       <c r="F72" s="92"/>
       <c r="G72" s="92"/>
       <c r="H72" s="92"/>
       <c r="I72" s="89"/>
-      <c r="J72" s="300" t="s">
+      <c r="J72" s="295" t="s">
         <v>106</v>
       </c>
-      <c r="K72" s="300"/>
-      <c r="L72" s="300"/>
-      <c r="M72" s="300"/>
-      <c r="N72" s="300"/>
-      <c r="O72" s="300"/>
-      <c r="P72" s="300"/>
+      <c r="K72" s="295"/>
+      <c r="L72" s="295"/>
+      <c r="M72" s="295"/>
+      <c r="N72" s="295"/>
+      <c r="O72" s="295"/>
+      <c r="P72" s="295"/>
       <c r="Q72" s="90"/>
       <c r="R72" s="90"/>
       <c r="S72" s="90"/>
@@ -6164,31 +6133,33 @@
       <c r="AD73" s="88"/>
     </row>
     <row r="74" spans="1:31" ht="30" customHeight="1">
-      <c r="A74" s="286" t="s">
+      <c r="A74" s="281" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="286"/>
-      <c r="C74" s="286"/>
-      <c r="D74" s="286"/>
-      <c r="E74" s="286"/>
-      <c r="F74" s="286"/>
-      <c r="G74" s="286"/>
-      <c r="H74" s="286"/>
-      <c r="I74" s="286"/>
-      <c r="J74" s="286"/>
-      <c r="K74" s="286"/>
-      <c r="L74" s="286"/>
-      <c r="M74" s="286"/>
-      <c r="N74" s="286"/>
-      <c r="O74" s="286"/>
-      <c r="P74" s="286"/>
+      <c r="B74" s="281"/>
+      <c r="C74" s="281"/>
+      <c r="D74" s="281"/>
+      <c r="E74" s="281"/>
+      <c r="F74" s="281"/>
+      <c r="G74" s="281"/>
+      <c r="H74" s="281"/>
+      <c r="I74" s="281"/>
+      <c r="J74" s="281"/>
+      <c r="K74" s="281"/>
+      <c r="L74" s="281"/>
+      <c r="M74" s="281"/>
+      <c r="N74" s="281"/>
+      <c r="O74" s="281"/>
+      <c r="P74" s="281"/>
       <c r="Q74" s="99"/>
       <c r="R74" s="99"/>
       <c r="S74" s="99"/>
       <c r="T74" s="99"/>
       <c r="U74" s="144"/>
       <c r="V74" s="145"/>
-      <c r="W74" s="146"/>
+      <c r="W74" s="261" t="s">
+        <v>226</v>
+      </c>
       <c r="X74" s="100"/>
       <c r="Y74" s="88"/>
       <c r="Z74" s="88"/>
@@ -6198,36 +6169,36 @@
       <c r="AD74" s="88"/>
     </row>
     <row r="75" spans="1:31" ht="30" customHeight="1">
-      <c r="A75" s="287"/>
-      <c r="B75" s="287"/>
-      <c r="C75" s="287"/>
-      <c r="D75" s="287"/>
-      <c r="E75" s="287"/>
-      <c r="F75" s="287"/>
-      <c r="G75" s="287"/>
-      <c r="H75" s="287"/>
-      <c r="I75" s="287"/>
-      <c r="J75" s="287"/>
-      <c r="K75" s="287"/>
-      <c r="L75" s="287"/>
-      <c r="M75" s="287"/>
-      <c r="N75" s="287"/>
-      <c r="O75" s="287"/>
-      <c r="P75" s="287"/>
-      <c r="Q75" s="147"/>
-      <c r="R75" s="147"/>
-      <c r="S75" s="147"/>
-      <c r="T75" s="147"/>
-      <c r="U75" s="147"/>
-      <c r="V75" s="148"/>
-      <c r="W75" s="148"/>
-      <c r="X75" s="148"/>
-      <c r="Y75" s="149"/>
-      <c r="Z75" s="149"/>
-      <c r="AA75" s="149"/>
-      <c r="AB75" s="149"/>
-      <c r="AC75" s="149"/>
-      <c r="AD75" s="149"/>
+      <c r="A75" s="282"/>
+      <c r="B75" s="282"/>
+      <c r="C75" s="282"/>
+      <c r="D75" s="282"/>
+      <c r="E75" s="282"/>
+      <c r="F75" s="282"/>
+      <c r="G75" s="282"/>
+      <c r="H75" s="282"/>
+      <c r="I75" s="282"/>
+      <c r="J75" s="282"/>
+      <c r="K75" s="282"/>
+      <c r="L75" s="282"/>
+      <c r="M75" s="282"/>
+      <c r="N75" s="282"/>
+      <c r="O75" s="282"/>
+      <c r="P75" s="282"/>
+      <c r="Q75" s="146"/>
+      <c r="R75" s="146"/>
+      <c r="S75" s="146"/>
+      <c r="T75" s="146"/>
+      <c r="U75" s="146"/>
+      <c r="V75" s="147"/>
+      <c r="W75" s="147"/>
+      <c r="X75" s="147"/>
+      <c r="Y75" s="148"/>
+      <c r="Z75" s="148"/>
+      <c r="AA75" s="148"/>
+      <c r="AB75" s="148"/>
+      <c r="AC75" s="148"/>
+      <c r="AD75" s="148"/>
     </row>
     <row r="76" spans="1:31" ht="30" customHeight="1">
       <c r="A76" s="98" t="s">
@@ -6264,189 +6235,189 @@
       <c r="AD76" s="88"/>
     </row>
     <row r="77" spans="1:31" ht="23.25" customHeight="1">
-      <c r="A77" s="401" t="s">
+      <c r="A77" s="372" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="401" t="s">
+      <c r="B77" s="372" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="401" t="s">
+      <c r="C77" s="372" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="294" t="s">
+      <c r="D77" s="289" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="288" t="s">
+      <c r="E77" s="283" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="289"/>
-      <c r="G77" s="290"/>
-      <c r="H77" s="288" t="s">
+      <c r="F77" s="284"/>
+      <c r="G77" s="285"/>
+      <c r="H77" s="283" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="290"/>
-      <c r="J77" s="288" t="s">
+      <c r="I77" s="285"/>
+      <c r="J77" s="283" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="290"/>
-      <c r="L77" s="288" t="s">
+      <c r="K77" s="285"/>
+      <c r="L77" s="283" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="290"/>
-      <c r="N77" s="288" t="s">
+      <c r="M77" s="285"/>
+      <c r="N77" s="283" t="s">
         <v>136</v>
       </c>
-      <c r="O77" s="290"/>
-      <c r="P77" s="324" t="s">
+      <c r="O77" s="285"/>
+      <c r="P77" s="321" t="s">
         <v>137</v>
       </c>
-      <c r="Q77" s="324" t="s">
+      <c r="Q77" s="321" t="s">
         <v>138</v>
       </c>
-      <c r="R77" s="324" t="s">
+      <c r="R77" s="321" t="s">
         <v>139</v>
       </c>
-      <c r="S77" s="150"/>
-      <c r="T77" s="151"/>
-      <c r="U77" s="322"/>
-      <c r="V77" s="322"/>
-      <c r="W77" s="322"/>
-      <c r="X77" s="322"/>
+      <c r="S77" s="149"/>
+      <c r="T77" s="150"/>
+      <c r="U77" s="319"/>
+      <c r="V77" s="319"/>
+      <c r="W77" s="319"/>
+      <c r="X77" s="319"/>
       <c r="Y77" s="98"/>
       <c r="Z77" s="98"/>
       <c r="AA77" s="98"/>
-      <c r="AB77" s="150"/>
-      <c r="AC77" s="150"/>
-      <c r="AD77" s="152"/>
+      <c r="AB77" s="149"/>
+      <c r="AC77" s="149"/>
+      <c r="AD77" s="151"/>
     </row>
     <row r="78" spans="1:31" ht="27" customHeight="1">
-      <c r="A78" s="402"/>
-      <c r="B78" s="402"/>
-      <c r="C78" s="402"/>
-      <c r="D78" s="295"/>
-      <c r="E78" s="291"/>
-      <c r="F78" s="292"/>
-      <c r="G78" s="293"/>
-      <c r="H78" s="291"/>
-      <c r="I78" s="293"/>
-      <c r="J78" s="291"/>
-      <c r="K78" s="293"/>
-      <c r="L78" s="291"/>
-      <c r="M78" s="293"/>
-      <c r="N78" s="291"/>
-      <c r="O78" s="293"/>
-      <c r="P78" s="325"/>
-      <c r="Q78" s="325"/>
-      <c r="R78" s="325"/>
+      <c r="A78" s="373"/>
+      <c r="B78" s="373"/>
+      <c r="C78" s="373"/>
+      <c r="D78" s="290"/>
+      <c r="E78" s="286"/>
+      <c r="F78" s="287"/>
+      <c r="G78" s="288"/>
+      <c r="H78" s="286"/>
+      <c r="I78" s="288"/>
+      <c r="J78" s="286"/>
+      <c r="K78" s="288"/>
+      <c r="L78" s="286"/>
+      <c r="M78" s="288"/>
+      <c r="N78" s="286"/>
+      <c r="O78" s="288"/>
+      <c r="P78" s="322"/>
+      <c r="Q78" s="322"/>
+      <c r="R78" s="322"/>
       <c r="S78" s="98"/>
-      <c r="T78" s="151"/>
-      <c r="U78" s="323"/>
-      <c r="V78" s="323"/>
-      <c r="W78" s="323"/>
-      <c r="X78" s="323"/>
+      <c r="T78" s="150"/>
+      <c r="U78" s="320"/>
+      <c r="V78" s="320"/>
+      <c r="W78" s="320"/>
+      <c r="X78" s="320"/>
       <c r="Y78" s="88"/>
       <c r="Z78" s="88"/>
       <c r="AA78" s="88"/>
       <c r="AB78" s="88"/>
       <c r="AC78" s="88"/>
-      <c r="AD78" s="152"/>
+      <c r="AD78" s="151"/>
     </row>
     <row r="79" spans="1:31" ht="30" customHeight="1">
-      <c r="A79" s="402"/>
-      <c r="B79" s="402"/>
-      <c r="C79" s="402"/>
-      <c r="D79" s="295"/>
-      <c r="E79" s="328" t="s">
+      <c r="A79" s="373"/>
+      <c r="B79" s="373"/>
+      <c r="C79" s="373"/>
+      <c r="D79" s="290"/>
+      <c r="E79" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="328" t="s">
+      <c r="F79" s="325" t="s">
         <v>116</v>
       </c>
-      <c r="G79" s="328" t="s">
+      <c r="G79" s="325" t="s">
         <v>117</v>
       </c>
-      <c r="H79" s="328" t="s">
+      <c r="H79" s="325" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="328" t="s">
+      <c r="I79" s="325" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="328" t="s">
+      <c r="J79" s="325" t="s">
         <v>120</v>
       </c>
-      <c r="K79" s="328" t="s">
+      <c r="K79" s="325" t="s">
         <v>119</v>
       </c>
-      <c r="L79" s="328" t="s">
+      <c r="L79" s="325" t="s">
         <v>115</v>
       </c>
-      <c r="M79" s="328" t="s">
+      <c r="M79" s="325" t="s">
         <v>117</v>
       </c>
-      <c r="N79" s="328" t="s">
+      <c r="N79" s="325" t="s">
         <v>120</v>
       </c>
-      <c r="O79" s="328" t="s">
+      <c r="O79" s="325" t="s">
         <v>119</v>
       </c>
-      <c r="P79" s="325"/>
-      <c r="Q79" s="325"/>
-      <c r="R79" s="325"/>
+      <c r="P79" s="322"/>
+      <c r="Q79" s="322"/>
+      <c r="R79" s="322"/>
       <c r="S79" s="98"/>
-      <c r="T79" s="151"/>
-      <c r="U79" s="332" t="s">
+      <c r="T79" s="150"/>
+      <c r="U79" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="V79" s="327" t="s">
+      <c r="V79" s="324" t="s">
         <v>141</v>
       </c>
-      <c r="W79" s="327"/>
-      <c r="X79" s="327"/>
-      <c r="Y79" s="153"/>
-      <c r="Z79" s="153"/>
-      <c r="AA79" s="153"/>
+      <c r="W79" s="324"/>
+      <c r="X79" s="324"/>
+      <c r="Y79" s="152"/>
+      <c r="Z79" s="152"/>
+      <c r="AA79" s="152"/>
       <c r="AB79" s="88"/>
       <c r="AC79" s="88"/>
-      <c r="AD79" s="152"/>
+      <c r="AD79" s="151"/>
     </row>
     <row r="80" spans="1:31" ht="30" customHeight="1">
-      <c r="A80" s="403"/>
-      <c r="B80" s="403"/>
-      <c r="C80" s="403"/>
-      <c r="D80" s="296"/>
-      <c r="E80" s="329"/>
-      <c r="F80" s="329"/>
-      <c r="G80" s="329"/>
-      <c r="H80" s="329"/>
-      <c r="I80" s="329"/>
-      <c r="J80" s="329"/>
-      <c r="K80" s="329"/>
-      <c r="L80" s="329"/>
-      <c r="M80" s="329"/>
-      <c r="N80" s="329"/>
-      <c r="O80" s="329"/>
-      <c r="P80" s="326"/>
-      <c r="Q80" s="326"/>
-      <c r="R80" s="326"/>
-      <c r="S80" s="154"/>
-      <c r="T80" s="151"/>
-      <c r="U80" s="333"/>
-      <c r="V80" s="155" t="s">
+      <c r="A80" s="374"/>
+      <c r="B80" s="374"/>
+      <c r="C80" s="374"/>
+      <c r="D80" s="291"/>
+      <c r="E80" s="326"/>
+      <c r="F80" s="326"/>
+      <c r="G80" s="326"/>
+      <c r="H80" s="326"/>
+      <c r="I80" s="326"/>
+      <c r="J80" s="326"/>
+      <c r="K80" s="326"/>
+      <c r="L80" s="326"/>
+      <c r="M80" s="326"/>
+      <c r="N80" s="326"/>
+      <c r="O80" s="326"/>
+      <c r="P80" s="323"/>
+      <c r="Q80" s="323"/>
+      <c r="R80" s="323"/>
+      <c r="S80" s="153"/>
+      <c r="T80" s="150"/>
+      <c r="U80" s="330"/>
+      <c r="V80" s="154" t="s">
         <v>142</v>
       </c>
-      <c r="W80" s="155" t="s">
+      <c r="W80" s="154" t="s">
         <v>143</v>
       </c>
-      <c r="X80" s="155" t="s">
+      <c r="X80" s="154" t="s">
         <v>123</v>
       </c>
-      <c r="Y80" s="321"/>
-      <c r="Z80" s="321"/>
-      <c r="AA80" s="321"/>
-      <c r="AB80" s="154"/>
-      <c r="AC80" s="154"/>
-      <c r="AD80" s="152"/>
-      <c r="AE80" s="154"/>
+      <c r="Y80" s="318"/>
+      <c r="Z80" s="318"/>
+      <c r="AA80" s="318"/>
+      <c r="AB80" s="153"/>
+      <c r="AC80" s="153"/>
+      <c r="AD80" s="151"/>
+      <c r="AE80" s="153"/>
     </row>
     <row r="81" spans="1:31" ht="30" customHeight="1">
       <c r="A81" s="110" t="s">
@@ -6467,13 +6438,13 @@
       <c r="F81" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="G81" s="156" t="s">
+      <c r="G81" s="155" t="s">
         <v>198</v>
       </c>
       <c r="H81" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="I81" s="157" t="s">
+      <c r="I81" s="156" t="s">
         <v>203</v>
       </c>
       <c r="J81" s="111" t="s">
@@ -6492,363 +6463,367 @@
       <c r="O81" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="P81" s="158" t="s">
+      <c r="P81" s="157" t="s">
         <v>209</v>
       </c>
-      <c r="Q81" s="158"/>
-      <c r="R81" s="158"/>
-      <c r="S81" s="159"/>
-      <c r="T81" s="160"/>
-      <c r="U81" s="351"/>
-      <c r="V81" s="352"/>
-      <c r="W81" s="352"/>
-      <c r="X81" s="353"/>
-      <c r="Y81" s="161"/>
-      <c r="Z81" s="161"/>
-      <c r="AA81" s="161"/>
-      <c r="AB81" s="159"/>
-      <c r="AC81" s="159"/>
-      <c r="AD81" s="159"/>
-      <c r="AE81" s="159"/>
+      <c r="Q81" s="157"/>
+      <c r="R81" s="157"/>
+      <c r="S81" s="158"/>
+      <c r="T81" s="159"/>
+      <c r="U81" s="428" t="s">
+        <v>227</v>
+      </c>
+      <c r="V81" s="429"/>
+      <c r="W81" s="429"/>
+      <c r="X81" s="430"/>
+      <c r="Y81" s="160"/>
+      <c r="Z81" s="160"/>
+      <c r="AA81" s="160"/>
+      <c r="AB81" s="158"/>
+      <c r="AC81" s="158"/>
+      <c r="AD81" s="158"/>
+      <c r="AE81" s="158"/>
     </row>
     <row r="82" spans="1:31" ht="30" customHeight="1">
-      <c r="A82" s="162" t="s">
+      <c r="A82" s="161" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="275"/>
-      <c r="C82" s="276"/>
-      <c r="D82" s="276"/>
-      <c r="E82" s="276"/>
-      <c r="F82" s="276"/>
-      <c r="G82" s="276"/>
-      <c r="H82" s="276"/>
-      <c r="I82" s="276"/>
-      <c r="J82" s="276"/>
-      <c r="K82" s="276"/>
-      <c r="L82" s="276"/>
-      <c r="M82" s="276"/>
-      <c r="N82" s="276"/>
-      <c r="O82" s="276"/>
-      <c r="P82" s="276"/>
-      <c r="Q82" s="276"/>
-      <c r="R82" s="277"/>
-      <c r="S82" s="163"/>
-      <c r="T82" s="164"/>
-      <c r="U82" s="165"/>
-      <c r="V82" s="166"/>
-      <c r="W82" s="166"/>
-      <c r="X82" s="167"/>
-      <c r="Y82" s="168"/>
-      <c r="Z82" s="168"/>
-      <c r="AA82" s="169"/>
-      <c r="AB82" s="170"/>
-      <c r="AC82" s="163"/>
-      <c r="AD82" s="171"/>
-      <c r="AE82" s="172"/>
+      <c r="B82" s="270"/>
+      <c r="C82" s="271"/>
+      <c r="D82" s="271"/>
+      <c r="E82" s="271"/>
+      <c r="F82" s="271"/>
+      <c r="G82" s="271"/>
+      <c r="H82" s="271"/>
+      <c r="I82" s="271"/>
+      <c r="J82" s="271"/>
+      <c r="K82" s="271"/>
+      <c r="L82" s="271"/>
+      <c r="M82" s="271"/>
+      <c r="N82" s="271"/>
+      <c r="O82" s="271"/>
+      <c r="P82" s="271"/>
+      <c r="Q82" s="271"/>
+      <c r="R82" s="272"/>
+      <c r="S82" s="162"/>
+      <c r="T82" s="163"/>
+      <c r="U82" s="164"/>
+      <c r="V82" s="165"/>
+      <c r="W82" s="165"/>
+      <c r="X82" s="166"/>
+      <c r="Y82" s="167"/>
+      <c r="Z82" s="167"/>
+      <c r="AA82" s="168"/>
+      <c r="AB82" s="169"/>
+      <c r="AC82" s="162"/>
+      <c r="AD82" s="170"/>
+      <c r="AE82" s="171"/>
     </row>
     <row r="83" spans="1:31" ht="30" customHeight="1">
-      <c r="A83" s="173">
+      <c r="A83" s="172">
         <v>1</v>
       </c>
-      <c r="B83" s="174"/>
-      <c r="C83" s="175"/>
-      <c r="D83" s="176"/>
-      <c r="E83" s="177"/>
-      <c r="F83" s="176"/>
-      <c r="G83" s="176"/>
-      <c r="H83" s="178"/>
-      <c r="I83" s="176"/>
-      <c r="J83" s="178"/>
-      <c r="K83" s="178"/>
-      <c r="L83" s="179"/>
-      <c r="M83" s="179"/>
-      <c r="N83" s="178"/>
-      <c r="O83" s="178"/>
-      <c r="P83" s="180"/>
-      <c r="Q83" s="178"/>
-      <c r="R83" s="178"/>
-      <c r="S83" s="163"/>
-      <c r="T83" s="164"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="174"/>
+      <c r="D83" s="175"/>
+      <c r="E83" s="176"/>
+      <c r="F83" s="175"/>
+      <c r="G83" s="175"/>
+      <c r="H83" s="177"/>
+      <c r="I83" s="175"/>
+      <c r="J83" s="177"/>
+      <c r="K83" s="177"/>
+      <c r="L83" s="178"/>
+      <c r="M83" s="178"/>
+      <c r="N83" s="177"/>
+      <c r="O83" s="177"/>
+      <c r="P83" s="179"/>
+      <c r="Q83" s="177"/>
+      <c r="R83" s="177"/>
+      <c r="S83" s="162"/>
+      <c r="T83" s="163"/>
       <c r="U83" s="126"/>
-      <c r="V83" s="181"/>
-      <c r="W83" s="181"/>
-      <c r="X83" s="182"/>
-      <c r="Y83" s="183"/>
-      <c r="Z83" s="183"/>
-      <c r="AA83" s="184"/>
-      <c r="AB83" s="170"/>
-      <c r="AC83" s="163"/>
-      <c r="AD83" s="171"/>
-      <c r="AE83" s="172"/>
+      <c r="V83" s="180"/>
+      <c r="W83" s="180"/>
+      <c r="X83" s="181"/>
+      <c r="Y83" s="182"/>
+      <c r="Z83" s="182"/>
+      <c r="AA83" s="183"/>
+      <c r="AB83" s="169"/>
+      <c r="AC83" s="162"/>
+      <c r="AD83" s="170"/>
+      <c r="AE83" s="171"/>
     </row>
     <row r="84" spans="1:31" ht="30" customHeight="1">
-      <c r="A84" s="173">
+      <c r="A84" s="172">
         <v>2</v>
       </c>
-      <c r="B84" s="174"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="176"/>
-      <c r="E84" s="177"/>
-      <c r="F84" s="176"/>
-      <c r="G84" s="176"/>
-      <c r="H84" s="178"/>
-      <c r="I84" s="176"/>
-      <c r="J84" s="178"/>
-      <c r="K84" s="178"/>
-      <c r="L84" s="179"/>
-      <c r="M84" s="179"/>
-      <c r="N84" s="178"/>
-      <c r="O84" s="178"/>
-      <c r="P84" s="180"/>
-      <c r="Q84" s="178"/>
-      <c r="R84" s="178"/>
-      <c r="S84" s="185"/>
-      <c r="T84" s="164"/>
+      <c r="B84" s="173"/>
+      <c r="C84" s="174"/>
+      <c r="D84" s="175"/>
+      <c r="E84" s="176"/>
+      <c r="F84" s="175"/>
+      <c r="G84" s="175"/>
+      <c r="H84" s="177"/>
+      <c r="I84" s="175"/>
+      <c r="J84" s="177"/>
+      <c r="K84" s="177"/>
+      <c r="L84" s="178"/>
+      <c r="M84" s="178"/>
+      <c r="N84" s="177"/>
+      <c r="O84" s="177"/>
+      <c r="P84" s="179"/>
+      <c r="Q84" s="177"/>
+      <c r="R84" s="177"/>
+      <c r="S84" s="184"/>
+      <c r="T84" s="163"/>
       <c r="U84" s="126"/>
-      <c r="V84" s="181"/>
-      <c r="W84" s="181"/>
-      <c r="X84" s="182"/>
-      <c r="Y84" s="183"/>
-      <c r="Z84" s="183"/>
-      <c r="AA84" s="184"/>
-      <c r="AB84" s="170"/>
-      <c r="AC84" s="185"/>
-      <c r="AD84" s="171"/>
-      <c r="AE84" s="172"/>
+      <c r="V84" s="180"/>
+      <c r="W84" s="180"/>
+      <c r="X84" s="181"/>
+      <c r="Y84" s="182"/>
+      <c r="Z84" s="182"/>
+      <c r="AA84" s="183"/>
+      <c r="AB84" s="169"/>
+      <c r="AC84" s="184"/>
+      <c r="AD84" s="170"/>
+      <c r="AE84" s="171"/>
     </row>
     <row r="85" spans="1:31" ht="30" customHeight="1">
-      <c r="A85" s="173">
+      <c r="A85" s="172">
         <v>3</v>
       </c>
-      <c r="B85" s="174"/>
-      <c r="C85" s="175"/>
-      <c r="D85" s="176"/>
-      <c r="E85" s="177"/>
-      <c r="F85" s="176"/>
-      <c r="G85" s="176"/>
-      <c r="H85" s="178"/>
-      <c r="I85" s="176"/>
-      <c r="J85" s="178"/>
-      <c r="K85" s="178"/>
-      <c r="L85" s="179"/>
-      <c r="M85" s="179"/>
-      <c r="N85" s="178"/>
-      <c r="O85" s="178"/>
-      <c r="P85" s="180"/>
-      <c r="Q85" s="178"/>
-      <c r="R85" s="178"/>
-      <c r="S85" s="163"/>
-      <c r="T85" s="164"/>
+      <c r="B85" s="173"/>
+      <c r="C85" s="174"/>
+      <c r="D85" s="175"/>
+      <c r="E85" s="176"/>
+      <c r="F85" s="175"/>
+      <c r="G85" s="175"/>
+      <c r="H85" s="177"/>
+      <c r="I85" s="175"/>
+      <c r="J85" s="177"/>
+      <c r="K85" s="177"/>
+      <c r="L85" s="178"/>
+      <c r="M85" s="178"/>
+      <c r="N85" s="177"/>
+      <c r="O85" s="177"/>
+      <c r="P85" s="179"/>
+      <c r="Q85" s="177"/>
+      <c r="R85" s="177"/>
+      <c r="S85" s="162"/>
+      <c r="T85" s="163"/>
       <c r="U85" s="127"/>
-      <c r="V85" s="186"/>
-      <c r="W85" s="186"/>
-      <c r="X85" s="187"/>
-      <c r="Y85" s="183"/>
-      <c r="Z85" s="183"/>
-      <c r="AA85" s="184"/>
-      <c r="AB85" s="170"/>
-      <c r="AC85" s="163"/>
-      <c r="AD85" s="171"/>
-      <c r="AE85" s="172"/>
+      <c r="V85" s="185"/>
+      <c r="W85" s="185"/>
+      <c r="X85" s="186"/>
+      <c r="Y85" s="182"/>
+      <c r="Z85" s="182"/>
+      <c r="AA85" s="183"/>
+      <c r="AB85" s="169"/>
+      <c r="AC85" s="162"/>
+      <c r="AD85" s="170"/>
+      <c r="AE85" s="171"/>
     </row>
     <row r="86" spans="1:31" ht="30" customHeight="1">
-      <c r="A86" s="173">
+      <c r="A86" s="172">
         <v>4</v>
       </c>
-      <c r="B86" s="174"/>
-      <c r="C86" s="175"/>
-      <c r="D86" s="176"/>
-      <c r="E86" s="177"/>
-      <c r="F86" s="176"/>
-      <c r="G86" s="176"/>
-      <c r="H86" s="178"/>
-      <c r="I86" s="176"/>
-      <c r="J86" s="178"/>
-      <c r="K86" s="178"/>
-      <c r="L86" s="179"/>
-      <c r="M86" s="179"/>
-      <c r="N86" s="178"/>
-      <c r="O86" s="178"/>
-      <c r="P86" s="180"/>
-      <c r="Q86" s="178"/>
-      <c r="R86" s="178"/>
+      <c r="B86" s="173"/>
+      <c r="C86" s="174"/>
+      <c r="D86" s="175"/>
+      <c r="E86" s="176"/>
+      <c r="F86" s="175"/>
+      <c r="G86" s="175"/>
+      <c r="H86" s="177"/>
+      <c r="I86" s="175"/>
+      <c r="J86" s="177"/>
+      <c r="K86" s="177"/>
+      <c r="L86" s="178"/>
+      <c r="M86" s="178"/>
+      <c r="N86" s="177"/>
+      <c r="O86" s="177"/>
+      <c r="P86" s="179"/>
+      <c r="Q86" s="177"/>
+      <c r="R86" s="177"/>
       <c r="S86" s="98"/>
-      <c r="T86" s="151"/>
-      <c r="U86" s="354"/>
-      <c r="V86" s="355"/>
-      <c r="W86" s="355"/>
-      <c r="X86" s="356"/>
-      <c r="Y86" s="183"/>
-      <c r="Z86" s="183"/>
-      <c r="AA86" s="184"/>
-      <c r="AB86" s="170"/>
-      <c r="AC86" s="163"/>
-      <c r="AD86" s="171"/>
-      <c r="AE86" s="172"/>
+      <c r="T86" s="150"/>
+      <c r="U86" s="431" t="s">
+        <v>228</v>
+      </c>
+      <c r="V86" s="432"/>
+      <c r="W86" s="432"/>
+      <c r="X86" s="433"/>
+      <c r="Y86" s="182"/>
+      <c r="Z86" s="182"/>
+      <c r="AA86" s="183"/>
+      <c r="AB86" s="169"/>
+      <c r="AC86" s="162"/>
+      <c r="AD86" s="170"/>
+      <c r="AE86" s="171"/>
     </row>
     <row r="87" spans="1:31" ht="30" customHeight="1">
-      <c r="A87" s="192" t="s">
+      <c r="A87" s="191" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="278"/>
-      <c r="C87" s="279"/>
-      <c r="D87" s="279"/>
-      <c r="E87" s="279"/>
-      <c r="F87" s="279"/>
-      <c r="G87" s="279"/>
-      <c r="H87" s="279"/>
-      <c r="I87" s="279"/>
-      <c r="J87" s="279"/>
-      <c r="K87" s="279"/>
-      <c r="L87" s="279"/>
-      <c r="M87" s="279"/>
-      <c r="N87" s="279"/>
-      <c r="O87" s="279"/>
-      <c r="P87" s="279"/>
-      <c r="Q87" s="279"/>
-      <c r="R87" s="280"/>
-      <c r="S87" s="154"/>
-      <c r="T87" s="151"/>
-      <c r="U87" s="165"/>
-      <c r="V87" s="166"/>
-      <c r="W87" s="231"/>
-      <c r="X87" s="182"/>
-      <c r="Y87" s="188"/>
-      <c r="Z87" s="188"/>
-      <c r="AA87" s="189"/>
-      <c r="AB87" s="168"/>
-      <c r="AC87" s="168"/>
-      <c r="AD87" s="190"/>
-      <c r="AE87" s="191"/>
+      <c r="B87" s="273"/>
+      <c r="C87" s="274"/>
+      <c r="D87" s="274"/>
+      <c r="E87" s="274"/>
+      <c r="F87" s="274"/>
+      <c r="G87" s="274"/>
+      <c r="H87" s="274"/>
+      <c r="I87" s="274"/>
+      <c r="J87" s="274"/>
+      <c r="K87" s="274"/>
+      <c r="L87" s="274"/>
+      <c r="M87" s="274"/>
+      <c r="N87" s="274"/>
+      <c r="O87" s="274"/>
+      <c r="P87" s="274"/>
+      <c r="Q87" s="274"/>
+      <c r="R87" s="275"/>
+      <c r="S87" s="153"/>
+      <c r="T87" s="150"/>
+      <c r="U87" s="164"/>
+      <c r="V87" s="165"/>
+      <c r="W87" s="225"/>
+      <c r="X87" s="181"/>
+      <c r="Y87" s="187"/>
+      <c r="Z87" s="187"/>
+      <c r="AA87" s="188"/>
+      <c r="AB87" s="167"/>
+      <c r="AC87" s="167"/>
+      <c r="AD87" s="189"/>
+      <c r="AE87" s="190"/>
     </row>
     <row r="88" spans="1:31" ht="30" customHeight="1">
-      <c r="A88" s="173">
+      <c r="A88" s="172">
         <v>1</v>
       </c>
-      <c r="B88" s="174"/>
-      <c r="C88" s="175"/>
-      <c r="D88" s="176"/>
-      <c r="E88" s="177"/>
-      <c r="F88" s="176"/>
-      <c r="G88" s="176"/>
-      <c r="H88" s="178"/>
-      <c r="I88" s="176"/>
-      <c r="J88" s="178"/>
-      <c r="K88" s="178"/>
-      <c r="L88" s="179"/>
-      <c r="M88" s="179"/>
-      <c r="N88" s="178"/>
-      <c r="O88" s="178"/>
-      <c r="P88" s="180"/>
-      <c r="Q88" s="178"/>
-      <c r="R88" s="178"/>
-      <c r="S88" s="159"/>
-      <c r="T88" s="160"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="174"/>
+      <c r="D88" s="175"/>
+      <c r="E88" s="176"/>
+      <c r="F88" s="175"/>
+      <c r="G88" s="175"/>
+      <c r="H88" s="177"/>
+      <c r="I88" s="175"/>
+      <c r="J88" s="177"/>
+      <c r="K88" s="177"/>
+      <c r="L88" s="178"/>
+      <c r="M88" s="178"/>
+      <c r="N88" s="177"/>
+      <c r="O88" s="177"/>
+      <c r="P88" s="179"/>
+      <c r="Q88" s="177"/>
+      <c r="R88" s="177"/>
+      <c r="S88" s="158"/>
+      <c r="T88" s="159"/>
       <c r="U88" s="126"/>
-      <c r="V88" s="181"/>
-      <c r="W88" s="232"/>
-      <c r="X88" s="182"/>
-      <c r="Y88" s="188"/>
-      <c r="Z88" s="188"/>
-      <c r="AA88" s="189"/>
-      <c r="AB88" s="168"/>
-      <c r="AC88" s="168"/>
-      <c r="AD88" s="190"/>
-      <c r="AE88" s="191"/>
+      <c r="V88" s="180"/>
+      <c r="W88" s="226"/>
+      <c r="X88" s="181"/>
+      <c r="Y88" s="187"/>
+      <c r="Z88" s="187"/>
+      <c r="AA88" s="188"/>
+      <c r="AB88" s="167"/>
+      <c r="AC88" s="167"/>
+      <c r="AD88" s="189"/>
+      <c r="AE88" s="190"/>
     </row>
     <row r="89" spans="1:31" ht="30" customHeight="1">
-      <c r="A89" s="173">
+      <c r="A89" s="172">
         <v>2</v>
       </c>
-      <c r="B89" s="174"/>
-      <c r="C89" s="175"/>
-      <c r="D89" s="176"/>
-      <c r="E89" s="177"/>
-      <c r="F89" s="176"/>
-      <c r="G89" s="176"/>
-      <c r="H89" s="178"/>
-      <c r="I89" s="176"/>
-      <c r="J89" s="178"/>
-      <c r="K89" s="178"/>
-      <c r="L89" s="179"/>
-      <c r="M89" s="179"/>
-      <c r="N89" s="178"/>
-      <c r="O89" s="178"/>
-      <c r="P89" s="180"/>
-      <c r="Q89" s="178"/>
-      <c r="R89" s="178"/>
-      <c r="S89" s="163"/>
-      <c r="T89" s="164"/>
+      <c r="B89" s="173"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="176"/>
+      <c r="F89" s="175"/>
+      <c r="G89" s="175"/>
+      <c r="H89" s="177"/>
+      <c r="I89" s="175"/>
+      <c r="J89" s="177"/>
+      <c r="K89" s="177"/>
+      <c r="L89" s="178"/>
+      <c r="M89" s="178"/>
+      <c r="N89" s="177"/>
+      <c r="O89" s="177"/>
+      <c r="P89" s="179"/>
+      <c r="Q89" s="177"/>
+      <c r="R89" s="177"/>
+      <c r="S89" s="162"/>
+      <c r="T89" s="163"/>
       <c r="U89" s="126"/>
-      <c r="V89" s="181"/>
-      <c r="W89" s="232"/>
-      <c r="X89" s="182"/>
-      <c r="Y89" s="188"/>
-      <c r="Z89" s="188"/>
-      <c r="AA89" s="189"/>
-      <c r="AB89" s="168"/>
-      <c r="AC89" s="168"/>
-      <c r="AD89" s="190"/>
-      <c r="AE89" s="191"/>
+      <c r="V89" s="180"/>
+      <c r="W89" s="226"/>
+      <c r="X89" s="181"/>
+      <c r="Y89" s="187"/>
+      <c r="Z89" s="187"/>
+      <c r="AA89" s="188"/>
+      <c r="AB89" s="167"/>
+      <c r="AC89" s="167"/>
+      <c r="AD89" s="189"/>
+      <c r="AE89" s="190"/>
     </row>
     <row r="90" spans="1:31" ht="30" customHeight="1">
-      <c r="A90" s="173">
+      <c r="A90" s="172">
         <v>3</v>
       </c>
-      <c r="B90" s="174"/>
-      <c r="C90" s="175"/>
-      <c r="D90" s="176"/>
-      <c r="E90" s="177"/>
-      <c r="F90" s="176"/>
-      <c r="G90" s="176"/>
-      <c r="H90" s="178"/>
-      <c r="I90" s="176"/>
-      <c r="J90" s="178"/>
-      <c r="K90" s="178"/>
-      <c r="L90" s="179"/>
-      <c r="M90" s="179"/>
-      <c r="N90" s="178"/>
-      <c r="O90" s="178"/>
-      <c r="P90" s="180"/>
-      <c r="Q90" s="178"/>
-      <c r="R90" s="178"/>
-      <c r="S90" s="163"/>
-      <c r="T90" s="164"/>
+      <c r="B90" s="173"/>
+      <c r="C90" s="174"/>
+      <c r="D90" s="175"/>
+      <c r="E90" s="176"/>
+      <c r="F90" s="175"/>
+      <c r="G90" s="175"/>
+      <c r="H90" s="177"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="177"/>
+      <c r="K90" s="177"/>
+      <c r="L90" s="178"/>
+      <c r="M90" s="178"/>
+      <c r="N90" s="177"/>
+      <c r="O90" s="177"/>
+      <c r="P90" s="179"/>
+      <c r="Q90" s="177"/>
+      <c r="R90" s="177"/>
+      <c r="S90" s="162"/>
+      <c r="T90" s="163"/>
       <c r="U90" s="127"/>
-      <c r="V90" s="186"/>
-      <c r="W90" s="233"/>
-      <c r="X90" s="182"/>
-      <c r="Y90" s="188"/>
-      <c r="Z90" s="188"/>
-      <c r="AA90" s="189"/>
-      <c r="AB90" s="168"/>
-      <c r="AC90" s="168"/>
-      <c r="AD90" s="190"/>
-      <c r="AE90" s="191"/>
+      <c r="V90" s="185"/>
+      <c r="W90" s="227"/>
+      <c r="X90" s="181"/>
+      <c r="Y90" s="187"/>
+      <c r="Z90" s="187"/>
+      <c r="AA90" s="188"/>
+      <c r="AB90" s="167"/>
+      <c r="AC90" s="167"/>
+      <c r="AD90" s="189"/>
+      <c r="AE90" s="190"/>
     </row>
     <row r="91" spans="1:31" ht="30" customHeight="1">
-      <c r="A91" s="173">
+      <c r="A91" s="172">
         <v>4</v>
       </c>
-      <c r="B91" s="174"/>
-      <c r="C91" s="175"/>
-      <c r="D91" s="176"/>
-      <c r="E91" s="177"/>
-      <c r="F91" s="176"/>
-      <c r="G91" s="176"/>
-      <c r="H91" s="178"/>
-      <c r="I91" s="176"/>
-      <c r="J91" s="178"/>
-      <c r="K91" s="178"/>
-      <c r="L91" s="179"/>
-      <c r="M91" s="179"/>
-      <c r="N91" s="178"/>
-      <c r="O91" s="178"/>
-      <c r="P91" s="180"/>
-      <c r="Q91" s="178"/>
-      <c r="R91" s="178"/>
+      <c r="B91" s="173"/>
+      <c r="C91" s="174"/>
+      <c r="D91" s="175"/>
+      <c r="E91" s="176"/>
+      <c r="F91" s="175"/>
+      <c r="G91" s="175"/>
+      <c r="H91" s="177"/>
+      <c r="I91" s="175"/>
+      <c r="J91" s="177"/>
+      <c r="K91" s="177"/>
+      <c r="L91" s="178"/>
+      <c r="M91" s="178"/>
+      <c r="N91" s="177"/>
+      <c r="O91" s="177"/>
+      <c r="P91" s="179"/>
+      <c r="Q91" s="177"/>
+      <c r="R91" s="177"/>
       <c r="S91" s="98"/>
-      <c r="T91" s="151"/>
+      <c r="T91" s="150"/>
       <c r="U91" s="87"/>
       <c r="V91" s="87"/>
       <c r="W91" s="87"/>
@@ -6856,10 +6831,10 @@
       <c r="Y91" s="87"/>
       <c r="Z91" s="87"/>
       <c r="AA91" s="87"/>
-      <c r="AB91" s="194"/>
-      <c r="AC91" s="194"/>
-      <c r="AD91" s="190"/>
-      <c r="AE91" s="191"/>
+      <c r="AB91" s="193"/>
+      <c r="AC91" s="193"/>
+      <c r="AD91" s="189"/>
+      <c r="AE91" s="190"/>
     </row>
     <row r="92" spans="1:31" ht="30" customHeight="1">
       <c r="A92" s="88"/>
@@ -6880,8 +6855,8 @@
       <c r="P92" s="88"/>
       <c r="Q92" s="88"/>
       <c r="R92" s="88"/>
-      <c r="S92" s="154"/>
-      <c r="T92" s="151"/>
+      <c r="S92" s="153"/>
+      <c r="T92" s="150"/>
       <c r="U92" s="87"/>
       <c r="V92" s="87"/>
       <c r="W92" s="87"/>
@@ -6889,10 +6864,10 @@
       <c r="Y92" s="87"/>
       <c r="Z92" s="87"/>
       <c r="AA92" s="87"/>
-      <c r="AB92" s="194"/>
-      <c r="AC92" s="194"/>
-      <c r="AD92" s="190"/>
-      <c r="AE92" s="191"/>
+      <c r="AB92" s="193"/>
+      <c r="AC92" s="193"/>
+      <c r="AD92" s="189"/>
+      <c r="AE92" s="190"/>
     </row>
     <row r="93" spans="1:31" ht="30" customHeight="1">
       <c r="A93" s="128"/>
@@ -6904,17 +6879,17 @@
       <c r="G93" s="88"/>
       <c r="H93" s="88"/>
       <c r="I93" s="88"/>
-      <c r="J93" s="240"/>
-      <c r="K93" s="240"/>
-      <c r="L93" s="240"/>
-      <c r="M93" s="240"/>
-      <c r="N93" s="240"/>
-      <c r="O93" s="240"/>
-      <c r="P93" s="240"/>
+      <c r="J93" s="234"/>
+      <c r="K93" s="234"/>
+      <c r="L93" s="509"/>
+      <c r="M93" s="509"/>
+      <c r="N93" s="509"/>
+      <c r="O93" s="509"/>
+      <c r="P93" s="509"/>
       <c r="Q93" s="130"/>
       <c r="R93" s="130"/>
-      <c r="S93" s="159"/>
-      <c r="T93" s="160"/>
+      <c r="S93" s="158"/>
+      <c r="T93" s="159"/>
       <c r="U93" s="88"/>
       <c r="V93" s="88"/>
       <c r="W93" s="97"/>
@@ -6924,44 +6899,44 @@
       <c r="AA93" s="88"/>
       <c r="AB93" s="88"/>
       <c r="AC93" s="88"/>
-      <c r="AD93" s="190"/>
-      <c r="AE93" s="191"/>
+      <c r="AD93" s="189"/>
+      <c r="AE93" s="190"/>
     </row>
     <row r="94" spans="1:31" ht="30" customHeight="1">
-      <c r="A94" s="241" t="s">
+      <c r="A94" s="313" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="241"/>
-      <c r="C94" s="242" t="s">
+      <c r="B94" s="313"/>
+      <c r="C94" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="242"/>
-      <c r="E94" s="242"/>
-      <c r="F94" s="242"/>
-      <c r="G94" s="87" t="s">
+      <c r="D94" s="313"/>
+      <c r="E94" s="313"/>
+      <c r="F94" s="313"/>
+      <c r="G94" s="314" t="s">
         <v>127</v>
       </c>
-      <c r="H94" s="87"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="87"/>
-      <c r="K94" s="87"/>
-      <c r="L94" s="87"/>
-      <c r="M94" s="87"/>
-      <c r="N94" s="87"/>
-      <c r="O94" s="87"/>
-      <c r="P94" s="87"/>
-      <c r="Q94" s="194"/>
-      <c r="R94" s="194"/>
-      <c r="S94" s="163"/>
-      <c r="T94" s="164"/>
-      <c r="U94" s="368" t="s">
+      <c r="H94" s="314"/>
+      <c r="I94" s="314"/>
+      <c r="J94" s="314"/>
+      <c r="K94" s="314"/>
+      <c r="L94" s="328"/>
+      <c r="M94" s="328"/>
+      <c r="N94" s="328"/>
+      <c r="O94" s="328"/>
+      <c r="P94" s="328"/>
+      <c r="Q94" s="193"/>
+      <c r="R94" s="193"/>
+      <c r="S94" s="162"/>
+      <c r="T94" s="163"/>
+      <c r="U94" s="353" t="s">
         <v>53</v>
       </c>
-      <c r="V94" s="365" t="s">
+      <c r="V94" s="350" t="s">
         <v>145</v>
       </c>
-      <c r="W94" s="366"/>
-      <c r="X94" s="367"/>
+      <c r="W94" s="351"/>
+      <c r="X94" s="352"/>
       <c r="Y94" s="91"/>
       <c r="Z94" s="91"/>
       <c r="AA94" s="91"/>
@@ -6982,23 +6957,23 @@
       <c r="I95" s="132"/>
       <c r="J95" s="87"/>
       <c r="K95" s="87"/>
-      <c r="L95" s="87"/>
-      <c r="M95" s="87"/>
-      <c r="N95" s="87"/>
-      <c r="O95" s="87"/>
-      <c r="P95" s="87"/>
-      <c r="Q95" s="194"/>
-      <c r="R95" s="194"/>
-      <c r="S95" s="163"/>
-      <c r="T95" s="164"/>
-      <c r="U95" s="369"/>
+      <c r="L95" s="314"/>
+      <c r="M95" s="314"/>
+      <c r="N95" s="314"/>
+      <c r="O95" s="314"/>
+      <c r="P95" s="314"/>
+      <c r="Q95" s="193"/>
+      <c r="R95" s="193"/>
+      <c r="S95" s="162"/>
+      <c r="T95" s="163"/>
+      <c r="U95" s="354"/>
       <c r="V95" s="135" t="s">
         <v>146</v>
       </c>
       <c r="W95" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="X95" s="193" t="s">
+      <c r="X95" s="192" t="s">
         <v>123</v>
       </c>
       <c r="Y95" s="131"/>
@@ -7028,12 +7003,12 @@
       <c r="P96" s="88"/>
       <c r="Q96" s="88"/>
       <c r="R96" s="88"/>
-      <c r="S96" s="185"/>
-      <c r="T96" s="164"/>
-      <c r="U96" s="195"/>
-      <c r="V96" s="234"/>
-      <c r="W96" s="235"/>
-      <c r="X96" s="236"/>
+      <c r="S96" s="184"/>
+      <c r="T96" s="163"/>
+      <c r="U96" s="194"/>
+      <c r="V96" s="228"/>
+      <c r="W96" s="229"/>
+      <c r="X96" s="230"/>
       <c r="Y96" s="131"/>
       <c r="Z96" s="131"/>
       <c r="AA96" s="131"/>
@@ -7057,12 +7032,12 @@
       <c r="P97" s="88"/>
       <c r="Q97" s="88"/>
       <c r="R97" s="88"/>
-      <c r="S97" s="163"/>
-      <c r="T97" s="164"/>
-      <c r="U97" s="196"/>
-      <c r="V97" s="235"/>
-      <c r="W97" s="235"/>
-      <c r="X97" s="237"/>
+      <c r="S97" s="162"/>
+      <c r="T97" s="163"/>
+      <c r="U97" s="195"/>
+      <c r="V97" s="229"/>
+      <c r="W97" s="229"/>
+      <c r="X97" s="231"/>
       <c r="Y97" s="131"/>
       <c r="Z97" s="131"/>
       <c r="AA97" s="131"/>
@@ -7088,10 +7063,10 @@
       <c r="R98" s="88"/>
       <c r="S98" s="88"/>
       <c r="T98" s="88"/>
-      <c r="U98" s="196"/>
-      <c r="V98" s="235"/>
-      <c r="W98" s="235"/>
-      <c r="X98" s="237"/>
+      <c r="U98" s="195"/>
+      <c r="V98" s="229"/>
+      <c r="W98" s="229"/>
+      <c r="X98" s="231"/>
       <c r="Y98" s="88"/>
       <c r="Z98" s="88"/>
       <c r="AA98" s="88"/>
@@ -7117,10 +7092,10 @@
       <c r="R99" s="88"/>
       <c r="S99" s="88"/>
       <c r="T99" s="88"/>
-      <c r="U99" s="197"/>
-      <c r="V99" s="238"/>
-      <c r="W99" s="238"/>
-      <c r="X99" s="239"/>
+      <c r="U99" s="196"/>
+      <c r="V99" s="232"/>
+      <c r="W99" s="232"/>
+      <c r="X99" s="233"/>
       <c r="Y99" s="88"/>
       <c r="Z99" s="88"/>
       <c r="AA99" s="88"/>
@@ -7135,13 +7110,13 @@
       <c r="G100" s="134"/>
       <c r="H100" s="134"/>
       <c r="I100" s="134"/>
-      <c r="J100" s="350"/>
-      <c r="K100" s="350"/>
-      <c r="L100" s="350"/>
-      <c r="M100" s="350"/>
-      <c r="N100" s="350"/>
-      <c r="O100" s="350"/>
-      <c r="P100" s="350"/>
+      <c r="J100" s="510"/>
+      <c r="K100" s="510"/>
+      <c r="L100" s="315"/>
+      <c r="M100" s="315"/>
+      <c r="N100" s="315"/>
+      <c r="O100" s="315"/>
+      <c r="P100" s="315"/>
       <c r="Q100" s="134"/>
       <c r="R100" s="134"/>
       <c r="S100" s="88"/>
@@ -7163,7 +7138,7 @@
     </row>
     <row r="101" spans="1:34" ht="30" customHeight="1">
       <c r="A101" s="88"/>
-      <c r="B101" s="150"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="88"/>
       <c r="D101" s="88"/>
       <c r="E101" s="88"/>
@@ -7261,13 +7236,13 @@
       <c r="G104" s="134"/>
       <c r="H104" s="134"/>
       <c r="I104" s="134"/>
-      <c r="J104" s="350"/>
-      <c r="K104" s="350"/>
-      <c r="L104" s="350"/>
-      <c r="M104" s="350"/>
-      <c r="N104" s="350"/>
-      <c r="O104" s="350"/>
-      <c r="P104" s="350"/>
+      <c r="J104" s="315"/>
+      <c r="K104" s="315"/>
+      <c r="L104" s="315"/>
+      <c r="M104" s="315"/>
+      <c r="N104" s="315"/>
+      <c r="O104" s="315"/>
+      <c r="P104" s="315"/>
       <c r="Q104" s="134"/>
       <c r="R104" s="134"/>
       <c r="S104" s="88"/>
@@ -7277,19 +7252,19 @@
       <c r="W104" s="134"/>
       <c r="X104" s="134"/>
       <c r="Y104" s="134"/>
-      <c r="Z104" s="350"/>
-      <c r="AA104" s="350"/>
-      <c r="AB104" s="350"/>
-      <c r="AC104" s="350"/>
-      <c r="AD104" s="350"/>
-      <c r="AE104" s="350"/>
-      <c r="AF104" s="350"/>
+      <c r="Z104" s="315"/>
+      <c r="AA104" s="315"/>
+      <c r="AB104" s="315"/>
+      <c r="AC104" s="315"/>
+      <c r="AD104" s="315"/>
+      <c r="AE104" s="315"/>
+      <c r="AF104" s="315"/>
       <c r="AG104" s="134"/>
       <c r="AH104" s="134"/>
     </row>
     <row r="105" spans="1:34" ht="30" customHeight="1">
       <c r="A105" s="88"/>
-      <c r="B105" s="150"/>
+      <c r="B105" s="149"/>
       <c r="C105" s="88"/>
       <c r="D105" s="88"/>
       <c r="E105" s="88"/>
@@ -7373,13 +7348,13 @@
       <c r="G108" s="134"/>
       <c r="H108" s="134"/>
       <c r="I108" s="134"/>
-      <c r="J108" s="350"/>
-      <c r="K108" s="350"/>
-      <c r="L108" s="350"/>
-      <c r="M108" s="350"/>
-      <c r="N108" s="350"/>
-      <c r="O108" s="350"/>
-      <c r="P108" s="350"/>
+      <c r="J108" s="315"/>
+      <c r="K108" s="315"/>
+      <c r="L108" s="315"/>
+      <c r="M108" s="315"/>
+      <c r="N108" s="315"/>
+      <c r="O108" s="315"/>
+      <c r="P108" s="315"/>
       <c r="Q108" s="134"/>
       <c r="R108" s="134"/>
       <c r="S108" s="88"/>
@@ -7389,19 +7364,19 @@
       <c r="W108" s="134"/>
       <c r="X108" s="134"/>
       <c r="Y108" s="134"/>
-      <c r="Z108" s="350"/>
-      <c r="AA108" s="350"/>
-      <c r="AB108" s="350"/>
-      <c r="AC108" s="350"/>
-      <c r="AD108" s="350"/>
-      <c r="AE108" s="350"/>
-      <c r="AF108" s="350"/>
+      <c r="Z108" s="315"/>
+      <c r="AA108" s="315"/>
+      <c r="AB108" s="315"/>
+      <c r="AC108" s="315"/>
+      <c r="AD108" s="315"/>
+      <c r="AE108" s="315"/>
+      <c r="AF108" s="315"/>
       <c r="AG108" s="134"/>
       <c r="AH108" s="134"/>
     </row>
     <row r="109" spans="1:34" ht="30" customHeight="1">
       <c r="A109" s="88"/>
-      <c r="B109" s="150"/>
+      <c r="B109" s="149"/>
       <c r="C109" s="88"/>
       <c r="D109" s="88"/>
       <c r="E109" s="88"/>
@@ -7445,13 +7420,13 @@
       <c r="G110" s="134"/>
       <c r="H110" s="134"/>
       <c r="I110" s="134"/>
-      <c r="J110" s="350"/>
-      <c r="K110" s="350"/>
-      <c r="L110" s="350"/>
-      <c r="M110" s="350"/>
-      <c r="N110" s="350"/>
-      <c r="O110" s="350"/>
-      <c r="P110" s="350"/>
+      <c r="J110" s="315"/>
+      <c r="K110" s="315"/>
+      <c r="L110" s="315"/>
+      <c r="M110" s="315"/>
+      <c r="N110" s="315"/>
+      <c r="O110" s="315"/>
+      <c r="P110" s="315"/>
       <c r="Q110" s="134"/>
       <c r="R110" s="134"/>
       <c r="S110" s="88"/>
@@ -7459,7 +7434,7 @@
     </row>
     <row r="111" spans="1:34" ht="30" customHeight="1">
       <c r="A111" s="88"/>
-      <c r="B111" s="150"/>
+      <c r="B111" s="149"/>
       <c r="C111" s="88"/>
       <c r="D111" s="88"/>
       <c r="E111" s="88"/>
@@ -7494,26 +7469,26 @@
       <c r="AH111" s="88"/>
     </row>
     <row r="112" spans="1:34" ht="30" customHeight="1">
-      <c r="A112" s="297" t="s">
+      <c r="A112" s="292" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="297"/>
-      <c r="C112" s="297"/>
-      <c r="D112" s="297"/>
+      <c r="B112" s="292"/>
+      <c r="C112" s="292"/>
+      <c r="D112" s="292"/>
       <c r="E112" s="89"/>
       <c r="F112" s="90"/>
       <c r="G112" s="90"/>
       <c r="H112" s="90"/>
       <c r="I112" s="89"/>
-      <c r="J112" s="298" t="s">
+      <c r="J112" s="293" t="s">
         <v>104</v>
       </c>
-      <c r="K112" s="298"/>
-      <c r="L112" s="298"/>
-      <c r="M112" s="298"/>
-      <c r="N112" s="298"/>
-      <c r="O112" s="298"/>
-      <c r="P112" s="298"/>
+      <c r="K112" s="293"/>
+      <c r="L112" s="293"/>
+      <c r="M112" s="293"/>
+      <c r="N112" s="293"/>
+      <c r="O112" s="293"/>
+      <c r="P112" s="293"/>
       <c r="Q112" s="89"/>
       <c r="R112" s="89"/>
       <c r="S112" s="89"/>
@@ -7534,26 +7509,26 @@
       <c r="AH112" s="88"/>
     </row>
     <row r="113" spans="1:34" ht="30" customHeight="1">
-      <c r="A113" s="299" t="s">
+      <c r="A113" s="294" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="299"/>
-      <c r="C113" s="299"/>
-      <c r="D113" s="299"/>
+      <c r="B113" s="294"/>
+      <c r="C113" s="294"/>
+      <c r="D113" s="294"/>
       <c r="E113" s="89"/>
       <c r="F113" s="92"/>
       <c r="G113" s="92"/>
       <c r="H113" s="92"/>
       <c r="I113" s="89"/>
-      <c r="J113" s="300" t="s">
+      <c r="J113" s="295" t="s">
         <v>106</v>
       </c>
-      <c r="K113" s="300"/>
-      <c r="L113" s="300"/>
-      <c r="M113" s="300"/>
-      <c r="N113" s="300"/>
-      <c r="O113" s="300"/>
-      <c r="P113" s="300"/>
+      <c r="K113" s="295"/>
+      <c r="L113" s="295"/>
+      <c r="M113" s="295"/>
+      <c r="N113" s="295"/>
+      <c r="O113" s="295"/>
+      <c r="P113" s="295"/>
       <c r="Q113" s="90"/>
       <c r="R113" s="90"/>
       <c r="S113" s="90"/>
@@ -7579,7 +7554,7 @@
       <c r="C114" s="94"/>
       <c r="D114" s="95"/>
       <c r="E114" s="95"/>
-      <c r="F114" s="198"/>
+      <c r="F114" s="197"/>
       <c r="G114" s="129"/>
       <c r="H114" s="129"/>
       <c r="I114" s="95"/>
@@ -7610,24 +7585,24 @@
       <c r="AH114" s="88"/>
     </row>
     <row r="115" spans="1:34" ht="30" customHeight="1">
-      <c r="A115" s="286" t="s">
+      <c r="A115" s="281" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="286"/>
-      <c r="C115" s="286"/>
-      <c r="D115" s="286"/>
-      <c r="E115" s="286"/>
-      <c r="F115" s="286"/>
-      <c r="G115" s="286"/>
-      <c r="H115" s="286"/>
-      <c r="I115" s="286"/>
-      <c r="J115" s="286"/>
-      <c r="K115" s="286"/>
-      <c r="L115" s="286"/>
-      <c r="M115" s="286"/>
-      <c r="N115" s="286"/>
-      <c r="O115" s="286"/>
-      <c r="P115" s="286"/>
+      <c r="B115" s="281"/>
+      <c r="C115" s="281"/>
+      <c r="D115" s="281"/>
+      <c r="E115" s="281"/>
+      <c r="F115" s="281"/>
+      <c r="G115" s="281"/>
+      <c r="H115" s="281"/>
+      <c r="I115" s="281"/>
+      <c r="J115" s="281"/>
+      <c r="K115" s="281"/>
+      <c r="L115" s="281"/>
+      <c r="M115" s="281"/>
+      <c r="N115" s="281"/>
+      <c r="O115" s="281"/>
+      <c r="P115" s="281"/>
       <c r="Q115" s="99"/>
       <c r="R115" s="99"/>
       <c r="S115" s="99"/>
@@ -7648,22 +7623,22 @@
       <c r="AH115" s="88"/>
     </row>
     <row r="116" spans="1:34" ht="30" customHeight="1">
-      <c r="A116" s="343"/>
-      <c r="B116" s="343"/>
-      <c r="C116" s="343"/>
-      <c r="D116" s="343"/>
-      <c r="E116" s="343"/>
-      <c r="F116" s="343"/>
-      <c r="G116" s="343"/>
-      <c r="H116" s="343"/>
-      <c r="I116" s="343"/>
-      <c r="J116" s="343"/>
-      <c r="K116" s="343"/>
-      <c r="L116" s="343"/>
-      <c r="M116" s="343"/>
-      <c r="N116" s="343"/>
-      <c r="O116" s="343"/>
-      <c r="P116" s="343"/>
+      <c r="A116" s="340"/>
+      <c r="B116" s="340"/>
+      <c r="C116" s="340"/>
+      <c r="D116" s="340"/>
+      <c r="E116" s="340"/>
+      <c r="F116" s="340"/>
+      <c r="G116" s="340"/>
+      <c r="H116" s="340"/>
+      <c r="I116" s="340"/>
+      <c r="J116" s="340"/>
+      <c r="K116" s="340"/>
+      <c r="L116" s="340"/>
+      <c r="M116" s="340"/>
+      <c r="N116" s="340"/>
+      <c r="O116" s="340"/>
+      <c r="P116" s="340"/>
       <c r="Q116" s="101"/>
       <c r="R116" s="101"/>
       <c r="S116" s="101"/>
@@ -7673,13 +7648,13 @@
       <c r="W116" s="134"/>
       <c r="X116" s="134"/>
       <c r="Y116" s="134"/>
-      <c r="Z116" s="350"/>
-      <c r="AA116" s="350"/>
-      <c r="AB116" s="350"/>
-      <c r="AC116" s="350"/>
-      <c r="AD116" s="350"/>
-      <c r="AE116" s="350"/>
-      <c r="AF116" s="350"/>
+      <c r="Z116" s="315"/>
+      <c r="AA116" s="315"/>
+      <c r="AB116" s="315"/>
+      <c r="AC116" s="315"/>
+      <c r="AD116" s="315"/>
+      <c r="AE116" s="315"/>
+      <c r="AF116" s="315"/>
       <c r="AG116" s="134"/>
       <c r="AH116" s="134"/>
     </row>
@@ -7720,60 +7695,60 @@
       <c r="AH117" s="88"/>
     </row>
     <row r="118" spans="1:34" ht="30" customHeight="1">
-      <c r="A118" s="401" t="s">
+      <c r="A118" s="372" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="344" t="s">
+      <c r="B118" s="341" t="s">
         <v>108</v>
       </c>
-      <c r="C118" s="345"/>
-      <c r="D118" s="288" t="s">
+      <c r="C118" s="342"/>
+      <c r="D118" s="283" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="290"/>
-      <c r="F118" s="288" t="s">
+      <c r="E118" s="285"/>
+      <c r="F118" s="283" t="s">
         <v>110</v>
       </c>
-      <c r="G118" s="289"/>
-      <c r="H118" s="290"/>
-      <c r="I118" s="288" t="s">
+      <c r="G118" s="284"/>
+      <c r="H118" s="285"/>
+      <c r="I118" s="283" t="s">
         <v>149</v>
       </c>
-      <c r="J118" s="289"/>
-      <c r="K118" s="289"/>
-      <c r="L118" s="290"/>
-      <c r="M118" s="371" t="s">
+      <c r="J118" s="284"/>
+      <c r="K118" s="284"/>
+      <c r="L118" s="285"/>
+      <c r="M118" s="361" t="s">
         <v>150</v>
       </c>
-      <c r="N118" s="372"/>
-      <c r="O118" s="372"/>
-      <c r="P118" s="373"/>
-      <c r="Q118" s="200"/>
-      <c r="R118" s="200"/>
-      <c r="S118" s="200"/>
-      <c r="T118" s="200"/>
+      <c r="N118" s="362"/>
+      <c r="O118" s="362"/>
+      <c r="P118" s="363"/>
+      <c r="Q118" s="199"/>
+      <c r="R118" s="199"/>
+      <c r="S118" s="199"/>
+      <c r="T118" s="199"/>
     </row>
     <row r="119" spans="1:34" ht="30" customHeight="1">
-      <c r="A119" s="402"/>
-      <c r="B119" s="346"/>
-      <c r="C119" s="347"/>
-      <c r="D119" s="340"/>
-      <c r="E119" s="342"/>
-      <c r="F119" s="340"/>
-      <c r="G119" s="341"/>
-      <c r="H119" s="342"/>
-      <c r="I119" s="291"/>
-      <c r="J119" s="292"/>
-      <c r="K119" s="292"/>
-      <c r="L119" s="293"/>
-      <c r="M119" s="374"/>
-      <c r="N119" s="375"/>
-      <c r="O119" s="375"/>
-      <c r="P119" s="376"/>
-      <c r="Q119" s="200"/>
-      <c r="R119" s="200"/>
-      <c r="S119" s="200"/>
-      <c r="T119" s="200"/>
+      <c r="A119" s="373"/>
+      <c r="B119" s="343"/>
+      <c r="C119" s="344"/>
+      <c r="D119" s="337"/>
+      <c r="E119" s="339"/>
+      <c r="F119" s="337"/>
+      <c r="G119" s="338"/>
+      <c r="H119" s="339"/>
+      <c r="I119" s="286"/>
+      <c r="J119" s="287"/>
+      <c r="K119" s="287"/>
+      <c r="L119" s="288"/>
+      <c r="M119" s="364"/>
+      <c r="N119" s="365"/>
+      <c r="O119" s="365"/>
+      <c r="P119" s="366"/>
+      <c r="Q119" s="199"/>
+      <c r="R119" s="199"/>
+      <c r="S119" s="199"/>
+      <c r="T119" s="199"/>
       <c r="U119" s="88"/>
       <c r="V119" s="88"/>
       <c r="W119" s="132"/>
@@ -7790,42 +7765,42 @@
       <c r="AH119" s="88"/>
     </row>
     <row r="120" spans="1:34" ht="30" customHeight="1">
-      <c r="A120" s="403"/>
-      <c r="B120" s="348"/>
-      <c r="C120" s="349"/>
-      <c r="D120" s="291"/>
-      <c r="E120" s="293"/>
-      <c r="F120" s="291"/>
-      <c r="G120" s="292"/>
-      <c r="H120" s="293"/>
-      <c r="I120" s="309" t="s">
+      <c r="A120" s="374"/>
+      <c r="B120" s="345"/>
+      <c r="C120" s="346"/>
+      <c r="D120" s="286"/>
+      <c r="E120" s="288"/>
+      <c r="F120" s="286"/>
+      <c r="G120" s="287"/>
+      <c r="H120" s="288"/>
+      <c r="I120" s="302" t="s">
         <v>151</v>
       </c>
-      <c r="J120" s="310"/>
-      <c r="K120" s="309" t="s">
+      <c r="J120" s="303"/>
+      <c r="K120" s="302" t="s">
         <v>152</v>
       </c>
-      <c r="L120" s="310"/>
-      <c r="M120" s="377"/>
-      <c r="N120" s="378"/>
-      <c r="O120" s="378"/>
-      <c r="P120" s="379"/>
-      <c r="Q120" s="200"/>
-      <c r="R120" s="200"/>
-      <c r="S120" s="200"/>
-      <c r="T120" s="200"/>
+      <c r="L120" s="303"/>
+      <c r="M120" s="367"/>
+      <c r="N120" s="368"/>
+      <c r="O120" s="368"/>
+      <c r="P120" s="369"/>
+      <c r="Q120" s="199"/>
+      <c r="R120" s="199"/>
+      <c r="S120" s="199"/>
+      <c r="T120" s="199"/>
       <c r="U120" s="88"/>
       <c r="V120" s="96"/>
       <c r="W120" s="134"/>
       <c r="X120" s="134"/>
       <c r="Y120" s="134"/>
-      <c r="Z120" s="350"/>
-      <c r="AA120" s="350"/>
-      <c r="AB120" s="350"/>
-      <c r="AC120" s="350"/>
-      <c r="AD120" s="350"/>
-      <c r="AE120" s="350"/>
-      <c r="AF120" s="350"/>
+      <c r="Z120" s="315"/>
+      <c r="AA120" s="315"/>
+      <c r="AB120" s="315"/>
+      <c r="AC120" s="315"/>
+      <c r="AD120" s="315"/>
+      <c r="AE120" s="315"/>
+      <c r="AF120" s="315"/>
       <c r="AG120" s="134"/>
       <c r="AH120" s="134"/>
     </row>
@@ -7833,37 +7808,37 @@
       <c r="A121" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="B121" s="336" t="s">
+      <c r="B121" s="333" t="s">
         <v>193</v>
       </c>
-      <c r="C121" s="337"/>
-      <c r="D121" s="338" t="s">
+      <c r="C121" s="334"/>
+      <c r="D121" s="335" t="s">
         <v>194</v>
       </c>
-      <c r="E121" s="339"/>
-      <c r="F121" s="311" t="s">
+      <c r="E121" s="336"/>
+      <c r="F121" s="304" t="s">
         <v>195</v>
       </c>
-      <c r="G121" s="370"/>
-      <c r="H121" s="312"/>
-      <c r="I121" s="301" t="s">
+      <c r="G121" s="357"/>
+      <c r="H121" s="305"/>
+      <c r="I121" s="296" t="s">
         <v>196</v>
       </c>
-      <c r="J121" s="302"/>
-      <c r="K121" s="380" t="s">
+      <c r="J121" s="297"/>
+      <c r="K121" s="370" t="s">
         <v>210</v>
       </c>
-      <c r="L121" s="381"/>
-      <c r="M121" s="311" t="s">
+      <c r="L121" s="371"/>
+      <c r="M121" s="304" t="s">
         <v>211</v>
       </c>
-      <c r="N121" s="370"/>
-      <c r="O121" s="370"/>
-      <c r="P121" s="312"/>
-      <c r="Q121" s="202"/>
-      <c r="R121" s="202"/>
-      <c r="S121" s="202"/>
-      <c r="T121" s="202"/>
+      <c r="N121" s="357"/>
+      <c r="O121" s="357"/>
+      <c r="P121" s="305"/>
+      <c r="Q121" s="201"/>
+      <c r="R121" s="201"/>
+      <c r="S121" s="201"/>
+      <c r="T121" s="201"/>
       <c r="U121" s="88"/>
       <c r="V121" s="88"/>
       <c r="W121" s="88"/>
@@ -7883,49 +7858,49 @@
       <c r="A122" s="116">
         <v>1</v>
       </c>
-      <c r="B122" s="319"/>
-      <c r="C122" s="320"/>
-      <c r="D122" s="319"/>
-      <c r="E122" s="320"/>
-      <c r="F122" s="362"/>
-      <c r="G122" s="363"/>
-      <c r="H122" s="364"/>
-      <c r="I122" s="357"/>
-      <c r="J122" s="358"/>
-      <c r="K122" s="357"/>
-      <c r="L122" s="358"/>
-      <c r="M122" s="359"/>
-      <c r="N122" s="360"/>
-      <c r="O122" s="360"/>
-      <c r="P122" s="361"/>
-      <c r="Q122" s="204"/>
-      <c r="R122" s="204"/>
-      <c r="S122" s="204"/>
-      <c r="T122" s="204"/>
+      <c r="B122" s="316"/>
+      <c r="C122" s="317"/>
+      <c r="D122" s="316"/>
+      <c r="E122" s="317"/>
+      <c r="F122" s="347"/>
+      <c r="G122" s="348"/>
+      <c r="H122" s="349"/>
+      <c r="I122" s="355"/>
+      <c r="J122" s="356"/>
+      <c r="K122" s="355"/>
+      <c r="L122" s="356"/>
+      <c r="M122" s="358"/>
+      <c r="N122" s="359"/>
+      <c r="O122" s="359"/>
+      <c r="P122" s="360"/>
+      <c r="Q122" s="203"/>
+      <c r="R122" s="203"/>
+      <c r="S122" s="203"/>
+      <c r="T122" s="203"/>
     </row>
     <row r="123" spans="1:34" ht="30" customHeight="1">
       <c r="A123" s="116">
         <v>2</v>
       </c>
-      <c r="B123" s="319"/>
-      <c r="C123" s="320"/>
-      <c r="D123" s="319"/>
-      <c r="E123" s="320"/>
-      <c r="F123" s="362"/>
-      <c r="G123" s="363"/>
-      <c r="H123" s="364"/>
-      <c r="I123" s="357"/>
-      <c r="J123" s="358"/>
-      <c r="K123" s="357"/>
-      <c r="L123" s="358"/>
-      <c r="M123" s="359"/>
-      <c r="N123" s="360"/>
-      <c r="O123" s="360"/>
-      <c r="P123" s="361"/>
-      <c r="Q123" s="204"/>
-      <c r="R123" s="204"/>
-      <c r="S123" s="204"/>
-      <c r="T123" s="204"/>
+      <c r="B123" s="316"/>
+      <c r="C123" s="317"/>
+      <c r="D123" s="316"/>
+      <c r="E123" s="317"/>
+      <c r="F123" s="347"/>
+      <c r="G123" s="348"/>
+      <c r="H123" s="349"/>
+      <c r="I123" s="355"/>
+      <c r="J123" s="356"/>
+      <c r="K123" s="355"/>
+      <c r="L123" s="356"/>
+      <c r="M123" s="358"/>
+      <c r="N123" s="359"/>
+      <c r="O123" s="359"/>
+      <c r="P123" s="360"/>
+      <c r="Q123" s="203"/>
+      <c r="R123" s="203"/>
+      <c r="S123" s="203"/>
+      <c r="T123" s="203"/>
       <c r="U123" s="88"/>
       <c r="V123" s="88"/>
       <c r="W123" s="132"/>
@@ -7945,57 +7920,57 @@
       <c r="A124" s="116">
         <v>3</v>
       </c>
-      <c r="B124" s="319"/>
-      <c r="C124" s="320"/>
-      <c r="D124" s="319"/>
-      <c r="E124" s="320"/>
-      <c r="F124" s="362"/>
-      <c r="G124" s="363"/>
-      <c r="H124" s="364"/>
-      <c r="I124" s="357"/>
-      <c r="J124" s="358"/>
-      <c r="K124" s="357"/>
-      <c r="L124" s="358"/>
-      <c r="M124" s="359"/>
-      <c r="N124" s="360"/>
-      <c r="O124" s="360"/>
-      <c r="P124" s="361"/>
-      <c r="Q124" s="204"/>
-      <c r="R124" s="204"/>
-      <c r="S124" s="204"/>
-      <c r="T124" s="204"/>
-      <c r="U124" s="204"/>
-      <c r="V124" s="203"/>
-      <c r="W124" s="203"/>
-      <c r="X124" s="203"/>
+      <c r="B124" s="316"/>
+      <c r="C124" s="317"/>
+      <c r="D124" s="316"/>
+      <c r="E124" s="317"/>
+      <c r="F124" s="347"/>
+      <c r="G124" s="348"/>
+      <c r="H124" s="349"/>
+      <c r="I124" s="355"/>
+      <c r="J124" s="356"/>
+      <c r="K124" s="355"/>
+      <c r="L124" s="356"/>
+      <c r="M124" s="358"/>
+      <c r="N124" s="359"/>
+      <c r="O124" s="359"/>
+      <c r="P124" s="360"/>
+      <c r="Q124" s="203"/>
+      <c r="R124" s="203"/>
+      <c r="S124" s="203"/>
+      <c r="T124" s="203"/>
+      <c r="U124" s="203"/>
+      <c r="V124" s="202"/>
+      <c r="W124" s="202"/>
+      <c r="X124" s="202"/>
     </row>
     <row r="125" spans="1:34" ht="30" customHeight="1">
       <c r="A125" s="116">
         <v>4</v>
       </c>
-      <c r="B125" s="319"/>
-      <c r="C125" s="320"/>
-      <c r="D125" s="319"/>
-      <c r="E125" s="320"/>
-      <c r="F125" s="362"/>
-      <c r="G125" s="363"/>
-      <c r="H125" s="364"/>
-      <c r="I125" s="357"/>
-      <c r="J125" s="358"/>
-      <c r="K125" s="357"/>
-      <c r="L125" s="358"/>
-      <c r="M125" s="359"/>
-      <c r="N125" s="360"/>
-      <c r="O125" s="360"/>
-      <c r="P125" s="361"/>
-      <c r="Q125" s="204"/>
-      <c r="R125" s="204"/>
-      <c r="S125" s="204"/>
-      <c r="T125" s="204"/>
-      <c r="U125" s="204"/>
-      <c r="V125" s="203"/>
-      <c r="W125" s="203"/>
-      <c r="X125" s="203"/>
+      <c r="B125" s="316"/>
+      <c r="C125" s="317"/>
+      <c r="D125" s="316"/>
+      <c r="E125" s="317"/>
+      <c r="F125" s="347"/>
+      <c r="G125" s="348"/>
+      <c r="H125" s="349"/>
+      <c r="I125" s="355"/>
+      <c r="J125" s="356"/>
+      <c r="K125" s="355"/>
+      <c r="L125" s="356"/>
+      <c r="M125" s="358"/>
+      <c r="N125" s="359"/>
+      <c r="O125" s="359"/>
+      <c r="P125" s="360"/>
+      <c r="Q125" s="203"/>
+      <c r="R125" s="203"/>
+      <c r="S125" s="203"/>
+      <c r="T125" s="203"/>
+      <c r="U125" s="203"/>
+      <c r="V125" s="202"/>
+      <c r="W125" s="202"/>
+      <c r="X125" s="202"/>
     </row>
     <row r="126" spans="1:34" ht="30" customHeight="1">
       <c r="A126" s="128"/>
@@ -8003,7 +7978,7 @@
       <c r="C126" s="128"/>
       <c r="D126" s="129"/>
       <c r="E126" s="129"/>
-      <c r="F126" s="198"/>
+      <c r="F126" s="197"/>
       <c r="G126" s="88"/>
       <c r="H126" s="88"/>
       <c r="I126" s="129"/>
@@ -8027,62 +8002,62 @@
       <c r="AA126" s="88"/>
     </row>
     <row r="127" spans="1:34" ht="30" customHeight="1">
-      <c r="A127" s="206"/>
-      <c r="B127" s="207" t="s">
+      <c r="A127" s="205"/>
+      <c r="B127" s="206" t="s">
         <v>153</v>
       </c>
-      <c r="C127" s="207"/>
-      <c r="D127" s="208"/>
-      <c r="E127" s="208"/>
-      <c r="F127" s="209"/>
-      <c r="G127" s="208"/>
-      <c r="H127" s="208"/>
-      <c r="I127" s="208"/>
-      <c r="J127" s="208"/>
-      <c r="K127" s="208"/>
-      <c r="L127" s="210"/>
-      <c r="M127" s="210"/>
-      <c r="N127" s="210"/>
-      <c r="O127" s="210"/>
-      <c r="P127" s="210"/>
-      <c r="Q127" s="210"/>
-      <c r="R127" s="210"/>
-      <c r="S127" s="210"/>
-      <c r="T127" s="210"/>
-      <c r="U127" s="210"/>
-      <c r="V127" s="150"/>
-      <c r="W127" s="150"/>
+      <c r="C127" s="206"/>
+      <c r="D127" s="207"/>
+      <c r="E127" s="207"/>
+      <c r="F127" s="208"/>
+      <c r="G127" s="207"/>
+      <c r="H127" s="207"/>
+      <c r="I127" s="207"/>
+      <c r="J127" s="207"/>
+      <c r="K127" s="207"/>
+      <c r="L127" s="209"/>
+      <c r="M127" s="209"/>
+      <c r="N127" s="209"/>
+      <c r="O127" s="209"/>
+      <c r="P127" s="209"/>
+      <c r="Q127" s="209"/>
+      <c r="R127" s="209"/>
+      <c r="S127" s="209"/>
+      <c r="T127" s="209"/>
+      <c r="U127" s="209"/>
+      <c r="V127" s="149"/>
+      <c r="W127" s="149"/>
       <c r="X127" s="98"/>
       <c r="Y127" s="98"/>
       <c r="Z127" s="98"/>
       <c r="AA127" s="98"/>
     </row>
     <row r="128" spans="1:34" ht="30" customHeight="1">
-      <c r="A128" s="206"/>
-      <c r="B128" s="207" t="s">
+      <c r="A128" s="205"/>
+      <c r="B128" s="206" t="s">
         <v>154</v>
       </c>
-      <c r="C128" s="207"/>
-      <c r="D128" s="208"/>
-      <c r="E128" s="208"/>
-      <c r="F128" s="209"/>
-      <c r="G128" s="208"/>
-      <c r="H128" s="208"/>
-      <c r="I128" s="208"/>
-      <c r="J128" s="208"/>
-      <c r="K128" s="208"/>
-      <c r="L128" s="210"/>
-      <c r="M128" s="210"/>
-      <c r="N128" s="210"/>
-      <c r="O128" s="210"/>
-      <c r="P128" s="210"/>
-      <c r="Q128" s="210"/>
-      <c r="R128" s="210"/>
-      <c r="S128" s="210"/>
-      <c r="T128" s="210"/>
-      <c r="U128" s="210"/>
-      <c r="V128" s="150"/>
-      <c r="W128" s="150"/>
+      <c r="C128" s="206"/>
+      <c r="D128" s="207"/>
+      <c r="E128" s="207"/>
+      <c r="F128" s="208"/>
+      <c r="G128" s="207"/>
+      <c r="H128" s="207"/>
+      <c r="I128" s="207"/>
+      <c r="J128" s="207"/>
+      <c r="K128" s="207"/>
+      <c r="L128" s="209"/>
+      <c r="M128" s="209"/>
+      <c r="N128" s="209"/>
+      <c r="O128" s="209"/>
+      <c r="P128" s="209"/>
+      <c r="Q128" s="209"/>
+      <c r="R128" s="209"/>
+      <c r="S128" s="209"/>
+      <c r="T128" s="209"/>
+      <c r="U128" s="209"/>
+      <c r="V128" s="149"/>
+      <c r="W128" s="149"/>
       <c r="X128" s="98"/>
       <c r="Y128" s="98"/>
       <c r="Z128" s="98"/>
@@ -8098,56 +8073,56 @@
       <c r="G129" s="88"/>
       <c r="H129" s="88"/>
       <c r="I129" s="88"/>
-      <c r="J129" s="331"/>
-      <c r="K129" s="331"/>
-      <c r="L129" s="331"/>
-      <c r="M129" s="331"/>
-      <c r="N129" s="331"/>
-      <c r="O129" s="331"/>
-      <c r="P129" s="331"/>
+      <c r="J129" s="328"/>
+      <c r="K129" s="328"/>
+      <c r="L129" s="328"/>
+      <c r="M129" s="328"/>
+      <c r="N129" s="328"/>
+      <c r="O129" s="328"/>
+      <c r="P129" s="328"/>
       <c r="Q129" s="130"/>
       <c r="R129" s="130"/>
       <c r="S129" s="130"/>
       <c r="T129" s="130"/>
       <c r="U129" s="130"/>
-      <c r="V129" s="194"/>
-      <c r="W129" s="194"/>
-      <c r="X129" s="194"/>
+      <c r="V129" s="193"/>
+      <c r="W129" s="193"/>
+      <c r="X129" s="193"/>
       <c r="Y129" s="131"/>
       <c r="Z129" s="131"/>
       <c r="AA129" s="131"/>
     </row>
     <row r="130" spans="1:27" ht="30" customHeight="1">
-      <c r="A130" s="316" t="s">
+      <c r="A130" s="378" t="s">
         <v>125</v>
       </c>
-      <c r="B130" s="316"/>
-      <c r="C130" s="317" t="s">
+      <c r="B130" s="378"/>
+      <c r="C130" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="317"/>
-      <c r="E130" s="317"/>
-      <c r="F130" s="317"/>
-      <c r="G130" s="318" t="s">
+      <c r="D130" s="313"/>
+      <c r="E130" s="313"/>
+      <c r="F130" s="313"/>
+      <c r="G130" s="314" t="s">
         <v>127</v>
       </c>
-      <c r="H130" s="318"/>
-      <c r="I130" s="318"/>
-      <c r="J130" s="318"/>
-      <c r="K130" s="318"/>
-      <c r="L130" s="318"/>
-      <c r="M130" s="318"/>
-      <c r="N130" s="318"/>
-      <c r="O130" s="318"/>
-      <c r="P130" s="318"/>
+      <c r="H130" s="314"/>
+      <c r="I130" s="314"/>
+      <c r="J130" s="314"/>
+      <c r="K130" s="314"/>
+      <c r="L130" s="314"/>
+      <c r="M130" s="314"/>
+      <c r="N130" s="314"/>
+      <c r="O130" s="314"/>
+      <c r="P130" s="314"/>
       <c r="Q130" s="132"/>
       <c r="R130" s="132"/>
       <c r="S130" s="132"/>
       <c r="T130" s="132"/>
       <c r="U130" s="132"/>
-      <c r="V130" s="211"/>
-      <c r="W130" s="211"/>
-      <c r="X130" s="211"/>
+      <c r="V130" s="210"/>
+      <c r="W130" s="210"/>
+      <c r="X130" s="210"/>
       <c r="Y130" s="131"/>
       <c r="Z130" s="131"/>
       <c r="AA130" s="131"/>
@@ -8162,21 +8137,21 @@
       <c r="G131" s="132"/>
       <c r="H131" s="132"/>
       <c r="I131" s="132"/>
-      <c r="J131" s="318"/>
-      <c r="K131" s="318"/>
-      <c r="L131" s="318"/>
-      <c r="M131" s="318"/>
-      <c r="N131" s="318"/>
-      <c r="O131" s="318"/>
-      <c r="P131" s="318"/>
+      <c r="J131" s="314"/>
+      <c r="K131" s="314"/>
+      <c r="L131" s="314"/>
+      <c r="M131" s="314"/>
+      <c r="N131" s="314"/>
+      <c r="O131" s="314"/>
+      <c r="P131" s="314"/>
       <c r="Q131" s="132"/>
       <c r="R131" s="132"/>
       <c r="S131" s="132"/>
       <c r="T131" s="132"/>
       <c r="U131" s="132"/>
-      <c r="V131" s="211"/>
-      <c r="W131" s="211"/>
-      <c r="X131" s="211"/>
+      <c r="V131" s="210"/>
+      <c r="W131" s="210"/>
+      <c r="X131" s="210"/>
       <c r="Y131" s="131"/>
       <c r="Z131" s="131"/>
       <c r="AA131" s="131"/>
@@ -8307,13 +8282,13 @@
       <c r="G136" s="134"/>
       <c r="H136" s="134"/>
       <c r="I136" s="134"/>
-      <c r="J136" s="350"/>
-      <c r="K136" s="350"/>
-      <c r="L136" s="350"/>
-      <c r="M136" s="350"/>
-      <c r="N136" s="350"/>
-      <c r="O136" s="350"/>
-      <c r="P136" s="350"/>
+      <c r="J136" s="315"/>
+      <c r="K136" s="315"/>
+      <c r="L136" s="315"/>
+      <c r="M136" s="315"/>
+      <c r="N136" s="315"/>
+      <c r="O136" s="315"/>
+      <c r="P136" s="315"/>
       <c r="Q136" s="134"/>
       <c r="R136" s="134"/>
       <c r="S136" s="134"/>
@@ -8330,24 +8305,24 @@
       <c r="A137" s="131"/>
       <c r="B137" s="131"/>
       <c r="C137" s="131"/>
-      <c r="D137" s="212"/>
-      <c r="E137" s="213"/>
-      <c r="F137" s="212"/>
-      <c r="G137" s="212"/>
-      <c r="H137" s="212"/>
-      <c r="I137" s="212"/>
-      <c r="J137" s="212"/>
-      <c r="K137" s="212"/>
-      <c r="L137" s="212"/>
-      <c r="M137" s="212"/>
-      <c r="N137" s="212"/>
-      <c r="O137" s="212"/>
-      <c r="P137" s="212"/>
-      <c r="Q137" s="212"/>
-      <c r="R137" s="212"/>
-      <c r="S137" s="212"/>
-      <c r="T137" s="212"/>
-      <c r="U137" s="212"/>
+      <c r="D137" s="211"/>
+      <c r="E137" s="212"/>
+      <c r="F137" s="211"/>
+      <c r="G137" s="211"/>
+      <c r="H137" s="211"/>
+      <c r="I137" s="211"/>
+      <c r="J137" s="211"/>
+      <c r="K137" s="211"/>
+      <c r="L137" s="211"/>
+      <c r="M137" s="211"/>
+      <c r="N137" s="211"/>
+      <c r="O137" s="211"/>
+      <c r="P137" s="211"/>
+      <c r="Q137" s="211"/>
+      <c r="R137" s="211"/>
+      <c r="S137" s="211"/>
+      <c r="T137" s="211"/>
+      <c r="U137" s="211"/>
       <c r="V137" s="131"/>
       <c r="W137" s="131"/>
       <c r="X137" s="98"/>
@@ -8359,24 +8334,24 @@
       <c r="A138" s="131"/>
       <c r="B138" s="131"/>
       <c r="C138" s="131"/>
-      <c r="D138" s="212"/>
-      <c r="E138" s="213"/>
-      <c r="F138" s="212"/>
-      <c r="G138" s="212"/>
-      <c r="H138" s="212"/>
-      <c r="I138" s="212"/>
-      <c r="J138" s="212"/>
-      <c r="K138" s="212"/>
-      <c r="L138" s="212"/>
-      <c r="M138" s="212"/>
-      <c r="N138" s="212"/>
-      <c r="O138" s="212"/>
-      <c r="P138" s="212"/>
-      <c r="Q138" s="212"/>
-      <c r="R138" s="212"/>
-      <c r="S138" s="212"/>
-      <c r="T138" s="212"/>
-      <c r="U138" s="212"/>
+      <c r="D138" s="211"/>
+      <c r="E138" s="212"/>
+      <c r="F138" s="211"/>
+      <c r="G138" s="211"/>
+      <c r="H138" s="211"/>
+      <c r="I138" s="211"/>
+      <c r="J138" s="211"/>
+      <c r="K138" s="211"/>
+      <c r="L138" s="211"/>
+      <c r="M138" s="211"/>
+      <c r="N138" s="211"/>
+      <c r="O138" s="211"/>
+      <c r="P138" s="211"/>
+      <c r="Q138" s="211"/>
+      <c r="R138" s="211"/>
+      <c r="S138" s="211"/>
+      <c r="T138" s="211"/>
+      <c r="U138" s="211"/>
       <c r="V138" s="131"/>
       <c r="W138" s="131"/>
       <c r="X138" s="98"/>
@@ -8388,24 +8363,24 @@
       <c r="A139" s="131"/>
       <c r="B139" s="131"/>
       <c r="C139" s="131"/>
-      <c r="D139" s="212"/>
-      <c r="E139" s="213"/>
-      <c r="F139" s="212"/>
-      <c r="G139" s="212"/>
-      <c r="H139" s="212"/>
-      <c r="I139" s="212"/>
-      <c r="J139" s="212"/>
-      <c r="K139" s="212"/>
-      <c r="L139" s="212"/>
-      <c r="M139" s="212"/>
-      <c r="N139" s="212"/>
-      <c r="O139" s="212"/>
-      <c r="P139" s="212"/>
-      <c r="Q139" s="212"/>
-      <c r="R139" s="212"/>
-      <c r="S139" s="212"/>
-      <c r="T139" s="212"/>
-      <c r="U139" s="212"/>
+      <c r="D139" s="211"/>
+      <c r="E139" s="212"/>
+      <c r="F139" s="211"/>
+      <c r="G139" s="211"/>
+      <c r="H139" s="211"/>
+      <c r="I139" s="211"/>
+      <c r="J139" s="211"/>
+      <c r="K139" s="211"/>
+      <c r="L139" s="211"/>
+      <c r="M139" s="211"/>
+      <c r="N139" s="211"/>
+      <c r="O139" s="211"/>
+      <c r="P139" s="211"/>
+      <c r="Q139" s="211"/>
+      <c r="R139" s="211"/>
+      <c r="S139" s="211"/>
+      <c r="T139" s="211"/>
+      <c r="U139" s="211"/>
       <c r="V139" s="131"/>
       <c r="W139" s="131"/>
       <c r="X139" s="98"/>
@@ -8417,24 +8392,24 @@
       <c r="A140" s="131"/>
       <c r="B140" s="131"/>
       <c r="C140" s="131"/>
-      <c r="D140" s="212"/>
-      <c r="E140" s="213"/>
-      <c r="F140" s="212"/>
-      <c r="G140" s="212"/>
-      <c r="H140" s="212"/>
-      <c r="I140" s="212"/>
-      <c r="J140" s="212"/>
-      <c r="K140" s="212"/>
-      <c r="L140" s="212"/>
-      <c r="M140" s="212"/>
-      <c r="N140" s="212"/>
-      <c r="O140" s="212"/>
-      <c r="P140" s="212"/>
-      <c r="Q140" s="212"/>
-      <c r="R140" s="212"/>
-      <c r="S140" s="212"/>
-      <c r="T140" s="212"/>
-      <c r="U140" s="212"/>
+      <c r="D140" s="211"/>
+      <c r="E140" s="212"/>
+      <c r="F140" s="211"/>
+      <c r="G140" s="211"/>
+      <c r="H140" s="211"/>
+      <c r="I140" s="211"/>
+      <c r="J140" s="211"/>
+      <c r="K140" s="211"/>
+      <c r="L140" s="211"/>
+      <c r="M140" s="211"/>
+      <c r="N140" s="211"/>
+      <c r="O140" s="211"/>
+      <c r="P140" s="211"/>
+      <c r="Q140" s="211"/>
+      <c r="R140" s="211"/>
+      <c r="S140" s="211"/>
+      <c r="T140" s="211"/>
+      <c r="U140" s="211"/>
       <c r="V140" s="131"/>
       <c r="W140" s="131"/>
       <c r="X140" s="98"/>
@@ -8443,24 +8418,24 @@
       <c r="AA140" s="98"/>
     </row>
     <row r="150" spans="1:27" ht="30" customHeight="1">
-      <c r="A150" s="297" t="s">
+      <c r="A150" s="292" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="297"/>
-      <c r="C150" s="297"/>
-      <c r="D150" s="297"/>
+      <c r="B150" s="292"/>
+      <c r="C150" s="292"/>
+      <c r="D150" s="292"/>
       <c r="E150" s="89"/>
       <c r="F150" s="90"/>
       <c r="G150" s="90"/>
       <c r="H150" s="90"/>
       <c r="I150" s="89"/>
-      <c r="J150" s="298" t="s">
+      <c r="J150" s="293" t="s">
         <v>104</v>
       </c>
-      <c r="K150" s="298"/>
-      <c r="L150" s="298"/>
-      <c r="M150" s="298"/>
-      <c r="N150" s="298"/>
+      <c r="K150" s="293"/>
+      <c r="L150" s="293"/>
+      <c r="M150" s="293"/>
+      <c r="N150" s="293"/>
       <c r="O150" s="89"/>
       <c r="P150" s="89"/>
       <c r="Q150" s="89"/>
@@ -8475,24 +8450,24 @@
       <c r="Z150" s="91"/>
     </row>
     <row r="151" spans="1:27" ht="30" customHeight="1">
-      <c r="A151" s="299" t="s">
+      <c r="A151" s="294" t="s">
         <v>105</v>
       </c>
-      <c r="B151" s="299"/>
-      <c r="C151" s="299"/>
-      <c r="D151" s="299"/>
+      <c r="B151" s="294"/>
+      <c r="C151" s="294"/>
+      <c r="D151" s="294"/>
       <c r="E151" s="89"/>
       <c r="F151" s="92"/>
       <c r="G151" s="92"/>
       <c r="H151" s="92"/>
       <c r="I151" s="89"/>
-      <c r="J151" s="300" t="s">
+      <c r="J151" s="295" t="s">
         <v>106</v>
       </c>
-      <c r="K151" s="300"/>
-      <c r="L151" s="300"/>
-      <c r="M151" s="300"/>
-      <c r="N151" s="300"/>
+      <c r="K151" s="295"/>
+      <c r="L151" s="295"/>
+      <c r="M151" s="295"/>
+      <c r="N151" s="295"/>
       <c r="O151" s="90"/>
       <c r="P151" s="90"/>
       <c r="Q151" s="90"/>
@@ -8512,7 +8487,7 @@
       <c r="C152" s="94"/>
       <c r="D152" s="95"/>
       <c r="E152" s="95"/>
-      <c r="F152" s="198"/>
+      <c r="F152" s="197"/>
       <c r="G152" s="129"/>
       <c r="H152" s="129"/>
       <c r="I152" s="95"/>
@@ -8535,24 +8510,24 @@
       <c r="Z152" s="88"/>
     </row>
     <row r="153" spans="1:27" ht="30" customHeight="1">
-      <c r="A153" s="286" t="s">
+      <c r="A153" s="281" t="s">
         <v>212</v>
       </c>
-      <c r="B153" s="286"/>
-      <c r="C153" s="286"/>
-      <c r="D153" s="286"/>
-      <c r="E153" s="286"/>
-      <c r="F153" s="286"/>
-      <c r="G153" s="286"/>
-      <c r="H153" s="286"/>
-      <c r="I153" s="286"/>
-      <c r="J153" s="286"/>
-      <c r="K153" s="286"/>
-      <c r="L153" s="286"/>
-      <c r="M153" s="286"/>
-      <c r="N153" s="286"/>
-      <c r="O153" s="286"/>
-      <c r="P153" s="286"/>
+      <c r="B153" s="281"/>
+      <c r="C153" s="281"/>
+      <c r="D153" s="281"/>
+      <c r="E153" s="281"/>
+      <c r="F153" s="281"/>
+      <c r="G153" s="281"/>
+      <c r="H153" s="281"/>
+      <c r="I153" s="281"/>
+      <c r="J153" s="281"/>
+      <c r="K153" s="281"/>
+      <c r="L153" s="281"/>
+      <c r="M153" s="281"/>
+      <c r="N153" s="281"/>
+      <c r="O153" s="281"/>
+      <c r="P153" s="281"/>
       <c r="Q153" s="99"/>
       <c r="R153" s="99"/>
       <c r="S153" s="99"/>
@@ -8565,22 +8540,22 @@
       <c r="Z153" s="88"/>
     </row>
     <row r="154" spans="1:27" ht="30" customHeight="1">
-      <c r="A154" s="343"/>
-      <c r="B154" s="343"/>
-      <c r="C154" s="343"/>
-      <c r="D154" s="343"/>
-      <c r="E154" s="343"/>
-      <c r="F154" s="343"/>
-      <c r="G154" s="343"/>
-      <c r="H154" s="343"/>
-      <c r="I154" s="343"/>
-      <c r="J154" s="343"/>
-      <c r="K154" s="343"/>
-      <c r="L154" s="343"/>
-      <c r="M154" s="343"/>
-      <c r="N154" s="343"/>
-      <c r="O154" s="343"/>
-      <c r="P154" s="343"/>
+      <c r="A154" s="340"/>
+      <c r="B154" s="340"/>
+      <c r="C154" s="340"/>
+      <c r="D154" s="340"/>
+      <c r="E154" s="340"/>
+      <c r="F154" s="340"/>
+      <c r="G154" s="340"/>
+      <c r="H154" s="340"/>
+      <c r="I154" s="340"/>
+      <c r="J154" s="340"/>
+      <c r="K154" s="340"/>
+      <c r="L154" s="340"/>
+      <c r="M154" s="340"/>
+      <c r="N154" s="340"/>
+      <c r="O154" s="340"/>
+      <c r="P154" s="340"/>
       <c r="Q154" s="101"/>
       <c r="R154" s="101"/>
       <c r="S154" s="101"/>
@@ -8616,115 +8591,115 @@
       <c r="U155" s="88"/>
       <c r="V155" s="88"/>
       <c r="W155" s="88"/>
-      <c r="X155" s="199"/>
+      <c r="X155" s="198"/>
       <c r="Y155" s="88"/>
       <c r="Z155" s="88"/>
     </row>
     <row r="156" spans="1:27" ht="30" customHeight="1">
-      <c r="A156" s="401" t="s">
+      <c r="A156" s="372" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="344" t="s">
+      <c r="B156" s="341" t="s">
         <v>108</v>
       </c>
-      <c r="C156" s="345"/>
-      <c r="D156" s="294" t="s">
+      <c r="C156" s="342"/>
+      <c r="D156" s="289" t="s">
         <v>109</v>
       </c>
-      <c r="E156" s="288" t="s">
+      <c r="E156" s="283" t="s">
         <v>110</v>
       </c>
-      <c r="F156" s="290"/>
-      <c r="G156" s="294" t="s">
+      <c r="F156" s="285"/>
+      <c r="G156" s="289" t="s">
         <v>213</v>
       </c>
-      <c r="H156" s="294" t="s">
+      <c r="H156" s="289" t="s">
         <v>214</v>
       </c>
-      <c r="I156" s="386" t="s">
+      <c r="I156" s="379" t="s">
         <v>215</v>
       </c>
-      <c r="J156" s="387"/>
-      <c r="K156" s="387"/>
-      <c r="L156" s="388"/>
-      <c r="M156" s="392" t="s">
+      <c r="J156" s="380"/>
+      <c r="K156" s="380"/>
+      <c r="L156" s="381"/>
+      <c r="M156" s="385" t="s">
         <v>216</v>
       </c>
-      <c r="N156" s="393"/>
-      <c r="O156" s="394"/>
+      <c r="N156" s="386"/>
+      <c r="O156" s="387"/>
       <c r="P156" s="109"/>
-      <c r="Q156" s="214"/>
-      <c r="R156" s="214"/>
-      <c r="S156" s="214"/>
-      <c r="T156" s="214"/>
-      <c r="U156" s="214"/>
-      <c r="V156" s="201"/>
-      <c r="W156" s="201"/>
-      <c r="X156" s="215"/>
-      <c r="Y156" s="215"/>
-      <c r="Z156" s="215"/>
+      <c r="Q156" s="213"/>
+      <c r="R156" s="213"/>
+      <c r="S156" s="213"/>
+      <c r="T156" s="213"/>
+      <c r="U156" s="213"/>
+      <c r="V156" s="200"/>
+      <c r="W156" s="200"/>
+      <c r="X156" s="214"/>
+      <c r="Y156" s="214"/>
+      <c r="Z156" s="214"/>
     </row>
     <row r="157" spans="1:27" ht="30" customHeight="1">
-      <c r="A157" s="402"/>
-      <c r="B157" s="346"/>
-      <c r="C157" s="347"/>
-      <c r="D157" s="295"/>
-      <c r="E157" s="291"/>
-      <c r="F157" s="293"/>
-      <c r="G157" s="295"/>
-      <c r="H157" s="295"/>
-      <c r="I157" s="389"/>
-      <c r="J157" s="390"/>
-      <c r="K157" s="390"/>
-      <c r="L157" s="391"/>
-      <c r="M157" s="395"/>
-      <c r="N157" s="396"/>
-      <c r="O157" s="397"/>
+      <c r="A157" s="373"/>
+      <c r="B157" s="343"/>
+      <c r="C157" s="344"/>
+      <c r="D157" s="290"/>
+      <c r="E157" s="286"/>
+      <c r="F157" s="288"/>
+      <c r="G157" s="290"/>
+      <c r="H157" s="290"/>
+      <c r="I157" s="382"/>
+      <c r="J157" s="383"/>
+      <c r="K157" s="383"/>
+      <c r="L157" s="384"/>
+      <c r="M157" s="388"/>
+      <c r="N157" s="389"/>
+      <c r="O157" s="390"/>
       <c r="P157" s="109"/>
-      <c r="Q157" s="214"/>
-      <c r="R157" s="214"/>
-      <c r="S157" s="214"/>
-      <c r="T157" s="214"/>
-      <c r="U157" s="214"/>
-      <c r="V157" s="201"/>
-      <c r="W157" s="201"/>
-      <c r="X157" s="215"/>
-      <c r="Y157" s="215"/>
-      <c r="Z157" s="215"/>
+      <c r="Q157" s="213"/>
+      <c r="R157" s="213"/>
+      <c r="S157" s="213"/>
+      <c r="T157" s="213"/>
+      <c r="U157" s="213"/>
+      <c r="V157" s="200"/>
+      <c r="W157" s="200"/>
+      <c r="X157" s="214"/>
+      <c r="Y157" s="214"/>
+      <c r="Z157" s="214"/>
     </row>
     <row r="158" spans="1:27" ht="30" customHeight="1">
-      <c r="A158" s="403"/>
-      <c r="B158" s="348"/>
-      <c r="C158" s="349"/>
-      <c r="D158" s="296"/>
+      <c r="A158" s="374"/>
+      <c r="B158" s="345"/>
+      <c r="C158" s="346"/>
+      <c r="D158" s="291"/>
       <c r="E158" s="107" t="s">
         <v>217</v>
       </c>
       <c r="F158" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="G158" s="296"/>
-      <c r="H158" s="296"/>
-      <c r="I158" s="309" t="s">
+      <c r="G158" s="291"/>
+      <c r="H158" s="291"/>
+      <c r="I158" s="302" t="s">
         <v>219</v>
       </c>
-      <c r="J158" s="310"/>
-      <c r="K158" s="309" t="s">
+      <c r="J158" s="303"/>
+      <c r="K158" s="302" t="s">
         <v>220</v>
       </c>
-      <c r="L158" s="310"/>
-      <c r="M158" s="398"/>
-      <c r="N158" s="399"/>
-      <c r="O158" s="400"/>
+      <c r="L158" s="303"/>
+      <c r="M158" s="391"/>
+      <c r="N158" s="392"/>
+      <c r="O158" s="393"/>
       <c r="P158" s="109"/>
-      <c r="Q158" s="214"/>
-      <c r="R158" s="214"/>
-      <c r="S158" s="214"/>
-      <c r="T158" s="214"/>
-      <c r="U158" s="214"/>
-      <c r="V158" s="201"/>
-      <c r="W158" s="201"/>
-      <c r="X158" s="215"/>
+      <c r="Q158" s="213"/>
+      <c r="R158" s="213"/>
+      <c r="S158" s="213"/>
+      <c r="T158" s="213"/>
+      <c r="U158" s="213"/>
+      <c r="V158" s="200"/>
+      <c r="W158" s="200"/>
+      <c r="X158" s="214"/>
       <c r="Y158" s="109"/>
       <c r="Z158" s="109"/>
       <c r="AA158" s="109"/>
@@ -8733,219 +8708,211 @@
       <c r="A159" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="B159" s="336" t="s">
+      <c r="B159" s="333" t="s">
         <v>193</v>
       </c>
-      <c r="C159" s="337"/>
-      <c r="D159" s="158" t="s">
+      <c r="C159" s="334"/>
+      <c r="D159" s="157" t="s">
         <v>194</v>
       </c>
       <c r="E159" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="F159" s="216" t="s">
+      <c r="F159" s="215" t="s">
         <v>221</v>
       </c>
-      <c r="G159" s="216">
+      <c r="G159" s="215">
         <v>-4</v>
       </c>
       <c r="H159" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="I159" s="311" t="s">
+      <c r="I159" s="304" t="s">
         <v>223</v>
       </c>
-      <c r="J159" s="312"/>
-      <c r="K159" s="311" t="s">
+      <c r="J159" s="305"/>
+      <c r="K159" s="304" t="s">
         <v>224</v>
       </c>
-      <c r="L159" s="312"/>
-      <c r="M159" s="311" t="s">
+      <c r="L159" s="305"/>
+      <c r="M159" s="304" t="s">
         <v>225</v>
       </c>
-      <c r="N159" s="370"/>
-      <c r="O159" s="312"/>
-      <c r="P159" s="159"/>
+      <c r="N159" s="357"/>
+      <c r="O159" s="305"/>
+      <c r="P159" s="158"/>
       <c r="Q159" s="113"/>
       <c r="R159" s="113"/>
       <c r="S159" s="113"/>
       <c r="T159" s="113"/>
       <c r="U159" s="113"/>
-      <c r="V159" s="203"/>
-      <c r="W159" s="203"/>
-      <c r="X159" s="203"/>
-      <c r="Y159" s="217"/>
-      <c r="Z159" s="217"/>
-      <c r="AA159" s="217"/>
+      <c r="V159" s="202"/>
+      <c r="W159" s="202"/>
+      <c r="X159" s="202"/>
+      <c r="Y159" s="216"/>
+      <c r="Z159" s="216"/>
+      <c r="AA159" s="216"/>
     </row>
     <row r="160" spans="1:27" ht="30" customHeight="1">
       <c r="A160" s="116">
         <v>1</v>
       </c>
-      <c r="B160" s="319" t="s">
-        <v>18</v>
-      </c>
-      <c r="C160" s="320"/>
+      <c r="B160" s="316"/>
+      <c r="C160" s="317"/>
       <c r="D160" s="118"/>
       <c r="E160" s="119"/>
-      <c r="F160" s="218"/>
-      <c r="G160" s="218"/>
+      <c r="F160" s="217"/>
+      <c r="G160" s="217"/>
       <c r="H160" s="119"/>
-      <c r="I160" s="383"/>
-      <c r="J160" s="384"/>
-      <c r="K160" s="357"/>
-      <c r="L160" s="358"/>
-      <c r="M160" s="357" t="s">
+      <c r="I160" s="376"/>
+      <c r="J160" s="377"/>
+      <c r="K160" s="355"/>
+      <c r="L160" s="356"/>
+      <c r="M160" s="355" t="s">
         <v>201</v>
       </c>
-      <c r="N160" s="382"/>
-      <c r="O160" s="358"/>
-      <c r="P160" s="205"/>
-      <c r="Q160" s="214"/>
-      <c r="R160" s="219"/>
-      <c r="S160" s="219"/>
-      <c r="T160" s="214"/>
-      <c r="U160" s="214"/>
-      <c r="V160" s="201"/>
-      <c r="W160" s="201"/>
-      <c r="X160" s="220"/>
-      <c r="Y160" s="220"/>
-      <c r="Z160" s="220"/>
-      <c r="AA160" s="205"/>
+      <c r="N160" s="375"/>
+      <c r="O160" s="356"/>
+      <c r="P160" s="204"/>
+      <c r="Q160" s="213"/>
+      <c r="R160" s="218"/>
+      <c r="S160" s="218"/>
+      <c r="T160" s="213"/>
+      <c r="U160" s="213"/>
+      <c r="V160" s="200"/>
+      <c r="W160" s="200"/>
+      <c r="X160" s="219"/>
+      <c r="Y160" s="219"/>
+      <c r="Z160" s="219"/>
+      <c r="AA160" s="204"/>
     </row>
     <row r="161" spans="1:27" ht="30" customHeight="1">
       <c r="A161" s="116">
         <v>2</v>
       </c>
-      <c r="B161" s="319" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161" s="320"/>
+      <c r="B161" s="316"/>
+      <c r="C161" s="317"/>
       <c r="D161" s="118"/>
       <c r="E161" s="119"/>
-      <c r="F161" s="218"/>
-      <c r="G161" s="218"/>
+      <c r="F161" s="217"/>
+      <c r="G161" s="217"/>
       <c r="H161" s="119"/>
-      <c r="I161" s="383"/>
-      <c r="J161" s="384"/>
-      <c r="K161" s="357"/>
-      <c r="L161" s="358"/>
-      <c r="M161" s="357" t="s">
+      <c r="I161" s="376"/>
+      <c r="J161" s="377"/>
+      <c r="K161" s="355"/>
+      <c r="L161" s="356"/>
+      <c r="M161" s="355" t="s">
         <v>201</v>
       </c>
-      <c r="N161" s="382"/>
-      <c r="O161" s="358"/>
-      <c r="P161" s="205"/>
-      <c r="Q161" s="214"/>
-      <c r="R161" s="219"/>
-      <c r="S161" s="219"/>
-      <c r="T161" s="214"/>
-      <c r="U161" s="214"/>
-      <c r="V161" s="221"/>
-      <c r="W161" s="221"/>
-      <c r="X161" s="220"/>
-      <c r="Y161" s="220"/>
-      <c r="Z161" s="220"/>
-      <c r="AA161" s="205"/>
+      <c r="N161" s="375"/>
+      <c r="O161" s="356"/>
+      <c r="P161" s="204"/>
+      <c r="Q161" s="213"/>
+      <c r="R161" s="218"/>
+      <c r="S161" s="218"/>
+      <c r="T161" s="213"/>
+      <c r="U161" s="213"/>
+      <c r="V161" s="220"/>
+      <c r="W161" s="220"/>
+      <c r="X161" s="219"/>
+      <c r="Y161" s="219"/>
+      <c r="Z161" s="219"/>
+      <c r="AA161" s="204"/>
     </row>
     <row r="162" spans="1:27" ht="30" customHeight="1">
       <c r="A162" s="116">
         <v>3</v>
       </c>
-      <c r="B162" s="319" t="s">
-        <v>20</v>
-      </c>
-      <c r="C162" s="320"/>
+      <c r="B162" s="316"/>
+      <c r="C162" s="317"/>
       <c r="D162" s="118"/>
       <c r="E162" s="119"/>
-      <c r="F162" s="218"/>
-      <c r="G162" s="218"/>
+      <c r="F162" s="217"/>
+      <c r="G162" s="217"/>
       <c r="H162" s="119"/>
-      <c r="I162" s="383"/>
-      <c r="J162" s="384"/>
-      <c r="K162" s="357"/>
-      <c r="L162" s="358"/>
-      <c r="M162" s="357" t="s">
+      <c r="I162" s="376"/>
+      <c r="J162" s="377"/>
+      <c r="K162" s="355"/>
+      <c r="L162" s="356"/>
+      <c r="M162" s="355" t="s">
         <v>201</v>
       </c>
-      <c r="N162" s="382"/>
-      <c r="O162" s="358"/>
-      <c r="P162" s="205"/>
-      <c r="Q162" s="214"/>
-      <c r="R162" s="219"/>
-      <c r="S162" s="219"/>
-      <c r="T162" s="214"/>
-      <c r="U162" s="214"/>
-      <c r="V162" s="221"/>
-      <c r="W162" s="221"/>
-      <c r="X162" s="220"/>
-      <c r="Y162" s="220"/>
-      <c r="Z162" s="220"/>
-      <c r="AA162" s="205"/>
+      <c r="N162" s="375"/>
+      <c r="O162" s="356"/>
+      <c r="P162" s="204"/>
+      <c r="Q162" s="213"/>
+      <c r="R162" s="218"/>
+      <c r="S162" s="218"/>
+      <c r="T162" s="213"/>
+      <c r="U162" s="213"/>
+      <c r="V162" s="220"/>
+      <c r="W162" s="220"/>
+      <c r="X162" s="219"/>
+      <c r="Y162" s="219"/>
+      <c r="Z162" s="219"/>
+      <c r="AA162" s="204"/>
     </row>
     <row r="163" spans="1:27" ht="30" customHeight="1">
       <c r="A163" s="116">
         <v>4</v>
       </c>
-      <c r="B163" s="319" t="s">
-        <v>21</v>
-      </c>
-      <c r="C163" s="320"/>
+      <c r="B163" s="316"/>
+      <c r="C163" s="317"/>
       <c r="D163" s="118"/>
       <c r="E163" s="119"/>
-      <c r="F163" s="218"/>
-      <c r="G163" s="218"/>
+      <c r="F163" s="217"/>
+      <c r="G163" s="217"/>
       <c r="H163" s="119"/>
-      <c r="I163" s="383"/>
-      <c r="J163" s="384"/>
-      <c r="K163" s="357"/>
-      <c r="L163" s="358"/>
-      <c r="M163" s="357" t="s">
+      <c r="I163" s="376"/>
+      <c r="J163" s="377"/>
+      <c r="K163" s="355"/>
+      <c r="L163" s="356"/>
+      <c r="M163" s="355" t="s">
         <v>201</v>
       </c>
-      <c r="N163" s="382"/>
-      <c r="O163" s="358"/>
-      <c r="P163" s="205"/>
-      <c r="Q163" s="214"/>
-      <c r="R163" s="219"/>
-      <c r="S163" s="219"/>
-      <c r="T163" s="214"/>
-      <c r="U163" s="214"/>
-      <c r="V163" s="221"/>
-      <c r="W163" s="221"/>
-      <c r="X163" s="220"/>
-      <c r="Y163" s="220"/>
-      <c r="Z163" s="220"/>
-      <c r="AA163" s="205"/>
+      <c r="N163" s="375"/>
+      <c r="O163" s="356"/>
+      <c r="P163" s="204"/>
+      <c r="Q163" s="213"/>
+      <c r="R163" s="218"/>
+      <c r="S163" s="218"/>
+      <c r="T163" s="213"/>
+      <c r="U163" s="213"/>
+      <c r="V163" s="220"/>
+      <c r="W163" s="220"/>
+      <c r="X163" s="219"/>
+      <c r="Y163" s="219"/>
+      <c r="Z163" s="219"/>
+      <c r="AA163" s="204"/>
     </row>
     <row r="164" spans="1:27" ht="30" customHeight="1">
-      <c r="A164" s="222"/>
-      <c r="B164" s="223"/>
-      <c r="C164" s="223"/>
-      <c r="D164" s="223"/>
-      <c r="E164" s="204"/>
-      <c r="F164" s="204"/>
-      <c r="G164" s="204"/>
-      <c r="H164" s="204"/>
-      <c r="I164" s="224"/>
-      <c r="J164" s="204"/>
-      <c r="K164" s="204"/>
-      <c r="L164" s="204"/>
-      <c r="M164" s="204"/>
-      <c r="N164" s="224"/>
-      <c r="O164" s="224"/>
-      <c r="P164" s="224"/>
-      <c r="Q164" s="214"/>
-      <c r="R164" s="219"/>
-      <c r="S164" s="219"/>
-      <c r="T164" s="214"/>
-      <c r="U164" s="214"/>
-      <c r="V164" s="221"/>
-      <c r="W164" s="221"/>
-      <c r="X164" s="220"/>
-      <c r="Y164" s="220"/>
-      <c r="Z164" s="220"/>
-      <c r="AA164" s="205"/>
+      <c r="A164" s="221"/>
+      <c r="B164" s="222"/>
+      <c r="C164" s="222"/>
+      <c r="D164" s="222"/>
+      <c r="E164" s="203"/>
+      <c r="F164" s="203"/>
+      <c r="G164" s="203"/>
+      <c r="H164" s="203"/>
+      <c r="I164" s="223"/>
+      <c r="J164" s="203"/>
+      <c r="K164" s="203"/>
+      <c r="L164" s="203"/>
+      <c r="M164" s="203"/>
+      <c r="N164" s="223"/>
+      <c r="O164" s="223"/>
+      <c r="P164" s="223"/>
+      <c r="Q164" s="213"/>
+      <c r="R164" s="218"/>
+      <c r="S164" s="218"/>
+      <c r="T164" s="213"/>
+      <c r="U164" s="213"/>
+      <c r="V164" s="220"/>
+      <c r="W164" s="220"/>
+      <c r="X164" s="219"/>
+      <c r="Y164" s="219"/>
+      <c r="Z164" s="219"/>
+      <c r="AA164" s="204"/>
     </row>
     <row r="165" spans="1:27" ht="30" customHeight="1">
       <c r="A165" s="128"/>
@@ -8957,56 +8924,56 @@
       <c r="G165" s="88"/>
       <c r="H165" s="88"/>
       <c r="I165" s="88"/>
-      <c r="J165" s="331"/>
-      <c r="K165" s="331"/>
-      <c r="L165" s="331"/>
-      <c r="M165" s="331"/>
-      <c r="N165" s="331"/>
-      <c r="O165" s="331"/>
-      <c r="P165" s="225"/>
+      <c r="J165" s="328"/>
+      <c r="K165" s="328"/>
+      <c r="L165" s="328"/>
+      <c r="M165" s="328"/>
+      <c r="N165" s="328"/>
+      <c r="O165" s="328"/>
+      <c r="P165" s="224"/>
       <c r="Q165" s="130"/>
-      <c r="R165" s="219"/>
-      <c r="S165" s="219"/>
+      <c r="R165" s="218"/>
+      <c r="S165" s="218"/>
       <c r="T165" s="130"/>
       <c r="U165" s="130"/>
-      <c r="V165" s="194"/>
-      <c r="W165" s="194"/>
-      <c r="X165" s="194"/>
+      <c r="V165" s="193"/>
+      <c r="W165" s="193"/>
+      <c r="X165" s="193"/>
       <c r="Y165" s="131"/>
       <c r="Z165" s="131"/>
       <c r="AA165" s="131"/>
     </row>
     <row r="166" spans="1:27" ht="30" customHeight="1">
-      <c r="A166" s="316" t="s">
+      <c r="A166" s="378" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="316"/>
-      <c r="C166" s="317" t="s">
+      <c r="B166" s="378"/>
+      <c r="C166" s="313" t="s">
         <v>126</v>
       </c>
-      <c r="D166" s="317"/>
-      <c r="E166" s="317"/>
-      <c r="F166" s="317"/>
-      <c r="G166" s="318" t="s">
+      <c r="D166" s="313"/>
+      <c r="E166" s="313"/>
+      <c r="F166" s="313"/>
+      <c r="G166" s="314" t="s">
         <v>127</v>
       </c>
-      <c r="H166" s="318"/>
-      <c r="I166" s="318"/>
-      <c r="J166" s="318"/>
-      <c r="K166" s="318"/>
-      <c r="L166" s="318"/>
-      <c r="M166" s="318"/>
-      <c r="N166" s="318"/>
-      <c r="O166" s="318"/>
-      <c r="P166" s="318"/>
+      <c r="H166" s="314"/>
+      <c r="I166" s="314"/>
+      <c r="J166" s="314"/>
+      <c r="K166" s="314"/>
+      <c r="L166" s="314"/>
+      <c r="M166" s="314"/>
+      <c r="N166" s="314"/>
+      <c r="O166" s="314"/>
+      <c r="P166" s="314"/>
       <c r="Q166" s="132"/>
       <c r="R166" s="132"/>
       <c r="S166" s="132"/>
       <c r="T166" s="132"/>
       <c r="U166" s="132"/>
-      <c r="V166" s="211"/>
-      <c r="W166" s="211"/>
-      <c r="X166" s="211"/>
+      <c r="V166" s="210"/>
+      <c r="W166" s="210"/>
+      <c r="X166" s="210"/>
       <c r="Y166" s="131"/>
       <c r="Z166" s="131"/>
       <c r="AA166" s="131"/>
@@ -9021,21 +8988,21 @@
       <c r="G167" s="132"/>
       <c r="H167" s="132"/>
       <c r="I167" s="132"/>
-      <c r="J167" s="318"/>
-      <c r="K167" s="318"/>
-      <c r="L167" s="318"/>
-      <c r="M167" s="318"/>
-      <c r="N167" s="318"/>
-      <c r="O167" s="318"/>
-      <c r="P167" s="318"/>
+      <c r="J167" s="314"/>
+      <c r="K167" s="314"/>
+      <c r="L167" s="314"/>
+      <c r="M167" s="314"/>
+      <c r="N167" s="314"/>
+      <c r="O167" s="314"/>
+      <c r="P167" s="314"/>
       <c r="Q167" s="132"/>
       <c r="R167" s="132"/>
       <c r="S167" s="132"/>
       <c r="T167" s="132"/>
       <c r="U167" s="132"/>
-      <c r="V167" s="211"/>
-      <c r="W167" s="211"/>
-      <c r="X167" s="211"/>
+      <c r="V167" s="210"/>
+      <c r="W167" s="210"/>
+      <c r="X167" s="210"/>
       <c r="Y167" s="131"/>
       <c r="Z167" s="131"/>
       <c r="AA167" s="131"/>
@@ -9166,13 +9133,13 @@
       <c r="G172" s="134"/>
       <c r="H172" s="134"/>
       <c r="I172" s="134"/>
-      <c r="J172" s="350"/>
-      <c r="K172" s="350"/>
-      <c r="L172" s="350"/>
-      <c r="M172" s="350"/>
-      <c r="N172" s="350"/>
-      <c r="O172" s="350"/>
-      <c r="P172" s="350"/>
+      <c r="J172" s="315"/>
+      <c r="K172" s="315"/>
+      <c r="L172" s="315"/>
+      <c r="M172" s="315"/>
+      <c r="N172" s="315"/>
+      <c r="O172" s="315"/>
+      <c r="P172" s="315"/>
       <c r="Q172" s="134"/>
       <c r="R172" s="134"/>
       <c r="S172" s="134"/>
@@ -9189,24 +9156,24 @@
       <c r="A173" s="131"/>
       <c r="B173" s="131"/>
       <c r="C173" s="131"/>
-      <c r="D173" s="212"/>
-      <c r="E173" s="213"/>
-      <c r="F173" s="212"/>
-      <c r="G173" s="212"/>
-      <c r="H173" s="212"/>
-      <c r="I173" s="212"/>
-      <c r="J173" s="212"/>
-      <c r="K173" s="212"/>
-      <c r="L173" s="212"/>
-      <c r="M173" s="212"/>
-      <c r="N173" s="212"/>
-      <c r="O173" s="212"/>
-      <c r="P173" s="212"/>
-      <c r="Q173" s="212"/>
-      <c r="R173" s="212"/>
-      <c r="S173" s="212"/>
-      <c r="T173" s="212"/>
-      <c r="U173" s="212"/>
+      <c r="D173" s="211"/>
+      <c r="E173" s="212"/>
+      <c r="F173" s="211"/>
+      <c r="G173" s="211"/>
+      <c r="H173" s="211"/>
+      <c r="I173" s="211"/>
+      <c r="J173" s="211"/>
+      <c r="K173" s="211"/>
+      <c r="L173" s="211"/>
+      <c r="M173" s="211"/>
+      <c r="N173" s="211"/>
+      <c r="O173" s="211"/>
+      <c r="P173" s="211"/>
+      <c r="Q173" s="211"/>
+      <c r="R173" s="211"/>
+      <c r="S173" s="211"/>
+      <c r="T173" s="211"/>
+      <c r="U173" s="211"/>
       <c r="V173" s="131"/>
       <c r="W173" s="131"/>
       <c r="X173" s="98"/>
@@ -9215,27 +9182,27 @@
       <c r="AA173" s="98"/>
     </row>
     <row r="174" spans="1:27" ht="30" customHeight="1">
-      <c r="A174" s="131"/>
-      <c r="B174" s="131"/>
-      <c r="C174" s="131"/>
-      <c r="D174" s="212"/>
-      <c r="E174" s="213"/>
-      <c r="F174" s="212"/>
-      <c r="G174" s="212"/>
-      <c r="H174" s="212"/>
-      <c r="I174" s="212"/>
-      <c r="J174" s="212"/>
-      <c r="K174" s="212"/>
-      <c r="L174" s="212"/>
-      <c r="M174" s="212"/>
-      <c r="N174" s="212"/>
-      <c r="O174" s="212"/>
-      <c r="P174" s="212"/>
-      <c r="Q174" s="212"/>
-      <c r="R174" s="212"/>
-      <c r="S174" s="212"/>
-      <c r="T174" s="212"/>
-      <c r="U174" s="212"/>
+      <c r="A174" s="91"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="91"/>
+      <c r="D174" s="91"/>
+      <c r="E174" s="91"/>
+      <c r="F174" s="91"/>
+      <c r="G174" s="91"/>
+      <c r="H174" s="91"/>
+      <c r="I174" s="91"/>
+      <c r="J174" s="91"/>
+      <c r="K174" s="91"/>
+      <c r="L174" s="91"/>
+      <c r="M174" s="91"/>
+      <c r="N174" s="91"/>
+      <c r="O174" s="91"/>
+      <c r="P174" s="91"/>
+      <c r="Q174" s="211"/>
+      <c r="R174" s="211"/>
+      <c r="S174" s="211"/>
+      <c r="T174" s="211"/>
+      <c r="U174" s="211"/>
       <c r="V174" s="131"/>
       <c r="W174" s="131"/>
       <c r="X174" s="98"/>
@@ -9243,27 +9210,41 @@
       <c r="Z174" s="98"/>
       <c r="AA174" s="98"/>
     </row>
+    <row r="175" spans="1:27" ht="30" customHeight="1">
+      <c r="A175" s="91"/>
+      <c r="B175" s="91"/>
+      <c r="C175" s="91"/>
+      <c r="D175" s="91"/>
+      <c r="E175" s="91"/>
+      <c r="F175" s="91"/>
+      <c r="G175" s="91"/>
+      <c r="H175" s="91"/>
+      <c r="I175" s="91"/>
+      <c r="J175" s="91"/>
+      <c r="K175" s="91"/>
+      <c r="L175" s="91"/>
+      <c r="M175" s="91"/>
+      <c r="N175" s="91"/>
+      <c r="O175" s="91"/>
+      <c r="P175" s="91"/>
+    </row>
     <row r="176" spans="1:27" ht="30" customHeight="1">
-      <c r="A176" s="297" t="s">
-        <v>103</v>
-      </c>
-      <c r="B176" s="297"/>
-      <c r="C176" s="297"/>
-      <c r="D176" s="297"/>
-      <c r="E176" s="89"/>
-      <c r="F176" s="90"/>
-      <c r="G176" s="90"/>
-      <c r="H176" s="90"/>
-      <c r="I176" s="89"/>
-      <c r="J176" s="298" t="s">
-        <v>104</v>
-      </c>
-      <c r="K176" s="298"/>
-      <c r="L176" s="298"/>
-      <c r="M176" s="298"/>
-      <c r="N176" s="298"/>
-      <c r="O176" s="89"/>
-      <c r="P176" s="89"/>
+      <c r="A176" s="91"/>
+      <c r="B176" s="91"/>
+      <c r="C176" s="91"/>
+      <c r="D176" s="91"/>
+      <c r="E176" s="91"/>
+      <c r="F176" s="91"/>
+      <c r="G176" s="91"/>
+      <c r="H176" s="91"/>
+      <c r="I176" s="91"/>
+      <c r="J176" s="91"/>
+      <c r="K176" s="91"/>
+      <c r="L176" s="91"/>
+      <c r="M176" s="91"/>
+      <c r="N176" s="91"/>
+      <c r="O176" s="91"/>
+      <c r="P176" s="91"/>
       <c r="Q176" s="89"/>
       <c r="R176" s="89"/>
       <c r="S176" s="89"/>
@@ -9277,26 +9258,22 @@
       <c r="AA176" s="91"/>
     </row>
     <row r="177" spans="1:27" ht="30" customHeight="1">
-      <c r="A177" s="299" t="s">
-        <v>105</v>
-      </c>
-      <c r="B177" s="299"/>
-      <c r="C177" s="299"/>
-      <c r="D177" s="299"/>
-      <c r="E177" s="89"/>
-      <c r="F177" s="92"/>
-      <c r="G177" s="92"/>
-      <c r="H177" s="92"/>
-      <c r="I177" s="89"/>
-      <c r="J177" s="300" t="s">
-        <v>106</v>
-      </c>
-      <c r="K177" s="300"/>
-      <c r="L177" s="300"/>
-      <c r="M177" s="300"/>
-      <c r="N177" s="300"/>
-      <c r="O177" s="90"/>
-      <c r="P177" s="90"/>
+      <c r="A177" s="91"/>
+      <c r="B177" s="91"/>
+      <c r="C177" s="91"/>
+      <c r="D177" s="91"/>
+      <c r="E177" s="91"/>
+      <c r="F177" s="91"/>
+      <c r="G177" s="91"/>
+      <c r="H177" s="91"/>
+      <c r="I177" s="91"/>
+      <c r="J177" s="91"/>
+      <c r="K177" s="91"/>
+      <c r="L177" s="91"/>
+      <c r="M177" s="91"/>
+      <c r="N177" s="91"/>
+      <c r="O177" s="91"/>
+      <c r="P177" s="91"/>
       <c r="Q177" s="90"/>
       <c r="R177" s="90"/>
       <c r="S177" s="90"/>
@@ -9310,22 +9287,22 @@
       <c r="AA177" s="91"/>
     </row>
     <row r="178" spans="1:27" ht="30" customHeight="1">
-      <c r="A178" s="94"/>
-      <c r="B178" s="94"/>
-      <c r="C178" s="94"/>
-      <c r="D178" s="95"/>
-      <c r="E178" s="95"/>
-      <c r="F178" s="198"/>
-      <c r="G178" s="129"/>
-      <c r="H178" s="129"/>
-      <c r="I178" s="95"/>
-      <c r="J178" s="129"/>
-      <c r="K178" s="129"/>
-      <c r="L178" s="88"/>
-      <c r="M178" s="88"/>
-      <c r="N178" s="88"/>
-      <c r="O178" s="88"/>
-      <c r="P178" s="88"/>
+      <c r="A178" s="91"/>
+      <c r="B178" s="91"/>
+      <c r="C178" s="91"/>
+      <c r="D178" s="91"/>
+      <c r="E178" s="91"/>
+      <c r="F178" s="91"/>
+      <c r="G178" s="91"/>
+      <c r="H178" s="91"/>
+      <c r="I178" s="91"/>
+      <c r="J178" s="91"/>
+      <c r="K178" s="91"/>
+      <c r="L178" s="91"/>
+      <c r="M178" s="91"/>
+      <c r="N178" s="91"/>
+      <c r="O178" s="91"/>
+      <c r="P178" s="91"/>
       <c r="Q178" s="88"/>
       <c r="R178" s="88"/>
       <c r="S178" s="88"/>
@@ -9339,24 +9316,22 @@
       <c r="AA178" s="88"/>
     </row>
     <row r="179" spans="1:27" ht="30" customHeight="1">
-      <c r="A179" s="286" t="s">
-        <v>226</v>
-      </c>
-      <c r="B179" s="286"/>
-      <c r="C179" s="286"/>
-      <c r="D179" s="286"/>
-      <c r="E179" s="286"/>
-      <c r="F179" s="286"/>
-      <c r="G179" s="286"/>
-      <c r="H179" s="286"/>
-      <c r="I179" s="286"/>
-      <c r="J179" s="286"/>
-      <c r="K179" s="286"/>
-      <c r="L179" s="286"/>
-      <c r="M179" s="286"/>
-      <c r="N179" s="286"/>
-      <c r="O179" s="286"/>
-      <c r="P179" s="286"/>
+      <c r="A179" s="91"/>
+      <c r="B179" s="91"/>
+      <c r="C179" s="91"/>
+      <c r="D179" s="91"/>
+      <c r="E179" s="91"/>
+      <c r="F179" s="91"/>
+      <c r="G179" s="91"/>
+      <c r="H179" s="91"/>
+      <c r="I179" s="91"/>
+      <c r="J179" s="91"/>
+      <c r="K179" s="91"/>
+      <c r="L179" s="91"/>
+      <c r="M179" s="91"/>
+      <c r="N179" s="91"/>
+      <c r="O179" s="91"/>
+      <c r="P179" s="91"/>
       <c r="Q179" s="99"/>
       <c r="R179" s="99"/>
       <c r="S179" s="99"/>
@@ -9370,22 +9345,22 @@
       <c r="AA179" s="88"/>
     </row>
     <row r="180" spans="1:27" ht="30" customHeight="1">
-      <c r="A180" s="343"/>
-      <c r="B180" s="343"/>
-      <c r="C180" s="343"/>
-      <c r="D180" s="343"/>
-      <c r="E180" s="343"/>
-      <c r="F180" s="343"/>
-      <c r="G180" s="343"/>
-      <c r="H180" s="343"/>
-      <c r="I180" s="343"/>
-      <c r="J180" s="343"/>
-      <c r="K180" s="343"/>
-      <c r="L180" s="343"/>
-      <c r="M180" s="343"/>
-      <c r="N180" s="343"/>
-      <c r="O180" s="343"/>
-      <c r="P180" s="343"/>
+      <c r="A180" s="91"/>
+      <c r="B180" s="91"/>
+      <c r="C180" s="91"/>
+      <c r="D180" s="91"/>
+      <c r="E180" s="91"/>
+      <c r="F180" s="91"/>
+      <c r="G180" s="91"/>
+      <c r="H180" s="91"/>
+      <c r="I180" s="91"/>
+      <c r="J180" s="91"/>
+      <c r="K180" s="91"/>
+      <c r="L180" s="91"/>
+      <c r="M180" s="91"/>
+      <c r="N180" s="91"/>
+      <c r="O180" s="91"/>
+      <c r="P180" s="91"/>
       <c r="Q180" s="101"/>
       <c r="R180" s="101"/>
       <c r="S180" s="101"/>
@@ -9399,22 +9374,22 @@
       <c r="AA180" s="88"/>
     </row>
     <row r="181" spans="1:27" ht="30" customHeight="1">
-      <c r="A181" s="103"/>
-      <c r="B181" s="103"/>
-      <c r="C181" s="103"/>
-      <c r="D181" s="104"/>
-      <c r="E181" s="104"/>
-      <c r="F181" s="104"/>
-      <c r="G181" s="104"/>
-      <c r="H181" s="104"/>
-      <c r="I181" s="104"/>
-      <c r="J181" s="104"/>
-      <c r="K181" s="104"/>
-      <c r="L181" s="104"/>
-      <c r="M181" s="104"/>
-      <c r="N181" s="88"/>
-      <c r="O181" s="88"/>
-      <c r="P181" s="88"/>
+      <c r="A181" s="91"/>
+      <c r="B181" s="91"/>
+      <c r="C181" s="91"/>
+      <c r="D181" s="91"/>
+      <c r="E181" s="91"/>
+      <c r="F181" s="91"/>
+      <c r="G181" s="91"/>
+      <c r="H181" s="91"/>
+      <c r="I181" s="91"/>
+      <c r="J181" s="91"/>
+      <c r="K181" s="91"/>
+      <c r="L181" s="91"/>
+      <c r="M181" s="91"/>
+      <c r="N181" s="91"/>
+      <c r="O181" s="91"/>
+      <c r="P181" s="91"/>
       <c r="Q181" s="88"/>
       <c r="R181" s="88"/>
       <c r="S181" s="88"/>
@@ -9422,402 +9397,326 @@
       <c r="U181" s="88"/>
       <c r="V181" s="88"/>
       <c r="W181" s="88"/>
-      <c r="X181" s="199"/>
+      <c r="X181" s="198"/>
       <c r="Y181" s="88"/>
       <c r="Z181" s="88"/>
       <c r="AA181" s="88"/>
     </row>
     <row r="182" spans="1:27" ht="30" customHeight="1">
-      <c r="A182" s="401" t="s">
-        <v>2</v>
-      </c>
-      <c r="B182" s="344" t="s">
-        <v>108</v>
-      </c>
-      <c r="C182" s="345"/>
-      <c r="D182" s="294" t="s">
-        <v>109</v>
-      </c>
-      <c r="E182" s="288" t="s">
-        <v>110</v>
-      </c>
-      <c r="F182" s="290"/>
-      <c r="G182" s="294" t="s">
-        <v>213</v>
-      </c>
-      <c r="H182" s="226"/>
-      <c r="I182" s="294" t="s">
-        <v>214</v>
-      </c>
-      <c r="J182" s="386" t="s">
-        <v>215</v>
-      </c>
-      <c r="K182" s="387"/>
-      <c r="L182" s="387"/>
-      <c r="M182" s="388"/>
-      <c r="N182" s="392" t="s">
-        <v>216</v>
-      </c>
-      <c r="O182" s="393"/>
-      <c r="P182" s="394"/>
-      <c r="Q182" s="214"/>
-      <c r="R182" s="214"/>
-      <c r="S182" s="214"/>
-      <c r="T182" s="214"/>
-      <c r="U182" s="214"/>
-      <c r="V182" s="201"/>
-      <c r="W182" s="201"/>
-      <c r="X182" s="215"/>
-      <c r="Y182" s="215"/>
-      <c r="Z182" s="215"/>
+      <c r="A182" s="91"/>
+      <c r="B182" s="91"/>
+      <c r="C182" s="91"/>
+      <c r="D182" s="91"/>
+      <c r="E182" s="91"/>
+      <c r="F182" s="91"/>
+      <c r="G182" s="91"/>
+      <c r="H182" s="91"/>
+      <c r="I182" s="91"/>
+      <c r="J182" s="91"/>
+      <c r="K182" s="91"/>
+      <c r="L182" s="91"/>
+      <c r="M182" s="91"/>
+      <c r="N182" s="91"/>
+      <c r="O182" s="91"/>
+      <c r="P182" s="91"/>
+      <c r="Q182" s="213"/>
+      <c r="R182" s="213"/>
+      <c r="S182" s="213"/>
+      <c r="T182" s="213"/>
+      <c r="U182" s="213"/>
+      <c r="V182" s="200"/>
+      <c r="W182" s="200"/>
+      <c r="X182" s="214"/>
+      <c r="Y182" s="214"/>
+      <c r="Z182" s="214"/>
       <c r="AA182" s="109"/>
     </row>
     <row r="183" spans="1:27" ht="30" customHeight="1">
-      <c r="A183" s="402"/>
-      <c r="B183" s="346"/>
-      <c r="C183" s="347"/>
-      <c r="D183" s="295"/>
-      <c r="E183" s="291"/>
-      <c r="F183" s="293"/>
-      <c r="G183" s="295"/>
-      <c r="H183" s="227"/>
-      <c r="I183" s="295" t="s">
-        <v>227</v>
-      </c>
-      <c r="J183" s="389"/>
-      <c r="K183" s="390"/>
-      <c r="L183" s="390"/>
-      <c r="M183" s="391"/>
-      <c r="N183" s="395"/>
-      <c r="O183" s="396"/>
-      <c r="P183" s="397"/>
-      <c r="Q183" s="214"/>
-      <c r="R183" s="214"/>
-      <c r="S183" s="214"/>
-      <c r="T183" s="214"/>
-      <c r="U183" s="214"/>
-      <c r="V183" s="201"/>
-      <c r="W183" s="201"/>
-      <c r="X183" s="215"/>
-      <c r="Y183" s="215"/>
-      <c r="Z183" s="215"/>
+      <c r="A183" s="91"/>
+      <c r="B183" s="91"/>
+      <c r="C183" s="91"/>
+      <c r="D183" s="91"/>
+      <c r="E183" s="91"/>
+      <c r="F183" s="91"/>
+      <c r="G183" s="91"/>
+      <c r="H183" s="91"/>
+      <c r="I183" s="91"/>
+      <c r="J183" s="91"/>
+      <c r="K183" s="91"/>
+      <c r="L183" s="91"/>
+      <c r="M183" s="91"/>
+      <c r="N183" s="91"/>
+      <c r="O183" s="91"/>
+      <c r="P183" s="91"/>
+      <c r="Q183" s="213"/>
+      <c r="R183" s="213"/>
+      <c r="S183" s="213"/>
+      <c r="T183" s="213"/>
+      <c r="U183" s="213"/>
+      <c r="V183" s="200"/>
+      <c r="W183" s="200"/>
+      <c r="X183" s="214"/>
+      <c r="Y183" s="214"/>
+      <c r="Z183" s="214"/>
       <c r="AA183" s="109"/>
     </row>
     <row r="184" spans="1:27" ht="30" customHeight="1">
-      <c r="A184" s="403"/>
-      <c r="B184" s="348"/>
-      <c r="C184" s="349"/>
-      <c r="D184" s="296"/>
-      <c r="E184" s="107" t="s">
-        <v>217</v>
-      </c>
-      <c r="F184" s="107" t="s">
-        <v>218</v>
-      </c>
-      <c r="G184" s="296"/>
-      <c r="H184" s="228"/>
-      <c r="I184" s="296"/>
-      <c r="J184" s="309" t="s">
-        <v>219</v>
-      </c>
-      <c r="K184" s="310"/>
-      <c r="L184" s="309" t="s">
-        <v>220</v>
-      </c>
-      <c r="M184" s="310"/>
-      <c r="N184" s="398"/>
-      <c r="O184" s="399"/>
-      <c r="P184" s="400"/>
-      <c r="Q184" s="214"/>
-      <c r="R184" s="214"/>
-      <c r="S184" s="214"/>
-      <c r="T184" s="214"/>
-      <c r="U184" s="214"/>
-      <c r="V184" s="201"/>
-      <c r="W184" s="201"/>
-      <c r="X184" s="215"/>
+      <c r="A184" s="91"/>
+      <c r="B184" s="91"/>
+      <c r="C184" s="91"/>
+      <c r="D184" s="91"/>
+      <c r="E184" s="91"/>
+      <c r="F184" s="91"/>
+      <c r="G184" s="91"/>
+      <c r="H184" s="91"/>
+      <c r="I184" s="91"/>
+      <c r="J184" s="91"/>
+      <c r="K184" s="91"/>
+      <c r="L184" s="91"/>
+      <c r="M184" s="91"/>
+      <c r="N184" s="91"/>
+      <c r="O184" s="91"/>
+      <c r="P184" s="91"/>
+      <c r="Q184" s="213"/>
+      <c r="R184" s="213"/>
+      <c r="S184" s="213"/>
+      <c r="T184" s="213"/>
+      <c r="U184" s="213"/>
+      <c r="V184" s="200"/>
+      <c r="W184" s="200"/>
+      <c r="X184" s="214"/>
       <c r="Y184" s="109"/>
       <c r="Z184" s="109"/>
       <c r="AA184" s="109"/>
     </row>
     <row r="185" spans="1:27" ht="30" customHeight="1">
-      <c r="A185" s="110" t="s">
-        <v>192</v>
-      </c>
-      <c r="B185" s="336" t="s">
-        <v>193</v>
-      </c>
-      <c r="C185" s="337"/>
-      <c r="D185" s="158" t="s">
-        <v>194</v>
-      </c>
-      <c r="E185" s="111" t="s">
-        <v>195</v>
-      </c>
-      <c r="F185" s="216" t="s">
-        <v>221</v>
-      </c>
-      <c r="G185" s="216">
-        <v>-4</v>
-      </c>
-      <c r="H185" s="229"/>
-      <c r="I185" s="111" t="s">
-        <v>222</v>
-      </c>
-      <c r="J185" s="311" t="s">
-        <v>223</v>
-      </c>
-      <c r="K185" s="312"/>
-      <c r="L185" s="311" t="s">
-        <v>224</v>
-      </c>
-      <c r="M185" s="312"/>
-      <c r="N185" s="311" t="s">
-        <v>225</v>
-      </c>
-      <c r="O185" s="370"/>
-      <c r="P185" s="312"/>
+      <c r="A185" s="91"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="91"/>
+      <c r="D185" s="91"/>
+      <c r="E185" s="91"/>
+      <c r="F185" s="91"/>
+      <c r="G185" s="91"/>
+      <c r="H185" s="91"/>
+      <c r="I185" s="91"/>
+      <c r="J185" s="91"/>
+      <c r="K185" s="91"/>
+      <c r="L185" s="91"/>
+      <c r="M185" s="91"/>
+      <c r="N185" s="91"/>
+      <c r="O185" s="91"/>
+      <c r="P185" s="91"/>
       <c r="Q185" s="113"/>
       <c r="R185" s="113"/>
       <c r="S185" s="113"/>
       <c r="T185" s="113"/>
       <c r="U185" s="113"/>
-      <c r="V185" s="203"/>
-      <c r="W185" s="203"/>
-      <c r="X185" s="203"/>
-      <c r="Y185" s="217"/>
-      <c r="Z185" s="217"/>
-      <c r="AA185" s="217"/>
+      <c r="V185" s="202"/>
+      <c r="W185" s="202"/>
+      <c r="X185" s="202"/>
+      <c r="Y185" s="216"/>
+      <c r="Z185" s="216"/>
+      <c r="AA185" s="216"/>
     </row>
     <row r="186" spans="1:27" ht="30" customHeight="1">
-      <c r="A186" s="116">
-        <v>1</v>
-      </c>
-      <c r="B186" s="319" t="s">
-        <v>18</v>
-      </c>
-      <c r="C186" s="320"/>
-      <c r="D186" s="118"/>
-      <c r="E186" s="119"/>
-      <c r="F186" s="218"/>
-      <c r="G186" s="218"/>
-      <c r="H186" s="230"/>
-      <c r="I186" s="119"/>
-      <c r="J186" s="357"/>
-      <c r="K186" s="358"/>
-      <c r="L186" s="357"/>
-      <c r="M186" s="358"/>
-      <c r="N186" s="307" t="s">
-        <v>201</v>
-      </c>
-      <c r="O186" s="385"/>
-      <c r="P186" s="308"/>
-      <c r="Q186" s="214"/>
-      <c r="R186" s="219"/>
-      <c r="S186" s="219"/>
-      <c r="T186" s="214"/>
-      <c r="U186" s="214"/>
-      <c r="V186" s="201"/>
-      <c r="W186" s="201"/>
-      <c r="X186" s="220"/>
-      <c r="Y186" s="220"/>
-      <c r="Z186" s="220"/>
-      <c r="AA186" s="205"/>
+      <c r="A186" s="91"/>
+      <c r="B186" s="91"/>
+      <c r="C186" s="91"/>
+      <c r="D186" s="91"/>
+      <c r="E186" s="91"/>
+      <c r="F186" s="91"/>
+      <c r="G186" s="91"/>
+      <c r="H186" s="91"/>
+      <c r="I186" s="91"/>
+      <c r="J186" s="91"/>
+      <c r="K186" s="91"/>
+      <c r="L186" s="91"/>
+      <c r="M186" s="91"/>
+      <c r="N186" s="91"/>
+      <c r="O186" s="91"/>
+      <c r="P186" s="91"/>
+      <c r="Q186" s="213"/>
+      <c r="R186" s="218"/>
+      <c r="S186" s="218"/>
+      <c r="T186" s="213"/>
+      <c r="U186" s="213"/>
+      <c r="V186" s="200"/>
+      <c r="W186" s="200"/>
+      <c r="X186" s="219"/>
+      <c r="Y186" s="219"/>
+      <c r="Z186" s="219"/>
+      <c r="AA186" s="204"/>
     </row>
     <row r="187" spans="1:27" ht="30" customHeight="1">
-      <c r="A187" s="116">
-        <v>2</v>
-      </c>
-      <c r="B187" s="319" t="s">
-        <v>19</v>
-      </c>
-      <c r="C187" s="320"/>
-      <c r="D187" s="118"/>
-      <c r="E187" s="119"/>
-      <c r="F187" s="218"/>
-      <c r="G187" s="218"/>
-      <c r="H187" s="230"/>
-      <c r="I187" s="119"/>
-      <c r="J187" s="357"/>
-      <c r="K187" s="358"/>
-      <c r="L187" s="357"/>
-      <c r="M187" s="358"/>
-      <c r="N187" s="307" t="s">
-        <v>201</v>
-      </c>
-      <c r="O187" s="385"/>
-      <c r="P187" s="308"/>
-      <c r="Q187" s="214"/>
-      <c r="R187" s="219"/>
-      <c r="S187" s="219"/>
-      <c r="T187" s="214"/>
-      <c r="U187" s="214"/>
-      <c r="V187" s="221"/>
-      <c r="W187" s="221"/>
-      <c r="X187" s="220"/>
-      <c r="Y187" s="220"/>
-      <c r="Z187" s="220"/>
-      <c r="AA187" s="205"/>
+      <c r="A187" s="91"/>
+      <c r="B187" s="91"/>
+      <c r="C187" s="91"/>
+      <c r="D187" s="91"/>
+      <c r="E187" s="91"/>
+      <c r="F187" s="91"/>
+      <c r="G187" s="91"/>
+      <c r="H187" s="91"/>
+      <c r="I187" s="91"/>
+      <c r="J187" s="91"/>
+      <c r="K187" s="91"/>
+      <c r="L187" s="91"/>
+      <c r="M187" s="91"/>
+      <c r="N187" s="91"/>
+      <c r="O187" s="91"/>
+      <c r="P187" s="91"/>
+      <c r="Q187" s="213"/>
+      <c r="R187" s="218"/>
+      <c r="S187" s="218"/>
+      <c r="T187" s="213"/>
+      <c r="U187" s="213"/>
+      <c r="V187" s="220"/>
+      <c r="W187" s="220"/>
+      <c r="X187" s="219"/>
+      <c r="Y187" s="219"/>
+      <c r="Z187" s="219"/>
+      <c r="AA187" s="204"/>
     </row>
     <row r="188" spans="1:27" ht="30" customHeight="1">
-      <c r="A188" s="116">
-        <v>3</v>
-      </c>
-      <c r="B188" s="319" t="s">
-        <v>20</v>
-      </c>
-      <c r="C188" s="320"/>
-      <c r="D188" s="118"/>
-      <c r="E188" s="119"/>
-      <c r="F188" s="218"/>
-      <c r="G188" s="218"/>
-      <c r="H188" s="230"/>
-      <c r="I188" s="119"/>
-      <c r="J188" s="357"/>
-      <c r="K188" s="358"/>
-      <c r="L188" s="357"/>
-      <c r="M188" s="358"/>
-      <c r="N188" s="307" t="s">
-        <v>201</v>
-      </c>
-      <c r="O188" s="385"/>
-      <c r="P188" s="308"/>
-      <c r="Q188" s="214"/>
-      <c r="R188" s="219"/>
-      <c r="S188" s="219"/>
-      <c r="T188" s="214"/>
-      <c r="U188" s="214"/>
-      <c r="V188" s="221"/>
-      <c r="W188" s="221"/>
-      <c r="X188" s="220"/>
-      <c r="Y188" s="220"/>
-      <c r="Z188" s="220"/>
-      <c r="AA188" s="205"/>
+      <c r="A188" s="91"/>
+      <c r="B188" s="91"/>
+      <c r="C188" s="91"/>
+      <c r="D188" s="91"/>
+      <c r="E188" s="91"/>
+      <c r="F188" s="91"/>
+      <c r="G188" s="91"/>
+      <c r="H188" s="91"/>
+      <c r="I188" s="91"/>
+      <c r="J188" s="91"/>
+      <c r="K188" s="91"/>
+      <c r="L188" s="91"/>
+      <c r="M188" s="91"/>
+      <c r="N188" s="91"/>
+      <c r="O188" s="91"/>
+      <c r="P188" s="91"/>
+      <c r="Q188" s="213"/>
+      <c r="R188" s="218"/>
+      <c r="S188" s="218"/>
+      <c r="T188" s="213"/>
+      <c r="U188" s="213"/>
+      <c r="V188" s="220"/>
+      <c r="W188" s="220"/>
+      <c r="X188" s="219"/>
+      <c r="Y188" s="219"/>
+      <c r="Z188" s="219"/>
+      <c r="AA188" s="204"/>
     </row>
     <row r="189" spans="1:27" ht="30" customHeight="1">
-      <c r="A189" s="116">
-        <v>4</v>
-      </c>
-      <c r="B189" s="319" t="s">
-        <v>21</v>
-      </c>
-      <c r="C189" s="320"/>
-      <c r="D189" s="118"/>
-      <c r="E189" s="119"/>
-      <c r="F189" s="218"/>
-      <c r="G189" s="218"/>
-      <c r="H189" s="230"/>
-      <c r="I189" s="119"/>
-      <c r="J189" s="357"/>
-      <c r="K189" s="358"/>
-      <c r="L189" s="357"/>
-      <c r="M189" s="358"/>
-      <c r="N189" s="307" t="s">
-        <v>201</v>
-      </c>
-      <c r="O189" s="385"/>
-      <c r="P189" s="308"/>
-      <c r="Q189" s="214"/>
-      <c r="R189" s="219"/>
-      <c r="S189" s="219"/>
-      <c r="T189" s="214"/>
-      <c r="U189" s="214"/>
-      <c r="V189" s="221"/>
-      <c r="W189" s="221"/>
-      <c r="X189" s="220"/>
-      <c r="Y189" s="220"/>
-      <c r="Z189" s="220"/>
-      <c r="AA189" s="205"/>
+      <c r="A189" s="91"/>
+      <c r="B189" s="91"/>
+      <c r="C189" s="91"/>
+      <c r="D189" s="91"/>
+      <c r="E189" s="91"/>
+      <c r="F189" s="91"/>
+      <c r="G189" s="91"/>
+      <c r="H189" s="91"/>
+      <c r="I189" s="91"/>
+      <c r="J189" s="91"/>
+      <c r="K189" s="91"/>
+      <c r="L189" s="91"/>
+      <c r="M189" s="91"/>
+      <c r="N189" s="91"/>
+      <c r="O189" s="91"/>
+      <c r="P189" s="91"/>
+      <c r="Q189" s="213"/>
+      <c r="R189" s="218"/>
+      <c r="S189" s="218"/>
+      <c r="T189" s="213"/>
+      <c r="U189" s="213"/>
+      <c r="V189" s="220"/>
+      <c r="W189" s="220"/>
+      <c r="X189" s="219"/>
+      <c r="Y189" s="219"/>
+      <c r="Z189" s="219"/>
+      <c r="AA189" s="204"/>
     </row>
     <row r="190" spans="1:27" ht="30" customHeight="1">
-      <c r="A190" s="222"/>
-      <c r="B190" s="223"/>
-      <c r="C190" s="223"/>
-      <c r="D190" s="223"/>
-      <c r="E190" s="204"/>
-      <c r="F190" s="204"/>
-      <c r="G190" s="204"/>
-      <c r="H190" s="204"/>
-      <c r="I190" s="224"/>
-      <c r="J190" s="204"/>
-      <c r="K190" s="204"/>
-      <c r="L190" s="204"/>
-      <c r="M190" s="204"/>
-      <c r="N190" s="224"/>
-      <c r="O190" s="224"/>
-      <c r="P190" s="224"/>
-      <c r="Q190" s="214"/>
-      <c r="R190" s="219"/>
-      <c r="S190" s="219"/>
-      <c r="T190" s="214"/>
-      <c r="U190" s="214"/>
-      <c r="V190" s="221"/>
-      <c r="W190" s="221"/>
-      <c r="X190" s="220"/>
-      <c r="Y190" s="220"/>
-      <c r="Z190" s="220"/>
-      <c r="AA190" s="205"/>
+      <c r="A190" s="91"/>
+      <c r="B190" s="91"/>
+      <c r="C190" s="91"/>
+      <c r="D190" s="91"/>
+      <c r="E190" s="91"/>
+      <c r="F190" s="91"/>
+      <c r="G190" s="91"/>
+      <c r="H190" s="91"/>
+      <c r="I190" s="91"/>
+      <c r="J190" s="91"/>
+      <c r="K190" s="91"/>
+      <c r="L190" s="91"/>
+      <c r="M190" s="91"/>
+      <c r="N190" s="91"/>
+      <c r="O190" s="91"/>
+      <c r="P190" s="91"/>
+      <c r="Q190" s="213"/>
+      <c r="R190" s="218"/>
+      <c r="S190" s="218"/>
+      <c r="T190" s="213"/>
+      <c r="U190" s="213"/>
+      <c r="V190" s="220"/>
+      <c r="W190" s="220"/>
+      <c r="X190" s="219"/>
+      <c r="Y190" s="219"/>
+      <c r="Z190" s="219"/>
+      <c r="AA190" s="204"/>
     </row>
     <row r="191" spans="1:27" ht="30" customHeight="1">
-      <c r="A191" s="128"/>
-      <c r="B191" s="128"/>
-      <c r="C191" s="128"/>
-      <c r="D191" s="129"/>
-      <c r="E191" s="129"/>
-      <c r="F191" s="130"/>
-      <c r="G191" s="88"/>
-      <c r="H191" s="88"/>
-      <c r="I191" s="88"/>
-      <c r="J191" s="331"/>
-      <c r="K191" s="331"/>
-      <c r="L191" s="331"/>
-      <c r="M191" s="331"/>
-      <c r="N191" s="331"/>
-      <c r="O191" s="331"/>
-      <c r="P191" s="331"/>
+      <c r="A191" s="91"/>
+      <c r="B191" s="91"/>
+      <c r="C191" s="91"/>
+      <c r="D191" s="91"/>
+      <c r="E191" s="91"/>
+      <c r="F191" s="91"/>
+      <c r="G191" s="91"/>
+      <c r="H191" s="91"/>
+      <c r="I191" s="91"/>
+      <c r="J191" s="91"/>
+      <c r="K191" s="91"/>
+      <c r="L191" s="91"/>
+      <c r="M191" s="91"/>
+      <c r="N191" s="91"/>
+      <c r="O191" s="91"/>
+      <c r="P191" s="91"/>
       <c r="Q191" s="130"/>
-      <c r="R191" s="219"/>
-      <c r="S191" s="219"/>
+      <c r="R191" s="218"/>
+      <c r="S191" s="218"/>
       <c r="T191" s="130"/>
       <c r="U191" s="130"/>
-      <c r="V191" s="194"/>
-      <c r="W191" s="194"/>
-      <c r="X191" s="194"/>
+      <c r="V191" s="193"/>
+      <c r="W191" s="193"/>
+      <c r="X191" s="193"/>
       <c r="Y191" s="131"/>
       <c r="Z191" s="131"/>
       <c r="AA191" s="131"/>
     </row>
     <row r="192" spans="1:27" ht="30" customHeight="1">
-      <c r="A192" s="316" t="s">
-        <v>125</v>
-      </c>
-      <c r="B192" s="316"/>
-      <c r="C192" s="316" t="s">
-        <v>126</v>
-      </c>
-      <c r="D192" s="316"/>
-      <c r="E192" s="316"/>
-      <c r="F192" s="318" t="s">
-        <v>127</v>
-      </c>
-      <c r="G192" s="318"/>
-      <c r="H192" s="318"/>
-      <c r="I192" s="318"/>
-      <c r="J192" s="318"/>
-      <c r="K192" s="318"/>
-      <c r="L192" s="318"/>
-      <c r="M192" s="318"/>
-      <c r="N192" s="318"/>
-      <c r="O192" s="318"/>
-      <c r="P192" s="318"/>
+      <c r="A192" s="91"/>
+      <c r="B192" s="91"/>
+      <c r="C192" s="91"/>
+      <c r="D192" s="91"/>
+      <c r="E192" s="91"/>
+      <c r="F192" s="91"/>
+      <c r="G192" s="91"/>
+      <c r="H192" s="91"/>
+      <c r="I192" s="91"/>
+      <c r="J192" s="91"/>
+      <c r="K192" s="91"/>
+      <c r="L192" s="91"/>
+      <c r="M192" s="91"/>
+      <c r="N192" s="91"/>
+      <c r="O192" s="91"/>
+      <c r="P192" s="91"/>
       <c r="Q192" s="132"/>
       <c r="R192" s="132"/>
       <c r="S192" s="132"/>
       <c r="T192" s="132"/>
       <c r="U192" s="132"/>
-      <c r="V192" s="211"/>
-      <c r="W192" s="211"/>
-      <c r="X192" s="211"/>
+      <c r="V192" s="210"/>
+      <c r="W192" s="210"/>
+      <c r="X192" s="210"/>
       <c r="Y192" s="131"/>
       <c r="Z192" s="131"/>
       <c r="AA192" s="131"/>
@@ -9832,21 +9731,21 @@
       <c r="G193" s="132"/>
       <c r="H193" s="132"/>
       <c r="I193" s="132"/>
-      <c r="J193" s="318"/>
-      <c r="K193" s="318"/>
-      <c r="L193" s="318"/>
-      <c r="M193" s="318"/>
-      <c r="N193" s="318"/>
-      <c r="O193" s="318"/>
-      <c r="P193" s="318"/>
+      <c r="J193" s="314"/>
+      <c r="K193" s="314"/>
+      <c r="L193" s="314"/>
+      <c r="M193" s="314"/>
+      <c r="N193" s="314"/>
+      <c r="O193" s="314"/>
+      <c r="P193" s="314"/>
       <c r="Q193" s="132"/>
       <c r="R193" s="132"/>
       <c r="S193" s="132"/>
       <c r="T193" s="132"/>
       <c r="U193" s="132"/>
-      <c r="V193" s="211"/>
-      <c r="W193" s="211"/>
-      <c r="X193" s="211"/>
+      <c r="V193" s="210"/>
+      <c r="W193" s="210"/>
+      <c r="X193" s="210"/>
       <c r="Y193" s="131"/>
       <c r="Z193" s="131"/>
       <c r="AA193" s="131"/>
@@ -9977,13 +9876,13 @@
       <c r="G198" s="134"/>
       <c r="H198" s="134"/>
       <c r="I198" s="134"/>
-      <c r="J198" s="350"/>
-      <c r="K198" s="350"/>
-      <c r="L198" s="350"/>
-      <c r="M198" s="350"/>
-      <c r="N198" s="350"/>
-      <c r="O198" s="350"/>
-      <c r="P198" s="350"/>
+      <c r="J198" s="315"/>
+      <c r="K198" s="315"/>
+      <c r="L198" s="315"/>
+      <c r="M198" s="315"/>
+      <c r="N198" s="315"/>
+      <c r="O198" s="315"/>
+      <c r="P198" s="315"/>
       <c r="Q198" s="134"/>
       <c r="R198" s="134"/>
       <c r="S198" s="134"/>
@@ -10055,7 +9954,33 @@
       <c r="AA200" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="305">
+  <mergeCells count="270">
+    <mergeCell ref="L93:P93"/>
+    <mergeCell ref="L94:P94"/>
+    <mergeCell ref="L95:P95"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="Z104:AF104"/>
+    <mergeCell ref="Z108:AF108"/>
+    <mergeCell ref="Z116:AF116"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="R4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="U81:X81"/>
+    <mergeCell ref="U86:X86"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:P71"/>
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="S6:Z6"/>
@@ -10064,29 +9989,11 @@
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U51:U53"/>
     <mergeCell ref="V51:X52"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="R4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="R3:Z3"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
     <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="W15:X15"/>
-    <mergeCell ref="W10:X10"/>
     <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="J165:O165"/>
-    <mergeCell ref="J191:P191"/>
-    <mergeCell ref="J104:P104"/>
-    <mergeCell ref="J110:P110"/>
-    <mergeCell ref="Z104:AF104"/>
-    <mergeCell ref="Z108:AF108"/>
-    <mergeCell ref="Z116:AF116"/>
     <mergeCell ref="Z120:AF120"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="S8:T8"/>
@@ -10095,15 +10002,6 @@
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="Y7:Z7"/>
     <mergeCell ref="W7:X7"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="J100:P100"/>
-    <mergeCell ref="J136:P136"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="J167:P167"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M161:O161"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G13:M13"/>
@@ -10129,88 +10027,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="M162:O162"/>
-    <mergeCell ref="M163:O163"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="L184:M184"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="C192:E192"/>
-    <mergeCell ref="F192:I192"/>
-    <mergeCell ref="J192:P192"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="J176:N176"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:F166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="J166:P166"/>
-    <mergeCell ref="M159:O159"/>
-    <mergeCell ref="A177:D177"/>
-    <mergeCell ref="J177:N177"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="L188:M188"/>
-    <mergeCell ref="N188:P188"/>
-    <mergeCell ref="A179:P179"/>
-    <mergeCell ref="A180:P180"/>
-    <mergeCell ref="E182:F183"/>
-    <mergeCell ref="J182:M183"/>
-    <mergeCell ref="N182:P184"/>
-    <mergeCell ref="B182:C184"/>
-    <mergeCell ref="G182:G184"/>
-    <mergeCell ref="I182:I184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="L185:M185"/>
-    <mergeCell ref="N185:P185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="J186:K186"/>
-    <mergeCell ref="L186:M186"/>
-    <mergeCell ref="N186:P186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="J193:P193"/>
-    <mergeCell ref="J198:P198"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="D182:D184"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="L189:M189"/>
-    <mergeCell ref="N189:P189"/>
-    <mergeCell ref="M160:O160"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="J172:P172"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="L187:M187"/>
-    <mergeCell ref="N187:P187"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="J130:P130"/>
     <mergeCell ref="J131:P131"/>
     <mergeCell ref="A150:D150"/>
     <mergeCell ref="J150:N150"/>
@@ -10218,12 +10034,6 @@
     <mergeCell ref="J151:N151"/>
     <mergeCell ref="A153:P153"/>
     <mergeCell ref="A154:P154"/>
-    <mergeCell ref="B156:C158"/>
-    <mergeCell ref="E156:F157"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="I156:L157"/>
-    <mergeCell ref="M156:O158"/>
-    <mergeCell ref="I158:J158"/>
     <mergeCell ref="J129:P129"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="D123:E123"/>
@@ -10232,18 +10042,67 @@
     <mergeCell ref="B125:C125"/>
     <mergeCell ref="D125:E125"/>
     <mergeCell ref="I124:J124"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="J193:P193"/>
+    <mergeCell ref="B156:C158"/>
+    <mergeCell ref="E156:F157"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="I156:L157"/>
+    <mergeCell ref="M156:O158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="J167:P167"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M161:O161"/>
+    <mergeCell ref="J165:O165"/>
+    <mergeCell ref="M163:O163"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="J172:P172"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="J130:P130"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:F166"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="J166:P166"/>
+    <mergeCell ref="M159:O159"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="J136:P136"/>
     <mergeCell ref="F125:H125"/>
-    <mergeCell ref="U81:X81"/>
-    <mergeCell ref="U86:X86"/>
     <mergeCell ref="I123:J123"/>
     <mergeCell ref="M125:P125"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="I125:J125"/>
     <mergeCell ref="M124:P124"/>
+    <mergeCell ref="J198:P198"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="I162:J162"/>
     <mergeCell ref="F122:H122"/>
     <mergeCell ref="V94:X94"/>
     <mergeCell ref="U94:U95"/>
@@ -10257,6 +10116,14 @@
     <mergeCell ref="M118:P120"/>
     <mergeCell ref="K121:L121"/>
     <mergeCell ref="I121:J121"/>
+    <mergeCell ref="J104:P104"/>
+    <mergeCell ref="J110:P110"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="C94:F94"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="D121:E121"/>
     <mergeCell ref="J113:P113"/>
@@ -10278,6 +10145,7 @@
     <mergeCell ref="A115:P115"/>
     <mergeCell ref="J108:P108"/>
     <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A94:B94"/>
     <mergeCell ref="B122:C122"/>
     <mergeCell ref="D122:E122"/>
     <mergeCell ref="Y80:AA80"/>
@@ -10302,10 +10170,6 @@
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="K79:K80"/>
     <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:P71"/>
     <mergeCell ref="A72:D72"/>
     <mergeCell ref="J72:P72"/>
     <mergeCell ref="O44:P44"/>
@@ -10317,6 +10181,15 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="I37:L38"/>
+    <mergeCell ref="M37:P38"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
     <mergeCell ref="M41:N41"/>
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="I39:J39"/>
@@ -10326,17 +10199,8 @@
     <mergeCell ref="K41:L41"/>
     <mergeCell ref="T37:T39"/>
     <mergeCell ref="I40:J40"/>
-    <mergeCell ref="K42:L42"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="I37:L38"/>
-    <mergeCell ref="M37:P38"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M40:N40"/>
     <mergeCell ref="U45:Y45"/>
     <mergeCell ref="U40:Y40"/>
     <mergeCell ref="B82:R82"/>
@@ -10395,65 +10259,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="499" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="505"/>
-      <c r="C1" s="505"/>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
+      <c r="F1" s="499"/>
+      <c r="G1" s="499"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="514" t="s">
+      <c r="A2" s="508" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="514"/>
-      <c r="C2" s="514"/>
-      <c r="D2" s="514"/>
-      <c r="E2" s="514"/>
-      <c r="F2" s="514"/>
-      <c r="G2" s="514"/>
+      <c r="B2" s="508"/>
+      <c r="C2" s="508"/>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
+      <c r="A3" s="501"/>
+      <c r="B3" s="501"/>
+      <c r="C3" s="501"/>
+      <c r="D3" s="501"/>
+      <c r="E3" s="501"/>
+      <c r="F3" s="501"/>
+      <c r="G3" s="501"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="511" t="s">
+      <c r="A4" s="505" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="511"/>
-      <c r="C4" s="511"/>
-      <c r="D4" s="511"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
+      <c r="B4" s="505"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="505"/>
+      <c r="G4" s="505"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="512" t="s">
+      <c r="A5" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="512" t="s">
+      <c r="B5" s="506" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="513" t="s">
+      <c r="C5" s="507" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="513"/>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
+      <c r="D5" s="507"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="512"/>
-      <c r="B6" s="512"/>
+      <c r="A6" s="506"/>
+      <c r="B6" s="506"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -10471,8 +10335,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="512"/>
-      <c r="B7" s="512"/>
+      <c r="A7" s="506"/>
+      <c r="B7" s="506"/>
       <c r="C7" s="19" t="s">
         <v>40</v>
       </c>
@@ -10528,72 +10392,72 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="46"/>
-      <c r="C1" s="505" t="s">
+      <c r="C1" s="499" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
+      <c r="F1" s="499"/>
+      <c r="G1" s="499"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="47"/>
-      <c r="C2" s="514" t="s">
+      <c r="C2" s="508" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="514"/>
-      <c r="E2" s="514"/>
-      <c r="F2" s="514"/>
-      <c r="G2" s="514"/>
+      <c r="D2" s="508"/>
+      <c r="E2" s="508"/>
+      <c r="F2" s="508"/>
+      <c r="G2" s="508"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="47"/>
-      <c r="C3" s="514" t="s">
+      <c r="C3" s="508" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="514"/>
-      <c r="E3" s="514"/>
-      <c r="F3" s="514"/>
-      <c r="G3" s="514"/>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="41"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="507"/>
-      <c r="D4" s="507"/>
-      <c r="E4" s="507"/>
-      <c r="F4" s="507"/>
-      <c r="G4" s="507"/>
+      <c r="C4" s="501"/>
+      <c r="D4" s="501"/>
+      <c r="E4" s="501"/>
+      <c r="F4" s="501"/>
+      <c r="G4" s="501"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="49"/>
-      <c r="C5" s="511" t="s">
+      <c r="C5" s="505" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="511"/>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
+      <c r="D5" s="505"/>
+      <c r="E5" s="505"/>
+      <c r="F5" s="505"/>
+      <c r="G5" s="505"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="512" t="s">
+      <c r="A6" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="512" t="s">
+      <c r="B6" s="506" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="513" t="s">
+      <c r="C6" s="507" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="513"/>
-      <c r="E6" s="513"/>
-      <c r="F6" s="513"/>
-      <c r="G6" s="513"/>
+      <c r="D6" s="507"/>
+      <c r="E6" s="507"/>
+      <c r="F6" s="507"/>
+      <c r="G6" s="507"/>
       <c r="H6" s="84"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="512"/>
-      <c r="B7" s="512"/>
+      <c r="A7" s="506"/>
+      <c r="B7" s="506"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -10611,8 +10475,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="512"/>
-      <c r="B8" s="512"/>
+      <c r="A8" s="506"/>
+      <c r="B8" s="506"/>
       <c r="C8" s="50" t="s">
         <v>40</v>
       </c>
@@ -10812,10 +10676,10 @@
         <v>96</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="498" t="s">
+      <c r="N2" s="492" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="498"/>
+      <c r="O2" s="492"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>97</v>
@@ -41192,36 +41056,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="29" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="462" t="s">
+      <c r="A1" s="456" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="462"/>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
-      <c r="J1" s="462"/>
-      <c r="K1" s="462"/>
-      <c r="L1" s="462"/>
-      <c r="M1" s="462"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
     </row>
     <row r="2" spans="1:32" s="29" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="463"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="463"/>
-      <c r="F2" s="463"/>
-      <c r="G2" s="463"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
-      <c r="K2" s="463"/>
-      <c r="L2" s="463"/>
-      <c r="M2" s="463"/>
+      <c r="A2" s="457"/>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
+      <c r="L2" s="457"/>
+      <c r="M2" s="457"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41229,192 +41093,192 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="455" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="461" t="s">
+      <c r="B4" s="455" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="461" t="s">
+      <c r="C4" s="455" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="461" t="s">
+      <c r="D4" s="455" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="461"/>
-      <c r="F4" s="461"/>
-      <c r="G4" s="461"/>
-      <c r="H4" s="461" t="s">
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="455"/>
+      <c r="H4" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="461"/>
-      <c r="J4" s="461"/>
-      <c r="K4" s="461" t="s">
+      <c r="I4" s="455"/>
+      <c r="J4" s="455"/>
+      <c r="K4" s="455" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="461"/>
-      <c r="M4" s="461" t="s">
+      <c r="L4" s="455"/>
+      <c r="M4" s="455" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="461"/>
-      <c r="O4" s="461"/>
-      <c r="P4" s="461"/>
-      <c r="Q4" s="461"/>
-      <c r="R4" s="461"/>
-      <c r="S4" s="461"/>
-      <c r="T4" s="461"/>
-      <c r="U4" s="461" t="s">
+      <c r="N4" s="455"/>
+      <c r="O4" s="455"/>
+      <c r="P4" s="455"/>
+      <c r="Q4" s="455"/>
+      <c r="R4" s="455"/>
+      <c r="S4" s="455"/>
+      <c r="T4" s="455"/>
+      <c r="U4" s="455" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="461"/>
-      <c r="W4" s="461"/>
-      <c r="X4" s="461"/>
-      <c r="Y4" s="461" t="s">
+      <c r="V4" s="455"/>
+      <c r="W4" s="455"/>
+      <c r="X4" s="455"/>
+      <c r="Y4" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="461"/>
-      <c r="AA4" s="461" t="s">
+      <c r="Z4" s="455"/>
+      <c r="AA4" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="461"/>
-      <c r="AC4" s="461" t="s">
+      <c r="AB4" s="455"/>
+      <c r="AC4" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="461"/>
-      <c r="AE4" s="461" t="s">
+      <c r="AD4" s="455"/>
+      <c r="AE4" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="461"/>
+      <c r="AF4" s="455"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
-      <c r="D5" s="461"/>
-      <c r="E5" s="461"/>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461" t="s">
+      <c r="A5" s="455"/>
+      <c r="B5" s="455"/>
+      <c r="C5" s="455"/>
+      <c r="D5" s="455"/>
+      <c r="E5" s="455"/>
+      <c r="F5" s="455"/>
+      <c r="G5" s="455"/>
+      <c r="H5" s="455" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="461" t="s">
+      <c r="I5" s="455" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="461" t="s">
+      <c r="J5" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="461"/>
-      <c r="L5" s="461"/>
-      <c r="M5" s="461"/>
-      <c r="N5" s="461"/>
-      <c r="O5" s="461"/>
-      <c r="P5" s="461"/>
-      <c r="Q5" s="461"/>
-      <c r="R5" s="461"/>
-      <c r="S5" s="461"/>
-      <c r="T5" s="461"/>
-      <c r="U5" s="461"/>
-      <c r="V5" s="461"/>
-      <c r="W5" s="461"/>
-      <c r="X5" s="461"/>
-      <c r="Y5" s="461"/>
-      <c r="Z5" s="461"/>
-      <c r="AA5" s="461"/>
-      <c r="AB5" s="461"/>
-      <c r="AC5" s="461"/>
-      <c r="AD5" s="461"/>
-      <c r="AE5" s="461"/>
-      <c r="AF5" s="461"/>
+      <c r="K5" s="455"/>
+      <c r="L5" s="455"/>
+      <c r="M5" s="455"/>
+      <c r="N5" s="455"/>
+      <c r="O5" s="455"/>
+      <c r="P5" s="455"/>
+      <c r="Q5" s="455"/>
+      <c r="R5" s="455"/>
+      <c r="S5" s="455"/>
+      <c r="T5" s="455"/>
+      <c r="U5" s="455"/>
+      <c r="V5" s="455"/>
+      <c r="W5" s="455"/>
+      <c r="X5" s="455"/>
+      <c r="Y5" s="455"/>
+      <c r="Z5" s="455"/>
+      <c r="AA5" s="455"/>
+      <c r="AB5" s="455"/>
+      <c r="AC5" s="455"/>
+      <c r="AD5" s="455"/>
+      <c r="AE5" s="455"/>
+      <c r="AF5" s="455"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
-      <c r="D6" s="461" t="s">
+      <c r="A6" s="455"/>
+      <c r="B6" s="455"/>
+      <c r="C6" s="455"/>
+      <c r="D6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="461" t="s">
+      <c r="E6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="461" t="s">
+      <c r="F6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="461" t="s">
+      <c r="G6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="461"/>
-      <c r="I6" s="461"/>
-      <c r="J6" s="461"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="455"/>
+      <c r="J6" s="455"/>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="461" t="s">
+      <c r="M6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="461"/>
-      <c r="O6" s="461" t="s">
+      <c r="N6" s="455"/>
+      <c r="O6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="461"/>
-      <c r="Q6" s="461" t="s">
+      <c r="P6" s="455"/>
+      <c r="Q6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="461"/>
-      <c r="S6" s="461" t="s">
+      <c r="R6" s="455"/>
+      <c r="S6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="461"/>
-      <c r="U6" s="461" t="s">
+      <c r="T6" s="455"/>
+      <c r="U6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="461" t="s">
+      <c r="V6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="461" t="s">
+      <c r="W6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="461" t="s">
+      <c r="X6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="461" t="s">
+      <c r="Y6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="461" t="s">
+      <c r="Z6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="461" t="s">
+      <c r="AA6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="461" t="s">
+      <c r="AB6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="461" t="s">
+      <c r="AC6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="461" t="s">
+      <c r="AD6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="461" t="s">
+      <c r="AE6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="461" t="s">
+      <c r="AF6" s="455" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="461"/>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
-      <c r="D7" s="461"/>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="461"/>
-      <c r="I7" s="461"/>
-      <c r="J7" s="461"/>
+      <c r="A7" s="455"/>
+      <c r="B7" s="455"/>
+      <c r="C7" s="455"/>
+      <c r="D7" s="455"/>
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="455"/>
+      <c r="I7" s="455"/>
+      <c r="J7" s="455"/>
       <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
@@ -41445,18 +41309,18 @@
       <c r="T7" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="U7" s="461"/>
-      <c r="V7" s="461"/>
-      <c r="W7" s="461"/>
-      <c r="X7" s="461"/>
-      <c r="Y7" s="461"/>
-      <c r="Z7" s="461"/>
-      <c r="AA7" s="461"/>
-      <c r="AB7" s="461"/>
-      <c r="AC7" s="461"/>
-      <c r="AD7" s="461"/>
-      <c r="AE7" s="461"/>
-      <c r="AF7" s="461"/>
+      <c r="U7" s="455"/>
+      <c r="V7" s="455"/>
+      <c r="W7" s="455"/>
+      <c r="X7" s="455"/>
+      <c r="Y7" s="455"/>
+      <c r="Z7" s="455"/>
+      <c r="AA7" s="455"/>
+      <c r="AB7" s="455"/>
+      <c r="AC7" s="455"/>
+      <c r="AD7" s="455"/>
+      <c r="AE7" s="455"/>
+      <c r="AF7" s="455"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -41525,249 +41389,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="56" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="462" t="s">
+      <c r="A1" s="456" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="462"/>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
-      <c r="J1" s="462"/>
-      <c r="K1" s="462"/>
-      <c r="L1" s="462"/>
-      <c r="M1" s="462"/>
-      <c r="N1" s="462"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="464"/>
-      <c r="B2" s="464"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="464"/>
-      <c r="E2" s="464"/>
-      <c r="F2" s="464"/>
-      <c r="G2" s="464"/>
-      <c r="H2" s="464"/>
-      <c r="I2" s="464"/>
-      <c r="J2" s="464"/>
-      <c r="K2" s="464"/>
-      <c r="L2" s="464"/>
-      <c r="M2" s="464"/>
-      <c r="N2" s="464"/>
+      <c r="A2" s="458"/>
+      <c r="B2" s="458"/>
+      <c r="C2" s="458"/>
+      <c r="D2" s="458"/>
+      <c r="E2" s="458"/>
+      <c r="F2" s="458"/>
+      <c r="G2" s="458"/>
+      <c r="H2" s="458"/>
+      <c r="I2" s="458"/>
+      <c r="J2" s="458"/>
+      <c r="K2" s="458"/>
+      <c r="L2" s="458"/>
+      <c r="M2" s="458"/>
+      <c r="N2" s="458"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="455" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="461" t="s">
+      <c r="B4" s="455" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="461" t="s">
+      <c r="C4" s="455" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="461" t="s">
+      <c r="D4" s="455" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="461"/>
-      <c r="F4" s="461"/>
-      <c r="G4" s="461"/>
-      <c r="H4" s="461"/>
-      <c r="I4" s="461" t="s">
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="455"/>
+      <c r="H4" s="455"/>
+      <c r="I4" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="461"/>
-      <c r="K4" s="461"/>
-      <c r="L4" s="461"/>
-      <c r="M4" s="461" t="s">
+      <c r="J4" s="455"/>
+      <c r="K4" s="455"/>
+      <c r="L4" s="455"/>
+      <c r="M4" s="455" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="461" t="s">
+      <c r="N4" s="455" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="461" t="s">
+      <c r="O4" s="455" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="461"/>
-      <c r="Q4" s="461" t="s">
+      <c r="P4" s="455"/>
+      <c r="Q4" s="455" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="461"/>
-      <c r="S4" s="461"/>
-      <c r="T4" s="461"/>
-      <c r="U4" s="461"/>
-      <c r="V4" s="461"/>
-      <c r="W4" s="461"/>
-      <c r="X4" s="461"/>
-      <c r="Y4" s="461" t="s">
+      <c r="R4" s="455"/>
+      <c r="S4" s="455"/>
+      <c r="T4" s="455"/>
+      <c r="U4" s="455"/>
+      <c r="V4" s="455"/>
+      <c r="W4" s="455"/>
+      <c r="X4" s="455"/>
+      <c r="Y4" s="455" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="461" t="s">
+      <c r="Z4" s="455" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="461"/>
-      <c r="AB4" s="461"/>
-      <c r="AC4" s="461"/>
-      <c r="AD4" s="461"/>
-      <c r="AE4" s="461"/>
-      <c r="AF4" s="461"/>
-      <c r="AG4" s="461"/>
-      <c r="AH4" s="461"/>
-      <c r="AI4" s="461"/>
-      <c r="AJ4" s="461"/>
-      <c r="AK4" s="461"/>
+      <c r="AA4" s="455"/>
+      <c r="AB4" s="455"/>
+      <c r="AC4" s="455"/>
+      <c r="AD4" s="455"/>
+      <c r="AE4" s="455"/>
+      <c r="AF4" s="455"/>
+      <c r="AG4" s="455"/>
+      <c r="AH4" s="455"/>
+      <c r="AI4" s="455"/>
+      <c r="AJ4" s="455"/>
+      <c r="AK4" s="455"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
-      <c r="D5" s="461"/>
-      <c r="E5" s="461"/>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461"/>
-      <c r="H5" s="461"/>
-      <c r="I5" s="461"/>
-      <c r="J5" s="461"/>
-      <c r="K5" s="461"/>
-      <c r="L5" s="461"/>
-      <c r="M5" s="461"/>
-      <c r="N5" s="461"/>
-      <c r="O5" s="461"/>
-      <c r="P5" s="461"/>
-      <c r="Q5" s="461" t="s">
+      <c r="A5" s="455"/>
+      <c r="B5" s="455"/>
+      <c r="C5" s="455"/>
+      <c r="D5" s="455"/>
+      <c r="E5" s="455"/>
+      <c r="F5" s="455"/>
+      <c r="G5" s="455"/>
+      <c r="H5" s="455"/>
+      <c r="I5" s="455"/>
+      <c r="J5" s="455"/>
+      <c r="K5" s="455"/>
+      <c r="L5" s="455"/>
+      <c r="M5" s="455"/>
+      <c r="N5" s="455"/>
+      <c r="O5" s="455"/>
+      <c r="P5" s="455"/>
+      <c r="Q5" s="455" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="461"/>
-      <c r="S5" s="461" t="s">
+      <c r="R5" s="455"/>
+      <c r="S5" s="455" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="461"/>
-      <c r="U5" s="461" t="s">
+      <c r="T5" s="455"/>
+      <c r="U5" s="455" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="461"/>
-      <c r="W5" s="465" t="s">
+      <c r="V5" s="455"/>
+      <c r="W5" s="459" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="465"/>
-      <c r="Y5" s="461"/>
-      <c r="Z5" s="461"/>
-      <c r="AA5" s="461"/>
-      <c r="AB5" s="461"/>
-      <c r="AC5" s="461"/>
-      <c r="AD5" s="461" t="s">
+      <c r="X5" s="459"/>
+      <c r="Y5" s="455"/>
+      <c r="Z5" s="455"/>
+      <c r="AA5" s="455"/>
+      <c r="AB5" s="455"/>
+      <c r="AC5" s="455"/>
+      <c r="AD5" s="455" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="461"/>
-      <c r="AF5" s="461" t="s">
+      <c r="AE5" s="455"/>
+      <c r="AF5" s="455" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="461"/>
-      <c r="AH5" s="461" t="s">
+      <c r="AG5" s="455"/>
+      <c r="AH5" s="455" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="461"/>
-      <c r="AJ5" s="465" t="s">
+      <c r="AI5" s="455"/>
+      <c r="AJ5" s="459" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="461"/>
+      <c r="AK5" s="455"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461"/>
-      <c r="D6" s="461"/>
-      <c r="E6" s="461" t="s">
+      <c r="A6" s="455"/>
+      <c r="B6" s="455"/>
+      <c r="C6" s="455"/>
+      <c r="D6" s="455"/>
+      <c r="E6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="461" t="s">
+      <c r="F6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="461" t="s">
+      <c r="G6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="461" t="s">
+      <c r="H6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="461" t="s">
+      <c r="I6" s="455" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="461" t="s">
+      <c r="J6" s="455" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="461" t="s">
+      <c r="K6" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="461" t="s">
+      <c r="L6" s="455" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="461"/>
-      <c r="N6" s="461"/>
-      <c r="O6" s="461"/>
-      <c r="P6" s="461"/>
-      <c r="Q6" s="461"/>
-      <c r="R6" s="461"/>
-      <c r="S6" s="461"/>
-      <c r="T6" s="461"/>
-      <c r="U6" s="461"/>
-      <c r="V6" s="461"/>
-      <c r="W6" s="465"/>
-      <c r="X6" s="465"/>
-      <c r="Y6" s="461"/>
-      <c r="Z6" s="461" t="s">
+      <c r="M6" s="455"/>
+      <c r="N6" s="455"/>
+      <c r="O6" s="455"/>
+      <c r="P6" s="455"/>
+      <c r="Q6" s="455"/>
+      <c r="R6" s="455"/>
+      <c r="S6" s="455"/>
+      <c r="T6" s="455"/>
+      <c r="U6" s="455"/>
+      <c r="V6" s="455"/>
+      <c r="W6" s="459"/>
+      <c r="X6" s="459"/>
+      <c r="Y6" s="455"/>
+      <c r="Z6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="461" t="s">
+      <c r="AA6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="461" t="s">
+      <c r="AB6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="AC6" s="461" t="s">
+      <c r="AC6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="461" t="s">
+      <c r="AD6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="461" t="s">
+      <c r="AE6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="461" t="s">
+      <c r="AF6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="461" t="s">
+      <c r="AG6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="461" t="s">
+      <c r="AH6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="461" t="s">
+      <c r="AI6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="461" t="s">
+      <c r="AJ6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="461" t="s">
+      <c r="AK6" s="455" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="461"/>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
-      <c r="D7" s="461"/>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="461"/>
-      <c r="I7" s="461"/>
-      <c r="J7" s="461"/>
-      <c r="K7" s="461"/>
-      <c r="L7" s="461"/>
-      <c r="M7" s="461"/>
-      <c r="N7" s="461"/>
+      <c r="A7" s="455"/>
+      <c r="B7" s="455"/>
+      <c r="C7" s="455"/>
+      <c r="D7" s="455"/>
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="455"/>
+      <c r="I7" s="455"/>
+      <c r="J7" s="455"/>
+      <c r="K7" s="455"/>
+      <c r="L7" s="455"/>
+      <c r="M7" s="455"/>
+      <c r="N7" s="455"/>
       <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
@@ -41798,19 +41662,19 @@
       <c r="X7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="461"/>
-      <c r="Z7" s="461"/>
-      <c r="AA7" s="461"/>
-      <c r="AB7" s="461"/>
-      <c r="AC7" s="461"/>
-      <c r="AD7" s="461"/>
-      <c r="AE7" s="461"/>
-      <c r="AF7" s="461"/>
-      <c r="AG7" s="461"/>
-      <c r="AH7" s="461"/>
-      <c r="AI7" s="461"/>
-      <c r="AJ7" s="461"/>
-      <c r="AK7" s="461"/>
+      <c r="Y7" s="455"/>
+      <c r="Z7" s="455"/>
+      <c r="AA7" s="455"/>
+      <c r="AB7" s="455"/>
+      <c r="AC7" s="455"/>
+      <c r="AD7" s="455"/>
+      <c r="AE7" s="455"/>
+      <c r="AF7" s="455"/>
+      <c r="AG7" s="455"/>
+      <c r="AH7" s="455"/>
+      <c r="AI7" s="455"/>
+      <c r="AJ7" s="455"/>
+      <c r="AK7" s="455"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -41883,32 +41747,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="30" customHeight="1">
-      <c r="A1" s="466" t="s">
+      <c r="A1" s="460" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="466"/>
-      <c r="C1" s="466"/>
-      <c r="D1" s="466"/>
-      <c r="E1" s="466"/>
-      <c r="F1" s="466"/>
-      <c r="G1" s="466"/>
-      <c r="H1" s="466"/>
-      <c r="I1" s="466"/>
-      <c r="J1" s="466"/>
-      <c r="K1" s="466"/>
+      <c r="B1" s="460"/>
+      <c r="C1" s="460"/>
+      <c r="D1" s="460"/>
+      <c r="E1" s="460"/>
+      <c r="F1" s="460"/>
+      <c r="G1" s="460"/>
+      <c r="H1" s="460"/>
+      <c r="I1" s="460"/>
+      <c r="J1" s="460"/>
+      <c r="K1" s="460"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="463"/>
-      <c r="B2" s="463"/>
-      <c r="C2" s="463"/>
-      <c r="D2" s="463"/>
-      <c r="E2" s="463"/>
-      <c r="F2" s="463"/>
-      <c r="G2" s="463"/>
-      <c r="H2" s="463"/>
-      <c r="I2" s="463"/>
-      <c r="J2" s="463"/>
-      <c r="K2" s="463"/>
+      <c r="A2" s="457"/>
+      <c r="B2" s="457"/>
+      <c r="C2" s="457"/>
+      <c r="D2" s="457"/>
+      <c r="E2" s="457"/>
+      <c r="F2" s="457"/>
+      <c r="G2" s="457"/>
+      <c r="H2" s="457"/>
+      <c r="I2" s="457"/>
+      <c r="J2" s="457"/>
+      <c r="K2" s="457"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41916,201 +41780,201 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="455" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="461" t="s">
+      <c r="B4" s="455" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="461" t="s">
+      <c r="C4" s="455" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="461"/>
-      <c r="E4" s="461"/>
-      <c r="F4" s="461"/>
-      <c r="G4" s="461" t="s">
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="461"/>
-      <c r="I4" s="461"/>
-      <c r="J4" s="461"/>
-      <c r="K4" s="461" t="s">
+      <c r="H4" s="455"/>
+      <c r="I4" s="455"/>
+      <c r="J4" s="455"/>
+      <c r="K4" s="455" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="461" t="s">
+      <c r="L4" s="455" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="461"/>
-      <c r="N4" s="461" t="s">
+      <c r="M4" s="455"/>
+      <c r="N4" s="455" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="461"/>
-      <c r="P4" s="461"/>
-      <c r="Q4" s="461"/>
-      <c r="R4" s="461"/>
-      <c r="S4" s="461"/>
-      <c r="T4" s="461"/>
-      <c r="U4" s="461"/>
-      <c r="V4" s="461" t="s">
+      <c r="O4" s="455"/>
+      <c r="P4" s="455"/>
+      <c r="Q4" s="455"/>
+      <c r="R4" s="455"/>
+      <c r="S4" s="455"/>
+      <c r="T4" s="455"/>
+      <c r="U4" s="455"/>
+      <c r="V4" s="455" t="s">
         <v>83</v>
       </c>
-      <c r="W4" s="461" t="s">
+      <c r="W4" s="455" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="461"/>
-      <c r="Y4" s="461"/>
-      <c r="Z4" s="461"/>
-      <c r="AA4" s="461" t="s">
+      <c r="X4" s="455"/>
+      <c r="Y4" s="455"/>
+      <c r="Z4" s="455"/>
+      <c r="AA4" s="455" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="461"/>
-      <c r="AC4" s="461"/>
-      <c r="AD4" s="461"/>
-      <c r="AE4" s="461"/>
-      <c r="AF4" s="461"/>
-      <c r="AG4" s="461"/>
-      <c r="AH4" s="461"/>
+      <c r="AB4" s="455"/>
+      <c r="AC4" s="455"/>
+      <c r="AD4" s="455"/>
+      <c r="AE4" s="455"/>
+      <c r="AF4" s="455"/>
+      <c r="AG4" s="455"/>
+      <c r="AH4" s="455"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
-      <c r="D5" s="461"/>
-      <c r="E5" s="461"/>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461" t="s">
+      <c r="A5" s="455"/>
+      <c r="B5" s="455"/>
+      <c r="C5" s="455"/>
+      <c r="D5" s="455"/>
+      <c r="E5" s="455"/>
+      <c r="F5" s="455"/>
+      <c r="G5" s="455" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="461" t="s">
+      <c r="H5" s="455" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="461" t="s">
+      <c r="I5" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="461" t="s">
+      <c r="J5" s="455" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="461"/>
-      <c r="L5" s="461"/>
-      <c r="M5" s="461"/>
-      <c r="N5" s="461"/>
-      <c r="O5" s="461"/>
-      <c r="P5" s="461"/>
-      <c r="Q5" s="461"/>
-      <c r="R5" s="461"/>
-      <c r="S5" s="461"/>
-      <c r="T5" s="461"/>
-      <c r="U5" s="461"/>
-      <c r="V5" s="461"/>
-      <c r="W5" s="461"/>
-      <c r="X5" s="461"/>
-      <c r="Y5" s="461"/>
-      <c r="Z5" s="461"/>
-      <c r="AA5" s="461" t="s">
+      <c r="K5" s="455"/>
+      <c r="L5" s="455"/>
+      <c r="M5" s="455"/>
+      <c r="N5" s="455"/>
+      <c r="O5" s="455"/>
+      <c r="P5" s="455"/>
+      <c r="Q5" s="455"/>
+      <c r="R5" s="455"/>
+      <c r="S5" s="455"/>
+      <c r="T5" s="455"/>
+      <c r="U5" s="455"/>
+      <c r="V5" s="455"/>
+      <c r="W5" s="455"/>
+      <c r="X5" s="455"/>
+      <c r="Y5" s="455"/>
+      <c r="Z5" s="455"/>
+      <c r="AA5" s="455" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="461"/>
-      <c r="AC5" s="461" t="s">
+      <c r="AB5" s="455"/>
+      <c r="AC5" s="455" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="461"/>
-      <c r="AE5" s="461" t="s">
+      <c r="AD5" s="455"/>
+      <c r="AE5" s="455" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="461"/>
-      <c r="AG5" s="465" t="s">
+      <c r="AF5" s="455"/>
+      <c r="AG5" s="459" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="461"/>
+      <c r="AH5" s="455"/>
     </row>
     <row r="6" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461" t="s">
+      <c r="A6" s="455"/>
+      <c r="B6" s="455"/>
+      <c r="C6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="461" t="s">
+      <c r="D6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="461" t="s">
+      <c r="E6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="461" t="s">
+      <c r="F6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="461"/>
-      <c r="H6" s="461"/>
-      <c r="I6" s="461"/>
-      <c r="J6" s="461"/>
-      <c r="K6" s="461"/>
-      <c r="L6" s="461"/>
-      <c r="M6" s="461"/>
-      <c r="N6" s="461" t="s">
+      <c r="G6" s="455"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="455"/>
+      <c r="J6" s="455"/>
+      <c r="K6" s="455"/>
+      <c r="L6" s="455"/>
+      <c r="M6" s="455"/>
+      <c r="N6" s="455" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="461"/>
-      <c r="P6" s="461" t="s">
+      <c r="O6" s="455"/>
+      <c r="P6" s="455" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="461"/>
-      <c r="R6" s="461" t="s">
+      <c r="Q6" s="455"/>
+      <c r="R6" s="455" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="461"/>
-      <c r="T6" s="465" t="s">
+      <c r="S6" s="455"/>
+      <c r="T6" s="459" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="461"/>
-      <c r="V6" s="461"/>
-      <c r="W6" s="461" t="s">
+      <c r="U6" s="455"/>
+      <c r="V6" s="455"/>
+      <c r="W6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="461" t="s">
+      <c r="X6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="461" t="s">
+      <c r="Y6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="461" t="s">
+      <c r="Z6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="461" t="s">
+      <c r="AA6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="461" t="s">
+      <c r="AB6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="461" t="s">
+      <c r="AC6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="461" t="s">
+      <c r="AD6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="461" t="s">
+      <c r="AE6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="461" t="s">
+      <c r="AF6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="461" t="s">
+      <c r="AG6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="461" t="s">
+      <c r="AH6" s="455" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="461"/>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
-      <c r="D7" s="461"/>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="461"/>
-      <c r="I7" s="461"/>
-      <c r="J7" s="461"/>
-      <c r="K7" s="461"/>
+      <c r="A7" s="455"/>
+      <c r="B7" s="455"/>
+      <c r="C7" s="455"/>
+      <c r="D7" s="455"/>
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="455"/>
+      <c r="I7" s="455"/>
+      <c r="J7" s="455"/>
+      <c r="K7" s="455"/>
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
@@ -42141,19 +42005,19 @@
       <c r="U7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="461"/>
-      <c r="W7" s="461"/>
-      <c r="X7" s="461"/>
-      <c r="Y7" s="461"/>
-      <c r="Z7" s="461"/>
-      <c r="AA7" s="461"/>
-      <c r="AB7" s="461"/>
-      <c r="AC7" s="461"/>
-      <c r="AD7" s="461"/>
-      <c r="AE7" s="461"/>
-      <c r="AF7" s="461"/>
-      <c r="AG7" s="461"/>
-      <c r="AH7" s="461"/>
+      <c r="V7" s="455"/>
+      <c r="W7" s="455"/>
+      <c r="X7" s="455"/>
+      <c r="Y7" s="455"/>
+      <c r="Z7" s="455"/>
+      <c r="AA7" s="455"/>
+      <c r="AB7" s="455"/>
+      <c r="AC7" s="455"/>
+      <c r="AD7" s="455"/>
+      <c r="AE7" s="455"/>
+      <c r="AF7" s="455"/>
+      <c r="AG7" s="455"/>
+      <c r="AH7" s="455"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -42221,238 +42085,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1">
-      <c r="A1" s="462" t="s">
+      <c r="A1" s="456" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="462"/>
-      <c r="C1" s="462"/>
-      <c r="D1" s="462"/>
-      <c r="E1" s="462"/>
-      <c r="F1" s="462"/>
-      <c r="G1" s="462"/>
-      <c r="H1" s="462"/>
-      <c r="I1" s="462"/>
-      <c r="J1" s="462"/>
-      <c r="K1" s="462"/>
-      <c r="L1" s="462"/>
-      <c r="M1" s="462"/>
-      <c r="N1" s="462"/>
-      <c r="O1" s="462"/>
+      <c r="B1" s="456"/>
+      <c r="C1" s="456"/>
+      <c r="D1" s="456"/>
+      <c r="E1" s="456"/>
+      <c r="F1" s="456"/>
+      <c r="G1" s="456"/>
+      <c r="H1" s="456"/>
+      <c r="I1" s="456"/>
+      <c r="J1" s="456"/>
+      <c r="K1" s="456"/>
+      <c r="L1" s="456"/>
+      <c r="M1" s="456"/>
+      <c r="N1" s="456"/>
+      <c r="O1" s="456"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="467"/>
-      <c r="B2" s="467"/>
-      <c r="C2" s="467"/>
-      <c r="D2" s="467"/>
-      <c r="E2" s="467"/>
-      <c r="F2" s="467"/>
-      <c r="G2" s="467"/>
-      <c r="H2" s="467"/>
-      <c r="I2" s="467"/>
-      <c r="J2" s="467"/>
-      <c r="K2" s="467"/>
-      <c r="L2" s="467"/>
-      <c r="M2" s="467"/>
-      <c r="N2" s="467"/>
-      <c r="O2" s="467"/>
+      <c r="A2" s="461"/>
+      <c r="B2" s="461"/>
+      <c r="C2" s="461"/>
+      <c r="D2" s="461"/>
+      <c r="E2" s="461"/>
+      <c r="F2" s="461"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="461"/>
+      <c r="I2" s="461"/>
+      <c r="J2" s="461"/>
+      <c r="K2" s="461"/>
+      <c r="L2" s="461"/>
+      <c r="M2" s="461"/>
+      <c r="N2" s="461"/>
+      <c r="O2" s="461"/>
     </row>
     <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="W3" s="464" t="s">
+      <c r="W3" s="458" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="464"/>
-      <c r="Y3" s="464"/>
+      <c r="X3" s="458"/>
+      <c r="Y3" s="458"/>
     </row>
     <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="455" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="461" t="s">
+      <c r="B4" s="455" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="461" t="s">
+      <c r="C4" s="455" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="461"/>
-      <c r="E4" s="461"/>
-      <c r="F4" s="461"/>
-      <c r="G4" s="461" t="s">
+      <c r="D4" s="455"/>
+      <c r="E4" s="455"/>
+      <c r="F4" s="455"/>
+      <c r="G4" s="455" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="461"/>
-      <c r="I4" s="461"/>
-      <c r="J4" s="461"/>
-      <c r="K4" s="461" t="s">
+      <c r="H4" s="455"/>
+      <c r="I4" s="455"/>
+      <c r="J4" s="455"/>
+      <c r="K4" s="455" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="461"/>
-      <c r="M4" s="461" t="s">
+      <c r="L4" s="455"/>
+      <c r="M4" s="455" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="461"/>
-      <c r="O4" s="461"/>
-      <c r="P4" s="461"/>
-      <c r="Q4" s="461"/>
-      <c r="R4" s="461"/>
-      <c r="S4" s="461"/>
-      <c r="T4" s="461"/>
-      <c r="U4" s="461" t="s">
+      <c r="N4" s="455"/>
+      <c r="O4" s="455"/>
+      <c r="P4" s="455"/>
+      <c r="Q4" s="455"/>
+      <c r="R4" s="455"/>
+      <c r="S4" s="455"/>
+      <c r="T4" s="455"/>
+      <c r="U4" s="455" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="461" t="s">
+      <c r="V4" s="455" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="461"/>
-      <c r="X4" s="461"/>
-      <c r="Y4" s="461"/>
-      <c r="Z4" s="461" t="s">
+      <c r="W4" s="455"/>
+      <c r="X4" s="455"/>
+      <c r="Y4" s="455"/>
+      <c r="Z4" s="455" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="461"/>
-      <c r="AB4" s="461"/>
-      <c r="AC4" s="461"/>
-      <c r="AD4" s="461"/>
-      <c r="AE4" s="461"/>
-      <c r="AF4" s="461"/>
-      <c r="AG4" s="461"/>
+      <c r="AA4" s="455"/>
+      <c r="AB4" s="455"/>
+      <c r="AC4" s="455"/>
+      <c r="AD4" s="455"/>
+      <c r="AE4" s="455"/>
+      <c r="AF4" s="455"/>
+      <c r="AG4" s="455"/>
     </row>
     <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="461"/>
-      <c r="B5" s="461"/>
-      <c r="C5" s="461"/>
-      <c r="D5" s="461"/>
-      <c r="E5" s="461"/>
-      <c r="F5" s="461"/>
-      <c r="G5" s="461" t="s">
+      <c r="A5" s="455"/>
+      <c r="B5" s="455"/>
+      <c r="C5" s="455"/>
+      <c r="D5" s="455"/>
+      <c r="E5" s="455"/>
+      <c r="F5" s="455"/>
+      <c r="G5" s="455" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="461" t="s">
+      <c r="H5" s="455" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="461" t="s">
+      <c r="I5" s="455" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="461" t="s">
+      <c r="J5" s="455" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="461"/>
-      <c r="L5" s="461"/>
-      <c r="M5" s="461"/>
-      <c r="N5" s="461"/>
-      <c r="O5" s="461"/>
-      <c r="P5" s="461"/>
-      <c r="Q5" s="461"/>
-      <c r="R5" s="461"/>
-      <c r="S5" s="461"/>
-      <c r="T5" s="461"/>
-      <c r="U5" s="461"/>
-      <c r="V5" s="461"/>
-      <c r="W5" s="461"/>
-      <c r="X5" s="461"/>
-      <c r="Y5" s="461"/>
-      <c r="Z5" s="461" t="s">
+      <c r="K5" s="455"/>
+      <c r="L5" s="455"/>
+      <c r="M5" s="455"/>
+      <c r="N5" s="455"/>
+      <c r="O5" s="455"/>
+      <c r="P5" s="455"/>
+      <c r="Q5" s="455"/>
+      <c r="R5" s="455"/>
+      <c r="S5" s="455"/>
+      <c r="T5" s="455"/>
+      <c r="U5" s="455"/>
+      <c r="V5" s="455"/>
+      <c r="W5" s="455"/>
+      <c r="X5" s="455"/>
+      <c r="Y5" s="455"/>
+      <c r="Z5" s="455" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="461"/>
-      <c r="AB5" s="461" t="s">
+      <c r="AA5" s="455"/>
+      <c r="AB5" s="455" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="461"/>
-      <c r="AD5" s="461" t="s">
+      <c r="AC5" s="455"/>
+      <c r="AD5" s="455" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="461"/>
-      <c r="AF5" s="465" t="s">
+      <c r="AE5" s="455"/>
+      <c r="AF5" s="459" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="461"/>
+      <c r="AG5" s="455"/>
     </row>
     <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="461"/>
-      <c r="B6" s="461"/>
-      <c r="C6" s="461" t="s">
+      <c r="A6" s="455"/>
+      <c r="B6" s="455"/>
+      <c r="C6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="461" t="s">
+      <c r="D6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="461" t="s">
+      <c r="E6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="461" t="s">
+      <c r="F6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="461"/>
-      <c r="H6" s="461"/>
-      <c r="I6" s="461"/>
-      <c r="J6" s="461"/>
-      <c r="K6" s="461"/>
-      <c r="L6" s="461"/>
-      <c r="M6" s="461" t="s">
+      <c r="G6" s="455"/>
+      <c r="H6" s="455"/>
+      <c r="I6" s="455"/>
+      <c r="J6" s="455"/>
+      <c r="K6" s="455"/>
+      <c r="L6" s="455"/>
+      <c r="M6" s="455" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="461"/>
-      <c r="O6" s="461" t="s">
+      <c r="N6" s="455"/>
+      <c r="O6" s="455" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="461"/>
-      <c r="Q6" s="461" t="s">
+      <c r="P6" s="455"/>
+      <c r="Q6" s="455" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="461"/>
-      <c r="S6" s="465" t="s">
+      <c r="R6" s="455"/>
+      <c r="S6" s="459" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="461"/>
-      <c r="U6" s="461"/>
-      <c r="V6" s="461" t="s">
+      <c r="T6" s="455"/>
+      <c r="U6" s="455"/>
+      <c r="V6" s="455" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="461" t="s">
+      <c r="W6" s="455" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="461" t="s">
+      <c r="X6" s="455" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="461" t="s">
+      <c r="Y6" s="455" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="461" t="s">
+      <c r="Z6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="461" t="s">
+      <c r="AA6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="461" t="s">
+      <c r="AB6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="461" t="s">
+      <c r="AC6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="461" t="s">
+      <c r="AD6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="461" t="s">
+      <c r="AE6" s="455" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="461" t="s">
+      <c r="AF6" s="455" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="461" t="s">
+      <c r="AG6" s="455" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="461"/>
-      <c r="B7" s="461"/>
-      <c r="C7" s="461"/>
-      <c r="D7" s="461"/>
-      <c r="E7" s="461"/>
-      <c r="F7" s="461"/>
-      <c r="G7" s="461"/>
-      <c r="H7" s="461"/>
-      <c r="I7" s="461"/>
-      <c r="J7" s="461"/>
+      <c r="A7" s="455"/>
+      <c r="B7" s="455"/>
+      <c r="C7" s="455"/>
+      <c r="D7" s="455"/>
+      <c r="E7" s="455"/>
+      <c r="F7" s="455"/>
+      <c r="G7" s="455"/>
+      <c r="H7" s="455"/>
+      <c r="I7" s="455"/>
+      <c r="J7" s="455"/>
       <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
@@ -42483,19 +42347,19 @@
       <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="461"/>
-      <c r="V7" s="461"/>
-      <c r="W7" s="461"/>
-      <c r="X7" s="461"/>
-      <c r="Y7" s="461"/>
-      <c r="Z7" s="461"/>
-      <c r="AA7" s="461"/>
-      <c r="AB7" s="461"/>
-      <c r="AC7" s="461"/>
-      <c r="AD7" s="461"/>
-      <c r="AE7" s="461"/>
-      <c r="AF7" s="461"/>
-      <c r="AG7" s="461"/>
+      <c r="U7" s="455"/>
+      <c r="V7" s="455"/>
+      <c r="W7" s="455"/>
+      <c r="X7" s="455"/>
+      <c r="Y7" s="455"/>
+      <c r="Z7" s="455"/>
+      <c r="AA7" s="455"/>
+      <c r="AB7" s="455"/>
+      <c r="AC7" s="455"/>
+      <c r="AD7" s="455"/>
+      <c r="AE7" s="455"/>
+      <c r="AF7" s="455"/>
+      <c r="AG7" s="455"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -42571,12 +42435,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="482" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
+      <c r="B1" s="482"/>
+      <c r="C1" s="482"/>
+      <c r="D1" s="482"/>
       <c r="E1" s="51"/>
       <c r="F1" s="6"/>
       <c r="G1" s="51"/>
@@ -42590,22 +42454,22 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="488" t="s">
+      <c r="R1" s="482" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="488"/>
-      <c r="T1" s="488"/>
-      <c r="U1" s="488"/>
-      <c r="V1" s="488"/>
-      <c r="W1" s="488"/>
+      <c r="S1" s="482"/>
+      <c r="T1" s="482"/>
+      <c r="U1" s="482"/>
+      <c r="V1" s="482"/>
+      <c r="W1" s="482"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="489" t="s">
+      <c r="A2" s="483" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
+      <c r="B2" s="483"/>
+      <c r="C2" s="483"/>
+      <c r="D2" s="483"/>
       <c r="E2" s="52"/>
       <c r="F2" s="20"/>
       <c r="G2" s="52"/>
@@ -42619,249 +42483,249 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
-      <c r="R2" s="489" t="s">
+      <c r="R2" s="483" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="489"/>
-      <c r="T2" s="489"/>
-      <c r="U2" s="489"/>
-      <c r="V2" s="489"/>
-      <c r="W2" s="489"/>
+      <c r="S2" s="483"/>
+      <c r="T2" s="483"/>
+      <c r="U2" s="483"/>
+      <c r="V2" s="483"/>
+      <c r="W2" s="483"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
-      <c r="A3" s="490" t="s">
+      <c r="A3" s="484" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="490"/>
-      <c r="C3" s="490"/>
-      <c r="D3" s="490"/>
-      <c r="E3" s="490"/>
-      <c r="F3" s="490"/>
-      <c r="G3" s="490"/>
-      <c r="H3" s="490"/>
-      <c r="I3" s="490"/>
-      <c r="J3" s="490"/>
-      <c r="K3" s="490"/>
-      <c r="L3" s="490"/>
-      <c r="M3" s="490"/>
-      <c r="N3" s="490"/>
-      <c r="O3" s="490"/>
-      <c r="P3" s="490"/>
-      <c r="Q3" s="490"/>
-      <c r="R3" s="490"/>
-      <c r="S3" s="490"/>
-      <c r="T3" s="490"/>
-      <c r="U3" s="490"/>
-      <c r="V3" s="490"/>
-      <c r="W3" s="490"/>
+      <c r="B3" s="484"/>
+      <c r="C3" s="484"/>
+      <c r="D3" s="484"/>
+      <c r="E3" s="484"/>
+      <c r="F3" s="484"/>
+      <c r="G3" s="484"/>
+      <c r="H3" s="484"/>
+      <c r="I3" s="484"/>
+      <c r="J3" s="484"/>
+      <c r="K3" s="484"/>
+      <c r="L3" s="484"/>
+      <c r="M3" s="484"/>
+      <c r="N3" s="484"/>
+      <c r="O3" s="484"/>
+      <c r="P3" s="484"/>
+      <c r="Q3" s="484"/>
+      <c r="R3" s="484"/>
+      <c r="S3" s="484"/>
+      <c r="T3" s="484"/>
+      <c r="U3" s="484"/>
+      <c r="V3" s="484"/>
+      <c r="W3" s="484"/>
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="491"/>
-      <c r="B4" s="491"/>
-      <c r="C4" s="491"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="491"/>
-      <c r="F4" s="491"/>
-      <c r="G4" s="491"/>
-      <c r="H4" s="491"/>
-      <c r="I4" s="491"/>
-      <c r="J4" s="491"/>
-      <c r="K4" s="491"/>
-      <c r="L4" s="491"/>
-      <c r="M4" s="491"/>
-      <c r="N4" s="491"/>
-      <c r="O4" s="491"/>
-      <c r="P4" s="491"/>
-      <c r="Q4" s="491"/>
-      <c r="R4" s="491"/>
-      <c r="S4" s="491"/>
-      <c r="T4" s="491"/>
-      <c r="U4" s="491"/>
-      <c r="V4" s="491"/>
-      <c r="W4" s="491"/>
+      <c r="A4" s="485"/>
+      <c r="B4" s="485"/>
+      <c r="C4" s="485"/>
+      <c r="D4" s="485"/>
+      <c r="E4" s="485"/>
+      <c r="F4" s="485"/>
+      <c r="G4" s="485"/>
+      <c r="H4" s="485"/>
+      <c r="I4" s="485"/>
+      <c r="J4" s="485"/>
+      <c r="K4" s="485"/>
+      <c r="L4" s="485"/>
+      <c r="M4" s="485"/>
+      <c r="N4" s="485"/>
+      <c r="O4" s="485"/>
+      <c r="P4" s="485"/>
+      <c r="Q4" s="485"/>
+      <c r="R4" s="485"/>
+      <c r="S4" s="485"/>
+      <c r="T4" s="485"/>
+      <c r="U4" s="485"/>
+      <c r="V4" s="485"/>
+      <c r="W4" s="485"/>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="492"/>
-      <c r="B5" s="492"/>
-      <c r="C5" s="492"/>
-      <c r="D5" s="492"/>
-      <c r="E5" s="492"/>
-      <c r="F5" s="492"/>
-      <c r="G5" s="492"/>
-      <c r="H5" s="492"/>
-      <c r="I5" s="492"/>
-      <c r="J5" s="492"/>
-      <c r="K5" s="492"/>
-      <c r="L5" s="492"/>
-      <c r="M5" s="492"/>
-      <c r="N5" s="492"/>
-      <c r="O5" s="492"/>
-      <c r="P5" s="492"/>
-      <c r="Q5" s="492"/>
-      <c r="R5" s="492"/>
-      <c r="S5" s="492"/>
-      <c r="T5" s="492"/>
-      <c r="U5" s="492"/>
-      <c r="V5" s="492"/>
-      <c r="W5" s="492"/>
+      <c r="A5" s="486"/>
+      <c r="B5" s="486"/>
+      <c r="C5" s="486"/>
+      <c r="D5" s="486"/>
+      <c r="E5" s="486"/>
+      <c r="F5" s="486"/>
+      <c r="G5" s="486"/>
+      <c r="H5" s="486"/>
+      <c r="I5" s="486"/>
+      <c r="J5" s="486"/>
+      <c r="K5" s="486"/>
+      <c r="L5" s="486"/>
+      <c r="M5" s="486"/>
+      <c r="N5" s="486"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="486"/>
+      <c r="Q5" s="486"/>
+      <c r="R5" s="486"/>
+      <c r="S5" s="486"/>
+      <c r="T5" s="486"/>
+      <c r="U5" s="486"/>
+      <c r="V5" s="486"/>
+      <c r="W5" s="486"/>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="476" t="s">
+      <c r="A6" s="470" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="476" t="s">
+      <c r="B6" s="470" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="476" t="s">
+      <c r="C6" s="470" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="476" t="s">
+      <c r="D6" s="470" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="479" t="s">
+      <c r="E6" s="473" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="479" t="s">
+      <c r="F6" s="473" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="479" t="s">
+      <c r="G6" s="473" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="479" t="s">
+      <c r="H6" s="473" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="479" t="s">
+      <c r="I6" s="473" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="468" t="s">
+      <c r="J6" s="462" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="469"/>
-      <c r="L6" s="468" t="s">
+      <c r="K6" s="463"/>
+      <c r="L6" s="462" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="493"/>
-      <c r="N6" s="493"/>
-      <c r="O6" s="469"/>
-      <c r="P6" s="468" t="s">
+      <c r="M6" s="487"/>
+      <c r="N6" s="487"/>
+      <c r="O6" s="463"/>
+      <c r="P6" s="462" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="469"/>
-      <c r="R6" s="468" t="s">
+      <c r="Q6" s="463"/>
+      <c r="R6" s="462" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="469"/>
-      <c r="T6" s="468" t="s">
+      <c r="S6" s="463"/>
+      <c r="T6" s="462" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="469"/>
-      <c r="V6" s="468" t="s">
+      <c r="U6" s="463"/>
+      <c r="V6" s="462" t="s">
         <v>75</v>
       </c>
-      <c r="W6" s="469"/>
+      <c r="W6" s="463"/>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="477"/>
-      <c r="B7" s="477"/>
-      <c r="C7" s="477"/>
-      <c r="D7" s="477"/>
-      <c r="E7" s="480"/>
-      <c r="F7" s="480"/>
-      <c r="G7" s="480"/>
-      <c r="H7" s="480"/>
-      <c r="I7" s="480"/>
-      <c r="J7" s="470"/>
-      <c r="K7" s="471"/>
-      <c r="L7" s="470"/>
-      <c r="M7" s="494"/>
-      <c r="N7" s="494"/>
-      <c r="O7" s="471"/>
-      <c r="P7" s="470"/>
-      <c r="Q7" s="471"/>
-      <c r="R7" s="470"/>
-      <c r="S7" s="471"/>
-      <c r="T7" s="470"/>
-      <c r="U7" s="471"/>
-      <c r="V7" s="470"/>
-      <c r="W7" s="471"/>
+      <c r="A7" s="471"/>
+      <c r="B7" s="471"/>
+      <c r="C7" s="471"/>
+      <c r="D7" s="471"/>
+      <c r="E7" s="474"/>
+      <c r="F7" s="474"/>
+      <c r="G7" s="474"/>
+      <c r="H7" s="474"/>
+      <c r="I7" s="474"/>
+      <c r="J7" s="464"/>
+      <c r="K7" s="465"/>
+      <c r="L7" s="464"/>
+      <c r="M7" s="488"/>
+      <c r="N7" s="488"/>
+      <c r="O7" s="465"/>
+      <c r="P7" s="464"/>
+      <c r="Q7" s="465"/>
+      <c r="R7" s="464"/>
+      <c r="S7" s="465"/>
+      <c r="T7" s="464"/>
+      <c r="U7" s="465"/>
+      <c r="V7" s="464"/>
+      <c r="W7" s="465"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="477"/>
-      <c r="B8" s="477"/>
-      <c r="C8" s="477"/>
-      <c r="D8" s="477"/>
-      <c r="E8" s="480"/>
-      <c r="F8" s="480"/>
-      <c r="G8" s="480"/>
-      <c r="H8" s="480"/>
-      <c r="I8" s="480"/>
-      <c r="J8" s="472" t="s">
+      <c r="A8" s="471"/>
+      <c r="B8" s="471"/>
+      <c r="C8" s="471"/>
+      <c r="D8" s="471"/>
+      <c r="E8" s="474"/>
+      <c r="F8" s="474"/>
+      <c r="G8" s="474"/>
+      <c r="H8" s="474"/>
+      <c r="I8" s="474"/>
+      <c r="J8" s="466" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="482" t="s">
+      <c r="K8" s="476" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="474" t="s">
+      <c r="L8" s="468" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="474" t="s">
+      <c r="M8" s="468" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="474" t="s">
+      <c r="N8" s="468" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="474" t="s">
+      <c r="O8" s="468" t="s">
         <v>174</v>
       </c>
-      <c r="P8" s="472" t="s">
+      <c r="P8" s="466" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="472" t="s">
+      <c r="Q8" s="466" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="472" t="s">
+      <c r="R8" s="466" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="472" t="s">
+      <c r="S8" s="466" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="472" t="s">
+      <c r="T8" s="466" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="472" t="s">
+      <c r="U8" s="466" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="486" t="s">
+      <c r="V8" s="480" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="484" t="s">
+      <c r="W8" s="478" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="478"/>
-      <c r="B9" s="478"/>
-      <c r="C9" s="478"/>
-      <c r="D9" s="478"/>
-      <c r="E9" s="481"/>
-      <c r="F9" s="481"/>
-      <c r="G9" s="481"/>
-      <c r="H9" s="481"/>
-      <c r="I9" s="481"/>
-      <c r="J9" s="473"/>
-      <c r="K9" s="483"/>
-      <c r="L9" s="475"/>
-      <c r="M9" s="475"/>
-      <c r="N9" s="475"/>
-      <c r="O9" s="475"/>
-      <c r="P9" s="473"/>
-      <c r="Q9" s="473"/>
-      <c r="R9" s="473"/>
-      <c r="S9" s="473"/>
-      <c r="T9" s="473"/>
-      <c r="U9" s="473"/>
-      <c r="V9" s="487"/>
-      <c r="W9" s="485"/>
+      <c r="A9" s="472"/>
+      <c r="B9" s="472"/>
+      <c r="C9" s="472"/>
+      <c r="D9" s="472"/>
+      <c r="E9" s="475"/>
+      <c r="F9" s="475"/>
+      <c r="G9" s="475"/>
+      <c r="H9" s="475"/>
+      <c r="I9" s="475"/>
+      <c r="J9" s="467"/>
+      <c r="K9" s="477"/>
+      <c r="L9" s="469"/>
+      <c r="M9" s="469"/>
+      <c r="N9" s="469"/>
+      <c r="O9" s="469"/>
+      <c r="P9" s="467"/>
+      <c r="Q9" s="467"/>
+      <c r="R9" s="467"/>
+      <c r="S9" s="467"/>
+      <c r="T9" s="467"/>
+      <c r="U9" s="467"/>
+      <c r="V9" s="481"/>
+      <c r="W9" s="479"/>
     </row>
     <row r="226" spans="1:31" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="55"/>
@@ -43161,40 +43025,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="467" t="s">
+      <c r="A1" s="461" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="467"/>
-      <c r="C1" s="467"/>
-      <c r="D1" s="467"/>
-      <c r="E1" s="467"/>
-      <c r="F1" s="467"/>
-      <c r="G1" s="467"/>
-      <c r="H1" s="467"/>
-      <c r="I1" s="467"/>
-      <c r="J1" s="467"/>
-      <c r="K1" s="467"/>
-      <c r="L1" s="467"/>
-      <c r="M1" s="467"/>
-      <c r="N1" s="467"/>
+      <c r="B1" s="461"/>
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
+      <c r="F1" s="461"/>
+      <c r="G1" s="461"/>
+      <c r="H1" s="461"/>
+      <c r="I1" s="461"/>
+      <c r="J1" s="461"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="461"/>
+      <c r="N1" s="461"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="500" t="s">
+      <c r="A2" s="494" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="500"/>
-      <c r="C2" s="500"/>
-      <c r="D2" s="500"/>
-      <c r="E2" s="500"/>
-      <c r="F2" s="500"/>
-      <c r="G2" s="500"/>
-      <c r="H2" s="500"/>
-      <c r="I2" s="500"/>
-      <c r="J2" s="500"/>
-      <c r="K2" s="500"/>
-      <c r="L2" s="500"/>
-      <c r="M2" s="500"/>
-      <c r="N2" s="500"/>
+      <c r="B2" s="494"/>
+      <c r="C2" s="494"/>
+      <c r="D2" s="494"/>
+      <c r="E2" s="494"/>
+      <c r="F2" s="494"/>
+      <c r="G2" s="494"/>
+      <c r="H2" s="494"/>
+      <c r="I2" s="494"/>
+      <c r="J2" s="494"/>
+      <c r="K2" s="494"/>
+      <c r="L2" s="494"/>
+      <c r="M2" s="494"/>
+      <c r="N2" s="494"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8"/>
@@ -43213,54 +43077,54 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="501" t="s">
+      <c r="A4" s="495" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
-      <c r="F4" s="501"/>
-      <c r="G4" s="501"/>
-      <c r="H4" s="501"/>
-      <c r="I4" s="501"/>
-      <c r="J4" s="501"/>
-      <c r="K4" s="501"/>
-      <c r="L4" s="501"/>
-      <c r="M4" s="501"/>
-      <c r="N4" s="501"/>
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="495"/>
+      <c r="F4" s="495"/>
+      <c r="G4" s="495"/>
+      <c r="H4" s="495"/>
+      <c r="I4" s="495"/>
+      <c r="J4" s="495"/>
+      <c r="K4" s="495"/>
+      <c r="L4" s="495"/>
+      <c r="M4" s="495"/>
+      <c r="N4" s="495"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="502"/>
-      <c r="B5" s="502"/>
-      <c r="C5" s="502"/>
-      <c r="D5" s="502"/>
-      <c r="E5" s="502"/>
-      <c r="F5" s="502"/>
-      <c r="G5" s="502"/>
-      <c r="H5" s="502"/>
-      <c r="I5" s="502"/>
-      <c r="J5" s="502"/>
-      <c r="K5" s="502"/>
-      <c r="L5" s="502"/>
-      <c r="M5" s="502"/>
-      <c r="N5" s="502"/>
+      <c r="A5" s="496"/>
+      <c r="B5" s="496"/>
+      <c r="C5" s="496"/>
+      <c r="D5" s="496"/>
+      <c r="E5" s="496"/>
+      <c r="F5" s="496"/>
+      <c r="G5" s="496"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="496"/>
+      <c r="J5" s="496"/>
+      <c r="K5" s="496"/>
+      <c r="L5" s="496"/>
+      <c r="M5" s="496"/>
+      <c r="N5" s="496"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="502"/>
-      <c r="B6" s="502"/>
-      <c r="C6" s="502"/>
-      <c r="D6" s="502"/>
-      <c r="E6" s="502"/>
-      <c r="F6" s="502"/>
-      <c r="G6" s="502"/>
-      <c r="H6" s="502"/>
-      <c r="I6" s="502"/>
-      <c r="J6" s="502"/>
-      <c r="K6" s="502"/>
-      <c r="L6" s="502"/>
-      <c r="M6" s="502"/>
-      <c r="N6" s="502"/>
+      <c r="A6" s="496"/>
+      <c r="B6" s="496"/>
+      <c r="C6" s="496"/>
+      <c r="D6" s="496"/>
+      <c r="E6" s="496"/>
+      <c r="F6" s="496"/>
+      <c r="G6" s="496"/>
+      <c r="H6" s="496"/>
+      <c r="I6" s="496"/>
+      <c r="J6" s="496"/>
+      <c r="K6" s="496"/>
+      <c r="L6" s="496"/>
+      <c r="M6" s="496"/>
+      <c r="N6" s="496"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="29"/>
@@ -43276,102 +43140,102 @@
       <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="461" t="s">
+      <c r="A8" s="455" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="461" t="s">
+      <c r="B8" s="455" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="495" t="s">
+      <c r="C8" s="489" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="461" t="s">
+      <c r="D8" s="455" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="498" t="s">
+      <c r="E8" s="492" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="498"/>
-      <c r="G8" s="498" t="s">
+      <c r="F8" s="492"/>
+      <c r="G8" s="492" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="498"/>
-      <c r="I8" s="498"/>
-      <c r="J8" s="498"/>
-      <c r="K8" s="498" t="s">
+      <c r="H8" s="492"/>
+      <c r="I8" s="492"/>
+      <c r="J8" s="492"/>
+      <c r="K8" s="492" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="498" t="s">
+      <c r="L8" s="492" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="503" t="s">
+      <c r="M8" s="497" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="503"/>
+      <c r="N8" s="497"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="461"/>
-      <c r="B9" s="461"/>
-      <c r="C9" s="496"/>
-      <c r="D9" s="461"/>
-      <c r="E9" s="498"/>
-      <c r="F9" s="498"/>
-      <c r="G9" s="498"/>
-      <c r="H9" s="498"/>
-      <c r="I9" s="498"/>
-      <c r="J9" s="498"/>
-      <c r="K9" s="498"/>
-      <c r="L9" s="498"/>
-      <c r="M9" s="503"/>
-      <c r="N9" s="503"/>
+      <c r="A9" s="455"/>
+      <c r="B9" s="455"/>
+      <c r="C9" s="490"/>
+      <c r="D9" s="455"/>
+      <c r="E9" s="492"/>
+      <c r="F9" s="492"/>
+      <c r="G9" s="492"/>
+      <c r="H9" s="492"/>
+      <c r="I9" s="492"/>
+      <c r="J9" s="492"/>
+      <c r="K9" s="492"/>
+      <c r="L9" s="492"/>
+      <c r="M9" s="497"/>
+      <c r="N9" s="497"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="461"/>
-      <c r="B10" s="461"/>
-      <c r="C10" s="496"/>
-      <c r="D10" s="461"/>
-      <c r="E10" s="499" t="s">
+      <c r="A10" s="455"/>
+      <c r="B10" s="455"/>
+      <c r="C10" s="490"/>
+      <c r="D10" s="455"/>
+      <c r="E10" s="493" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="499" t="s">
+      <c r="F10" s="493" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="498" t="s">
+      <c r="G10" s="492" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="498" t="s">
+      <c r="H10" s="492" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="498" t="s">
+      <c r="I10" s="492" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="498" t="s">
+      <c r="J10" s="492" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="498"/>
-      <c r="L10" s="498"/>
-      <c r="M10" s="504" t="s">
+      <c r="K10" s="492"/>
+      <c r="L10" s="492"/>
+      <c r="M10" s="498" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="504" t="s">
+      <c r="N10" s="498" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="461"/>
-      <c r="B11" s="461"/>
-      <c r="C11" s="497"/>
-      <c r="D11" s="461"/>
-      <c r="E11" s="499"/>
-      <c r="F11" s="499"/>
-      <c r="G11" s="498"/>
-      <c r="H11" s="498"/>
-      <c r="I11" s="498"/>
-      <c r="J11" s="498"/>
-      <c r="K11" s="498"/>
-      <c r="L11" s="498"/>
-      <c r="M11" s="504"/>
-      <c r="N11" s="504"/>
+      <c r="A11" s="455"/>
+      <c r="B11" s="455"/>
+      <c r="C11" s="491"/>
+      <c r="D11" s="455"/>
+      <c r="E11" s="493"/>
+      <c r="F11" s="493"/>
+      <c r="G11" s="492"/>
+      <c r="H11" s="492"/>
+      <c r="I11" s="492"/>
+      <c r="J11" s="492"/>
+      <c r="K11" s="492"/>
+      <c r="L11" s="492"/>
+      <c r="M11" s="498"/>
+      <c r="N11" s="498"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -43426,50 +43290,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="78" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="499" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="505"/>
-      <c r="C1" s="505"/>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
+      <c r="F1" s="499"/>
+      <c r="G1" s="499"/>
       <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="78" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="506" t="s">
+      <c r="A2" s="500" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
+      <c r="B2" s="500"/>
+      <c r="C2" s="500"/>
+      <c r="D2" s="500"/>
+      <c r="E2" s="500"/>
+      <c r="F2" s="500"/>
+      <c r="G2" s="500"/>
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" s="78" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
+      <c r="A3" s="501"/>
+      <c r="B3" s="501"/>
+      <c r="C3" s="501"/>
+      <c r="D3" s="501"/>
+      <c r="E3" s="501"/>
+      <c r="F3" s="501"/>
+      <c r="G3" s="501"/>
       <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:9" s="72" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="508" t="s">
+      <c r="A4" s="502" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="508"/>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="508"/>
+      <c r="B4" s="502"/>
+      <c r="C4" s="502"/>
+      <c r="D4" s="502"/>
+      <c r="E4" s="502"/>
+      <c r="F4" s="502"/>
+      <c r="G4" s="502"/>
       <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:9" s="72" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -43480,24 +43344,24 @@
       <c r="F5" s="74"/>
     </row>
     <row r="6" spans="1:9" s="42" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="510" t="s">
+      <c r="A6" s="504" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="510" t="s">
+      <c r="B6" s="504" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="509" t="s">
+      <c r="C6" s="503" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="509"/>
-      <c r="E6" s="509"/>
-      <c r="F6" s="509"/>
-      <c r="G6" s="509"/>
+      <c r="D6" s="503"/>
+      <c r="E6" s="503"/>
+      <c r="F6" s="503"/>
+      <c r="G6" s="503"/>
       <c r="H6" s="54"/>
     </row>
     <row r="7" spans="1:9" s="72" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="510"/>
-      <c r="B7" s="510"/>
+      <c r="A7" s="504"/>
+      <c r="B7" s="504"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -43516,8 +43380,8 @@
       <c r="H7" s="43"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="510"/>
-      <c r="B8" s="510"/>
+      <c r="A8" s="504"/>
+      <c r="B8" s="504"/>
       <c r="C8" s="79" t="s">
         <v>40</v>
       </c>
@@ -43570,66 +43434,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="499" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="505"/>
-      <c r="C1" s="505"/>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
+      <c r="B1" s="499"/>
+      <c r="C1" s="499"/>
+      <c r="D1" s="499"/>
+      <c r="E1" s="499"/>
+      <c r="F1" s="499"/>
+      <c r="G1" s="499"/>
     </row>
     <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="506" t="s">
+      <c r="A2" s="500" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="506"/>
-      <c r="C2" s="506"/>
-      <c r="D2" s="506"/>
-      <c r="E2" s="506"/>
-      <c r="F2" s="506"/>
-      <c r="G2" s="506"/>
+      <c r="B2" s="500"/>
+      <c r="C2" s="500"/>
+      <c r="D2" s="500"/>
+      <c r="E2" s="500"/>
+      <c r="F2" s="500"/>
+      <c r="G2" s="500"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
+      <c r="A3" s="501"/>
+      <c r="B3" s="501"/>
+      <c r="C3" s="501"/>
+      <c r="D3" s="501"/>
+      <c r="E3" s="501"/>
+      <c r="F3" s="501"/>
+      <c r="G3" s="501"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="511" t="s">
+      <c r="A4" s="505" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="511"/>
-      <c r="C4" s="511"/>
-      <c r="D4" s="511"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
+      <c r="B4" s="505"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="505"/>
+      <c r="G4" s="505"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="512" t="s">
+      <c r="A5" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="512" t="s">
+      <c r="B5" s="506" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="513" t="s">
+      <c r="C5" s="507" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="513"/>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
+      <c r="D5" s="507"/>
+      <c r="E5" s="507"/>
+      <c r="F5" s="507"/>
+      <c r="G5" s="507"/>
       <c r="H5" s="84"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="512"/>
-      <c r="B6" s="512"/>
+      <c r="A6" s="506"/>
+      <c r="B6" s="506"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -43647,8 +43511,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="512"/>
-      <c r="B7" s="512"/>
+      <c r="A7" s="506"/>
+      <c r="B7" s="506"/>
       <c r="C7" s="31" t="s">
         <v>40</v>
       </c>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16083A7-E292-4A6D-A1BB-406C270AE5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E4AFC2-F25F-4F81-8802-665A8684EA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" tabRatio="802" activeTab="16" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" tabRatio="802" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -697,9 +697,6 @@
     <t>CHI PHÍ QUA KHO THEO QUY ĐỊNH CỦA TĐ</t>
   </si>
   <si>
-    <t>GIÁ BÁN CHO PTC</t>
-  </si>
-  <si>
     <t>GHI CHÚ</t>
   </si>
   <si>
@@ -747,6 +744,9 @@
   </si>
   <si>
     <t>Upper limit</t>
+  </si>
+  <si>
+    <t>GIÁ BÁN CHO PTS</t>
   </si>
 </sst>
 </file>
@@ -2967,18 +2967,645 @@
     <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="1" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="159" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="34" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="36" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="21" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="21" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="9" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="5" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="11" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="12" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="6" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="8" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="7" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="37" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2998,18 +3625,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="34" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="36" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="212" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3035,660 +3650,59 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="9" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="5" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="11" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="12" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="6" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="8" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="7" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="21" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="21" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3697,12 +3711,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3713,14 +3721,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3733,31 +3733,25 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3767,12 +3761,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3809,41 +3821,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="9" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="39" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="39" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="1" xfId="159" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="9" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="8" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="39" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="159" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="159" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="239">
@@ -4426,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DFD16-6734-4240-8F57-B4E46BBCF2BD}">
   <dimension ref="A2:AH200"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L100" sqref="L100:P100"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="30" customHeight="1"/>
@@ -4459,350 +4459,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="30" customHeight="1">
-      <c r="G2" s="325"/>
-      <c r="H2" s="326"/>
-      <c r="I2" s="326"/>
-      <c r="J2" s="326"/>
-      <c r="K2" s="326"/>
-      <c r="L2" s="326"/>
-      <c r="M2" s="327"/>
-      <c r="R2" s="266" t="s">
+      <c r="G2" s="420"/>
+      <c r="H2" s="421"/>
+      <c r="I2" s="421"/>
+      <c r="J2" s="421"/>
+      <c r="K2" s="421"/>
+      <c r="L2" s="421"/>
+      <c r="M2" s="422"/>
+      <c r="R2" s="445" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="267"/>
-      <c r="T2" s="267"/>
-      <c r="U2" s="267"/>
-      <c r="V2" s="267"/>
-      <c r="W2" s="267"/>
-      <c r="X2" s="267"/>
-      <c r="Y2" s="267"/>
-      <c r="Z2" s="268"/>
+      <c r="S2" s="446"/>
+      <c r="T2" s="446"/>
+      <c r="U2" s="446"/>
+      <c r="V2" s="446"/>
+      <c r="W2" s="446"/>
+      <c r="X2" s="446"/>
+      <c r="Y2" s="446"/>
+      <c r="Z2" s="447"/>
     </row>
     <row r="3" spans="2:26" ht="30" customHeight="1">
-      <c r="B3" s="301" t="s">
+      <c r="B3" s="396" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="329"/>
-      <c r="I3" s="329"/>
-      <c r="J3" s="329"/>
-      <c r="K3" s="329"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="330"/>
+      <c r="C3" s="396"/>
+      <c r="D3" s="396"/>
+      <c r="E3" s="396"/>
+      <c r="G3" s="423"/>
+      <c r="H3" s="424"/>
+      <c r="I3" s="424"/>
+      <c r="J3" s="424"/>
+      <c r="K3" s="424"/>
+      <c r="L3" s="424"/>
+      <c r="M3" s="425"/>
       <c r="R3" s="260"/>
-      <c r="S3" s="276"/>
-      <c r="T3" s="276"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="276"/>
-      <c r="W3" s="276"/>
-      <c r="X3" s="276"/>
-      <c r="Y3" s="276"/>
+      <c r="S3" s="451"/>
+      <c r="T3" s="451"/>
+      <c r="U3" s="451"/>
+      <c r="V3" s="451"/>
+      <c r="W3" s="451"/>
+      <c r="X3" s="451"/>
+      <c r="Y3" s="451"/>
       <c r="Z3" s="261"/>
     </row>
     <row r="4" spans="2:26" ht="42" customHeight="1">
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="396"/>
+      <c r="C4" s="396"/>
+      <c r="D4" s="396"/>
+      <c r="E4" s="396"/>
+      <c r="G4" s="403" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="309"/>
-      <c r="I4" s="331" t="s">
+      <c r="H4" s="404"/>
+      <c r="I4" s="426" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="332"/>
-      <c r="K4" s="332"/>
-      <c r="L4" s="332"/>
-      <c r="M4" s="333"/>
-      <c r="R4" s="269" t="s">
+      <c r="J4" s="427"/>
+      <c r="K4" s="427"/>
+      <c r="L4" s="427"/>
+      <c r="M4" s="428"/>
+      <c r="R4" s="448" t="s">
         <v>176</v>
       </c>
-      <c r="S4" s="270"/>
-      <c r="T4" s="270"/>
-      <c r="U4" s="270"/>
-      <c r="V4" s="270"/>
-      <c r="W4" s="270"/>
-      <c r="X4" s="270"/>
-      <c r="Y4" s="270"/>
-      <c r="Z4" s="271"/>
+      <c r="S4" s="449"/>
+      <c r="T4" s="449"/>
+      <c r="U4" s="449"/>
+      <c r="V4" s="449"/>
+      <c r="W4" s="449"/>
+      <c r="X4" s="449"/>
+      <c r="Y4" s="449"/>
+      <c r="Z4" s="450"/>
     </row>
     <row r="5" spans="2:26" ht="63" customHeight="1">
       <c r="B5" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="301" t="s">
+      <c r="C5" s="396" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="301"/>
+      <c r="D5" s="396"/>
       <c r="E5" s="238" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="310"/>
-      <c r="H5" s="311"/>
-      <c r="I5" s="312" t="s">
+      <c r="G5" s="405"/>
+      <c r="H5" s="406"/>
+      <c r="I5" s="407" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="313"/>
-      <c r="K5" s="322" t="s">
+      <c r="J5" s="408"/>
+      <c r="K5" s="417" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="323"/>
-      <c r="M5" s="324"/>
+      <c r="L5" s="418"/>
+      <c r="M5" s="419"/>
       <c r="R5" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="272" t="s">
+      <c r="S5" s="429" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="273"/>
-      <c r="U5" s="272" t="s">
+      <c r="T5" s="430"/>
+      <c r="U5" s="429" t="s">
         <v>182</v>
       </c>
-      <c r="V5" s="273"/>
-      <c r="W5" s="272" t="s">
+      <c r="V5" s="430"/>
+      <c r="W5" s="429" t="s">
         <v>183</v>
       </c>
-      <c r="X5" s="273"/>
-      <c r="Y5" s="272" t="s">
+      <c r="X5" s="430"/>
+      <c r="Y5" s="429" t="s">
         <v>184</v>
       </c>
-      <c r="Z5" s="273"/>
+      <c r="Z5" s="430"/>
     </row>
     <row r="6" spans="2:26" ht="30" customHeight="1">
       <c r="B6" s="239"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
+      <c r="C6" s="443"/>
+      <c r="D6" s="443"/>
       <c r="E6" s="239"/>
-      <c r="G6" s="334"/>
-      <c r="H6" s="335"/>
-      <c r="I6" s="314"/>
-      <c r="J6" s="315"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="317"/>
-      <c r="M6" s="318"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="409"/>
+      <c r="J6" s="410"/>
+      <c r="K6" s="411"/>
+      <c r="L6" s="412"/>
+      <c r="M6" s="413"/>
       <c r="R6" s="258" t="s">
         <v>144</v>
       </c>
-      <c r="S6" s="287"/>
-      <c r="T6" s="288"/>
-      <c r="U6" s="288"/>
-      <c r="V6" s="288"/>
-      <c r="W6" s="288"/>
-      <c r="X6" s="288"/>
-      <c r="Y6" s="288"/>
-      <c r="Z6" s="289"/>
+      <c r="S6" s="431"/>
+      <c r="T6" s="432"/>
+      <c r="U6" s="432"/>
+      <c r="V6" s="432"/>
+      <c r="W6" s="432"/>
+      <c r="X6" s="432"/>
+      <c r="Y6" s="432"/>
+      <c r="Z6" s="433"/>
     </row>
     <row r="7" spans="2:26" ht="30" customHeight="1">
       <c r="B7" s="239"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
+      <c r="C7" s="443"/>
+      <c r="D7" s="443"/>
       <c r="E7" s="239"/>
-      <c r="G7" s="334"/>
-      <c r="H7" s="335"/>
-      <c r="I7" s="314"/>
-      <c r="J7" s="315"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="317"/>
-      <c r="M7" s="318"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="281"/>
+      <c r="I7" s="409"/>
+      <c r="J7" s="410"/>
+      <c r="K7" s="411"/>
+      <c r="L7" s="412"/>
+      <c r="M7" s="413"/>
       <c r="R7" s="245">
         <v>1</v>
       </c>
-      <c r="S7" s="290"/>
-      <c r="T7" s="291"/>
-      <c r="U7" s="274"/>
-      <c r="V7" s="275"/>
-      <c r="W7" s="274"/>
-      <c r="X7" s="275"/>
-      <c r="Y7" s="274"/>
-      <c r="Z7" s="275"/>
+      <c r="S7" s="300"/>
+      <c r="T7" s="301"/>
+      <c r="U7" s="278"/>
+      <c r="V7" s="279"/>
+      <c r="W7" s="278"/>
+      <c r="X7" s="279"/>
+      <c r="Y7" s="278"/>
+      <c r="Z7" s="279"/>
     </row>
     <row r="8" spans="2:26" ht="30" customHeight="1">
       <c r="B8" s="239"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
+      <c r="C8" s="443"/>
+      <c r="D8" s="443"/>
       <c r="E8" s="239"/>
-      <c r="G8" s="334"/>
-      <c r="H8" s="335"/>
-      <c r="I8" s="314"/>
-      <c r="J8" s="315"/>
-      <c r="K8" s="316"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="318"/>
+      <c r="G8" s="280"/>
+      <c r="H8" s="281"/>
+      <c r="I8" s="409"/>
+      <c r="J8" s="410"/>
+      <c r="K8" s="411"/>
+      <c r="L8" s="412"/>
+      <c r="M8" s="413"/>
       <c r="R8" s="245">
         <v>2</v>
       </c>
-      <c r="S8" s="290"/>
-      <c r="T8" s="291"/>
-      <c r="U8" s="274"/>
-      <c r="V8" s="275"/>
-      <c r="W8" s="274"/>
-      <c r="X8" s="275"/>
-      <c r="Y8" s="274"/>
-      <c r="Z8" s="275"/>
+      <c r="S8" s="300"/>
+      <c r="T8" s="301"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="279"/>
+      <c r="W8" s="278"/>
+      <c r="X8" s="279"/>
+      <c r="Y8" s="278"/>
+      <c r="Z8" s="279"/>
     </row>
     <row r="9" spans="2:26" ht="30" customHeight="1">
       <c r="B9" s="239"/>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
+      <c r="C9" s="443"/>
+      <c r="D9" s="443"/>
       <c r="E9" s="239"/>
-      <c r="G9" s="334"/>
-      <c r="H9" s="335"/>
-      <c r="I9" s="314"/>
-      <c r="J9" s="315"/>
-      <c r="K9" s="316"/>
-      <c r="L9" s="317"/>
-      <c r="M9" s="318"/>
+      <c r="G9" s="280"/>
+      <c r="H9" s="281"/>
+      <c r="I9" s="409"/>
+      <c r="J9" s="410"/>
+      <c r="K9" s="411"/>
+      <c r="L9" s="412"/>
+      <c r="M9" s="413"/>
       <c r="R9" s="245">
         <v>3</v>
       </c>
-      <c r="S9" s="290"/>
-      <c r="T9" s="291"/>
-      <c r="U9" s="274"/>
-      <c r="V9" s="275"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="275"/>
-      <c r="Y9" s="274"/>
-      <c r="Z9" s="275"/>
+      <c r="S9" s="300"/>
+      <c r="T9" s="301"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="279"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="279"/>
+      <c r="Y9" s="278"/>
+      <c r="Z9" s="279"/>
     </row>
     <row r="10" spans="2:26" ht="30" customHeight="1">
-      <c r="G10" s="302" t="s">
+      <c r="G10" s="397" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="303"/>
-      <c r="I10" s="303"/>
-      <c r="J10" s="303"/>
-      <c r="K10" s="303"/>
-      <c r="L10" s="303"/>
-      <c r="M10" s="304"/>
+      <c r="H10" s="398"/>
+      <c r="I10" s="398"/>
+      <c r="J10" s="398"/>
+      <c r="K10" s="398"/>
+      <c r="L10" s="398"/>
+      <c r="M10" s="399"/>
       <c r="R10" s="245">
         <v>4</v>
       </c>
-      <c r="S10" s="290"/>
-      <c r="T10" s="291"/>
-      <c r="U10" s="274"/>
-      <c r="V10" s="275"/>
-      <c r="W10" s="274"/>
-      <c r="X10" s="275"/>
-      <c r="Y10" s="274"/>
-      <c r="Z10" s="275"/>
+      <c r="S10" s="300"/>
+      <c r="T10" s="301"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="279"/>
+      <c r="W10" s="278"/>
+      <c r="X10" s="279"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="279"/>
     </row>
     <row r="11" spans="2:26" ht="30" customHeight="1">
-      <c r="G11" s="319" t="s">
+      <c r="G11" s="414" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="320"/>
-      <c r="I11" s="320"/>
-      <c r="J11" s="320"/>
-      <c r="K11" s="320"/>
-      <c r="L11" s="320"/>
-      <c r="M11" s="321"/>
+      <c r="H11" s="415"/>
+      <c r="I11" s="415"/>
+      <c r="J11" s="415"/>
+      <c r="K11" s="415"/>
+      <c r="L11" s="415"/>
+      <c r="M11" s="416"/>
       <c r="R11" s="258" t="s">
         <v>155</v>
       </c>
-      <c r="S11" s="287"/>
-      <c r="T11" s="288"/>
-      <c r="U11" s="288"/>
-      <c r="V11" s="288"/>
-      <c r="W11" s="288"/>
-      <c r="X11" s="288"/>
-      <c r="Y11" s="288"/>
-      <c r="Z11" s="289"/>
+      <c r="S11" s="431"/>
+      <c r="T11" s="432"/>
+      <c r="U11" s="432"/>
+      <c r="V11" s="432"/>
+      <c r="W11" s="432"/>
+      <c r="X11" s="432"/>
+      <c r="Y11" s="432"/>
+      <c r="Z11" s="433"/>
     </row>
     <row r="12" spans="2:26" ht="30" customHeight="1">
-      <c r="G12" s="302" t="s">
+      <c r="G12" s="397" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="303"/>
-      <c r="I12" s="303"/>
-      <c r="J12" s="303"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="304"/>
+      <c r="H12" s="398"/>
+      <c r="I12" s="398"/>
+      <c r="J12" s="398"/>
+      <c r="K12" s="398"/>
+      <c r="L12" s="398"/>
+      <c r="M12" s="399"/>
       <c r="R12" s="245">
         <v>1</v>
       </c>
-      <c r="S12" s="290"/>
-      <c r="T12" s="291"/>
-      <c r="U12" s="274"/>
-      <c r="V12" s="275"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="275"/>
-      <c r="Y12" s="274"/>
-      <c r="Z12" s="275"/>
+      <c r="S12" s="300"/>
+      <c r="T12" s="301"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="279"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="279"/>
+      <c r="Y12" s="278"/>
+      <c r="Z12" s="279"/>
     </row>
     <row r="13" spans="2:26" ht="30" customHeight="1">
-      <c r="G13" s="305" t="s">
+      <c r="G13" s="400" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="306"/>
-      <c r="I13" s="306"/>
-      <c r="J13" s="306"/>
-      <c r="K13" s="306"/>
-      <c r="L13" s="306"/>
-      <c r="M13" s="307"/>
+      <c r="H13" s="401"/>
+      <c r="I13" s="401"/>
+      <c r="J13" s="401"/>
+      <c r="K13" s="401"/>
+      <c r="L13" s="401"/>
+      <c r="M13" s="402"/>
       <c r="R13" s="245">
         <v>2</v>
       </c>
-      <c r="S13" s="290"/>
-      <c r="T13" s="291"/>
-      <c r="U13" s="274"/>
-      <c r="V13" s="275"/>
-      <c r="W13" s="274"/>
-      <c r="X13" s="275"/>
-      <c r="Y13" s="274"/>
-      <c r="Z13" s="275"/>
+      <c r="S13" s="300"/>
+      <c r="T13" s="301"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="279"/>
+      <c r="W13" s="278"/>
+      <c r="X13" s="279"/>
+      <c r="Y13" s="278"/>
+      <c r="Z13" s="279"/>
     </row>
     <row r="14" spans="2:26" ht="30" customHeight="1">
       <c r="R14" s="245">
         <v>3</v>
       </c>
-      <c r="S14" s="290"/>
-      <c r="T14" s="291"/>
-      <c r="U14" s="274"/>
-      <c r="V14" s="275"/>
-      <c r="W14" s="274"/>
-      <c r="X14" s="275"/>
-      <c r="Y14" s="274"/>
-      <c r="Z14" s="275"/>
+      <c r="S14" s="300"/>
+      <c r="T14" s="301"/>
+      <c r="U14" s="278"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="278"/>
+      <c r="X14" s="279"/>
+      <c r="Y14" s="278"/>
+      <c r="Z14" s="279"/>
     </row>
     <row r="15" spans="2:26" ht="30" customHeight="1">
       <c r="R15" s="245">
         <v>4</v>
       </c>
-      <c r="S15" s="290"/>
-      <c r="T15" s="291"/>
-      <c r="U15" s="274"/>
-      <c r="V15" s="275"/>
-      <c r="W15" s="274"/>
-      <c r="X15" s="275"/>
-      <c r="Y15" s="274"/>
-      <c r="Z15" s="275"/>
+      <c r="S15" s="300"/>
+      <c r="T15" s="301"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="279"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="279"/>
+      <c r="Y15" s="278"/>
+      <c r="Z15" s="279"/>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
-      <c r="A31" s="285" t="s">
+      <c r="A31" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="285"/>
-      <c r="C31" s="285"/>
-      <c r="D31" s="285"/>
+      <c r="B31" s="294"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="87"/>
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
       <c r="H31" s="88"/>
       <c r="I31" s="87"/>
-      <c r="J31" s="286" t="s">
+      <c r="J31" s="295" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="286"/>
-      <c r="L31" s="286"/>
-      <c r="M31" s="286"/>
-      <c r="N31" s="286"/>
-      <c r="O31" s="286"/>
-      <c r="P31" s="286"/>
+      <c r="K31" s="295"/>
+      <c r="L31" s="295"/>
+      <c r="M31" s="295"/>
+      <c r="N31" s="295"/>
+      <c r="O31" s="295"/>
+      <c r="P31" s="295"/>
       <c r="Q31" s="87"/>
       <c r="R31" s="87"/>
       <c r="S31" s="87"/>
@@ -4812,26 +4812,26 @@
       <c r="W31" s="89"/>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
-      <c r="A32" s="340" t="s">
+      <c r="A32" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="340"/>
-      <c r="C32" s="340"/>
-      <c r="D32" s="340"/>
+      <c r="B32" s="296"/>
+      <c r="C32" s="296"/>
+      <c r="D32" s="296"/>
       <c r="E32" s="87"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90"/>
       <c r="H32" s="90"/>
       <c r="I32" s="87"/>
-      <c r="J32" s="341" t="s">
+      <c r="J32" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="341"/>
-      <c r="L32" s="341"/>
-      <c r="M32" s="341"/>
-      <c r="N32" s="341"/>
-      <c r="O32" s="341"/>
-      <c r="P32" s="341"/>
+      <c r="K32" s="297"/>
+      <c r="L32" s="297"/>
+      <c r="M32" s="297"/>
+      <c r="N32" s="297"/>
+      <c r="O32" s="297"/>
+      <c r="P32" s="297"/>
       <c r="Q32" s="88"/>
       <c r="R32" s="88"/>
       <c r="S32" s="88"/>
@@ -4870,24 +4870,24 @@
       <c r="AA33" s="89"/>
     </row>
     <row r="34" spans="1:27" ht="30" customHeight="1">
-      <c r="A34" s="342" t="s">
+      <c r="A34" s="283" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="342"/>
-      <c r="C34" s="342"/>
-      <c r="D34" s="342"/>
-      <c r="E34" s="342"/>
-      <c r="F34" s="342"/>
-      <c r="G34" s="342"/>
-      <c r="H34" s="342"/>
-      <c r="I34" s="342"/>
-      <c r="J34" s="342"/>
-      <c r="K34" s="342"/>
-      <c r="L34" s="342"/>
-      <c r="M34" s="342"/>
-      <c r="N34" s="342"/>
-      <c r="O34" s="342"/>
-      <c r="P34" s="342"/>
+      <c r="B34" s="283"/>
+      <c r="C34" s="283"/>
+      <c r="D34" s="283"/>
+      <c r="E34" s="283"/>
+      <c r="F34" s="283"/>
+      <c r="G34" s="283"/>
+      <c r="H34" s="283"/>
+      <c r="I34" s="283"/>
+      <c r="J34" s="283"/>
+      <c r="K34" s="283"/>
+      <c r="L34" s="283"/>
+      <c r="M34" s="283"/>
+      <c r="N34" s="283"/>
+      <c r="O34" s="283"/>
+      <c r="P34" s="283"/>
       <c r="Q34" s="97"/>
       <c r="R34" s="97"/>
       <c r="S34" s="97"/>
@@ -4901,22 +4901,22 @@
       <c r="AA34" s="86"/>
     </row>
     <row r="35" spans="1:27" ht="30" customHeight="1">
-      <c r="A35" s="283"/>
-      <c r="B35" s="283"/>
-      <c r="C35" s="283"/>
-      <c r="D35" s="283"/>
-      <c r="E35" s="283"/>
-      <c r="F35" s="283"/>
-      <c r="G35" s="283"/>
-      <c r="H35" s="283"/>
-      <c r="I35" s="283"/>
-      <c r="J35" s="283"/>
-      <c r="K35" s="283"/>
-      <c r="L35" s="283"/>
-      <c r="M35" s="283"/>
-      <c r="N35" s="283"/>
-      <c r="O35" s="283"/>
-      <c r="P35" s="283"/>
+      <c r="A35" s="284"/>
+      <c r="B35" s="284"/>
+      <c r="C35" s="284"/>
+      <c r="D35" s="284"/>
+      <c r="E35" s="284"/>
+      <c r="F35" s="284"/>
+      <c r="G35" s="284"/>
+      <c r="H35" s="284"/>
+      <c r="I35" s="284"/>
+      <c r="J35" s="284"/>
+      <c r="K35" s="284"/>
+      <c r="L35" s="284"/>
+      <c r="M35" s="284"/>
+      <c r="N35" s="284"/>
+      <c r="O35" s="284"/>
+      <c r="P35" s="284"/>
       <c r="Q35" s="99"/>
       <c r="R35" s="99"/>
       <c r="S35" s="99"/>
@@ -4959,92 +4959,92 @@
       <c r="AA36" s="86"/>
     </row>
     <row r="37" spans="1:27" ht="30" customHeight="1">
-      <c r="A37" s="390" t="s">
+      <c r="A37" s="374" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="390" t="s">
+      <c r="B37" s="374" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="390" t="s">
+      <c r="C37" s="374" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="356" t="s">
+      <c r="D37" s="291" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="352" t="s">
+      <c r="E37" s="285" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="400"/>
-      <c r="G37" s="353"/>
-      <c r="H37" s="356" t="s">
+      <c r="F37" s="286"/>
+      <c r="G37" s="287"/>
+      <c r="H37" s="291" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="352" t="s">
+      <c r="I37" s="285" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="400"/>
-      <c r="K37" s="400"/>
-      <c r="L37" s="353"/>
-      <c r="M37" s="352" t="s">
+      <c r="J37" s="286"/>
+      <c r="K37" s="286"/>
+      <c r="L37" s="287"/>
+      <c r="M37" s="285" t="s">
         <v>114</v>
       </c>
-      <c r="N37" s="400"/>
-      <c r="O37" s="400"/>
-      <c r="P37" s="353"/>
+      <c r="N37" s="286"/>
+      <c r="O37" s="286"/>
+      <c r="P37" s="287"/>
       <c r="Q37" s="103"/>
       <c r="R37" s="103"/>
       <c r="S37" s="103"/>
-      <c r="T37" s="438" t="s">
+      <c r="T37" s="308" t="s">
         <v>171</v>
       </c>
-      <c r="U37" s="429" t="s">
+      <c r="U37" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="V37" s="429" t="s">
+      <c r="V37" s="329" t="s">
         <v>188</v>
       </c>
-      <c r="W37" s="429"/>
-      <c r="X37" s="429"/>
-      <c r="Y37" s="453" t="s">
+      <c r="W37" s="329"/>
+      <c r="X37" s="329"/>
+      <c r="Y37" s="282" t="s">
         <v>189</v>
       </c>
       <c r="Z37" s="104"/>
       <c r="AA37" s="104"/>
     </row>
     <row r="38" spans="1:27" ht="30" customHeight="1">
-      <c r="A38" s="391"/>
-      <c r="B38" s="391"/>
-      <c r="C38" s="391"/>
-      <c r="D38" s="357"/>
-      <c r="E38" s="354"/>
-      <c r="F38" s="401"/>
-      <c r="G38" s="355"/>
-      <c r="H38" s="357"/>
-      <c r="I38" s="354"/>
-      <c r="J38" s="401"/>
-      <c r="K38" s="401"/>
-      <c r="L38" s="355"/>
-      <c r="M38" s="354"/>
-      <c r="N38" s="401"/>
-      <c r="O38" s="401"/>
-      <c r="P38" s="355"/>
+      <c r="A38" s="375"/>
+      <c r="B38" s="375"/>
+      <c r="C38" s="375"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="288"/>
+      <c r="F38" s="289"/>
+      <c r="G38" s="290"/>
+      <c r="H38" s="292"/>
+      <c r="I38" s="288"/>
+      <c r="J38" s="289"/>
+      <c r="K38" s="289"/>
+      <c r="L38" s="290"/>
+      <c r="M38" s="288"/>
+      <c r="N38" s="289"/>
+      <c r="O38" s="289"/>
+      <c r="P38" s="290"/>
       <c r="Q38" s="103"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
-      <c r="T38" s="439"/>
-      <c r="U38" s="429"/>
-      <c r="V38" s="429"/>
-      <c r="W38" s="429"/>
-      <c r="X38" s="429"/>
-      <c r="Y38" s="453"/>
+      <c r="T38" s="309"/>
+      <c r="U38" s="329"/>
+      <c r="V38" s="329"/>
+      <c r="W38" s="329"/>
+      <c r="X38" s="329"/>
+      <c r="Y38" s="282"/>
       <c r="Z38" s="104"/>
       <c r="AA38" s="104"/>
     </row>
     <row r="39" spans="1:27" ht="34.5" customHeight="1">
-      <c r="A39" s="392"/>
-      <c r="B39" s="392"/>
-      <c r="C39" s="392"/>
-      <c r="D39" s="358"/>
+      <c r="A39" s="376"/>
+      <c r="B39" s="376"/>
+      <c r="C39" s="376"/>
+      <c r="D39" s="293"/>
       <c r="E39" s="105" t="s">
         <v>115</v>
       </c>
@@ -5054,28 +5054,28 @@
       <c r="G39" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="358"/>
-      <c r="I39" s="374" t="s">
+      <c r="H39" s="293"/>
+      <c r="I39" s="304" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="375"/>
-      <c r="K39" s="374" t="s">
+      <c r="J39" s="305"/>
+      <c r="K39" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="375"/>
-      <c r="M39" s="374" t="s">
+      <c r="L39" s="305"/>
+      <c r="M39" s="304" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="375"/>
-      <c r="O39" s="374" t="s">
+      <c r="N39" s="305"/>
+      <c r="O39" s="304" t="s">
         <v>119</v>
       </c>
-      <c r="P39" s="375"/>
+      <c r="P39" s="305"/>
       <c r="Q39" s="103"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103"/>
-      <c r="T39" s="440"/>
-      <c r="U39" s="429"/>
+      <c r="T39" s="310"/>
+      <c r="U39" s="329"/>
       <c r="V39" s="106" t="s">
         <v>121</v>
       </c>
@@ -5085,7 +5085,7 @@
       <c r="X39" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="Y39" s="453"/>
+      <c r="Y39" s="282"/>
       <c r="Z39" s="107"/>
       <c r="AA39" s="107"/>
     </row>
@@ -5114,33 +5114,33 @@
       <c r="H40" s="110">
         <v>-6</v>
       </c>
-      <c r="I40" s="376">
+      <c r="I40" s="306">
         <v>-7</v>
       </c>
-      <c r="J40" s="377"/>
-      <c r="K40" s="376">
+      <c r="J40" s="307"/>
+      <c r="K40" s="306">
         <v>-8</v>
       </c>
-      <c r="L40" s="377"/>
-      <c r="M40" s="413" t="s">
+      <c r="L40" s="307"/>
+      <c r="M40" s="298" t="s">
         <v>197</v>
       </c>
-      <c r="N40" s="414"/>
-      <c r="O40" s="413" t="s">
+      <c r="N40" s="299"/>
+      <c r="O40" s="298" t="s">
         <v>198</v>
       </c>
-      <c r="P40" s="414"/>
+      <c r="P40" s="299"/>
       <c r="Q40" s="111"/>
       <c r="R40" s="111"/>
       <c r="S40" s="111"/>
       <c r="T40" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="U40" s="444"/>
-      <c r="V40" s="445"/>
-      <c r="W40" s="445"/>
-      <c r="X40" s="445"/>
-      <c r="Y40" s="446"/>
+      <c r="U40" s="269"/>
+      <c r="V40" s="270"/>
+      <c r="W40" s="270"/>
+      <c r="X40" s="270"/>
+      <c r="Y40" s="271"/>
       <c r="Z40" s="113"/>
       <c r="AA40" s="113"/>
     </row>
@@ -5155,14 +5155,14 @@
       <c r="F41" s="118"/>
       <c r="G41" s="118"/>
       <c r="H41" s="123"/>
-      <c r="I41" s="436"/>
-      <c r="J41" s="437"/>
-      <c r="K41" s="423"/>
-      <c r="L41" s="424"/>
-      <c r="M41" s="423"/>
-      <c r="N41" s="424"/>
-      <c r="O41" s="423"/>
-      <c r="P41" s="424"/>
+      <c r="I41" s="311"/>
+      <c r="J41" s="312"/>
+      <c r="K41" s="302"/>
+      <c r="L41" s="303"/>
+      <c r="M41" s="302"/>
+      <c r="N41" s="303"/>
+      <c r="O41" s="302"/>
+      <c r="P41" s="303"/>
       <c r="Q41" s="119"/>
       <c r="R41" s="119"/>
       <c r="S41" s="119"/>
@@ -5189,14 +5189,14 @@
       <c r="F42" s="118"/>
       <c r="G42" s="118"/>
       <c r="H42" s="123"/>
-      <c r="I42" s="436"/>
-      <c r="J42" s="437"/>
-      <c r="K42" s="423"/>
-      <c r="L42" s="424"/>
-      <c r="M42" s="423"/>
-      <c r="N42" s="424"/>
-      <c r="O42" s="423"/>
-      <c r="P42" s="424"/>
+      <c r="I42" s="311"/>
+      <c r="J42" s="312"/>
+      <c r="K42" s="302"/>
+      <c r="L42" s="303"/>
+      <c r="M42" s="302"/>
+      <c r="N42" s="303"/>
+      <c r="O42" s="302"/>
+      <c r="P42" s="303"/>
       <c r="Q42" s="119"/>
       <c r="R42" s="119"/>
       <c r="S42" s="119"/>
@@ -5224,14 +5224,14 @@
       <c r="F43" s="118"/>
       <c r="G43" s="118"/>
       <c r="H43" s="123"/>
-      <c r="I43" s="436"/>
-      <c r="J43" s="437"/>
-      <c r="K43" s="423"/>
-      <c r="L43" s="424"/>
-      <c r="M43" s="423"/>
-      <c r="N43" s="424"/>
-      <c r="O43" s="423"/>
-      <c r="P43" s="424"/>
+      <c r="I43" s="311"/>
+      <c r="J43" s="312"/>
+      <c r="K43" s="302"/>
+      <c r="L43" s="303"/>
+      <c r="M43" s="302"/>
+      <c r="N43" s="303"/>
+      <c r="O43" s="302"/>
+      <c r="P43" s="303"/>
       <c r="Q43" s="119"/>
       <c r="R43" s="119"/>
       <c r="S43" s="119"/>
@@ -5259,14 +5259,14 @@
       <c r="F44" s="118"/>
       <c r="G44" s="118"/>
       <c r="H44" s="123"/>
-      <c r="I44" s="434"/>
-      <c r="J44" s="435"/>
-      <c r="K44" s="432"/>
-      <c r="L44" s="433"/>
-      <c r="M44" s="432"/>
-      <c r="N44" s="433"/>
-      <c r="O44" s="432"/>
-      <c r="P44" s="433"/>
+      <c r="I44" s="333"/>
+      <c r="J44" s="334"/>
+      <c r="K44" s="313"/>
+      <c r="L44" s="314"/>
+      <c r="M44" s="313"/>
+      <c r="N44" s="314"/>
+      <c r="O44" s="313"/>
+      <c r="P44" s="314"/>
       <c r="Q44" s="119"/>
       <c r="R44" s="119"/>
       <c r="S44" s="119"/>
@@ -5290,11 +5290,11 @@
       <c r="T45" s="242" t="s">
         <v>155</v>
       </c>
-      <c r="U45" s="441"/>
-      <c r="V45" s="442"/>
-      <c r="W45" s="442"/>
-      <c r="X45" s="442"/>
-      <c r="Y45" s="443"/>
+      <c r="U45" s="266"/>
+      <c r="V45" s="267"/>
+      <c r="W45" s="267"/>
+      <c r="X45" s="267"/>
+      <c r="Y45" s="268"/>
       <c r="Z45" s="120"/>
       <c r="AA45" s="120"/>
     </row>
@@ -5341,13 +5341,13 @@
       <c r="G47" s="86"/>
       <c r="H47" s="86"/>
       <c r="I47" s="86"/>
-      <c r="J47" s="263"/>
-      <c r="K47" s="263"/>
-      <c r="L47" s="263"/>
-      <c r="M47" s="263"/>
-      <c r="N47" s="263"/>
-      <c r="O47" s="263"/>
-      <c r="P47" s="263"/>
+      <c r="J47" s="330"/>
+      <c r="K47" s="330"/>
+      <c r="L47" s="330"/>
+      <c r="M47" s="330"/>
+      <c r="N47" s="330"/>
+      <c r="O47" s="330"/>
+      <c r="P47" s="330"/>
       <c r="Q47" s="128"/>
       <c r="R47" s="128"/>
       <c r="S47" s="128"/>
@@ -5365,28 +5365,28 @@
       <c r="AA47" s="129"/>
     </row>
     <row r="48" spans="1:27" ht="30" customHeight="1">
-      <c r="A48" s="284" t="s">
+      <c r="A48" s="380" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="284"/>
-      <c r="C48" s="382" t="s">
+      <c r="B48" s="380"/>
+      <c r="C48" s="315" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="382"/>
-      <c r="E48" s="382"/>
-      <c r="F48" s="382"/>
-      <c r="G48" s="264" t="s">
+      <c r="D48" s="315"/>
+      <c r="E48" s="315"/>
+      <c r="F48" s="315"/>
+      <c r="G48" s="316" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="264"/>
-      <c r="I48" s="264"/>
-      <c r="J48" s="264"/>
-      <c r="K48" s="264"/>
-      <c r="L48" s="264"/>
-      <c r="M48" s="264"/>
-      <c r="N48" s="264"/>
-      <c r="O48" s="264"/>
-      <c r="P48" s="264"/>
+      <c r="H48" s="316"/>
+      <c r="I48" s="316"/>
+      <c r="J48" s="316"/>
+      <c r="K48" s="316"/>
+      <c r="L48" s="316"/>
+      <c r="M48" s="316"/>
+      <c r="N48" s="316"/>
+      <c r="O48" s="316"/>
+      <c r="P48" s="316"/>
       <c r="Q48" s="130"/>
       <c r="R48" s="130"/>
       <c r="S48" s="130"/>
@@ -5413,13 +5413,13 @@
       <c r="G49" s="130"/>
       <c r="H49" s="130"/>
       <c r="I49" s="130"/>
-      <c r="J49" s="264"/>
-      <c r="K49" s="264"/>
-      <c r="L49" s="264"/>
-      <c r="M49" s="264"/>
-      <c r="N49" s="264"/>
-      <c r="O49" s="264"/>
-      <c r="P49" s="264"/>
+      <c r="J49" s="316"/>
+      <c r="K49" s="316"/>
+      <c r="L49" s="316"/>
+      <c r="M49" s="316"/>
+      <c r="N49" s="316"/>
+      <c r="O49" s="316"/>
+      <c r="P49" s="316"/>
       <c r="Q49" s="130"/>
       <c r="R49" s="130"/>
       <c r="S49" s="130"/>
@@ -5486,14 +5486,14 @@
       <c r="R51" s="86"/>
       <c r="S51" s="86"/>
       <c r="T51" s="86"/>
-      <c r="U51" s="292" t="s">
+      <c r="U51" s="434" t="s">
         <v>53</v>
       </c>
-      <c r="V51" s="295" t="s">
+      <c r="V51" s="437" t="s">
         <v>124</v>
       </c>
-      <c r="W51" s="296"/>
-      <c r="X51" s="297"/>
+      <c r="W51" s="438"/>
+      <c r="X51" s="439"/>
       <c r="Y51" s="86"/>
       <c r="Z51" s="86"/>
       <c r="AA51" s="86"/>
@@ -5519,10 +5519,10 @@
       <c r="R52" s="86"/>
       <c r="S52" s="86"/>
       <c r="T52" s="86"/>
-      <c r="U52" s="293"/>
-      <c r="V52" s="298"/>
-      <c r="W52" s="299"/>
-      <c r="X52" s="300"/>
+      <c r="U52" s="435"/>
+      <c r="V52" s="440"/>
+      <c r="W52" s="441"/>
+      <c r="X52" s="442"/>
       <c r="Y52" s="86"/>
       <c r="Z52" s="86"/>
       <c r="AA52" s="86"/>
@@ -5548,7 +5548,7 @@
       <c r="R53" s="86"/>
       <c r="S53" s="86"/>
       <c r="T53" s="132"/>
-      <c r="U53" s="294"/>
+      <c r="U53" s="436"/>
       <c r="V53" s="133" t="s">
         <v>121</v>
       </c>
@@ -5572,13 +5572,13 @@
       <c r="G54" s="132"/>
       <c r="H54" s="132"/>
       <c r="I54" s="132"/>
-      <c r="J54" s="265"/>
-      <c r="K54" s="265"/>
-      <c r="L54" s="265"/>
-      <c r="M54" s="265"/>
-      <c r="N54" s="265"/>
-      <c r="O54" s="265"/>
-      <c r="P54" s="265"/>
+      <c r="J54" s="317"/>
+      <c r="K54" s="317"/>
+      <c r="L54" s="317"/>
+      <c r="M54" s="317"/>
+      <c r="N54" s="317"/>
+      <c r="O54" s="317"/>
+      <c r="P54" s="317"/>
       <c r="Q54" s="132"/>
       <c r="R54" s="132"/>
       <c r="S54" s="132"/>
@@ -6071,26 +6071,26 @@
       <c r="AD70" s="86"/>
     </row>
     <row r="71" spans="1:31" ht="30" customHeight="1">
-      <c r="A71" s="285" t="s">
+      <c r="A71" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="285"/>
-      <c r="C71" s="285"/>
-      <c r="D71" s="285"/>
+      <c r="B71" s="294"/>
+      <c r="C71" s="294"/>
+      <c r="D71" s="294"/>
       <c r="E71" s="87"/>
       <c r="F71" s="88"/>
       <c r="G71" s="88"/>
       <c r="H71" s="88"/>
       <c r="I71" s="87"/>
-      <c r="J71" s="286" t="s">
+      <c r="J71" s="295" t="s">
         <v>104</v>
       </c>
-      <c r="K71" s="286"/>
-      <c r="L71" s="286"/>
-      <c r="M71" s="286"/>
-      <c r="N71" s="286"/>
-      <c r="O71" s="286"/>
-      <c r="P71" s="286"/>
+      <c r="K71" s="295"/>
+      <c r="L71" s="295"/>
+      <c r="M71" s="295"/>
+      <c r="N71" s="295"/>
+      <c r="O71" s="295"/>
+      <c r="P71" s="295"/>
       <c r="Q71" s="87"/>
       <c r="R71" s="87"/>
       <c r="S71" s="87"/>
@@ -6107,26 +6107,26 @@
       <c r="AD71" s="89"/>
     </row>
     <row r="72" spans="1:31" ht="30" customHeight="1">
-      <c r="A72" s="340" t="s">
+      <c r="A72" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="340"/>
-      <c r="C72" s="340"/>
-      <c r="D72" s="340"/>
+      <c r="B72" s="296"/>
+      <c r="C72" s="296"/>
+      <c r="D72" s="296"/>
       <c r="E72" s="87"/>
       <c r="F72" s="90"/>
       <c r="G72" s="90"/>
       <c r="H72" s="90"/>
       <c r="I72" s="87"/>
-      <c r="J72" s="341" t="s">
+      <c r="J72" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="K72" s="341"/>
-      <c r="L72" s="341"/>
-      <c r="M72" s="341"/>
-      <c r="N72" s="341"/>
-      <c r="O72" s="341"/>
-      <c r="P72" s="341"/>
+      <c r="K72" s="297"/>
+      <c r="L72" s="297"/>
+      <c r="M72" s="297"/>
+      <c r="N72" s="297"/>
+      <c r="O72" s="297"/>
+      <c r="P72" s="297"/>
       <c r="Q72" s="88"/>
       <c r="R72" s="88"/>
       <c r="S72" s="88"/>
@@ -6185,24 +6185,24 @@
       <c r="AD73" s="86"/>
     </row>
     <row r="74" spans="1:31" ht="30" customHeight="1">
-      <c r="A74" s="342" t="s">
+      <c r="A74" s="283" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="342"/>
-      <c r="C74" s="342"/>
-      <c r="D74" s="342"/>
-      <c r="E74" s="342"/>
-      <c r="F74" s="342"/>
-      <c r="G74" s="342"/>
-      <c r="H74" s="342"/>
-      <c r="I74" s="342"/>
-      <c r="J74" s="342"/>
-      <c r="K74" s="342"/>
-      <c r="L74" s="342"/>
-      <c r="M74" s="342"/>
-      <c r="N74" s="342"/>
-      <c r="O74" s="342"/>
-      <c r="P74" s="342"/>
+      <c r="B74" s="283"/>
+      <c r="C74" s="283"/>
+      <c r="D74" s="283"/>
+      <c r="E74" s="283"/>
+      <c r="F74" s="283"/>
+      <c r="G74" s="283"/>
+      <c r="H74" s="283"/>
+      <c r="I74" s="283"/>
+      <c r="J74" s="283"/>
+      <c r="K74" s="283"/>
+      <c r="L74" s="283"/>
+      <c r="M74" s="283"/>
+      <c r="N74" s="283"/>
+      <c r="O74" s="283"/>
+      <c r="P74" s="283"/>
       <c r="Q74" s="97"/>
       <c r="R74" s="97"/>
       <c r="S74" s="97"/>
@@ -6210,7 +6210,7 @@
       <c r="U74" s="142"/>
       <c r="V74" s="143"/>
       <c r="W74" s="259" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X74" s="98"/>
       <c r="Y74" s="86"/>
@@ -6221,22 +6221,22 @@
       <c r="AD74" s="86"/>
     </row>
     <row r="75" spans="1:31" ht="30" customHeight="1">
-      <c r="A75" s="283"/>
-      <c r="B75" s="283"/>
-      <c r="C75" s="283"/>
-      <c r="D75" s="283"/>
-      <c r="E75" s="283"/>
-      <c r="F75" s="283"/>
-      <c r="G75" s="283"/>
-      <c r="H75" s="283"/>
-      <c r="I75" s="283"/>
-      <c r="J75" s="283"/>
-      <c r="K75" s="283"/>
-      <c r="L75" s="283"/>
-      <c r="M75" s="283"/>
-      <c r="N75" s="283"/>
-      <c r="O75" s="283"/>
-      <c r="P75" s="283"/>
+      <c r="A75" s="284"/>
+      <c r="B75" s="284"/>
+      <c r="C75" s="284"/>
+      <c r="D75" s="284"/>
+      <c r="E75" s="284"/>
+      <c r="F75" s="284"/>
+      <c r="G75" s="284"/>
+      <c r="H75" s="284"/>
+      <c r="I75" s="284"/>
+      <c r="J75" s="284"/>
+      <c r="K75" s="284"/>
+      <c r="L75" s="284"/>
+      <c r="M75" s="284"/>
+      <c r="N75" s="284"/>
+      <c r="O75" s="284"/>
+      <c r="P75" s="284"/>
       <c r="Q75" s="144"/>
       <c r="R75" s="144"/>
       <c r="S75" s="144"/>
@@ -6287,54 +6287,54 @@
       <c r="AD76" s="86"/>
     </row>
     <row r="77" spans="1:31" ht="23.25" customHeight="1">
-      <c r="A77" s="390" t="s">
+      <c r="A77" s="374" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="390" t="s">
+      <c r="B77" s="374" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="390" t="s">
+      <c r="C77" s="374" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="356" t="s">
+      <c r="D77" s="291" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="352" t="s">
+      <c r="E77" s="285" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="400"/>
-      <c r="G77" s="353"/>
-      <c r="H77" s="352" t="s">
+      <c r="F77" s="286"/>
+      <c r="G77" s="287"/>
+      <c r="H77" s="285" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="353"/>
-      <c r="J77" s="352" t="s">
+      <c r="I77" s="287"/>
+      <c r="J77" s="285" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="353"/>
-      <c r="L77" s="352" t="s">
+      <c r="K77" s="287"/>
+      <c r="L77" s="285" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="353"/>
-      <c r="N77" s="352" t="s">
+      <c r="M77" s="287"/>
+      <c r="N77" s="285" t="s">
         <v>136</v>
       </c>
-      <c r="O77" s="353"/>
-      <c r="P77" s="425" t="s">
+      <c r="O77" s="287"/>
+      <c r="P77" s="323" t="s">
         <v>137</v>
       </c>
-      <c r="Q77" s="425" t="s">
+      <c r="Q77" s="323" t="s">
         <v>138</v>
       </c>
-      <c r="R77" s="425" t="s">
+      <c r="R77" s="323" t="s">
         <v>139</v>
       </c>
       <c r="S77" s="147"/>
       <c r="T77" s="148"/>
-      <c r="U77" s="421"/>
-      <c r="V77" s="421"/>
-      <c r="W77" s="421"/>
-      <c r="X77" s="421"/>
+      <c r="U77" s="321"/>
+      <c r="V77" s="321"/>
+      <c r="W77" s="321"/>
+      <c r="X77" s="321"/>
       <c r="Y77" s="96"/>
       <c r="Z77" s="96"/>
       <c r="AA77" s="96"/>
@@ -6343,30 +6343,30 @@
       <c r="AD77" s="149"/>
     </row>
     <row r="78" spans="1:31" ht="27" customHeight="1">
-      <c r="A78" s="391"/>
-      <c r="B78" s="391"/>
-      <c r="C78" s="391"/>
-      <c r="D78" s="357"/>
-      <c r="E78" s="354"/>
-      <c r="F78" s="401"/>
-      <c r="G78" s="355"/>
-      <c r="H78" s="354"/>
-      <c r="I78" s="355"/>
-      <c r="J78" s="354"/>
-      <c r="K78" s="355"/>
-      <c r="L78" s="354"/>
-      <c r="M78" s="355"/>
-      <c r="N78" s="354"/>
-      <c r="O78" s="355"/>
-      <c r="P78" s="426"/>
-      <c r="Q78" s="426"/>
-      <c r="R78" s="426"/>
+      <c r="A78" s="375"/>
+      <c r="B78" s="375"/>
+      <c r="C78" s="375"/>
+      <c r="D78" s="292"/>
+      <c r="E78" s="288"/>
+      <c r="F78" s="289"/>
+      <c r="G78" s="290"/>
+      <c r="H78" s="288"/>
+      <c r="I78" s="290"/>
+      <c r="J78" s="288"/>
+      <c r="K78" s="290"/>
+      <c r="L78" s="288"/>
+      <c r="M78" s="290"/>
+      <c r="N78" s="288"/>
+      <c r="O78" s="290"/>
+      <c r="P78" s="324"/>
+      <c r="Q78" s="324"/>
+      <c r="R78" s="324"/>
       <c r="S78" s="96"/>
       <c r="T78" s="148"/>
-      <c r="U78" s="422"/>
-      <c r="V78" s="422"/>
-      <c r="W78" s="422"/>
-      <c r="X78" s="422"/>
+      <c r="U78" s="322"/>
+      <c r="V78" s="322"/>
+      <c r="W78" s="322"/>
+      <c r="X78" s="322"/>
       <c r="Y78" s="86"/>
       <c r="Z78" s="86"/>
       <c r="AA78" s="86"/>
@@ -6375,56 +6375,56 @@
       <c r="AD78" s="149"/>
     </row>
     <row r="79" spans="1:31" ht="30" customHeight="1">
-      <c r="A79" s="391"/>
-      <c r="B79" s="391"/>
-      <c r="C79" s="391"/>
-      <c r="D79" s="357"/>
-      <c r="E79" s="393" t="s">
+      <c r="A79" s="375"/>
+      <c r="B79" s="375"/>
+      <c r="C79" s="375"/>
+      <c r="D79" s="292"/>
+      <c r="E79" s="327" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="393" t="s">
+      <c r="F79" s="327" t="s">
         <v>116</v>
       </c>
-      <c r="G79" s="393" t="s">
+      <c r="G79" s="327" t="s">
         <v>117</v>
       </c>
-      <c r="H79" s="393" t="s">
+      <c r="H79" s="327" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="393" t="s">
+      <c r="I79" s="327" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="393" t="s">
+      <c r="J79" s="327" t="s">
         <v>120</v>
       </c>
-      <c r="K79" s="393" t="s">
+      <c r="K79" s="327" t="s">
         <v>119</v>
       </c>
-      <c r="L79" s="393" t="s">
+      <c r="L79" s="327" t="s">
         <v>115</v>
       </c>
-      <c r="M79" s="393" t="s">
+      <c r="M79" s="327" t="s">
         <v>117</v>
       </c>
-      <c r="N79" s="393" t="s">
+      <c r="N79" s="327" t="s">
         <v>120</v>
       </c>
-      <c r="O79" s="393" t="s">
+      <c r="O79" s="327" t="s">
         <v>119</v>
       </c>
-      <c r="P79" s="426"/>
-      <c r="Q79" s="426"/>
-      <c r="R79" s="426"/>
+      <c r="P79" s="324"/>
+      <c r="Q79" s="324"/>
+      <c r="R79" s="324"/>
       <c r="S79" s="96"/>
       <c r="T79" s="148"/>
-      <c r="U79" s="430" t="s">
+      <c r="U79" s="331" t="s">
         <v>53</v>
       </c>
-      <c r="V79" s="428" t="s">
+      <c r="V79" s="326" t="s">
         <v>141</v>
       </c>
-      <c r="W79" s="428"/>
-      <c r="X79" s="428"/>
+      <c r="W79" s="326"/>
+      <c r="X79" s="326"/>
       <c r="Y79" s="150"/>
       <c r="Z79" s="150"/>
       <c r="AA79" s="150"/>
@@ -6433,27 +6433,27 @@
       <c r="AD79" s="149"/>
     </row>
     <row r="80" spans="1:31" ht="30" customHeight="1">
-      <c r="A80" s="392"/>
-      <c r="B80" s="392"/>
-      <c r="C80" s="392"/>
-      <c r="D80" s="358"/>
-      <c r="E80" s="394"/>
-      <c r="F80" s="394"/>
-      <c r="G80" s="394"/>
-      <c r="H80" s="394"/>
-      <c r="I80" s="394"/>
-      <c r="J80" s="394"/>
-      <c r="K80" s="394"/>
-      <c r="L80" s="394"/>
-      <c r="M80" s="394"/>
-      <c r="N80" s="394"/>
-      <c r="O80" s="394"/>
-      <c r="P80" s="427"/>
-      <c r="Q80" s="427"/>
-      <c r="R80" s="427"/>
+      <c r="A80" s="376"/>
+      <c r="B80" s="376"/>
+      <c r="C80" s="376"/>
+      <c r="D80" s="293"/>
+      <c r="E80" s="328"/>
+      <c r="F80" s="328"/>
+      <c r="G80" s="328"/>
+      <c r="H80" s="328"/>
+      <c r="I80" s="328"/>
+      <c r="J80" s="328"/>
+      <c r="K80" s="328"/>
+      <c r="L80" s="328"/>
+      <c r="M80" s="328"/>
+      <c r="N80" s="328"/>
+      <c r="O80" s="328"/>
+      <c r="P80" s="325"/>
+      <c r="Q80" s="325"/>
+      <c r="R80" s="325"/>
       <c r="S80" s="151"/>
       <c r="T80" s="148"/>
-      <c r="U80" s="431"/>
+      <c r="U80" s="332"/>
       <c r="V80" s="152" t="s">
         <v>142</v>
       </c>
@@ -6463,9 +6463,9 @@
       <c r="X80" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="Y80" s="420"/>
-      <c r="Z80" s="420"/>
-      <c r="AA80" s="420"/>
+      <c r="Y80" s="320"/>
+      <c r="Z80" s="320"/>
+      <c r="AA80" s="320"/>
       <c r="AB80" s="151"/>
       <c r="AC80" s="151"/>
       <c r="AD80" s="149"/>
@@ -6522,12 +6522,12 @@
       <c r="R81" s="155"/>
       <c r="S81" s="156"/>
       <c r="T81" s="157"/>
-      <c r="U81" s="277" t="s">
-        <v>225</v>
-      </c>
-      <c r="V81" s="278"/>
-      <c r="W81" s="278"/>
-      <c r="X81" s="279"/>
+      <c r="U81" s="452" t="s">
+        <v>224</v>
+      </c>
+      <c r="V81" s="453"/>
+      <c r="W81" s="453"/>
+      <c r="X81" s="454"/>
       <c r="Y81" s="158"/>
       <c r="Z81" s="158"/>
       <c r="AA81" s="158"/>
@@ -6540,23 +6540,23 @@
       <c r="A82" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="447"/>
-      <c r="C82" s="448"/>
-      <c r="D82" s="448"/>
-      <c r="E82" s="448"/>
-      <c r="F82" s="448"/>
-      <c r="G82" s="448"/>
-      <c r="H82" s="448"/>
-      <c r="I82" s="448"/>
-      <c r="J82" s="448"/>
-      <c r="K82" s="448"/>
-      <c r="L82" s="448"/>
-      <c r="M82" s="448"/>
-      <c r="N82" s="448"/>
-      <c r="O82" s="448"/>
-      <c r="P82" s="448"/>
-      <c r="Q82" s="448"/>
-      <c r="R82" s="449"/>
+      <c r="B82" s="272"/>
+      <c r="C82" s="273"/>
+      <c r="D82" s="273"/>
+      <c r="E82" s="273"/>
+      <c r="F82" s="273"/>
+      <c r="G82" s="273"/>
+      <c r="H82" s="273"/>
+      <c r="I82" s="273"/>
+      <c r="J82" s="273"/>
+      <c r="K82" s="273"/>
+      <c r="L82" s="273"/>
+      <c r="M82" s="273"/>
+      <c r="N82" s="273"/>
+      <c r="O82" s="273"/>
+      <c r="P82" s="273"/>
+      <c r="Q82" s="273"/>
+      <c r="R82" s="274"/>
       <c r="S82" s="160"/>
       <c r="T82" s="161"/>
       <c r="U82" s="162"/>
@@ -6699,12 +6699,12 @@
       <c r="R86" s="175"/>
       <c r="S86" s="96"/>
       <c r="T86" s="148"/>
-      <c r="U86" s="280" t="s">
-        <v>226</v>
-      </c>
-      <c r="V86" s="281"/>
-      <c r="W86" s="281"/>
-      <c r="X86" s="282"/>
+      <c r="U86" s="455" t="s">
+        <v>225</v>
+      </c>
+      <c r="V86" s="456"/>
+      <c r="W86" s="456"/>
+      <c r="X86" s="457"/>
       <c r="Y86" s="180"/>
       <c r="Z86" s="180"/>
       <c r="AA86" s="181"/>
@@ -6717,23 +6717,23 @@
       <c r="A87" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="450"/>
-      <c r="C87" s="451"/>
-      <c r="D87" s="451"/>
-      <c r="E87" s="451"/>
-      <c r="F87" s="451"/>
-      <c r="G87" s="451"/>
-      <c r="H87" s="451"/>
-      <c r="I87" s="451"/>
-      <c r="J87" s="451"/>
-      <c r="K87" s="451"/>
-      <c r="L87" s="451"/>
-      <c r="M87" s="451"/>
-      <c r="N87" s="451"/>
-      <c r="O87" s="451"/>
-      <c r="P87" s="451"/>
-      <c r="Q87" s="451"/>
-      <c r="R87" s="452"/>
+      <c r="B87" s="275"/>
+      <c r="C87" s="276"/>
+      <c r="D87" s="276"/>
+      <c r="E87" s="276"/>
+      <c r="F87" s="276"/>
+      <c r="G87" s="276"/>
+      <c r="H87" s="276"/>
+      <c r="I87" s="276"/>
+      <c r="J87" s="276"/>
+      <c r="K87" s="276"/>
+      <c r="L87" s="276"/>
+      <c r="M87" s="276"/>
+      <c r="N87" s="276"/>
+      <c r="O87" s="276"/>
+      <c r="P87" s="276"/>
+      <c r="Q87" s="276"/>
+      <c r="R87" s="277"/>
       <c r="S87" s="151"/>
       <c r="T87" s="148"/>
       <c r="U87" s="162"/>
@@ -6933,11 +6933,11 @@
       <c r="I93" s="86"/>
       <c r="J93" s="232"/>
       <c r="K93" s="232"/>
-      <c r="L93" s="262"/>
-      <c r="M93" s="262"/>
-      <c r="N93" s="262"/>
-      <c r="O93" s="262"/>
-      <c r="P93" s="262"/>
+      <c r="L93" s="444"/>
+      <c r="M93" s="444"/>
+      <c r="N93" s="444"/>
+      <c r="O93" s="444"/>
+      <c r="P93" s="444"/>
       <c r="Q93" s="128"/>
       <c r="R93" s="128"/>
       <c r="S93" s="156"/>
@@ -6955,40 +6955,40 @@
       <c r="AE93" s="188"/>
     </row>
     <row r="94" spans="1:31" ht="30" customHeight="1">
-      <c r="A94" s="382" t="s">
+      <c r="A94" s="315" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="382"/>
-      <c r="C94" s="382" t="s">
+      <c r="B94" s="315"/>
+      <c r="C94" s="315" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="382"/>
-      <c r="E94" s="382"/>
-      <c r="F94" s="382"/>
-      <c r="G94" s="264" t="s">
+      <c r="D94" s="315"/>
+      <c r="E94" s="315"/>
+      <c r="F94" s="315"/>
+      <c r="G94" s="316" t="s">
         <v>127</v>
       </c>
-      <c r="H94" s="264"/>
-      <c r="I94" s="264"/>
-      <c r="J94" s="264"/>
-      <c r="K94" s="264"/>
-      <c r="L94" s="263"/>
-      <c r="M94" s="263"/>
-      <c r="N94" s="263"/>
-      <c r="O94" s="263"/>
-      <c r="P94" s="263"/>
+      <c r="H94" s="316"/>
+      <c r="I94" s="316"/>
+      <c r="J94" s="316"/>
+      <c r="K94" s="316"/>
+      <c r="L94" s="330"/>
+      <c r="M94" s="330"/>
+      <c r="N94" s="330"/>
+      <c r="O94" s="330"/>
+      <c r="P94" s="330"/>
       <c r="Q94" s="191"/>
       <c r="R94" s="191"/>
       <c r="S94" s="160"/>
       <c r="T94" s="161"/>
-      <c r="U94" s="398" t="s">
+      <c r="U94" s="351" t="s">
         <v>53</v>
       </c>
-      <c r="V94" s="395" t="s">
+      <c r="V94" s="348" t="s">
         <v>145</v>
       </c>
-      <c r="W94" s="396"/>
-      <c r="X94" s="397"/>
+      <c r="W94" s="349"/>
+      <c r="X94" s="350"/>
       <c r="Y94" s="89"/>
       <c r="Z94" s="89"/>
       <c r="AA94" s="89"/>
@@ -7009,16 +7009,16 @@
       <c r="I95" s="130"/>
       <c r="J95" s="85"/>
       <c r="K95" s="85"/>
-      <c r="L95" s="264"/>
-      <c r="M95" s="264"/>
-      <c r="N95" s="264"/>
-      <c r="O95" s="264"/>
-      <c r="P95" s="264"/>
+      <c r="L95" s="316"/>
+      <c r="M95" s="316"/>
+      <c r="N95" s="316"/>
+      <c r="O95" s="316"/>
+      <c r="P95" s="316"/>
       <c r="Q95" s="191"/>
       <c r="R95" s="191"/>
       <c r="S95" s="160"/>
       <c r="T95" s="161"/>
-      <c r="U95" s="399"/>
+      <c r="U95" s="352"/>
       <c r="V95" s="133" t="s">
         <v>146</v>
       </c>
@@ -7164,11 +7164,11 @@
       <c r="I100" s="132"/>
       <c r="J100" s="132"/>
       <c r="K100" s="132"/>
-      <c r="L100" s="265"/>
-      <c r="M100" s="265"/>
-      <c r="N100" s="265"/>
-      <c r="O100" s="265"/>
-      <c r="P100" s="265"/>
+      <c r="L100" s="317"/>
+      <c r="M100" s="317"/>
+      <c r="N100" s="317"/>
+      <c r="O100" s="317"/>
+      <c r="P100" s="317"/>
       <c r="Q100" s="132"/>
       <c r="R100" s="132"/>
       <c r="S100" s="86"/>
@@ -7288,13 +7288,13 @@
       <c r="G104" s="132"/>
       <c r="H104" s="132"/>
       <c r="I104" s="132"/>
-      <c r="J104" s="265"/>
-      <c r="K104" s="265"/>
-      <c r="L104" s="265"/>
-      <c r="M104" s="265"/>
-      <c r="N104" s="265"/>
-      <c r="O104" s="265"/>
-      <c r="P104" s="265"/>
+      <c r="J104" s="317"/>
+      <c r="K104" s="317"/>
+      <c r="L104" s="317"/>
+      <c r="M104" s="317"/>
+      <c r="N104" s="317"/>
+      <c r="O104" s="317"/>
+      <c r="P104" s="317"/>
       <c r="Q104" s="132"/>
       <c r="R104" s="132"/>
       <c r="S104" s="86"/>
@@ -7304,13 +7304,13 @@
       <c r="W104" s="132"/>
       <c r="X104" s="132"/>
       <c r="Y104" s="132"/>
-      <c r="Z104" s="265"/>
-      <c r="AA104" s="265"/>
-      <c r="AB104" s="265"/>
-      <c r="AC104" s="265"/>
-      <c r="AD104" s="265"/>
-      <c r="AE104" s="265"/>
-      <c r="AF104" s="265"/>
+      <c r="Z104" s="317"/>
+      <c r="AA104" s="317"/>
+      <c r="AB104" s="317"/>
+      <c r="AC104" s="317"/>
+      <c r="AD104" s="317"/>
+      <c r="AE104" s="317"/>
+      <c r="AF104" s="317"/>
       <c r="AG104" s="132"/>
       <c r="AH104" s="132"/>
     </row>
@@ -7400,13 +7400,13 @@
       <c r="G108" s="132"/>
       <c r="H108" s="132"/>
       <c r="I108" s="132"/>
-      <c r="J108" s="265"/>
-      <c r="K108" s="265"/>
-      <c r="L108" s="265"/>
-      <c r="M108" s="265"/>
-      <c r="N108" s="265"/>
-      <c r="O108" s="265"/>
-      <c r="P108" s="265"/>
+      <c r="J108" s="317"/>
+      <c r="K108" s="317"/>
+      <c r="L108" s="317"/>
+      <c r="M108" s="317"/>
+      <c r="N108" s="317"/>
+      <c r="O108" s="317"/>
+      <c r="P108" s="317"/>
       <c r="Q108" s="132"/>
       <c r="R108" s="132"/>
       <c r="S108" s="86"/>
@@ -7416,13 +7416,13 @@
       <c r="W108" s="132"/>
       <c r="X108" s="132"/>
       <c r="Y108" s="132"/>
-      <c r="Z108" s="265"/>
-      <c r="AA108" s="265"/>
-      <c r="AB108" s="265"/>
-      <c r="AC108" s="265"/>
-      <c r="AD108" s="265"/>
-      <c r="AE108" s="265"/>
-      <c r="AF108" s="265"/>
+      <c r="Z108" s="317"/>
+      <c r="AA108" s="317"/>
+      <c r="AB108" s="317"/>
+      <c r="AC108" s="317"/>
+      <c r="AD108" s="317"/>
+      <c r="AE108" s="317"/>
+      <c r="AF108" s="317"/>
       <c r="AG108" s="132"/>
       <c r="AH108" s="132"/>
     </row>
@@ -7472,13 +7472,13 @@
       <c r="G110" s="132"/>
       <c r="H110" s="132"/>
       <c r="I110" s="132"/>
-      <c r="J110" s="265"/>
-      <c r="K110" s="265"/>
-      <c r="L110" s="265"/>
-      <c r="M110" s="265"/>
-      <c r="N110" s="265"/>
-      <c r="O110" s="265"/>
-      <c r="P110" s="265"/>
+      <c r="J110" s="317"/>
+      <c r="K110" s="317"/>
+      <c r="L110" s="317"/>
+      <c r="M110" s="317"/>
+      <c r="N110" s="317"/>
+      <c r="O110" s="317"/>
+      <c r="P110" s="317"/>
       <c r="Q110" s="132"/>
       <c r="R110" s="132"/>
       <c r="S110" s="86"/>
@@ -7521,26 +7521,26 @@
       <c r="AH111" s="86"/>
     </row>
     <row r="112" spans="1:34" ht="30" customHeight="1">
-      <c r="A112" s="285" t="s">
+      <c r="A112" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="285"/>
-      <c r="C112" s="285"/>
-      <c r="D112" s="285"/>
+      <c r="B112" s="294"/>
+      <c r="C112" s="294"/>
+      <c r="D112" s="294"/>
       <c r="E112" s="87"/>
       <c r="F112" s="88"/>
       <c r="G112" s="88"/>
       <c r="H112" s="88"/>
       <c r="I112" s="87"/>
-      <c r="J112" s="286" t="s">
+      <c r="J112" s="295" t="s">
         <v>104</v>
       </c>
-      <c r="K112" s="286"/>
-      <c r="L112" s="286"/>
-      <c r="M112" s="286"/>
-      <c r="N112" s="286"/>
-      <c r="O112" s="286"/>
-      <c r="P112" s="286"/>
+      <c r="K112" s="295"/>
+      <c r="L112" s="295"/>
+      <c r="M112" s="295"/>
+      <c r="N112" s="295"/>
+      <c r="O112" s="295"/>
+      <c r="P112" s="295"/>
       <c r="Q112" s="87"/>
       <c r="R112" s="87"/>
       <c r="S112" s="87"/>
@@ -7561,26 +7561,26 @@
       <c r="AH112" s="86"/>
     </row>
     <row r="113" spans="1:34" ht="30" customHeight="1">
-      <c r="A113" s="340" t="s">
+      <c r="A113" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="340"/>
-      <c r="C113" s="340"/>
-      <c r="D113" s="340"/>
+      <c r="B113" s="296"/>
+      <c r="C113" s="296"/>
+      <c r="D113" s="296"/>
       <c r="E113" s="87"/>
       <c r="F113" s="90"/>
       <c r="G113" s="90"/>
       <c r="H113" s="90"/>
       <c r="I113" s="87"/>
-      <c r="J113" s="341" t="s">
+      <c r="J113" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="K113" s="341"/>
-      <c r="L113" s="341"/>
-      <c r="M113" s="341"/>
-      <c r="N113" s="341"/>
-      <c r="O113" s="341"/>
-      <c r="P113" s="341"/>
+      <c r="K113" s="297"/>
+      <c r="L113" s="297"/>
+      <c r="M113" s="297"/>
+      <c r="N113" s="297"/>
+      <c r="O113" s="297"/>
+      <c r="P113" s="297"/>
       <c r="Q113" s="88"/>
       <c r="R113" s="88"/>
       <c r="S113" s="88"/>
@@ -7637,24 +7637,24 @@
       <c r="AH114" s="86"/>
     </row>
     <row r="115" spans="1:34" ht="30" customHeight="1">
-      <c r="A115" s="342" t="s">
+      <c r="A115" s="283" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="342"/>
-      <c r="C115" s="342"/>
-      <c r="D115" s="342"/>
-      <c r="E115" s="342"/>
-      <c r="F115" s="342"/>
-      <c r="G115" s="342"/>
-      <c r="H115" s="342"/>
-      <c r="I115" s="342"/>
-      <c r="J115" s="342"/>
-      <c r="K115" s="342"/>
-      <c r="L115" s="342"/>
-      <c r="M115" s="342"/>
-      <c r="N115" s="342"/>
-      <c r="O115" s="342"/>
-      <c r="P115" s="342"/>
+      <c r="B115" s="283"/>
+      <c r="C115" s="283"/>
+      <c r="D115" s="283"/>
+      <c r="E115" s="283"/>
+      <c r="F115" s="283"/>
+      <c r="G115" s="283"/>
+      <c r="H115" s="283"/>
+      <c r="I115" s="283"/>
+      <c r="J115" s="283"/>
+      <c r="K115" s="283"/>
+      <c r="L115" s="283"/>
+      <c r="M115" s="283"/>
+      <c r="N115" s="283"/>
+      <c r="O115" s="283"/>
+      <c r="P115" s="283"/>
       <c r="Q115" s="97"/>
       <c r="R115" s="97"/>
       <c r="S115" s="97"/>
@@ -7675,22 +7675,22 @@
       <c r="AH115" s="86"/>
     </row>
     <row r="116" spans="1:34" ht="30" customHeight="1">
-      <c r="A116" s="343"/>
-      <c r="B116" s="343"/>
-      <c r="C116" s="343"/>
-      <c r="D116" s="343"/>
-      <c r="E116" s="343"/>
-      <c r="F116" s="343"/>
-      <c r="G116" s="343"/>
-      <c r="H116" s="343"/>
-      <c r="I116" s="343"/>
-      <c r="J116" s="343"/>
-      <c r="K116" s="343"/>
-      <c r="L116" s="343"/>
-      <c r="M116" s="343"/>
-      <c r="N116" s="343"/>
-      <c r="O116" s="343"/>
-      <c r="P116" s="343"/>
+      <c r="A116" s="338"/>
+      <c r="B116" s="338"/>
+      <c r="C116" s="338"/>
+      <c r="D116" s="338"/>
+      <c r="E116" s="338"/>
+      <c r="F116" s="338"/>
+      <c r="G116" s="338"/>
+      <c r="H116" s="338"/>
+      <c r="I116" s="338"/>
+      <c r="J116" s="338"/>
+      <c r="K116" s="338"/>
+      <c r="L116" s="338"/>
+      <c r="M116" s="338"/>
+      <c r="N116" s="338"/>
+      <c r="O116" s="338"/>
+      <c r="P116" s="338"/>
       <c r="Q116" s="99"/>
       <c r="R116" s="99"/>
       <c r="S116" s="99"/>
@@ -7700,13 +7700,13 @@
       <c r="W116" s="132"/>
       <c r="X116" s="132"/>
       <c r="Y116" s="132"/>
-      <c r="Z116" s="265"/>
-      <c r="AA116" s="265"/>
-      <c r="AB116" s="265"/>
-      <c r="AC116" s="265"/>
-      <c r="AD116" s="265"/>
-      <c r="AE116" s="265"/>
-      <c r="AF116" s="265"/>
+      <c r="Z116" s="317"/>
+      <c r="AA116" s="317"/>
+      <c r="AB116" s="317"/>
+      <c r="AC116" s="317"/>
+      <c r="AD116" s="317"/>
+      <c r="AE116" s="317"/>
+      <c r="AF116" s="317"/>
       <c r="AG116" s="132"/>
       <c r="AH116" s="132"/>
     </row>
@@ -7747,56 +7747,56 @@
       <c r="AH117" s="86"/>
     </row>
     <row r="118" spans="1:34" ht="30" customHeight="1">
-      <c r="A118" s="390" t="s">
+      <c r="A118" s="374" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="346" t="s">
+      <c r="B118" s="339" t="s">
         <v>108</v>
       </c>
-      <c r="C118" s="347"/>
-      <c r="D118" s="352" t="s">
+      <c r="C118" s="340"/>
+      <c r="D118" s="285" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="353"/>
-      <c r="F118" s="352" t="s">
+      <c r="E118" s="287"/>
+      <c r="F118" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="G118" s="400"/>
-      <c r="H118" s="353"/>
-      <c r="I118" s="352" t="s">
+      <c r="G118" s="286"/>
+      <c r="H118" s="287"/>
+      <c r="I118" s="285" t="s">
         <v>149</v>
       </c>
-      <c r="J118" s="400"/>
-      <c r="K118" s="400"/>
-      <c r="L118" s="353"/>
-      <c r="M118" s="402" t="s">
+      <c r="J118" s="286"/>
+      <c r="K118" s="286"/>
+      <c r="L118" s="287"/>
+      <c r="M118" s="359" t="s">
         <v>150</v>
       </c>
-      <c r="N118" s="403"/>
-      <c r="O118" s="403"/>
-      <c r="P118" s="404"/>
+      <c r="N118" s="360"/>
+      <c r="O118" s="360"/>
+      <c r="P118" s="361"/>
       <c r="Q118" s="197"/>
       <c r="R118" s="197"/>
       <c r="S118" s="197"/>
       <c r="T118" s="197"/>
     </row>
     <row r="119" spans="1:34" ht="30" customHeight="1">
-      <c r="A119" s="391"/>
-      <c r="B119" s="348"/>
-      <c r="C119" s="349"/>
-      <c r="D119" s="417"/>
-      <c r="E119" s="419"/>
-      <c r="F119" s="417"/>
-      <c r="G119" s="418"/>
-      <c r="H119" s="419"/>
-      <c r="I119" s="354"/>
-      <c r="J119" s="401"/>
-      <c r="K119" s="401"/>
-      <c r="L119" s="355"/>
-      <c r="M119" s="405"/>
-      <c r="N119" s="406"/>
-      <c r="O119" s="406"/>
-      <c r="P119" s="407"/>
+      <c r="A119" s="375"/>
+      <c r="B119" s="341"/>
+      <c r="C119" s="342"/>
+      <c r="D119" s="335"/>
+      <c r="E119" s="337"/>
+      <c r="F119" s="335"/>
+      <c r="G119" s="336"/>
+      <c r="H119" s="337"/>
+      <c r="I119" s="288"/>
+      <c r="J119" s="289"/>
+      <c r="K119" s="289"/>
+      <c r="L119" s="290"/>
+      <c r="M119" s="362"/>
+      <c r="N119" s="363"/>
+      <c r="O119" s="363"/>
+      <c r="P119" s="364"/>
       <c r="Q119" s="197"/>
       <c r="R119" s="197"/>
       <c r="S119" s="197"/>
@@ -7817,26 +7817,26 @@
       <c r="AH119" s="86"/>
     </row>
     <row r="120" spans="1:34" ht="30" customHeight="1">
-      <c r="A120" s="392"/>
-      <c r="B120" s="350"/>
-      <c r="C120" s="351"/>
-      <c r="D120" s="354"/>
-      <c r="E120" s="355"/>
-      <c r="F120" s="354"/>
-      <c r="G120" s="401"/>
-      <c r="H120" s="355"/>
-      <c r="I120" s="374" t="s">
+      <c r="A120" s="376"/>
+      <c r="B120" s="343"/>
+      <c r="C120" s="344"/>
+      <c r="D120" s="288"/>
+      <c r="E120" s="290"/>
+      <c r="F120" s="288"/>
+      <c r="G120" s="289"/>
+      <c r="H120" s="290"/>
+      <c r="I120" s="304" t="s">
         <v>151</v>
       </c>
-      <c r="J120" s="375"/>
-      <c r="K120" s="374" t="s">
+      <c r="J120" s="305"/>
+      <c r="K120" s="304" t="s">
         <v>152</v>
       </c>
-      <c r="L120" s="375"/>
-      <c r="M120" s="408"/>
-      <c r="N120" s="409"/>
-      <c r="O120" s="409"/>
-      <c r="P120" s="410"/>
+      <c r="L120" s="305"/>
+      <c r="M120" s="365"/>
+      <c r="N120" s="366"/>
+      <c r="O120" s="366"/>
+      <c r="P120" s="367"/>
       <c r="Q120" s="197"/>
       <c r="R120" s="197"/>
       <c r="S120" s="197"/>
@@ -7846,13 +7846,13 @@
       <c r="W120" s="132"/>
       <c r="X120" s="132"/>
       <c r="Y120" s="132"/>
-      <c r="Z120" s="265"/>
-      <c r="AA120" s="265"/>
-      <c r="AB120" s="265"/>
-      <c r="AC120" s="265"/>
-      <c r="AD120" s="265"/>
-      <c r="AE120" s="265"/>
-      <c r="AF120" s="265"/>
+      <c r="Z120" s="317"/>
+      <c r="AA120" s="317"/>
+      <c r="AB120" s="317"/>
+      <c r="AC120" s="317"/>
+      <c r="AD120" s="317"/>
+      <c r="AE120" s="317"/>
+      <c r="AF120" s="317"/>
       <c r="AG120" s="132"/>
       <c r="AH120" s="132"/>
     </row>
@@ -7860,33 +7860,33 @@
       <c r="A121" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B121" s="380" t="s">
+      <c r="B121" s="370" t="s">
         <v>191</v>
       </c>
-      <c r="C121" s="381"/>
-      <c r="D121" s="415" t="s">
+      <c r="C121" s="371"/>
+      <c r="D121" s="372" t="s">
         <v>192</v>
       </c>
-      <c r="E121" s="416"/>
-      <c r="F121" s="376" t="s">
+      <c r="E121" s="373"/>
+      <c r="F121" s="306" t="s">
         <v>193</v>
       </c>
-      <c r="G121" s="383"/>
-      <c r="H121" s="377"/>
-      <c r="I121" s="413" t="s">
+      <c r="G121" s="355"/>
+      <c r="H121" s="307"/>
+      <c r="I121" s="298" t="s">
         <v>194</v>
       </c>
-      <c r="J121" s="414"/>
-      <c r="K121" s="411" t="s">
+      <c r="J121" s="299"/>
+      <c r="K121" s="368" t="s">
         <v>208</v>
       </c>
-      <c r="L121" s="412"/>
-      <c r="M121" s="376" t="s">
+      <c r="L121" s="369"/>
+      <c r="M121" s="306" t="s">
         <v>209</v>
       </c>
-      <c r="N121" s="383"/>
-      <c r="O121" s="383"/>
-      <c r="P121" s="377"/>
+      <c r="N121" s="355"/>
+      <c r="O121" s="355"/>
+      <c r="P121" s="307"/>
       <c r="Q121" s="199"/>
       <c r="R121" s="199"/>
       <c r="S121" s="199"/>
@@ -7910,21 +7910,21 @@
       <c r="A122" s="114">
         <v>1</v>
       </c>
-      <c r="B122" s="344"/>
-      <c r="C122" s="345"/>
-      <c r="D122" s="344"/>
-      <c r="E122" s="345"/>
-      <c r="F122" s="384"/>
-      <c r="G122" s="385"/>
-      <c r="H122" s="386"/>
-      <c r="I122" s="337"/>
-      <c r="J122" s="339"/>
-      <c r="K122" s="337"/>
-      <c r="L122" s="339"/>
-      <c r="M122" s="387"/>
-      <c r="N122" s="388"/>
-      <c r="O122" s="388"/>
-      <c r="P122" s="389"/>
+      <c r="B122" s="318"/>
+      <c r="C122" s="319"/>
+      <c r="D122" s="318"/>
+      <c r="E122" s="319"/>
+      <c r="F122" s="345"/>
+      <c r="G122" s="346"/>
+      <c r="H122" s="347"/>
+      <c r="I122" s="353"/>
+      <c r="J122" s="354"/>
+      <c r="K122" s="353"/>
+      <c r="L122" s="354"/>
+      <c r="M122" s="356"/>
+      <c r="N122" s="357"/>
+      <c r="O122" s="357"/>
+      <c r="P122" s="358"/>
       <c r="Q122" s="201"/>
       <c r="R122" s="201"/>
       <c r="S122" s="201"/>
@@ -7934,21 +7934,21 @@
       <c r="A123" s="114">
         <v>2</v>
       </c>
-      <c r="B123" s="344"/>
-      <c r="C123" s="345"/>
-      <c r="D123" s="344"/>
-      <c r="E123" s="345"/>
-      <c r="F123" s="384"/>
-      <c r="G123" s="385"/>
-      <c r="H123" s="386"/>
-      <c r="I123" s="337"/>
-      <c r="J123" s="339"/>
-      <c r="K123" s="337"/>
-      <c r="L123" s="339"/>
-      <c r="M123" s="387"/>
-      <c r="N123" s="388"/>
-      <c r="O123" s="388"/>
-      <c r="P123" s="389"/>
+      <c r="B123" s="318"/>
+      <c r="C123" s="319"/>
+      <c r="D123" s="318"/>
+      <c r="E123" s="319"/>
+      <c r="F123" s="345"/>
+      <c r="G123" s="346"/>
+      <c r="H123" s="347"/>
+      <c r="I123" s="353"/>
+      <c r="J123" s="354"/>
+      <c r="K123" s="353"/>
+      <c r="L123" s="354"/>
+      <c r="M123" s="356"/>
+      <c r="N123" s="357"/>
+      <c r="O123" s="357"/>
+      <c r="P123" s="358"/>
       <c r="Q123" s="201"/>
       <c r="R123" s="201"/>
       <c r="S123" s="201"/>
@@ -7972,21 +7972,21 @@
       <c r="A124" s="114">
         <v>3</v>
       </c>
-      <c r="B124" s="344"/>
-      <c r="C124" s="345"/>
-      <c r="D124" s="344"/>
-      <c r="E124" s="345"/>
-      <c r="F124" s="384"/>
-      <c r="G124" s="385"/>
-      <c r="H124" s="386"/>
-      <c r="I124" s="337"/>
-      <c r="J124" s="339"/>
-      <c r="K124" s="337"/>
-      <c r="L124" s="339"/>
-      <c r="M124" s="387"/>
-      <c r="N124" s="388"/>
-      <c r="O124" s="388"/>
-      <c r="P124" s="389"/>
+      <c r="B124" s="318"/>
+      <c r="C124" s="319"/>
+      <c r="D124" s="318"/>
+      <c r="E124" s="319"/>
+      <c r="F124" s="345"/>
+      <c r="G124" s="346"/>
+      <c r="H124" s="347"/>
+      <c r="I124" s="353"/>
+      <c r="J124" s="354"/>
+      <c r="K124" s="353"/>
+      <c r="L124" s="354"/>
+      <c r="M124" s="356"/>
+      <c r="N124" s="357"/>
+      <c r="O124" s="357"/>
+      <c r="P124" s="358"/>
       <c r="Q124" s="201"/>
       <c r="R124" s="201"/>
       <c r="S124" s="201"/>
@@ -8000,21 +8000,21 @@
       <c r="A125" s="114">
         <v>4</v>
       </c>
-      <c r="B125" s="344"/>
-      <c r="C125" s="345"/>
-      <c r="D125" s="344"/>
-      <c r="E125" s="345"/>
-      <c r="F125" s="384"/>
-      <c r="G125" s="385"/>
-      <c r="H125" s="386"/>
-      <c r="I125" s="337"/>
-      <c r="J125" s="339"/>
-      <c r="K125" s="337"/>
-      <c r="L125" s="339"/>
-      <c r="M125" s="387"/>
-      <c r="N125" s="388"/>
-      <c r="O125" s="388"/>
-      <c r="P125" s="389"/>
+      <c r="B125" s="318"/>
+      <c r="C125" s="319"/>
+      <c r="D125" s="318"/>
+      <c r="E125" s="319"/>
+      <c r="F125" s="345"/>
+      <c r="G125" s="346"/>
+      <c r="H125" s="347"/>
+      <c r="I125" s="353"/>
+      <c r="J125" s="354"/>
+      <c r="K125" s="353"/>
+      <c r="L125" s="354"/>
+      <c r="M125" s="356"/>
+      <c r="N125" s="357"/>
+      <c r="O125" s="357"/>
+      <c r="P125" s="358"/>
       <c r="Q125" s="201"/>
       <c r="R125" s="201"/>
       <c r="S125" s="201"/>
@@ -8125,13 +8125,13 @@
       <c r="G129" s="86"/>
       <c r="H129" s="86"/>
       <c r="I129" s="86"/>
-      <c r="J129" s="263"/>
-      <c r="K129" s="263"/>
-      <c r="L129" s="263"/>
-      <c r="M129" s="263"/>
-      <c r="N129" s="263"/>
-      <c r="O129" s="263"/>
-      <c r="P129" s="263"/>
+      <c r="J129" s="330"/>
+      <c r="K129" s="330"/>
+      <c r="L129" s="330"/>
+      <c r="M129" s="330"/>
+      <c r="N129" s="330"/>
+      <c r="O129" s="330"/>
+      <c r="P129" s="330"/>
       <c r="Q129" s="128"/>
       <c r="R129" s="128"/>
       <c r="S129" s="128"/>
@@ -8145,28 +8145,28 @@
       <c r="AA129" s="129"/>
     </row>
     <row r="130" spans="1:27" ht="30" customHeight="1">
-      <c r="A130" s="284" t="s">
+      <c r="A130" s="380" t="s">
         <v>125</v>
       </c>
-      <c r="B130" s="284"/>
-      <c r="C130" s="382" t="s">
+      <c r="B130" s="380"/>
+      <c r="C130" s="315" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="382"/>
-      <c r="E130" s="382"/>
-      <c r="F130" s="382"/>
-      <c r="G130" s="264" t="s">
+      <c r="D130" s="315"/>
+      <c r="E130" s="315"/>
+      <c r="F130" s="315"/>
+      <c r="G130" s="316" t="s">
         <v>127</v>
       </c>
-      <c r="H130" s="264"/>
-      <c r="I130" s="264"/>
-      <c r="J130" s="264"/>
-      <c r="K130" s="264"/>
-      <c r="L130" s="264"/>
-      <c r="M130" s="264"/>
-      <c r="N130" s="264"/>
-      <c r="O130" s="264"/>
-      <c r="P130" s="264"/>
+      <c r="H130" s="316"/>
+      <c r="I130" s="316"/>
+      <c r="J130" s="316"/>
+      <c r="K130" s="316"/>
+      <c r="L130" s="316"/>
+      <c r="M130" s="316"/>
+      <c r="N130" s="316"/>
+      <c r="O130" s="316"/>
+      <c r="P130" s="316"/>
       <c r="Q130" s="130"/>
       <c r="R130" s="130"/>
       <c r="S130" s="130"/>
@@ -8189,13 +8189,13 @@
       <c r="G131" s="130"/>
       <c r="H131" s="130"/>
       <c r="I131" s="130"/>
-      <c r="J131" s="264"/>
-      <c r="K131" s="264"/>
-      <c r="L131" s="264"/>
-      <c r="M131" s="264"/>
-      <c r="N131" s="264"/>
-      <c r="O131" s="264"/>
-      <c r="P131" s="264"/>
+      <c r="J131" s="316"/>
+      <c r="K131" s="316"/>
+      <c r="L131" s="316"/>
+      <c r="M131" s="316"/>
+      <c r="N131" s="316"/>
+      <c r="O131" s="316"/>
+      <c r="P131" s="316"/>
       <c r="Q131" s="130"/>
       <c r="R131" s="130"/>
       <c r="S131" s="130"/>
@@ -8334,13 +8334,13 @@
       <c r="G136" s="132"/>
       <c r="H136" s="132"/>
       <c r="I136" s="132"/>
-      <c r="J136" s="265"/>
-      <c r="K136" s="265"/>
-      <c r="L136" s="265"/>
-      <c r="M136" s="265"/>
-      <c r="N136" s="265"/>
-      <c r="O136" s="265"/>
-      <c r="P136" s="265"/>
+      <c r="J136" s="317"/>
+      <c r="K136" s="317"/>
+      <c r="L136" s="317"/>
+      <c r="M136" s="317"/>
+      <c r="N136" s="317"/>
+      <c r="O136" s="317"/>
+      <c r="P136" s="317"/>
       <c r="Q136" s="132"/>
       <c r="R136" s="132"/>
       <c r="S136" s="132"/>
@@ -8470,24 +8470,24 @@
       <c r="AA140" s="96"/>
     </row>
     <row r="150" spans="1:27" ht="30" customHeight="1">
-      <c r="A150" s="285" t="s">
+      <c r="A150" s="294" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="285"/>
-      <c r="C150" s="285"/>
-      <c r="D150" s="285"/>
+      <c r="B150" s="294"/>
+      <c r="C150" s="294"/>
+      <c r="D150" s="294"/>
       <c r="E150" s="87"/>
       <c r="F150" s="88"/>
       <c r="G150" s="88"/>
       <c r="H150" s="88"/>
       <c r="I150" s="87"/>
-      <c r="J150" s="286" t="s">
+      <c r="J150" s="295" t="s">
         <v>104</v>
       </c>
-      <c r="K150" s="286"/>
-      <c r="L150" s="286"/>
-      <c r="M150" s="286"/>
-      <c r="N150" s="286"/>
+      <c r="K150" s="295"/>
+      <c r="L150" s="295"/>
+      <c r="M150" s="295"/>
+      <c r="N150" s="295"/>
       <c r="O150" s="87"/>
       <c r="P150" s="87"/>
       <c r="Q150" s="87"/>
@@ -8502,24 +8502,24 @@
       <c r="Z150" s="89"/>
     </row>
     <row r="151" spans="1:27" ht="30" customHeight="1">
-      <c r="A151" s="340" t="s">
+      <c r="A151" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="B151" s="340"/>
-      <c r="C151" s="340"/>
-      <c r="D151" s="340"/>
+      <c r="B151" s="296"/>
+      <c r="C151" s="296"/>
+      <c r="D151" s="296"/>
       <c r="E151" s="87"/>
       <c r="F151" s="90"/>
       <c r="G151" s="90"/>
       <c r="H151" s="90"/>
       <c r="I151" s="87"/>
-      <c r="J151" s="341" t="s">
+      <c r="J151" s="297" t="s">
         <v>106</v>
       </c>
-      <c r="K151" s="341"/>
-      <c r="L151" s="341"/>
-      <c r="M151" s="341"/>
-      <c r="N151" s="341"/>
+      <c r="K151" s="297"/>
+      <c r="L151" s="297"/>
+      <c r="M151" s="297"/>
+      <c r="N151" s="297"/>
       <c r="O151" s="88"/>
       <c r="P151" s="88"/>
       <c r="Q151" s="88"/>
@@ -8562,24 +8562,24 @@
       <c r="Z152" s="86"/>
     </row>
     <row r="153" spans="1:27" ht="30" customHeight="1">
-      <c r="A153" s="342" t="s">
+      <c r="A153" s="283" t="s">
         <v>210</v>
       </c>
-      <c r="B153" s="342"/>
-      <c r="C153" s="342"/>
-      <c r="D153" s="342"/>
-      <c r="E153" s="342"/>
-      <c r="F153" s="342"/>
-      <c r="G153" s="342"/>
-      <c r="H153" s="342"/>
-      <c r="I153" s="342"/>
-      <c r="J153" s="342"/>
-      <c r="K153" s="342"/>
-      <c r="L153" s="342"/>
-      <c r="M153" s="342"/>
-      <c r="N153" s="342"/>
-      <c r="O153" s="342"/>
-      <c r="P153" s="342"/>
+      <c r="B153" s="283"/>
+      <c r="C153" s="283"/>
+      <c r="D153" s="283"/>
+      <c r="E153" s="283"/>
+      <c r="F153" s="283"/>
+      <c r="G153" s="283"/>
+      <c r="H153" s="283"/>
+      <c r="I153" s="283"/>
+      <c r="J153" s="283"/>
+      <c r="K153" s="283"/>
+      <c r="L153" s="283"/>
+      <c r="M153" s="283"/>
+      <c r="N153" s="283"/>
+      <c r="O153" s="283"/>
+      <c r="P153" s="283"/>
       <c r="Q153" s="97"/>
       <c r="R153" s="97"/>
       <c r="S153" s="97"/>
@@ -8592,22 +8592,22 @@
       <c r="Z153" s="86"/>
     </row>
     <row r="154" spans="1:27" ht="30" customHeight="1">
-      <c r="A154" s="343"/>
-      <c r="B154" s="343"/>
-      <c r="C154" s="343"/>
-      <c r="D154" s="343"/>
-      <c r="E154" s="343"/>
-      <c r="F154" s="343"/>
-      <c r="G154" s="343"/>
-      <c r="H154" s="343"/>
-      <c r="I154" s="343"/>
-      <c r="J154" s="343"/>
-      <c r="K154" s="343"/>
-      <c r="L154" s="343"/>
-      <c r="M154" s="343"/>
-      <c r="N154" s="343"/>
-      <c r="O154" s="343"/>
-      <c r="P154" s="343"/>
+      <c r="A154" s="338"/>
+      <c r="B154" s="338"/>
+      <c r="C154" s="338"/>
+      <c r="D154" s="338"/>
+      <c r="E154" s="338"/>
+      <c r="F154" s="338"/>
+      <c r="G154" s="338"/>
+      <c r="H154" s="338"/>
+      <c r="I154" s="338"/>
+      <c r="J154" s="338"/>
+      <c r="K154" s="338"/>
+      <c r="L154" s="338"/>
+      <c r="M154" s="338"/>
+      <c r="N154" s="338"/>
+      <c r="O154" s="338"/>
+      <c r="P154" s="338"/>
       <c r="Q154" s="99"/>
       <c r="R154" s="99"/>
       <c r="S154" s="99"/>
@@ -8648,37 +8648,37 @@
       <c r="Z155" s="86"/>
     </row>
     <row r="156" spans="1:27" ht="30" customHeight="1">
-      <c r="A156" s="390" t="s">
+      <c r="A156" s="374" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="346" t="s">
+      <c r="B156" s="339" t="s">
         <v>108</v>
       </c>
-      <c r="C156" s="347"/>
-      <c r="D156" s="356" t="s">
+      <c r="C156" s="340"/>
+      <c r="D156" s="291" t="s">
         <v>109</v>
       </c>
-      <c r="E156" s="352" t="s">
+      <c r="E156" s="285" t="s">
         <v>110</v>
       </c>
-      <c r="F156" s="353"/>
-      <c r="G156" s="356" t="s">
+      <c r="F156" s="287"/>
+      <c r="G156" s="291" t="s">
         <v>211</v>
       </c>
-      <c r="H156" s="356" t="s">
+      <c r="H156" s="291" t="s">
         <v>212</v>
       </c>
-      <c r="I156" s="359" t="s">
+      <c r="I156" s="381" t="s">
+        <v>229</v>
+      </c>
+      <c r="J156" s="382"/>
+      <c r="K156" s="382"/>
+      <c r="L156" s="383"/>
+      <c r="M156" s="387" t="s">
         <v>213</v>
       </c>
-      <c r="J156" s="360"/>
-      <c r="K156" s="360"/>
-      <c r="L156" s="361"/>
-      <c r="M156" s="365" t="s">
-        <v>214</v>
-      </c>
-      <c r="N156" s="366"/>
-      <c r="O156" s="367"/>
+      <c r="N156" s="388"/>
+      <c r="O156" s="389"/>
       <c r="P156" s="107"/>
       <c r="Q156" s="211"/>
       <c r="R156" s="211"/>
@@ -8692,21 +8692,21 @@
       <c r="Z156" s="212"/>
     </row>
     <row r="157" spans="1:27" ht="30" customHeight="1">
-      <c r="A157" s="391"/>
-      <c r="B157" s="348"/>
-      <c r="C157" s="349"/>
-      <c r="D157" s="357"/>
-      <c r="E157" s="354"/>
-      <c r="F157" s="355"/>
-      <c r="G157" s="357"/>
-      <c r="H157" s="357"/>
-      <c r="I157" s="362"/>
-      <c r="J157" s="363"/>
-      <c r="K157" s="363"/>
-      <c r="L157" s="364"/>
-      <c r="M157" s="368"/>
-      <c r="N157" s="369"/>
-      <c r="O157" s="370"/>
+      <c r="A157" s="375"/>
+      <c r="B157" s="341"/>
+      <c r="C157" s="342"/>
+      <c r="D157" s="292"/>
+      <c r="E157" s="288"/>
+      <c r="F157" s="290"/>
+      <c r="G157" s="292"/>
+      <c r="H157" s="292"/>
+      <c r="I157" s="384"/>
+      <c r="J157" s="385"/>
+      <c r="K157" s="385"/>
+      <c r="L157" s="386"/>
+      <c r="M157" s="390"/>
+      <c r="N157" s="391"/>
+      <c r="O157" s="392"/>
       <c r="P157" s="107"/>
       <c r="Q157" s="211"/>
       <c r="R157" s="211"/>
@@ -8720,29 +8720,29 @@
       <c r="Z157" s="212"/>
     </row>
     <row r="158" spans="1:27" ht="30" customHeight="1">
-      <c r="A158" s="392"/>
-      <c r="B158" s="350"/>
-      <c r="C158" s="351"/>
-      <c r="D158" s="358"/>
+      <c r="A158" s="376"/>
+      <c r="B158" s="343"/>
+      <c r="C158" s="344"/>
+      <c r="D158" s="293"/>
       <c r="E158" s="105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F158" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="F158" s="105" t="s">
+      <c r="G158" s="293"/>
+      <c r="H158" s="293"/>
+      <c r="I158" s="304" t="s">
         <v>216</v>
       </c>
-      <c r="G158" s="358"/>
-      <c r="H158" s="358"/>
-      <c r="I158" s="374" t="s">
+      <c r="J158" s="305"/>
+      <c r="K158" s="304" t="s">
         <v>217</v>
       </c>
-      <c r="J158" s="375"/>
-      <c r="K158" s="374" t="s">
-        <v>218</v>
-      </c>
-      <c r="L158" s="375"/>
-      <c r="M158" s="371"/>
-      <c r="N158" s="372"/>
-      <c r="O158" s="373"/>
+      <c r="L158" s="305"/>
+      <c r="M158" s="393"/>
+      <c r="N158" s="394"/>
+      <c r="O158" s="395"/>
       <c r="P158" s="107"/>
       <c r="Q158" s="211"/>
       <c r="R158" s="211"/>
@@ -8760,10 +8760,10 @@
       <c r="A159" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B159" s="380" t="s">
+      <c r="B159" s="370" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="381"/>
+      <c r="C159" s="371"/>
       <c r="D159" s="155" t="s">
         <v>192</v>
       </c>
@@ -8771,27 +8771,27 @@
         <v>193</v>
       </c>
       <c r="F159" s="213" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G159" s="213">
         <v>-4</v>
       </c>
       <c r="H159" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="I159" s="306" t="s">
         <v>220</v>
       </c>
-      <c r="I159" s="376" t="s">
+      <c r="J159" s="307"/>
+      <c r="K159" s="306" t="s">
         <v>221</v>
       </c>
-      <c r="J159" s="377"/>
-      <c r="K159" s="376" t="s">
+      <c r="L159" s="307"/>
+      <c r="M159" s="306" t="s">
         <v>222</v>
       </c>
-      <c r="L159" s="377"/>
-      <c r="M159" s="376" t="s">
-        <v>223</v>
-      </c>
-      <c r="N159" s="383"/>
-      <c r="O159" s="377"/>
+      <c r="N159" s="355"/>
+      <c r="O159" s="307"/>
       <c r="P159" s="156"/>
       <c r="Q159" s="111"/>
       <c r="R159" s="111"/>
@@ -8809,8 +8809,8 @@
       <c r="A160" s="114">
         <v>1</v>
       </c>
-      <c r="B160" s="344"/>
-      <c r="C160" s="345"/>
+      <c r="B160" s="318"/>
+      <c r="C160" s="319"/>
       <c r="D160" s="116"/>
       <c r="E160" s="117"/>
       <c r="F160" s="215"/>
@@ -8818,13 +8818,13 @@
       <c r="H160" s="117"/>
       <c r="I160" s="378"/>
       <c r="J160" s="379"/>
-      <c r="K160" s="337"/>
-      <c r="L160" s="339"/>
-      <c r="M160" s="337" t="s">
+      <c r="K160" s="353"/>
+      <c r="L160" s="354"/>
+      <c r="M160" s="353" t="s">
         <v>199</v>
       </c>
-      <c r="N160" s="338"/>
-      <c r="O160" s="339"/>
+      <c r="N160" s="377"/>
+      <c r="O160" s="354"/>
       <c r="P160" s="202"/>
       <c r="Q160" s="211"/>
       <c r="R160" s="216"/>
@@ -8842,8 +8842,8 @@
       <c r="A161" s="114">
         <v>2</v>
       </c>
-      <c r="B161" s="344"/>
-      <c r="C161" s="345"/>
+      <c r="B161" s="318"/>
+      <c r="C161" s="319"/>
       <c r="D161" s="116"/>
       <c r="E161" s="117"/>
       <c r="F161" s="215"/>
@@ -8851,13 +8851,13 @@
       <c r="H161" s="117"/>
       <c r="I161" s="378"/>
       <c r="J161" s="379"/>
-      <c r="K161" s="337"/>
-      <c r="L161" s="339"/>
-      <c r="M161" s="337" t="s">
+      <c r="K161" s="353"/>
+      <c r="L161" s="354"/>
+      <c r="M161" s="353" t="s">
         <v>199</v>
       </c>
-      <c r="N161" s="338"/>
-      <c r="O161" s="339"/>
+      <c r="N161" s="377"/>
+      <c r="O161" s="354"/>
       <c r="P161" s="202"/>
       <c r="Q161" s="211"/>
       <c r="R161" s="216"/>
@@ -8875,8 +8875,8 @@
       <c r="A162" s="114">
         <v>3</v>
       </c>
-      <c r="B162" s="344"/>
-      <c r="C162" s="345"/>
+      <c r="B162" s="318"/>
+      <c r="C162" s="319"/>
       <c r="D162" s="116"/>
       <c r="E162" s="117"/>
       <c r="F162" s="215"/>
@@ -8884,13 +8884,13 @@
       <c r="H162" s="117"/>
       <c r="I162" s="378"/>
       <c r="J162" s="379"/>
-      <c r="K162" s="337"/>
-      <c r="L162" s="339"/>
-      <c r="M162" s="337" t="s">
+      <c r="K162" s="353"/>
+      <c r="L162" s="354"/>
+      <c r="M162" s="353" t="s">
         <v>199</v>
       </c>
-      <c r="N162" s="338"/>
-      <c r="O162" s="339"/>
+      <c r="N162" s="377"/>
+      <c r="O162" s="354"/>
       <c r="P162" s="202"/>
       <c r="Q162" s="211"/>
       <c r="R162" s="216"/>
@@ -8908,8 +8908,8 @@
       <c r="A163" s="114">
         <v>4</v>
       </c>
-      <c r="B163" s="344"/>
-      <c r="C163" s="345"/>
+      <c r="B163" s="318"/>
+      <c r="C163" s="319"/>
       <c r="D163" s="116"/>
       <c r="E163" s="117"/>
       <c r="F163" s="215"/>
@@ -8917,13 +8917,13 @@
       <c r="H163" s="117"/>
       <c r="I163" s="378"/>
       <c r="J163" s="379"/>
-      <c r="K163" s="337"/>
-      <c r="L163" s="339"/>
-      <c r="M163" s="337" t="s">
+      <c r="K163" s="353"/>
+      <c r="L163" s="354"/>
+      <c r="M163" s="353" t="s">
         <v>199</v>
       </c>
-      <c r="N163" s="338"/>
-      <c r="O163" s="339"/>
+      <c r="N163" s="377"/>
+      <c r="O163" s="354"/>
       <c r="P163" s="202"/>
       <c r="Q163" s="211"/>
       <c r="R163" s="216"/>
@@ -8976,12 +8976,12 @@
       <c r="G165" s="86"/>
       <c r="H165" s="86"/>
       <c r="I165" s="86"/>
-      <c r="J165" s="263"/>
-      <c r="K165" s="263"/>
-      <c r="L165" s="263"/>
-      <c r="M165" s="263"/>
-      <c r="N165" s="263"/>
-      <c r="O165" s="263"/>
+      <c r="J165" s="330"/>
+      <c r="K165" s="330"/>
+      <c r="L165" s="330"/>
+      <c r="M165" s="330"/>
+      <c r="N165" s="330"/>
+      <c r="O165" s="330"/>
       <c r="P165" s="222"/>
       <c r="Q165" s="128"/>
       <c r="R165" s="216"/>
@@ -8996,28 +8996,28 @@
       <c r="AA165" s="129"/>
     </row>
     <row r="166" spans="1:27" ht="30" customHeight="1">
-      <c r="A166" s="284" t="s">
+      <c r="A166" s="380" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="284"/>
-      <c r="C166" s="382" t="s">
+      <c r="B166" s="380"/>
+      <c r="C166" s="315" t="s">
         <v>126</v>
       </c>
-      <c r="D166" s="382"/>
-      <c r="E166" s="382"/>
-      <c r="F166" s="382"/>
-      <c r="G166" s="264" t="s">
+      <c r="D166" s="315"/>
+      <c r="E166" s="315"/>
+      <c r="F166" s="315"/>
+      <c r="G166" s="316" t="s">
         <v>127</v>
       </c>
-      <c r="H166" s="264"/>
-      <c r="I166" s="264"/>
-      <c r="J166" s="264"/>
-      <c r="K166" s="264"/>
-      <c r="L166" s="264"/>
-      <c r="M166" s="264"/>
-      <c r="N166" s="264"/>
-      <c r="O166" s="264"/>
-      <c r="P166" s="264"/>
+      <c r="H166" s="316"/>
+      <c r="I166" s="316"/>
+      <c r="J166" s="316"/>
+      <c r="K166" s="316"/>
+      <c r="L166" s="316"/>
+      <c r="M166" s="316"/>
+      <c r="N166" s="316"/>
+      <c r="O166" s="316"/>
+      <c r="P166" s="316"/>
       <c r="Q166" s="130"/>
       <c r="R166" s="130"/>
       <c r="S166" s="130"/>
@@ -9040,13 +9040,13 @@
       <c r="G167" s="130"/>
       <c r="H167" s="130"/>
       <c r="I167" s="130"/>
-      <c r="J167" s="264"/>
-      <c r="K167" s="264"/>
-      <c r="L167" s="264"/>
-      <c r="M167" s="264"/>
-      <c r="N167" s="264"/>
-      <c r="O167" s="264"/>
-      <c r="P167" s="264"/>
+      <c r="J167" s="316"/>
+      <c r="K167" s="316"/>
+      <c r="L167" s="316"/>
+      <c r="M167" s="316"/>
+      <c r="N167" s="316"/>
+      <c r="O167" s="316"/>
+      <c r="P167" s="316"/>
       <c r="Q167" s="130"/>
       <c r="R167" s="130"/>
       <c r="S167" s="130"/>
@@ -9185,13 +9185,13 @@
       <c r="G172" s="132"/>
       <c r="H172" s="132"/>
       <c r="I172" s="132"/>
-      <c r="J172" s="265"/>
-      <c r="K172" s="265"/>
-      <c r="L172" s="265"/>
-      <c r="M172" s="265"/>
-      <c r="N172" s="265"/>
-      <c r="O172" s="265"/>
-      <c r="P172" s="265"/>
+      <c r="J172" s="317"/>
+      <c r="K172" s="317"/>
+      <c r="L172" s="317"/>
+      <c r="M172" s="317"/>
+      <c r="N172" s="317"/>
+      <c r="O172" s="317"/>
+      <c r="P172" s="317"/>
       <c r="Q172" s="132"/>
       <c r="R172" s="132"/>
       <c r="S172" s="132"/>
@@ -9783,13 +9783,13 @@
       <c r="G193" s="130"/>
       <c r="H193" s="130"/>
       <c r="I193" s="130"/>
-      <c r="J193" s="264"/>
-      <c r="K193" s="264"/>
-      <c r="L193" s="264"/>
-      <c r="M193" s="264"/>
-      <c r="N193" s="264"/>
-      <c r="O193" s="264"/>
-      <c r="P193" s="264"/>
+      <c r="J193" s="316"/>
+      <c r="K193" s="316"/>
+      <c r="L193" s="316"/>
+      <c r="M193" s="316"/>
+      <c r="N193" s="316"/>
+      <c r="O193" s="316"/>
+      <c r="P193" s="316"/>
       <c r="Q193" s="130"/>
       <c r="R193" s="130"/>
       <c r="S193" s="130"/>
@@ -9928,13 +9928,13 @@
       <c r="G198" s="132"/>
       <c r="H198" s="132"/>
       <c r="I198" s="132"/>
-      <c r="J198" s="265"/>
-      <c r="K198" s="265"/>
-      <c r="L198" s="265"/>
-      <c r="M198" s="265"/>
-      <c r="N198" s="265"/>
-      <c r="O198" s="265"/>
-      <c r="P198" s="265"/>
+      <c r="J198" s="317"/>
+      <c r="K198" s="317"/>
+      <c r="L198" s="317"/>
+      <c r="M198" s="317"/>
+      <c r="N198" s="317"/>
+      <c r="O198" s="317"/>
+      <c r="P198" s="317"/>
       <c r="Q198" s="132"/>
       <c r="R198" s="132"/>
       <c r="S198" s="132"/>
@@ -10007,6 +10007,252 @@
     </row>
   </sheetData>
   <mergeCells count="270">
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="R4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="S11:Z11"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="V51:X52"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J129:P129"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="Z120:AF120"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="L93:P93"/>
+    <mergeCell ref="L94:P94"/>
+    <mergeCell ref="L95:P95"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="Z104:AF104"/>
+    <mergeCell ref="Z108:AF108"/>
+    <mergeCell ref="Z116:AF116"/>
+    <mergeCell ref="U81:X81"/>
+    <mergeCell ref="U86:X86"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="J193:P193"/>
+    <mergeCell ref="B156:C158"/>
+    <mergeCell ref="E156:F157"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="I156:L157"/>
+    <mergeCell ref="M156:O158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="J167:P167"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M161:O161"/>
+    <mergeCell ref="J165:O165"/>
+    <mergeCell ref="M163:O163"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="J172:P172"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="J130:P130"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:F166"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="J166:P166"/>
+    <mergeCell ref="M159:O159"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="J136:P136"/>
+    <mergeCell ref="M162:O162"/>
+    <mergeCell ref="J131:P131"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="J150:N150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="A153:P153"/>
+    <mergeCell ref="A154:P154"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="M124:P124"/>
+    <mergeCell ref="J198:P198"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="V94:X94"/>
+    <mergeCell ref="U94:U95"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="M122:P122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="M121:P121"/>
+    <mergeCell ref="I118:L119"/>
+    <mergeCell ref="M118:P120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="J104:P104"/>
+    <mergeCell ref="J110:P110"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="J113:P113"/>
+    <mergeCell ref="F118:H120"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="E77:G78"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="B118:C120"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="J112:P112"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="U77:X78"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="U37:U39"/>
+    <mergeCell ref="V37:X38"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="I37:L38"/>
+    <mergeCell ref="M37:P38"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="M40:N40"/>
     <mergeCell ref="U45:Y45"/>
     <mergeCell ref="U40:Y40"/>
     <mergeCell ref="B82:R82"/>
@@ -10031,252 +10277,6 @@
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="I37:L38"/>
-    <mergeCell ref="M37:P38"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="U77:X78"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="U37:U39"/>
-    <mergeCell ref="V37:X38"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="F118:H120"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="E77:G78"/>
-    <mergeCell ref="A116:P116"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="B118:C120"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="J112:P112"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="V94:X94"/>
-    <mergeCell ref="U94:U95"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="M122:P122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="M121:P121"/>
-    <mergeCell ref="I118:L119"/>
-    <mergeCell ref="M118:P120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="J104:P104"/>
-    <mergeCell ref="J110:P110"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="J113:P113"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="M124:P124"/>
-    <mergeCell ref="J198:P198"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="M160:O160"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="J172:P172"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="J130:P130"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:F166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="J166:P166"/>
-    <mergeCell ref="M159:O159"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="J136:P136"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="J193:P193"/>
-    <mergeCell ref="B156:C158"/>
-    <mergeCell ref="E156:F157"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="I156:L157"/>
-    <mergeCell ref="M156:O158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="J167:P167"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M161:O161"/>
-    <mergeCell ref="J165:O165"/>
-    <mergeCell ref="M163:O163"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M162:O162"/>
-    <mergeCell ref="J131:P131"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="J150:N150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="A153:P153"/>
-    <mergeCell ref="A154:P154"/>
-    <mergeCell ref="J129:P129"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="Z120:AF120"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="S11:Z11"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="V51:X52"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="L93:P93"/>
-    <mergeCell ref="L94:P94"/>
-    <mergeCell ref="L95:P95"/>
-    <mergeCell ref="L100:P100"/>
-    <mergeCell ref="Z104:AF104"/>
-    <mergeCell ref="Z108:AF108"/>
-    <mergeCell ref="Z116:AF116"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="R4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="U81:X81"/>
-    <mergeCell ref="U86:X86"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -10311,65 +10311,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="498" t="s">
+      <c r="A1" s="502" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="498"/>
-      <c r="F1" s="498"/>
-      <c r="G1" s="498"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="507" t="s">
+      <c r="A2" s="511" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="507"/>
-      <c r="C2" s="507"/>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
+      <c r="B2" s="511"/>
+      <c r="C2" s="511"/>
+      <c r="D2" s="511"/>
+      <c r="E2" s="511"/>
+      <c r="F2" s="511"/>
+      <c r="G2" s="511"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="500"/>
-      <c r="B3" s="500"/>
-      <c r="C3" s="500"/>
-      <c r="D3" s="500"/>
-      <c r="E3" s="500"/>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
+      <c r="A3" s="504"/>
+      <c r="B3" s="504"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="504"/>
+      <c r="F3" s="504"/>
+      <c r="G3" s="504"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="504" t="s">
+      <c r="A4" s="508" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="504"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="504"/>
-      <c r="F4" s="504"/>
-      <c r="G4" s="504"/>
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="508"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="505" t="s">
+      <c r="A5" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="505" t="s">
+      <c r="B5" s="509" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="506" t="s">
+      <c r="C5" s="510" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="506"/>
-      <c r="E5" s="506"/>
-      <c r="F5" s="506"/>
-      <c r="G5" s="506"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="505"/>
-      <c r="B6" s="505"/>
+      <c r="A6" s="509"/>
+      <c r="B6" s="509"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -10387,8 +10387,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="505"/>
-      <c r="B7" s="505"/>
+      <c r="A7" s="509"/>
+      <c r="B7" s="509"/>
       <c r="C7" s="19" t="s">
         <v>40</v>
       </c>
@@ -10444,72 +10444,72 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="45"/>
-      <c r="C1" s="498" t="s">
+      <c r="C1" s="502" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="498"/>
-      <c r="E1" s="498"/>
-      <c r="F1" s="498"/>
-      <c r="G1" s="498"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="46"/>
-      <c r="C2" s="507" t="s">
+      <c r="C2" s="511" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507"/>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507"/>
+      <c r="D2" s="511"/>
+      <c r="E2" s="511"/>
+      <c r="F2" s="511"/>
+      <c r="G2" s="511"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="46"/>
-      <c r="C3" s="507" t="s">
+      <c r="C3" s="511" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="511"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="511"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="47"/>
-      <c r="C4" s="500"/>
-      <c r="D4" s="500"/>
-      <c r="E4" s="500"/>
-      <c r="F4" s="500"/>
-      <c r="G4" s="500"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="504"/>
+      <c r="F4" s="504"/>
+      <c r="G4" s="504"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="48"/>
-      <c r="C5" s="504" t="s">
+      <c r="C5" s="508" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="504"/>
-      <c r="E5" s="504"/>
-      <c r="F5" s="504"/>
-      <c r="G5" s="504"/>
+      <c r="D5" s="508"/>
+      <c r="E5" s="508"/>
+      <c r="F5" s="508"/>
+      <c r="G5" s="508"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="505" t="s">
+      <c r="A6" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="505" t="s">
+      <c r="B6" s="509" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="506" t="s">
+      <c r="C6" s="510" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="506"/>
-      <c r="E6" s="506"/>
-      <c r="F6" s="506"/>
-      <c r="G6" s="506"/>
+      <c r="D6" s="510"/>
+      <c r="E6" s="510"/>
+      <c r="F6" s="510"/>
+      <c r="G6" s="510"/>
       <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="505"/>
-      <c r="B7" s="505"/>
+      <c r="A7" s="509"/>
+      <c r="B7" s="509"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -10527,8 +10527,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="505"/>
-      <c r="B8" s="505"/>
+      <c r="A8" s="509"/>
+      <c r="B8" s="509"/>
       <c r="C8" s="49" t="s">
         <v>40</v>
       </c>
@@ -10728,10 +10728,10 @@
         <v>96</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="488" t="s">
+      <c r="N2" s="495" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="488"/>
+      <c r="O2" s="495"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>97</v>
@@ -11019,7 +11019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64766C0B-BF0B-4126-9E87-610616990927}">
   <dimension ref="A1:T1573"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
@@ -11080,13 +11080,13 @@
       <c r="Q1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="512" t="s">
+      <c r="R1" s="262" t="s">
+        <v>227</v>
+      </c>
+      <c r="S1" s="262" t="s">
         <v>228</v>
       </c>
-      <c r="S1" s="512" t="s">
-        <v>229</v>
-      </c>
-      <c r="T1" s="521"/>
+      <c r="T1" s="265"/>
     </row>
     <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="23"/>
@@ -11128,73 +11128,73 @@
       <c r="Q2" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="513"/>
-      <c r="S2" s="513"/>
-      <c r="T2" s="514"/>
+      <c r="R2" s="263"/>
+      <c r="S2" s="263"/>
+      <c r="T2" s="264"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="508" t="s">
+      <c r="A3" s="512" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="508" t="s">
+      <c r="B3" s="512" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="508" t="s">
+      <c r="C3" s="512" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="508" t="s">
+      <c r="D3" s="512" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="508" t="s">
+      <c r="E3" s="512" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="508" t="s">
+      <c r="F3" s="512" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="508"/>
-      <c r="H3" s="508"/>
-      <c r="I3" s="508"/>
-      <c r="J3" s="511" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="508"/>
-      <c r="L3" s="508"/>
-      <c r="M3" s="508" t="s">
+      <c r="G3" s="512"/>
+      <c r="H3" s="512"/>
+      <c r="I3" s="512"/>
+      <c r="J3" s="520" t="s">
+        <v>226</v>
+      </c>
+      <c r="K3" s="512"/>
+      <c r="L3" s="512"/>
+      <c r="M3" s="512" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="508"/>
-      <c r="O3" s="508"/>
-      <c r="P3" s="508" t="s">
+      <c r="N3" s="512"/>
+      <c r="O3" s="512"/>
+      <c r="P3" s="512" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="508" t="s">
+      <c r="Q3" s="512" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="519"/>
-      <c r="S3" s="515"/>
-      <c r="T3" s="517"/>
+      <c r="R3" s="514"/>
+      <c r="S3" s="516"/>
+      <c r="T3" s="518"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="509"/>
-      <c r="B4" s="509"/>
-      <c r="C4" s="509"/>
-      <c r="D4" s="509"/>
-      <c r="E4" s="509"/>
-      <c r="F4" s="509"/>
-      <c r="G4" s="509"/>
-      <c r="H4" s="509"/>
-      <c r="I4" s="509"/>
-      <c r="J4" s="510"/>
-      <c r="K4" s="509"/>
-      <c r="L4" s="509"/>
-      <c r="M4" s="509"/>
-      <c r="N4" s="509"/>
-      <c r="O4" s="509"/>
-      <c r="P4" s="509"/>
-      <c r="Q4" s="509"/>
-      <c r="R4" s="520"/>
-      <c r="S4" s="516"/>
-      <c r="T4" s="518"/>
+      <c r="A4" s="513"/>
+      <c r="B4" s="513"/>
+      <c r="C4" s="513"/>
+      <c r="D4" s="513"/>
+      <c r="E4" s="513"/>
+      <c r="F4" s="513"/>
+      <c r="G4" s="513"/>
+      <c r="H4" s="513"/>
+      <c r="I4" s="513"/>
+      <c r="J4" s="521"/>
+      <c r="K4" s="513"/>
+      <c r="L4" s="513"/>
+      <c r="M4" s="513"/>
+      <c r="N4" s="513"/>
+      <c r="O4" s="513"/>
+      <c r="P4" s="513"/>
+      <c r="Q4" s="513"/>
+      <c r="R4" s="515"/>
+      <c r="S4" s="517"/>
+      <c r="T4" s="519"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
       <c r="A5" s="28"/>
@@ -41009,6 +41009,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
@@ -41017,18 +41028,7 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41144,36 +41144,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="459" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="454"/>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="459"/>
+      <c r="M1" s="459"/>
     </row>
     <row r="2" spans="1:32" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="455"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="455"/>
-      <c r="E2" s="455"/>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
-      <c r="K2" s="455"/>
-      <c r="L2" s="455"/>
-      <c r="M2" s="455"/>
+      <c r="A2" s="460"/>
+      <c r="B2" s="460"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="460"/>
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="460"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
+      <c r="K2" s="460"/>
+      <c r="L2" s="460"/>
+      <c r="M2" s="460"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41181,192 +41181,192 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="456" t="s">
+      <c r="A4" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="456" t="s">
+      <c r="B4" s="458" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="456" t="s">
+      <c r="C4" s="458" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="456" t="s">
+      <c r="D4" s="458" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456"/>
-      <c r="H4" s="456" t="s">
+      <c r="E4" s="458"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458"/>
+      <c r="H4" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="456"/>
-      <c r="J4" s="456"/>
-      <c r="K4" s="456" t="s">
+      <c r="I4" s="458"/>
+      <c r="J4" s="458"/>
+      <c r="K4" s="458" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="456"/>
-      <c r="M4" s="456" t="s">
+      <c r="L4" s="458"/>
+      <c r="M4" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="456"/>
-      <c r="O4" s="456"/>
-      <c r="P4" s="456"/>
-      <c r="Q4" s="456"/>
-      <c r="R4" s="456"/>
-      <c r="S4" s="456"/>
-      <c r="T4" s="456"/>
-      <c r="U4" s="456" t="s">
+      <c r="N4" s="458"/>
+      <c r="O4" s="458"/>
+      <c r="P4" s="458"/>
+      <c r="Q4" s="458"/>
+      <c r="R4" s="458"/>
+      <c r="S4" s="458"/>
+      <c r="T4" s="458"/>
+      <c r="U4" s="458" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="456"/>
-      <c r="W4" s="456"/>
-      <c r="X4" s="456"/>
-      <c r="Y4" s="456" t="s">
+      <c r="V4" s="458"/>
+      <c r="W4" s="458"/>
+      <c r="X4" s="458"/>
+      <c r="Y4" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="456"/>
-      <c r="AA4" s="456" t="s">
+      <c r="Z4" s="458"/>
+      <c r="AA4" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="456"/>
-      <c r="AC4" s="456" t="s">
+      <c r="AB4" s="458"/>
+      <c r="AC4" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="456"/>
-      <c r="AE4" s="456" t="s">
+      <c r="AD4" s="458"/>
+      <c r="AE4" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="456"/>
+      <c r="AF4" s="458"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="456"/>
-      <c r="B5" s="456"/>
-      <c r="C5" s="456"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="456"/>
-      <c r="F5" s="456"/>
-      <c r="G5" s="456"/>
-      <c r="H5" s="456" t="s">
+      <c r="A5" s="458"/>
+      <c r="B5" s="458"/>
+      <c r="C5" s="458"/>
+      <c r="D5" s="458"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="458"/>
+      <c r="G5" s="458"/>
+      <c r="H5" s="458" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="456" t="s">
+      <c r="I5" s="458" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="456" t="s">
+      <c r="J5" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="456"/>
-      <c r="L5" s="456"/>
-      <c r="M5" s="456"/>
-      <c r="N5" s="456"/>
-      <c r="O5" s="456"/>
-      <c r="P5" s="456"/>
-      <c r="Q5" s="456"/>
-      <c r="R5" s="456"/>
-      <c r="S5" s="456"/>
-      <c r="T5" s="456"/>
-      <c r="U5" s="456"/>
-      <c r="V5" s="456"/>
-      <c r="W5" s="456"/>
-      <c r="X5" s="456"/>
-      <c r="Y5" s="456"/>
-      <c r="Z5" s="456"/>
-      <c r="AA5" s="456"/>
-      <c r="AB5" s="456"/>
-      <c r="AC5" s="456"/>
-      <c r="AD5" s="456"/>
-      <c r="AE5" s="456"/>
-      <c r="AF5" s="456"/>
+      <c r="K5" s="458"/>
+      <c r="L5" s="458"/>
+      <c r="M5" s="458"/>
+      <c r="N5" s="458"/>
+      <c r="O5" s="458"/>
+      <c r="P5" s="458"/>
+      <c r="Q5" s="458"/>
+      <c r="R5" s="458"/>
+      <c r="S5" s="458"/>
+      <c r="T5" s="458"/>
+      <c r="U5" s="458"/>
+      <c r="V5" s="458"/>
+      <c r="W5" s="458"/>
+      <c r="X5" s="458"/>
+      <c r="Y5" s="458"/>
+      <c r="Z5" s="458"/>
+      <c r="AA5" s="458"/>
+      <c r="AB5" s="458"/>
+      <c r="AC5" s="458"/>
+      <c r="AD5" s="458"/>
+      <c r="AE5" s="458"/>
+      <c r="AF5" s="458"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="456"/>
-      <c r="B6" s="456"/>
-      <c r="C6" s="456"/>
-      <c r="D6" s="456" t="s">
+      <c r="A6" s="458"/>
+      <c r="B6" s="458"/>
+      <c r="C6" s="458"/>
+      <c r="D6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="456" t="s">
+      <c r="E6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="456" t="s">
+      <c r="F6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="456" t="s">
+      <c r="G6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="456"/>
-      <c r="I6" s="456"/>
-      <c r="J6" s="456"/>
+      <c r="H6" s="458"/>
+      <c r="I6" s="458"/>
+      <c r="J6" s="458"/>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="456" t="s">
+      <c r="M6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="456"/>
-      <c r="O6" s="456" t="s">
+      <c r="N6" s="458"/>
+      <c r="O6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="456"/>
-      <c r="Q6" s="456" t="s">
+      <c r="P6" s="458"/>
+      <c r="Q6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="456"/>
-      <c r="S6" s="456" t="s">
+      <c r="R6" s="458"/>
+      <c r="S6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="456"/>
-      <c r="U6" s="456" t="s">
+      <c r="T6" s="458"/>
+      <c r="U6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="456" t="s">
+      <c r="V6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="456" t="s">
+      <c r="W6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="456" t="s">
+      <c r="X6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="456" t="s">
+      <c r="Y6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="456" t="s">
+      <c r="Z6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="456" t="s">
+      <c r="AA6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="456" t="s">
+      <c r="AB6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="456" t="s">
+      <c r="AC6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="456" t="s">
+      <c r="AD6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="456" t="s">
+      <c r="AE6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="456" t="s">
+      <c r="AF6" s="458" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="456"/>
-      <c r="B7" s="456"/>
-      <c r="C7" s="456"/>
-      <c r="D7" s="456"/>
-      <c r="E7" s="456"/>
-      <c r="F7" s="456"/>
-      <c r="G7" s="456"/>
-      <c r="H7" s="456"/>
-      <c r="I7" s="456"/>
-      <c r="J7" s="456"/>
+      <c r="A7" s="458"/>
+      <c r="B7" s="458"/>
+      <c r="C7" s="458"/>
+      <c r="D7" s="458"/>
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="458"/>
+      <c r="J7" s="458"/>
       <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
@@ -41397,42 +41397,21 @@
       <c r="T7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="456"/>
-      <c r="V7" s="456"/>
-      <c r="W7" s="456"/>
-      <c r="X7" s="456"/>
-      <c r="Y7" s="456"/>
-      <c r="Z7" s="456"/>
-      <c r="AA7" s="456"/>
-      <c r="AB7" s="456"/>
-      <c r="AC7" s="456"/>
-      <c r="AD7" s="456"/>
-      <c r="AE7" s="456"/>
-      <c r="AF7" s="456"/>
+      <c r="U7" s="458"/>
+      <c r="V7" s="458"/>
+      <c r="W7" s="458"/>
+      <c r="X7" s="458"/>
+      <c r="Y7" s="458"/>
+      <c r="Z7" s="458"/>
+      <c r="AA7" s="458"/>
+      <c r="AB7" s="458"/>
+      <c r="AC7" s="458"/>
+      <c r="AD7" s="458"/>
+      <c r="AE7" s="458"/>
+      <c r="AF7" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AA4:AB5"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="M4:T5"/>
-    <mergeCell ref="U4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="AC6:AC7"/>
@@ -41449,6 +41428,27 @@
     <mergeCell ref="K4:L5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="O6:P6"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M4:T5"/>
+    <mergeCell ref="U4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AA4:AB5"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AD6:AD7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41477,249 +41477,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="54" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="459" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="454"/>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
-      <c r="N1" s="454"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="459"/>
+      <c r="M1" s="459"/>
+      <c r="N1" s="459"/>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="458"/>
-      <c r="B2" s="458"/>
-      <c r="C2" s="458"/>
-      <c r="D2" s="458"/>
-      <c r="E2" s="458"/>
-      <c r="F2" s="458"/>
-      <c r="G2" s="458"/>
-      <c r="H2" s="458"/>
-      <c r="I2" s="458"/>
-      <c r="J2" s="458"/>
-      <c r="K2" s="458"/>
-      <c r="L2" s="458"/>
-      <c r="M2" s="458"/>
-      <c r="N2" s="458"/>
+      <c r="A2" s="461"/>
+      <c r="B2" s="461"/>
+      <c r="C2" s="461"/>
+      <c r="D2" s="461"/>
+      <c r="E2" s="461"/>
+      <c r="F2" s="461"/>
+      <c r="G2" s="461"/>
+      <c r="H2" s="461"/>
+      <c r="I2" s="461"/>
+      <c r="J2" s="461"/>
+      <c r="K2" s="461"/>
+      <c r="L2" s="461"/>
+      <c r="M2" s="461"/>
+      <c r="N2" s="461"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="456" t="s">
+      <c r="A4" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="456" t="s">
+      <c r="B4" s="458" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="456" t="s">
+      <c r="C4" s="458" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="456" t="s">
+      <c r="D4" s="458" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456"/>
-      <c r="H4" s="456"/>
-      <c r="I4" s="456" t="s">
+      <c r="E4" s="458"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458"/>
+      <c r="H4" s="458"/>
+      <c r="I4" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="456"/>
-      <c r="K4" s="456"/>
-      <c r="L4" s="456"/>
-      <c r="M4" s="456" t="s">
+      <c r="J4" s="458"/>
+      <c r="K4" s="458"/>
+      <c r="L4" s="458"/>
+      <c r="M4" s="458" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="456" t="s">
+      <c r="N4" s="458" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="456" t="s">
+      <c r="O4" s="458" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="456"/>
-      <c r="Q4" s="456" t="s">
+      <c r="P4" s="458"/>
+      <c r="Q4" s="458" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="456"/>
-      <c r="S4" s="456"/>
-      <c r="T4" s="456"/>
-      <c r="U4" s="456"/>
-      <c r="V4" s="456"/>
-      <c r="W4" s="456"/>
-      <c r="X4" s="456"/>
-      <c r="Y4" s="456" t="s">
+      <c r="R4" s="458"/>
+      <c r="S4" s="458"/>
+      <c r="T4" s="458"/>
+      <c r="U4" s="458"/>
+      <c r="V4" s="458"/>
+      <c r="W4" s="458"/>
+      <c r="X4" s="458"/>
+      <c r="Y4" s="458" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="456" t="s">
+      <c r="Z4" s="458" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="456"/>
-      <c r="AB4" s="456"/>
-      <c r="AC4" s="456"/>
-      <c r="AD4" s="456"/>
-      <c r="AE4" s="456"/>
-      <c r="AF4" s="456"/>
-      <c r="AG4" s="456"/>
-      <c r="AH4" s="456"/>
-      <c r="AI4" s="456"/>
-      <c r="AJ4" s="456"/>
-      <c r="AK4" s="456"/>
+      <c r="AA4" s="458"/>
+      <c r="AB4" s="458"/>
+      <c r="AC4" s="458"/>
+      <c r="AD4" s="458"/>
+      <c r="AE4" s="458"/>
+      <c r="AF4" s="458"/>
+      <c r="AG4" s="458"/>
+      <c r="AH4" s="458"/>
+      <c r="AI4" s="458"/>
+      <c r="AJ4" s="458"/>
+      <c r="AK4" s="458"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="456"/>
-      <c r="B5" s="456"/>
-      <c r="C5" s="456"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="456"/>
-      <c r="F5" s="456"/>
-      <c r="G5" s="456"/>
-      <c r="H5" s="456"/>
-      <c r="I5" s="456"/>
-      <c r="J5" s="456"/>
-      <c r="K5" s="456"/>
-      <c r="L5" s="456"/>
-      <c r="M5" s="456"/>
-      <c r="N5" s="456"/>
-      <c r="O5" s="456"/>
-      <c r="P5" s="456"/>
-      <c r="Q5" s="456" t="s">
+      <c r="A5" s="458"/>
+      <c r="B5" s="458"/>
+      <c r="C5" s="458"/>
+      <c r="D5" s="458"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="458"/>
+      <c r="G5" s="458"/>
+      <c r="H5" s="458"/>
+      <c r="I5" s="458"/>
+      <c r="J5" s="458"/>
+      <c r="K5" s="458"/>
+      <c r="L5" s="458"/>
+      <c r="M5" s="458"/>
+      <c r="N5" s="458"/>
+      <c r="O5" s="458"/>
+      <c r="P5" s="458"/>
+      <c r="Q5" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="456"/>
-      <c r="S5" s="456" t="s">
+      <c r="R5" s="458"/>
+      <c r="S5" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="456"/>
-      <c r="U5" s="456" t="s">
+      <c r="T5" s="458"/>
+      <c r="U5" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="456"/>
-      <c r="W5" s="457" t="s">
+      <c r="V5" s="458"/>
+      <c r="W5" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="457"/>
-      <c r="Y5" s="456"/>
-      <c r="Z5" s="456"/>
-      <c r="AA5" s="456"/>
-      <c r="AB5" s="456"/>
-      <c r="AC5" s="456"/>
-      <c r="AD5" s="456" t="s">
+      <c r="X5" s="462"/>
+      <c r="Y5" s="458"/>
+      <c r="Z5" s="458"/>
+      <c r="AA5" s="458"/>
+      <c r="AB5" s="458"/>
+      <c r="AC5" s="458"/>
+      <c r="AD5" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="456"/>
-      <c r="AF5" s="456" t="s">
+      <c r="AE5" s="458"/>
+      <c r="AF5" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="456"/>
-      <c r="AH5" s="456" t="s">
+      <c r="AG5" s="458"/>
+      <c r="AH5" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="456"/>
-      <c r="AJ5" s="457" t="s">
+      <c r="AI5" s="458"/>
+      <c r="AJ5" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="456"/>
+      <c r="AK5" s="458"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="456"/>
-      <c r="B6" s="456"/>
-      <c r="C6" s="456"/>
-      <c r="D6" s="456"/>
-      <c r="E6" s="456" t="s">
+      <c r="A6" s="458"/>
+      <c r="B6" s="458"/>
+      <c r="C6" s="458"/>
+      <c r="D6" s="458"/>
+      <c r="E6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="456" t="s">
+      <c r="F6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="456" t="s">
+      <c r="G6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="456" t="s">
+      <c r="H6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="456" t="s">
+      <c r="I6" s="458" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="456" t="s">
+      <c r="J6" s="458" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="456" t="s">
+      <c r="K6" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="456" t="s">
+      <c r="L6" s="458" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="456"/>
-      <c r="N6" s="456"/>
-      <c r="O6" s="456"/>
-      <c r="P6" s="456"/>
-      <c r="Q6" s="456"/>
-      <c r="R6" s="456"/>
-      <c r="S6" s="456"/>
-      <c r="T6" s="456"/>
-      <c r="U6" s="456"/>
-      <c r="V6" s="456"/>
-      <c r="W6" s="457"/>
-      <c r="X6" s="457"/>
-      <c r="Y6" s="456"/>
-      <c r="Z6" s="456" t="s">
+      <c r="M6" s="458"/>
+      <c r="N6" s="458"/>
+      <c r="O6" s="458"/>
+      <c r="P6" s="458"/>
+      <c r="Q6" s="458"/>
+      <c r="R6" s="458"/>
+      <c r="S6" s="458"/>
+      <c r="T6" s="458"/>
+      <c r="U6" s="458"/>
+      <c r="V6" s="458"/>
+      <c r="W6" s="462"/>
+      <c r="X6" s="462"/>
+      <c r="Y6" s="458"/>
+      <c r="Z6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="456" t="s">
+      <c r="AA6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="456" t="s">
+      <c r="AB6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="AC6" s="456" t="s">
+      <c r="AC6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="456" t="s">
+      <c r="AD6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="456" t="s">
+      <c r="AE6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="456" t="s">
+      <c r="AF6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="456" t="s">
+      <c r="AG6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="456" t="s">
+      <c r="AH6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="456" t="s">
+      <c r="AI6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="456" t="s">
+      <c r="AJ6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="456" t="s">
+      <c r="AK6" s="458" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="456"/>
-      <c r="B7" s="456"/>
-      <c r="C7" s="456"/>
-      <c r="D7" s="456"/>
-      <c r="E7" s="456"/>
-      <c r="F7" s="456"/>
-      <c r="G7" s="456"/>
-      <c r="H7" s="456"/>
-      <c r="I7" s="456"/>
-      <c r="J7" s="456"/>
-      <c r="K7" s="456"/>
-      <c r="L7" s="456"/>
-      <c r="M7" s="456"/>
-      <c r="N7" s="456"/>
+      <c r="A7" s="458"/>
+      <c r="B7" s="458"/>
+      <c r="C7" s="458"/>
+      <c r="D7" s="458"/>
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="458"/>
+      <c r="J7" s="458"/>
+      <c r="K7" s="458"/>
+      <c r="L7" s="458"/>
+      <c r="M7" s="458"/>
+      <c r="N7" s="458"/>
       <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
@@ -41750,22 +41750,49 @@
       <c r="X7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="456"/>
-      <c r="Z7" s="456"/>
-      <c r="AA7" s="456"/>
-      <c r="AB7" s="456"/>
-      <c r="AC7" s="456"/>
-      <c r="AD7" s="456"/>
-      <c r="AE7" s="456"/>
-      <c r="AF7" s="456"/>
-      <c r="AG7" s="456"/>
-      <c r="AH7" s="456"/>
-      <c r="AI7" s="456"/>
-      <c r="AJ7" s="456"/>
-      <c r="AK7" s="456"/>
+      <c r="Y7" s="458"/>
+      <c r="Z7" s="458"/>
+      <c r="AA7" s="458"/>
+      <c r="AB7" s="458"/>
+      <c r="AC7" s="458"/>
+      <c r="AD7" s="458"/>
+      <c r="AE7" s="458"/>
+      <c r="AF7" s="458"/>
+      <c r="AG7" s="458"/>
+      <c r="AH7" s="458"/>
+      <c r="AI7" s="458"/>
+      <c r="AJ7" s="458"/>
+      <c r="AK7" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="AD4:AK4"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AJ5:AK5"/>
+    <mergeCell ref="I4:L5"/>
+    <mergeCell ref="Q4:X4"/>
+    <mergeCell ref="AH5:AI5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="O4:P6"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:AC5"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="M4:M7"/>
@@ -41782,33 +41809,6 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="O4:P6"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:AC5"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="AD4:AK4"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="AJ5:AK5"/>
-    <mergeCell ref="I4:L5"/>
-    <mergeCell ref="Q4:X4"/>
-    <mergeCell ref="AH5:AI5"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AC6:AC7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41835,32 +41835,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="30" customHeight="1">
-      <c r="A1" s="459" t="s">
+      <c r="A1" s="463" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="459"/>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
+      <c r="B1" s="463"/>
+      <c r="C1" s="463"/>
+      <c r="D1" s="463"/>
+      <c r="E1" s="463"/>
+      <c r="F1" s="463"/>
+      <c r="G1" s="463"/>
+      <c r="H1" s="463"/>
+      <c r="I1" s="463"/>
+      <c r="J1" s="463"/>
+      <c r="K1" s="463"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="455"/>
-      <c r="B2" s="455"/>
-      <c r="C2" s="455"/>
-      <c r="D2" s="455"/>
-      <c r="E2" s="455"/>
-      <c r="F2" s="455"/>
-      <c r="G2" s="455"/>
-      <c r="H2" s="455"/>
-      <c r="I2" s="455"/>
-      <c r="J2" s="455"/>
-      <c r="K2" s="455"/>
+      <c r="A2" s="460"/>
+      <c r="B2" s="460"/>
+      <c r="C2" s="460"/>
+      <c r="D2" s="460"/>
+      <c r="E2" s="460"/>
+      <c r="F2" s="460"/>
+      <c r="G2" s="460"/>
+      <c r="H2" s="460"/>
+      <c r="I2" s="460"/>
+      <c r="J2" s="460"/>
+      <c r="K2" s="460"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41868,201 +41868,201 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="456" t="s">
+      <c r="A4" s="458" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="456" t="s">
+      <c r="B4" s="458" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="456" t="s">
+      <c r="C4" s="458" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456" t="s">
+      <c r="D4" s="458"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="456"/>
-      <c r="I4" s="456"/>
-      <c r="J4" s="456"/>
-      <c r="K4" s="456" t="s">
+      <c r="H4" s="458"/>
+      <c r="I4" s="458"/>
+      <c r="J4" s="458"/>
+      <c r="K4" s="458" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="456" t="s">
+      <c r="L4" s="458" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="456"/>
-      <c r="N4" s="456" t="s">
+      <c r="M4" s="458"/>
+      <c r="N4" s="458" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="456"/>
-      <c r="P4" s="456"/>
-      <c r="Q4" s="456"/>
-      <c r="R4" s="456"/>
-      <c r="S4" s="456"/>
-      <c r="T4" s="456"/>
-      <c r="U4" s="456"/>
-      <c r="V4" s="456" t="s">
+      <c r="O4" s="458"/>
+      <c r="P4" s="458"/>
+      <c r="Q4" s="458"/>
+      <c r="R4" s="458"/>
+      <c r="S4" s="458"/>
+      <c r="T4" s="458"/>
+      <c r="U4" s="458"/>
+      <c r="V4" s="458" t="s">
         <v>83</v>
       </c>
-      <c r="W4" s="456" t="s">
+      <c r="W4" s="458" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="456"/>
-      <c r="Y4" s="456"/>
-      <c r="Z4" s="456"/>
-      <c r="AA4" s="456" t="s">
+      <c r="X4" s="458"/>
+      <c r="Y4" s="458"/>
+      <c r="Z4" s="458"/>
+      <c r="AA4" s="458" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="456"/>
-      <c r="AC4" s="456"/>
-      <c r="AD4" s="456"/>
-      <c r="AE4" s="456"/>
-      <c r="AF4" s="456"/>
-      <c r="AG4" s="456"/>
-      <c r="AH4" s="456"/>
+      <c r="AB4" s="458"/>
+      <c r="AC4" s="458"/>
+      <c r="AD4" s="458"/>
+      <c r="AE4" s="458"/>
+      <c r="AF4" s="458"/>
+      <c r="AG4" s="458"/>
+      <c r="AH4" s="458"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="456"/>
-      <c r="B5" s="456"/>
-      <c r="C5" s="456"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="456"/>
-      <c r="F5" s="456"/>
-      <c r="G5" s="456" t="s">
+      <c r="A5" s="458"/>
+      <c r="B5" s="458"/>
+      <c r="C5" s="458"/>
+      <c r="D5" s="458"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="458"/>
+      <c r="G5" s="458" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="456" t="s">
+      <c r="H5" s="458" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="456" t="s">
+      <c r="I5" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="456" t="s">
+      <c r="J5" s="458" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="456"/>
-      <c r="L5" s="456"/>
-      <c r="M5" s="456"/>
-      <c r="N5" s="456"/>
-      <c r="O5" s="456"/>
-      <c r="P5" s="456"/>
-      <c r="Q5" s="456"/>
-      <c r="R5" s="456"/>
-      <c r="S5" s="456"/>
-      <c r="T5" s="456"/>
-      <c r="U5" s="456"/>
-      <c r="V5" s="456"/>
-      <c r="W5" s="456"/>
-      <c r="X5" s="456"/>
-      <c r="Y5" s="456"/>
-      <c r="Z5" s="456"/>
-      <c r="AA5" s="456" t="s">
+      <c r="K5" s="458"/>
+      <c r="L5" s="458"/>
+      <c r="M5" s="458"/>
+      <c r="N5" s="458"/>
+      <c r="O5" s="458"/>
+      <c r="P5" s="458"/>
+      <c r="Q5" s="458"/>
+      <c r="R5" s="458"/>
+      <c r="S5" s="458"/>
+      <c r="T5" s="458"/>
+      <c r="U5" s="458"/>
+      <c r="V5" s="458"/>
+      <c r="W5" s="458"/>
+      <c r="X5" s="458"/>
+      <c r="Y5" s="458"/>
+      <c r="Z5" s="458"/>
+      <c r="AA5" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="456"/>
-      <c r="AC5" s="456" t="s">
+      <c r="AB5" s="458"/>
+      <c r="AC5" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="456"/>
-      <c r="AE5" s="456" t="s">
+      <c r="AD5" s="458"/>
+      <c r="AE5" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="456"/>
-      <c r="AG5" s="457" t="s">
+      <c r="AF5" s="458"/>
+      <c r="AG5" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="456"/>
+      <c r="AH5" s="458"/>
     </row>
     <row r="6" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="456"/>
-      <c r="B6" s="456"/>
-      <c r="C6" s="456" t="s">
+      <c r="A6" s="458"/>
+      <c r="B6" s="458"/>
+      <c r="C6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="456" t="s">
+      <c r="D6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="456" t="s">
+      <c r="E6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="456" t="s">
+      <c r="F6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="456"/>
-      <c r="H6" s="456"/>
-      <c r="I6" s="456"/>
-      <c r="J6" s="456"/>
-      <c r="K6" s="456"/>
-      <c r="L6" s="456"/>
-      <c r="M6" s="456"/>
-      <c r="N6" s="456" t="s">
+      <c r="G6" s="458"/>
+      <c r="H6" s="458"/>
+      <c r="I6" s="458"/>
+      <c r="J6" s="458"/>
+      <c r="K6" s="458"/>
+      <c r="L6" s="458"/>
+      <c r="M6" s="458"/>
+      <c r="N6" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="456"/>
-      <c r="P6" s="456" t="s">
+      <c r="O6" s="458"/>
+      <c r="P6" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="456"/>
-      <c r="R6" s="456" t="s">
+      <c r="Q6" s="458"/>
+      <c r="R6" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="456"/>
-      <c r="T6" s="457" t="s">
+      <c r="S6" s="458"/>
+      <c r="T6" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="456"/>
-      <c r="V6" s="456"/>
-      <c r="W6" s="456" t="s">
+      <c r="U6" s="458"/>
+      <c r="V6" s="458"/>
+      <c r="W6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="456" t="s">
+      <c r="X6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="456" t="s">
+      <c r="Y6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="456" t="s">
+      <c r="Z6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="456" t="s">
+      <c r="AA6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="456" t="s">
+      <c r="AB6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="456" t="s">
+      <c r="AC6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="456" t="s">
+      <c r="AD6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="456" t="s">
+      <c r="AE6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="456" t="s">
+      <c r="AF6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="456" t="s">
+      <c r="AG6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="456" t="s">
+      <c r="AH6" s="458" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="456"/>
-      <c r="B7" s="456"/>
-      <c r="C7" s="456"/>
-      <c r="D7" s="456"/>
-      <c r="E7" s="456"/>
-      <c r="F7" s="456"/>
-      <c r="G7" s="456"/>
-      <c r="H7" s="456"/>
-      <c r="I7" s="456"/>
-      <c r="J7" s="456"/>
-      <c r="K7" s="456"/>
+      <c r="A7" s="458"/>
+      <c r="B7" s="458"/>
+      <c r="C7" s="458"/>
+      <c r="D7" s="458"/>
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="458"/>
+      <c r="J7" s="458"/>
+      <c r="K7" s="458"/>
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
@@ -42093,22 +42093,46 @@
       <c r="U7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="456"/>
-      <c r="W7" s="456"/>
-      <c r="X7" s="456"/>
-      <c r="Y7" s="456"/>
-      <c r="Z7" s="456"/>
-      <c r="AA7" s="456"/>
-      <c r="AB7" s="456"/>
-      <c r="AC7" s="456"/>
-      <c r="AD7" s="456"/>
-      <c r="AE7" s="456"/>
-      <c r="AF7" s="456"/>
-      <c r="AG7" s="456"/>
-      <c r="AH7" s="456"/>
+      <c r="V7" s="458"/>
+      <c r="W7" s="458"/>
+      <c r="X7" s="458"/>
+      <c r="Y7" s="458"/>
+      <c r="Z7" s="458"/>
+      <c r="AA7" s="458"/>
+      <c r="AB7" s="458"/>
+      <c r="AC7" s="458"/>
+      <c r="AD7" s="458"/>
+      <c r="AE7" s="458"/>
+      <c r="AF7" s="458"/>
+      <c r="AG7" s="458"/>
+      <c r="AH7" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="N4:U5"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="L4:M6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="AE5:AF5"/>
@@ -42125,30 +42149,6 @@
     <mergeCell ref="W4:Z5"/>
     <mergeCell ref="AA4:AH4"/>
     <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="L4:M6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="N4:U5"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42173,238 +42173,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1">
-      <c r="A1" s="454" t="s">
+      <c r="A1" s="459" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="454"/>
-      <c r="C1" s="454"/>
-      <c r="D1" s="454"/>
-      <c r="E1" s="454"/>
-      <c r="F1" s="454"/>
-      <c r="G1" s="454"/>
-      <c r="H1" s="454"/>
-      <c r="I1" s="454"/>
-      <c r="J1" s="454"/>
-      <c r="K1" s="454"/>
-      <c r="L1" s="454"/>
-      <c r="M1" s="454"/>
-      <c r="N1" s="454"/>
-      <c r="O1" s="454"/>
+      <c r="B1" s="459"/>
+      <c r="C1" s="459"/>
+      <c r="D1" s="459"/>
+      <c r="E1" s="459"/>
+      <c r="F1" s="459"/>
+      <c r="G1" s="459"/>
+      <c r="H1" s="459"/>
+      <c r="I1" s="459"/>
+      <c r="J1" s="459"/>
+      <c r="K1" s="459"/>
+      <c r="L1" s="459"/>
+      <c r="M1" s="459"/>
+      <c r="N1" s="459"/>
+      <c r="O1" s="459"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="460"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="460"/>
-      <c r="F2" s="460"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460"/>
-      <c r="I2" s="460"/>
-      <c r="J2" s="460"/>
-      <c r="K2" s="460"/>
-      <c r="L2" s="460"/>
-      <c r="M2" s="460"/>
-      <c r="N2" s="460"/>
-      <c r="O2" s="460"/>
+      <c r="A2" s="464"/>
+      <c r="B2" s="464"/>
+      <c r="C2" s="464"/>
+      <c r="D2" s="464"/>
+      <c r="E2" s="464"/>
+      <c r="F2" s="464"/>
+      <c r="G2" s="464"/>
+      <c r="H2" s="464"/>
+      <c r="I2" s="464"/>
+      <c r="J2" s="464"/>
+      <c r="K2" s="464"/>
+      <c r="L2" s="464"/>
+      <c r="M2" s="464"/>
+      <c r="N2" s="464"/>
+      <c r="O2" s="464"/>
     </row>
     <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="W3" s="458" t="s">
+      <c r="W3" s="461" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="458"/>
-      <c r="Y3" s="458"/>
+      <c r="X3" s="461"/>
+      <c r="Y3" s="461"/>
     </row>
     <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="456" t="s">
+      <c r="A4" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="456" t="s">
+      <c r="B4" s="458" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="456" t="s">
+      <c r="C4" s="458" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="456"/>
-      <c r="E4" s="456"/>
-      <c r="F4" s="456"/>
-      <c r="G4" s="456" t="s">
+      <c r="D4" s="458"/>
+      <c r="E4" s="458"/>
+      <c r="F4" s="458"/>
+      <c r="G4" s="458" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="456"/>
-      <c r="I4" s="456"/>
-      <c r="J4" s="456"/>
-      <c r="K4" s="456" t="s">
+      <c r="H4" s="458"/>
+      <c r="I4" s="458"/>
+      <c r="J4" s="458"/>
+      <c r="K4" s="458" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="456"/>
-      <c r="M4" s="456" t="s">
+      <c r="L4" s="458"/>
+      <c r="M4" s="458" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="456"/>
-      <c r="O4" s="456"/>
-      <c r="P4" s="456"/>
-      <c r="Q4" s="456"/>
-      <c r="R4" s="456"/>
-      <c r="S4" s="456"/>
-      <c r="T4" s="456"/>
-      <c r="U4" s="456" t="s">
+      <c r="N4" s="458"/>
+      <c r="O4" s="458"/>
+      <c r="P4" s="458"/>
+      <c r="Q4" s="458"/>
+      <c r="R4" s="458"/>
+      <c r="S4" s="458"/>
+      <c r="T4" s="458"/>
+      <c r="U4" s="458" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="456" t="s">
+      <c r="V4" s="458" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="456"/>
-      <c r="X4" s="456"/>
-      <c r="Y4" s="456"/>
-      <c r="Z4" s="456" t="s">
+      <c r="W4" s="458"/>
+      <c r="X4" s="458"/>
+      <c r="Y4" s="458"/>
+      <c r="Z4" s="458" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="456"/>
-      <c r="AB4" s="456"/>
-      <c r="AC4" s="456"/>
-      <c r="AD4" s="456"/>
-      <c r="AE4" s="456"/>
-      <c r="AF4" s="456"/>
-      <c r="AG4" s="456"/>
+      <c r="AA4" s="458"/>
+      <c r="AB4" s="458"/>
+      <c r="AC4" s="458"/>
+      <c r="AD4" s="458"/>
+      <c r="AE4" s="458"/>
+      <c r="AF4" s="458"/>
+      <c r="AG4" s="458"/>
     </row>
     <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="456"/>
-      <c r="B5" s="456"/>
-      <c r="C5" s="456"/>
-      <c r="D5" s="456"/>
-      <c r="E5" s="456"/>
-      <c r="F5" s="456"/>
-      <c r="G5" s="456" t="s">
+      <c r="A5" s="458"/>
+      <c r="B5" s="458"/>
+      <c r="C5" s="458"/>
+      <c r="D5" s="458"/>
+      <c r="E5" s="458"/>
+      <c r="F5" s="458"/>
+      <c r="G5" s="458" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="456" t="s">
+      <c r="H5" s="458" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="456" t="s">
+      <c r="I5" s="458" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="456" t="s">
+      <c r="J5" s="458" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="456"/>
-      <c r="L5" s="456"/>
-      <c r="M5" s="456"/>
-      <c r="N5" s="456"/>
-      <c r="O5" s="456"/>
-      <c r="P5" s="456"/>
-      <c r="Q5" s="456"/>
-      <c r="R5" s="456"/>
-      <c r="S5" s="456"/>
-      <c r="T5" s="456"/>
-      <c r="U5" s="456"/>
-      <c r="V5" s="456"/>
-      <c r="W5" s="456"/>
-      <c r="X5" s="456"/>
-      <c r="Y5" s="456"/>
-      <c r="Z5" s="456" t="s">
+      <c r="K5" s="458"/>
+      <c r="L5" s="458"/>
+      <c r="M5" s="458"/>
+      <c r="N5" s="458"/>
+      <c r="O5" s="458"/>
+      <c r="P5" s="458"/>
+      <c r="Q5" s="458"/>
+      <c r="R5" s="458"/>
+      <c r="S5" s="458"/>
+      <c r="T5" s="458"/>
+      <c r="U5" s="458"/>
+      <c r="V5" s="458"/>
+      <c r="W5" s="458"/>
+      <c r="X5" s="458"/>
+      <c r="Y5" s="458"/>
+      <c r="Z5" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="456"/>
-      <c r="AB5" s="456" t="s">
+      <c r="AA5" s="458"/>
+      <c r="AB5" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="456"/>
-      <c r="AD5" s="456" t="s">
+      <c r="AC5" s="458"/>
+      <c r="AD5" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="456"/>
-      <c r="AF5" s="457" t="s">
+      <c r="AE5" s="458"/>
+      <c r="AF5" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="456"/>
+      <c r="AG5" s="458"/>
     </row>
     <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="456"/>
-      <c r="B6" s="456"/>
-      <c r="C6" s="456" t="s">
+      <c r="A6" s="458"/>
+      <c r="B6" s="458"/>
+      <c r="C6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="456" t="s">
+      <c r="D6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="456" t="s">
+      <c r="E6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="456" t="s">
+      <c r="F6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="456"/>
-      <c r="H6" s="456"/>
-      <c r="I6" s="456"/>
-      <c r="J6" s="456"/>
-      <c r="K6" s="456"/>
-      <c r="L6" s="456"/>
-      <c r="M6" s="456" t="s">
+      <c r="G6" s="458"/>
+      <c r="H6" s="458"/>
+      <c r="I6" s="458"/>
+      <c r="J6" s="458"/>
+      <c r="K6" s="458"/>
+      <c r="L6" s="458"/>
+      <c r="M6" s="458" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="456"/>
-      <c r="O6" s="456" t="s">
+      <c r="N6" s="458"/>
+      <c r="O6" s="458" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="456"/>
-      <c r="Q6" s="456" t="s">
+      <c r="P6" s="458"/>
+      <c r="Q6" s="458" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="456"/>
-      <c r="S6" s="457" t="s">
+      <c r="R6" s="458"/>
+      <c r="S6" s="462" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="456"/>
-      <c r="U6" s="456"/>
-      <c r="V6" s="456" t="s">
+      <c r="T6" s="458"/>
+      <c r="U6" s="458"/>
+      <c r="V6" s="458" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="456" t="s">
+      <c r="W6" s="458" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="456" t="s">
+      <c r="X6" s="458" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="456" t="s">
+      <c r="Y6" s="458" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="456" t="s">
+      <c r="Z6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="456" t="s">
+      <c r="AA6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="456" t="s">
+      <c r="AB6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="456" t="s">
+      <c r="AC6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="456" t="s">
+      <c r="AD6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="456" t="s">
+      <c r="AE6" s="458" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="456" t="s">
+      <c r="AF6" s="458" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="456" t="s">
+      <c r="AG6" s="458" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="456"/>
-      <c r="B7" s="456"/>
-      <c r="C7" s="456"/>
-      <c r="D7" s="456"/>
-      <c r="E7" s="456"/>
-      <c r="F7" s="456"/>
-      <c r="G7" s="456"/>
-      <c r="H7" s="456"/>
-      <c r="I7" s="456"/>
-      <c r="J7" s="456"/>
+      <c r="A7" s="458"/>
+      <c r="B7" s="458"/>
+      <c r="C7" s="458"/>
+      <c r="D7" s="458"/>
+      <c r="E7" s="458"/>
+      <c r="F7" s="458"/>
+      <c r="G7" s="458"/>
+      <c r="H7" s="458"/>
+      <c r="I7" s="458"/>
+      <c r="J7" s="458"/>
       <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
@@ -42435,22 +42435,46 @@
       <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="456"/>
-      <c r="V7" s="456"/>
-      <c r="W7" s="456"/>
-      <c r="X7" s="456"/>
-      <c r="Y7" s="456"/>
-      <c r="Z7" s="456"/>
-      <c r="AA7" s="456"/>
-      <c r="AB7" s="456"/>
-      <c r="AC7" s="456"/>
-      <c r="AD7" s="456"/>
-      <c r="AE7" s="456"/>
-      <c r="AF7" s="456"/>
-      <c r="AG7" s="456"/>
+      <c r="U7" s="458"/>
+      <c r="V7" s="458"/>
+      <c r="W7" s="458"/>
+      <c r="X7" s="458"/>
+      <c r="Y7" s="458"/>
+      <c r="Z7" s="458"/>
+      <c r="AA7" s="458"/>
+      <c r="AB7" s="458"/>
+      <c r="AC7" s="458"/>
+      <c r="AD7" s="458"/>
+      <c r="AE7" s="458"/>
+      <c r="AF7" s="458"/>
+      <c r="AG7" s="458"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L6"/>
+    <mergeCell ref="M4:T5"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="V6:V7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="Z4:AG4"/>
     <mergeCell ref="Z5:AA5"/>
@@ -42467,30 +42491,6 @@
     <mergeCell ref="AC6:AC7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="X6:X7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:L6"/>
-    <mergeCell ref="M4:T5"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42523,12 +42523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="465" t="s">
+      <c r="A1" s="485" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="465"/>
-      <c r="C1" s="465"/>
-      <c r="D1" s="465"/>
+      <c r="B1" s="485"/>
+      <c r="C1" s="485"/>
+      <c r="D1" s="485"/>
       <c r="E1" s="50"/>
       <c r="F1" s="6"/>
       <c r="G1" s="50"/>
@@ -42542,22 +42542,22 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="465" t="s">
+      <c r="R1" s="485" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="465"/>
-      <c r="T1" s="465"/>
-      <c r="U1" s="465"/>
-      <c r="V1" s="465"/>
-      <c r="W1" s="465"/>
+      <c r="S1" s="485"/>
+      <c r="T1" s="485"/>
+      <c r="U1" s="485"/>
+      <c r="V1" s="485"/>
+      <c r="W1" s="485"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="466" t="s">
+      <c r="A2" s="486" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="466"/>
-      <c r="C2" s="466"/>
-      <c r="D2" s="466"/>
+      <c r="B2" s="486"/>
+      <c r="C2" s="486"/>
+      <c r="D2" s="486"/>
       <c r="E2" s="51"/>
       <c r="F2" s="20"/>
       <c r="G2" s="51"/>
@@ -42571,216 +42571,216 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
-      <c r="R2" s="466" t="s">
+      <c r="R2" s="486" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="466"/>
-      <c r="T2" s="466"/>
-      <c r="U2" s="466"/>
-      <c r="V2" s="466"/>
-      <c r="W2" s="466"/>
+      <c r="S2" s="486"/>
+      <c r="T2" s="486"/>
+      <c r="U2" s="486"/>
+      <c r="V2" s="486"/>
+      <c r="W2" s="486"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
-      <c r="A3" s="467" t="s">
+      <c r="A3" s="487" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="467"/>
-      <c r="C3" s="467"/>
-      <c r="D3" s="467"/>
-      <c r="E3" s="467"/>
-      <c r="F3" s="467"/>
-      <c r="G3" s="467"/>
-      <c r="H3" s="467"/>
-      <c r="I3" s="467"/>
-      <c r="J3" s="467"/>
-      <c r="K3" s="467"/>
-      <c r="L3" s="467"/>
-      <c r="M3" s="467"/>
-      <c r="N3" s="467"/>
-      <c r="O3" s="467"/>
-      <c r="P3" s="467"/>
-      <c r="Q3" s="467"/>
-      <c r="R3" s="467"/>
-      <c r="S3" s="467"/>
-      <c r="T3" s="467"/>
-      <c r="U3" s="467"/>
-      <c r="V3" s="467"/>
-      <c r="W3" s="467"/>
+      <c r="B3" s="487"/>
+      <c r="C3" s="487"/>
+      <c r="D3" s="487"/>
+      <c r="E3" s="487"/>
+      <c r="F3" s="487"/>
+      <c r="G3" s="487"/>
+      <c r="H3" s="487"/>
+      <c r="I3" s="487"/>
+      <c r="J3" s="487"/>
+      <c r="K3" s="487"/>
+      <c r="L3" s="487"/>
+      <c r="M3" s="487"/>
+      <c r="N3" s="487"/>
+      <c r="O3" s="487"/>
+      <c r="P3" s="487"/>
+      <c r="Q3" s="487"/>
+      <c r="R3" s="487"/>
+      <c r="S3" s="487"/>
+      <c r="T3" s="487"/>
+      <c r="U3" s="487"/>
+      <c r="V3" s="487"/>
+      <c r="W3" s="487"/>
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="468"/>
-      <c r="B4" s="468"/>
-      <c r="C4" s="468"/>
-      <c r="D4" s="468"/>
-      <c r="E4" s="468"/>
-      <c r="F4" s="468"/>
-      <c r="G4" s="468"/>
-      <c r="H4" s="468"/>
-      <c r="I4" s="468"/>
-      <c r="J4" s="468"/>
-      <c r="K4" s="468"/>
-      <c r="L4" s="468"/>
-      <c r="M4" s="468"/>
-      <c r="N4" s="468"/>
-      <c r="O4" s="468"/>
-      <c r="P4" s="468"/>
-      <c r="Q4" s="468"/>
-      <c r="R4" s="468"/>
-      <c r="S4" s="468"/>
-      <c r="T4" s="468"/>
-      <c r="U4" s="468"/>
-      <c r="V4" s="468"/>
-      <c r="W4" s="468"/>
+      <c r="A4" s="488"/>
+      <c r="B4" s="488"/>
+      <c r="C4" s="488"/>
+      <c r="D4" s="488"/>
+      <c r="E4" s="488"/>
+      <c r="F4" s="488"/>
+      <c r="G4" s="488"/>
+      <c r="H4" s="488"/>
+      <c r="I4" s="488"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="488"/>
+      <c r="L4" s="488"/>
+      <c r="M4" s="488"/>
+      <c r="N4" s="488"/>
+      <c r="O4" s="488"/>
+      <c r="P4" s="488"/>
+      <c r="Q4" s="488"/>
+      <c r="R4" s="488"/>
+      <c r="S4" s="488"/>
+      <c r="T4" s="488"/>
+      <c r="U4" s="488"/>
+      <c r="V4" s="488"/>
+      <c r="W4" s="488"/>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="469"/>
-      <c r="B5" s="469"/>
-      <c r="C5" s="469"/>
-      <c r="D5" s="469"/>
-      <c r="E5" s="469"/>
-      <c r="F5" s="469"/>
-      <c r="G5" s="469"/>
-      <c r="H5" s="469"/>
-      <c r="I5" s="469"/>
-      <c r="J5" s="469"/>
-      <c r="K5" s="469"/>
-      <c r="L5" s="469"/>
-      <c r="M5" s="469"/>
-      <c r="N5" s="469"/>
-      <c r="O5" s="469"/>
-      <c r="P5" s="469"/>
-      <c r="Q5" s="469"/>
-      <c r="R5" s="469"/>
-      <c r="S5" s="469"/>
-      <c r="T5" s="469"/>
-      <c r="U5" s="469"/>
-      <c r="V5" s="469"/>
-      <c r="W5" s="469"/>
+      <c r="A5" s="489"/>
+      <c r="B5" s="489"/>
+      <c r="C5" s="489"/>
+      <c r="D5" s="489"/>
+      <c r="E5" s="489"/>
+      <c r="F5" s="489"/>
+      <c r="G5" s="489"/>
+      <c r="H5" s="489"/>
+      <c r="I5" s="489"/>
+      <c r="J5" s="489"/>
+      <c r="K5" s="489"/>
+      <c r="L5" s="489"/>
+      <c r="M5" s="489"/>
+      <c r="N5" s="489"/>
+      <c r="O5" s="489"/>
+      <c r="P5" s="489"/>
+      <c r="Q5" s="489"/>
+      <c r="R5" s="489"/>
+      <c r="S5" s="489"/>
+      <c r="T5" s="489"/>
+      <c r="U5" s="489"/>
+      <c r="V5" s="489"/>
+      <c r="W5" s="489"/>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="485" t="s">
+      <c r="A6" s="473" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="485" t="s">
+      <c r="B6" s="473" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="485" t="s">
+      <c r="C6" s="473" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="485" t="s">
+      <c r="D6" s="473" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="472" t="s">
+      <c r="E6" s="476" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="472" t="s">
+      <c r="F6" s="476" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="472" t="s">
+      <c r="G6" s="476" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="472" t="s">
+      <c r="H6" s="476" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="472" t="s">
+      <c r="I6" s="476" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="461" t="s">
+      <c r="J6" s="465" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="462"/>
-      <c r="L6" s="461" t="s">
+      <c r="K6" s="466"/>
+      <c r="L6" s="465" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="470"/>
-      <c r="N6" s="470"/>
-      <c r="O6" s="462"/>
-      <c r="P6" s="461" t="s">
+      <c r="M6" s="490"/>
+      <c r="N6" s="490"/>
+      <c r="O6" s="466"/>
+      <c r="P6" s="465" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="462"/>
-      <c r="R6" s="461" t="s">
+      <c r="Q6" s="466"/>
+      <c r="R6" s="465" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="462"/>
-      <c r="T6" s="461" t="s">
+      <c r="S6" s="466"/>
+      <c r="T6" s="465" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="462"/>
-      <c r="V6" s="461" t="s">
+      <c r="U6" s="466"/>
+      <c r="V6" s="465" t="s">
         <v>75</v>
       </c>
-      <c r="W6" s="462"/>
+      <c r="W6" s="466"/>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="486"/>
-      <c r="B7" s="486"/>
-      <c r="C7" s="486"/>
-      <c r="D7" s="486"/>
-      <c r="E7" s="473"/>
-      <c r="F7" s="473"/>
-      <c r="G7" s="473"/>
-      <c r="H7" s="473"/>
-      <c r="I7" s="473"/>
-      <c r="J7" s="463"/>
-      <c r="K7" s="464"/>
-      <c r="L7" s="463"/>
-      <c r="M7" s="471"/>
-      <c r="N7" s="471"/>
-      <c r="O7" s="464"/>
-      <c r="P7" s="463"/>
-      <c r="Q7" s="464"/>
-      <c r="R7" s="463"/>
-      <c r="S7" s="464"/>
-      <c r="T7" s="463"/>
-      <c r="U7" s="464"/>
-      <c r="V7" s="463"/>
-      <c r="W7" s="464"/>
+      <c r="A7" s="474"/>
+      <c r="B7" s="474"/>
+      <c r="C7" s="474"/>
+      <c r="D7" s="474"/>
+      <c r="E7" s="477"/>
+      <c r="F7" s="477"/>
+      <c r="G7" s="477"/>
+      <c r="H7" s="477"/>
+      <c r="I7" s="477"/>
+      <c r="J7" s="467"/>
+      <c r="K7" s="468"/>
+      <c r="L7" s="467"/>
+      <c r="M7" s="491"/>
+      <c r="N7" s="491"/>
+      <c r="O7" s="468"/>
+      <c r="P7" s="467"/>
+      <c r="Q7" s="468"/>
+      <c r="R7" s="467"/>
+      <c r="S7" s="468"/>
+      <c r="T7" s="467"/>
+      <c r="U7" s="468"/>
+      <c r="V7" s="467"/>
+      <c r="W7" s="468"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="486"/>
-      <c r="B8" s="486"/>
-      <c r="C8" s="486"/>
-      <c r="D8" s="486"/>
-      <c r="E8" s="473"/>
-      <c r="F8" s="473"/>
-      <c r="G8" s="473"/>
-      <c r="H8" s="473"/>
-      <c r="I8" s="473"/>
-      <c r="J8" s="479" t="s">
+      <c r="A8" s="474"/>
+      <c r="B8" s="474"/>
+      <c r="C8" s="474"/>
+      <c r="D8" s="474"/>
+      <c r="E8" s="477"/>
+      <c r="F8" s="477"/>
+      <c r="G8" s="477"/>
+      <c r="H8" s="477"/>
+      <c r="I8" s="477"/>
+      <c r="J8" s="469" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="477" t="s">
+      <c r="K8" s="479" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="475" t="s">
+      <c r="L8" s="471" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="475" t="s">
+      <c r="M8" s="471" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="475" t="s">
+      <c r="N8" s="471" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="475" t="s">
+      <c r="O8" s="471" t="s">
         <v>172</v>
       </c>
-      <c r="P8" s="479" t="s">
+      <c r="P8" s="469" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="479" t="s">
+      <c r="Q8" s="469" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="479" t="s">
+      <c r="R8" s="469" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="479" t="s">
+      <c r="S8" s="469" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="479" t="s">
+      <c r="T8" s="469" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="479" t="s">
+      <c r="U8" s="469" t="s">
         <v>34</v>
       </c>
       <c r="V8" s="483" t="s">
@@ -42791,27 +42791,27 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="487"/>
-      <c r="B9" s="487"/>
-      <c r="C9" s="487"/>
-      <c r="D9" s="487"/>
-      <c r="E9" s="474"/>
-      <c r="F9" s="474"/>
-      <c r="G9" s="474"/>
-      <c r="H9" s="474"/>
-      <c r="I9" s="474"/>
-      <c r="J9" s="480"/>
-      <c r="K9" s="478"/>
-      <c r="L9" s="476"/>
-      <c r="M9" s="476"/>
-      <c r="N9" s="476"/>
-      <c r="O9" s="476"/>
-      <c r="P9" s="480"/>
-      <c r="Q9" s="480"/>
-      <c r="R9" s="480"/>
-      <c r="S9" s="480"/>
-      <c r="T9" s="480"/>
-      <c r="U9" s="480"/>
+      <c r="A9" s="475"/>
+      <c r="B9" s="475"/>
+      <c r="C9" s="475"/>
+      <c r="D9" s="475"/>
+      <c r="E9" s="478"/>
+      <c r="F9" s="478"/>
+      <c r="G9" s="478"/>
+      <c r="H9" s="478"/>
+      <c r="I9" s="478"/>
+      <c r="J9" s="470"/>
+      <c r="K9" s="480"/>
+      <c r="L9" s="472"/>
+      <c r="M9" s="472"/>
+      <c r="N9" s="472"/>
+      <c r="O9" s="472"/>
+      <c r="P9" s="470"/>
+      <c r="Q9" s="470"/>
+      <c r="R9" s="470"/>
+      <c r="S9" s="470"/>
+      <c r="T9" s="470"/>
+      <c r="U9" s="470"/>
       <c r="V9" s="484"/>
       <c r="W9" s="482"/>
     </row>
@@ -43042,26 +43042,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="V6:W7"/>
     <mergeCell ref="T6:U7"/>
     <mergeCell ref="A1:D1"/>
@@ -43078,6 +43058,26 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43113,40 +43113,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="460" t="s">
+      <c r="A1" s="464" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="460"/>
-      <c r="C1" s="460"/>
-      <c r="D1" s="460"/>
-      <c r="E1" s="460"/>
-      <c r="F1" s="460"/>
-      <c r="G1" s="460"/>
-      <c r="H1" s="460"/>
-      <c r="I1" s="460"/>
-      <c r="J1" s="460"/>
-      <c r="K1" s="460"/>
-      <c r="L1" s="460"/>
-      <c r="M1" s="460"/>
-      <c r="N1" s="460"/>
+      <c r="B1" s="464"/>
+      <c r="C1" s="464"/>
+      <c r="D1" s="464"/>
+      <c r="E1" s="464"/>
+      <c r="F1" s="464"/>
+      <c r="G1" s="464"/>
+      <c r="H1" s="464"/>
+      <c r="I1" s="464"/>
+      <c r="J1" s="464"/>
+      <c r="K1" s="464"/>
+      <c r="L1" s="464"/>
+      <c r="M1" s="464"/>
+      <c r="N1" s="464"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="491" t="s">
+      <c r="A2" s="497" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="491"/>
-      <c r="F2" s="491"/>
-      <c r="G2" s="491"/>
-      <c r="H2" s="491"/>
-      <c r="I2" s="491"/>
-      <c r="J2" s="491"/>
-      <c r="K2" s="491"/>
-      <c r="L2" s="491"/>
-      <c r="M2" s="491"/>
-      <c r="N2" s="491"/>
+      <c r="B2" s="497"/>
+      <c r="C2" s="497"/>
+      <c r="D2" s="497"/>
+      <c r="E2" s="497"/>
+      <c r="F2" s="497"/>
+      <c r="G2" s="497"/>
+      <c r="H2" s="497"/>
+      <c r="I2" s="497"/>
+      <c r="J2" s="497"/>
+      <c r="K2" s="497"/>
+      <c r="L2" s="497"/>
+      <c r="M2" s="497"/>
+      <c r="N2" s="497"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8"/>
@@ -43165,54 +43165,54 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="492" t="s">
+      <c r="A4" s="498" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="492"/>
-      <c r="C4" s="492"/>
-      <c r="D4" s="492"/>
-      <c r="E4" s="492"/>
-      <c r="F4" s="492"/>
-      <c r="G4" s="492"/>
-      <c r="H4" s="492"/>
-      <c r="I4" s="492"/>
-      <c r="J4" s="492"/>
-      <c r="K4" s="492"/>
-      <c r="L4" s="492"/>
-      <c r="M4" s="492"/>
-      <c r="N4" s="492"/>
+      <c r="B4" s="498"/>
+      <c r="C4" s="498"/>
+      <c r="D4" s="498"/>
+      <c r="E4" s="498"/>
+      <c r="F4" s="498"/>
+      <c r="G4" s="498"/>
+      <c r="H4" s="498"/>
+      <c r="I4" s="498"/>
+      <c r="J4" s="498"/>
+      <c r="K4" s="498"/>
+      <c r="L4" s="498"/>
+      <c r="M4" s="498"/>
+      <c r="N4" s="498"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="493"/>
-      <c r="B5" s="493"/>
-      <c r="C5" s="493"/>
-      <c r="D5" s="493"/>
-      <c r="E5" s="493"/>
-      <c r="F5" s="493"/>
-      <c r="G5" s="493"/>
-      <c r="H5" s="493"/>
-      <c r="I5" s="493"/>
-      <c r="J5" s="493"/>
-      <c r="K5" s="493"/>
-      <c r="L5" s="493"/>
-      <c r="M5" s="493"/>
-      <c r="N5" s="493"/>
+      <c r="A5" s="499"/>
+      <c r="B5" s="499"/>
+      <c r="C5" s="499"/>
+      <c r="D5" s="499"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="499"/>
+      <c r="I5" s="499"/>
+      <c r="J5" s="499"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="499"/>
+      <c r="M5" s="499"/>
+      <c r="N5" s="499"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="493"/>
-      <c r="B6" s="493"/>
-      <c r="C6" s="493"/>
-      <c r="D6" s="493"/>
-      <c r="E6" s="493"/>
-      <c r="F6" s="493"/>
-      <c r="G6" s="493"/>
-      <c r="H6" s="493"/>
-      <c r="I6" s="493"/>
-      <c r="J6" s="493"/>
-      <c r="K6" s="493"/>
-      <c r="L6" s="493"/>
-      <c r="M6" s="493"/>
-      <c r="N6" s="493"/>
+      <c r="A6" s="499"/>
+      <c r="B6" s="499"/>
+      <c r="C6" s="499"/>
+      <c r="D6" s="499"/>
+      <c r="E6" s="499"/>
+      <c r="F6" s="499"/>
+      <c r="G6" s="499"/>
+      <c r="H6" s="499"/>
+      <c r="I6" s="499"/>
+      <c r="J6" s="499"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="499"/>
+      <c r="M6" s="499"/>
+      <c r="N6" s="499"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="28"/>
@@ -43228,117 +43228,105 @@
       <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="456" t="s">
+      <c r="A8" s="458" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="456" t="s">
+      <c r="B8" s="458" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="494" t="s">
+      <c r="C8" s="492" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="456" t="s">
+      <c r="D8" s="458" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="488" t="s">
+      <c r="E8" s="495" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="488"/>
-      <c r="G8" s="488" t="s">
+      <c r="F8" s="495"/>
+      <c r="G8" s="495" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="488"/>
-      <c r="I8" s="488"/>
-      <c r="J8" s="488"/>
-      <c r="K8" s="488" t="s">
+      <c r="H8" s="495"/>
+      <c r="I8" s="495"/>
+      <c r="J8" s="495"/>
+      <c r="K8" s="495" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="488" t="s">
+      <c r="L8" s="495" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="489" t="s">
+      <c r="M8" s="500" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="489"/>
+      <c r="N8" s="500"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="456"/>
-      <c r="B9" s="456"/>
-      <c r="C9" s="495"/>
-      <c r="D9" s="456"/>
-      <c r="E9" s="488"/>
-      <c r="F9" s="488"/>
-      <c r="G9" s="488"/>
-      <c r="H9" s="488"/>
-      <c r="I9" s="488"/>
-      <c r="J9" s="488"/>
-      <c r="K9" s="488"/>
-      <c r="L9" s="488"/>
-      <c r="M9" s="489"/>
-      <c r="N9" s="489"/>
+      <c r="A9" s="458"/>
+      <c r="B9" s="458"/>
+      <c r="C9" s="493"/>
+      <c r="D9" s="458"/>
+      <c r="E9" s="495"/>
+      <c r="F9" s="495"/>
+      <c r="G9" s="495"/>
+      <c r="H9" s="495"/>
+      <c r="I9" s="495"/>
+      <c r="J9" s="495"/>
+      <c r="K9" s="495"/>
+      <c r="L9" s="495"/>
+      <c r="M9" s="500"/>
+      <c r="N9" s="500"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="456"/>
-      <c r="B10" s="456"/>
-      <c r="C10" s="495"/>
-      <c r="D10" s="456"/>
-      <c r="E10" s="497" t="s">
+      <c r="A10" s="458"/>
+      <c r="B10" s="458"/>
+      <c r="C10" s="493"/>
+      <c r="D10" s="458"/>
+      <c r="E10" s="496" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="497" t="s">
+      <c r="F10" s="496" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="488" t="s">
+      <c r="G10" s="495" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="488" t="s">
+      <c r="H10" s="495" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="488" t="s">
+      <c r="I10" s="495" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="488" t="s">
+      <c r="J10" s="495" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="488"/>
-      <c r="L10" s="488"/>
-      <c r="M10" s="490" t="s">
+      <c r="K10" s="495"/>
+      <c r="L10" s="495"/>
+      <c r="M10" s="501" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="490" t="s">
+      <c r="N10" s="501" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="456"/>
-      <c r="B11" s="456"/>
-      <c r="C11" s="496"/>
-      <c r="D11" s="456"/>
-      <c r="E11" s="497"/>
-      <c r="F11" s="497"/>
-      <c r="G11" s="488"/>
-      <c r="H11" s="488"/>
-      <c r="I11" s="488"/>
-      <c r="J11" s="488"/>
-      <c r="K11" s="488"/>
-      <c r="L11" s="488"/>
-      <c r="M11" s="490"/>
-      <c r="N11" s="490"/>
+      <c r="A11" s="458"/>
+      <c r="B11" s="458"/>
+      <c r="C11" s="494"/>
+      <c r="D11" s="458"/>
+      <c r="E11" s="496"/>
+      <c r="F11" s="496"/>
+      <c r="G11" s="495"/>
+      <c r="H11" s="495"/>
+      <c r="I11" s="495"/>
+      <c r="J11" s="495"/>
+      <c r="K11" s="495"/>
+      <c r="L11" s="495"/>
+      <c r="M11" s="501"/>
+      <c r="N11" s="501"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -43349,6 +43337,18 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43378,50 +43378,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="76" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="498" t="s">
+      <c r="A1" s="502" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="498"/>
-      <c r="F1" s="498"/>
-      <c r="G1" s="498"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
       <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="76" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="499" t="s">
+      <c r="A2" s="503" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="499"/>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
-      <c r="E2" s="499"/>
-      <c r="F2" s="499"/>
-      <c r="G2" s="499"/>
+      <c r="B2" s="503"/>
+      <c r="C2" s="503"/>
+      <c r="D2" s="503"/>
+      <c r="E2" s="503"/>
+      <c r="F2" s="503"/>
+      <c r="G2" s="503"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" s="76" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="500"/>
-      <c r="B3" s="500"/>
-      <c r="C3" s="500"/>
-      <c r="D3" s="500"/>
-      <c r="E3" s="500"/>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
+      <c r="A3" s="504"/>
+      <c r="B3" s="504"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="504"/>
+      <c r="F3" s="504"/>
+      <c r="G3" s="504"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:9" s="70" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="501" t="s">
+      <c r="A4" s="505" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="501"/>
-      <c r="C4" s="501"/>
-      <c r="D4" s="501"/>
-      <c r="E4" s="501"/>
-      <c r="F4" s="501"/>
-      <c r="G4" s="501"/>
+      <c r="B4" s="505"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="505"/>
+      <c r="G4" s="505"/>
       <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:9" s="70" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -43432,24 +43432,24 @@
       <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:9" s="41" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="503" t="s">
+      <c r="A6" s="507" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="503" t="s">
+      <c r="B6" s="507" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="502" t="s">
+      <c r="C6" s="506" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="502"/>
-      <c r="E6" s="502"/>
-      <c r="F6" s="502"/>
-      <c r="G6" s="502"/>
+      <c r="D6" s="506"/>
+      <c r="E6" s="506"/>
+      <c r="F6" s="506"/>
+      <c r="G6" s="506"/>
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:9" s="70" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="503"/>
-      <c r="B7" s="503"/>
+      <c r="A7" s="507"/>
+      <c r="B7" s="507"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -43468,8 +43468,8 @@
       <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="503"/>
-      <c r="B8" s="503"/>
+      <c r="A8" s="507"/>
+      <c r="B8" s="507"/>
       <c r="C8" s="77" t="s">
         <v>40</v>
       </c>
@@ -43522,66 +43522,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="498" t="s">
+      <c r="A1" s="502" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="498"/>
-      <c r="F1" s="498"/>
-      <c r="G1" s="498"/>
+      <c r="B1" s="502"/>
+      <c r="C1" s="502"/>
+      <c r="D1" s="502"/>
+      <c r="E1" s="502"/>
+      <c r="F1" s="502"/>
+      <c r="G1" s="502"/>
     </row>
     <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="499" t="s">
+      <c r="A2" s="503" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="499"/>
-      <c r="C2" s="499"/>
-      <c r="D2" s="499"/>
-      <c r="E2" s="499"/>
-      <c r="F2" s="499"/>
-      <c r="G2" s="499"/>
+      <c r="B2" s="503"/>
+      <c r="C2" s="503"/>
+      <c r="D2" s="503"/>
+      <c r="E2" s="503"/>
+      <c r="F2" s="503"/>
+      <c r="G2" s="503"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="500"/>
-      <c r="B3" s="500"/>
-      <c r="C3" s="500"/>
-      <c r="D3" s="500"/>
-      <c r="E3" s="500"/>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
+      <c r="A3" s="504"/>
+      <c r="B3" s="504"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="504"/>
+      <c r="F3" s="504"/>
+      <c r="G3" s="504"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="504" t="s">
+      <c r="A4" s="508" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="504"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="504"/>
-      <c r="F4" s="504"/>
-      <c r="G4" s="504"/>
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="508"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="505" t="s">
+      <c r="A5" s="509" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="505" t="s">
+      <c r="B5" s="509" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="506" t="s">
+      <c r="C5" s="510" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="506"/>
-      <c r="E5" s="506"/>
-      <c r="F5" s="506"/>
-      <c r="G5" s="506"/>
+      <c r="D5" s="510"/>
+      <c r="E5" s="510"/>
+      <c r="F5" s="510"/>
+      <c r="G5" s="510"/>
       <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="505"/>
-      <c r="B6" s="505"/>
+      <c r="A6" s="509"/>
+      <c r="B6" s="509"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -43599,8 +43599,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="505"/>
-      <c r="B7" s="505"/>
+      <c r="A7" s="509"/>
+      <c r="B7" s="509"/>
       <c r="C7" s="30" t="s">
         <v>40</v>
       </c>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E4AFC2-F25F-4F81-8802-665A8684EA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A0DEF-6B59-46CC-B4C1-0DF1E3D306E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28050" windowHeight="16440" tabRatio="802" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" tabRatio="802" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="231">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t>GIÁ BÁN CHO PTS</t>
+  </si>
+  <si>
+    <t>LẬP BIỂU</t>
   </si>
 </sst>
 </file>
@@ -2979,6 +2982,629 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="159" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="37" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="41" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="38" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="34" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="36" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="212" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="9" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="5" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="11" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="12" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="6" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="8" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="7" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="21" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="21" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3024,662 +3650,83 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="34" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="36" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="2" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="21" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="21" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="9" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="5" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="11" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="12" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="6" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="8" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="7" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="37" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="41" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="38" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="212" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3689,10 +3736,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3704,54 +3757,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3761,29 +3782,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4427,7 +4430,7 @@
   <dimension ref="A2:AH200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="30" customHeight="1"/>
@@ -4459,350 +4462,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="30" customHeight="1">
-      <c r="G2" s="420"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
-      <c r="M2" s="422"/>
-      <c r="R2" s="445" t="s">
+      <c r="G2" s="317"/>
+      <c r="H2" s="318"/>
+      <c r="I2" s="318"/>
+      <c r="J2" s="318"/>
+      <c r="K2" s="318"/>
+      <c r="L2" s="318"/>
+      <c r="M2" s="319"/>
+      <c r="R2" s="268" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="446"/>
-      <c r="T2" s="446"/>
-      <c r="U2" s="446"/>
-      <c r="V2" s="446"/>
-      <c r="W2" s="446"/>
-      <c r="X2" s="446"/>
-      <c r="Y2" s="446"/>
-      <c r="Z2" s="447"/>
+      <c r="S2" s="269"/>
+      <c r="T2" s="269"/>
+      <c r="U2" s="269"/>
+      <c r="V2" s="269"/>
+      <c r="W2" s="269"/>
+      <c r="X2" s="269"/>
+      <c r="Y2" s="269"/>
+      <c r="Z2" s="270"/>
     </row>
     <row r="3" spans="2:26" ht="30" customHeight="1">
-      <c r="B3" s="396" t="s">
+      <c r="B3" s="293" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="396"/>
-      <c r="D3" s="396"/>
-      <c r="E3" s="396"/>
-      <c r="G3" s="423"/>
-      <c r="H3" s="424"/>
-      <c r="I3" s="424"/>
-      <c r="J3" s="424"/>
-      <c r="K3" s="424"/>
-      <c r="L3" s="424"/>
-      <c r="M3" s="425"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="G3" s="320"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="321"/>
+      <c r="J3" s="321"/>
+      <c r="K3" s="321"/>
+      <c r="L3" s="321"/>
+      <c r="M3" s="322"/>
       <c r="R3" s="260"/>
-      <c r="S3" s="451"/>
-      <c r="T3" s="451"/>
-      <c r="U3" s="451"/>
-      <c r="V3" s="451"/>
-      <c r="W3" s="451"/>
-      <c r="X3" s="451"/>
-      <c r="Y3" s="451"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
       <c r="Z3" s="261"/>
     </row>
     <row r="4" spans="2:26" ht="42" customHeight="1">
-      <c r="B4" s="396"/>
-      <c r="C4" s="396"/>
-      <c r="D4" s="396"/>
-      <c r="E4" s="396"/>
-      <c r="G4" s="403" t="s">
+      <c r="B4" s="293"/>
+      <c r="C4" s="293"/>
+      <c r="D4" s="293"/>
+      <c r="E4" s="293"/>
+      <c r="G4" s="300" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="404"/>
-      <c r="I4" s="426" t="s">
+      <c r="H4" s="301"/>
+      <c r="I4" s="323" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="427"/>
-      <c r="K4" s="427"/>
-      <c r="L4" s="427"/>
-      <c r="M4" s="428"/>
-      <c r="R4" s="448" t="s">
+      <c r="J4" s="324"/>
+      <c r="K4" s="324"/>
+      <c r="L4" s="324"/>
+      <c r="M4" s="325"/>
+      <c r="R4" s="271" t="s">
         <v>176</v>
       </c>
-      <c r="S4" s="449"/>
-      <c r="T4" s="449"/>
-      <c r="U4" s="449"/>
-      <c r="V4" s="449"/>
-      <c r="W4" s="449"/>
-      <c r="X4" s="449"/>
-      <c r="Y4" s="449"/>
-      <c r="Z4" s="450"/>
+      <c r="S4" s="272"/>
+      <c r="T4" s="272"/>
+      <c r="U4" s="272"/>
+      <c r="V4" s="272"/>
+      <c r="W4" s="272"/>
+      <c r="X4" s="272"/>
+      <c r="Y4" s="272"/>
+      <c r="Z4" s="273"/>
     </row>
     <row r="5" spans="2:26" ht="63" customHeight="1">
       <c r="B5" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="396" t="s">
+      <c r="C5" s="293" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="396"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="238" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="405"/>
-      <c r="H5" s="406"/>
-      <c r="I5" s="407" t="s">
+      <c r="G5" s="302"/>
+      <c r="H5" s="303"/>
+      <c r="I5" s="304" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="408"/>
-      <c r="K5" s="417" t="s">
+      <c r="J5" s="305"/>
+      <c r="K5" s="314" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="418"/>
-      <c r="M5" s="419"/>
+      <c r="L5" s="315"/>
+      <c r="M5" s="316"/>
       <c r="R5" s="257" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="429" t="s">
+      <c r="S5" s="274" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="430"/>
-      <c r="U5" s="429" t="s">
+      <c r="T5" s="275"/>
+      <c r="U5" s="274" t="s">
         <v>182</v>
       </c>
-      <c r="V5" s="430"/>
-      <c r="W5" s="429" t="s">
+      <c r="V5" s="275"/>
+      <c r="W5" s="274" t="s">
         <v>183</v>
       </c>
-      <c r="X5" s="430"/>
-      <c r="Y5" s="429" t="s">
+      <c r="X5" s="275"/>
+      <c r="Y5" s="274" t="s">
         <v>184</v>
       </c>
-      <c r="Z5" s="430"/>
+      <c r="Z5" s="275"/>
     </row>
     <row r="6" spans="2:26" ht="30" customHeight="1">
       <c r="B6" s="239"/>
-      <c r="C6" s="443"/>
-      <c r="D6" s="443"/>
+      <c r="C6" s="328"/>
+      <c r="D6" s="328"/>
       <c r="E6" s="239"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="409"/>
-      <c r="J6" s="410"/>
-      <c r="K6" s="411"/>
-      <c r="L6" s="412"/>
-      <c r="M6" s="413"/>
+      <c r="G6" s="326"/>
+      <c r="H6" s="327"/>
+      <c r="I6" s="306"/>
+      <c r="J6" s="307"/>
+      <c r="K6" s="308"/>
+      <c r="L6" s="309"/>
+      <c r="M6" s="310"/>
       <c r="R6" s="258" t="s">
         <v>144</v>
       </c>
-      <c r="S6" s="431"/>
-      <c r="T6" s="432"/>
-      <c r="U6" s="432"/>
-      <c r="V6" s="432"/>
-      <c r="W6" s="432"/>
-      <c r="X6" s="432"/>
-      <c r="Y6" s="432"/>
-      <c r="Z6" s="433"/>
+      <c r="S6" s="279"/>
+      <c r="T6" s="280"/>
+      <c r="U6" s="280"/>
+      <c r="V6" s="280"/>
+      <c r="W6" s="280"/>
+      <c r="X6" s="280"/>
+      <c r="Y6" s="280"/>
+      <c r="Z6" s="281"/>
     </row>
     <row r="7" spans="2:26" ht="30" customHeight="1">
       <c r="B7" s="239"/>
-      <c r="C7" s="443"/>
-      <c r="D7" s="443"/>
+      <c r="C7" s="328"/>
+      <c r="D7" s="328"/>
       <c r="E7" s="239"/>
-      <c r="G7" s="280"/>
-      <c r="H7" s="281"/>
-      <c r="I7" s="409"/>
-      <c r="J7" s="410"/>
-      <c r="K7" s="411"/>
-      <c r="L7" s="412"/>
-      <c r="M7" s="413"/>
+      <c r="G7" s="326"/>
+      <c r="H7" s="327"/>
+      <c r="I7" s="306"/>
+      <c r="J7" s="307"/>
+      <c r="K7" s="308"/>
+      <c r="L7" s="309"/>
+      <c r="M7" s="310"/>
       <c r="R7" s="245">
         <v>1</v>
       </c>
-      <c r="S7" s="300"/>
-      <c r="T7" s="301"/>
-      <c r="U7" s="278"/>
-      <c r="V7" s="279"/>
-      <c r="W7" s="278"/>
-      <c r="X7" s="279"/>
-      <c r="Y7" s="278"/>
-      <c r="Z7" s="279"/>
+      <c r="S7" s="282"/>
+      <c r="T7" s="283"/>
+      <c r="U7" s="276"/>
+      <c r="V7" s="277"/>
+      <c r="W7" s="276"/>
+      <c r="X7" s="277"/>
+      <c r="Y7" s="276"/>
+      <c r="Z7" s="277"/>
     </row>
     <row r="8" spans="2:26" ht="30" customHeight="1">
       <c r="B8" s="239"/>
-      <c r="C8" s="443"/>
-      <c r="D8" s="443"/>
+      <c r="C8" s="328"/>
+      <c r="D8" s="328"/>
       <c r="E8" s="239"/>
-      <c r="G8" s="280"/>
-      <c r="H8" s="281"/>
-      <c r="I8" s="409"/>
-      <c r="J8" s="410"/>
-      <c r="K8" s="411"/>
-      <c r="L8" s="412"/>
-      <c r="M8" s="413"/>
+      <c r="G8" s="326"/>
+      <c r="H8" s="327"/>
+      <c r="I8" s="306"/>
+      <c r="J8" s="307"/>
+      <c r="K8" s="308"/>
+      <c r="L8" s="309"/>
+      <c r="M8" s="310"/>
       <c r="R8" s="245">
         <v>2</v>
       </c>
-      <c r="S8" s="300"/>
-      <c r="T8" s="301"/>
-      <c r="U8" s="278"/>
-      <c r="V8" s="279"/>
-      <c r="W8" s="278"/>
-      <c r="X8" s="279"/>
-      <c r="Y8" s="278"/>
-      <c r="Z8" s="279"/>
+      <c r="S8" s="282"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="276"/>
+      <c r="V8" s="277"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="277"/>
+      <c r="Y8" s="276"/>
+      <c r="Z8" s="277"/>
     </row>
     <row r="9" spans="2:26" ht="30" customHeight="1">
       <c r="B9" s="239"/>
-      <c r="C9" s="443"/>
-      <c r="D9" s="443"/>
+      <c r="C9" s="328"/>
+      <c r="D9" s="328"/>
       <c r="E9" s="239"/>
-      <c r="G9" s="280"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="409"/>
-      <c r="J9" s="410"/>
-      <c r="K9" s="411"/>
-      <c r="L9" s="412"/>
-      <c r="M9" s="413"/>
+      <c r="G9" s="326"/>
+      <c r="H9" s="327"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="307"/>
+      <c r="K9" s="308"/>
+      <c r="L9" s="309"/>
+      <c r="M9" s="310"/>
       <c r="R9" s="245">
         <v>3</v>
       </c>
-      <c r="S9" s="300"/>
-      <c r="T9" s="301"/>
-      <c r="U9" s="278"/>
-      <c r="V9" s="279"/>
-      <c r="W9" s="278"/>
-      <c r="X9" s="279"/>
-      <c r="Y9" s="278"/>
-      <c r="Z9" s="279"/>
+      <c r="S9" s="282"/>
+      <c r="T9" s="283"/>
+      <c r="U9" s="276"/>
+      <c r="V9" s="277"/>
+      <c r="W9" s="276"/>
+      <c r="X9" s="277"/>
+      <c r="Y9" s="276"/>
+      <c r="Z9" s="277"/>
     </row>
     <row r="10" spans="2:26" ht="30" customHeight="1">
-      <c r="G10" s="397" t="s">
+      <c r="G10" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="398"/>
-      <c r="I10" s="398"/>
-      <c r="J10" s="398"/>
-      <c r="K10" s="398"/>
-      <c r="L10" s="398"/>
-      <c r="M10" s="399"/>
+      <c r="H10" s="295"/>
+      <c r="I10" s="295"/>
+      <c r="J10" s="295"/>
+      <c r="K10" s="295"/>
+      <c r="L10" s="295"/>
+      <c r="M10" s="296"/>
       <c r="R10" s="245">
         <v>4</v>
       </c>
-      <c r="S10" s="300"/>
-      <c r="T10" s="301"/>
-      <c r="U10" s="278"/>
-      <c r="V10" s="279"/>
-      <c r="W10" s="278"/>
-      <c r="X10" s="279"/>
-      <c r="Y10" s="278"/>
-      <c r="Z10" s="279"/>
+      <c r="S10" s="282"/>
+      <c r="T10" s="283"/>
+      <c r="U10" s="276"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="276"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="276"/>
+      <c r="Z10" s="277"/>
     </row>
     <row r="11" spans="2:26" ht="30" customHeight="1">
-      <c r="G11" s="414" t="s">
+      <c r="G11" s="311" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="415"/>
-      <c r="I11" s="415"/>
-      <c r="J11" s="415"/>
-      <c r="K11" s="415"/>
-      <c r="L11" s="415"/>
-      <c r="M11" s="416"/>
+      <c r="H11" s="312"/>
+      <c r="I11" s="312"/>
+      <c r="J11" s="312"/>
+      <c r="K11" s="312"/>
+      <c r="L11" s="312"/>
+      <c r="M11" s="313"/>
       <c r="R11" s="258" t="s">
         <v>155</v>
       </c>
-      <c r="S11" s="431"/>
-      <c r="T11" s="432"/>
-      <c r="U11" s="432"/>
-      <c r="V11" s="432"/>
-      <c r="W11" s="432"/>
-      <c r="X11" s="432"/>
-      <c r="Y11" s="432"/>
-      <c r="Z11" s="433"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="280"/>
+      <c r="U11" s="280"/>
+      <c r="V11" s="280"/>
+      <c r="W11" s="280"/>
+      <c r="X11" s="280"/>
+      <c r="Y11" s="280"/>
+      <c r="Z11" s="281"/>
     </row>
     <row r="12" spans="2:26" ht="30" customHeight="1">
-      <c r="G12" s="397" t="s">
+      <c r="G12" s="294" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="398"/>
-      <c r="I12" s="398"/>
-      <c r="J12" s="398"/>
-      <c r="K12" s="398"/>
-      <c r="L12" s="398"/>
-      <c r="M12" s="399"/>
+      <c r="H12" s="295"/>
+      <c r="I12" s="295"/>
+      <c r="J12" s="295"/>
+      <c r="K12" s="295"/>
+      <c r="L12" s="295"/>
+      <c r="M12" s="296"/>
       <c r="R12" s="245">
         <v>1</v>
       </c>
-      <c r="S12" s="300"/>
-      <c r="T12" s="301"/>
-      <c r="U12" s="278"/>
-      <c r="V12" s="279"/>
-      <c r="W12" s="278"/>
-      <c r="X12" s="279"/>
-      <c r="Y12" s="278"/>
-      <c r="Z12" s="279"/>
+      <c r="S12" s="282"/>
+      <c r="T12" s="283"/>
+      <c r="U12" s="276"/>
+      <c r="V12" s="277"/>
+      <c r="W12" s="276"/>
+      <c r="X12" s="277"/>
+      <c r="Y12" s="276"/>
+      <c r="Z12" s="277"/>
     </row>
     <row r="13" spans="2:26" ht="30" customHeight="1">
-      <c r="G13" s="400" t="s">
+      <c r="G13" s="297" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="401"/>
-      <c r="I13" s="401"/>
-      <c r="J13" s="401"/>
-      <c r="K13" s="401"/>
-      <c r="L13" s="401"/>
-      <c r="M13" s="402"/>
+      <c r="H13" s="298"/>
+      <c r="I13" s="298"/>
+      <c r="J13" s="298"/>
+      <c r="K13" s="298"/>
+      <c r="L13" s="298"/>
+      <c r="M13" s="299"/>
       <c r="R13" s="245">
         <v>2</v>
       </c>
-      <c r="S13" s="300"/>
-      <c r="T13" s="301"/>
-      <c r="U13" s="278"/>
-      <c r="V13" s="279"/>
-      <c r="W13" s="278"/>
-      <c r="X13" s="279"/>
-      <c r="Y13" s="278"/>
-      <c r="Z13" s="279"/>
+      <c r="S13" s="282"/>
+      <c r="T13" s="283"/>
+      <c r="U13" s="276"/>
+      <c r="V13" s="277"/>
+      <c r="W13" s="276"/>
+      <c r="X13" s="277"/>
+      <c r="Y13" s="276"/>
+      <c r="Z13" s="277"/>
     </row>
     <row r="14" spans="2:26" ht="30" customHeight="1">
       <c r="R14" s="245">
         <v>3</v>
       </c>
-      <c r="S14" s="300"/>
-      <c r="T14" s="301"/>
-      <c r="U14" s="278"/>
-      <c r="V14" s="279"/>
-      <c r="W14" s="278"/>
-      <c r="X14" s="279"/>
-      <c r="Y14" s="278"/>
-      <c r="Z14" s="279"/>
+      <c r="S14" s="282"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="276"/>
+      <c r="V14" s="277"/>
+      <c r="W14" s="276"/>
+      <c r="X14" s="277"/>
+      <c r="Y14" s="276"/>
+      <c r="Z14" s="277"/>
     </row>
     <row r="15" spans="2:26" ht="30" customHeight="1">
       <c r="R15" s="245">
         <v>4</v>
       </c>
-      <c r="S15" s="300"/>
-      <c r="T15" s="301"/>
-      <c r="U15" s="278"/>
-      <c r="V15" s="279"/>
-      <c r="W15" s="278"/>
-      <c r="X15" s="279"/>
-      <c r="Y15" s="278"/>
-      <c r="Z15" s="279"/>
+      <c r="S15" s="282"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="276"/>
+      <c r="V15" s="277"/>
+      <c r="W15" s="276"/>
+      <c r="X15" s="277"/>
+      <c r="Y15" s="276"/>
+      <c r="Z15" s="277"/>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
-      <c r="A31" s="294" t="s">
+      <c r="A31" s="335" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="294"/>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
+      <c r="B31" s="335"/>
+      <c r="C31" s="335"/>
+      <c r="D31" s="335"/>
       <c r="E31" s="87"/>
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
       <c r="H31" s="88"/>
       <c r="I31" s="87"/>
-      <c r="J31" s="295" t="s">
+      <c r="J31" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="295"/>
-      <c r="L31" s="295"/>
-      <c r="M31" s="295"/>
-      <c r="N31" s="295"/>
-      <c r="O31" s="295"/>
-      <c r="P31" s="295"/>
+      <c r="K31" s="336"/>
+      <c r="L31" s="336"/>
+      <c r="M31" s="336"/>
+      <c r="N31" s="336"/>
+      <c r="O31" s="336"/>
+      <c r="P31" s="336"/>
       <c r="Q31" s="87"/>
       <c r="R31" s="87"/>
       <c r="S31" s="87"/>
@@ -4812,26 +4815,26 @@
       <c r="W31" s="89"/>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
-      <c r="A32" s="296" t="s">
+      <c r="A32" s="384" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="296"/>
-      <c r="C32" s="296"/>
-      <c r="D32" s="296"/>
+      <c r="B32" s="384"/>
+      <c r="C32" s="384"/>
+      <c r="D32" s="384"/>
       <c r="E32" s="87"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90"/>
       <c r="H32" s="90"/>
       <c r="I32" s="87"/>
-      <c r="J32" s="297" t="s">
+      <c r="J32" s="385" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="297"/>
-      <c r="L32" s="297"/>
-      <c r="M32" s="297"/>
-      <c r="N32" s="297"/>
-      <c r="O32" s="297"/>
-      <c r="P32" s="297"/>
+      <c r="K32" s="385"/>
+      <c r="L32" s="385"/>
+      <c r="M32" s="385"/>
+      <c r="N32" s="385"/>
+      <c r="O32" s="385"/>
+      <c r="P32" s="385"/>
       <c r="Q32" s="88"/>
       <c r="R32" s="88"/>
       <c r="S32" s="88"/>
@@ -4870,24 +4873,24 @@
       <c r="AA33" s="89"/>
     </row>
     <row r="34" spans="1:27" ht="30" customHeight="1">
-      <c r="A34" s="283" t="s">
+      <c r="A34" s="386" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="283"/>
-      <c r="C34" s="283"/>
-      <c r="D34" s="283"/>
-      <c r="E34" s="283"/>
-      <c r="F34" s="283"/>
-      <c r="G34" s="283"/>
-      <c r="H34" s="283"/>
-      <c r="I34" s="283"/>
-      <c r="J34" s="283"/>
-      <c r="K34" s="283"/>
-      <c r="L34" s="283"/>
-      <c r="M34" s="283"/>
-      <c r="N34" s="283"/>
-      <c r="O34" s="283"/>
-      <c r="P34" s="283"/>
+      <c r="B34" s="386"/>
+      <c r="C34" s="386"/>
+      <c r="D34" s="386"/>
+      <c r="E34" s="386"/>
+      <c r="F34" s="386"/>
+      <c r="G34" s="386"/>
+      <c r="H34" s="386"/>
+      <c r="I34" s="386"/>
+      <c r="J34" s="386"/>
+      <c r="K34" s="386"/>
+      <c r="L34" s="386"/>
+      <c r="M34" s="386"/>
+      <c r="N34" s="386"/>
+      <c r="O34" s="386"/>
+      <c r="P34" s="386"/>
       <c r="Q34" s="97"/>
       <c r="R34" s="97"/>
       <c r="S34" s="97"/>
@@ -4901,22 +4904,22 @@
       <c r="AA34" s="86"/>
     </row>
     <row r="35" spans="1:27" ht="30" customHeight="1">
-      <c r="A35" s="284"/>
-      <c r="B35" s="284"/>
-      <c r="C35" s="284"/>
-      <c r="D35" s="284"/>
-      <c r="E35" s="284"/>
-      <c r="F35" s="284"/>
-      <c r="G35" s="284"/>
-      <c r="H35" s="284"/>
-      <c r="I35" s="284"/>
-      <c r="J35" s="284"/>
-      <c r="K35" s="284"/>
-      <c r="L35" s="284"/>
-      <c r="M35" s="284"/>
-      <c r="N35" s="284"/>
-      <c r="O35" s="284"/>
-      <c r="P35" s="284"/>
+      <c r="A35" s="266"/>
+      <c r="B35" s="266"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
+      <c r="G35" s="266"/>
+      <c r="H35" s="266"/>
+      <c r="I35" s="266"/>
+      <c r="J35" s="266"/>
+      <c r="K35" s="266"/>
+      <c r="L35" s="266"/>
+      <c r="M35" s="266"/>
+      <c r="N35" s="266"/>
+      <c r="O35" s="266"/>
+      <c r="P35" s="266"/>
       <c r="Q35" s="99"/>
       <c r="R35" s="99"/>
       <c r="S35" s="99"/>
@@ -4959,92 +4962,92 @@
       <c r="AA36" s="86"/>
     </row>
     <row r="37" spans="1:27" ht="30" customHeight="1">
-      <c r="A37" s="374" t="s">
+      <c r="A37" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="374" t="s">
+      <c r="B37" s="394" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="374" t="s">
+      <c r="C37" s="394" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="291" t="s">
+      <c r="D37" s="357" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="285" t="s">
+      <c r="E37" s="353" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="286"/>
-      <c r="G37" s="287"/>
-      <c r="H37" s="291" t="s">
+      <c r="F37" s="404"/>
+      <c r="G37" s="354"/>
+      <c r="H37" s="357" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="285" t="s">
+      <c r="I37" s="353" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="286"/>
-      <c r="K37" s="286"/>
-      <c r="L37" s="287"/>
-      <c r="M37" s="285" t="s">
+      <c r="J37" s="404"/>
+      <c r="K37" s="404"/>
+      <c r="L37" s="354"/>
+      <c r="M37" s="353" t="s">
         <v>114</v>
       </c>
-      <c r="N37" s="286"/>
-      <c r="O37" s="286"/>
-      <c r="P37" s="287"/>
+      <c r="N37" s="404"/>
+      <c r="O37" s="404"/>
+      <c r="P37" s="354"/>
       <c r="Q37" s="103"/>
       <c r="R37" s="103"/>
       <c r="S37" s="103"/>
-      <c r="T37" s="308" t="s">
+      <c r="T37" s="442" t="s">
         <v>171</v>
       </c>
-      <c r="U37" s="329" t="s">
+      <c r="U37" s="433" t="s">
         <v>53</v>
       </c>
-      <c r="V37" s="329" t="s">
+      <c r="V37" s="433" t="s">
         <v>188</v>
       </c>
-      <c r="W37" s="329"/>
-      <c r="X37" s="329"/>
-      <c r="Y37" s="282" t="s">
+      <c r="W37" s="433"/>
+      <c r="X37" s="433"/>
+      <c r="Y37" s="457" t="s">
         <v>189</v>
       </c>
       <c r="Z37" s="104"/>
       <c r="AA37" s="104"/>
     </row>
     <row r="38" spans="1:27" ht="30" customHeight="1">
-      <c r="A38" s="375"/>
-      <c r="B38" s="375"/>
-      <c r="C38" s="375"/>
-      <c r="D38" s="292"/>
-      <c r="E38" s="288"/>
-      <c r="F38" s="289"/>
-      <c r="G38" s="290"/>
-      <c r="H38" s="292"/>
-      <c r="I38" s="288"/>
-      <c r="J38" s="289"/>
-      <c r="K38" s="289"/>
-      <c r="L38" s="290"/>
-      <c r="M38" s="288"/>
-      <c r="N38" s="289"/>
-      <c r="O38" s="289"/>
-      <c r="P38" s="290"/>
+      <c r="A38" s="395"/>
+      <c r="B38" s="395"/>
+      <c r="C38" s="395"/>
+      <c r="D38" s="358"/>
+      <c r="E38" s="355"/>
+      <c r="F38" s="405"/>
+      <c r="G38" s="356"/>
+      <c r="H38" s="358"/>
+      <c r="I38" s="355"/>
+      <c r="J38" s="405"/>
+      <c r="K38" s="405"/>
+      <c r="L38" s="356"/>
+      <c r="M38" s="355"/>
+      <c r="N38" s="405"/>
+      <c r="O38" s="405"/>
+      <c r="P38" s="356"/>
       <c r="Q38" s="103"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
-      <c r="T38" s="309"/>
-      <c r="U38" s="329"/>
-      <c r="V38" s="329"/>
-      <c r="W38" s="329"/>
-      <c r="X38" s="329"/>
-      <c r="Y38" s="282"/>
+      <c r="T38" s="443"/>
+      <c r="U38" s="433"/>
+      <c r="V38" s="433"/>
+      <c r="W38" s="433"/>
+      <c r="X38" s="433"/>
+      <c r="Y38" s="457"/>
       <c r="Z38" s="104"/>
       <c r="AA38" s="104"/>
     </row>
     <row r="39" spans="1:27" ht="34.5" customHeight="1">
-      <c r="A39" s="376"/>
-      <c r="B39" s="376"/>
-      <c r="C39" s="376"/>
-      <c r="D39" s="293"/>
+      <c r="A39" s="396"/>
+      <c r="B39" s="396"/>
+      <c r="C39" s="396"/>
+      <c r="D39" s="359"/>
       <c r="E39" s="105" t="s">
         <v>115</v>
       </c>
@@ -5054,28 +5057,28 @@
       <c r="G39" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="293"/>
-      <c r="I39" s="304" t="s">
+      <c r="H39" s="359"/>
+      <c r="I39" s="375" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="305"/>
-      <c r="K39" s="304" t="s">
+      <c r="J39" s="376"/>
+      <c r="K39" s="375" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="305"/>
-      <c r="M39" s="304" t="s">
+      <c r="L39" s="376"/>
+      <c r="M39" s="375" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="305"/>
-      <c r="O39" s="304" t="s">
+      <c r="N39" s="376"/>
+      <c r="O39" s="375" t="s">
         <v>119</v>
       </c>
-      <c r="P39" s="305"/>
+      <c r="P39" s="376"/>
       <c r="Q39" s="103"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103"/>
-      <c r="T39" s="310"/>
-      <c r="U39" s="329"/>
+      <c r="T39" s="444"/>
+      <c r="U39" s="433"/>
       <c r="V39" s="106" t="s">
         <v>121</v>
       </c>
@@ -5085,7 +5088,7 @@
       <c r="X39" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="Y39" s="282"/>
+      <c r="Y39" s="457"/>
       <c r="Z39" s="107"/>
       <c r="AA39" s="107"/>
     </row>
@@ -5114,33 +5117,33 @@
       <c r="H40" s="110">
         <v>-6</v>
       </c>
-      <c r="I40" s="306">
+      <c r="I40" s="378">
         <v>-7</v>
       </c>
-      <c r="J40" s="307"/>
-      <c r="K40" s="306">
+      <c r="J40" s="379"/>
+      <c r="K40" s="378">
         <v>-8</v>
       </c>
-      <c r="L40" s="307"/>
-      <c r="M40" s="298" t="s">
+      <c r="L40" s="379"/>
+      <c r="M40" s="417" t="s">
         <v>197</v>
       </c>
-      <c r="N40" s="299"/>
-      <c r="O40" s="298" t="s">
+      <c r="N40" s="418"/>
+      <c r="O40" s="417" t="s">
         <v>198</v>
       </c>
-      <c r="P40" s="299"/>
+      <c r="P40" s="418"/>
       <c r="Q40" s="111"/>
       <c r="R40" s="111"/>
       <c r="S40" s="111"/>
       <c r="T40" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="U40" s="269"/>
-      <c r="V40" s="270"/>
-      <c r="W40" s="270"/>
-      <c r="X40" s="270"/>
-      <c r="Y40" s="271"/>
+      <c r="U40" s="448"/>
+      <c r="V40" s="449"/>
+      <c r="W40" s="449"/>
+      <c r="X40" s="449"/>
+      <c r="Y40" s="450"/>
       <c r="Z40" s="113"/>
       <c r="AA40" s="113"/>
     </row>
@@ -5155,14 +5158,14 @@
       <c r="F41" s="118"/>
       <c r="G41" s="118"/>
       <c r="H41" s="123"/>
-      <c r="I41" s="311"/>
-      <c r="J41" s="312"/>
-      <c r="K41" s="302"/>
-      <c r="L41" s="303"/>
-      <c r="M41" s="302"/>
-      <c r="N41" s="303"/>
-      <c r="O41" s="302"/>
-      <c r="P41" s="303"/>
+      <c r="I41" s="440"/>
+      <c r="J41" s="441"/>
+      <c r="K41" s="427"/>
+      <c r="L41" s="428"/>
+      <c r="M41" s="427"/>
+      <c r="N41" s="428"/>
+      <c r="O41" s="427"/>
+      <c r="P41" s="428"/>
       <c r="Q41" s="119"/>
       <c r="R41" s="119"/>
       <c r="S41" s="119"/>
@@ -5189,14 +5192,14 @@
       <c r="F42" s="118"/>
       <c r="G42" s="118"/>
       <c r="H42" s="123"/>
-      <c r="I42" s="311"/>
-      <c r="J42" s="312"/>
-      <c r="K42" s="302"/>
-      <c r="L42" s="303"/>
-      <c r="M42" s="302"/>
-      <c r="N42" s="303"/>
-      <c r="O42" s="302"/>
-      <c r="P42" s="303"/>
+      <c r="I42" s="440"/>
+      <c r="J42" s="441"/>
+      <c r="K42" s="427"/>
+      <c r="L42" s="428"/>
+      <c r="M42" s="427"/>
+      <c r="N42" s="428"/>
+      <c r="O42" s="427"/>
+      <c r="P42" s="428"/>
       <c r="Q42" s="119"/>
       <c r="R42" s="119"/>
       <c r="S42" s="119"/>
@@ -5224,14 +5227,14 @@
       <c r="F43" s="118"/>
       <c r="G43" s="118"/>
       <c r="H43" s="123"/>
-      <c r="I43" s="311"/>
-      <c r="J43" s="312"/>
-      <c r="K43" s="302"/>
-      <c r="L43" s="303"/>
-      <c r="M43" s="302"/>
-      <c r="N43" s="303"/>
-      <c r="O43" s="302"/>
-      <c r="P43" s="303"/>
+      <c r="I43" s="440"/>
+      <c r="J43" s="441"/>
+      <c r="K43" s="427"/>
+      <c r="L43" s="428"/>
+      <c r="M43" s="427"/>
+      <c r="N43" s="428"/>
+      <c r="O43" s="427"/>
+      <c r="P43" s="428"/>
       <c r="Q43" s="119"/>
       <c r="R43" s="119"/>
       <c r="S43" s="119"/>
@@ -5259,14 +5262,14 @@
       <c r="F44" s="118"/>
       <c r="G44" s="118"/>
       <c r="H44" s="123"/>
-      <c r="I44" s="333"/>
-      <c r="J44" s="334"/>
-      <c r="K44" s="313"/>
-      <c r="L44" s="314"/>
-      <c r="M44" s="313"/>
-      <c r="N44" s="314"/>
-      <c r="O44" s="313"/>
-      <c r="P44" s="314"/>
+      <c r="I44" s="438"/>
+      <c r="J44" s="439"/>
+      <c r="K44" s="436"/>
+      <c r="L44" s="437"/>
+      <c r="M44" s="436"/>
+      <c r="N44" s="437"/>
+      <c r="O44" s="436"/>
+      <c r="P44" s="437"/>
       <c r="Q44" s="119"/>
       <c r="R44" s="119"/>
       <c r="S44" s="119"/>
@@ -5290,11 +5293,11 @@
       <c r="T45" s="242" t="s">
         <v>155</v>
       </c>
-      <c r="U45" s="266"/>
-      <c r="V45" s="267"/>
-      <c r="W45" s="267"/>
-      <c r="X45" s="267"/>
-      <c r="Y45" s="268"/>
+      <c r="U45" s="445"/>
+      <c r="V45" s="446"/>
+      <c r="W45" s="446"/>
+      <c r="X45" s="446"/>
+      <c r="Y45" s="447"/>
       <c r="Z45" s="120"/>
       <c r="AA45" s="120"/>
     </row>
@@ -5341,13 +5344,13 @@
       <c r="G47" s="86"/>
       <c r="H47" s="86"/>
       <c r="I47" s="86"/>
-      <c r="J47" s="330"/>
-      <c r="K47" s="330"/>
-      <c r="L47" s="330"/>
-      <c r="M47" s="330"/>
-      <c r="N47" s="330"/>
-      <c r="O47" s="330"/>
-      <c r="P47" s="330"/>
+      <c r="J47" s="329"/>
+      <c r="K47" s="329"/>
+      <c r="L47" s="329"/>
+      <c r="M47" s="329"/>
+      <c r="N47" s="329"/>
+      <c r="O47" s="329"/>
+      <c r="P47" s="329"/>
       <c r="Q47" s="128"/>
       <c r="R47" s="128"/>
       <c r="S47" s="128"/>
@@ -5365,28 +5368,28 @@
       <c r="AA47" s="129"/>
     </row>
     <row r="48" spans="1:27" ht="30" customHeight="1">
-      <c r="A48" s="380" t="s">
+      <c r="A48" s="267" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="380"/>
-      <c r="C48" s="315" t="s">
+      <c r="B48" s="267"/>
+      <c r="C48" s="382" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="315"/>
-      <c r="E48" s="315"/>
-      <c r="F48" s="315"/>
-      <c r="G48" s="316" t="s">
+      <c r="D48" s="382"/>
+      <c r="E48" s="382"/>
+      <c r="F48" s="382"/>
+      <c r="G48" s="338" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="316"/>
-      <c r="I48" s="316"/>
-      <c r="J48" s="316"/>
-      <c r="K48" s="316"/>
-      <c r="L48" s="316"/>
-      <c r="M48" s="316"/>
-      <c r="N48" s="316"/>
-      <c r="O48" s="316"/>
-      <c r="P48" s="316"/>
+      <c r="H48" s="338"/>
+      <c r="I48" s="338"/>
+      <c r="J48" s="338"/>
+      <c r="K48" s="338"/>
+      <c r="L48" s="338"/>
+      <c r="M48" s="338"/>
+      <c r="N48" s="338"/>
+      <c r="O48" s="338"/>
+      <c r="P48" s="338"/>
       <c r="Q48" s="130"/>
       <c r="R48" s="130"/>
       <c r="S48" s="130"/>
@@ -5413,13 +5416,13 @@
       <c r="G49" s="130"/>
       <c r="H49" s="130"/>
       <c r="I49" s="130"/>
-      <c r="J49" s="316"/>
-      <c r="K49" s="316"/>
-      <c r="L49" s="316"/>
-      <c r="M49" s="316"/>
-      <c r="N49" s="316"/>
-      <c r="O49" s="316"/>
-      <c r="P49" s="316"/>
+      <c r="J49" s="338"/>
+      <c r="K49" s="338"/>
+      <c r="L49" s="338"/>
+      <c r="M49" s="338"/>
+      <c r="N49" s="338"/>
+      <c r="O49" s="338"/>
+      <c r="P49" s="338"/>
       <c r="Q49" s="130"/>
       <c r="R49" s="130"/>
       <c r="S49" s="130"/>
@@ -5486,14 +5489,14 @@
       <c r="R51" s="86"/>
       <c r="S51" s="86"/>
       <c r="T51" s="86"/>
-      <c r="U51" s="434" t="s">
+      <c r="U51" s="284" t="s">
         <v>53</v>
       </c>
-      <c r="V51" s="437" t="s">
+      <c r="V51" s="287" t="s">
         <v>124</v>
       </c>
-      <c r="W51" s="438"/>
-      <c r="X51" s="439"/>
+      <c r="W51" s="288"/>
+      <c r="X51" s="289"/>
       <c r="Y51" s="86"/>
       <c r="Z51" s="86"/>
       <c r="AA51" s="86"/>
@@ -5519,10 +5522,10 @@
       <c r="R52" s="86"/>
       <c r="S52" s="86"/>
       <c r="T52" s="86"/>
-      <c r="U52" s="435"/>
-      <c r="V52" s="440"/>
-      <c r="W52" s="441"/>
-      <c r="X52" s="442"/>
+      <c r="U52" s="285"/>
+      <c r="V52" s="290"/>
+      <c r="W52" s="291"/>
+      <c r="X52" s="292"/>
       <c r="Y52" s="86"/>
       <c r="Z52" s="86"/>
       <c r="AA52" s="86"/>
@@ -5548,7 +5551,7 @@
       <c r="R53" s="86"/>
       <c r="S53" s="86"/>
       <c r="T53" s="132"/>
-      <c r="U53" s="436"/>
+      <c r="U53" s="286"/>
       <c r="V53" s="133" t="s">
         <v>121</v>
       </c>
@@ -5572,13 +5575,13 @@
       <c r="G54" s="132"/>
       <c r="H54" s="132"/>
       <c r="I54" s="132"/>
-      <c r="J54" s="317"/>
-      <c r="K54" s="317"/>
-      <c r="L54" s="317"/>
-      <c r="M54" s="317"/>
-      <c r="N54" s="317"/>
-      <c r="O54" s="317"/>
-      <c r="P54" s="317"/>
+      <c r="J54" s="334"/>
+      <c r="K54" s="334"/>
+      <c r="L54" s="334"/>
+      <c r="M54" s="334"/>
+      <c r="N54" s="334"/>
+      <c r="O54" s="334"/>
+      <c r="P54" s="334"/>
       <c r="Q54" s="132"/>
       <c r="R54" s="132"/>
       <c r="S54" s="132"/>
@@ -6071,26 +6074,26 @@
       <c r="AD70" s="86"/>
     </row>
     <row r="71" spans="1:31" ht="30" customHeight="1">
-      <c r="A71" s="294" t="s">
+      <c r="A71" s="335" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="294"/>
-      <c r="C71" s="294"/>
-      <c r="D71" s="294"/>
+      <c r="B71" s="335"/>
+      <c r="C71" s="335"/>
+      <c r="D71" s="335"/>
       <c r="E71" s="87"/>
       <c r="F71" s="88"/>
       <c r="G71" s="88"/>
       <c r="H71" s="88"/>
       <c r="I71" s="87"/>
-      <c r="J71" s="295" t="s">
+      <c r="J71" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="K71" s="295"/>
-      <c r="L71" s="295"/>
-      <c r="M71" s="295"/>
-      <c r="N71" s="295"/>
-      <c r="O71" s="295"/>
-      <c r="P71" s="295"/>
+      <c r="K71" s="336"/>
+      <c r="L71" s="336"/>
+      <c r="M71" s="336"/>
+      <c r="N71" s="336"/>
+      <c r="O71" s="336"/>
+      <c r="P71" s="336"/>
       <c r="Q71" s="87"/>
       <c r="R71" s="87"/>
       <c r="S71" s="87"/>
@@ -6107,26 +6110,26 @@
       <c r="AD71" s="89"/>
     </row>
     <row r="72" spans="1:31" ht="30" customHeight="1">
-      <c r="A72" s="296" t="s">
+      <c r="A72" s="384" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="296"/>
-      <c r="C72" s="296"/>
-      <c r="D72" s="296"/>
+      <c r="B72" s="384"/>
+      <c r="C72" s="384"/>
+      <c r="D72" s="384"/>
       <c r="E72" s="87"/>
       <c r="F72" s="90"/>
       <c r="G72" s="90"/>
       <c r="H72" s="90"/>
       <c r="I72" s="87"/>
-      <c r="J72" s="297" t="s">
+      <c r="J72" s="385" t="s">
         <v>106</v>
       </c>
-      <c r="K72" s="297"/>
-      <c r="L72" s="297"/>
-      <c r="M72" s="297"/>
-      <c r="N72" s="297"/>
-      <c r="O72" s="297"/>
-      <c r="P72" s="297"/>
+      <c r="K72" s="385"/>
+      <c r="L72" s="385"/>
+      <c r="M72" s="385"/>
+      <c r="N72" s="385"/>
+      <c r="O72" s="385"/>
+      <c r="P72" s="385"/>
       <c r="Q72" s="88"/>
       <c r="R72" s="88"/>
       <c r="S72" s="88"/>
@@ -6185,24 +6188,24 @@
       <c r="AD73" s="86"/>
     </row>
     <row r="74" spans="1:31" ht="30" customHeight="1">
-      <c r="A74" s="283" t="s">
+      <c r="A74" s="386" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="283"/>
-      <c r="C74" s="283"/>
-      <c r="D74" s="283"/>
-      <c r="E74" s="283"/>
-      <c r="F74" s="283"/>
-      <c r="G74" s="283"/>
-      <c r="H74" s="283"/>
-      <c r="I74" s="283"/>
-      <c r="J74" s="283"/>
-      <c r="K74" s="283"/>
-      <c r="L74" s="283"/>
-      <c r="M74" s="283"/>
-      <c r="N74" s="283"/>
-      <c r="O74" s="283"/>
-      <c r="P74" s="283"/>
+      <c r="B74" s="386"/>
+      <c r="C74" s="386"/>
+      <c r="D74" s="386"/>
+      <c r="E74" s="386"/>
+      <c r="F74" s="386"/>
+      <c r="G74" s="386"/>
+      <c r="H74" s="386"/>
+      <c r="I74" s="386"/>
+      <c r="J74" s="386"/>
+      <c r="K74" s="386"/>
+      <c r="L74" s="386"/>
+      <c r="M74" s="386"/>
+      <c r="N74" s="386"/>
+      <c r="O74" s="386"/>
+      <c r="P74" s="386"/>
       <c r="Q74" s="97"/>
       <c r="R74" s="97"/>
       <c r="S74" s="97"/>
@@ -6221,22 +6224,22 @@
       <c r="AD74" s="86"/>
     </row>
     <row r="75" spans="1:31" ht="30" customHeight="1">
-      <c r="A75" s="284"/>
-      <c r="B75" s="284"/>
-      <c r="C75" s="284"/>
-      <c r="D75" s="284"/>
-      <c r="E75" s="284"/>
-      <c r="F75" s="284"/>
-      <c r="G75" s="284"/>
-      <c r="H75" s="284"/>
-      <c r="I75" s="284"/>
-      <c r="J75" s="284"/>
-      <c r="K75" s="284"/>
-      <c r="L75" s="284"/>
-      <c r="M75" s="284"/>
-      <c r="N75" s="284"/>
-      <c r="O75" s="284"/>
-      <c r="P75" s="284"/>
+      <c r="A75" s="266"/>
+      <c r="B75" s="266"/>
+      <c r="C75" s="266"/>
+      <c r="D75" s="266"/>
+      <c r="E75" s="266"/>
+      <c r="F75" s="266"/>
+      <c r="G75" s="266"/>
+      <c r="H75" s="266"/>
+      <c r="I75" s="266"/>
+      <c r="J75" s="266"/>
+      <c r="K75" s="266"/>
+      <c r="L75" s="266"/>
+      <c r="M75" s="266"/>
+      <c r="N75" s="266"/>
+      <c r="O75" s="266"/>
+      <c r="P75" s="266"/>
       <c r="Q75" s="144"/>
       <c r="R75" s="144"/>
       <c r="S75" s="144"/>
@@ -6287,54 +6290,54 @@
       <c r="AD76" s="86"/>
     </row>
     <row r="77" spans="1:31" ht="23.25" customHeight="1">
-      <c r="A77" s="374" t="s">
+      <c r="A77" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="374" t="s">
+      <c r="B77" s="394" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="374" t="s">
+      <c r="C77" s="394" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="291" t="s">
+      <c r="D77" s="357" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="285" t="s">
+      <c r="E77" s="353" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="286"/>
-      <c r="G77" s="287"/>
-      <c r="H77" s="285" t="s">
+      <c r="F77" s="404"/>
+      <c r="G77" s="354"/>
+      <c r="H77" s="353" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="287"/>
-      <c r="J77" s="285" t="s">
+      <c r="I77" s="354"/>
+      <c r="J77" s="353" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="287"/>
-      <c r="L77" s="285" t="s">
+      <c r="K77" s="354"/>
+      <c r="L77" s="353" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="287"/>
-      <c r="N77" s="285" t="s">
+      <c r="M77" s="354"/>
+      <c r="N77" s="353" t="s">
         <v>136</v>
       </c>
-      <c r="O77" s="287"/>
-      <c r="P77" s="323" t="s">
+      <c r="O77" s="354"/>
+      <c r="P77" s="429" t="s">
         <v>137</v>
       </c>
-      <c r="Q77" s="323" t="s">
+      <c r="Q77" s="429" t="s">
         <v>138</v>
       </c>
-      <c r="R77" s="323" t="s">
+      <c r="R77" s="429" t="s">
         <v>139</v>
       </c>
       <c r="S77" s="147"/>
       <c r="T77" s="148"/>
-      <c r="U77" s="321"/>
-      <c r="V77" s="321"/>
-      <c r="W77" s="321"/>
-      <c r="X77" s="321"/>
+      <c r="U77" s="425"/>
+      <c r="V77" s="425"/>
+      <c r="W77" s="425"/>
+      <c r="X77" s="425"/>
       <c r="Y77" s="96"/>
       <c r="Z77" s="96"/>
       <c r="AA77" s="96"/>
@@ -6343,30 +6346,30 @@
       <c r="AD77" s="149"/>
     </row>
     <row r="78" spans="1:31" ht="27" customHeight="1">
-      <c r="A78" s="375"/>
-      <c r="B78" s="375"/>
-      <c r="C78" s="375"/>
-      <c r="D78" s="292"/>
-      <c r="E78" s="288"/>
-      <c r="F78" s="289"/>
-      <c r="G78" s="290"/>
-      <c r="H78" s="288"/>
-      <c r="I78" s="290"/>
-      <c r="J78" s="288"/>
-      <c r="K78" s="290"/>
-      <c r="L78" s="288"/>
-      <c r="M78" s="290"/>
-      <c r="N78" s="288"/>
-      <c r="O78" s="290"/>
-      <c r="P78" s="324"/>
-      <c r="Q78" s="324"/>
-      <c r="R78" s="324"/>
+      <c r="A78" s="395"/>
+      <c r="B78" s="395"/>
+      <c r="C78" s="395"/>
+      <c r="D78" s="358"/>
+      <c r="E78" s="355"/>
+      <c r="F78" s="405"/>
+      <c r="G78" s="356"/>
+      <c r="H78" s="355"/>
+      <c r="I78" s="356"/>
+      <c r="J78" s="355"/>
+      <c r="K78" s="356"/>
+      <c r="L78" s="355"/>
+      <c r="M78" s="356"/>
+      <c r="N78" s="355"/>
+      <c r="O78" s="356"/>
+      <c r="P78" s="430"/>
+      <c r="Q78" s="430"/>
+      <c r="R78" s="430"/>
       <c r="S78" s="96"/>
       <c r="T78" s="148"/>
-      <c r="U78" s="322"/>
-      <c r="V78" s="322"/>
-      <c r="W78" s="322"/>
-      <c r="X78" s="322"/>
+      <c r="U78" s="426"/>
+      <c r="V78" s="426"/>
+      <c r="W78" s="426"/>
+      <c r="X78" s="426"/>
       <c r="Y78" s="86"/>
       <c r="Z78" s="86"/>
       <c r="AA78" s="86"/>
@@ -6375,56 +6378,56 @@
       <c r="AD78" s="149"/>
     </row>
     <row r="79" spans="1:31" ht="30" customHeight="1">
-      <c r="A79" s="375"/>
-      <c r="B79" s="375"/>
-      <c r="C79" s="375"/>
-      <c r="D79" s="292"/>
-      <c r="E79" s="327" t="s">
+      <c r="A79" s="395"/>
+      <c r="B79" s="395"/>
+      <c r="C79" s="395"/>
+      <c r="D79" s="358"/>
+      <c r="E79" s="397" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="327" t="s">
+      <c r="F79" s="397" t="s">
         <v>116</v>
       </c>
-      <c r="G79" s="327" t="s">
+      <c r="G79" s="397" t="s">
         <v>117</v>
       </c>
-      <c r="H79" s="327" t="s">
+      <c r="H79" s="397" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="327" t="s">
+      <c r="I79" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="327" t="s">
+      <c r="J79" s="397" t="s">
         <v>120</v>
       </c>
-      <c r="K79" s="327" t="s">
+      <c r="K79" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="L79" s="327" t="s">
+      <c r="L79" s="397" t="s">
         <v>115</v>
       </c>
-      <c r="M79" s="327" t="s">
+      <c r="M79" s="397" t="s">
         <v>117</v>
       </c>
-      <c r="N79" s="327" t="s">
+      <c r="N79" s="397" t="s">
         <v>120</v>
       </c>
-      <c r="O79" s="327" t="s">
+      <c r="O79" s="397" t="s">
         <v>119</v>
       </c>
-      <c r="P79" s="324"/>
-      <c r="Q79" s="324"/>
-      <c r="R79" s="324"/>
+      <c r="P79" s="430"/>
+      <c r="Q79" s="430"/>
+      <c r="R79" s="430"/>
       <c r="S79" s="96"/>
       <c r="T79" s="148"/>
-      <c r="U79" s="331" t="s">
+      <c r="U79" s="434" t="s">
         <v>53</v>
       </c>
-      <c r="V79" s="326" t="s">
+      <c r="V79" s="432" t="s">
         <v>141</v>
       </c>
-      <c r="W79" s="326"/>
-      <c r="X79" s="326"/>
+      <c r="W79" s="432"/>
+      <c r="X79" s="432"/>
       <c r="Y79" s="150"/>
       <c r="Z79" s="150"/>
       <c r="AA79" s="150"/>
@@ -6433,27 +6436,27 @@
       <c r="AD79" s="149"/>
     </row>
     <row r="80" spans="1:31" ht="30" customHeight="1">
-      <c r="A80" s="376"/>
-      <c r="B80" s="376"/>
-      <c r="C80" s="376"/>
-      <c r="D80" s="293"/>
-      <c r="E80" s="328"/>
-      <c r="F80" s="328"/>
-      <c r="G80" s="328"/>
-      <c r="H80" s="328"/>
-      <c r="I80" s="328"/>
-      <c r="J80" s="328"/>
-      <c r="K80" s="328"/>
-      <c r="L80" s="328"/>
-      <c r="M80" s="328"/>
-      <c r="N80" s="328"/>
-      <c r="O80" s="328"/>
-      <c r="P80" s="325"/>
-      <c r="Q80" s="325"/>
-      <c r="R80" s="325"/>
+      <c r="A80" s="396"/>
+      <c r="B80" s="396"/>
+      <c r="C80" s="396"/>
+      <c r="D80" s="359"/>
+      <c r="E80" s="398"/>
+      <c r="F80" s="398"/>
+      <c r="G80" s="398"/>
+      <c r="H80" s="398"/>
+      <c r="I80" s="398"/>
+      <c r="J80" s="398"/>
+      <c r="K80" s="398"/>
+      <c r="L80" s="398"/>
+      <c r="M80" s="398"/>
+      <c r="N80" s="398"/>
+      <c r="O80" s="398"/>
+      <c r="P80" s="431"/>
+      <c r="Q80" s="431"/>
+      <c r="R80" s="431"/>
       <c r="S80" s="151"/>
       <c r="T80" s="148"/>
-      <c r="U80" s="332"/>
+      <c r="U80" s="435"/>
       <c r="V80" s="152" t="s">
         <v>142</v>
       </c>
@@ -6463,9 +6466,9 @@
       <c r="X80" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="Y80" s="320"/>
-      <c r="Z80" s="320"/>
-      <c r="AA80" s="320"/>
+      <c r="Y80" s="424"/>
+      <c r="Z80" s="424"/>
+      <c r="AA80" s="424"/>
       <c r="AB80" s="151"/>
       <c r="AC80" s="151"/>
       <c r="AD80" s="149"/>
@@ -6522,12 +6525,12 @@
       <c r="R81" s="155"/>
       <c r="S81" s="156"/>
       <c r="T81" s="157"/>
-      <c r="U81" s="452" t="s">
+      <c r="U81" s="339" t="s">
         <v>224</v>
       </c>
-      <c r="V81" s="453"/>
-      <c r="W81" s="453"/>
-      <c r="X81" s="454"/>
+      <c r="V81" s="340"/>
+      <c r="W81" s="340"/>
+      <c r="X81" s="341"/>
       <c r="Y81" s="158"/>
       <c r="Z81" s="158"/>
       <c r="AA81" s="158"/>
@@ -6540,23 +6543,23 @@
       <c r="A82" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="272"/>
-      <c r="C82" s="273"/>
-      <c r="D82" s="273"/>
-      <c r="E82" s="273"/>
-      <c r="F82" s="273"/>
-      <c r="G82" s="273"/>
-      <c r="H82" s="273"/>
-      <c r="I82" s="273"/>
-      <c r="J82" s="273"/>
-      <c r="K82" s="273"/>
-      <c r="L82" s="273"/>
-      <c r="M82" s="273"/>
-      <c r="N82" s="273"/>
-      <c r="O82" s="273"/>
-      <c r="P82" s="273"/>
-      <c r="Q82" s="273"/>
-      <c r="R82" s="274"/>
+      <c r="B82" s="451"/>
+      <c r="C82" s="452"/>
+      <c r="D82" s="452"/>
+      <c r="E82" s="452"/>
+      <c r="F82" s="452"/>
+      <c r="G82" s="452"/>
+      <c r="H82" s="452"/>
+      <c r="I82" s="452"/>
+      <c r="J82" s="452"/>
+      <c r="K82" s="452"/>
+      <c r="L82" s="452"/>
+      <c r="M82" s="452"/>
+      <c r="N82" s="452"/>
+      <c r="O82" s="452"/>
+      <c r="P82" s="452"/>
+      <c r="Q82" s="452"/>
+      <c r="R82" s="453"/>
       <c r="S82" s="160"/>
       <c r="T82" s="161"/>
       <c r="U82" s="162"/>
@@ -6699,12 +6702,12 @@
       <c r="R86" s="175"/>
       <c r="S86" s="96"/>
       <c r="T86" s="148"/>
-      <c r="U86" s="455" t="s">
+      <c r="U86" s="342" t="s">
         <v>225</v>
       </c>
-      <c r="V86" s="456"/>
-      <c r="W86" s="456"/>
-      <c r="X86" s="457"/>
+      <c r="V86" s="343"/>
+      <c r="W86" s="343"/>
+      <c r="X86" s="344"/>
       <c r="Y86" s="180"/>
       <c r="Z86" s="180"/>
       <c r="AA86" s="181"/>
@@ -6717,23 +6720,23 @@
       <c r="A87" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="275"/>
-      <c r="C87" s="276"/>
-      <c r="D87" s="276"/>
-      <c r="E87" s="276"/>
-      <c r="F87" s="276"/>
-      <c r="G87" s="276"/>
-      <c r="H87" s="276"/>
-      <c r="I87" s="276"/>
-      <c r="J87" s="276"/>
-      <c r="K87" s="276"/>
-      <c r="L87" s="276"/>
-      <c r="M87" s="276"/>
-      <c r="N87" s="276"/>
-      <c r="O87" s="276"/>
-      <c r="P87" s="276"/>
-      <c r="Q87" s="276"/>
-      <c r="R87" s="277"/>
+      <c r="B87" s="454"/>
+      <c r="C87" s="455"/>
+      <c r="D87" s="455"/>
+      <c r="E87" s="455"/>
+      <c r="F87" s="455"/>
+      <c r="G87" s="455"/>
+      <c r="H87" s="455"/>
+      <c r="I87" s="455"/>
+      <c r="J87" s="455"/>
+      <c r="K87" s="455"/>
+      <c r="L87" s="455"/>
+      <c r="M87" s="455"/>
+      <c r="N87" s="455"/>
+      <c r="O87" s="455"/>
+      <c r="P87" s="455"/>
+      <c r="Q87" s="455"/>
+      <c r="R87" s="456"/>
       <c r="S87" s="151"/>
       <c r="T87" s="148"/>
       <c r="U87" s="162"/>
@@ -6933,11 +6936,11 @@
       <c r="I93" s="86"/>
       <c r="J93" s="232"/>
       <c r="K93" s="232"/>
-      <c r="L93" s="444"/>
-      <c r="M93" s="444"/>
-      <c r="N93" s="444"/>
-      <c r="O93" s="444"/>
-      <c r="P93" s="444"/>
+      <c r="L93" s="337"/>
+      <c r="M93" s="337"/>
+      <c r="N93" s="337"/>
+      <c r="O93" s="337"/>
+      <c r="P93" s="337"/>
       <c r="Q93" s="128"/>
       <c r="R93" s="128"/>
       <c r="S93" s="156"/>
@@ -6955,40 +6958,40 @@
       <c r="AE93" s="188"/>
     </row>
     <row r="94" spans="1:31" ht="30" customHeight="1">
-      <c r="A94" s="315" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="315"/>
-      <c r="C94" s="315" t="s">
+      <c r="A94" s="382" t="s">
+        <v>230</v>
+      </c>
+      <c r="B94" s="382"/>
+      <c r="C94" s="382" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="315"/>
-      <c r="E94" s="315"/>
-      <c r="F94" s="315"/>
-      <c r="G94" s="316" t="s">
+      <c r="D94" s="382"/>
+      <c r="E94" s="382"/>
+      <c r="F94" s="382"/>
+      <c r="G94" s="338" t="s">
         <v>127</v>
       </c>
-      <c r="H94" s="316"/>
-      <c r="I94" s="316"/>
-      <c r="J94" s="316"/>
-      <c r="K94" s="316"/>
-      <c r="L94" s="330"/>
-      <c r="M94" s="330"/>
-      <c r="N94" s="330"/>
-      <c r="O94" s="330"/>
-      <c r="P94" s="330"/>
+      <c r="H94" s="338"/>
+      <c r="I94" s="338"/>
+      <c r="J94" s="338"/>
+      <c r="K94" s="338"/>
+      <c r="L94" s="329"/>
+      <c r="M94" s="329"/>
+      <c r="N94" s="329"/>
+      <c r="O94" s="329"/>
+      <c r="P94" s="329"/>
       <c r="Q94" s="191"/>
       <c r="R94" s="191"/>
       <c r="S94" s="160"/>
       <c r="T94" s="161"/>
-      <c r="U94" s="351" t="s">
+      <c r="U94" s="402" t="s">
         <v>53</v>
       </c>
-      <c r="V94" s="348" t="s">
+      <c r="V94" s="399" t="s">
         <v>145</v>
       </c>
-      <c r="W94" s="349"/>
-      <c r="X94" s="350"/>
+      <c r="W94" s="400"/>
+      <c r="X94" s="401"/>
       <c r="Y94" s="89"/>
       <c r="Z94" s="89"/>
       <c r="AA94" s="89"/>
@@ -7009,16 +7012,16 @@
       <c r="I95" s="130"/>
       <c r="J95" s="85"/>
       <c r="K95" s="85"/>
-      <c r="L95" s="316"/>
-      <c r="M95" s="316"/>
-      <c r="N95" s="316"/>
-      <c r="O95" s="316"/>
-      <c r="P95" s="316"/>
+      <c r="L95" s="338"/>
+      <c r="M95" s="338"/>
+      <c r="N95" s="338"/>
+      <c r="O95" s="338"/>
+      <c r="P95" s="338"/>
       <c r="Q95" s="191"/>
       <c r="R95" s="191"/>
       <c r="S95" s="160"/>
       <c r="T95" s="161"/>
-      <c r="U95" s="352"/>
+      <c r="U95" s="403"/>
       <c r="V95" s="133" t="s">
         <v>146</v>
       </c>
@@ -7164,11 +7167,11 @@
       <c r="I100" s="132"/>
       <c r="J100" s="132"/>
       <c r="K100" s="132"/>
-      <c r="L100" s="317"/>
-      <c r="M100" s="317"/>
-      <c r="N100" s="317"/>
-      <c r="O100" s="317"/>
-      <c r="P100" s="317"/>
+      <c r="L100" s="334"/>
+      <c r="M100" s="334"/>
+      <c r="N100" s="334"/>
+      <c r="O100" s="334"/>
+      <c r="P100" s="334"/>
       <c r="Q100" s="132"/>
       <c r="R100" s="132"/>
       <c r="S100" s="86"/>
@@ -7288,13 +7291,13 @@
       <c r="G104" s="132"/>
       <c r="H104" s="132"/>
       <c r="I104" s="132"/>
-      <c r="J104" s="317"/>
-      <c r="K104" s="317"/>
-      <c r="L104" s="317"/>
-      <c r="M104" s="317"/>
-      <c r="N104" s="317"/>
-      <c r="O104" s="317"/>
-      <c r="P104" s="317"/>
+      <c r="J104" s="334"/>
+      <c r="K104" s="334"/>
+      <c r="L104" s="334"/>
+      <c r="M104" s="334"/>
+      <c r="N104" s="334"/>
+      <c r="O104" s="334"/>
+      <c r="P104" s="334"/>
       <c r="Q104" s="132"/>
       <c r="R104" s="132"/>
       <c r="S104" s="86"/>
@@ -7304,13 +7307,13 @@
       <c r="W104" s="132"/>
       <c r="X104" s="132"/>
       <c r="Y104" s="132"/>
-      <c r="Z104" s="317"/>
-      <c r="AA104" s="317"/>
-      <c r="AB104" s="317"/>
-      <c r="AC104" s="317"/>
-      <c r="AD104" s="317"/>
-      <c r="AE104" s="317"/>
-      <c r="AF104" s="317"/>
+      <c r="Z104" s="334"/>
+      <c r="AA104" s="334"/>
+      <c r="AB104" s="334"/>
+      <c r="AC104" s="334"/>
+      <c r="AD104" s="334"/>
+      <c r="AE104" s="334"/>
+      <c r="AF104" s="334"/>
       <c r="AG104" s="132"/>
       <c r="AH104" s="132"/>
     </row>
@@ -7400,13 +7403,13 @@
       <c r="G108" s="132"/>
       <c r="H108" s="132"/>
       <c r="I108" s="132"/>
-      <c r="J108" s="317"/>
-      <c r="K108" s="317"/>
-      <c r="L108" s="317"/>
-      <c r="M108" s="317"/>
-      <c r="N108" s="317"/>
-      <c r="O108" s="317"/>
-      <c r="P108" s="317"/>
+      <c r="J108" s="334"/>
+      <c r="K108" s="334"/>
+      <c r="L108" s="334"/>
+      <c r="M108" s="334"/>
+      <c r="N108" s="334"/>
+      <c r="O108" s="334"/>
+      <c r="P108" s="334"/>
       <c r="Q108" s="132"/>
       <c r="R108" s="132"/>
       <c r="S108" s="86"/>
@@ -7416,13 +7419,13 @@
       <c r="W108" s="132"/>
       <c r="X108" s="132"/>
       <c r="Y108" s="132"/>
-      <c r="Z108" s="317"/>
-      <c r="AA108" s="317"/>
-      <c r="AB108" s="317"/>
-      <c r="AC108" s="317"/>
-      <c r="AD108" s="317"/>
-      <c r="AE108" s="317"/>
-      <c r="AF108" s="317"/>
+      <c r="Z108" s="334"/>
+      <c r="AA108" s="334"/>
+      <c r="AB108" s="334"/>
+      <c r="AC108" s="334"/>
+      <c r="AD108" s="334"/>
+      <c r="AE108" s="334"/>
+      <c r="AF108" s="334"/>
       <c r="AG108" s="132"/>
       <c r="AH108" s="132"/>
     </row>
@@ -7472,13 +7475,13 @@
       <c r="G110" s="132"/>
       <c r="H110" s="132"/>
       <c r="I110" s="132"/>
-      <c r="J110" s="317"/>
-      <c r="K110" s="317"/>
-      <c r="L110" s="317"/>
-      <c r="M110" s="317"/>
-      <c r="N110" s="317"/>
-      <c r="O110" s="317"/>
-      <c r="P110" s="317"/>
+      <c r="J110" s="334"/>
+      <c r="K110" s="334"/>
+      <c r="L110" s="334"/>
+      <c r="M110" s="334"/>
+      <c r="N110" s="334"/>
+      <c r="O110" s="334"/>
+      <c r="P110" s="334"/>
       <c r="Q110" s="132"/>
       <c r="R110" s="132"/>
       <c r="S110" s="86"/>
@@ -7521,26 +7524,26 @@
       <c r="AH111" s="86"/>
     </row>
     <row r="112" spans="1:34" ht="30" customHeight="1">
-      <c r="A112" s="294" t="s">
+      <c r="A112" s="335" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="294"/>
-      <c r="C112" s="294"/>
-      <c r="D112" s="294"/>
+      <c r="B112" s="335"/>
+      <c r="C112" s="335"/>
+      <c r="D112" s="335"/>
       <c r="E112" s="87"/>
       <c r="F112" s="88"/>
       <c r="G112" s="88"/>
       <c r="H112" s="88"/>
       <c r="I112" s="87"/>
-      <c r="J112" s="295" t="s">
+      <c r="J112" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="K112" s="295"/>
-      <c r="L112" s="295"/>
-      <c r="M112" s="295"/>
-      <c r="N112" s="295"/>
-      <c r="O112" s="295"/>
-      <c r="P112" s="295"/>
+      <c r="K112" s="336"/>
+      <c r="L112" s="336"/>
+      <c r="M112" s="336"/>
+      <c r="N112" s="336"/>
+      <c r="O112" s="336"/>
+      <c r="P112" s="336"/>
       <c r="Q112" s="87"/>
       <c r="R112" s="87"/>
       <c r="S112" s="87"/>
@@ -7561,26 +7564,26 @@
       <c r="AH112" s="86"/>
     </row>
     <row r="113" spans="1:34" ht="30" customHeight="1">
-      <c r="A113" s="296" t="s">
+      <c r="A113" s="384" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="296"/>
-      <c r="C113" s="296"/>
-      <c r="D113" s="296"/>
+      <c r="B113" s="384"/>
+      <c r="C113" s="384"/>
+      <c r="D113" s="384"/>
       <c r="E113" s="87"/>
       <c r="F113" s="90"/>
       <c r="G113" s="90"/>
       <c r="H113" s="90"/>
       <c r="I113" s="87"/>
-      <c r="J113" s="297" t="s">
+      <c r="J113" s="385" t="s">
         <v>106</v>
       </c>
-      <c r="K113" s="297"/>
-      <c r="L113" s="297"/>
-      <c r="M113" s="297"/>
-      <c r="N113" s="297"/>
-      <c r="O113" s="297"/>
-      <c r="P113" s="297"/>
+      <c r="K113" s="385"/>
+      <c r="L113" s="385"/>
+      <c r="M113" s="385"/>
+      <c r="N113" s="385"/>
+      <c r="O113" s="385"/>
+      <c r="P113" s="385"/>
       <c r="Q113" s="88"/>
       <c r="R113" s="88"/>
       <c r="S113" s="88"/>
@@ -7637,24 +7640,24 @@
       <c r="AH114" s="86"/>
     </row>
     <row r="115" spans="1:34" ht="30" customHeight="1">
-      <c r="A115" s="283" t="s">
+      <c r="A115" s="386" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="283"/>
-      <c r="C115" s="283"/>
-      <c r="D115" s="283"/>
-      <c r="E115" s="283"/>
-      <c r="F115" s="283"/>
-      <c r="G115" s="283"/>
-      <c r="H115" s="283"/>
-      <c r="I115" s="283"/>
-      <c r="J115" s="283"/>
-      <c r="K115" s="283"/>
-      <c r="L115" s="283"/>
-      <c r="M115" s="283"/>
-      <c r="N115" s="283"/>
-      <c r="O115" s="283"/>
-      <c r="P115" s="283"/>
+      <c r="B115" s="386"/>
+      <c r="C115" s="386"/>
+      <c r="D115" s="386"/>
+      <c r="E115" s="386"/>
+      <c r="F115" s="386"/>
+      <c r="G115" s="386"/>
+      <c r="H115" s="386"/>
+      <c r="I115" s="386"/>
+      <c r="J115" s="386"/>
+      <c r="K115" s="386"/>
+      <c r="L115" s="386"/>
+      <c r="M115" s="386"/>
+      <c r="N115" s="386"/>
+      <c r="O115" s="386"/>
+      <c r="P115" s="386"/>
       <c r="Q115" s="97"/>
       <c r="R115" s="97"/>
       <c r="S115" s="97"/>
@@ -7675,22 +7678,22 @@
       <c r="AH115" s="86"/>
     </row>
     <row r="116" spans="1:34" ht="30" customHeight="1">
-      <c r="A116" s="338"/>
-      <c r="B116" s="338"/>
-      <c r="C116" s="338"/>
-      <c r="D116" s="338"/>
-      <c r="E116" s="338"/>
-      <c r="F116" s="338"/>
-      <c r="G116" s="338"/>
-      <c r="H116" s="338"/>
-      <c r="I116" s="338"/>
-      <c r="J116" s="338"/>
-      <c r="K116" s="338"/>
-      <c r="L116" s="338"/>
-      <c r="M116" s="338"/>
-      <c r="N116" s="338"/>
-      <c r="O116" s="338"/>
-      <c r="P116" s="338"/>
+      <c r="A116" s="387"/>
+      <c r="B116" s="387"/>
+      <c r="C116" s="387"/>
+      <c r="D116" s="387"/>
+      <c r="E116" s="387"/>
+      <c r="F116" s="387"/>
+      <c r="G116" s="387"/>
+      <c r="H116" s="387"/>
+      <c r="I116" s="387"/>
+      <c r="J116" s="387"/>
+      <c r="K116" s="387"/>
+      <c r="L116" s="387"/>
+      <c r="M116" s="387"/>
+      <c r="N116" s="387"/>
+      <c r="O116" s="387"/>
+      <c r="P116" s="387"/>
       <c r="Q116" s="99"/>
       <c r="R116" s="99"/>
       <c r="S116" s="99"/>
@@ -7700,13 +7703,13 @@
       <c r="W116" s="132"/>
       <c r="X116" s="132"/>
       <c r="Y116" s="132"/>
-      <c r="Z116" s="317"/>
-      <c r="AA116" s="317"/>
-      <c r="AB116" s="317"/>
-      <c r="AC116" s="317"/>
-      <c r="AD116" s="317"/>
-      <c r="AE116" s="317"/>
-      <c r="AF116" s="317"/>
+      <c r="Z116" s="334"/>
+      <c r="AA116" s="334"/>
+      <c r="AB116" s="334"/>
+      <c r="AC116" s="334"/>
+      <c r="AD116" s="334"/>
+      <c r="AE116" s="334"/>
+      <c r="AF116" s="334"/>
       <c r="AG116" s="132"/>
       <c r="AH116" s="132"/>
     </row>
@@ -7747,56 +7750,56 @@
       <c r="AH117" s="86"/>
     </row>
     <row r="118" spans="1:34" ht="30" customHeight="1">
-      <c r="A118" s="374" t="s">
+      <c r="A118" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="339" t="s">
+      <c r="B118" s="347" t="s">
         <v>108</v>
       </c>
-      <c r="C118" s="340"/>
-      <c r="D118" s="285" t="s">
+      <c r="C118" s="348"/>
+      <c r="D118" s="353" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="287"/>
-      <c r="F118" s="285" t="s">
+      <c r="E118" s="354"/>
+      <c r="F118" s="353" t="s">
         <v>110</v>
       </c>
-      <c r="G118" s="286"/>
-      <c r="H118" s="287"/>
-      <c r="I118" s="285" t="s">
+      <c r="G118" s="404"/>
+      <c r="H118" s="354"/>
+      <c r="I118" s="353" t="s">
         <v>149</v>
       </c>
-      <c r="J118" s="286"/>
-      <c r="K118" s="286"/>
-      <c r="L118" s="287"/>
-      <c r="M118" s="359" t="s">
+      <c r="J118" s="404"/>
+      <c r="K118" s="404"/>
+      <c r="L118" s="354"/>
+      <c r="M118" s="406" t="s">
         <v>150</v>
       </c>
-      <c r="N118" s="360"/>
-      <c r="O118" s="360"/>
-      <c r="P118" s="361"/>
+      <c r="N118" s="407"/>
+      <c r="O118" s="407"/>
+      <c r="P118" s="408"/>
       <c r="Q118" s="197"/>
       <c r="R118" s="197"/>
       <c r="S118" s="197"/>
       <c r="T118" s="197"/>
     </row>
     <row r="119" spans="1:34" ht="30" customHeight="1">
-      <c r="A119" s="375"/>
-      <c r="B119" s="341"/>
-      <c r="C119" s="342"/>
-      <c r="D119" s="335"/>
-      <c r="E119" s="337"/>
-      <c r="F119" s="335"/>
-      <c r="G119" s="336"/>
-      <c r="H119" s="337"/>
-      <c r="I119" s="288"/>
-      <c r="J119" s="289"/>
-      <c r="K119" s="289"/>
-      <c r="L119" s="290"/>
-      <c r="M119" s="362"/>
-      <c r="N119" s="363"/>
-      <c r="O119" s="363"/>
-      <c r="P119" s="364"/>
+      <c r="A119" s="395"/>
+      <c r="B119" s="349"/>
+      <c r="C119" s="350"/>
+      <c r="D119" s="421"/>
+      <c r="E119" s="423"/>
+      <c r="F119" s="421"/>
+      <c r="G119" s="422"/>
+      <c r="H119" s="423"/>
+      <c r="I119" s="355"/>
+      <c r="J119" s="405"/>
+      <c r="K119" s="405"/>
+      <c r="L119" s="356"/>
+      <c r="M119" s="409"/>
+      <c r="N119" s="410"/>
+      <c r="O119" s="410"/>
+      <c r="P119" s="411"/>
       <c r="Q119" s="197"/>
       <c r="R119" s="197"/>
       <c r="S119" s="197"/>
@@ -7817,26 +7820,26 @@
       <c r="AH119" s="86"/>
     </row>
     <row r="120" spans="1:34" ht="30" customHeight="1">
-      <c r="A120" s="376"/>
-      <c r="B120" s="343"/>
-      <c r="C120" s="344"/>
-      <c r="D120" s="288"/>
-      <c r="E120" s="290"/>
-      <c r="F120" s="288"/>
-      <c r="G120" s="289"/>
-      <c r="H120" s="290"/>
-      <c r="I120" s="304" t="s">
+      <c r="A120" s="396"/>
+      <c r="B120" s="351"/>
+      <c r="C120" s="352"/>
+      <c r="D120" s="355"/>
+      <c r="E120" s="356"/>
+      <c r="F120" s="355"/>
+      <c r="G120" s="405"/>
+      <c r="H120" s="356"/>
+      <c r="I120" s="375" t="s">
         <v>151</v>
       </c>
-      <c r="J120" s="305"/>
-      <c r="K120" s="304" t="s">
+      <c r="J120" s="376"/>
+      <c r="K120" s="375" t="s">
         <v>152</v>
       </c>
-      <c r="L120" s="305"/>
-      <c r="M120" s="365"/>
-      <c r="N120" s="366"/>
-      <c r="O120" s="366"/>
-      <c r="P120" s="367"/>
+      <c r="L120" s="376"/>
+      <c r="M120" s="412"/>
+      <c r="N120" s="413"/>
+      <c r="O120" s="413"/>
+      <c r="P120" s="414"/>
       <c r="Q120" s="197"/>
       <c r="R120" s="197"/>
       <c r="S120" s="197"/>
@@ -7846,13 +7849,13 @@
       <c r="W120" s="132"/>
       <c r="X120" s="132"/>
       <c r="Y120" s="132"/>
-      <c r="Z120" s="317"/>
-      <c r="AA120" s="317"/>
-      <c r="AB120" s="317"/>
-      <c r="AC120" s="317"/>
-      <c r="AD120" s="317"/>
-      <c r="AE120" s="317"/>
-      <c r="AF120" s="317"/>
+      <c r="Z120" s="334"/>
+      <c r="AA120" s="334"/>
+      <c r="AB120" s="334"/>
+      <c r="AC120" s="334"/>
+      <c r="AD120" s="334"/>
+      <c r="AE120" s="334"/>
+      <c r="AF120" s="334"/>
       <c r="AG120" s="132"/>
       <c r="AH120" s="132"/>
     </row>
@@ -7860,33 +7863,33 @@
       <c r="A121" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B121" s="370" t="s">
+      <c r="B121" s="330" t="s">
         <v>191</v>
       </c>
-      <c r="C121" s="371"/>
-      <c r="D121" s="372" t="s">
+      <c r="C121" s="331"/>
+      <c r="D121" s="419" t="s">
         <v>192</v>
       </c>
-      <c r="E121" s="373"/>
-      <c r="F121" s="306" t="s">
+      <c r="E121" s="420"/>
+      <c r="F121" s="378" t="s">
         <v>193</v>
       </c>
-      <c r="G121" s="355"/>
-      <c r="H121" s="307"/>
-      <c r="I121" s="298" t="s">
+      <c r="G121" s="383"/>
+      <c r="H121" s="379"/>
+      <c r="I121" s="417" t="s">
         <v>194</v>
       </c>
-      <c r="J121" s="299"/>
-      <c r="K121" s="368" t="s">
+      <c r="J121" s="418"/>
+      <c r="K121" s="415" t="s">
         <v>208</v>
       </c>
-      <c r="L121" s="369"/>
-      <c r="M121" s="306" t="s">
+      <c r="L121" s="416"/>
+      <c r="M121" s="378" t="s">
         <v>209</v>
       </c>
-      <c r="N121" s="355"/>
-      <c r="O121" s="355"/>
-      <c r="P121" s="307"/>
+      <c r="N121" s="383"/>
+      <c r="O121" s="383"/>
+      <c r="P121" s="379"/>
       <c r="Q121" s="199"/>
       <c r="R121" s="199"/>
       <c r="S121" s="199"/>
@@ -7910,21 +7913,21 @@
       <c r="A122" s="114">
         <v>1</v>
       </c>
-      <c r="B122" s="318"/>
-      <c r="C122" s="319"/>
-      <c r="D122" s="318"/>
-      <c r="E122" s="319"/>
-      <c r="F122" s="345"/>
-      <c r="G122" s="346"/>
-      <c r="H122" s="347"/>
-      <c r="I122" s="353"/>
-      <c r="J122" s="354"/>
-      <c r="K122" s="353"/>
-      <c r="L122" s="354"/>
-      <c r="M122" s="356"/>
-      <c r="N122" s="357"/>
-      <c r="O122" s="357"/>
-      <c r="P122" s="358"/>
+      <c r="B122" s="332"/>
+      <c r="C122" s="333"/>
+      <c r="D122" s="332"/>
+      <c r="E122" s="333"/>
+      <c r="F122" s="388"/>
+      <c r="G122" s="389"/>
+      <c r="H122" s="390"/>
+      <c r="I122" s="345"/>
+      <c r="J122" s="346"/>
+      <c r="K122" s="345"/>
+      <c r="L122" s="346"/>
+      <c r="M122" s="391"/>
+      <c r="N122" s="392"/>
+      <c r="O122" s="392"/>
+      <c r="P122" s="393"/>
       <c r="Q122" s="201"/>
       <c r="R122" s="201"/>
       <c r="S122" s="201"/>
@@ -7934,21 +7937,21 @@
       <c r="A123" s="114">
         <v>2</v>
       </c>
-      <c r="B123" s="318"/>
-      <c r="C123" s="319"/>
-      <c r="D123" s="318"/>
-      <c r="E123" s="319"/>
-      <c r="F123" s="345"/>
-      <c r="G123" s="346"/>
-      <c r="H123" s="347"/>
-      <c r="I123" s="353"/>
-      <c r="J123" s="354"/>
-      <c r="K123" s="353"/>
-      <c r="L123" s="354"/>
-      <c r="M123" s="356"/>
-      <c r="N123" s="357"/>
-      <c r="O123" s="357"/>
-      <c r="P123" s="358"/>
+      <c r="B123" s="332"/>
+      <c r="C123" s="333"/>
+      <c r="D123" s="332"/>
+      <c r="E123" s="333"/>
+      <c r="F123" s="388"/>
+      <c r="G123" s="389"/>
+      <c r="H123" s="390"/>
+      <c r="I123" s="345"/>
+      <c r="J123" s="346"/>
+      <c r="K123" s="345"/>
+      <c r="L123" s="346"/>
+      <c r="M123" s="391"/>
+      <c r="N123" s="392"/>
+      <c r="O123" s="392"/>
+      <c r="P123" s="393"/>
       <c r="Q123" s="201"/>
       <c r="R123" s="201"/>
       <c r="S123" s="201"/>
@@ -7972,21 +7975,21 @@
       <c r="A124" s="114">
         <v>3</v>
       </c>
-      <c r="B124" s="318"/>
-      <c r="C124" s="319"/>
-      <c r="D124" s="318"/>
-      <c r="E124" s="319"/>
-      <c r="F124" s="345"/>
-      <c r="G124" s="346"/>
-      <c r="H124" s="347"/>
-      <c r="I124" s="353"/>
-      <c r="J124" s="354"/>
-      <c r="K124" s="353"/>
-      <c r="L124" s="354"/>
-      <c r="M124" s="356"/>
-      <c r="N124" s="357"/>
-      <c r="O124" s="357"/>
-      <c r="P124" s="358"/>
+      <c r="B124" s="332"/>
+      <c r="C124" s="333"/>
+      <c r="D124" s="332"/>
+      <c r="E124" s="333"/>
+      <c r="F124" s="388"/>
+      <c r="G124" s="389"/>
+      <c r="H124" s="390"/>
+      <c r="I124" s="345"/>
+      <c r="J124" s="346"/>
+      <c r="K124" s="345"/>
+      <c r="L124" s="346"/>
+      <c r="M124" s="391"/>
+      <c r="N124" s="392"/>
+      <c r="O124" s="392"/>
+      <c r="P124" s="393"/>
       <c r="Q124" s="201"/>
       <c r="R124" s="201"/>
       <c r="S124" s="201"/>
@@ -8000,21 +8003,21 @@
       <c r="A125" s="114">
         <v>4</v>
       </c>
-      <c r="B125" s="318"/>
-      <c r="C125" s="319"/>
-      <c r="D125" s="318"/>
-      <c r="E125" s="319"/>
-      <c r="F125" s="345"/>
-      <c r="G125" s="346"/>
-      <c r="H125" s="347"/>
-      <c r="I125" s="353"/>
-      <c r="J125" s="354"/>
-      <c r="K125" s="353"/>
-      <c r="L125" s="354"/>
-      <c r="M125" s="356"/>
-      <c r="N125" s="357"/>
-      <c r="O125" s="357"/>
-      <c r="P125" s="358"/>
+      <c r="B125" s="332"/>
+      <c r="C125" s="333"/>
+      <c r="D125" s="332"/>
+      <c r="E125" s="333"/>
+      <c r="F125" s="388"/>
+      <c r="G125" s="389"/>
+      <c r="H125" s="390"/>
+      <c r="I125" s="345"/>
+      <c r="J125" s="346"/>
+      <c r="K125" s="345"/>
+      <c r="L125" s="346"/>
+      <c r="M125" s="391"/>
+      <c r="N125" s="392"/>
+      <c r="O125" s="392"/>
+      <c r="P125" s="393"/>
       <c r="Q125" s="201"/>
       <c r="R125" s="201"/>
       <c r="S125" s="201"/>
@@ -8125,13 +8128,13 @@
       <c r="G129" s="86"/>
       <c r="H129" s="86"/>
       <c r="I129" s="86"/>
-      <c r="J129" s="330"/>
-      <c r="K129" s="330"/>
-      <c r="L129" s="330"/>
-      <c r="M129" s="330"/>
-      <c r="N129" s="330"/>
-      <c r="O129" s="330"/>
-      <c r="P129" s="330"/>
+      <c r="J129" s="329"/>
+      <c r="K129" s="329"/>
+      <c r="L129" s="329"/>
+      <c r="M129" s="329"/>
+      <c r="N129" s="329"/>
+      <c r="O129" s="329"/>
+      <c r="P129" s="329"/>
       <c r="Q129" s="128"/>
       <c r="R129" s="128"/>
       <c r="S129" s="128"/>
@@ -8145,28 +8148,28 @@
       <c r="AA129" s="129"/>
     </row>
     <row r="130" spans="1:27" ht="30" customHeight="1">
-      <c r="A130" s="380" t="s">
+      <c r="A130" s="267" t="s">
         <v>125</v>
       </c>
-      <c r="B130" s="380"/>
-      <c r="C130" s="315" t="s">
+      <c r="B130" s="267"/>
+      <c r="C130" s="382" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="315"/>
-      <c r="E130" s="315"/>
-      <c r="F130" s="315"/>
-      <c r="G130" s="316" t="s">
+      <c r="D130" s="382"/>
+      <c r="E130" s="382"/>
+      <c r="F130" s="382"/>
+      <c r="G130" s="338" t="s">
         <v>127</v>
       </c>
-      <c r="H130" s="316"/>
-      <c r="I130" s="316"/>
-      <c r="J130" s="316"/>
-      <c r="K130" s="316"/>
-      <c r="L130" s="316"/>
-      <c r="M130" s="316"/>
-      <c r="N130" s="316"/>
-      <c r="O130" s="316"/>
-      <c r="P130" s="316"/>
+      <c r="H130" s="338"/>
+      <c r="I130" s="338"/>
+      <c r="J130" s="338"/>
+      <c r="K130" s="338"/>
+      <c r="L130" s="338"/>
+      <c r="M130" s="338"/>
+      <c r="N130" s="338"/>
+      <c r="O130" s="338"/>
+      <c r="P130" s="338"/>
       <c r="Q130" s="130"/>
       <c r="R130" s="130"/>
       <c r="S130" s="130"/>
@@ -8189,13 +8192,13 @@
       <c r="G131" s="130"/>
       <c r="H131" s="130"/>
       <c r="I131" s="130"/>
-      <c r="J131" s="316"/>
-      <c r="K131" s="316"/>
-      <c r="L131" s="316"/>
-      <c r="M131" s="316"/>
-      <c r="N131" s="316"/>
-      <c r="O131" s="316"/>
-      <c r="P131" s="316"/>
+      <c r="J131" s="338"/>
+      <c r="K131" s="338"/>
+      <c r="L131" s="338"/>
+      <c r="M131" s="338"/>
+      <c r="N131" s="338"/>
+      <c r="O131" s="338"/>
+      <c r="P131" s="338"/>
       <c r="Q131" s="130"/>
       <c r="R131" s="130"/>
       <c r="S131" s="130"/>
@@ -8334,13 +8337,13 @@
       <c r="G136" s="132"/>
       <c r="H136" s="132"/>
       <c r="I136" s="132"/>
-      <c r="J136" s="317"/>
-      <c r="K136" s="317"/>
-      <c r="L136" s="317"/>
-      <c r="M136" s="317"/>
-      <c r="N136" s="317"/>
-      <c r="O136" s="317"/>
-      <c r="P136" s="317"/>
+      <c r="J136" s="334"/>
+      <c r="K136" s="334"/>
+      <c r="L136" s="334"/>
+      <c r="M136" s="334"/>
+      <c r="N136" s="334"/>
+      <c r="O136" s="334"/>
+      <c r="P136" s="334"/>
       <c r="Q136" s="132"/>
       <c r="R136" s="132"/>
       <c r="S136" s="132"/>
@@ -8470,24 +8473,24 @@
       <c r="AA140" s="96"/>
     </row>
     <row r="150" spans="1:27" ht="30" customHeight="1">
-      <c r="A150" s="294" t="s">
+      <c r="A150" s="335" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="294"/>
-      <c r="C150" s="294"/>
-      <c r="D150" s="294"/>
+      <c r="B150" s="335"/>
+      <c r="C150" s="335"/>
+      <c r="D150" s="335"/>
       <c r="E150" s="87"/>
       <c r="F150" s="88"/>
       <c r="G150" s="88"/>
       <c r="H150" s="88"/>
       <c r="I150" s="87"/>
-      <c r="J150" s="295" t="s">
+      <c r="J150" s="336" t="s">
         <v>104</v>
       </c>
-      <c r="K150" s="295"/>
-      <c r="L150" s="295"/>
-      <c r="M150" s="295"/>
-      <c r="N150" s="295"/>
+      <c r="K150" s="336"/>
+      <c r="L150" s="336"/>
+      <c r="M150" s="336"/>
+      <c r="N150" s="336"/>
       <c r="O150" s="87"/>
       <c r="P150" s="87"/>
       <c r="Q150" s="87"/>
@@ -8502,24 +8505,24 @@
       <c r="Z150" s="89"/>
     </row>
     <row r="151" spans="1:27" ht="30" customHeight="1">
-      <c r="A151" s="296" t="s">
+      <c r="A151" s="384" t="s">
         <v>105</v>
       </c>
-      <c r="B151" s="296"/>
-      <c r="C151" s="296"/>
-      <c r="D151" s="296"/>
+      <c r="B151" s="384"/>
+      <c r="C151" s="384"/>
+      <c r="D151" s="384"/>
       <c r="E151" s="87"/>
       <c r="F151" s="90"/>
       <c r="G151" s="90"/>
       <c r="H151" s="90"/>
       <c r="I151" s="87"/>
-      <c r="J151" s="297" t="s">
+      <c r="J151" s="385" t="s">
         <v>106</v>
       </c>
-      <c r="K151" s="297"/>
-      <c r="L151" s="297"/>
-      <c r="M151" s="297"/>
-      <c r="N151" s="297"/>
+      <c r="K151" s="385"/>
+      <c r="L151" s="385"/>
+      <c r="M151" s="385"/>
+      <c r="N151" s="385"/>
       <c r="O151" s="88"/>
       <c r="P151" s="88"/>
       <c r="Q151" s="88"/>
@@ -8562,24 +8565,24 @@
       <c r="Z152" s="86"/>
     </row>
     <row r="153" spans="1:27" ht="30" customHeight="1">
-      <c r="A153" s="283" t="s">
+      <c r="A153" s="386" t="s">
         <v>210</v>
       </c>
-      <c r="B153" s="283"/>
-      <c r="C153" s="283"/>
-      <c r="D153" s="283"/>
-      <c r="E153" s="283"/>
-      <c r="F153" s="283"/>
-      <c r="G153" s="283"/>
-      <c r="H153" s="283"/>
-      <c r="I153" s="283"/>
-      <c r="J153" s="283"/>
-      <c r="K153" s="283"/>
-      <c r="L153" s="283"/>
-      <c r="M153" s="283"/>
-      <c r="N153" s="283"/>
-      <c r="O153" s="283"/>
-      <c r="P153" s="283"/>
+      <c r="B153" s="386"/>
+      <c r="C153" s="386"/>
+      <c r="D153" s="386"/>
+      <c r="E153" s="386"/>
+      <c r="F153" s="386"/>
+      <c r="G153" s="386"/>
+      <c r="H153" s="386"/>
+      <c r="I153" s="386"/>
+      <c r="J153" s="386"/>
+      <c r="K153" s="386"/>
+      <c r="L153" s="386"/>
+      <c r="M153" s="386"/>
+      <c r="N153" s="386"/>
+      <c r="O153" s="386"/>
+      <c r="P153" s="386"/>
       <c r="Q153" s="97"/>
       <c r="R153" s="97"/>
       <c r="S153" s="97"/>
@@ -8592,22 +8595,22 @@
       <c r="Z153" s="86"/>
     </row>
     <row r="154" spans="1:27" ht="30" customHeight="1">
-      <c r="A154" s="338"/>
-      <c r="B154" s="338"/>
-      <c r="C154" s="338"/>
-      <c r="D154" s="338"/>
-      <c r="E154" s="338"/>
-      <c r="F154" s="338"/>
-      <c r="G154" s="338"/>
-      <c r="H154" s="338"/>
-      <c r="I154" s="338"/>
-      <c r="J154" s="338"/>
-      <c r="K154" s="338"/>
-      <c r="L154" s="338"/>
-      <c r="M154" s="338"/>
-      <c r="N154" s="338"/>
-      <c r="O154" s="338"/>
-      <c r="P154" s="338"/>
+      <c r="A154" s="387"/>
+      <c r="B154" s="387"/>
+      <c r="C154" s="387"/>
+      <c r="D154" s="387"/>
+      <c r="E154" s="387"/>
+      <c r="F154" s="387"/>
+      <c r="G154" s="387"/>
+      <c r="H154" s="387"/>
+      <c r="I154" s="387"/>
+      <c r="J154" s="387"/>
+      <c r="K154" s="387"/>
+      <c r="L154" s="387"/>
+      <c r="M154" s="387"/>
+      <c r="N154" s="387"/>
+      <c r="O154" s="387"/>
+      <c r="P154" s="387"/>
       <c r="Q154" s="99"/>
       <c r="R154" s="99"/>
       <c r="S154" s="99"/>
@@ -8648,37 +8651,37 @@
       <c r="Z155" s="86"/>
     </row>
     <row r="156" spans="1:27" ht="30" customHeight="1">
-      <c r="A156" s="374" t="s">
+      <c r="A156" s="394" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="339" t="s">
+      <c r="B156" s="347" t="s">
         <v>108</v>
       </c>
-      <c r="C156" s="340"/>
-      <c r="D156" s="291" t="s">
+      <c r="C156" s="348"/>
+      <c r="D156" s="357" t="s">
         <v>109</v>
       </c>
-      <c r="E156" s="285" t="s">
+      <c r="E156" s="353" t="s">
         <v>110</v>
       </c>
-      <c r="F156" s="287"/>
-      <c r="G156" s="291" t="s">
+      <c r="F156" s="354"/>
+      <c r="G156" s="357" t="s">
         <v>211</v>
       </c>
-      <c r="H156" s="291" t="s">
+      <c r="H156" s="357" t="s">
         <v>212</v>
       </c>
-      <c r="I156" s="381" t="s">
+      <c r="I156" s="360" t="s">
         <v>229</v>
       </c>
-      <c r="J156" s="382"/>
-      <c r="K156" s="382"/>
-      <c r="L156" s="383"/>
-      <c r="M156" s="387" t="s">
+      <c r="J156" s="361"/>
+      <c r="K156" s="361"/>
+      <c r="L156" s="362"/>
+      <c r="M156" s="366" t="s">
         <v>213</v>
       </c>
-      <c r="N156" s="388"/>
-      <c r="O156" s="389"/>
+      <c r="N156" s="367"/>
+      <c r="O156" s="368"/>
       <c r="P156" s="107"/>
       <c r="Q156" s="211"/>
       <c r="R156" s="211"/>
@@ -8692,21 +8695,21 @@
       <c r="Z156" s="212"/>
     </row>
     <row r="157" spans="1:27" ht="30" customHeight="1">
-      <c r="A157" s="375"/>
-      <c r="B157" s="341"/>
-      <c r="C157" s="342"/>
-      <c r="D157" s="292"/>
-      <c r="E157" s="288"/>
-      <c r="F157" s="290"/>
-      <c r="G157" s="292"/>
-      <c r="H157" s="292"/>
-      <c r="I157" s="384"/>
-      <c r="J157" s="385"/>
-      <c r="K157" s="385"/>
-      <c r="L157" s="386"/>
-      <c r="M157" s="390"/>
-      <c r="N157" s="391"/>
-      <c r="O157" s="392"/>
+      <c r="A157" s="395"/>
+      <c r="B157" s="349"/>
+      <c r="C157" s="350"/>
+      <c r="D157" s="358"/>
+      <c r="E157" s="355"/>
+      <c r="F157" s="356"/>
+      <c r="G157" s="358"/>
+      <c r="H157" s="358"/>
+      <c r="I157" s="363"/>
+      <c r="J157" s="364"/>
+      <c r="K157" s="364"/>
+      <c r="L157" s="365"/>
+      <c r="M157" s="369"/>
+      <c r="N157" s="370"/>
+      <c r="O157" s="371"/>
       <c r="P157" s="107"/>
       <c r="Q157" s="211"/>
       <c r="R157" s="211"/>
@@ -8720,29 +8723,29 @@
       <c r="Z157" s="212"/>
     </row>
     <row r="158" spans="1:27" ht="30" customHeight="1">
-      <c r="A158" s="376"/>
-      <c r="B158" s="343"/>
-      <c r="C158" s="344"/>
-      <c r="D158" s="293"/>
+      <c r="A158" s="396"/>
+      <c r="B158" s="351"/>
+      <c r="C158" s="352"/>
+      <c r="D158" s="359"/>
       <c r="E158" s="105" t="s">
         <v>214</v>
       </c>
       <c r="F158" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="G158" s="293"/>
-      <c r="H158" s="293"/>
-      <c r="I158" s="304" t="s">
+      <c r="G158" s="359"/>
+      <c r="H158" s="359"/>
+      <c r="I158" s="375" t="s">
         <v>216</v>
       </c>
-      <c r="J158" s="305"/>
-      <c r="K158" s="304" t="s">
+      <c r="J158" s="376"/>
+      <c r="K158" s="375" t="s">
         <v>217</v>
       </c>
-      <c r="L158" s="305"/>
-      <c r="M158" s="393"/>
-      <c r="N158" s="394"/>
-      <c r="O158" s="395"/>
+      <c r="L158" s="376"/>
+      <c r="M158" s="372"/>
+      <c r="N158" s="373"/>
+      <c r="O158" s="374"/>
       <c r="P158" s="107"/>
       <c r="Q158" s="211"/>
       <c r="R158" s="211"/>
@@ -8760,10 +8763,10 @@
       <c r="A159" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B159" s="370" t="s">
+      <c r="B159" s="330" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="371"/>
+      <c r="C159" s="331"/>
       <c r="D159" s="155" t="s">
         <v>192</v>
       </c>
@@ -8779,19 +8782,19 @@
       <c r="H159" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="I159" s="306" t="s">
+      <c r="I159" s="378" t="s">
         <v>220</v>
       </c>
-      <c r="J159" s="307"/>
-      <c r="K159" s="306" t="s">
+      <c r="J159" s="379"/>
+      <c r="K159" s="378" t="s">
         <v>221</v>
       </c>
-      <c r="L159" s="307"/>
-      <c r="M159" s="306" t="s">
+      <c r="L159" s="379"/>
+      <c r="M159" s="378" t="s">
         <v>222</v>
       </c>
-      <c r="N159" s="355"/>
-      <c r="O159" s="307"/>
+      <c r="N159" s="383"/>
+      <c r="O159" s="379"/>
       <c r="P159" s="156"/>
       <c r="Q159" s="111"/>
       <c r="R159" s="111"/>
@@ -8809,22 +8812,22 @@
       <c r="A160" s="114">
         <v>1</v>
       </c>
-      <c r="B160" s="318"/>
-      <c r="C160" s="319"/>
+      <c r="B160" s="332"/>
+      <c r="C160" s="333"/>
       <c r="D160" s="116"/>
       <c r="E160" s="117"/>
       <c r="F160" s="215"/>
       <c r="G160" s="215"/>
       <c r="H160" s="117"/>
-      <c r="I160" s="378"/>
-      <c r="J160" s="379"/>
-      <c r="K160" s="353"/>
-      <c r="L160" s="354"/>
-      <c r="M160" s="353" t="s">
+      <c r="I160" s="380"/>
+      <c r="J160" s="381"/>
+      <c r="K160" s="345"/>
+      <c r="L160" s="346"/>
+      <c r="M160" s="345" t="s">
         <v>199</v>
       </c>
       <c r="N160" s="377"/>
-      <c r="O160" s="354"/>
+      <c r="O160" s="346"/>
       <c r="P160" s="202"/>
       <c r="Q160" s="211"/>
       <c r="R160" s="216"/>
@@ -8842,22 +8845,22 @@
       <c r="A161" s="114">
         <v>2</v>
       </c>
-      <c r="B161" s="318"/>
-      <c r="C161" s="319"/>
+      <c r="B161" s="332"/>
+      <c r="C161" s="333"/>
       <c r="D161" s="116"/>
       <c r="E161" s="117"/>
       <c r="F161" s="215"/>
       <c r="G161" s="215"/>
       <c r="H161" s="117"/>
-      <c r="I161" s="378"/>
-      <c r="J161" s="379"/>
-      <c r="K161" s="353"/>
-      <c r="L161" s="354"/>
-      <c r="M161" s="353" t="s">
+      <c r="I161" s="380"/>
+      <c r="J161" s="381"/>
+      <c r="K161" s="345"/>
+      <c r="L161" s="346"/>
+      <c r="M161" s="345" t="s">
         <v>199</v>
       </c>
       <c r="N161" s="377"/>
-      <c r="O161" s="354"/>
+      <c r="O161" s="346"/>
       <c r="P161" s="202"/>
       <c r="Q161" s="211"/>
       <c r="R161" s="216"/>
@@ -8875,22 +8878,22 @@
       <c r="A162" s="114">
         <v>3</v>
       </c>
-      <c r="B162" s="318"/>
-      <c r="C162" s="319"/>
+      <c r="B162" s="332"/>
+      <c r="C162" s="333"/>
       <c r="D162" s="116"/>
       <c r="E162" s="117"/>
       <c r="F162" s="215"/>
       <c r="G162" s="215"/>
       <c r="H162" s="117"/>
-      <c r="I162" s="378"/>
-      <c r="J162" s="379"/>
-      <c r="K162" s="353"/>
-      <c r="L162" s="354"/>
-      <c r="M162" s="353" t="s">
+      <c r="I162" s="380"/>
+      <c r="J162" s="381"/>
+      <c r="K162" s="345"/>
+      <c r="L162" s="346"/>
+      <c r="M162" s="345" t="s">
         <v>199</v>
       </c>
       <c r="N162" s="377"/>
-      <c r="O162" s="354"/>
+      <c r="O162" s="346"/>
       <c r="P162" s="202"/>
       <c r="Q162" s="211"/>
       <c r="R162" s="216"/>
@@ -8908,22 +8911,22 @@
       <c r="A163" s="114">
         <v>4</v>
       </c>
-      <c r="B163" s="318"/>
-      <c r="C163" s="319"/>
+      <c r="B163" s="332"/>
+      <c r="C163" s="333"/>
       <c r="D163" s="116"/>
       <c r="E163" s="117"/>
       <c r="F163" s="215"/>
       <c r="G163" s="215"/>
       <c r="H163" s="117"/>
-      <c r="I163" s="378"/>
-      <c r="J163" s="379"/>
-      <c r="K163" s="353"/>
-      <c r="L163" s="354"/>
-      <c r="M163" s="353" t="s">
+      <c r="I163" s="380"/>
+      <c r="J163" s="381"/>
+      <c r="K163" s="345"/>
+      <c r="L163" s="346"/>
+      <c r="M163" s="345" t="s">
         <v>199</v>
       </c>
       <c r="N163" s="377"/>
-      <c r="O163" s="354"/>
+      <c r="O163" s="346"/>
       <c r="P163" s="202"/>
       <c r="Q163" s="211"/>
       <c r="R163" s="216"/>
@@ -8976,12 +8979,12 @@
       <c r="G165" s="86"/>
       <c r="H165" s="86"/>
       <c r="I165" s="86"/>
-      <c r="J165" s="330"/>
-      <c r="K165" s="330"/>
-      <c r="L165" s="330"/>
-      <c r="M165" s="330"/>
-      <c r="N165" s="330"/>
-      <c r="O165" s="330"/>
+      <c r="J165" s="329"/>
+      <c r="K165" s="329"/>
+      <c r="L165" s="329"/>
+      <c r="M165" s="329"/>
+      <c r="N165" s="329"/>
+      <c r="O165" s="329"/>
       <c r="P165" s="222"/>
       <c r="Q165" s="128"/>
       <c r="R165" s="216"/>
@@ -8996,28 +8999,28 @@
       <c r="AA165" s="129"/>
     </row>
     <row r="166" spans="1:27" ht="30" customHeight="1">
-      <c r="A166" s="380" t="s">
+      <c r="A166" s="267" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="380"/>
-      <c r="C166" s="315" t="s">
+      <c r="B166" s="267"/>
+      <c r="C166" s="382" t="s">
         <v>126</v>
       </c>
-      <c r="D166" s="315"/>
-      <c r="E166" s="315"/>
-      <c r="F166" s="315"/>
-      <c r="G166" s="316" t="s">
+      <c r="D166" s="382"/>
+      <c r="E166" s="382"/>
+      <c r="F166" s="382"/>
+      <c r="G166" s="338" t="s">
         <v>127</v>
       </c>
-      <c r="H166" s="316"/>
-      <c r="I166" s="316"/>
-      <c r="J166" s="316"/>
-      <c r="K166" s="316"/>
-      <c r="L166" s="316"/>
-      <c r="M166" s="316"/>
-      <c r="N166" s="316"/>
-      <c r="O166" s="316"/>
-      <c r="P166" s="316"/>
+      <c r="H166" s="338"/>
+      <c r="I166" s="338"/>
+      <c r="J166" s="338"/>
+      <c r="K166" s="338"/>
+      <c r="L166" s="338"/>
+      <c r="M166" s="338"/>
+      <c r="N166" s="338"/>
+      <c r="O166" s="338"/>
+      <c r="P166" s="338"/>
       <c r="Q166" s="130"/>
       <c r="R166" s="130"/>
       <c r="S166" s="130"/>
@@ -9040,13 +9043,13 @@
       <c r="G167" s="130"/>
       <c r="H167" s="130"/>
       <c r="I167" s="130"/>
-      <c r="J167" s="316"/>
-      <c r="K167" s="316"/>
-      <c r="L167" s="316"/>
-      <c r="M167" s="316"/>
-      <c r="N167" s="316"/>
-      <c r="O167" s="316"/>
-      <c r="P167" s="316"/>
+      <c r="J167" s="338"/>
+      <c r="K167" s="338"/>
+      <c r="L167" s="338"/>
+      <c r="M167" s="338"/>
+      <c r="N167" s="338"/>
+      <c r="O167" s="338"/>
+      <c r="P167" s="338"/>
       <c r="Q167" s="130"/>
       <c r="R167" s="130"/>
       <c r="S167" s="130"/>
@@ -9185,13 +9188,13 @@
       <c r="G172" s="132"/>
       <c r="H172" s="132"/>
       <c r="I172" s="132"/>
-      <c r="J172" s="317"/>
-      <c r="K172" s="317"/>
-      <c r="L172" s="317"/>
-      <c r="M172" s="317"/>
-      <c r="N172" s="317"/>
-      <c r="O172" s="317"/>
-      <c r="P172" s="317"/>
+      <c r="J172" s="334"/>
+      <c r="K172" s="334"/>
+      <c r="L172" s="334"/>
+      <c r="M172" s="334"/>
+      <c r="N172" s="334"/>
+      <c r="O172" s="334"/>
+      <c r="P172" s="334"/>
       <c r="Q172" s="132"/>
       <c r="R172" s="132"/>
       <c r="S172" s="132"/>
@@ -9783,13 +9786,13 @@
       <c r="G193" s="130"/>
       <c r="H193" s="130"/>
       <c r="I193" s="130"/>
-      <c r="J193" s="316"/>
-      <c r="K193" s="316"/>
-      <c r="L193" s="316"/>
-      <c r="M193" s="316"/>
-      <c r="N193" s="316"/>
-      <c r="O193" s="316"/>
-      <c r="P193" s="316"/>
+      <c r="J193" s="338"/>
+      <c r="K193" s="338"/>
+      <c r="L193" s="338"/>
+      <c r="M193" s="338"/>
+      <c r="N193" s="338"/>
+      <c r="O193" s="338"/>
+      <c r="P193" s="338"/>
       <c r="Q193" s="130"/>
       <c r="R193" s="130"/>
       <c r="S193" s="130"/>
@@ -9928,13 +9931,13 @@
       <c r="G198" s="132"/>
       <c r="H198" s="132"/>
       <c r="I198" s="132"/>
-      <c r="J198" s="317"/>
-      <c r="K198" s="317"/>
-      <c r="L198" s="317"/>
-      <c r="M198" s="317"/>
-      <c r="N198" s="317"/>
-      <c r="O198" s="317"/>
-      <c r="P198" s="317"/>
+      <c r="J198" s="334"/>
+      <c r="K198" s="334"/>
+      <c r="L198" s="334"/>
+      <c r="M198" s="334"/>
+      <c r="N198" s="334"/>
+      <c r="O198" s="334"/>
+      <c r="P198" s="334"/>
       <c r="Q198" s="132"/>
       <c r="R198" s="132"/>
       <c r="S198" s="132"/>
@@ -10007,6 +10010,252 @@
     </row>
   </sheetData>
   <mergeCells count="270">
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="B82:R82"/>
+    <mergeCell ref="B87:R87"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="Y37:Y39"/>
+    <mergeCell ref="A34:P34"/>
+    <mergeCell ref="A35:P35"/>
+    <mergeCell ref="E37:G38"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="I37:L38"/>
+    <mergeCell ref="M37:P38"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="U77:X78"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="U37:U39"/>
+    <mergeCell ref="V37:X38"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="J112:P112"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="V94:X94"/>
+    <mergeCell ref="U94:U95"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="M122:P122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="M121:P121"/>
+    <mergeCell ref="I118:L119"/>
+    <mergeCell ref="M118:P120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="J104:P104"/>
+    <mergeCell ref="J110:P110"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="J113:P113"/>
+    <mergeCell ref="F118:H120"/>
+    <mergeCell ref="J198:P198"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="E77:G78"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="J166:P166"/>
+    <mergeCell ref="M159:O159"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="J136:P136"/>
+    <mergeCell ref="M162:O162"/>
+    <mergeCell ref="J131:P131"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="J150:N150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="A153:P153"/>
+    <mergeCell ref="A154:P154"/>
+    <mergeCell ref="J193:P193"/>
+    <mergeCell ref="B156:C158"/>
+    <mergeCell ref="E156:F157"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="I156:L157"/>
+    <mergeCell ref="M156:O158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="J167:P167"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M161:O161"/>
+    <mergeCell ref="J165:O165"/>
+    <mergeCell ref="M163:O163"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="J172:P172"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:F166"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="Z120:AF120"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="L93:P93"/>
+    <mergeCell ref="L94:P94"/>
+    <mergeCell ref="L95:P95"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="Z104:AF104"/>
+    <mergeCell ref="Z108:AF108"/>
+    <mergeCell ref="Z116:AF116"/>
+    <mergeCell ref="U81:X81"/>
+    <mergeCell ref="U86:X86"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="J129:P129"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="J130:P130"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="M124:P124"/>
+    <mergeCell ref="B118:C120"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="A75:P75"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="R2:Z2"/>
@@ -10031,252 +10280,6 @@
     <mergeCell ref="U51:U53"/>
     <mergeCell ref="V51:X52"/>
     <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="J129:P129"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="Z120:AF120"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="L93:P93"/>
-    <mergeCell ref="L94:P94"/>
-    <mergeCell ref="L95:P95"/>
-    <mergeCell ref="L100:P100"/>
-    <mergeCell ref="Z104:AF104"/>
-    <mergeCell ref="Z108:AF108"/>
-    <mergeCell ref="Z116:AF116"/>
-    <mergeCell ref="U81:X81"/>
-    <mergeCell ref="U86:X86"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="J193:P193"/>
-    <mergeCell ref="B156:C158"/>
-    <mergeCell ref="E156:F157"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="I156:L157"/>
-    <mergeCell ref="M156:O158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="J167:P167"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M161:O161"/>
-    <mergeCell ref="J165:O165"/>
-    <mergeCell ref="M163:O163"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="J172:P172"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="J130:P130"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:F166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="J166:P166"/>
-    <mergeCell ref="M159:O159"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="G156:G158"/>
-    <mergeCell ref="J136:P136"/>
-    <mergeCell ref="M162:O162"/>
-    <mergeCell ref="J131:P131"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="J150:N150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="A153:P153"/>
-    <mergeCell ref="A154:P154"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="M124:P124"/>
-    <mergeCell ref="J198:P198"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="M160:O160"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="V94:X94"/>
-    <mergeCell ref="U94:U95"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="M122:P122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="M121:P121"/>
-    <mergeCell ref="I118:L119"/>
-    <mergeCell ref="M118:P120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="J104:P104"/>
-    <mergeCell ref="J110:P110"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="J113:P113"/>
-    <mergeCell ref="F118:H120"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="E77:G78"/>
-    <mergeCell ref="A116:P116"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="B118:C120"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="J112:P112"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="U77:X78"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="U37:U39"/>
-    <mergeCell ref="V37:X38"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="I37:L38"/>
-    <mergeCell ref="M37:P38"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="B82:R82"/>
-    <mergeCell ref="B87:R87"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="Y37:Y39"/>
-    <mergeCell ref="A34:P34"/>
-    <mergeCell ref="A35:P35"/>
-    <mergeCell ref="E37:G38"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="S14:T14"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -10728,10 +10731,10 @@
         <v>96</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="495" t="s">
+      <c r="N2" s="492" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="495"/>
+      <c r="O2" s="492"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>97</v>
@@ -41009,17 +41012,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
@@ -41029,6 +41021,17 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41144,36 +41147,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="459" t="s">
+      <c r="A1" s="458" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="459"/>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="459"/>
-      <c r="M1" s="459"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
     </row>
     <row r="2" spans="1:32" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="460"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="460"/>
-      <c r="F2" s="460"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460"/>
-      <c r="I2" s="460"/>
-      <c r="J2" s="460"/>
-      <c r="K2" s="460"/>
-      <c r="L2" s="460"/>
-      <c r="M2" s="460"/>
+      <c r="A2" s="459"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+      <c r="F2" s="459"/>
+      <c r="G2" s="459"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="459"/>
+      <c r="K2" s="459"/>
+      <c r="L2" s="459"/>
+      <c r="M2" s="459"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41181,192 +41184,192 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="460" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="458" t="s">
+      <c r="B4" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="458" t="s">
+      <c r="C4" s="460" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="458" t="s">
+      <c r="D4" s="460" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="458"/>
-      <c r="F4" s="458"/>
-      <c r="G4" s="458"/>
-      <c r="H4" s="458" t="s">
+      <c r="E4" s="460"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="460"/>
+      <c r="H4" s="460" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="458"/>
-      <c r="J4" s="458"/>
-      <c r="K4" s="458" t="s">
+      <c r="I4" s="460"/>
+      <c r="J4" s="460"/>
+      <c r="K4" s="460" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="458"/>
-      <c r="M4" s="458" t="s">
+      <c r="L4" s="460"/>
+      <c r="M4" s="460" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="458"/>
-      <c r="O4" s="458"/>
-      <c r="P4" s="458"/>
-      <c r="Q4" s="458"/>
-      <c r="R4" s="458"/>
-      <c r="S4" s="458"/>
-      <c r="T4" s="458"/>
-      <c r="U4" s="458" t="s">
+      <c r="N4" s="460"/>
+      <c r="O4" s="460"/>
+      <c r="P4" s="460"/>
+      <c r="Q4" s="460"/>
+      <c r="R4" s="460"/>
+      <c r="S4" s="460"/>
+      <c r="T4" s="460"/>
+      <c r="U4" s="460" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="458"/>
-      <c r="W4" s="458"/>
-      <c r="X4" s="458"/>
-      <c r="Y4" s="458" t="s">
+      <c r="V4" s="460"/>
+      <c r="W4" s="460"/>
+      <c r="X4" s="460"/>
+      <c r="Y4" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="458"/>
-      <c r="AA4" s="458" t="s">
+      <c r="Z4" s="460"/>
+      <c r="AA4" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="458"/>
-      <c r="AC4" s="458" t="s">
+      <c r="AB4" s="460"/>
+      <c r="AC4" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="458"/>
-      <c r="AE4" s="458" t="s">
+      <c r="AD4" s="460"/>
+      <c r="AE4" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="458"/>
+      <c r="AF4" s="460"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="458"/>
-      <c r="G5" s="458"/>
-      <c r="H5" s="458" t="s">
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
+      <c r="D5" s="460"/>
+      <c r="E5" s="460"/>
+      <c r="F5" s="460"/>
+      <c r="G5" s="460"/>
+      <c r="H5" s="460" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="458" t="s">
+      <c r="I5" s="460" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="458" t="s">
+      <c r="J5" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="458"/>
-      <c r="L5" s="458"/>
-      <c r="M5" s="458"/>
-      <c r="N5" s="458"/>
-      <c r="O5" s="458"/>
-      <c r="P5" s="458"/>
-      <c r="Q5" s="458"/>
-      <c r="R5" s="458"/>
-      <c r="S5" s="458"/>
-      <c r="T5" s="458"/>
-      <c r="U5" s="458"/>
-      <c r="V5" s="458"/>
-      <c r="W5" s="458"/>
-      <c r="X5" s="458"/>
-      <c r="Y5" s="458"/>
-      <c r="Z5" s="458"/>
-      <c r="AA5" s="458"/>
-      <c r="AB5" s="458"/>
-      <c r="AC5" s="458"/>
-      <c r="AD5" s="458"/>
-      <c r="AE5" s="458"/>
-      <c r="AF5" s="458"/>
+      <c r="K5" s="460"/>
+      <c r="L5" s="460"/>
+      <c r="M5" s="460"/>
+      <c r="N5" s="460"/>
+      <c r="O5" s="460"/>
+      <c r="P5" s="460"/>
+      <c r="Q5" s="460"/>
+      <c r="R5" s="460"/>
+      <c r="S5" s="460"/>
+      <c r="T5" s="460"/>
+      <c r="U5" s="460"/>
+      <c r="V5" s="460"/>
+      <c r="W5" s="460"/>
+      <c r="X5" s="460"/>
+      <c r="Y5" s="460"/>
+      <c r="Z5" s="460"/>
+      <c r="AA5" s="460"/>
+      <c r="AB5" s="460"/>
+      <c r="AC5" s="460"/>
+      <c r="AD5" s="460"/>
+      <c r="AE5" s="460"/>
+      <c r="AF5" s="460"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="458"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458"/>
-      <c r="D6" s="458" t="s">
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
+      <c r="D6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="458" t="s">
+      <c r="E6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="458" t="s">
+      <c r="F6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="458" t="s">
+      <c r="G6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="458"/>
-      <c r="I6" s="458"/>
-      <c r="J6" s="458"/>
+      <c r="H6" s="460"/>
+      <c r="I6" s="460"/>
+      <c r="J6" s="460"/>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="458" t="s">
+      <c r="M6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="458"/>
-      <c r="O6" s="458" t="s">
+      <c r="N6" s="460"/>
+      <c r="O6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="458"/>
-      <c r="Q6" s="458" t="s">
+      <c r="P6" s="460"/>
+      <c r="Q6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="458"/>
-      <c r="S6" s="458" t="s">
+      <c r="R6" s="460"/>
+      <c r="S6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="458"/>
-      <c r="U6" s="458" t="s">
+      <c r="T6" s="460"/>
+      <c r="U6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="458" t="s">
+      <c r="V6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="458" t="s">
+      <c r="W6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="458" t="s">
+      <c r="X6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="458" t="s">
+      <c r="Y6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="458" t="s">
+      <c r="Z6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="458" t="s">
+      <c r="AA6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="458" t="s">
+      <c r="AB6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="458" t="s">
+      <c r="AC6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="458" t="s">
+      <c r="AD6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="458" t="s">
+      <c r="AE6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="458" t="s">
+      <c r="AF6" s="460" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="458"/>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
-      <c r="D7" s="458"/>
-      <c r="E7" s="458"/>
-      <c r="F7" s="458"/>
-      <c r="G7" s="458"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="458"/>
-      <c r="J7" s="458"/>
+      <c r="A7" s="460"/>
+      <c r="B7" s="460"/>
+      <c r="C7" s="460"/>
+      <c r="D7" s="460"/>
+      <c r="E7" s="460"/>
+      <c r="F7" s="460"/>
+      <c r="G7" s="460"/>
+      <c r="H7" s="460"/>
+      <c r="I7" s="460"/>
+      <c r="J7" s="460"/>
       <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
@@ -41397,21 +41400,42 @@
       <c r="T7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="458"/>
-      <c r="V7" s="458"/>
-      <c r="W7" s="458"/>
-      <c r="X7" s="458"/>
-      <c r="Y7" s="458"/>
-      <c r="Z7" s="458"/>
-      <c r="AA7" s="458"/>
-      <c r="AB7" s="458"/>
-      <c r="AC7" s="458"/>
-      <c r="AD7" s="458"/>
-      <c r="AE7" s="458"/>
-      <c r="AF7" s="458"/>
+      <c r="U7" s="460"/>
+      <c r="V7" s="460"/>
+      <c r="W7" s="460"/>
+      <c r="X7" s="460"/>
+      <c r="Y7" s="460"/>
+      <c r="Z7" s="460"/>
+      <c r="AA7" s="460"/>
+      <c r="AB7" s="460"/>
+      <c r="AC7" s="460"/>
+      <c r="AD7" s="460"/>
+      <c r="AE7" s="460"/>
+      <c r="AF7" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AA4:AB5"/>
+    <mergeCell ref="AC4:AD5"/>
+    <mergeCell ref="AE4:AF5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="M4:T5"/>
+    <mergeCell ref="U4:X5"/>
+    <mergeCell ref="Y4:Z5"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="AC6:AC7"/>
@@ -41428,27 +41452,6 @@
     <mergeCell ref="K4:L5"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="M4:T5"/>
-    <mergeCell ref="U4:X5"/>
-    <mergeCell ref="Y4:Z5"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AA4:AB5"/>
-    <mergeCell ref="AC4:AD5"/>
-    <mergeCell ref="AE4:AF5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AD6:AD7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41477,249 +41480,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="54" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="459" t="s">
+      <c r="A1" s="458" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="459"/>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="459"/>
-      <c r="M1" s="459"/>
-      <c r="N1" s="459"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
+      <c r="N1" s="458"/>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="461"/>
-      <c r="B2" s="461"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="461"/>
-      <c r="F2" s="461"/>
-      <c r="G2" s="461"/>
-      <c r="H2" s="461"/>
-      <c r="I2" s="461"/>
-      <c r="J2" s="461"/>
-      <c r="K2" s="461"/>
-      <c r="L2" s="461"/>
-      <c r="M2" s="461"/>
-      <c r="N2" s="461"/>
+      <c r="A2" s="462"/>
+      <c r="B2" s="462"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="462"/>
+      <c r="E2" s="462"/>
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="462"/>
+      <c r="J2" s="462"/>
+      <c r="K2" s="462"/>
+      <c r="L2" s="462"/>
+      <c r="M2" s="462"/>
+      <c r="N2" s="462"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="460" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="458" t="s">
+      <c r="B4" s="460" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="458" t="s">
+      <c r="C4" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="458" t="s">
+      <c r="D4" s="460" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="458"/>
-      <c r="F4" s="458"/>
-      <c r="G4" s="458"/>
-      <c r="H4" s="458"/>
-      <c r="I4" s="458" t="s">
+      <c r="E4" s="460"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="460"/>
+      <c r="H4" s="460"/>
+      <c r="I4" s="460" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="458"/>
-      <c r="K4" s="458"/>
-      <c r="L4" s="458"/>
-      <c r="M4" s="458" t="s">
+      <c r="J4" s="460"/>
+      <c r="K4" s="460"/>
+      <c r="L4" s="460"/>
+      <c r="M4" s="460" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="458" t="s">
+      <c r="N4" s="460" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="458" t="s">
+      <c r="O4" s="460" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="458"/>
-      <c r="Q4" s="458" t="s">
+      <c r="P4" s="460"/>
+      <c r="Q4" s="460" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="458"/>
-      <c r="S4" s="458"/>
-      <c r="T4" s="458"/>
-      <c r="U4" s="458"/>
-      <c r="V4" s="458"/>
-      <c r="W4" s="458"/>
-      <c r="X4" s="458"/>
-      <c r="Y4" s="458" t="s">
+      <c r="R4" s="460"/>
+      <c r="S4" s="460"/>
+      <c r="T4" s="460"/>
+      <c r="U4" s="460"/>
+      <c r="V4" s="460"/>
+      <c r="W4" s="460"/>
+      <c r="X4" s="460"/>
+      <c r="Y4" s="460" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="458" t="s">
+      <c r="Z4" s="460" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="458"/>
-      <c r="AB4" s="458"/>
-      <c r="AC4" s="458"/>
-      <c r="AD4" s="458"/>
-      <c r="AE4" s="458"/>
-      <c r="AF4" s="458"/>
-      <c r="AG4" s="458"/>
-      <c r="AH4" s="458"/>
-      <c r="AI4" s="458"/>
-      <c r="AJ4" s="458"/>
-      <c r="AK4" s="458"/>
+      <c r="AA4" s="460"/>
+      <c r="AB4" s="460"/>
+      <c r="AC4" s="460"/>
+      <c r="AD4" s="460"/>
+      <c r="AE4" s="460"/>
+      <c r="AF4" s="460"/>
+      <c r="AG4" s="460"/>
+      <c r="AH4" s="460"/>
+      <c r="AI4" s="460"/>
+      <c r="AJ4" s="460"/>
+      <c r="AK4" s="460"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="458"/>
-      <c r="G5" s="458"/>
-      <c r="H5" s="458"/>
-      <c r="I5" s="458"/>
-      <c r="J5" s="458"/>
-      <c r="K5" s="458"/>
-      <c r="L5" s="458"/>
-      <c r="M5" s="458"/>
-      <c r="N5" s="458"/>
-      <c r="O5" s="458"/>
-      <c r="P5" s="458"/>
-      <c r="Q5" s="458" t="s">
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
+      <c r="D5" s="460"/>
+      <c r="E5" s="460"/>
+      <c r="F5" s="460"/>
+      <c r="G5" s="460"/>
+      <c r="H5" s="460"/>
+      <c r="I5" s="460"/>
+      <c r="J5" s="460"/>
+      <c r="K5" s="460"/>
+      <c r="L5" s="460"/>
+      <c r="M5" s="460"/>
+      <c r="N5" s="460"/>
+      <c r="O5" s="460"/>
+      <c r="P5" s="460"/>
+      <c r="Q5" s="460" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="458"/>
-      <c r="S5" s="458" t="s">
+      <c r="R5" s="460"/>
+      <c r="S5" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="458"/>
-      <c r="U5" s="458" t="s">
+      <c r="T5" s="460"/>
+      <c r="U5" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="458"/>
-      <c r="W5" s="462" t="s">
+      <c r="V5" s="460"/>
+      <c r="W5" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="462"/>
-      <c r="Y5" s="458"/>
-      <c r="Z5" s="458"/>
-      <c r="AA5" s="458"/>
-      <c r="AB5" s="458"/>
-      <c r="AC5" s="458"/>
-      <c r="AD5" s="458" t="s">
+      <c r="X5" s="461"/>
+      <c r="Y5" s="460"/>
+      <c r="Z5" s="460"/>
+      <c r="AA5" s="460"/>
+      <c r="AB5" s="460"/>
+      <c r="AC5" s="460"/>
+      <c r="AD5" s="460" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="458"/>
-      <c r="AF5" s="458" t="s">
+      <c r="AE5" s="460"/>
+      <c r="AF5" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="458"/>
-      <c r="AH5" s="458" t="s">
+      <c r="AG5" s="460"/>
+      <c r="AH5" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="458"/>
-      <c r="AJ5" s="462" t="s">
+      <c r="AI5" s="460"/>
+      <c r="AJ5" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="458"/>
+      <c r="AK5" s="460"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="458"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458"/>
-      <c r="D6" s="458"/>
-      <c r="E6" s="458" t="s">
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460"/>
+      <c r="D6" s="460"/>
+      <c r="E6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="458" t="s">
+      <c r="F6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="458" t="s">
+      <c r="G6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="458" t="s">
+      <c r="H6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="458" t="s">
+      <c r="I6" s="460" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="458" t="s">
+      <c r="J6" s="460" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="458" t="s">
+      <c r="K6" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="458" t="s">
+      <c r="L6" s="460" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="458"/>
-      <c r="N6" s="458"/>
-      <c r="O6" s="458"/>
-      <c r="P6" s="458"/>
-      <c r="Q6" s="458"/>
-      <c r="R6" s="458"/>
-      <c r="S6" s="458"/>
-      <c r="T6" s="458"/>
-      <c r="U6" s="458"/>
-      <c r="V6" s="458"/>
-      <c r="W6" s="462"/>
-      <c r="X6" s="462"/>
-      <c r="Y6" s="458"/>
-      <c r="Z6" s="458" t="s">
+      <c r="M6" s="460"/>
+      <c r="N6" s="460"/>
+      <c r="O6" s="460"/>
+      <c r="P6" s="460"/>
+      <c r="Q6" s="460"/>
+      <c r="R6" s="460"/>
+      <c r="S6" s="460"/>
+      <c r="T6" s="460"/>
+      <c r="U6" s="460"/>
+      <c r="V6" s="460"/>
+      <c r="W6" s="461"/>
+      <c r="X6" s="461"/>
+      <c r="Y6" s="460"/>
+      <c r="Z6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="458" t="s">
+      <c r="AA6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="458" t="s">
+      <c r="AB6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="AC6" s="458" t="s">
+      <c r="AC6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="458" t="s">
+      <c r="AD6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="458" t="s">
+      <c r="AE6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="458" t="s">
+      <c r="AF6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="458" t="s">
+      <c r="AG6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="458" t="s">
+      <c r="AH6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="458" t="s">
+      <c r="AI6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="458" t="s">
+      <c r="AJ6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="458" t="s">
+      <c r="AK6" s="460" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="458"/>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
-      <c r="D7" s="458"/>
-      <c r="E7" s="458"/>
-      <c r="F7" s="458"/>
-      <c r="G7" s="458"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="458"/>
-      <c r="J7" s="458"/>
-      <c r="K7" s="458"/>
-      <c r="L7" s="458"/>
-      <c r="M7" s="458"/>
-      <c r="N7" s="458"/>
+      <c r="A7" s="460"/>
+      <c r="B7" s="460"/>
+      <c r="C7" s="460"/>
+      <c r="D7" s="460"/>
+      <c r="E7" s="460"/>
+      <c r="F7" s="460"/>
+      <c r="G7" s="460"/>
+      <c r="H7" s="460"/>
+      <c r="I7" s="460"/>
+      <c r="J7" s="460"/>
+      <c r="K7" s="460"/>
+      <c r="L7" s="460"/>
+      <c r="M7" s="460"/>
+      <c r="N7" s="460"/>
       <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
@@ -41750,22 +41753,49 @@
       <c r="X7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="458"/>
-      <c r="Z7" s="458"/>
-      <c r="AA7" s="458"/>
-      <c r="AB7" s="458"/>
-      <c r="AC7" s="458"/>
-      <c r="AD7" s="458"/>
-      <c r="AE7" s="458"/>
-      <c r="AF7" s="458"/>
-      <c r="AG7" s="458"/>
-      <c r="AH7" s="458"/>
-      <c r="AI7" s="458"/>
-      <c r="AJ7" s="458"/>
-      <c r="AK7" s="458"/>
+      <c r="Y7" s="460"/>
+      <c r="Z7" s="460"/>
+      <c r="AA7" s="460"/>
+      <c r="AB7" s="460"/>
+      <c r="AC7" s="460"/>
+      <c r="AD7" s="460"/>
+      <c r="AE7" s="460"/>
+      <c r="AF7" s="460"/>
+      <c r="AG7" s="460"/>
+      <c r="AH7" s="460"/>
+      <c r="AI7" s="460"/>
+      <c r="AJ7" s="460"/>
+      <c r="AK7" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="W5:X6"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:H5"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="Q5:R6"/>
+    <mergeCell ref="S5:T6"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="O4:P6"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:AC5"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
@@ -41782,33 +41812,6 @@
     <mergeCell ref="AK6:AK7"/>
     <mergeCell ref="AF5:AG5"/>
     <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="Q5:R6"/>
-    <mergeCell ref="S5:T6"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="O4:P6"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:AC5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="W5:X6"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:H5"/>
-    <mergeCell ref="N4:N7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41850,17 +41853,17 @@
       <c r="K1" s="463"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="460"/>
-      <c r="B2" s="460"/>
-      <c r="C2" s="460"/>
-      <c r="D2" s="460"/>
-      <c r="E2" s="460"/>
-      <c r="F2" s="460"/>
-      <c r="G2" s="460"/>
-      <c r="H2" s="460"/>
-      <c r="I2" s="460"/>
-      <c r="J2" s="460"/>
-      <c r="K2" s="460"/>
+      <c r="A2" s="459"/>
+      <c r="B2" s="459"/>
+      <c r="C2" s="459"/>
+      <c r="D2" s="459"/>
+      <c r="E2" s="459"/>
+      <c r="F2" s="459"/>
+      <c r="G2" s="459"/>
+      <c r="H2" s="459"/>
+      <c r="I2" s="459"/>
+      <c r="J2" s="459"/>
+      <c r="K2" s="459"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41868,201 +41871,201 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="460" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="458" t="s">
+      <c r="B4" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="458" t="s">
+      <c r="C4" s="460" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="458"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="458"/>
-      <c r="G4" s="458" t="s">
+      <c r="D4" s="460"/>
+      <c r="E4" s="460"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="460" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="458"/>
-      <c r="I4" s="458"/>
-      <c r="J4" s="458"/>
-      <c r="K4" s="458" t="s">
+      <c r="H4" s="460"/>
+      <c r="I4" s="460"/>
+      <c r="J4" s="460"/>
+      <c r="K4" s="460" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="458" t="s">
+      <c r="L4" s="460" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="458"/>
-      <c r="N4" s="458" t="s">
+      <c r="M4" s="460"/>
+      <c r="N4" s="460" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="458"/>
-      <c r="P4" s="458"/>
-      <c r="Q4" s="458"/>
-      <c r="R4" s="458"/>
-      <c r="S4" s="458"/>
-      <c r="T4" s="458"/>
-      <c r="U4" s="458"/>
-      <c r="V4" s="458" t="s">
+      <c r="O4" s="460"/>
+      <c r="P4" s="460"/>
+      <c r="Q4" s="460"/>
+      <c r="R4" s="460"/>
+      <c r="S4" s="460"/>
+      <c r="T4" s="460"/>
+      <c r="U4" s="460"/>
+      <c r="V4" s="460" t="s">
         <v>83</v>
       </c>
-      <c r="W4" s="458" t="s">
+      <c r="W4" s="460" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="458"/>
-      <c r="Y4" s="458"/>
-      <c r="Z4" s="458"/>
-      <c r="AA4" s="458" t="s">
+      <c r="X4" s="460"/>
+      <c r="Y4" s="460"/>
+      <c r="Z4" s="460"/>
+      <c r="AA4" s="460" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="458"/>
-      <c r="AC4" s="458"/>
-      <c r="AD4" s="458"/>
-      <c r="AE4" s="458"/>
-      <c r="AF4" s="458"/>
-      <c r="AG4" s="458"/>
-      <c r="AH4" s="458"/>
+      <c r="AB4" s="460"/>
+      <c r="AC4" s="460"/>
+      <c r="AD4" s="460"/>
+      <c r="AE4" s="460"/>
+      <c r="AF4" s="460"/>
+      <c r="AG4" s="460"/>
+      <c r="AH4" s="460"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="458"/>
-      <c r="G5" s="458" t="s">
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
+      <c r="D5" s="460"/>
+      <c r="E5" s="460"/>
+      <c r="F5" s="460"/>
+      <c r="G5" s="460" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="458" t="s">
+      <c r="H5" s="460" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="458" t="s">
+      <c r="I5" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="458" t="s">
+      <c r="J5" s="460" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="458"/>
-      <c r="L5" s="458"/>
-      <c r="M5" s="458"/>
-      <c r="N5" s="458"/>
-      <c r="O5" s="458"/>
-      <c r="P5" s="458"/>
-      <c r="Q5" s="458"/>
-      <c r="R5" s="458"/>
-      <c r="S5" s="458"/>
-      <c r="T5" s="458"/>
-      <c r="U5" s="458"/>
-      <c r="V5" s="458"/>
-      <c r="W5" s="458"/>
-      <c r="X5" s="458"/>
-      <c r="Y5" s="458"/>
-      <c r="Z5" s="458"/>
-      <c r="AA5" s="458" t="s">
+      <c r="K5" s="460"/>
+      <c r="L5" s="460"/>
+      <c r="M5" s="460"/>
+      <c r="N5" s="460"/>
+      <c r="O5" s="460"/>
+      <c r="P5" s="460"/>
+      <c r="Q5" s="460"/>
+      <c r="R5" s="460"/>
+      <c r="S5" s="460"/>
+      <c r="T5" s="460"/>
+      <c r="U5" s="460"/>
+      <c r="V5" s="460"/>
+      <c r="W5" s="460"/>
+      <c r="X5" s="460"/>
+      <c r="Y5" s="460"/>
+      <c r="Z5" s="460"/>
+      <c r="AA5" s="460" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="458"/>
-      <c r="AC5" s="458" t="s">
+      <c r="AB5" s="460"/>
+      <c r="AC5" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="458"/>
-      <c r="AE5" s="458" t="s">
+      <c r="AD5" s="460"/>
+      <c r="AE5" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="458"/>
-      <c r="AG5" s="462" t="s">
+      <c r="AF5" s="460"/>
+      <c r="AG5" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="458"/>
+      <c r="AH5" s="460"/>
     </row>
     <row r="6" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="458"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458" t="s">
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="458" t="s">
+      <c r="D6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="458" t="s">
+      <c r="E6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="458" t="s">
+      <c r="F6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="458"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="458"/>
-      <c r="J6" s="458"/>
-      <c r="K6" s="458"/>
-      <c r="L6" s="458"/>
-      <c r="M6" s="458"/>
-      <c r="N6" s="458" t="s">
+      <c r="G6" s="460"/>
+      <c r="H6" s="460"/>
+      <c r="I6" s="460"/>
+      <c r="J6" s="460"/>
+      <c r="K6" s="460"/>
+      <c r="L6" s="460"/>
+      <c r="M6" s="460"/>
+      <c r="N6" s="460" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="458"/>
-      <c r="P6" s="458" t="s">
+      <c r="O6" s="460"/>
+      <c r="P6" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="458"/>
-      <c r="R6" s="458" t="s">
+      <c r="Q6" s="460"/>
+      <c r="R6" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="458"/>
-      <c r="T6" s="462" t="s">
+      <c r="S6" s="460"/>
+      <c r="T6" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="458"/>
-      <c r="V6" s="458"/>
-      <c r="W6" s="458" t="s">
+      <c r="U6" s="460"/>
+      <c r="V6" s="460"/>
+      <c r="W6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="458" t="s">
+      <c r="X6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="458" t="s">
+      <c r="Y6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="458" t="s">
+      <c r="Z6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="458" t="s">
+      <c r="AA6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="458" t="s">
+      <c r="AB6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="458" t="s">
+      <c r="AC6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="458" t="s">
+      <c r="AD6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="458" t="s">
+      <c r="AE6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="458" t="s">
+      <c r="AF6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="458" t="s">
+      <c r="AG6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="458" t="s">
+      <c r="AH6" s="460" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="458"/>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
-      <c r="D7" s="458"/>
-      <c r="E7" s="458"/>
-      <c r="F7" s="458"/>
-      <c r="G7" s="458"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="458"/>
-      <c r="J7" s="458"/>
-      <c r="K7" s="458"/>
+      <c r="A7" s="460"/>
+      <c r="B7" s="460"/>
+      <c r="C7" s="460"/>
+      <c r="D7" s="460"/>
+      <c r="E7" s="460"/>
+      <c r="F7" s="460"/>
+      <c r="G7" s="460"/>
+      <c r="H7" s="460"/>
+      <c r="I7" s="460"/>
+      <c r="J7" s="460"/>
+      <c r="K7" s="460"/>
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
@@ -42093,22 +42096,46 @@
       <c r="U7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="458"/>
-      <c r="W7" s="458"/>
-      <c r="X7" s="458"/>
-      <c r="Y7" s="458"/>
-      <c r="Z7" s="458"/>
-      <c r="AA7" s="458"/>
-      <c r="AB7" s="458"/>
-      <c r="AC7" s="458"/>
-      <c r="AD7" s="458"/>
-      <c r="AE7" s="458"/>
-      <c r="AF7" s="458"/>
-      <c r="AG7" s="458"/>
-      <c r="AH7" s="458"/>
+      <c r="V7" s="460"/>
+      <c r="W7" s="460"/>
+      <c r="X7" s="460"/>
+      <c r="Y7" s="460"/>
+      <c r="Z7" s="460"/>
+      <c r="AA7" s="460"/>
+      <c r="AB7" s="460"/>
+      <c r="AC7" s="460"/>
+      <c r="AD7" s="460"/>
+      <c r="AE7" s="460"/>
+      <c r="AF7" s="460"/>
+      <c r="AG7" s="460"/>
+      <c r="AH7" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="W4:Z5"/>
+    <mergeCell ref="AA4:AH4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="L4:M6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="T6:U6"/>
@@ -42125,30 +42152,6 @@
     <mergeCell ref="AE6:AE7"/>
     <mergeCell ref="AF6:AF7"/>
     <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="L4:M6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="W4:Z5"/>
-    <mergeCell ref="AA4:AH4"/>
-    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42173,23 +42176,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1">
-      <c r="A1" s="459" t="s">
+      <c r="A1" s="458" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="459"/>
-      <c r="C1" s="459"/>
-      <c r="D1" s="459"/>
-      <c r="E1" s="459"/>
-      <c r="F1" s="459"/>
-      <c r="G1" s="459"/>
-      <c r="H1" s="459"/>
-      <c r="I1" s="459"/>
-      <c r="J1" s="459"/>
-      <c r="K1" s="459"/>
-      <c r="L1" s="459"/>
-      <c r="M1" s="459"/>
-      <c r="N1" s="459"/>
-      <c r="O1" s="459"/>
+      <c r="B1" s="458"/>
+      <c r="C1" s="458"/>
+      <c r="D1" s="458"/>
+      <c r="E1" s="458"/>
+      <c r="F1" s="458"/>
+      <c r="G1" s="458"/>
+      <c r="H1" s="458"/>
+      <c r="I1" s="458"/>
+      <c r="J1" s="458"/>
+      <c r="K1" s="458"/>
+      <c r="L1" s="458"/>
+      <c r="M1" s="458"/>
+      <c r="N1" s="458"/>
+      <c r="O1" s="458"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="464"/>
@@ -42209,202 +42212,202 @@
       <c r="O2" s="464"/>
     </row>
     <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="W3" s="461" t="s">
+      <c r="W3" s="462" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="461"/>
-      <c r="Y3" s="461"/>
+      <c r="X3" s="462"/>
+      <c r="Y3" s="462"/>
     </row>
     <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="458" t="s">
+      <c r="A4" s="460" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="458" t="s">
+      <c r="B4" s="460" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="458" t="s">
+      <c r="C4" s="460" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="458"/>
-      <c r="E4" s="458"/>
-      <c r="F4" s="458"/>
-      <c r="G4" s="458" t="s">
+      <c r="D4" s="460"/>
+      <c r="E4" s="460"/>
+      <c r="F4" s="460"/>
+      <c r="G4" s="460" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="458"/>
-      <c r="I4" s="458"/>
-      <c r="J4" s="458"/>
-      <c r="K4" s="458" t="s">
+      <c r="H4" s="460"/>
+      <c r="I4" s="460"/>
+      <c r="J4" s="460"/>
+      <c r="K4" s="460" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="458"/>
-      <c r="M4" s="458" t="s">
+      <c r="L4" s="460"/>
+      <c r="M4" s="460" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="458"/>
-      <c r="O4" s="458"/>
-      <c r="P4" s="458"/>
-      <c r="Q4" s="458"/>
-      <c r="R4" s="458"/>
-      <c r="S4" s="458"/>
-      <c r="T4" s="458"/>
-      <c r="U4" s="458" t="s">
+      <c r="N4" s="460"/>
+      <c r="O4" s="460"/>
+      <c r="P4" s="460"/>
+      <c r="Q4" s="460"/>
+      <c r="R4" s="460"/>
+      <c r="S4" s="460"/>
+      <c r="T4" s="460"/>
+      <c r="U4" s="460" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="458" t="s">
+      <c r="V4" s="460" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="458"/>
-      <c r="X4" s="458"/>
-      <c r="Y4" s="458"/>
-      <c r="Z4" s="458" t="s">
+      <c r="W4" s="460"/>
+      <c r="X4" s="460"/>
+      <c r="Y4" s="460"/>
+      <c r="Z4" s="460" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="458"/>
-      <c r="AB4" s="458"/>
-      <c r="AC4" s="458"/>
-      <c r="AD4" s="458"/>
-      <c r="AE4" s="458"/>
-      <c r="AF4" s="458"/>
-      <c r="AG4" s="458"/>
+      <c r="AA4" s="460"/>
+      <c r="AB4" s="460"/>
+      <c r="AC4" s="460"/>
+      <c r="AD4" s="460"/>
+      <c r="AE4" s="460"/>
+      <c r="AF4" s="460"/>
+      <c r="AG4" s="460"/>
     </row>
     <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="458"/>
-      <c r="B5" s="458"/>
-      <c r="C5" s="458"/>
-      <c r="D5" s="458"/>
-      <c r="E5" s="458"/>
-      <c r="F5" s="458"/>
-      <c r="G5" s="458" t="s">
+      <c r="A5" s="460"/>
+      <c r="B5" s="460"/>
+      <c r="C5" s="460"/>
+      <c r="D5" s="460"/>
+      <c r="E5" s="460"/>
+      <c r="F5" s="460"/>
+      <c r="G5" s="460" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="458" t="s">
+      <c r="H5" s="460" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="458" t="s">
+      <c r="I5" s="460" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="458" t="s">
+      <c r="J5" s="460" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="458"/>
-      <c r="L5" s="458"/>
-      <c r="M5" s="458"/>
-      <c r="N5" s="458"/>
-      <c r="O5" s="458"/>
-      <c r="P5" s="458"/>
-      <c r="Q5" s="458"/>
-      <c r="R5" s="458"/>
-      <c r="S5" s="458"/>
-      <c r="T5" s="458"/>
-      <c r="U5" s="458"/>
-      <c r="V5" s="458"/>
-      <c r="W5" s="458"/>
-      <c r="X5" s="458"/>
-      <c r="Y5" s="458"/>
-      <c r="Z5" s="458" t="s">
+      <c r="K5" s="460"/>
+      <c r="L5" s="460"/>
+      <c r="M5" s="460"/>
+      <c r="N5" s="460"/>
+      <c r="O5" s="460"/>
+      <c r="P5" s="460"/>
+      <c r="Q5" s="460"/>
+      <c r="R5" s="460"/>
+      <c r="S5" s="460"/>
+      <c r="T5" s="460"/>
+      <c r="U5" s="460"/>
+      <c r="V5" s="460"/>
+      <c r="W5" s="460"/>
+      <c r="X5" s="460"/>
+      <c r="Y5" s="460"/>
+      <c r="Z5" s="460" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="458"/>
-      <c r="AB5" s="458" t="s">
+      <c r="AA5" s="460"/>
+      <c r="AB5" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="458"/>
-      <c r="AD5" s="458" t="s">
+      <c r="AC5" s="460"/>
+      <c r="AD5" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="458"/>
-      <c r="AF5" s="462" t="s">
+      <c r="AE5" s="460"/>
+      <c r="AF5" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="458"/>
+      <c r="AG5" s="460"/>
     </row>
     <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="458"/>
-      <c r="B6" s="458"/>
-      <c r="C6" s="458" t="s">
+      <c r="A6" s="460"/>
+      <c r="B6" s="460"/>
+      <c r="C6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="458" t="s">
+      <c r="D6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="458" t="s">
+      <c r="E6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="458" t="s">
+      <c r="F6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="458"/>
-      <c r="H6" s="458"/>
-      <c r="I6" s="458"/>
-      <c r="J6" s="458"/>
-      <c r="K6" s="458"/>
-      <c r="L6" s="458"/>
-      <c r="M6" s="458" t="s">
+      <c r="G6" s="460"/>
+      <c r="H6" s="460"/>
+      <c r="I6" s="460"/>
+      <c r="J6" s="460"/>
+      <c r="K6" s="460"/>
+      <c r="L6" s="460"/>
+      <c r="M6" s="460" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="458"/>
-      <c r="O6" s="458" t="s">
+      <c r="N6" s="460"/>
+      <c r="O6" s="460" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="458"/>
-      <c r="Q6" s="458" t="s">
+      <c r="P6" s="460"/>
+      <c r="Q6" s="460" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="458"/>
-      <c r="S6" s="462" t="s">
+      <c r="R6" s="460"/>
+      <c r="S6" s="461" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="458"/>
-      <c r="U6" s="458"/>
-      <c r="V6" s="458" t="s">
+      <c r="T6" s="460"/>
+      <c r="U6" s="460"/>
+      <c r="V6" s="460" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="458" t="s">
+      <c r="W6" s="460" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="458" t="s">
+      <c r="X6" s="460" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="458" t="s">
+      <c r="Y6" s="460" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="458" t="s">
+      <c r="Z6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="458" t="s">
+      <c r="AA6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="458" t="s">
+      <c r="AB6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="458" t="s">
+      <c r="AC6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="458" t="s">
+      <c r="AD6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="458" t="s">
+      <c r="AE6" s="460" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="458" t="s">
+      <c r="AF6" s="460" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="458" t="s">
+      <c r="AG6" s="460" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="458"/>
-      <c r="B7" s="458"/>
-      <c r="C7" s="458"/>
-      <c r="D7" s="458"/>
-      <c r="E7" s="458"/>
-      <c r="F7" s="458"/>
-      <c r="G7" s="458"/>
-      <c r="H7" s="458"/>
-      <c r="I7" s="458"/>
-      <c r="J7" s="458"/>
+      <c r="A7" s="460"/>
+      <c r="B7" s="460"/>
+      <c r="C7" s="460"/>
+      <c r="D7" s="460"/>
+      <c r="E7" s="460"/>
+      <c r="F7" s="460"/>
+      <c r="G7" s="460"/>
+      <c r="H7" s="460"/>
+      <c r="I7" s="460"/>
+      <c r="J7" s="460"/>
       <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
@@ -42435,30 +42438,38 @@
       <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="458"/>
-      <c r="V7" s="458"/>
-      <c r="W7" s="458"/>
-      <c r="X7" s="458"/>
-      <c r="Y7" s="458"/>
-      <c r="Z7" s="458"/>
-      <c r="AA7" s="458"/>
-      <c r="AB7" s="458"/>
-      <c r="AC7" s="458"/>
-      <c r="AD7" s="458"/>
-      <c r="AE7" s="458"/>
-      <c r="AF7" s="458"/>
-      <c r="AG7" s="458"/>
+      <c r="U7" s="460"/>
+      <c r="V7" s="460"/>
+      <c r="W7" s="460"/>
+      <c r="X7" s="460"/>
+      <c r="Y7" s="460"/>
+      <c r="Z7" s="460"/>
+      <c r="AA7" s="460"/>
+      <c r="AB7" s="460"/>
+      <c r="AC7" s="460"/>
+      <c r="AD7" s="460"/>
+      <c r="AE7" s="460"/>
+      <c r="AF7" s="460"/>
+      <c r="AG7" s="460"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="V4:Y5"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="Z4:AG4"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AF5:AG5"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="W3:Y3"/>
@@ -42475,22 +42486,14 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="Z4:AG4"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AF5:AG5"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AD5:AE5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="V4:Y5"/>
+    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42523,12 +42526,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="485" t="s">
+      <c r="A1" s="469" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="485"/>
-      <c r="C1" s="485"/>
-      <c r="D1" s="485"/>
+      <c r="B1" s="469"/>
+      <c r="C1" s="469"/>
+      <c r="D1" s="469"/>
       <c r="E1" s="50"/>
       <c r="F1" s="6"/>
       <c r="G1" s="50"/>
@@ -42542,22 +42545,22 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="485" t="s">
+      <c r="R1" s="469" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="485"/>
-      <c r="T1" s="485"/>
-      <c r="U1" s="485"/>
-      <c r="V1" s="485"/>
-      <c r="W1" s="485"/>
+      <c r="S1" s="469"/>
+      <c r="T1" s="469"/>
+      <c r="U1" s="469"/>
+      <c r="V1" s="469"/>
+      <c r="W1" s="469"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="486" t="s">
+      <c r="A2" s="470" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="486"/>
-      <c r="C2" s="486"/>
-      <c r="D2" s="486"/>
+      <c r="B2" s="470"/>
+      <c r="C2" s="470"/>
+      <c r="D2" s="470"/>
       <c r="E2" s="51"/>
       <c r="F2" s="20"/>
       <c r="G2" s="51"/>
@@ -42571,103 +42574,103 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
-      <c r="R2" s="486" t="s">
+      <c r="R2" s="470" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="486"/>
-      <c r="T2" s="486"/>
-      <c r="U2" s="486"/>
-      <c r="V2" s="486"/>
-      <c r="W2" s="486"/>
+      <c r="S2" s="470"/>
+      <c r="T2" s="470"/>
+      <c r="U2" s="470"/>
+      <c r="V2" s="470"/>
+      <c r="W2" s="470"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
-      <c r="A3" s="487" t="s">
+      <c r="A3" s="471" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="487"/>
-      <c r="C3" s="487"/>
-      <c r="D3" s="487"/>
-      <c r="E3" s="487"/>
-      <c r="F3" s="487"/>
-      <c r="G3" s="487"/>
-      <c r="H3" s="487"/>
-      <c r="I3" s="487"/>
-      <c r="J3" s="487"/>
-      <c r="K3" s="487"/>
-      <c r="L3" s="487"/>
-      <c r="M3" s="487"/>
-      <c r="N3" s="487"/>
-      <c r="O3" s="487"/>
-      <c r="P3" s="487"/>
-      <c r="Q3" s="487"/>
-      <c r="R3" s="487"/>
-      <c r="S3" s="487"/>
-      <c r="T3" s="487"/>
-      <c r="U3" s="487"/>
-      <c r="V3" s="487"/>
-      <c r="W3" s="487"/>
+      <c r="B3" s="471"/>
+      <c r="C3" s="471"/>
+      <c r="D3" s="471"/>
+      <c r="E3" s="471"/>
+      <c r="F3" s="471"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="471"/>
+      <c r="I3" s="471"/>
+      <c r="J3" s="471"/>
+      <c r="K3" s="471"/>
+      <c r="L3" s="471"/>
+      <c r="M3" s="471"/>
+      <c r="N3" s="471"/>
+      <c r="O3" s="471"/>
+      <c r="P3" s="471"/>
+      <c r="Q3" s="471"/>
+      <c r="R3" s="471"/>
+      <c r="S3" s="471"/>
+      <c r="T3" s="471"/>
+      <c r="U3" s="471"/>
+      <c r="V3" s="471"/>
+      <c r="W3" s="471"/>
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="488"/>
-      <c r="B4" s="488"/>
-      <c r="C4" s="488"/>
-      <c r="D4" s="488"/>
-      <c r="E4" s="488"/>
-      <c r="F4" s="488"/>
-      <c r="G4" s="488"/>
-      <c r="H4" s="488"/>
-      <c r="I4" s="488"/>
-      <c r="J4" s="488"/>
-      <c r="K4" s="488"/>
-      <c r="L4" s="488"/>
-      <c r="M4" s="488"/>
-      <c r="N4" s="488"/>
-      <c r="O4" s="488"/>
-      <c r="P4" s="488"/>
-      <c r="Q4" s="488"/>
-      <c r="R4" s="488"/>
-      <c r="S4" s="488"/>
-      <c r="T4" s="488"/>
-      <c r="U4" s="488"/>
-      <c r="V4" s="488"/>
-      <c r="W4" s="488"/>
+      <c r="A4" s="472"/>
+      <c r="B4" s="472"/>
+      <c r="C4" s="472"/>
+      <c r="D4" s="472"/>
+      <c r="E4" s="472"/>
+      <c r="F4" s="472"/>
+      <c r="G4" s="472"/>
+      <c r="H4" s="472"/>
+      <c r="I4" s="472"/>
+      <c r="J4" s="472"/>
+      <c r="K4" s="472"/>
+      <c r="L4" s="472"/>
+      <c r="M4" s="472"/>
+      <c r="N4" s="472"/>
+      <c r="O4" s="472"/>
+      <c r="P4" s="472"/>
+      <c r="Q4" s="472"/>
+      <c r="R4" s="472"/>
+      <c r="S4" s="472"/>
+      <c r="T4" s="472"/>
+      <c r="U4" s="472"/>
+      <c r="V4" s="472"/>
+      <c r="W4" s="472"/>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="489"/>
-      <c r="B5" s="489"/>
-      <c r="C5" s="489"/>
-      <c r="D5" s="489"/>
-      <c r="E5" s="489"/>
-      <c r="F5" s="489"/>
-      <c r="G5" s="489"/>
-      <c r="H5" s="489"/>
-      <c r="I5" s="489"/>
-      <c r="J5" s="489"/>
-      <c r="K5" s="489"/>
-      <c r="L5" s="489"/>
-      <c r="M5" s="489"/>
-      <c r="N5" s="489"/>
-      <c r="O5" s="489"/>
-      <c r="P5" s="489"/>
-      <c r="Q5" s="489"/>
-      <c r="R5" s="489"/>
-      <c r="S5" s="489"/>
-      <c r="T5" s="489"/>
-      <c r="U5" s="489"/>
-      <c r="V5" s="489"/>
-      <c r="W5" s="489"/>
+      <c r="A5" s="473"/>
+      <c r="B5" s="473"/>
+      <c r="C5" s="473"/>
+      <c r="D5" s="473"/>
+      <c r="E5" s="473"/>
+      <c r="F5" s="473"/>
+      <c r="G5" s="473"/>
+      <c r="H5" s="473"/>
+      <c r="I5" s="473"/>
+      <c r="J5" s="473"/>
+      <c r="K5" s="473"/>
+      <c r="L5" s="473"/>
+      <c r="M5" s="473"/>
+      <c r="N5" s="473"/>
+      <c r="O5" s="473"/>
+      <c r="P5" s="473"/>
+      <c r="Q5" s="473"/>
+      <c r="R5" s="473"/>
+      <c r="S5" s="473"/>
+      <c r="T5" s="473"/>
+      <c r="U5" s="473"/>
+      <c r="V5" s="473"/>
+      <c r="W5" s="473"/>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="473" t="s">
+      <c r="A6" s="489" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="473" t="s">
+      <c r="B6" s="489" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="473" t="s">
+      <c r="C6" s="489" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="473" t="s">
+      <c r="D6" s="489" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="476" t="s">
@@ -42692,8 +42695,8 @@
       <c r="L6" s="465" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="490"/>
-      <c r="N6" s="490"/>
+      <c r="M6" s="474"/>
+      <c r="N6" s="474"/>
       <c r="O6" s="466"/>
       <c r="P6" s="465" t="s">
         <v>72</v>
@@ -42713,10 +42716,10 @@
       <c r="W6" s="466"/>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="474"/>
-      <c r="B7" s="474"/>
-      <c r="C7" s="474"/>
-      <c r="D7" s="474"/>
+      <c r="A7" s="490"/>
+      <c r="B7" s="490"/>
+      <c r="C7" s="490"/>
+      <c r="D7" s="490"/>
       <c r="E7" s="477"/>
       <c r="F7" s="477"/>
       <c r="G7" s="477"/>
@@ -42725,8 +42728,8 @@
       <c r="J7" s="467"/>
       <c r="K7" s="468"/>
       <c r="L7" s="467"/>
-      <c r="M7" s="491"/>
-      <c r="N7" s="491"/>
+      <c r="M7" s="475"/>
+      <c r="N7" s="475"/>
       <c r="O7" s="468"/>
       <c r="P7" s="467"/>
       <c r="Q7" s="468"/>
@@ -42738,82 +42741,82 @@
       <c r="W7" s="468"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="474"/>
-      <c r="B8" s="474"/>
-      <c r="C8" s="474"/>
-      <c r="D8" s="474"/>
+      <c r="A8" s="490"/>
+      <c r="B8" s="490"/>
+      <c r="C8" s="490"/>
+      <c r="D8" s="490"/>
       <c r="E8" s="477"/>
       <c r="F8" s="477"/>
       <c r="G8" s="477"/>
       <c r="H8" s="477"/>
       <c r="I8" s="477"/>
-      <c r="J8" s="469" t="s">
+      <c r="J8" s="483" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="479" t="s">
+      <c r="K8" s="481" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="471" t="s">
+      <c r="L8" s="479" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="471" t="s">
+      <c r="M8" s="479" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="471" t="s">
+      <c r="N8" s="479" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="471" t="s">
+      <c r="O8" s="479" t="s">
         <v>172</v>
       </c>
-      <c r="P8" s="469" t="s">
+      <c r="P8" s="483" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="469" t="s">
+      <c r="Q8" s="483" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="469" t="s">
+      <c r="R8" s="483" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="469" t="s">
+      <c r="S8" s="483" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="469" t="s">
+      <c r="T8" s="483" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="469" t="s">
+      <c r="U8" s="483" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="483" t="s">
+      <c r="V8" s="487" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="481" t="s">
+      <c r="W8" s="485" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="475"/>
-      <c r="B9" s="475"/>
-      <c r="C9" s="475"/>
-      <c r="D9" s="475"/>
+      <c r="A9" s="491"/>
+      <c r="B9" s="491"/>
+      <c r="C9" s="491"/>
+      <c r="D9" s="491"/>
       <c r="E9" s="478"/>
       <c r="F9" s="478"/>
       <c r="G9" s="478"/>
       <c r="H9" s="478"/>
       <c r="I9" s="478"/>
-      <c r="J9" s="470"/>
-      <c r="K9" s="480"/>
-      <c r="L9" s="472"/>
-      <c r="M9" s="472"/>
-      <c r="N9" s="472"/>
-      <c r="O9" s="472"/>
-      <c r="P9" s="470"/>
-      <c r="Q9" s="470"/>
-      <c r="R9" s="470"/>
-      <c r="S9" s="470"/>
-      <c r="T9" s="470"/>
-      <c r="U9" s="470"/>
-      <c r="V9" s="484"/>
-      <c r="W9" s="482"/>
+      <c r="J9" s="484"/>
+      <c r="K9" s="482"/>
+      <c r="L9" s="480"/>
+      <c r="M9" s="480"/>
+      <c r="N9" s="480"/>
+      <c r="O9" s="480"/>
+      <c r="P9" s="484"/>
+      <c r="Q9" s="484"/>
+      <c r="R9" s="484"/>
+      <c r="S9" s="484"/>
+      <c r="T9" s="484"/>
+      <c r="U9" s="484"/>
+      <c r="V9" s="488"/>
+      <c r="W9" s="486"/>
     </row>
     <row r="226" spans="1:31" s="60" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="53"/>
@@ -43042,6 +43045,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="V6:W7"/>
     <mergeCell ref="T6:U7"/>
     <mergeCell ref="A1:D1"/>
@@ -43058,26 +43081,6 @@
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="I6:I9"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="N8:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43131,22 +43134,22 @@
       <c r="N1" s="464"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="497" t="s">
+      <c r="A2" s="495" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="497"/>
-      <c r="C2" s="497"/>
-      <c r="D2" s="497"/>
-      <c r="E2" s="497"/>
-      <c r="F2" s="497"/>
-      <c r="G2" s="497"/>
-      <c r="H2" s="497"/>
-      <c r="I2" s="497"/>
-      <c r="J2" s="497"/>
-      <c r="K2" s="497"/>
-      <c r="L2" s="497"/>
-      <c r="M2" s="497"/>
-      <c r="N2" s="497"/>
+      <c r="B2" s="495"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="495"/>
+      <c r="F2" s="495"/>
+      <c r="G2" s="495"/>
+      <c r="H2" s="495"/>
+      <c r="I2" s="495"/>
+      <c r="J2" s="495"/>
+      <c r="K2" s="495"/>
+      <c r="L2" s="495"/>
+      <c r="M2" s="495"/>
+      <c r="N2" s="495"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8"/>
@@ -43165,54 +43168,54 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="498" t="s">
+      <c r="A4" s="496" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="498"/>
-      <c r="F4" s="498"/>
-      <c r="G4" s="498"/>
-      <c r="H4" s="498"/>
-      <c r="I4" s="498"/>
-      <c r="J4" s="498"/>
-      <c r="K4" s="498"/>
-      <c r="L4" s="498"/>
-      <c r="M4" s="498"/>
-      <c r="N4" s="498"/>
+      <c r="B4" s="496"/>
+      <c r="C4" s="496"/>
+      <c r="D4" s="496"/>
+      <c r="E4" s="496"/>
+      <c r="F4" s="496"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="496"/>
+      <c r="I4" s="496"/>
+      <c r="J4" s="496"/>
+      <c r="K4" s="496"/>
+      <c r="L4" s="496"/>
+      <c r="M4" s="496"/>
+      <c r="N4" s="496"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="499"/>
-      <c r="B5" s="499"/>
-      <c r="C5" s="499"/>
-      <c r="D5" s="499"/>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="499"/>
-      <c r="I5" s="499"/>
-      <c r="J5" s="499"/>
-      <c r="K5" s="499"/>
-      <c r="L5" s="499"/>
-      <c r="M5" s="499"/>
-      <c r="N5" s="499"/>
+      <c r="A5" s="497"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="497"/>
+      <c r="I5" s="497"/>
+      <c r="J5" s="497"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="497"/>
+      <c r="M5" s="497"/>
+      <c r="N5" s="497"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="499"/>
-      <c r="B6" s="499"/>
-      <c r="C6" s="499"/>
-      <c r="D6" s="499"/>
-      <c r="E6" s="499"/>
-      <c r="F6" s="499"/>
-      <c r="G6" s="499"/>
-      <c r="H6" s="499"/>
-      <c r="I6" s="499"/>
-      <c r="J6" s="499"/>
-      <c r="K6" s="499"/>
-      <c r="L6" s="499"/>
-      <c r="M6" s="499"/>
-      <c r="N6" s="499"/>
+      <c r="A6" s="497"/>
+      <c r="B6" s="497"/>
+      <c r="C6" s="497"/>
+      <c r="D6" s="497"/>
+      <c r="E6" s="497"/>
+      <c r="F6" s="497"/>
+      <c r="G6" s="497"/>
+      <c r="H6" s="497"/>
+      <c r="I6" s="497"/>
+      <c r="J6" s="497"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="497"/>
+      <c r="M6" s="497"/>
+      <c r="N6" s="497"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="28"/>
@@ -43228,105 +43231,117 @@
       <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="458" t="s">
+      <c r="A8" s="460" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="458" t="s">
+      <c r="B8" s="460" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="492" t="s">
+      <c r="C8" s="498" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="458" t="s">
+      <c r="D8" s="460" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="495" t="s">
+      <c r="E8" s="492" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="495"/>
-      <c r="G8" s="495" t="s">
+      <c r="F8" s="492"/>
+      <c r="G8" s="492" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="495"/>
-      <c r="I8" s="495"/>
-      <c r="J8" s="495"/>
-      <c r="K8" s="495" t="s">
+      <c r="H8" s="492"/>
+      <c r="I8" s="492"/>
+      <c r="J8" s="492"/>
+      <c r="K8" s="492" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="495" t="s">
+      <c r="L8" s="492" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="500" t="s">
+      <c r="M8" s="493" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="500"/>
+      <c r="N8" s="493"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="458"/>
-      <c r="B9" s="458"/>
-      <c r="C9" s="493"/>
-      <c r="D9" s="458"/>
-      <c r="E9" s="495"/>
-      <c r="F9" s="495"/>
-      <c r="G9" s="495"/>
-      <c r="H9" s="495"/>
-      <c r="I9" s="495"/>
-      <c r="J9" s="495"/>
-      <c r="K9" s="495"/>
-      <c r="L9" s="495"/>
-      <c r="M9" s="500"/>
-      <c r="N9" s="500"/>
+      <c r="A9" s="460"/>
+      <c r="B9" s="460"/>
+      <c r="C9" s="499"/>
+      <c r="D9" s="460"/>
+      <c r="E9" s="492"/>
+      <c r="F9" s="492"/>
+      <c r="G9" s="492"/>
+      <c r="H9" s="492"/>
+      <c r="I9" s="492"/>
+      <c r="J9" s="492"/>
+      <c r="K9" s="492"/>
+      <c r="L9" s="492"/>
+      <c r="M9" s="493"/>
+      <c r="N9" s="493"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="458"/>
-      <c r="B10" s="458"/>
-      <c r="C10" s="493"/>
-      <c r="D10" s="458"/>
-      <c r="E10" s="496" t="s">
+      <c r="A10" s="460"/>
+      <c r="B10" s="460"/>
+      <c r="C10" s="499"/>
+      <c r="D10" s="460"/>
+      <c r="E10" s="501" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="496" t="s">
+      <c r="F10" s="501" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="495" t="s">
+      <c r="G10" s="492" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="495" t="s">
+      <c r="H10" s="492" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="495" t="s">
+      <c r="I10" s="492" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="495" t="s">
+      <c r="J10" s="492" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="495"/>
-      <c r="L10" s="495"/>
-      <c r="M10" s="501" t="s">
+      <c r="K10" s="492"/>
+      <c r="L10" s="492"/>
+      <c r="M10" s="494" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="501" t="s">
+      <c r="N10" s="494" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="458"/>
-      <c r="B11" s="458"/>
-      <c r="C11" s="494"/>
-      <c r="D11" s="458"/>
-      <c r="E11" s="496"/>
-      <c r="F11" s="496"/>
-      <c r="G11" s="495"/>
-      <c r="H11" s="495"/>
-      <c r="I11" s="495"/>
-      <c r="J11" s="495"/>
-      <c r="K11" s="495"/>
-      <c r="L11" s="495"/>
-      <c r="M11" s="501"/>
-      <c r="N11" s="501"/>
+      <c r="A11" s="460"/>
+      <c r="B11" s="460"/>
+      <c r="C11" s="500"/>
+      <c r="D11" s="460"/>
+      <c r="E11" s="501"/>
+      <c r="F11" s="501"/>
+      <c r="G11" s="492"/>
+      <c r="H11" s="492"/>
+      <c r="I11" s="492"/>
+      <c r="J11" s="492"/>
+      <c r="K11" s="492"/>
+      <c r="L11" s="492"/>
+      <c r="M11" s="494"/>
+      <c r="N11" s="494"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
     <mergeCell ref="G8:J9"/>
     <mergeCell ref="K8:K11"/>
     <mergeCell ref="L8:L11"/>
@@ -43337,18 +43352,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="N10:N11"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195A0DEF-6B59-46CC-B4C1-0DF1E3D306E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55318F4-AF3C-49E2-9105-095C5010B579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" tabRatio="802" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
@@ -2181,7 +2181,7 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="522">
+  <cellXfs count="525">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2845,10 +2845,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="46" fillId="2" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2982,6 +2978,221 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="159" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="37" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="41" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="38" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="34" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="36" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="212" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2990,54 +3201,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="37" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="41" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="38" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="34" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="36" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="212" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="46" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3074,114 +3237,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3202,22 +3257,38 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="45" fillId="22" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3239,38 +3310,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3381,17 +3420,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3403,30 +3435,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3447,21 +3455,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3469,6 +3462,21 @@
     <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4429,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DFD16-6734-4240-8F57-B4E46BBCF2BD}">
   <dimension ref="A2:AH200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="30" customHeight="1"/>
@@ -4462,350 +4470,350 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="30" customHeight="1">
-      <c r="G2" s="317"/>
-      <c r="H2" s="318"/>
-      <c r="I2" s="318"/>
-      <c r="J2" s="318"/>
-      <c r="K2" s="318"/>
-      <c r="L2" s="318"/>
-      <c r="M2" s="319"/>
-      <c r="R2" s="268" t="s">
+      <c r="G2" s="310"/>
+      <c r="H2" s="311"/>
+      <c r="I2" s="311"/>
+      <c r="J2" s="311"/>
+      <c r="K2" s="311"/>
+      <c r="L2" s="311"/>
+      <c r="M2" s="312"/>
+      <c r="R2" s="270" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="269"/>
-      <c r="T2" s="269"/>
-      <c r="U2" s="269"/>
-      <c r="V2" s="269"/>
-      <c r="W2" s="269"/>
-      <c r="X2" s="269"/>
-      <c r="Y2" s="269"/>
-      <c r="Z2" s="270"/>
+      <c r="S2" s="271"/>
+      <c r="T2" s="271"/>
+      <c r="U2" s="271"/>
+      <c r="V2" s="271"/>
+      <c r="W2" s="271"/>
+      <c r="X2" s="271"/>
+      <c r="Y2" s="271"/>
+      <c r="Z2" s="272"/>
     </row>
     <row r="3" spans="2:26" ht="30" customHeight="1">
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="286" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="321"/>
-      <c r="J3" s="321"/>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="322"/>
-      <c r="R3" s="260"/>
-      <c r="S3" s="278"/>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="261"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="314"/>
+      <c r="I3" s="314"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="314"/>
+      <c r="L3" s="314"/>
+      <c r="M3" s="315"/>
+      <c r="R3" s="259"/>
+      <c r="S3" s="280"/>
+      <c r="T3" s="280"/>
+      <c r="U3" s="280"/>
+      <c r="V3" s="280"/>
+      <c r="W3" s="280"/>
+      <c r="X3" s="280"/>
+      <c r="Y3" s="280"/>
+      <c r="Z3" s="260"/>
     </row>
     <row r="4" spans="2:26" ht="42" customHeight="1">
-      <c r="B4" s="293"/>
-      <c r="C4" s="293"/>
-      <c r="D4" s="293"/>
-      <c r="E4" s="293"/>
-      <c r="G4" s="300" t="s">
+      <c r="B4" s="286"/>
+      <c r="C4" s="286"/>
+      <c r="D4" s="286"/>
+      <c r="E4" s="286"/>
+      <c r="G4" s="293" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="301"/>
-      <c r="I4" s="323" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="316" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="324"/>
-      <c r="K4" s="324"/>
-      <c r="L4" s="324"/>
-      <c r="M4" s="325"/>
-      <c r="R4" s="271" t="s">
+      <c r="J4" s="317"/>
+      <c r="K4" s="317"/>
+      <c r="L4" s="317"/>
+      <c r="M4" s="318"/>
+      <c r="R4" s="273" t="s">
         <v>176</v>
       </c>
-      <c r="S4" s="272"/>
-      <c r="T4" s="272"/>
-      <c r="U4" s="272"/>
-      <c r="V4" s="272"/>
-      <c r="W4" s="272"/>
-      <c r="X4" s="272"/>
-      <c r="Y4" s="272"/>
-      <c r="Z4" s="273"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="274"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="274"/>
+      <c r="X4" s="274"/>
+      <c r="Y4" s="274"/>
+      <c r="Z4" s="275"/>
     </row>
     <row r="5" spans="2:26" ht="63" customHeight="1">
-      <c r="B5" s="238" t="s">
+      <c r="B5" s="237" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="293" t="s">
+      <c r="C5" s="286" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="293"/>
-      <c r="E5" s="238" t="s">
+      <c r="D5" s="286"/>
+      <c r="E5" s="237" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="302"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="304" t="s">
+      <c r="G5" s="295"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="297" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="305"/>
-      <c r="K5" s="314" t="s">
+      <c r="J5" s="298"/>
+      <c r="K5" s="307" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="315"/>
-      <c r="M5" s="316"/>
-      <c r="R5" s="257" t="s">
+      <c r="L5" s="308"/>
+      <c r="M5" s="309"/>
+      <c r="R5" s="256" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="274" t="s">
+      <c r="S5" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="275"/>
-      <c r="U5" s="274" t="s">
+      <c r="T5" s="277"/>
+      <c r="U5" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="V5" s="275"/>
-      <c r="W5" s="274" t="s">
+      <c r="V5" s="277"/>
+      <c r="W5" s="276" t="s">
         <v>183</v>
       </c>
-      <c r="X5" s="275"/>
-      <c r="Y5" s="274" t="s">
+      <c r="X5" s="277"/>
+      <c r="Y5" s="276" t="s">
         <v>184</v>
       </c>
-      <c r="Z5" s="275"/>
+      <c r="Z5" s="277"/>
     </row>
     <row r="6" spans="2:26" ht="30" customHeight="1">
-      <c r="B6" s="239"/>
-      <c r="C6" s="328"/>
-      <c r="D6" s="328"/>
-      <c r="E6" s="239"/>
-      <c r="G6" s="326"/>
-      <c r="H6" s="327"/>
-      <c r="I6" s="306"/>
-      <c r="J6" s="307"/>
-      <c r="K6" s="308"/>
-      <c r="L6" s="309"/>
-      <c r="M6" s="310"/>
-      <c r="R6" s="258" t="s">
+      <c r="B6" s="238"/>
+      <c r="C6" s="354"/>
+      <c r="D6" s="354"/>
+      <c r="E6" s="238"/>
+      <c r="G6" s="319"/>
+      <c r="H6" s="320"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="301"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="303"/>
+      <c r="R6" s="257" t="s">
         <v>144</v>
       </c>
-      <c r="S6" s="279"/>
-      <c r="T6" s="280"/>
-      <c r="U6" s="280"/>
-      <c r="V6" s="280"/>
-      <c r="W6" s="280"/>
-      <c r="X6" s="280"/>
-      <c r="Y6" s="280"/>
-      <c r="Z6" s="281"/>
+      <c r="S6" s="281"/>
+      <c r="T6" s="282"/>
+      <c r="U6" s="282"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="282"/>
+      <c r="X6" s="282"/>
+      <c r="Y6" s="282"/>
+      <c r="Z6" s="283"/>
     </row>
     <row r="7" spans="2:26" ht="30" customHeight="1">
-      <c r="B7" s="239"/>
-      <c r="C7" s="328"/>
-      <c r="D7" s="328"/>
-      <c r="E7" s="239"/>
-      <c r="G7" s="326"/>
-      <c r="H7" s="327"/>
-      <c r="I7" s="306"/>
-      <c r="J7" s="307"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="309"/>
-      <c r="M7" s="310"/>
-      <c r="R7" s="245">
+      <c r="B7" s="238"/>
+      <c r="C7" s="354"/>
+      <c r="D7" s="354"/>
+      <c r="E7" s="238"/>
+      <c r="G7" s="319"/>
+      <c r="H7" s="320"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="300"/>
+      <c r="K7" s="301"/>
+      <c r="L7" s="302"/>
+      <c r="M7" s="303"/>
+      <c r="R7" s="244">
         <v>1</v>
       </c>
-      <c r="S7" s="282"/>
-      <c r="T7" s="283"/>
-      <c r="U7" s="276"/>
-      <c r="V7" s="277"/>
-      <c r="W7" s="276"/>
-      <c r="X7" s="277"/>
-      <c r="Y7" s="276"/>
-      <c r="Z7" s="277"/>
+      <c r="S7" s="284"/>
+      <c r="T7" s="285"/>
+      <c r="U7" s="278"/>
+      <c r="V7" s="279"/>
+      <c r="W7" s="278"/>
+      <c r="X7" s="279"/>
+      <c r="Y7" s="278"/>
+      <c r="Z7" s="279"/>
     </row>
     <row r="8" spans="2:26" ht="30" customHeight="1">
-      <c r="B8" s="239"/>
-      <c r="C8" s="328"/>
-      <c r="D8" s="328"/>
-      <c r="E8" s="239"/>
-      <c r="G8" s="326"/>
-      <c r="H8" s="327"/>
-      <c r="I8" s="306"/>
-      <c r="J8" s="307"/>
-      <c r="K8" s="308"/>
-      <c r="L8" s="309"/>
-      <c r="M8" s="310"/>
-      <c r="R8" s="245">
+      <c r="B8" s="238"/>
+      <c r="C8" s="354"/>
+      <c r="D8" s="354"/>
+      <c r="E8" s="238"/>
+      <c r="G8" s="319"/>
+      <c r="H8" s="320"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="300"/>
+      <c r="K8" s="301"/>
+      <c r="L8" s="302"/>
+      <c r="M8" s="303"/>
+      <c r="R8" s="244">
         <v>2</v>
       </c>
-      <c r="S8" s="282"/>
-      <c r="T8" s="283"/>
-      <c r="U8" s="276"/>
-      <c r="V8" s="277"/>
-      <c r="W8" s="276"/>
-      <c r="X8" s="277"/>
-      <c r="Y8" s="276"/>
-      <c r="Z8" s="277"/>
+      <c r="S8" s="284"/>
+      <c r="T8" s="285"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="279"/>
+      <c r="W8" s="278"/>
+      <c r="X8" s="279"/>
+      <c r="Y8" s="278"/>
+      <c r="Z8" s="279"/>
     </row>
     <row r="9" spans="2:26" ht="30" customHeight="1">
-      <c r="B9" s="239"/>
-      <c r="C9" s="328"/>
-      <c r="D9" s="328"/>
-      <c r="E9" s="239"/>
-      <c r="G9" s="326"/>
-      <c r="H9" s="327"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="307"/>
-      <c r="K9" s="308"/>
-      <c r="L9" s="309"/>
-      <c r="M9" s="310"/>
-      <c r="R9" s="245">
+      <c r="B9" s="238"/>
+      <c r="C9" s="354"/>
+      <c r="D9" s="354"/>
+      <c r="E9" s="238"/>
+      <c r="G9" s="319"/>
+      <c r="H9" s="320"/>
+      <c r="I9" s="299"/>
+      <c r="J9" s="300"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="302"/>
+      <c r="M9" s="303"/>
+      <c r="R9" s="244">
         <v>3</v>
       </c>
-      <c r="S9" s="282"/>
-      <c r="T9" s="283"/>
-      <c r="U9" s="276"/>
-      <c r="V9" s="277"/>
-      <c r="W9" s="276"/>
-      <c r="X9" s="277"/>
-      <c r="Y9" s="276"/>
-      <c r="Z9" s="277"/>
+      <c r="S9" s="284"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="279"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="279"/>
+      <c r="Y9" s="278"/>
+      <c r="Z9" s="279"/>
     </row>
     <row r="10" spans="2:26" ht="30" customHeight="1">
-      <c r="G10" s="294" t="s">
+      <c r="G10" s="287" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="295"/>
-      <c r="I10" s="295"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="296"/>
-      <c r="R10" s="245">
+      <c r="H10" s="288"/>
+      <c r="I10" s="288"/>
+      <c r="J10" s="288"/>
+      <c r="K10" s="288"/>
+      <c r="L10" s="288"/>
+      <c r="M10" s="289"/>
+      <c r="R10" s="244">
         <v>4</v>
       </c>
-      <c r="S10" s="282"/>
-      <c r="T10" s="283"/>
-      <c r="U10" s="276"/>
-      <c r="V10" s="277"/>
-      <c r="W10" s="276"/>
-      <c r="X10" s="277"/>
-      <c r="Y10" s="276"/>
-      <c r="Z10" s="277"/>
+      <c r="S10" s="284"/>
+      <c r="T10" s="285"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="279"/>
+      <c r="W10" s="278"/>
+      <c r="X10" s="279"/>
+      <c r="Y10" s="278"/>
+      <c r="Z10" s="279"/>
     </row>
     <row r="11" spans="2:26" ht="30" customHeight="1">
-      <c r="G11" s="311" t="s">
+      <c r="G11" s="304" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="312"/>
-      <c r="I11" s="312"/>
-      <c r="J11" s="312"/>
-      <c r="K11" s="312"/>
-      <c r="L11" s="312"/>
-      <c r="M11" s="313"/>
-      <c r="R11" s="258" t="s">
+      <c r="H11" s="305"/>
+      <c r="I11" s="305"/>
+      <c r="J11" s="305"/>
+      <c r="K11" s="305"/>
+      <c r="L11" s="305"/>
+      <c r="M11" s="306"/>
+      <c r="R11" s="257" t="s">
         <v>155</v>
       </c>
-      <c r="S11" s="279"/>
-      <c r="T11" s="280"/>
-      <c r="U11" s="280"/>
-      <c r="V11" s="280"/>
-      <c r="W11" s="280"/>
-      <c r="X11" s="280"/>
-      <c r="Y11" s="280"/>
-      <c r="Z11" s="281"/>
+      <c r="S11" s="281"/>
+      <c r="T11" s="282"/>
+      <c r="U11" s="282"/>
+      <c r="V11" s="282"/>
+      <c r="W11" s="282"/>
+      <c r="X11" s="282"/>
+      <c r="Y11" s="282"/>
+      <c r="Z11" s="283"/>
     </row>
     <row r="12" spans="2:26" ht="30" customHeight="1">
-      <c r="G12" s="294" t="s">
+      <c r="G12" s="287" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="295"/>
-      <c r="I12" s="295"/>
-      <c r="J12" s="295"/>
-      <c r="K12" s="295"/>
-      <c r="L12" s="295"/>
-      <c r="M12" s="296"/>
-      <c r="R12" s="245">
+      <c r="H12" s="288"/>
+      <c r="I12" s="288"/>
+      <c r="J12" s="288"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="288"/>
+      <c r="M12" s="289"/>
+      <c r="R12" s="244">
         <v>1</v>
       </c>
-      <c r="S12" s="282"/>
-      <c r="T12" s="283"/>
-      <c r="U12" s="276"/>
-      <c r="V12" s="277"/>
-      <c r="W12" s="276"/>
-      <c r="X12" s="277"/>
-      <c r="Y12" s="276"/>
-      <c r="Z12" s="277"/>
+      <c r="S12" s="284"/>
+      <c r="T12" s="285"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="279"/>
+      <c r="W12" s="278"/>
+      <c r="X12" s="279"/>
+      <c r="Y12" s="278"/>
+      <c r="Z12" s="279"/>
     </row>
     <row r="13" spans="2:26" ht="30" customHeight="1">
-      <c r="G13" s="297" t="s">
+      <c r="G13" s="290" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="298"/>
-      <c r="I13" s="298"/>
-      <c r="J13" s="298"/>
-      <c r="K13" s="298"/>
-      <c r="L13" s="298"/>
-      <c r="M13" s="299"/>
-      <c r="R13" s="245">
+      <c r="H13" s="291"/>
+      <c r="I13" s="291"/>
+      <c r="J13" s="291"/>
+      <c r="K13" s="291"/>
+      <c r="L13" s="291"/>
+      <c r="M13" s="292"/>
+      <c r="R13" s="244">
         <v>2</v>
       </c>
-      <c r="S13" s="282"/>
-      <c r="T13" s="283"/>
-      <c r="U13" s="276"/>
-      <c r="V13" s="277"/>
-      <c r="W13" s="276"/>
-      <c r="X13" s="277"/>
-      <c r="Y13" s="276"/>
-      <c r="Z13" s="277"/>
+      <c r="S13" s="284"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="279"/>
+      <c r="W13" s="278"/>
+      <c r="X13" s="279"/>
+      <c r="Y13" s="278"/>
+      <c r="Z13" s="279"/>
     </row>
     <row r="14" spans="2:26" ht="30" customHeight="1">
-      <c r="R14" s="245">
+      <c r="R14" s="244">
         <v>3</v>
       </c>
-      <c r="S14" s="282"/>
-      <c r="T14" s="283"/>
-      <c r="U14" s="276"/>
-      <c r="V14" s="277"/>
-      <c r="W14" s="276"/>
-      <c r="X14" s="277"/>
-      <c r="Y14" s="276"/>
-      <c r="Z14" s="277"/>
+      <c r="S14" s="284"/>
+      <c r="T14" s="285"/>
+      <c r="U14" s="278"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="278"/>
+      <c r="X14" s="279"/>
+      <c r="Y14" s="278"/>
+      <c r="Z14" s="279"/>
     </row>
     <row r="15" spans="2:26" ht="30" customHeight="1">
-      <c r="R15" s="245">
+      <c r="R15" s="244">
         <v>4</v>
       </c>
-      <c r="S15" s="282"/>
-      <c r="T15" s="283"/>
-      <c r="U15" s="276"/>
-      <c r="V15" s="277"/>
-      <c r="W15" s="276"/>
-      <c r="X15" s="277"/>
-      <c r="Y15" s="276"/>
-      <c r="Z15" s="277"/>
+      <c r="S15" s="284"/>
+      <c r="T15" s="285"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="279"/>
+      <c r="W15" s="278"/>
+      <c r="X15" s="279"/>
+      <c r="Y15" s="278"/>
+      <c r="Z15" s="279"/>
     </row>
     <row r="31" spans="1:23" ht="30" customHeight="1">
-      <c r="A31" s="335" t="s">
+      <c r="A31" s="355" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="335"/>
-      <c r="C31" s="335"/>
-      <c r="D31" s="335"/>
+      <c r="B31" s="355"/>
+      <c r="C31" s="355"/>
+      <c r="D31" s="355"/>
       <c r="E31" s="87"/>
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
       <c r="H31" s="88"/>
       <c r="I31" s="87"/>
-      <c r="J31" s="336" t="s">
+      <c r="J31" s="356" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="336"/>
-      <c r="L31" s="336"/>
-      <c r="M31" s="336"/>
-      <c r="N31" s="336"/>
-      <c r="O31" s="336"/>
-      <c r="P31" s="336"/>
+      <c r="K31" s="356"/>
+      <c r="L31" s="356"/>
+      <c r="M31" s="356"/>
+      <c r="N31" s="356"/>
+      <c r="O31" s="356"/>
+      <c r="P31" s="356"/>
       <c r="Q31" s="87"/>
       <c r="R31" s="87"/>
       <c r="S31" s="87"/>
@@ -4815,26 +4823,26 @@
       <c r="W31" s="89"/>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
-      <c r="A32" s="384" t="s">
+      <c r="A32" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="384"/>
-      <c r="C32" s="384"/>
-      <c r="D32" s="384"/>
+      <c r="B32" s="332"/>
+      <c r="C32" s="332"/>
+      <c r="D32" s="332"/>
       <c r="E32" s="87"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90"/>
       <c r="H32" s="90"/>
       <c r="I32" s="87"/>
-      <c r="J32" s="385" t="s">
+      <c r="J32" s="394" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="385"/>
-      <c r="L32" s="385"/>
-      <c r="M32" s="385"/>
-      <c r="N32" s="385"/>
-      <c r="O32" s="385"/>
-      <c r="P32" s="385"/>
+      <c r="K32" s="394"/>
+      <c r="L32" s="394"/>
+      <c r="M32" s="394"/>
+      <c r="N32" s="394"/>
+      <c r="O32" s="394"/>
+      <c r="P32" s="394"/>
       <c r="Q32" s="88"/>
       <c r="R32" s="88"/>
       <c r="S32" s="88"/>
@@ -4873,24 +4881,24 @@
       <c r="AA33" s="89"/>
     </row>
     <row r="34" spans="1:27" ht="30" customHeight="1">
-      <c r="A34" s="386" t="s">
+      <c r="A34" s="395" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="386"/>
-      <c r="C34" s="386"/>
-      <c r="D34" s="386"/>
-      <c r="E34" s="386"/>
-      <c r="F34" s="386"/>
-      <c r="G34" s="386"/>
-      <c r="H34" s="386"/>
-      <c r="I34" s="386"/>
-      <c r="J34" s="386"/>
-      <c r="K34" s="386"/>
-      <c r="L34" s="386"/>
-      <c r="M34" s="386"/>
-      <c r="N34" s="386"/>
-      <c r="O34" s="386"/>
-      <c r="P34" s="386"/>
+      <c r="B34" s="395"/>
+      <c r="C34" s="395"/>
+      <c r="D34" s="395"/>
+      <c r="E34" s="395"/>
+      <c r="F34" s="395"/>
+      <c r="G34" s="395"/>
+      <c r="H34" s="395"/>
+      <c r="I34" s="395"/>
+      <c r="J34" s="395"/>
+      <c r="K34" s="395"/>
+      <c r="L34" s="395"/>
+      <c r="M34" s="395"/>
+      <c r="N34" s="395"/>
+      <c r="O34" s="395"/>
+      <c r="P34" s="395"/>
       <c r="Q34" s="97"/>
       <c r="R34" s="97"/>
       <c r="S34" s="97"/>
@@ -4904,22 +4912,22 @@
       <c r="AA34" s="86"/>
     </row>
     <row r="35" spans="1:27" ht="30" customHeight="1">
-      <c r="A35" s="266"/>
-      <c r="B35" s="266"/>
-      <c r="C35" s="266"/>
-      <c r="D35" s="266"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="266"/>
-      <c r="H35" s="266"/>
-      <c r="I35" s="266"/>
-      <c r="J35" s="266"/>
-      <c r="K35" s="266"/>
-      <c r="L35" s="266"/>
-      <c r="M35" s="266"/>
-      <c r="N35" s="266"/>
-      <c r="O35" s="266"/>
-      <c r="P35" s="266"/>
+      <c r="A35" s="333"/>
+      <c r="B35" s="333"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="333"/>
+      <c r="G35" s="333"/>
+      <c r="H35" s="333"/>
+      <c r="I35" s="333"/>
+      <c r="J35" s="333"/>
+      <c r="K35" s="333"/>
+      <c r="L35" s="333"/>
+      <c r="M35" s="333"/>
+      <c r="N35" s="333"/>
+      <c r="O35" s="333"/>
+      <c r="P35" s="333"/>
       <c r="Q35" s="99"/>
       <c r="R35" s="99"/>
       <c r="S35" s="99"/>
@@ -4962,92 +4970,92 @@
       <c r="AA36" s="86"/>
     </row>
     <row r="37" spans="1:27" ht="30" customHeight="1">
-      <c r="A37" s="394" t="s">
+      <c r="A37" s="397" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="394" t="s">
+      <c r="B37" s="397" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="394" t="s">
+      <c r="C37" s="397" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="357" t="s">
+      <c r="D37" s="368" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="353" t="s">
+      <c r="E37" s="364" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="404"/>
-      <c r="G37" s="354"/>
-      <c r="H37" s="357" t="s">
+      <c r="F37" s="402"/>
+      <c r="G37" s="365"/>
+      <c r="H37" s="368" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="353" t="s">
+      <c r="I37" s="364" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="404"/>
-      <c r="K37" s="404"/>
-      <c r="L37" s="354"/>
-      <c r="M37" s="353" t="s">
+      <c r="J37" s="402"/>
+      <c r="K37" s="402"/>
+      <c r="L37" s="365"/>
+      <c r="M37" s="364" t="s">
         <v>114</v>
       </c>
-      <c r="N37" s="404"/>
-      <c r="O37" s="404"/>
-      <c r="P37" s="354"/>
+      <c r="N37" s="402"/>
+      <c r="O37" s="402"/>
+      <c r="P37" s="365"/>
       <c r="Q37" s="103"/>
       <c r="R37" s="103"/>
       <c r="S37" s="103"/>
-      <c r="T37" s="442" t="s">
+      <c r="T37" s="445" t="s">
         <v>171</v>
       </c>
-      <c r="U37" s="433" t="s">
+      <c r="U37" s="436" t="s">
         <v>53</v>
       </c>
-      <c r="V37" s="433" t="s">
+      <c r="V37" s="436" t="s">
         <v>188</v>
       </c>
-      <c r="W37" s="433"/>
-      <c r="X37" s="433"/>
-      <c r="Y37" s="457" t="s">
+      <c r="W37" s="436"/>
+      <c r="X37" s="436"/>
+      <c r="Y37" s="460" t="s">
         <v>189</v>
       </c>
       <c r="Z37" s="104"/>
       <c r="AA37" s="104"/>
     </row>
     <row r="38" spans="1:27" ht="30" customHeight="1">
-      <c r="A38" s="395"/>
-      <c r="B38" s="395"/>
-      <c r="C38" s="395"/>
-      <c r="D38" s="358"/>
-      <c r="E38" s="355"/>
-      <c r="F38" s="405"/>
-      <c r="G38" s="356"/>
-      <c r="H38" s="358"/>
-      <c r="I38" s="355"/>
-      <c r="J38" s="405"/>
-      <c r="K38" s="405"/>
-      <c r="L38" s="356"/>
-      <c r="M38" s="355"/>
-      <c r="N38" s="405"/>
-      <c r="O38" s="405"/>
-      <c r="P38" s="356"/>
+      <c r="A38" s="398"/>
+      <c r="B38" s="398"/>
+      <c r="C38" s="398"/>
+      <c r="D38" s="369"/>
+      <c r="E38" s="366"/>
+      <c r="F38" s="403"/>
+      <c r="G38" s="367"/>
+      <c r="H38" s="369"/>
+      <c r="I38" s="366"/>
+      <c r="J38" s="403"/>
+      <c r="K38" s="403"/>
+      <c r="L38" s="367"/>
+      <c r="M38" s="366"/>
+      <c r="N38" s="403"/>
+      <c r="O38" s="403"/>
+      <c r="P38" s="367"/>
       <c r="Q38" s="103"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
-      <c r="T38" s="443"/>
-      <c r="U38" s="433"/>
-      <c r="V38" s="433"/>
-      <c r="W38" s="433"/>
-      <c r="X38" s="433"/>
-      <c r="Y38" s="457"/>
+      <c r="T38" s="446"/>
+      <c r="U38" s="436"/>
+      <c r="V38" s="436"/>
+      <c r="W38" s="436"/>
+      <c r="X38" s="436"/>
+      <c r="Y38" s="460"/>
       <c r="Z38" s="104"/>
       <c r="AA38" s="104"/>
     </row>
     <row r="39" spans="1:27" ht="34.5" customHeight="1">
-      <c r="A39" s="396"/>
-      <c r="B39" s="396"/>
-      <c r="C39" s="396"/>
-      <c r="D39" s="359"/>
+      <c r="A39" s="399"/>
+      <c r="B39" s="399"/>
+      <c r="C39" s="399"/>
+      <c r="D39" s="370"/>
       <c r="E39" s="105" t="s">
         <v>115</v>
       </c>
@@ -5057,28 +5065,28 @@
       <c r="G39" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="359"/>
-      <c r="I39" s="375" t="s">
+      <c r="H39" s="370"/>
+      <c r="I39" s="386" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="376"/>
-      <c r="K39" s="375" t="s">
+      <c r="J39" s="387"/>
+      <c r="K39" s="386" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="376"/>
-      <c r="M39" s="375" t="s">
+      <c r="L39" s="387"/>
+      <c r="M39" s="386" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="376"/>
-      <c r="O39" s="375" t="s">
+      <c r="N39" s="387"/>
+      <c r="O39" s="386" t="s">
         <v>119</v>
       </c>
-      <c r="P39" s="376"/>
+      <c r="P39" s="387"/>
       <c r="Q39" s="103"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103"/>
-      <c r="T39" s="444"/>
-      <c r="U39" s="433"/>
+      <c r="T39" s="447"/>
+      <c r="U39" s="436"/>
       <c r="V39" s="106" t="s">
         <v>121</v>
       </c>
@@ -5088,7 +5096,7 @@
       <c r="X39" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="Y39" s="457"/>
+      <c r="Y39" s="460"/>
       <c r="Z39" s="107"/>
       <c r="AA39" s="107"/>
     </row>
@@ -5117,33 +5125,33 @@
       <c r="H40" s="110">
         <v>-6</v>
       </c>
-      <c r="I40" s="378">
+      <c r="I40" s="389">
         <v>-7</v>
       </c>
-      <c r="J40" s="379"/>
-      <c r="K40" s="378">
+      <c r="J40" s="390"/>
+      <c r="K40" s="389">
         <v>-8</v>
       </c>
-      <c r="L40" s="379"/>
-      <c r="M40" s="417" t="s">
+      <c r="L40" s="390"/>
+      <c r="M40" s="420" t="s">
         <v>197</v>
       </c>
-      <c r="N40" s="418"/>
-      <c r="O40" s="417" t="s">
+      <c r="N40" s="421"/>
+      <c r="O40" s="420" t="s">
         <v>198</v>
       </c>
-      <c r="P40" s="418"/>
+      <c r="P40" s="421"/>
       <c r="Q40" s="111"/>
       <c r="R40" s="111"/>
       <c r="S40" s="111"/>
       <c r="T40" s="112" t="s">
         <v>144</v>
       </c>
-      <c r="U40" s="448"/>
-      <c r="V40" s="449"/>
-      <c r="W40" s="449"/>
-      <c r="X40" s="449"/>
-      <c r="Y40" s="450"/>
+      <c r="U40" s="451"/>
+      <c r="V40" s="452"/>
+      <c r="W40" s="452"/>
+      <c r="X40" s="452"/>
+      <c r="Y40" s="453"/>
       <c r="Z40" s="113"/>
       <c r="AA40" s="113"/>
     </row>
@@ -5158,24 +5166,24 @@
       <c r="F41" s="118"/>
       <c r="G41" s="118"/>
       <c r="H41" s="123"/>
-      <c r="I41" s="440"/>
-      <c r="J41" s="441"/>
-      <c r="K41" s="427"/>
-      <c r="L41" s="428"/>
-      <c r="M41" s="427"/>
-      <c r="N41" s="428"/>
-      <c r="O41" s="427"/>
-      <c r="P41" s="428"/>
+      <c r="I41" s="443"/>
+      <c r="J41" s="444"/>
+      <c r="K41" s="430"/>
+      <c r="L41" s="431"/>
+      <c r="M41" s="430"/>
+      <c r="N41" s="431"/>
+      <c r="O41" s="430"/>
+      <c r="P41" s="431"/>
       <c r="Q41" s="119"/>
       <c r="R41" s="119"/>
       <c r="S41" s="119"/>
-      <c r="T41" s="240">
+      <c r="T41" s="239">
         <v>1</v>
       </c>
-      <c r="U41" s="244"/>
+      <c r="U41" s="243"/>
       <c r="V41" s="91"/>
       <c r="W41" s="91"/>
-      <c r="Y41" s="241" t="s">
+      <c r="Y41" s="240" t="s">
         <v>199</v>
       </c>
       <c r="Z41" s="120"/>
@@ -5192,25 +5200,25 @@
       <c r="F42" s="118"/>
       <c r="G42" s="118"/>
       <c r="H42" s="123"/>
-      <c r="I42" s="440"/>
-      <c r="J42" s="441"/>
-      <c r="K42" s="427"/>
-      <c r="L42" s="428"/>
-      <c r="M42" s="427"/>
-      <c r="N42" s="428"/>
-      <c r="O42" s="427"/>
-      <c r="P42" s="428"/>
+      <c r="I42" s="443"/>
+      <c r="J42" s="444"/>
+      <c r="K42" s="430"/>
+      <c r="L42" s="431"/>
+      <c r="M42" s="430"/>
+      <c r="N42" s="431"/>
+      <c r="O42" s="430"/>
+      <c r="P42" s="431"/>
       <c r="Q42" s="119"/>
       <c r="R42" s="119"/>
       <c r="S42" s="119"/>
-      <c r="T42" s="246">
+      <c r="T42" s="245">
         <v>2</v>
       </c>
-      <c r="U42" s="237"/>
+      <c r="U42" s="236"/>
       <c r="V42" s="86"/>
       <c r="W42" s="86"/>
       <c r="X42" s="87"/>
-      <c r="Y42" s="241" t="s">
+      <c r="Y42" s="240" t="s">
         <v>199</v>
       </c>
       <c r="Z42" s="120"/>
@@ -5227,25 +5235,25 @@
       <c r="F43" s="118"/>
       <c r="G43" s="118"/>
       <c r="H43" s="123"/>
-      <c r="I43" s="440"/>
-      <c r="J43" s="441"/>
-      <c r="K43" s="427"/>
-      <c r="L43" s="428"/>
-      <c r="M43" s="427"/>
-      <c r="N43" s="428"/>
-      <c r="O43" s="427"/>
-      <c r="P43" s="428"/>
+      <c r="I43" s="443"/>
+      <c r="J43" s="444"/>
+      <c r="K43" s="430"/>
+      <c r="L43" s="431"/>
+      <c r="M43" s="430"/>
+      <c r="N43" s="431"/>
+      <c r="O43" s="430"/>
+      <c r="P43" s="431"/>
       <c r="Q43" s="119"/>
       <c r="R43" s="119"/>
       <c r="S43" s="119"/>
-      <c r="T43" s="246">
+      <c r="T43" s="245">
         <v>3</v>
       </c>
-      <c r="U43" s="237"/>
+      <c r="U43" s="236"/>
       <c r="V43" s="98"/>
       <c r="W43" s="98"/>
       <c r="X43" s="98"/>
-      <c r="Y43" s="241" t="s">
+      <c r="Y43" s="240" t="s">
         <v>199</v>
       </c>
       <c r="Z43" s="120"/>
@@ -5262,25 +5270,25 @@
       <c r="F44" s="118"/>
       <c r="G44" s="118"/>
       <c r="H44" s="123"/>
-      <c r="I44" s="438"/>
-      <c r="J44" s="439"/>
-      <c r="K44" s="436"/>
-      <c r="L44" s="437"/>
-      <c r="M44" s="436"/>
-      <c r="N44" s="437"/>
-      <c r="O44" s="436"/>
-      <c r="P44" s="437"/>
+      <c r="I44" s="441"/>
+      <c r="J44" s="442"/>
+      <c r="K44" s="439"/>
+      <c r="L44" s="440"/>
+      <c r="M44" s="439"/>
+      <c r="N44" s="440"/>
+      <c r="O44" s="439"/>
+      <c r="P44" s="440"/>
       <c r="Q44" s="119"/>
       <c r="R44" s="119"/>
       <c r="S44" s="119"/>
-      <c r="T44" s="247">
+      <c r="T44" s="246">
         <v>4</v>
       </c>
-      <c r="U44" s="236"/>
+      <c r="U44" s="235"/>
       <c r="V44" s="100"/>
       <c r="W44" s="100"/>
       <c r="X44" s="100"/>
-      <c r="Y44" s="241" t="s">
+      <c r="Y44" s="240" t="s">
         <v>199</v>
       </c>
       <c r="Z44" s="120"/>
@@ -5290,14 +5298,14 @@
       <c r="Q45" s="119"/>
       <c r="R45" s="119"/>
       <c r="S45" s="119"/>
-      <c r="T45" s="242" t="s">
+      <c r="T45" s="241" t="s">
         <v>155</v>
       </c>
-      <c r="U45" s="445"/>
-      <c r="V45" s="446"/>
-      <c r="W45" s="446"/>
-      <c r="X45" s="446"/>
-      <c r="Y45" s="447"/>
+      <c r="U45" s="448"/>
+      <c r="V45" s="449"/>
+      <c r="W45" s="449"/>
+      <c r="X45" s="449"/>
+      <c r="Y45" s="450"/>
       <c r="Z45" s="120"/>
       <c r="AA45" s="120"/>
     </row>
@@ -5321,14 +5329,14 @@
       <c r="Q46" s="86"/>
       <c r="R46" s="86"/>
       <c r="S46" s="86"/>
-      <c r="T46" s="243">
+      <c r="T46" s="242">
         <v>1</v>
       </c>
-      <c r="U46" s="244"/>
-      <c r="V46" s="256"/>
-      <c r="W46" s="255"/>
-      <c r="X46" s="254"/>
-      <c r="Y46" s="241" t="s">
+      <c r="U46" s="243"/>
+      <c r="V46" s="255"/>
+      <c r="W46" s="254"/>
+      <c r="X46" s="253"/>
+      <c r="Y46" s="240" t="s">
         <v>199</v>
       </c>
       <c r="Z46" s="86"/>
@@ -5344,63 +5352,63 @@
       <c r="G47" s="86"/>
       <c r="H47" s="86"/>
       <c r="I47" s="86"/>
-      <c r="J47" s="329"/>
-      <c r="K47" s="329"/>
-      <c r="L47" s="329"/>
-      <c r="M47" s="329"/>
-      <c r="N47" s="329"/>
-      <c r="O47" s="329"/>
-      <c r="P47" s="329"/>
+      <c r="J47" s="344"/>
+      <c r="K47" s="344"/>
+      <c r="L47" s="344"/>
+      <c r="M47" s="344"/>
+      <c r="N47" s="344"/>
+      <c r="O47" s="344"/>
+      <c r="P47" s="344"/>
       <c r="Q47" s="128"/>
       <c r="R47" s="128"/>
       <c r="S47" s="128"/>
-      <c r="T47" s="248">
+      <c r="T47" s="247">
         <v>2</v>
       </c>
-      <c r="U47" s="237"/>
-      <c r="V47" s="233"/>
+      <c r="U47" s="236"/>
+      <c r="V47" s="232"/>
       <c r="W47" s="86"/>
-      <c r="X47" s="234"/>
-      <c r="Y47" s="241" t="s">
+      <c r="X47" s="233"/>
+      <c r="Y47" s="240" t="s">
         <v>199</v>
       </c>
       <c r="Z47" s="129"/>
       <c r="AA47" s="129"/>
     </row>
     <row r="48" spans="1:27" ht="30" customHeight="1">
-      <c r="A48" s="267" t="s">
+      <c r="A48" s="334" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="267"/>
-      <c r="C48" s="382" t="s">
+      <c r="B48" s="334"/>
+      <c r="C48" s="349" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="382"/>
-      <c r="E48" s="382"/>
-      <c r="F48" s="382"/>
-      <c r="G48" s="338" t="s">
+      <c r="D48" s="349"/>
+      <c r="E48" s="349"/>
+      <c r="F48" s="349"/>
+      <c r="G48" s="350" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="338"/>
-      <c r="I48" s="338"/>
-      <c r="J48" s="338"/>
-      <c r="K48" s="338"/>
-      <c r="L48" s="338"/>
-      <c r="M48" s="338"/>
-      <c r="N48" s="338"/>
-      <c r="O48" s="338"/>
-      <c r="P48" s="338"/>
+      <c r="H48" s="350"/>
+      <c r="I48" s="350"/>
+      <c r="J48" s="350"/>
+      <c r="K48" s="350"/>
+      <c r="L48" s="350"/>
+      <c r="M48" s="350"/>
+      <c r="N48" s="350"/>
+      <c r="O48" s="350"/>
+      <c r="P48" s="350"/>
       <c r="Q48" s="130"/>
       <c r="R48" s="130"/>
       <c r="S48" s="130"/>
-      <c r="T48" s="248">
+      <c r="T48" s="247">
         <v>3</v>
       </c>
-      <c r="U48" s="237"/>
-      <c r="V48" s="253"/>
+      <c r="U48" s="236"/>
+      <c r="V48" s="252"/>
       <c r="W48" s="98"/>
-      <c r="X48" s="252"/>
-      <c r="Y48" s="241" t="s">
+      <c r="X48" s="251"/>
+      <c r="Y48" s="240" t="s">
         <v>199</v>
       </c>
       <c r="Z48" s="129"/>
@@ -5416,24 +5424,24 @@
       <c r="G49" s="130"/>
       <c r="H49" s="130"/>
       <c r="I49" s="130"/>
-      <c r="J49" s="338"/>
-      <c r="K49" s="338"/>
-      <c r="L49" s="338"/>
-      <c r="M49" s="338"/>
-      <c r="N49" s="338"/>
-      <c r="O49" s="338"/>
-      <c r="P49" s="338"/>
+      <c r="J49" s="350"/>
+      <c r="K49" s="350"/>
+      <c r="L49" s="350"/>
+      <c r="M49" s="350"/>
+      <c r="N49" s="350"/>
+      <c r="O49" s="350"/>
+      <c r="P49" s="350"/>
       <c r="Q49" s="130"/>
       <c r="R49" s="130"/>
       <c r="S49" s="130"/>
-      <c r="T49" s="249">
+      <c r="T49" s="248">
         <v>4</v>
       </c>
-      <c r="U49" s="236"/>
-      <c r="V49" s="235"/>
-      <c r="W49" s="251"/>
-      <c r="X49" s="250"/>
-      <c r="Y49" s="241" t="s">
+      <c r="U49" s="235"/>
+      <c r="V49" s="234"/>
+      <c r="W49" s="250"/>
+      <c r="X49" s="249"/>
+      <c r="Y49" s="240" t="s">
         <v>199</v>
       </c>
       <c r="Z49" s="129"/>
@@ -5489,14 +5497,14 @@
       <c r="R51" s="86"/>
       <c r="S51" s="86"/>
       <c r="T51" s="86"/>
-      <c r="U51" s="284" t="s">
+      <c r="U51" s="335" t="s">
         <v>53</v>
       </c>
-      <c r="V51" s="287" t="s">
+      <c r="V51" s="338" t="s">
         <v>124</v>
       </c>
-      <c r="W51" s="288"/>
-      <c r="X51" s="289"/>
+      <c r="W51" s="339"/>
+      <c r="X51" s="340"/>
       <c r="Y51" s="86"/>
       <c r="Z51" s="86"/>
       <c r="AA51" s="86"/>
@@ -5522,10 +5530,10 @@
       <c r="R52" s="86"/>
       <c r="S52" s="86"/>
       <c r="T52" s="86"/>
-      <c r="U52" s="285"/>
-      <c r="V52" s="290"/>
-      <c r="W52" s="291"/>
-      <c r="X52" s="292"/>
+      <c r="U52" s="336"/>
+      <c r="V52" s="341"/>
+      <c r="W52" s="342"/>
+      <c r="X52" s="343"/>
       <c r="Y52" s="86"/>
       <c r="Z52" s="86"/>
       <c r="AA52" s="86"/>
@@ -5551,7 +5559,7 @@
       <c r="R53" s="86"/>
       <c r="S53" s="86"/>
       <c r="T53" s="132"/>
-      <c r="U53" s="286"/>
+      <c r="U53" s="337"/>
       <c r="V53" s="133" t="s">
         <v>121</v>
       </c>
@@ -5566,22 +5574,22 @@
       <c r="AA53" s="86"/>
     </row>
     <row r="54" spans="1:30" ht="30" customHeight="1">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="94"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="334"/>
-      <c r="K54" s="334"/>
-      <c r="L54" s="334"/>
-      <c r="M54" s="334"/>
-      <c r="N54" s="334"/>
-      <c r="O54" s="334"/>
-      <c r="P54" s="334"/>
+      <c r="A54" s="267"/>
+      <c r="B54" s="267"/>
+      <c r="C54" s="267"/>
+      <c r="D54" s="267"/>
+      <c r="E54" s="267"/>
+      <c r="F54" s="267"/>
+      <c r="G54" s="269"/>
+      <c r="H54" s="269"/>
+      <c r="I54" s="269"/>
+      <c r="J54" s="265"/>
+      <c r="K54" s="265"/>
+      <c r="L54" s="265"/>
+      <c r="M54" s="265"/>
+      <c r="N54" s="265"/>
+      <c r="O54" s="265"/>
+      <c r="P54" s="265"/>
       <c r="Q54" s="132"/>
       <c r="R54" s="132"/>
       <c r="S54" s="132"/>
@@ -6074,26 +6082,26 @@
       <c r="AD70" s="86"/>
     </row>
     <row r="71" spans="1:31" ht="30" customHeight="1">
-      <c r="A71" s="335" t="s">
+      <c r="A71" s="355" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="335"/>
-      <c r="C71" s="335"/>
-      <c r="D71" s="335"/>
+      <c r="B71" s="355"/>
+      <c r="C71" s="355"/>
+      <c r="D71" s="355"/>
       <c r="E71" s="87"/>
       <c r="F71" s="88"/>
       <c r="G71" s="88"/>
       <c r="H71" s="88"/>
       <c r="I71" s="87"/>
-      <c r="J71" s="336" t="s">
+      <c r="J71" s="356" t="s">
         <v>104</v>
       </c>
-      <c r="K71" s="336"/>
-      <c r="L71" s="336"/>
-      <c r="M71" s="336"/>
-      <c r="N71" s="336"/>
-      <c r="O71" s="336"/>
-      <c r="P71" s="336"/>
+      <c r="K71" s="356"/>
+      <c r="L71" s="356"/>
+      <c r="M71" s="356"/>
+      <c r="N71" s="356"/>
+      <c r="O71" s="356"/>
+      <c r="P71" s="356"/>
       <c r="Q71" s="87"/>
       <c r="R71" s="87"/>
       <c r="S71" s="87"/>
@@ -6110,26 +6118,26 @@
       <c r="AD71" s="89"/>
     </row>
     <row r="72" spans="1:31" ht="30" customHeight="1">
-      <c r="A72" s="384" t="s">
+      <c r="A72" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="384"/>
-      <c r="C72" s="384"/>
-      <c r="D72" s="384"/>
+      <c r="B72" s="332"/>
+      <c r="C72" s="332"/>
+      <c r="D72" s="332"/>
       <c r="E72" s="87"/>
       <c r="F72" s="90"/>
       <c r="G72" s="90"/>
       <c r="H72" s="90"/>
       <c r="I72" s="87"/>
-      <c r="J72" s="385" t="s">
+      <c r="J72" s="394" t="s">
         <v>106</v>
       </c>
-      <c r="K72" s="385"/>
-      <c r="L72" s="385"/>
-      <c r="M72" s="385"/>
-      <c r="N72" s="385"/>
-      <c r="O72" s="385"/>
-      <c r="P72" s="385"/>
+      <c r="K72" s="394"/>
+      <c r="L72" s="394"/>
+      <c r="M72" s="394"/>
+      <c r="N72" s="394"/>
+      <c r="O72" s="394"/>
+      <c r="P72" s="394"/>
       <c r="Q72" s="88"/>
       <c r="R72" s="88"/>
       <c r="S72" s="88"/>
@@ -6188,31 +6196,31 @@
       <c r="AD73" s="86"/>
     </row>
     <row r="74" spans="1:31" ht="30" customHeight="1">
-      <c r="A74" s="386" t="s">
+      <c r="A74" s="395" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="386"/>
-      <c r="C74" s="386"/>
-      <c r="D74" s="386"/>
-      <c r="E74" s="386"/>
-      <c r="F74" s="386"/>
-      <c r="G74" s="386"/>
-      <c r="H74" s="386"/>
-      <c r="I74" s="386"/>
-      <c r="J74" s="386"/>
-      <c r="K74" s="386"/>
-      <c r="L74" s="386"/>
-      <c r="M74" s="386"/>
-      <c r="N74" s="386"/>
-      <c r="O74" s="386"/>
-      <c r="P74" s="386"/>
+      <c r="B74" s="395"/>
+      <c r="C74" s="395"/>
+      <c r="D74" s="395"/>
+      <c r="E74" s="395"/>
+      <c r="F74" s="395"/>
+      <c r="G74" s="395"/>
+      <c r="H74" s="395"/>
+      <c r="I74" s="395"/>
+      <c r="J74" s="395"/>
+      <c r="K74" s="395"/>
+      <c r="L74" s="395"/>
+      <c r="M74" s="395"/>
+      <c r="N74" s="395"/>
+      <c r="O74" s="395"/>
+      <c r="P74" s="395"/>
       <c r="Q74" s="97"/>
       <c r="R74" s="97"/>
       <c r="S74" s="97"/>
       <c r="T74" s="97"/>
       <c r="U74" s="142"/>
       <c r="V74" s="143"/>
-      <c r="W74" s="259" t="s">
+      <c r="W74" s="258" t="s">
         <v>223</v>
       </c>
       <c r="X74" s="98"/>
@@ -6224,22 +6232,22 @@
       <c r="AD74" s="86"/>
     </row>
     <row r="75" spans="1:31" ht="30" customHeight="1">
-      <c r="A75" s="266"/>
-      <c r="B75" s="266"/>
-      <c r="C75" s="266"/>
-      <c r="D75" s="266"/>
-      <c r="E75" s="266"/>
-      <c r="F75" s="266"/>
-      <c r="G75" s="266"/>
-      <c r="H75" s="266"/>
-      <c r="I75" s="266"/>
-      <c r="J75" s="266"/>
-      <c r="K75" s="266"/>
-      <c r="L75" s="266"/>
-      <c r="M75" s="266"/>
-      <c r="N75" s="266"/>
-      <c r="O75" s="266"/>
-      <c r="P75" s="266"/>
+      <c r="A75" s="333"/>
+      <c r="B75" s="333"/>
+      <c r="C75" s="333"/>
+      <c r="D75" s="333"/>
+      <c r="E75" s="333"/>
+      <c r="F75" s="333"/>
+      <c r="G75" s="333"/>
+      <c r="H75" s="333"/>
+      <c r="I75" s="333"/>
+      <c r="J75" s="333"/>
+      <c r="K75" s="333"/>
+      <c r="L75" s="333"/>
+      <c r="M75" s="333"/>
+      <c r="N75" s="333"/>
+      <c r="O75" s="333"/>
+      <c r="P75" s="333"/>
       <c r="Q75" s="144"/>
       <c r="R75" s="144"/>
       <c r="S75" s="144"/>
@@ -6290,54 +6298,54 @@
       <c r="AD76" s="86"/>
     </row>
     <row r="77" spans="1:31" ht="23.25" customHeight="1">
-      <c r="A77" s="394" t="s">
+      <c r="A77" s="397" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="394" t="s">
+      <c r="B77" s="397" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="394" t="s">
+      <c r="C77" s="397" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="357" t="s">
+      <c r="D77" s="368" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="353" t="s">
+      <c r="E77" s="364" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="404"/>
-      <c r="G77" s="354"/>
-      <c r="H77" s="353" t="s">
+      <c r="F77" s="402"/>
+      <c r="G77" s="365"/>
+      <c r="H77" s="364" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="354"/>
-      <c r="J77" s="353" t="s">
+      <c r="I77" s="365"/>
+      <c r="J77" s="364" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="354"/>
-      <c r="L77" s="353" t="s">
+      <c r="K77" s="365"/>
+      <c r="L77" s="364" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="354"/>
-      <c r="N77" s="353" t="s">
+      <c r="M77" s="365"/>
+      <c r="N77" s="364" t="s">
         <v>136</v>
       </c>
-      <c r="O77" s="354"/>
-      <c r="P77" s="429" t="s">
+      <c r="O77" s="365"/>
+      <c r="P77" s="432" t="s">
         <v>137</v>
       </c>
-      <c r="Q77" s="429" t="s">
+      <c r="Q77" s="432" t="s">
         <v>138</v>
       </c>
-      <c r="R77" s="429" t="s">
+      <c r="R77" s="432" t="s">
         <v>139</v>
       </c>
       <c r="S77" s="147"/>
       <c r="T77" s="148"/>
-      <c r="U77" s="425"/>
-      <c r="V77" s="425"/>
-      <c r="W77" s="425"/>
-      <c r="X77" s="425"/>
+      <c r="U77" s="428"/>
+      <c r="V77" s="428"/>
+      <c r="W77" s="428"/>
+      <c r="X77" s="428"/>
       <c r="Y77" s="96"/>
       <c r="Z77" s="96"/>
       <c r="AA77" s="96"/>
@@ -6346,30 +6354,30 @@
       <c r="AD77" s="149"/>
     </row>
     <row r="78" spans="1:31" ht="27" customHeight="1">
-      <c r="A78" s="395"/>
-      <c r="B78" s="395"/>
-      <c r="C78" s="395"/>
-      <c r="D78" s="358"/>
-      <c r="E78" s="355"/>
-      <c r="F78" s="405"/>
-      <c r="G78" s="356"/>
-      <c r="H78" s="355"/>
-      <c r="I78" s="356"/>
-      <c r="J78" s="355"/>
-      <c r="K78" s="356"/>
-      <c r="L78" s="355"/>
-      <c r="M78" s="356"/>
-      <c r="N78" s="355"/>
-      <c r="O78" s="356"/>
-      <c r="P78" s="430"/>
-      <c r="Q78" s="430"/>
-      <c r="R78" s="430"/>
+      <c r="A78" s="398"/>
+      <c r="B78" s="398"/>
+      <c r="C78" s="398"/>
+      <c r="D78" s="369"/>
+      <c r="E78" s="366"/>
+      <c r="F78" s="403"/>
+      <c r="G78" s="367"/>
+      <c r="H78" s="366"/>
+      <c r="I78" s="367"/>
+      <c r="J78" s="366"/>
+      <c r="K78" s="367"/>
+      <c r="L78" s="366"/>
+      <c r="M78" s="367"/>
+      <c r="N78" s="366"/>
+      <c r="O78" s="367"/>
+      <c r="P78" s="433"/>
+      <c r="Q78" s="433"/>
+      <c r="R78" s="433"/>
       <c r="S78" s="96"/>
       <c r="T78" s="148"/>
-      <c r="U78" s="426"/>
-      <c r="V78" s="426"/>
-      <c r="W78" s="426"/>
-      <c r="X78" s="426"/>
+      <c r="U78" s="429"/>
+      <c r="V78" s="429"/>
+      <c r="W78" s="429"/>
+      <c r="X78" s="429"/>
       <c r="Y78" s="86"/>
       <c r="Z78" s="86"/>
       <c r="AA78" s="86"/>
@@ -6378,56 +6386,56 @@
       <c r="AD78" s="149"/>
     </row>
     <row r="79" spans="1:31" ht="30" customHeight="1">
-      <c r="A79" s="395"/>
-      <c r="B79" s="395"/>
-      <c r="C79" s="395"/>
-      <c r="D79" s="358"/>
-      <c r="E79" s="397" t="s">
+      <c r="A79" s="398"/>
+      <c r="B79" s="398"/>
+      <c r="C79" s="398"/>
+      <c r="D79" s="369"/>
+      <c r="E79" s="400" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="397" t="s">
+      <c r="F79" s="400" t="s">
         <v>116</v>
       </c>
-      <c r="G79" s="397" t="s">
+      <c r="G79" s="400" t="s">
         <v>117</v>
       </c>
-      <c r="H79" s="397" t="s">
+      <c r="H79" s="400" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="397" t="s">
+      <c r="I79" s="400" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="397" t="s">
+      <c r="J79" s="400" t="s">
         <v>120</v>
       </c>
-      <c r="K79" s="397" t="s">
+      <c r="K79" s="400" t="s">
         <v>119</v>
       </c>
-      <c r="L79" s="397" t="s">
+      <c r="L79" s="400" t="s">
         <v>115</v>
       </c>
-      <c r="M79" s="397" t="s">
+      <c r="M79" s="400" t="s">
         <v>117</v>
       </c>
-      <c r="N79" s="397" t="s">
+      <c r="N79" s="400" t="s">
         <v>120</v>
       </c>
-      <c r="O79" s="397" t="s">
+      <c r="O79" s="400" t="s">
         <v>119</v>
       </c>
-      <c r="P79" s="430"/>
-      <c r="Q79" s="430"/>
-      <c r="R79" s="430"/>
+      <c r="P79" s="433"/>
+      <c r="Q79" s="433"/>
+      <c r="R79" s="433"/>
       <c r="S79" s="96"/>
       <c r="T79" s="148"/>
-      <c r="U79" s="434" t="s">
+      <c r="U79" s="437" t="s">
         <v>53</v>
       </c>
-      <c r="V79" s="432" t="s">
+      <c r="V79" s="435" t="s">
         <v>141</v>
       </c>
-      <c r="W79" s="432"/>
-      <c r="X79" s="432"/>
+      <c r="W79" s="435"/>
+      <c r="X79" s="435"/>
       <c r="Y79" s="150"/>
       <c r="Z79" s="150"/>
       <c r="AA79" s="150"/>
@@ -6436,27 +6444,27 @@
       <c r="AD79" s="149"/>
     </row>
     <row r="80" spans="1:31" ht="30" customHeight="1">
-      <c r="A80" s="396"/>
-      <c r="B80" s="396"/>
-      <c r="C80" s="396"/>
-      <c r="D80" s="359"/>
-      <c r="E80" s="398"/>
-      <c r="F80" s="398"/>
-      <c r="G80" s="398"/>
-      <c r="H80" s="398"/>
-      <c r="I80" s="398"/>
-      <c r="J80" s="398"/>
-      <c r="K80" s="398"/>
-      <c r="L80" s="398"/>
-      <c r="M80" s="398"/>
-      <c r="N80" s="398"/>
-      <c r="O80" s="398"/>
-      <c r="P80" s="431"/>
-      <c r="Q80" s="431"/>
-      <c r="R80" s="431"/>
+      <c r="A80" s="399"/>
+      <c r="B80" s="399"/>
+      <c r="C80" s="399"/>
+      <c r="D80" s="370"/>
+      <c r="E80" s="401"/>
+      <c r="F80" s="401"/>
+      <c r="G80" s="401"/>
+      <c r="H80" s="401"/>
+      <c r="I80" s="401"/>
+      <c r="J80" s="401"/>
+      <c r="K80" s="401"/>
+      <c r="L80" s="401"/>
+      <c r="M80" s="401"/>
+      <c r="N80" s="401"/>
+      <c r="O80" s="401"/>
+      <c r="P80" s="434"/>
+      <c r="Q80" s="434"/>
+      <c r="R80" s="434"/>
       <c r="S80" s="151"/>
       <c r="T80" s="148"/>
-      <c r="U80" s="435"/>
+      <c r="U80" s="438"/>
       <c r="V80" s="152" t="s">
         <v>142</v>
       </c>
@@ -6466,9 +6474,9 @@
       <c r="X80" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="Y80" s="424"/>
-      <c r="Z80" s="424"/>
-      <c r="AA80" s="424"/>
+      <c r="Y80" s="427"/>
+      <c r="Z80" s="427"/>
+      <c r="AA80" s="427"/>
       <c r="AB80" s="151"/>
       <c r="AC80" s="151"/>
       <c r="AD80" s="149"/>
@@ -6525,12 +6533,12 @@
       <c r="R81" s="155"/>
       <c r="S81" s="156"/>
       <c r="T81" s="157"/>
-      <c r="U81" s="339" t="s">
+      <c r="U81" s="358" t="s">
         <v>224</v>
       </c>
-      <c r="V81" s="340"/>
-      <c r="W81" s="340"/>
-      <c r="X81" s="341"/>
+      <c r="V81" s="359"/>
+      <c r="W81" s="359"/>
+      <c r="X81" s="360"/>
       <c r="Y81" s="158"/>
       <c r="Z81" s="158"/>
       <c r="AA81" s="158"/>
@@ -6543,23 +6551,23 @@
       <c r="A82" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="451"/>
-      <c r="C82" s="452"/>
-      <c r="D82" s="452"/>
-      <c r="E82" s="452"/>
-      <c r="F82" s="452"/>
-      <c r="G82" s="452"/>
-      <c r="H82" s="452"/>
-      <c r="I82" s="452"/>
-      <c r="J82" s="452"/>
-      <c r="K82" s="452"/>
-      <c r="L82" s="452"/>
-      <c r="M82" s="452"/>
-      <c r="N82" s="452"/>
-      <c r="O82" s="452"/>
-      <c r="P82" s="452"/>
-      <c r="Q82" s="452"/>
-      <c r="R82" s="453"/>
+      <c r="B82" s="454"/>
+      <c r="C82" s="455"/>
+      <c r="D82" s="455"/>
+      <c r="E82" s="455"/>
+      <c r="F82" s="455"/>
+      <c r="G82" s="455"/>
+      <c r="H82" s="455"/>
+      <c r="I82" s="455"/>
+      <c r="J82" s="455"/>
+      <c r="K82" s="455"/>
+      <c r="L82" s="455"/>
+      <c r="M82" s="455"/>
+      <c r="N82" s="455"/>
+      <c r="O82" s="455"/>
+      <c r="P82" s="455"/>
+      <c r="Q82" s="455"/>
+      <c r="R82" s="456"/>
       <c r="S82" s="160"/>
       <c r="T82" s="161"/>
       <c r="U82" s="162"/>
@@ -6702,12 +6710,12 @@
       <c r="R86" s="175"/>
       <c r="S86" s="96"/>
       <c r="T86" s="148"/>
-      <c r="U86" s="342" t="s">
+      <c r="U86" s="361" t="s">
         <v>225</v>
       </c>
-      <c r="V86" s="343"/>
-      <c r="W86" s="343"/>
-      <c r="X86" s="344"/>
+      <c r="V86" s="362"/>
+      <c r="W86" s="362"/>
+      <c r="X86" s="363"/>
       <c r="Y86" s="180"/>
       <c r="Z86" s="180"/>
       <c r="AA86" s="181"/>
@@ -6720,28 +6728,28 @@
       <c r="A87" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="454"/>
-      <c r="C87" s="455"/>
-      <c r="D87" s="455"/>
-      <c r="E87" s="455"/>
-      <c r="F87" s="455"/>
-      <c r="G87" s="455"/>
-      <c r="H87" s="455"/>
-      <c r="I87" s="455"/>
-      <c r="J87" s="455"/>
-      <c r="K87" s="455"/>
-      <c r="L87" s="455"/>
-      <c r="M87" s="455"/>
-      <c r="N87" s="455"/>
-      <c r="O87" s="455"/>
-      <c r="P87" s="455"/>
-      <c r="Q87" s="455"/>
-      <c r="R87" s="456"/>
+      <c r="B87" s="457"/>
+      <c r="C87" s="458"/>
+      <c r="D87" s="458"/>
+      <c r="E87" s="458"/>
+      <c r="F87" s="458"/>
+      <c r="G87" s="458"/>
+      <c r="H87" s="458"/>
+      <c r="I87" s="458"/>
+      <c r="J87" s="458"/>
+      <c r="K87" s="458"/>
+      <c r="L87" s="458"/>
+      <c r="M87" s="458"/>
+      <c r="N87" s="458"/>
+      <c r="O87" s="458"/>
+      <c r="P87" s="458"/>
+      <c r="Q87" s="458"/>
+      <c r="R87" s="459"/>
       <c r="S87" s="151"/>
       <c r="T87" s="148"/>
       <c r="U87" s="162"/>
       <c r="V87" s="163"/>
-      <c r="W87" s="223"/>
+      <c r="W87" s="222"/>
       <c r="X87" s="179"/>
       <c r="Y87" s="185"/>
       <c r="Z87" s="185"/>
@@ -6776,7 +6784,7 @@
       <c r="T88" s="157"/>
       <c r="U88" s="124"/>
       <c r="V88" s="178"/>
-      <c r="W88" s="224"/>
+      <c r="W88" s="223"/>
       <c r="X88" s="179"/>
       <c r="Y88" s="185"/>
       <c r="Z88" s="185"/>
@@ -6811,7 +6819,7 @@
       <c r="T89" s="161"/>
       <c r="U89" s="124"/>
       <c r="V89" s="178"/>
-      <c r="W89" s="224"/>
+      <c r="W89" s="223"/>
       <c r="X89" s="179"/>
       <c r="Y89" s="185"/>
       <c r="Z89" s="185"/>
@@ -6846,7 +6854,7 @@
       <c r="T90" s="161"/>
       <c r="U90" s="125"/>
       <c r="V90" s="183"/>
-      <c r="W90" s="225"/>
+      <c r="W90" s="224"/>
       <c r="X90" s="179"/>
       <c r="Y90" s="185"/>
       <c r="Z90" s="185"/>
@@ -6934,13 +6942,13 @@
       <c r="G93" s="86"/>
       <c r="H93" s="86"/>
       <c r="I93" s="86"/>
-      <c r="J93" s="232"/>
-      <c r="K93" s="232"/>
-      <c r="L93" s="337"/>
-      <c r="M93" s="337"/>
-      <c r="N93" s="337"/>
-      <c r="O93" s="337"/>
-      <c r="P93" s="337"/>
+      <c r="J93" s="231"/>
+      <c r="K93" s="231"/>
+      <c r="L93" s="357"/>
+      <c r="M93" s="357"/>
+      <c r="N93" s="357"/>
+      <c r="O93" s="357"/>
+      <c r="P93" s="357"/>
       <c r="Q93" s="128"/>
       <c r="R93" s="128"/>
       <c r="S93" s="156"/>
@@ -6958,40 +6966,40 @@
       <c r="AE93" s="188"/>
     </row>
     <row r="94" spans="1:31" ht="30" customHeight="1">
-      <c r="A94" s="382" t="s">
+      <c r="A94" s="349" t="s">
         <v>230</v>
       </c>
-      <c r="B94" s="382"/>
-      <c r="C94" s="382" t="s">
+      <c r="B94" s="349"/>
+      <c r="C94" s="349" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="382"/>
-      <c r="E94" s="382"/>
-      <c r="F94" s="382"/>
-      <c r="G94" s="338" t="s">
+      <c r="D94" s="349"/>
+      <c r="E94" s="349"/>
+      <c r="F94" s="349"/>
+      <c r="G94" s="350" t="s">
         <v>127</v>
       </c>
-      <c r="H94" s="338"/>
-      <c r="I94" s="338"/>
-      <c r="J94" s="338"/>
-      <c r="K94" s="338"/>
-      <c r="L94" s="329"/>
-      <c r="M94" s="329"/>
-      <c r="N94" s="329"/>
-      <c r="O94" s="329"/>
-      <c r="P94" s="329"/>
+      <c r="H94" s="350"/>
+      <c r="I94" s="350"/>
+      <c r="J94" s="350"/>
+      <c r="K94" s="350"/>
+      <c r="L94" s="344"/>
+      <c r="M94" s="344"/>
+      <c r="N94" s="344"/>
+      <c r="O94" s="344"/>
+      <c r="P94" s="344"/>
       <c r="Q94" s="191"/>
       <c r="R94" s="191"/>
       <c r="S94" s="160"/>
       <c r="T94" s="161"/>
-      <c r="U94" s="402" t="s">
+      <c r="U94" s="407" t="s">
         <v>53</v>
       </c>
-      <c r="V94" s="399" t="s">
+      <c r="V94" s="404" t="s">
         <v>145</v>
       </c>
-      <c r="W94" s="400"/>
-      <c r="X94" s="401"/>
+      <c r="W94" s="405"/>
+      <c r="X94" s="406"/>
       <c r="Y94" s="89"/>
       <c r="Z94" s="89"/>
       <c r="AA94" s="89"/>
@@ -7012,16 +7020,16 @@
       <c r="I95" s="130"/>
       <c r="J95" s="85"/>
       <c r="K95" s="85"/>
-      <c r="L95" s="338"/>
-      <c r="M95" s="338"/>
-      <c r="N95" s="338"/>
-      <c r="O95" s="338"/>
-      <c r="P95" s="338"/>
+      <c r="L95" s="350"/>
+      <c r="M95" s="350"/>
+      <c r="N95" s="350"/>
+      <c r="O95" s="350"/>
+      <c r="P95" s="350"/>
       <c r="Q95" s="191"/>
       <c r="R95" s="191"/>
       <c r="S95" s="160"/>
       <c r="T95" s="161"/>
-      <c r="U95" s="403"/>
+      <c r="U95" s="408"/>
       <c r="V95" s="133" t="s">
         <v>146</v>
       </c>
@@ -7061,9 +7069,9 @@
       <c r="S96" s="182"/>
       <c r="T96" s="161"/>
       <c r="U96" s="192"/>
-      <c r="V96" s="226"/>
-      <c r="W96" s="227"/>
-      <c r="X96" s="228"/>
+      <c r="V96" s="225"/>
+      <c r="W96" s="226"/>
+      <c r="X96" s="227"/>
       <c r="Y96" s="129"/>
       <c r="Z96" s="129"/>
       <c r="AA96" s="129"/>
@@ -7090,9 +7098,9 @@
       <c r="S97" s="160"/>
       <c r="T97" s="161"/>
       <c r="U97" s="193"/>
-      <c r="V97" s="227"/>
-      <c r="W97" s="227"/>
-      <c r="X97" s="229"/>
+      <c r="V97" s="226"/>
+      <c r="W97" s="226"/>
+      <c r="X97" s="228"/>
       <c r="Y97" s="129"/>
       <c r="Z97" s="129"/>
       <c r="AA97" s="129"/>
@@ -7119,9 +7127,9 @@
       <c r="S98" s="86"/>
       <c r="T98" s="86"/>
       <c r="U98" s="193"/>
-      <c r="V98" s="227"/>
-      <c r="W98" s="227"/>
-      <c r="X98" s="229"/>
+      <c r="V98" s="226"/>
+      <c r="W98" s="226"/>
+      <c r="X98" s="228"/>
       <c r="Y98" s="86"/>
       <c r="Z98" s="86"/>
       <c r="AA98" s="86"/>
@@ -7148,30 +7156,30 @@
       <c r="S99" s="86"/>
       <c r="T99" s="86"/>
       <c r="U99" s="194"/>
-      <c r="V99" s="230"/>
-      <c r="W99" s="230"/>
-      <c r="X99" s="231"/>
+      <c r="V99" s="229"/>
+      <c r="W99" s="229"/>
+      <c r="X99" s="230"/>
       <c r="Y99" s="86"/>
       <c r="Z99" s="86"/>
       <c r="AA99" s="86"/>
     </row>
     <row r="100" spans="1:34" ht="30" customHeight="1">
-      <c r="A100" s="86"/>
-      <c r="B100" s="86"/>
-      <c r="C100" s="86"/>
-      <c r="D100" s="86"/>
-      <c r="E100" s="86"/>
-      <c r="F100" s="94"/>
-      <c r="G100" s="132"/>
-      <c r="H100" s="132"/>
-      <c r="I100" s="132"/>
-      <c r="J100" s="132"/>
-      <c r="K100" s="132"/>
-      <c r="L100" s="334"/>
-      <c r="M100" s="334"/>
-      <c r="N100" s="334"/>
-      <c r="O100" s="334"/>
-      <c r="P100" s="334"/>
+      <c r="A100" s="267"/>
+      <c r="B100" s="267"/>
+      <c r="C100" s="267"/>
+      <c r="D100" s="267"/>
+      <c r="E100" s="267"/>
+      <c r="F100" s="267"/>
+      <c r="G100" s="269"/>
+      <c r="H100" s="269"/>
+      <c r="I100" s="269"/>
+      <c r="J100" s="269"/>
+      <c r="K100" s="269"/>
+      <c r="L100" s="265"/>
+      <c r="M100" s="265"/>
+      <c r="N100" s="265"/>
+      <c r="O100" s="265"/>
+      <c r="P100" s="265"/>
       <c r="Q100" s="132"/>
       <c r="R100" s="132"/>
       <c r="S100" s="86"/>
@@ -7291,13 +7299,13 @@
       <c r="G104" s="132"/>
       <c r="H104" s="132"/>
       <c r="I104" s="132"/>
-      <c r="J104" s="334"/>
-      <c r="K104" s="334"/>
-      <c r="L104" s="334"/>
-      <c r="M104" s="334"/>
-      <c r="N104" s="334"/>
-      <c r="O104" s="334"/>
-      <c r="P104" s="334"/>
+      <c r="J104" s="265"/>
+      <c r="K104" s="265"/>
+      <c r="L104" s="265"/>
+      <c r="M104" s="265"/>
+      <c r="N104" s="265"/>
+      <c r="O104" s="265"/>
+      <c r="P104" s="265"/>
       <c r="Q104" s="132"/>
       <c r="R104" s="132"/>
       <c r="S104" s="86"/>
@@ -7307,13 +7315,13 @@
       <c r="W104" s="132"/>
       <c r="X104" s="132"/>
       <c r="Y104" s="132"/>
-      <c r="Z104" s="334"/>
-      <c r="AA104" s="334"/>
-      <c r="AB104" s="334"/>
-      <c r="AC104" s="334"/>
-      <c r="AD104" s="334"/>
-      <c r="AE104" s="334"/>
-      <c r="AF104" s="334"/>
+      <c r="Z104" s="265"/>
+      <c r="AA104" s="265"/>
+      <c r="AB104" s="265"/>
+      <c r="AC104" s="265"/>
+      <c r="AD104" s="265"/>
+      <c r="AE104" s="265"/>
+      <c r="AF104" s="265"/>
       <c r="AG104" s="132"/>
       <c r="AH104" s="132"/>
     </row>
@@ -7403,13 +7411,13 @@
       <c r="G108" s="132"/>
       <c r="H108" s="132"/>
       <c r="I108" s="132"/>
-      <c r="J108" s="334"/>
-      <c r="K108" s="334"/>
-      <c r="L108" s="334"/>
-      <c r="M108" s="334"/>
-      <c r="N108" s="334"/>
-      <c r="O108" s="334"/>
-      <c r="P108" s="334"/>
+      <c r="J108" s="265"/>
+      <c r="K108" s="265"/>
+      <c r="L108" s="265"/>
+      <c r="M108" s="265"/>
+      <c r="N108" s="265"/>
+      <c r="O108" s="265"/>
+      <c r="P108" s="265"/>
       <c r="Q108" s="132"/>
       <c r="R108" s="132"/>
       <c r="S108" s="86"/>
@@ -7419,13 +7427,13 @@
       <c r="W108" s="132"/>
       <c r="X108" s="132"/>
       <c r="Y108" s="132"/>
-      <c r="Z108" s="334"/>
-      <c r="AA108" s="334"/>
-      <c r="AB108" s="334"/>
-      <c r="AC108" s="334"/>
-      <c r="AD108" s="334"/>
-      <c r="AE108" s="334"/>
-      <c r="AF108" s="334"/>
+      <c r="Z108" s="265"/>
+      <c r="AA108" s="265"/>
+      <c r="AB108" s="265"/>
+      <c r="AC108" s="265"/>
+      <c r="AD108" s="265"/>
+      <c r="AE108" s="265"/>
+      <c r="AF108" s="265"/>
       <c r="AG108" s="132"/>
       <c r="AH108" s="132"/>
     </row>
@@ -7475,13 +7483,13 @@
       <c r="G110" s="132"/>
       <c r="H110" s="132"/>
       <c r="I110" s="132"/>
-      <c r="J110" s="334"/>
-      <c r="K110" s="334"/>
-      <c r="L110" s="334"/>
-      <c r="M110" s="334"/>
-      <c r="N110" s="334"/>
-      <c r="O110" s="334"/>
-      <c r="P110" s="334"/>
+      <c r="J110" s="265"/>
+      <c r="K110" s="265"/>
+      <c r="L110" s="265"/>
+      <c r="M110" s="265"/>
+      <c r="N110" s="265"/>
+      <c r="O110" s="265"/>
+      <c r="P110" s="265"/>
       <c r="Q110" s="132"/>
       <c r="R110" s="132"/>
       <c r="S110" s="86"/>
@@ -7524,26 +7532,26 @@
       <c r="AH111" s="86"/>
     </row>
     <row r="112" spans="1:34" ht="30" customHeight="1">
-      <c r="A112" s="335" t="s">
+      <c r="A112" s="355" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="335"/>
-      <c r="C112" s="335"/>
-      <c r="D112" s="335"/>
+      <c r="B112" s="355"/>
+      <c r="C112" s="355"/>
+      <c r="D112" s="355"/>
       <c r="E112" s="87"/>
       <c r="F112" s="88"/>
       <c r="G112" s="88"/>
       <c r="H112" s="88"/>
       <c r="I112" s="87"/>
-      <c r="J112" s="336" t="s">
+      <c r="J112" s="356" t="s">
         <v>104</v>
       </c>
-      <c r="K112" s="336"/>
-      <c r="L112" s="336"/>
-      <c r="M112" s="336"/>
-      <c r="N112" s="336"/>
-      <c r="O112" s="336"/>
-      <c r="P112" s="336"/>
+      <c r="K112" s="356"/>
+      <c r="L112" s="356"/>
+      <c r="M112" s="356"/>
+      <c r="N112" s="356"/>
+      <c r="O112" s="356"/>
+      <c r="P112" s="356"/>
       <c r="Q112" s="87"/>
       <c r="R112" s="87"/>
       <c r="S112" s="87"/>
@@ -7564,26 +7572,26 @@
       <c r="AH112" s="86"/>
     </row>
     <row r="113" spans="1:34" ht="30" customHeight="1">
-      <c r="A113" s="384" t="s">
+      <c r="A113" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="384"/>
-      <c r="C113" s="384"/>
-      <c r="D113" s="384"/>
+      <c r="B113" s="332"/>
+      <c r="C113" s="332"/>
+      <c r="D113" s="332"/>
       <c r="E113" s="87"/>
       <c r="F113" s="90"/>
       <c r="G113" s="90"/>
       <c r="H113" s="90"/>
       <c r="I113" s="87"/>
-      <c r="J113" s="385" t="s">
+      <c r="J113" s="394" t="s">
         <v>106</v>
       </c>
-      <c r="K113" s="385"/>
-      <c r="L113" s="385"/>
-      <c r="M113" s="385"/>
-      <c r="N113" s="385"/>
-      <c r="O113" s="385"/>
-      <c r="P113" s="385"/>
+      <c r="K113" s="394"/>
+      <c r="L113" s="394"/>
+      <c r="M113" s="394"/>
+      <c r="N113" s="394"/>
+      <c r="O113" s="394"/>
+      <c r="P113" s="394"/>
       <c r="Q113" s="88"/>
       <c r="R113" s="88"/>
       <c r="S113" s="88"/>
@@ -7640,24 +7648,24 @@
       <c r="AH114" s="86"/>
     </row>
     <row r="115" spans="1:34" ht="30" customHeight="1">
-      <c r="A115" s="386" t="s">
+      <c r="A115" s="395" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="386"/>
-      <c r="C115" s="386"/>
-      <c r="D115" s="386"/>
-      <c r="E115" s="386"/>
-      <c r="F115" s="386"/>
-      <c r="G115" s="386"/>
-      <c r="H115" s="386"/>
-      <c r="I115" s="386"/>
-      <c r="J115" s="386"/>
-      <c r="K115" s="386"/>
-      <c r="L115" s="386"/>
-      <c r="M115" s="386"/>
-      <c r="N115" s="386"/>
-      <c r="O115" s="386"/>
-      <c r="P115" s="386"/>
+      <c r="B115" s="395"/>
+      <c r="C115" s="395"/>
+      <c r="D115" s="395"/>
+      <c r="E115" s="395"/>
+      <c r="F115" s="395"/>
+      <c r="G115" s="395"/>
+      <c r="H115" s="395"/>
+      <c r="I115" s="395"/>
+      <c r="J115" s="395"/>
+      <c r="K115" s="395"/>
+      <c r="L115" s="395"/>
+      <c r="M115" s="395"/>
+      <c r="N115" s="395"/>
+      <c r="O115" s="395"/>
+      <c r="P115" s="395"/>
       <c r="Q115" s="97"/>
       <c r="R115" s="97"/>
       <c r="S115" s="97"/>
@@ -7678,22 +7686,22 @@
       <c r="AH115" s="86"/>
     </row>
     <row r="116" spans="1:34" ht="30" customHeight="1">
-      <c r="A116" s="387"/>
-      <c r="B116" s="387"/>
-      <c r="C116" s="387"/>
-      <c r="D116" s="387"/>
-      <c r="E116" s="387"/>
-      <c r="F116" s="387"/>
-      <c r="G116" s="387"/>
-      <c r="H116" s="387"/>
-      <c r="I116" s="387"/>
-      <c r="J116" s="387"/>
-      <c r="K116" s="387"/>
-      <c r="L116" s="387"/>
-      <c r="M116" s="387"/>
-      <c r="N116" s="387"/>
-      <c r="O116" s="387"/>
-      <c r="P116" s="387"/>
+      <c r="A116" s="396"/>
+      <c r="B116" s="396"/>
+      <c r="C116" s="396"/>
+      <c r="D116" s="396"/>
+      <c r="E116" s="396"/>
+      <c r="F116" s="396"/>
+      <c r="G116" s="396"/>
+      <c r="H116" s="396"/>
+      <c r="I116" s="396"/>
+      <c r="J116" s="396"/>
+      <c r="K116" s="396"/>
+      <c r="L116" s="396"/>
+      <c r="M116" s="396"/>
+      <c r="N116" s="396"/>
+      <c r="O116" s="396"/>
+      <c r="P116" s="396"/>
       <c r="Q116" s="99"/>
       <c r="R116" s="99"/>
       <c r="S116" s="99"/>
@@ -7703,13 +7711,13 @@
       <c r="W116" s="132"/>
       <c r="X116" s="132"/>
       <c r="Y116" s="132"/>
-      <c r="Z116" s="334"/>
-      <c r="AA116" s="334"/>
-      <c r="AB116" s="334"/>
-      <c r="AC116" s="334"/>
-      <c r="AD116" s="334"/>
-      <c r="AE116" s="334"/>
-      <c r="AF116" s="334"/>
+      <c r="Z116" s="265"/>
+      <c r="AA116" s="265"/>
+      <c r="AB116" s="265"/>
+      <c r="AC116" s="265"/>
+      <c r="AD116" s="265"/>
+      <c r="AE116" s="265"/>
+      <c r="AF116" s="265"/>
       <c r="AG116" s="132"/>
       <c r="AH116" s="132"/>
     </row>
@@ -7750,56 +7758,56 @@
       <c r="AH117" s="86"/>
     </row>
     <row r="118" spans="1:34" ht="30" customHeight="1">
-      <c r="A118" s="394" t="s">
+      <c r="A118" s="397" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="347" t="s">
+      <c r="B118" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="C118" s="348"/>
-      <c r="D118" s="353" t="s">
+      <c r="C118" s="327"/>
+      <c r="D118" s="364" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="354"/>
-      <c r="F118" s="353" t="s">
+      <c r="E118" s="365"/>
+      <c r="F118" s="364" t="s">
         <v>110</v>
       </c>
-      <c r="G118" s="404"/>
-      <c r="H118" s="354"/>
-      <c r="I118" s="353" t="s">
+      <c r="G118" s="402"/>
+      <c r="H118" s="365"/>
+      <c r="I118" s="364" t="s">
         <v>149</v>
       </c>
-      <c r="J118" s="404"/>
-      <c r="K118" s="404"/>
-      <c r="L118" s="354"/>
-      <c r="M118" s="406" t="s">
+      <c r="J118" s="402"/>
+      <c r="K118" s="402"/>
+      <c r="L118" s="365"/>
+      <c r="M118" s="409" t="s">
         <v>150</v>
       </c>
-      <c r="N118" s="407"/>
-      <c r="O118" s="407"/>
-      <c r="P118" s="408"/>
+      <c r="N118" s="410"/>
+      <c r="O118" s="410"/>
+      <c r="P118" s="411"/>
       <c r="Q118" s="197"/>
       <c r="R118" s="197"/>
       <c r="S118" s="197"/>
       <c r="T118" s="197"/>
     </row>
     <row r="119" spans="1:34" ht="30" customHeight="1">
-      <c r="A119" s="395"/>
-      <c r="B119" s="349"/>
-      <c r="C119" s="350"/>
-      <c r="D119" s="421"/>
-      <c r="E119" s="423"/>
-      <c r="F119" s="421"/>
-      <c r="G119" s="422"/>
-      <c r="H119" s="423"/>
-      <c r="I119" s="355"/>
-      <c r="J119" s="405"/>
-      <c r="K119" s="405"/>
-      <c r="L119" s="356"/>
-      <c r="M119" s="409"/>
-      <c r="N119" s="410"/>
-      <c r="O119" s="410"/>
-      <c r="P119" s="411"/>
+      <c r="A119" s="398"/>
+      <c r="B119" s="328"/>
+      <c r="C119" s="329"/>
+      <c r="D119" s="424"/>
+      <c r="E119" s="426"/>
+      <c r="F119" s="424"/>
+      <c r="G119" s="425"/>
+      <c r="H119" s="426"/>
+      <c r="I119" s="366"/>
+      <c r="J119" s="403"/>
+      <c r="K119" s="403"/>
+      <c r="L119" s="367"/>
+      <c r="M119" s="412"/>
+      <c r="N119" s="413"/>
+      <c r="O119" s="413"/>
+      <c r="P119" s="414"/>
       <c r="Q119" s="197"/>
       <c r="R119" s="197"/>
       <c r="S119" s="197"/>
@@ -7820,26 +7828,26 @@
       <c r="AH119" s="86"/>
     </row>
     <row r="120" spans="1:34" ht="30" customHeight="1">
-      <c r="A120" s="396"/>
-      <c r="B120" s="351"/>
-      <c r="C120" s="352"/>
-      <c r="D120" s="355"/>
-      <c r="E120" s="356"/>
-      <c r="F120" s="355"/>
-      <c r="G120" s="405"/>
-      <c r="H120" s="356"/>
-      <c r="I120" s="375" t="s">
+      <c r="A120" s="399"/>
+      <c r="B120" s="330"/>
+      <c r="C120" s="331"/>
+      <c r="D120" s="366"/>
+      <c r="E120" s="367"/>
+      <c r="F120" s="366"/>
+      <c r="G120" s="403"/>
+      <c r="H120" s="367"/>
+      <c r="I120" s="386" t="s">
         <v>151</v>
       </c>
-      <c r="J120" s="376"/>
-      <c r="K120" s="375" t="s">
+      <c r="J120" s="387"/>
+      <c r="K120" s="386" t="s">
         <v>152</v>
       </c>
-      <c r="L120" s="376"/>
-      <c r="M120" s="412"/>
-      <c r="N120" s="413"/>
-      <c r="O120" s="413"/>
-      <c r="P120" s="414"/>
+      <c r="L120" s="387"/>
+      <c r="M120" s="415"/>
+      <c r="N120" s="416"/>
+      <c r="O120" s="416"/>
+      <c r="P120" s="417"/>
       <c r="Q120" s="197"/>
       <c r="R120" s="197"/>
       <c r="S120" s="197"/>
@@ -7849,13 +7857,13 @@
       <c r="W120" s="132"/>
       <c r="X120" s="132"/>
       <c r="Y120" s="132"/>
-      <c r="Z120" s="334"/>
-      <c r="AA120" s="334"/>
-      <c r="AB120" s="334"/>
-      <c r="AC120" s="334"/>
-      <c r="AD120" s="334"/>
-      <c r="AE120" s="334"/>
-      <c r="AF120" s="334"/>
+      <c r="Z120" s="265"/>
+      <c r="AA120" s="265"/>
+      <c r="AB120" s="265"/>
+      <c r="AC120" s="265"/>
+      <c r="AD120" s="265"/>
+      <c r="AE120" s="265"/>
+      <c r="AF120" s="265"/>
       <c r="AG120" s="132"/>
       <c r="AH120" s="132"/>
     </row>
@@ -7863,33 +7871,33 @@
       <c r="A121" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B121" s="330" t="s">
+      <c r="B121" s="345" t="s">
         <v>191</v>
       </c>
-      <c r="C121" s="331"/>
-      <c r="D121" s="419" t="s">
+      <c r="C121" s="346"/>
+      <c r="D121" s="422" t="s">
         <v>192</v>
       </c>
-      <c r="E121" s="420"/>
-      <c r="F121" s="378" t="s">
+      <c r="E121" s="423"/>
+      <c r="F121" s="389" t="s">
         <v>193</v>
       </c>
-      <c r="G121" s="383"/>
-      <c r="H121" s="379"/>
-      <c r="I121" s="417" t="s">
+      <c r="G121" s="393"/>
+      <c r="H121" s="390"/>
+      <c r="I121" s="420" t="s">
         <v>194</v>
       </c>
-      <c r="J121" s="418"/>
-      <c r="K121" s="415" t="s">
+      <c r="J121" s="421"/>
+      <c r="K121" s="418" t="s">
         <v>208</v>
       </c>
-      <c r="L121" s="416"/>
-      <c r="M121" s="378" t="s">
+      <c r="L121" s="419"/>
+      <c r="M121" s="389" t="s">
         <v>209</v>
       </c>
-      <c r="N121" s="383"/>
-      <c r="O121" s="383"/>
-      <c r="P121" s="379"/>
+      <c r="N121" s="393"/>
+      <c r="O121" s="393"/>
+      <c r="P121" s="390"/>
       <c r="Q121" s="199"/>
       <c r="R121" s="199"/>
       <c r="S121" s="199"/>
@@ -7913,21 +7921,21 @@
       <c r="A122" s="114">
         <v>1</v>
       </c>
-      <c r="B122" s="332"/>
-      <c r="C122" s="333"/>
-      <c r="D122" s="332"/>
-      <c r="E122" s="333"/>
-      <c r="F122" s="388"/>
-      <c r="G122" s="389"/>
-      <c r="H122" s="390"/>
-      <c r="I122" s="345"/>
-      <c r="J122" s="346"/>
-      <c r="K122" s="345"/>
-      <c r="L122" s="346"/>
-      <c r="M122" s="391"/>
-      <c r="N122" s="392"/>
-      <c r="O122" s="392"/>
-      <c r="P122" s="393"/>
+      <c r="B122" s="347"/>
+      <c r="C122" s="348"/>
+      <c r="D122" s="347"/>
+      <c r="E122" s="348"/>
+      <c r="F122" s="351"/>
+      <c r="G122" s="352"/>
+      <c r="H122" s="353"/>
+      <c r="I122" s="321"/>
+      <c r="J122" s="322"/>
+      <c r="K122" s="321"/>
+      <c r="L122" s="322"/>
+      <c r="M122" s="323"/>
+      <c r="N122" s="324"/>
+      <c r="O122" s="324"/>
+      <c r="P122" s="325"/>
       <c r="Q122" s="201"/>
       <c r="R122" s="201"/>
       <c r="S122" s="201"/>
@@ -7937,21 +7945,21 @@
       <c r="A123" s="114">
         <v>2</v>
       </c>
-      <c r="B123" s="332"/>
-      <c r="C123" s="333"/>
-      <c r="D123" s="332"/>
-      <c r="E123" s="333"/>
-      <c r="F123" s="388"/>
-      <c r="G123" s="389"/>
-      <c r="H123" s="390"/>
-      <c r="I123" s="345"/>
-      <c r="J123" s="346"/>
-      <c r="K123" s="345"/>
-      <c r="L123" s="346"/>
-      <c r="M123" s="391"/>
-      <c r="N123" s="392"/>
-      <c r="O123" s="392"/>
-      <c r="P123" s="393"/>
+      <c r="B123" s="347"/>
+      <c r="C123" s="348"/>
+      <c r="D123" s="347"/>
+      <c r="E123" s="348"/>
+      <c r="F123" s="351"/>
+      <c r="G123" s="352"/>
+      <c r="H123" s="353"/>
+      <c r="I123" s="321"/>
+      <c r="J123" s="322"/>
+      <c r="K123" s="321"/>
+      <c r="L123" s="322"/>
+      <c r="M123" s="323"/>
+      <c r="N123" s="324"/>
+      <c r="O123" s="324"/>
+      <c r="P123" s="325"/>
       <c r="Q123" s="201"/>
       <c r="R123" s="201"/>
       <c r="S123" s="201"/>
@@ -7975,21 +7983,21 @@
       <c r="A124" s="114">
         <v>3</v>
       </c>
-      <c r="B124" s="332"/>
-      <c r="C124" s="333"/>
-      <c r="D124" s="332"/>
-      <c r="E124" s="333"/>
-      <c r="F124" s="388"/>
-      <c r="G124" s="389"/>
-      <c r="H124" s="390"/>
-      <c r="I124" s="345"/>
-      <c r="J124" s="346"/>
-      <c r="K124" s="345"/>
-      <c r="L124" s="346"/>
-      <c r="M124" s="391"/>
-      <c r="N124" s="392"/>
-      <c r="O124" s="392"/>
-      <c r="P124" s="393"/>
+      <c r="B124" s="347"/>
+      <c r="C124" s="348"/>
+      <c r="D124" s="347"/>
+      <c r="E124" s="348"/>
+      <c r="F124" s="351"/>
+      <c r="G124" s="352"/>
+      <c r="H124" s="353"/>
+      <c r="I124" s="321"/>
+      <c r="J124" s="322"/>
+      <c r="K124" s="321"/>
+      <c r="L124" s="322"/>
+      <c r="M124" s="323"/>
+      <c r="N124" s="324"/>
+      <c r="O124" s="324"/>
+      <c r="P124" s="325"/>
       <c r="Q124" s="201"/>
       <c r="R124" s="201"/>
       <c r="S124" s="201"/>
@@ -8003,21 +8011,21 @@
       <c r="A125" s="114">
         <v>4</v>
       </c>
-      <c r="B125" s="332"/>
-      <c r="C125" s="333"/>
-      <c r="D125" s="332"/>
-      <c r="E125" s="333"/>
-      <c r="F125" s="388"/>
-      <c r="G125" s="389"/>
-      <c r="H125" s="390"/>
-      <c r="I125" s="345"/>
-      <c r="J125" s="346"/>
-      <c r="K125" s="345"/>
-      <c r="L125" s="346"/>
-      <c r="M125" s="391"/>
-      <c r="N125" s="392"/>
-      <c r="O125" s="392"/>
-      <c r="P125" s="393"/>
+      <c r="B125" s="347"/>
+      <c r="C125" s="348"/>
+      <c r="D125" s="347"/>
+      <c r="E125" s="348"/>
+      <c r="F125" s="351"/>
+      <c r="G125" s="352"/>
+      <c r="H125" s="353"/>
+      <c r="I125" s="321"/>
+      <c r="J125" s="322"/>
+      <c r="K125" s="321"/>
+      <c r="L125" s="322"/>
+      <c r="M125" s="323"/>
+      <c r="N125" s="324"/>
+      <c r="O125" s="324"/>
+      <c r="P125" s="325"/>
       <c r="Q125" s="201"/>
       <c r="R125" s="201"/>
       <c r="S125" s="201"/>
@@ -8128,13 +8136,13 @@
       <c r="G129" s="86"/>
       <c r="H129" s="86"/>
       <c r="I129" s="86"/>
-      <c r="J129" s="329"/>
-      <c r="K129" s="329"/>
-      <c r="L129" s="329"/>
-      <c r="M129" s="329"/>
-      <c r="N129" s="329"/>
-      <c r="O129" s="329"/>
-      <c r="P129" s="329"/>
+      <c r="J129" s="344"/>
+      <c r="K129" s="344"/>
+      <c r="L129" s="344"/>
+      <c r="M129" s="344"/>
+      <c r="N129" s="344"/>
+      <c r="O129" s="344"/>
+      <c r="P129" s="344"/>
       <c r="Q129" s="128"/>
       <c r="R129" s="128"/>
       <c r="S129" s="128"/>
@@ -8148,28 +8156,28 @@
       <c r="AA129" s="129"/>
     </row>
     <row r="130" spans="1:27" ht="30" customHeight="1">
-      <c r="A130" s="267" t="s">
+      <c r="A130" s="334" t="s">
         <v>125</v>
       </c>
-      <c r="B130" s="267"/>
-      <c r="C130" s="382" t="s">
+      <c r="B130" s="334"/>
+      <c r="C130" s="349" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="382"/>
-      <c r="E130" s="382"/>
-      <c r="F130" s="382"/>
-      <c r="G130" s="338" t="s">
+      <c r="D130" s="349"/>
+      <c r="E130" s="349"/>
+      <c r="F130" s="349"/>
+      <c r="G130" s="350" t="s">
         <v>127</v>
       </c>
-      <c r="H130" s="338"/>
-      <c r="I130" s="338"/>
-      <c r="J130" s="338"/>
-      <c r="K130" s="338"/>
-      <c r="L130" s="338"/>
-      <c r="M130" s="338"/>
-      <c r="N130" s="338"/>
-      <c r="O130" s="338"/>
-      <c r="P130" s="338"/>
+      <c r="H130" s="350"/>
+      <c r="I130" s="350"/>
+      <c r="J130" s="350"/>
+      <c r="K130" s="350"/>
+      <c r="L130" s="350"/>
+      <c r="M130" s="350"/>
+      <c r="N130" s="350"/>
+      <c r="O130" s="350"/>
+      <c r="P130" s="350"/>
       <c r="Q130" s="130"/>
       <c r="R130" s="130"/>
       <c r="S130" s="130"/>
@@ -8192,13 +8200,13 @@
       <c r="G131" s="130"/>
       <c r="H131" s="130"/>
       <c r="I131" s="130"/>
-      <c r="J131" s="338"/>
-      <c r="K131" s="338"/>
-      <c r="L131" s="338"/>
-      <c r="M131" s="338"/>
-      <c r="N131" s="338"/>
-      <c r="O131" s="338"/>
-      <c r="P131" s="338"/>
+      <c r="J131" s="350"/>
+      <c r="K131" s="350"/>
+      <c r="L131" s="350"/>
+      <c r="M131" s="350"/>
+      <c r="N131" s="350"/>
+      <c r="O131" s="350"/>
+      <c r="P131" s="350"/>
       <c r="Q131" s="130"/>
       <c r="R131" s="130"/>
       <c r="S131" s="130"/>
@@ -8328,22 +8336,22 @@
       <c r="AA135" s="86"/>
     </row>
     <row r="136" spans="1:27" ht="30" customHeight="1">
-      <c r="A136" s="86"/>
-      <c r="B136" s="86"/>
-      <c r="C136" s="86"/>
-      <c r="D136" s="86"/>
-      <c r="E136" s="86"/>
-      <c r="F136" s="94"/>
-      <c r="G136" s="132"/>
-      <c r="H136" s="132"/>
-      <c r="I136" s="132"/>
-      <c r="J136" s="334"/>
-      <c r="K136" s="334"/>
-      <c r="L136" s="334"/>
-      <c r="M136" s="334"/>
-      <c r="N136" s="334"/>
-      <c r="O136" s="334"/>
-      <c r="P136" s="334"/>
+      <c r="A136" s="268"/>
+      <c r="B136" s="268"/>
+      <c r="C136" s="268"/>
+      <c r="D136" s="268"/>
+      <c r="E136" s="268"/>
+      <c r="F136" s="268"/>
+      <c r="G136" s="265"/>
+      <c r="H136" s="265"/>
+      <c r="I136" s="265"/>
+      <c r="J136" s="265"/>
+      <c r="K136" s="265"/>
+      <c r="L136" s="265"/>
+      <c r="M136" s="265"/>
+      <c r="N136" s="265"/>
+      <c r="O136" s="265"/>
+      <c r="P136" s="265"/>
       <c r="Q136" s="132"/>
       <c r="R136" s="132"/>
       <c r="S136" s="132"/>
@@ -8473,24 +8481,24 @@
       <c r="AA140" s="96"/>
     </row>
     <row r="150" spans="1:27" ht="30" customHeight="1">
-      <c r="A150" s="335" t="s">
+      <c r="A150" s="355" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="335"/>
-      <c r="C150" s="335"/>
-      <c r="D150" s="335"/>
+      <c r="B150" s="355"/>
+      <c r="C150" s="355"/>
+      <c r="D150" s="355"/>
       <c r="E150" s="87"/>
       <c r="F150" s="88"/>
       <c r="G150" s="88"/>
       <c r="H150" s="88"/>
       <c r="I150" s="87"/>
-      <c r="J150" s="336" t="s">
+      <c r="J150" s="356" t="s">
         <v>104</v>
       </c>
-      <c r="K150" s="336"/>
-      <c r="L150" s="336"/>
-      <c r="M150" s="336"/>
-      <c r="N150" s="336"/>
+      <c r="K150" s="356"/>
+      <c r="L150" s="356"/>
+      <c r="M150" s="356"/>
+      <c r="N150" s="356"/>
       <c r="O150" s="87"/>
       <c r="P150" s="87"/>
       <c r="Q150" s="87"/>
@@ -8505,24 +8513,24 @@
       <c r="Z150" s="89"/>
     </row>
     <row r="151" spans="1:27" ht="30" customHeight="1">
-      <c r="A151" s="384" t="s">
+      <c r="A151" s="332" t="s">
         <v>105</v>
       </c>
-      <c r="B151" s="384"/>
-      <c r="C151" s="384"/>
-      <c r="D151" s="384"/>
+      <c r="B151" s="332"/>
+      <c r="C151" s="332"/>
+      <c r="D151" s="332"/>
       <c r="E151" s="87"/>
       <c r="F151" s="90"/>
       <c r="G151" s="90"/>
       <c r="H151" s="90"/>
       <c r="I151" s="87"/>
-      <c r="J151" s="385" t="s">
+      <c r="J151" s="394" t="s">
         <v>106</v>
       </c>
-      <c r="K151" s="385"/>
-      <c r="L151" s="385"/>
-      <c r="M151" s="385"/>
-      <c r="N151" s="385"/>
+      <c r="K151" s="394"/>
+      <c r="L151" s="394"/>
+      <c r="M151" s="394"/>
+      <c r="N151" s="394"/>
       <c r="O151" s="88"/>
       <c r="P151" s="88"/>
       <c r="Q151" s="88"/>
@@ -8565,24 +8573,24 @@
       <c r="Z152" s="86"/>
     </row>
     <row r="153" spans="1:27" ht="30" customHeight="1">
-      <c r="A153" s="386" t="s">
+      <c r="A153" s="395" t="s">
         <v>210</v>
       </c>
-      <c r="B153" s="386"/>
-      <c r="C153" s="386"/>
-      <c r="D153" s="386"/>
-      <c r="E153" s="386"/>
-      <c r="F153" s="386"/>
-      <c r="G153" s="386"/>
-      <c r="H153" s="386"/>
-      <c r="I153" s="386"/>
-      <c r="J153" s="386"/>
-      <c r="K153" s="386"/>
-      <c r="L153" s="386"/>
-      <c r="M153" s="386"/>
-      <c r="N153" s="386"/>
-      <c r="O153" s="386"/>
-      <c r="P153" s="386"/>
+      <c r="B153" s="395"/>
+      <c r="C153" s="395"/>
+      <c r="D153" s="395"/>
+      <c r="E153" s="395"/>
+      <c r="F153" s="395"/>
+      <c r="G153" s="395"/>
+      <c r="H153" s="395"/>
+      <c r="I153" s="395"/>
+      <c r="J153" s="395"/>
+      <c r="K153" s="395"/>
+      <c r="L153" s="395"/>
+      <c r="M153" s="395"/>
+      <c r="N153" s="395"/>
+      <c r="O153" s="395"/>
+      <c r="P153" s="395"/>
       <c r="Q153" s="97"/>
       <c r="R153" s="97"/>
       <c r="S153" s="97"/>
@@ -8595,22 +8603,22 @@
       <c r="Z153" s="86"/>
     </row>
     <row r="154" spans="1:27" ht="30" customHeight="1">
-      <c r="A154" s="387"/>
-      <c r="B154" s="387"/>
-      <c r="C154" s="387"/>
-      <c r="D154" s="387"/>
-      <c r="E154" s="387"/>
-      <c r="F154" s="387"/>
-      <c r="G154" s="387"/>
-      <c r="H154" s="387"/>
-      <c r="I154" s="387"/>
-      <c r="J154" s="387"/>
-      <c r="K154" s="387"/>
-      <c r="L154" s="387"/>
-      <c r="M154" s="387"/>
-      <c r="N154" s="387"/>
-      <c r="O154" s="387"/>
-      <c r="P154" s="387"/>
+      <c r="A154" s="396"/>
+      <c r="B154" s="396"/>
+      <c r="C154" s="396"/>
+      <c r="D154" s="396"/>
+      <c r="E154" s="396"/>
+      <c r="F154" s="396"/>
+      <c r="G154" s="396"/>
+      <c r="H154" s="396"/>
+      <c r="I154" s="396"/>
+      <c r="J154" s="396"/>
+      <c r="K154" s="396"/>
+      <c r="L154" s="396"/>
+      <c r="M154" s="396"/>
+      <c r="N154" s="396"/>
+      <c r="O154" s="396"/>
+      <c r="P154" s="396"/>
       <c r="Q154" s="99"/>
       <c r="R154" s="99"/>
       <c r="S154" s="99"/>
@@ -8651,37 +8659,37 @@
       <c r="Z155" s="86"/>
     </row>
     <row r="156" spans="1:27" ht="30" customHeight="1">
-      <c r="A156" s="394" t="s">
+      <c r="A156" s="397" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="347" t="s">
+      <c r="B156" s="326" t="s">
         <v>108</v>
       </c>
-      <c r="C156" s="348"/>
-      <c r="D156" s="357" t="s">
+      <c r="C156" s="327"/>
+      <c r="D156" s="368" t="s">
         <v>109</v>
       </c>
-      <c r="E156" s="353" t="s">
+      <c r="E156" s="364" t="s">
         <v>110</v>
       </c>
-      <c r="F156" s="354"/>
-      <c r="G156" s="357" t="s">
+      <c r="F156" s="365"/>
+      <c r="G156" s="368" t="s">
         <v>211</v>
       </c>
-      <c r="H156" s="357" t="s">
+      <c r="H156" s="368" t="s">
         <v>212</v>
       </c>
-      <c r="I156" s="360" t="s">
+      <c r="I156" s="371" t="s">
         <v>229</v>
       </c>
-      <c r="J156" s="361"/>
-      <c r="K156" s="361"/>
-      <c r="L156" s="362"/>
-      <c r="M156" s="366" t="s">
+      <c r="J156" s="372"/>
+      <c r="K156" s="372"/>
+      <c r="L156" s="373"/>
+      <c r="M156" s="377" t="s">
         <v>213</v>
       </c>
-      <c r="N156" s="367"/>
-      <c r="O156" s="368"/>
+      <c r="N156" s="378"/>
+      <c r="O156" s="379"/>
       <c r="P156" s="107"/>
       <c r="Q156" s="211"/>
       <c r="R156" s="211"/>
@@ -8695,21 +8703,21 @@
       <c r="Z156" s="212"/>
     </row>
     <row r="157" spans="1:27" ht="30" customHeight="1">
-      <c r="A157" s="395"/>
-      <c r="B157" s="349"/>
-      <c r="C157" s="350"/>
-      <c r="D157" s="358"/>
-      <c r="E157" s="355"/>
-      <c r="F157" s="356"/>
-      <c r="G157" s="358"/>
-      <c r="H157" s="358"/>
-      <c r="I157" s="363"/>
-      <c r="J157" s="364"/>
-      <c r="K157" s="364"/>
-      <c r="L157" s="365"/>
-      <c r="M157" s="369"/>
-      <c r="N157" s="370"/>
-      <c r="O157" s="371"/>
+      <c r="A157" s="398"/>
+      <c r="B157" s="328"/>
+      <c r="C157" s="329"/>
+      <c r="D157" s="369"/>
+      <c r="E157" s="366"/>
+      <c r="F157" s="367"/>
+      <c r="G157" s="369"/>
+      <c r="H157" s="369"/>
+      <c r="I157" s="374"/>
+      <c r="J157" s="375"/>
+      <c r="K157" s="375"/>
+      <c r="L157" s="376"/>
+      <c r="M157" s="380"/>
+      <c r="N157" s="381"/>
+      <c r="O157" s="382"/>
       <c r="P157" s="107"/>
       <c r="Q157" s="211"/>
       <c r="R157" s="211"/>
@@ -8723,29 +8731,29 @@
       <c r="Z157" s="212"/>
     </row>
     <row r="158" spans="1:27" ht="30" customHeight="1">
-      <c r="A158" s="396"/>
-      <c r="B158" s="351"/>
-      <c r="C158" s="352"/>
-      <c r="D158" s="359"/>
+      <c r="A158" s="399"/>
+      <c r="B158" s="330"/>
+      <c r="C158" s="331"/>
+      <c r="D158" s="370"/>
       <c r="E158" s="105" t="s">
         <v>214</v>
       </c>
       <c r="F158" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="G158" s="359"/>
-      <c r="H158" s="359"/>
-      <c r="I158" s="375" t="s">
+      <c r="G158" s="370"/>
+      <c r="H158" s="370"/>
+      <c r="I158" s="386" t="s">
         <v>216</v>
       </c>
-      <c r="J158" s="376"/>
-      <c r="K158" s="375" t="s">
+      <c r="J158" s="387"/>
+      <c r="K158" s="386" t="s">
         <v>217</v>
       </c>
-      <c r="L158" s="376"/>
-      <c r="M158" s="372"/>
-      <c r="N158" s="373"/>
-      <c r="O158" s="374"/>
+      <c r="L158" s="387"/>
+      <c r="M158" s="383"/>
+      <c r="N158" s="384"/>
+      <c r="O158" s="385"/>
       <c r="P158" s="107"/>
       <c r="Q158" s="211"/>
       <c r="R158" s="211"/>
@@ -8763,10 +8771,10 @@
       <c r="A159" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B159" s="330" t="s">
+      <c r="B159" s="345" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="331"/>
+      <c r="C159" s="346"/>
       <c r="D159" s="155" t="s">
         <v>192</v>
       </c>
@@ -8782,19 +8790,19 @@
       <c r="H159" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="I159" s="378" t="s">
+      <c r="I159" s="389" t="s">
         <v>220</v>
       </c>
-      <c r="J159" s="379"/>
-      <c r="K159" s="378" t="s">
+      <c r="J159" s="390"/>
+      <c r="K159" s="389" t="s">
         <v>221</v>
       </c>
-      <c r="L159" s="379"/>
-      <c r="M159" s="378" t="s">
+      <c r="L159" s="390"/>
+      <c r="M159" s="389" t="s">
         <v>222</v>
       </c>
-      <c r="N159" s="383"/>
-      <c r="O159" s="379"/>
+      <c r="N159" s="393"/>
+      <c r="O159" s="390"/>
       <c r="P159" s="156"/>
       <c r="Q159" s="111"/>
       <c r="R159" s="111"/>
@@ -8812,22 +8820,22 @@
       <c r="A160" s="114">
         <v>1</v>
       </c>
-      <c r="B160" s="332"/>
-      <c r="C160" s="333"/>
+      <c r="B160" s="347"/>
+      <c r="C160" s="348"/>
       <c r="D160" s="116"/>
       <c r="E160" s="117"/>
       <c r="F160" s="215"/>
       <c r="G160" s="215"/>
       <c r="H160" s="117"/>
-      <c r="I160" s="380"/>
-      <c r="J160" s="381"/>
-      <c r="K160" s="345"/>
-      <c r="L160" s="346"/>
-      <c r="M160" s="345" t="s">
+      <c r="I160" s="391"/>
+      <c r="J160" s="392"/>
+      <c r="K160" s="321"/>
+      <c r="L160" s="322"/>
+      <c r="M160" s="321" t="s">
         <v>199</v>
       </c>
-      <c r="N160" s="377"/>
-      <c r="O160" s="346"/>
+      <c r="N160" s="388"/>
+      <c r="O160" s="322"/>
       <c r="P160" s="202"/>
       <c r="Q160" s="211"/>
       <c r="R160" s="216"/>
@@ -8845,22 +8853,22 @@
       <c r="A161" s="114">
         <v>2</v>
       </c>
-      <c r="B161" s="332"/>
-      <c r="C161" s="333"/>
+      <c r="B161" s="347"/>
+      <c r="C161" s="348"/>
       <c r="D161" s="116"/>
       <c r="E161" s="117"/>
       <c r="F161" s="215"/>
       <c r="G161" s="215"/>
       <c r="H161" s="117"/>
-      <c r="I161" s="380"/>
-      <c r="J161" s="381"/>
-      <c r="K161" s="345"/>
-      <c r="L161" s="346"/>
-      <c r="M161" s="345" t="s">
+      <c r="I161" s="391"/>
+      <c r="J161" s="392"/>
+      <c r="K161" s="321"/>
+      <c r="L161" s="322"/>
+      <c r="M161" s="321" t="s">
         <v>199</v>
       </c>
-      <c r="N161" s="377"/>
-      <c r="O161" s="346"/>
+      <c r="N161" s="388"/>
+      <c r="O161" s="322"/>
       <c r="P161" s="202"/>
       <c r="Q161" s="211"/>
       <c r="R161" s="216"/>
@@ -8878,22 +8886,22 @@
       <c r="A162" s="114">
         <v>3</v>
       </c>
-      <c r="B162" s="332"/>
-      <c r="C162" s="333"/>
+      <c r="B162" s="347"/>
+      <c r="C162" s="348"/>
       <c r="D162" s="116"/>
       <c r="E162" s="117"/>
       <c r="F162" s="215"/>
       <c r="G162" s="215"/>
       <c r="H162" s="117"/>
-      <c r="I162" s="380"/>
-      <c r="J162" s="381"/>
-      <c r="K162" s="345"/>
-      <c r="L162" s="346"/>
-      <c r="M162" s="345" t="s">
+      <c r="I162" s="391"/>
+      <c r="J162" s="392"/>
+      <c r="K162" s="321"/>
+      <c r="L162" s="322"/>
+      <c r="M162" s="321" t="s">
         <v>199</v>
       </c>
-      <c r="N162" s="377"/>
-      <c r="O162" s="346"/>
+      <c r="N162" s="388"/>
+      <c r="O162" s="322"/>
       <c r="P162" s="202"/>
       <c r="Q162" s="211"/>
       <c r="R162" s="216"/>
@@ -8911,22 +8919,22 @@
       <c r="A163" s="114">
         <v>4</v>
       </c>
-      <c r="B163" s="332"/>
-      <c r="C163" s="333"/>
+      <c r="B163" s="347"/>
+      <c r="C163" s="348"/>
       <c r="D163" s="116"/>
       <c r="E163" s="117"/>
       <c r="F163" s="215"/>
       <c r="G163" s="215"/>
       <c r="H163" s="117"/>
-      <c r="I163" s="380"/>
-      <c r="J163" s="381"/>
-      <c r="K163" s="345"/>
-      <c r="L163" s="346"/>
-      <c r="M163" s="345" t="s">
+      <c r="I163" s="391"/>
+      <c r="J163" s="392"/>
+      <c r="K163" s="321"/>
+      <c r="L163" s="322"/>
+      <c r="M163" s="321" t="s">
         <v>199</v>
       </c>
-      <c r="N163" s="377"/>
-      <c r="O163" s="346"/>
+      <c r="N163" s="388"/>
+      <c r="O163" s="322"/>
       <c r="P163" s="202"/>
       <c r="Q163" s="211"/>
       <c r="R163" s="216"/>
@@ -8979,13 +8987,13 @@
       <c r="G165" s="86"/>
       <c r="H165" s="86"/>
       <c r="I165" s="86"/>
-      <c r="J165" s="329"/>
-      <c r="K165" s="329"/>
-      <c r="L165" s="329"/>
-      <c r="M165" s="329"/>
-      <c r="N165" s="329"/>
-      <c r="O165" s="329"/>
-      <c r="P165" s="222"/>
+      <c r="J165" s="344"/>
+      <c r="K165" s="344"/>
+      <c r="L165" s="344"/>
+      <c r="M165" s="344"/>
+      <c r="N165" s="344"/>
+      <c r="O165" s="344"/>
+      <c r="P165" s="344"/>
       <c r="Q165" s="128"/>
       <c r="R165" s="216"/>
       <c r="S165" s="216"/>
@@ -8999,28 +9007,28 @@
       <c r="AA165" s="129"/>
     </row>
     <row r="166" spans="1:27" ht="30" customHeight="1">
-      <c r="A166" s="267" t="s">
+      <c r="A166" s="334" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="267"/>
-      <c r="C166" s="382" t="s">
+      <c r="B166" s="334"/>
+      <c r="C166" s="349" t="s">
         <v>126</v>
       </c>
-      <c r="D166" s="382"/>
-      <c r="E166" s="382"/>
-      <c r="F166" s="382"/>
-      <c r="G166" s="338" t="s">
+      <c r="D166" s="349"/>
+      <c r="E166" s="349"/>
+      <c r="F166" s="349"/>
+      <c r="G166" s="350" t="s">
         <v>127</v>
       </c>
-      <c r="H166" s="338"/>
-      <c r="I166" s="338"/>
-      <c r="J166" s="338"/>
-      <c r="K166" s="338"/>
-      <c r="L166" s="338"/>
-      <c r="M166" s="338"/>
-      <c r="N166" s="338"/>
-      <c r="O166" s="338"/>
-      <c r="P166" s="338"/>
+      <c r="H166" s="350"/>
+      <c r="I166" s="350"/>
+      <c r="J166" s="350"/>
+      <c r="K166" s="350"/>
+      <c r="L166" s="350"/>
+      <c r="M166" s="350"/>
+      <c r="N166" s="350"/>
+      <c r="O166" s="350"/>
+      <c r="P166" s="350"/>
       <c r="Q166" s="130"/>
       <c r="R166" s="130"/>
       <c r="S166" s="130"/>
@@ -9043,13 +9051,13 @@
       <c r="G167" s="130"/>
       <c r="H167" s="130"/>
       <c r="I167" s="130"/>
-      <c r="J167" s="338"/>
-      <c r="K167" s="338"/>
-      <c r="L167" s="338"/>
-      <c r="M167" s="338"/>
-      <c r="N167" s="338"/>
-      <c r="O167" s="338"/>
-      <c r="P167" s="338"/>
+      <c r="J167" s="350"/>
+      <c r="K167" s="350"/>
+      <c r="L167" s="350"/>
+      <c r="M167" s="350"/>
+      <c r="N167" s="350"/>
+      <c r="O167" s="350"/>
+      <c r="P167" s="350"/>
       <c r="Q167" s="130"/>
       <c r="R167" s="130"/>
       <c r="S167" s="130"/>
@@ -9179,22 +9187,22 @@
       <c r="AA171" s="86"/>
     </row>
     <row r="172" spans="1:27" ht="30" customHeight="1">
-      <c r="A172" s="86"/>
-      <c r="B172" s="86"/>
-      <c r="C172" s="86"/>
-      <c r="D172" s="86"/>
-      <c r="E172" s="86"/>
-      <c r="F172" s="94"/>
-      <c r="G172" s="132"/>
-      <c r="H172" s="132"/>
-      <c r="I172" s="132"/>
-      <c r="J172" s="334"/>
-      <c r="K172" s="334"/>
-      <c r="L172" s="334"/>
-      <c r="M172" s="334"/>
-      <c r="N172" s="334"/>
-      <c r="O172" s="334"/>
-      <c r="P172" s="334"/>
+      <c r="A172" s="267"/>
+      <c r="B172" s="267"/>
+      <c r="C172" s="266"/>
+      <c r="D172" s="266"/>
+      <c r="E172" s="266"/>
+      <c r="F172" s="266"/>
+      <c r="G172" s="265"/>
+      <c r="H172" s="265"/>
+      <c r="I172" s="265"/>
+      <c r="J172" s="265"/>
+      <c r="K172" s="265"/>
+      <c r="L172" s="265"/>
+      <c r="M172" s="265"/>
+      <c r="N172" s="265"/>
+      <c r="O172" s="265"/>
+      <c r="P172" s="265"/>
       <c r="Q172" s="132"/>
       <c r="R172" s="132"/>
       <c r="S172" s="132"/>
@@ -9786,13 +9794,13 @@
       <c r="G193" s="130"/>
       <c r="H193" s="130"/>
       <c r="I193" s="130"/>
-      <c r="J193" s="338"/>
-      <c r="K193" s="338"/>
-      <c r="L193" s="338"/>
-      <c r="M193" s="338"/>
-      <c r="N193" s="338"/>
-      <c r="O193" s="338"/>
-      <c r="P193" s="338"/>
+      <c r="J193" s="350"/>
+      <c r="K193" s="350"/>
+      <c r="L193" s="350"/>
+      <c r="M193" s="350"/>
+      <c r="N193" s="350"/>
+      <c r="O193" s="350"/>
+      <c r="P193" s="350"/>
       <c r="Q193" s="130"/>
       <c r="R193" s="130"/>
       <c r="S193" s="130"/>
@@ -9931,13 +9939,13 @@
       <c r="G198" s="132"/>
       <c r="H198" s="132"/>
       <c r="I198" s="132"/>
-      <c r="J198" s="334"/>
-      <c r="K198" s="334"/>
-      <c r="L198" s="334"/>
-      <c r="M198" s="334"/>
-      <c r="N198" s="334"/>
-      <c r="O198" s="334"/>
-      <c r="P198" s="334"/>
+      <c r="J198" s="265"/>
+      <c r="K198" s="265"/>
+      <c r="L198" s="265"/>
+      <c r="M198" s="265"/>
+      <c r="N198" s="265"/>
+      <c r="O198" s="265"/>
+      <c r="P198" s="265"/>
       <c r="Q198" s="132"/>
       <c r="R198" s="132"/>
       <c r="S198" s="132"/>
@@ -10009,12 +10017,8 @@
       <c r="AA200" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="270">
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="B82:R82"/>
-    <mergeCell ref="B87:R87"/>
-    <mergeCell ref="Y15:Z15"/>
+  <mergeCells count="282">
+    <mergeCell ref="J165:P165"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
@@ -10027,13 +10031,13 @@
     <mergeCell ref="J31:P31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="J32:P32"/>
-    <mergeCell ref="O40:P40"/>
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="W8:X8"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="W13:X13"/>
     <mergeCell ref="S14:T14"/>
+    <mergeCell ref="J54:P54"/>
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="I37:L38"/>
@@ -10051,10 +10055,10 @@
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="M40:N40"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="U45:Y45"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="O40:P40"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="C48:F48"/>
@@ -10064,11 +10068,6 @@
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K42:L42"/>
-    <mergeCell ref="J54:P54"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
     <mergeCell ref="Y80:AA80"/>
     <mergeCell ref="U77:X78"/>
     <mergeCell ref="J49:P49"/>
@@ -10089,6 +10088,10 @@
     <mergeCell ref="P77:P80"/>
     <mergeCell ref="M44:N44"/>
     <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="O44:P44"/>
     <mergeCell ref="H77:I78"/>
     <mergeCell ref="J77:K78"/>
     <mergeCell ref="H79:H80"/>
@@ -10099,18 +10102,9 @@
     <mergeCell ref="A115:P115"/>
     <mergeCell ref="J108:P108"/>
     <mergeCell ref="K79:K80"/>
-    <mergeCell ref="V94:X94"/>
-    <mergeCell ref="U94:U95"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="M122:P122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="M121:P121"/>
-    <mergeCell ref="I118:L119"/>
-    <mergeCell ref="M118:P120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="B82:R82"/>
+    <mergeCell ref="B87:R87"/>
     <mergeCell ref="J104:P104"/>
     <mergeCell ref="J110:P110"/>
     <mergeCell ref="M123:P123"/>
@@ -10123,6 +10117,19 @@
     <mergeCell ref="D121:E121"/>
     <mergeCell ref="J113:P113"/>
     <mergeCell ref="F118:H120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="M122:P122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="M121:P121"/>
+    <mergeCell ref="I118:L119"/>
+    <mergeCell ref="M118:P120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="I121:J121"/>
     <mergeCell ref="J198:P198"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A77:A80"/>
@@ -10147,10 +10154,6 @@
     <mergeCell ref="A116:P116"/>
     <mergeCell ref="I120:J120"/>
     <mergeCell ref="K120:L120"/>
-    <mergeCell ref="J166:P166"/>
-    <mergeCell ref="M159:O159"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="G156:G158"/>
     <mergeCell ref="J136:P136"/>
     <mergeCell ref="M162:O162"/>
     <mergeCell ref="J131:P131"/>
@@ -10160,6 +10163,7 @@
     <mergeCell ref="J151:N151"/>
     <mergeCell ref="A153:P153"/>
     <mergeCell ref="A154:P154"/>
+    <mergeCell ref="B162:C162"/>
     <mergeCell ref="J193:P193"/>
     <mergeCell ref="B156:C158"/>
     <mergeCell ref="E156:F157"/>
@@ -10172,7 +10176,6 @@
     <mergeCell ref="K162:L162"/>
     <mergeCell ref="K163:L163"/>
     <mergeCell ref="M161:O161"/>
-    <mergeCell ref="J165:O165"/>
     <mergeCell ref="M163:O163"/>
     <mergeCell ref="K159:L159"/>
     <mergeCell ref="I160:J160"/>
@@ -10184,7 +10187,6 @@
     <mergeCell ref="C166:F166"/>
     <mergeCell ref="G166:I166"/>
     <mergeCell ref="I159:J159"/>
-    <mergeCell ref="B162:C162"/>
     <mergeCell ref="Z120:AF120"/>
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="S8:T8"/>
@@ -10204,28 +10206,11 @@
     <mergeCell ref="Z116:AF116"/>
     <mergeCell ref="U81:X81"/>
     <mergeCell ref="U86:X86"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="J129:P129"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="J130:P130"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="S11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="V94:X94"/>
+    <mergeCell ref="U94:U95"/>
     <mergeCell ref="M125:P125"/>
     <mergeCell ref="K125:L125"/>
     <mergeCell ref="I125:J125"/>
@@ -10236,7 +10221,20 @@
     <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="V51:X52"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="G12:M12"/>
     <mergeCell ref="G13:M13"/>
@@ -10256,8 +10254,11 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="R2:Z2"/>
     <mergeCell ref="R4:Z4"/>
     <mergeCell ref="Y5:Z5"/>
@@ -10274,12 +10275,31 @@
     <mergeCell ref="W5:X5"/>
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="S11:Z11"/>
-    <mergeCell ref="U14:V14"/>
     <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="V51:X52"/>
-    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="J129:P129"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="J130:P130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="J166:P166"/>
+    <mergeCell ref="M159:O159"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="G156:G158"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -10314,65 +10334,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="502" t="s">
+      <c r="A1" s="505" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="502"/>
-      <c r="C1" s="502"/>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="511" t="s">
+      <c r="A2" s="514" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="511"/>
-      <c r="C2" s="511"/>
-      <c r="D2" s="511"/>
-      <c r="E2" s="511"/>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
+      <c r="B2" s="514"/>
+      <c r="C2" s="514"/>
+      <c r="D2" s="514"/>
+      <c r="E2" s="514"/>
+      <c r="F2" s="514"/>
+      <c r="G2" s="514"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="508" t="s">
+      <c r="A4" s="511" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="508"/>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="508"/>
+      <c r="B4" s="511"/>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
+      <c r="F4" s="511"/>
+      <c r="G4" s="511"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="509" t="s">
+      <c r="A5" s="512" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="509" t="s">
+      <c r="B5" s="512" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="510" t="s">
+      <c r="C5" s="513" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="510"/>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="509"/>
-      <c r="B6" s="509"/>
+      <c r="A6" s="512"/>
+      <c r="B6" s="512"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -10390,8 +10410,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="509"/>
-      <c r="B7" s="509"/>
+      <c r="A7" s="512"/>
+      <c r="B7" s="512"/>
       <c r="C7" s="19" t="s">
         <v>40</v>
       </c>
@@ -10447,72 +10467,72 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="45"/>
-      <c r="C1" s="502" t="s">
+      <c r="C1" s="505" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="46"/>
-      <c r="C2" s="511" t="s">
+      <c r="C2" s="514" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="511"/>
-      <c r="E2" s="511"/>
-      <c r="F2" s="511"/>
-      <c r="G2" s="511"/>
+      <c r="D2" s="514"/>
+      <c r="E2" s="514"/>
+      <c r="F2" s="514"/>
+      <c r="G2" s="514"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="46"/>
-      <c r="C3" s="511" t="s">
+      <c r="C3" s="514" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="511"/>
-      <c r="E3" s="511"/>
-      <c r="F3" s="511"/>
-      <c r="G3" s="511"/>
+      <c r="D3" s="514"/>
+      <c r="E3" s="514"/>
+      <c r="F3" s="514"/>
+      <c r="G3" s="514"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="47"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="504"/>
-      <c r="F4" s="504"/>
-      <c r="G4" s="504"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="507"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="48"/>
-      <c r="C5" s="508" t="s">
+      <c r="C5" s="511" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="508"/>
-      <c r="E5" s="508"/>
-      <c r="F5" s="508"/>
-      <c r="G5" s="508"/>
+      <c r="D5" s="511"/>
+      <c r="E5" s="511"/>
+      <c r="F5" s="511"/>
+      <c r="G5" s="511"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="509" t="s">
+      <c r="A6" s="512" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="509" t="s">
+      <c r="B6" s="512" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="510" t="s">
+      <c r="C6" s="513" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="510"/>
-      <c r="E6" s="510"/>
-      <c r="F6" s="510"/>
-      <c r="G6" s="510"/>
+      <c r="D6" s="513"/>
+      <c r="E6" s="513"/>
+      <c r="F6" s="513"/>
+      <c r="G6" s="513"/>
       <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="509"/>
-      <c r="B7" s="509"/>
+      <c r="A7" s="512"/>
+      <c r="B7" s="512"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -10530,8 +10550,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="509"/>
-      <c r="B8" s="509"/>
+      <c r="A8" s="512"/>
+      <c r="B8" s="512"/>
       <c r="C8" s="49" t="s">
         <v>40</v>
       </c>
@@ -10731,10 +10751,10 @@
         <v>96</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="492" t="s">
+      <c r="N2" s="495" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="492"/>
+      <c r="O2" s="495"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>97</v>
@@ -11083,13 +11103,13 @@
       <c r="Q1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="262" t="s">
+      <c r="R1" s="261" t="s">
         <v>227</v>
       </c>
-      <c r="S1" s="262" t="s">
+      <c r="S1" s="261" t="s">
         <v>228</v>
       </c>
-      <c r="T1" s="265"/>
+      <c r="T1" s="264"/>
     </row>
     <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="23"/>
@@ -11131,73 +11151,73 @@
       <c r="Q2" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="263"/>
-      <c r="S2" s="263"/>
-      <c r="T2" s="264"/>
+      <c r="R2" s="262"/>
+      <c r="S2" s="262"/>
+      <c r="T2" s="263"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="512" t="s">
+      <c r="A3" s="515" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="512" t="s">
+      <c r="B3" s="515" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="512" t="s">
+      <c r="C3" s="515" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="512" t="s">
+      <c r="D3" s="515" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="512" t="s">
+      <c r="E3" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="512" t="s">
+      <c r="F3" s="515" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="512"/>
-      <c r="H3" s="512"/>
-      <c r="I3" s="512"/>
-      <c r="J3" s="520" t="s">
+      <c r="G3" s="515"/>
+      <c r="H3" s="515"/>
+      <c r="I3" s="515"/>
+      <c r="J3" s="523" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="512"/>
-      <c r="L3" s="512"/>
-      <c r="M3" s="512" t="s">
+      <c r="K3" s="515"/>
+      <c r="L3" s="515"/>
+      <c r="M3" s="515" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="512"/>
-      <c r="O3" s="512"/>
-      <c r="P3" s="512" t="s">
+      <c r="N3" s="515"/>
+      <c r="O3" s="515"/>
+      <c r="P3" s="515" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="512" t="s">
+      <c r="Q3" s="515" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="514"/>
-      <c r="S3" s="516"/>
-      <c r="T3" s="518"/>
+      <c r="R3" s="517"/>
+      <c r="S3" s="519"/>
+      <c r="T3" s="521"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="513"/>
-      <c r="B4" s="513"/>
-      <c r="C4" s="513"/>
-      <c r="D4" s="513"/>
-      <c r="E4" s="513"/>
-      <c r="F4" s="513"/>
-      <c r="G4" s="513"/>
-      <c r="H4" s="513"/>
-      <c r="I4" s="513"/>
-      <c r="J4" s="521"/>
-      <c r="K4" s="513"/>
-      <c r="L4" s="513"/>
-      <c r="M4" s="513"/>
-      <c r="N4" s="513"/>
-      <c r="O4" s="513"/>
-      <c r="P4" s="513"/>
-      <c r="Q4" s="513"/>
-      <c r="R4" s="515"/>
-      <c r="S4" s="517"/>
-      <c r="T4" s="519"/>
+      <c r="A4" s="516"/>
+      <c r="B4" s="516"/>
+      <c r="C4" s="516"/>
+      <c r="D4" s="516"/>
+      <c r="E4" s="516"/>
+      <c r="F4" s="516"/>
+      <c r="G4" s="516"/>
+      <c r="H4" s="516"/>
+      <c r="I4" s="516"/>
+      <c r="J4" s="524"/>
+      <c r="K4" s="516"/>
+      <c r="L4" s="516"/>
+      <c r="M4" s="516"/>
+      <c r="N4" s="516"/>
+      <c r="O4" s="516"/>
+      <c r="P4" s="516"/>
+      <c r="Q4" s="516"/>
+      <c r="R4" s="518"/>
+      <c r="S4" s="520"/>
+      <c r="T4" s="522"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
       <c r="A5" s="28"/>
@@ -41147,36 +41167,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="458" t="s">
+      <c r="A1" s="461" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
+      <c r="B1" s="461"/>
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
+      <c r="F1" s="461"/>
+      <c r="G1" s="461"/>
+      <c r="H1" s="461"/>
+      <c r="I1" s="461"/>
+      <c r="J1" s="461"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="461"/>
     </row>
     <row r="2" spans="1:32" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="459"/>
-      <c r="B2" s="459"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="459"/>
-      <c r="E2" s="459"/>
-      <c r="F2" s="459"/>
-      <c r="G2" s="459"/>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="459"/>
-      <c r="K2" s="459"/>
-      <c r="L2" s="459"/>
-      <c r="M2" s="459"/>
+      <c r="A2" s="462"/>
+      <c r="B2" s="462"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="462"/>
+      <c r="E2" s="462"/>
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="462"/>
+      <c r="J2" s="462"/>
+      <c r="K2" s="462"/>
+      <c r="L2" s="462"/>
+      <c r="M2" s="462"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41184,192 +41204,192 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="463" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="460" t="s">
+      <c r="B4" s="463" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="460" t="s">
+      <c r="C4" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="460" t="s">
+      <c r="D4" s="463" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="460"/>
-      <c r="F4" s="460"/>
-      <c r="G4" s="460"/>
-      <c r="H4" s="460" t="s">
+      <c r="E4" s="463"/>
+      <c r="F4" s="463"/>
+      <c r="G4" s="463"/>
+      <c r="H4" s="463" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="460"/>
-      <c r="J4" s="460"/>
-      <c r="K4" s="460" t="s">
+      <c r="I4" s="463"/>
+      <c r="J4" s="463"/>
+      <c r="K4" s="463" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="460"/>
-      <c r="M4" s="460" t="s">
+      <c r="L4" s="463"/>
+      <c r="M4" s="463" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="460"/>
-      <c r="O4" s="460"/>
-      <c r="P4" s="460"/>
-      <c r="Q4" s="460"/>
-      <c r="R4" s="460"/>
-      <c r="S4" s="460"/>
-      <c r="T4" s="460"/>
-      <c r="U4" s="460" t="s">
+      <c r="N4" s="463"/>
+      <c r="O4" s="463"/>
+      <c r="P4" s="463"/>
+      <c r="Q4" s="463"/>
+      <c r="R4" s="463"/>
+      <c r="S4" s="463"/>
+      <c r="T4" s="463"/>
+      <c r="U4" s="463" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="460"/>
-      <c r="W4" s="460"/>
-      <c r="X4" s="460"/>
-      <c r="Y4" s="460" t="s">
+      <c r="V4" s="463"/>
+      <c r="W4" s="463"/>
+      <c r="X4" s="463"/>
+      <c r="Y4" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="460"/>
-      <c r="AA4" s="460" t="s">
+      <c r="Z4" s="463"/>
+      <c r="AA4" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="460"/>
-      <c r="AC4" s="460" t="s">
+      <c r="AB4" s="463"/>
+      <c r="AC4" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="460"/>
-      <c r="AE4" s="460" t="s">
+      <c r="AD4" s="463"/>
+      <c r="AE4" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="460"/>
+      <c r="AF4" s="463"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
-      <c r="D5" s="460"/>
-      <c r="E5" s="460"/>
-      <c r="F5" s="460"/>
-      <c r="G5" s="460"/>
-      <c r="H5" s="460" t="s">
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
+      <c r="D5" s="463"/>
+      <c r="E5" s="463"/>
+      <c r="F5" s="463"/>
+      <c r="G5" s="463"/>
+      <c r="H5" s="463" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="460" t="s">
+      <c r="I5" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="460" t="s">
+      <c r="J5" s="463" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="460"/>
-      <c r="L5" s="460"/>
-      <c r="M5" s="460"/>
-      <c r="N5" s="460"/>
-      <c r="O5" s="460"/>
-      <c r="P5" s="460"/>
-      <c r="Q5" s="460"/>
-      <c r="R5" s="460"/>
-      <c r="S5" s="460"/>
-      <c r="T5" s="460"/>
-      <c r="U5" s="460"/>
-      <c r="V5" s="460"/>
-      <c r="W5" s="460"/>
-      <c r="X5" s="460"/>
-      <c r="Y5" s="460"/>
-      <c r="Z5" s="460"/>
-      <c r="AA5" s="460"/>
-      <c r="AB5" s="460"/>
-      <c r="AC5" s="460"/>
-      <c r="AD5" s="460"/>
-      <c r="AE5" s="460"/>
-      <c r="AF5" s="460"/>
+      <c r="K5" s="463"/>
+      <c r="L5" s="463"/>
+      <c r="M5" s="463"/>
+      <c r="N5" s="463"/>
+      <c r="O5" s="463"/>
+      <c r="P5" s="463"/>
+      <c r="Q5" s="463"/>
+      <c r="R5" s="463"/>
+      <c r="S5" s="463"/>
+      <c r="T5" s="463"/>
+      <c r="U5" s="463"/>
+      <c r="V5" s="463"/>
+      <c r="W5" s="463"/>
+      <c r="X5" s="463"/>
+      <c r="Y5" s="463"/>
+      <c r="Z5" s="463"/>
+      <c r="AA5" s="463"/>
+      <c r="AB5" s="463"/>
+      <c r="AC5" s="463"/>
+      <c r="AD5" s="463"/>
+      <c r="AE5" s="463"/>
+      <c r="AF5" s="463"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
-      <c r="D6" s="460" t="s">
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
+      <c r="D6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="460" t="s">
+      <c r="E6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="460" t="s">
+      <c r="F6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="460" t="s">
+      <c r="G6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="460"/>
-      <c r="I6" s="460"/>
-      <c r="J6" s="460"/>
+      <c r="H6" s="463"/>
+      <c r="I6" s="463"/>
+      <c r="J6" s="463"/>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="460" t="s">
+      <c r="M6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="460"/>
-      <c r="O6" s="460" t="s">
+      <c r="N6" s="463"/>
+      <c r="O6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="460"/>
-      <c r="Q6" s="460" t="s">
+      <c r="P6" s="463"/>
+      <c r="Q6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="460"/>
-      <c r="S6" s="460" t="s">
+      <c r="R6" s="463"/>
+      <c r="S6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="460"/>
-      <c r="U6" s="460" t="s">
+      <c r="T6" s="463"/>
+      <c r="U6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="460" t="s">
+      <c r="V6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="460" t="s">
+      <c r="W6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="460" t="s">
+      <c r="X6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="460" t="s">
+      <c r="Y6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="460" t="s">
+      <c r="Z6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="460" t="s">
+      <c r="AA6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="460" t="s">
+      <c r="AB6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="460" t="s">
+      <c r="AC6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="460" t="s">
+      <c r="AD6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="460" t="s">
+      <c r="AE6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="460" t="s">
+      <c r="AF6" s="463" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="460"/>
-      <c r="B7" s="460"/>
-      <c r="C7" s="460"/>
-      <c r="D7" s="460"/>
-      <c r="E7" s="460"/>
-      <c r="F7" s="460"/>
-      <c r="G7" s="460"/>
-      <c r="H7" s="460"/>
-      <c r="I7" s="460"/>
-      <c r="J7" s="460"/>
+      <c r="A7" s="463"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
+      <c r="D7" s="463"/>
+      <c r="E7" s="463"/>
+      <c r="F7" s="463"/>
+      <c r="G7" s="463"/>
+      <c r="H7" s="463"/>
+      <c r="I7" s="463"/>
+      <c r="J7" s="463"/>
       <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
@@ -41400,18 +41420,18 @@
       <c r="T7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="460"/>
-      <c r="V7" s="460"/>
-      <c r="W7" s="460"/>
-      <c r="X7" s="460"/>
-      <c r="Y7" s="460"/>
-      <c r="Z7" s="460"/>
-      <c r="AA7" s="460"/>
-      <c r="AB7" s="460"/>
-      <c r="AC7" s="460"/>
-      <c r="AD7" s="460"/>
-      <c r="AE7" s="460"/>
-      <c r="AF7" s="460"/>
+      <c r="U7" s="463"/>
+      <c r="V7" s="463"/>
+      <c r="W7" s="463"/>
+      <c r="X7" s="463"/>
+      <c r="Y7" s="463"/>
+      <c r="Z7" s="463"/>
+      <c r="AA7" s="463"/>
+      <c r="AB7" s="463"/>
+      <c r="AC7" s="463"/>
+      <c r="AD7" s="463"/>
+      <c r="AE7" s="463"/>
+      <c r="AF7" s="463"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -41480,249 +41500,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="54" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="458" t="s">
+      <c r="A1" s="461" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
-      <c r="N1" s="458"/>
+      <c r="B1" s="461"/>
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
+      <c r="F1" s="461"/>
+      <c r="G1" s="461"/>
+      <c r="H1" s="461"/>
+      <c r="I1" s="461"/>
+      <c r="J1" s="461"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="461"/>
+      <c r="N1" s="461"/>
     </row>
     <row r="2" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="462"/>
-      <c r="B2" s="462"/>
-      <c r="C2" s="462"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="462"/>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
-      <c r="H2" s="462"/>
-      <c r="I2" s="462"/>
-      <c r="J2" s="462"/>
-      <c r="K2" s="462"/>
-      <c r="L2" s="462"/>
-      <c r="M2" s="462"/>
-      <c r="N2" s="462"/>
+      <c r="A2" s="465"/>
+      <c r="B2" s="465"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="465"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="465"/>
+      <c r="G2" s="465"/>
+      <c r="H2" s="465"/>
+      <c r="I2" s="465"/>
+      <c r="J2" s="465"/>
+      <c r="K2" s="465"/>
+      <c r="L2" s="465"/>
+      <c r="M2" s="465"/>
+      <c r="N2" s="465"/>
     </row>
     <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="463" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="460" t="s">
+      <c r="B4" s="463" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="460" t="s">
+      <c r="C4" s="463" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="460" t="s">
+      <c r="D4" s="463" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="460"/>
-      <c r="F4" s="460"/>
-      <c r="G4" s="460"/>
-      <c r="H4" s="460"/>
-      <c r="I4" s="460" t="s">
+      <c r="E4" s="463"/>
+      <c r="F4" s="463"/>
+      <c r="G4" s="463"/>
+      <c r="H4" s="463"/>
+      <c r="I4" s="463" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="460"/>
-      <c r="K4" s="460"/>
-      <c r="L4" s="460"/>
-      <c r="M4" s="460" t="s">
+      <c r="J4" s="463"/>
+      <c r="K4" s="463"/>
+      <c r="L4" s="463"/>
+      <c r="M4" s="463" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="460" t="s">
+      <c r="N4" s="463" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="460" t="s">
+      <c r="O4" s="463" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="460"/>
-      <c r="Q4" s="460" t="s">
+      <c r="P4" s="463"/>
+      <c r="Q4" s="463" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="460"/>
-      <c r="S4" s="460"/>
-      <c r="T4" s="460"/>
-      <c r="U4" s="460"/>
-      <c r="V4" s="460"/>
-      <c r="W4" s="460"/>
-      <c r="X4" s="460"/>
-      <c r="Y4" s="460" t="s">
+      <c r="R4" s="463"/>
+      <c r="S4" s="463"/>
+      <c r="T4" s="463"/>
+      <c r="U4" s="463"/>
+      <c r="V4" s="463"/>
+      <c r="W4" s="463"/>
+      <c r="X4" s="463"/>
+      <c r="Y4" s="463" t="s">
         <v>28</v>
       </c>
-      <c r="Z4" s="460" t="s">
+      <c r="Z4" s="463" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" s="460"/>
-      <c r="AB4" s="460"/>
-      <c r="AC4" s="460"/>
-      <c r="AD4" s="460"/>
-      <c r="AE4" s="460"/>
-      <c r="AF4" s="460"/>
-      <c r="AG4" s="460"/>
-      <c r="AH4" s="460"/>
-      <c r="AI4" s="460"/>
-      <c r="AJ4" s="460"/>
-      <c r="AK4" s="460"/>
+      <c r="AA4" s="463"/>
+      <c r="AB4" s="463"/>
+      <c r="AC4" s="463"/>
+      <c r="AD4" s="463"/>
+      <c r="AE4" s="463"/>
+      <c r="AF4" s="463"/>
+      <c r="AG4" s="463"/>
+      <c r="AH4" s="463"/>
+      <c r="AI4" s="463"/>
+      <c r="AJ4" s="463"/>
+      <c r="AK4" s="463"/>
     </row>
     <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
-      <c r="D5" s="460"/>
-      <c r="E5" s="460"/>
-      <c r="F5" s="460"/>
-      <c r="G5" s="460"/>
-      <c r="H5" s="460"/>
-      <c r="I5" s="460"/>
-      <c r="J5" s="460"/>
-      <c r="K5" s="460"/>
-      <c r="L5" s="460"/>
-      <c r="M5" s="460"/>
-      <c r="N5" s="460"/>
-      <c r="O5" s="460"/>
-      <c r="P5" s="460"/>
-      <c r="Q5" s="460" t="s">
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
+      <c r="D5" s="463"/>
+      <c r="E5" s="463"/>
+      <c r="F5" s="463"/>
+      <c r="G5" s="463"/>
+      <c r="H5" s="463"/>
+      <c r="I5" s="463"/>
+      <c r="J5" s="463"/>
+      <c r="K5" s="463"/>
+      <c r="L5" s="463"/>
+      <c r="M5" s="463"/>
+      <c r="N5" s="463"/>
+      <c r="O5" s="463"/>
+      <c r="P5" s="463"/>
+      <c r="Q5" s="463" t="s">
         <v>29</v>
       </c>
-      <c r="R5" s="460"/>
-      <c r="S5" s="460" t="s">
+      <c r="R5" s="463"/>
+      <c r="S5" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="460"/>
-      <c r="U5" s="460" t="s">
+      <c r="T5" s="463"/>
+      <c r="U5" s="463" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="460"/>
-      <c r="W5" s="461" t="s">
+      <c r="V5" s="463"/>
+      <c r="W5" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="461"/>
-      <c r="Y5" s="460"/>
-      <c r="Z5" s="460"/>
-      <c r="AA5" s="460"/>
-      <c r="AB5" s="460"/>
-      <c r="AC5" s="460"/>
-      <c r="AD5" s="460" t="s">
+      <c r="X5" s="464"/>
+      <c r="Y5" s="463"/>
+      <c r="Z5" s="463"/>
+      <c r="AA5" s="463"/>
+      <c r="AB5" s="463"/>
+      <c r="AC5" s="463"/>
+      <c r="AD5" s="463" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="460"/>
-      <c r="AF5" s="460" t="s">
+      <c r="AE5" s="463"/>
+      <c r="AF5" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="460"/>
-      <c r="AH5" s="460" t="s">
+      <c r="AG5" s="463"/>
+      <c r="AH5" s="463" t="s">
         <v>31</v>
       </c>
-      <c r="AI5" s="460"/>
-      <c r="AJ5" s="461" t="s">
+      <c r="AI5" s="463"/>
+      <c r="AJ5" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="AK5" s="460"/>
+      <c r="AK5" s="463"/>
     </row>
     <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460"/>
-      <c r="D6" s="460"/>
-      <c r="E6" s="460" t="s">
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463"/>
+      <c r="D6" s="463"/>
+      <c r="E6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="460" t="s">
+      <c r="F6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="460" t="s">
+      <c r="G6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="460" t="s">
+      <c r="H6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="460" t="s">
+      <c r="I6" s="463" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="460" t="s">
+      <c r="J6" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="460" t="s">
+      <c r="K6" s="463" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="460" t="s">
+      <c r="L6" s="463" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="460"/>
-      <c r="N6" s="460"/>
-      <c r="O6" s="460"/>
-      <c r="P6" s="460"/>
-      <c r="Q6" s="460"/>
-      <c r="R6" s="460"/>
-      <c r="S6" s="460"/>
-      <c r="T6" s="460"/>
-      <c r="U6" s="460"/>
-      <c r="V6" s="460"/>
-      <c r="W6" s="461"/>
-      <c r="X6" s="461"/>
-      <c r="Y6" s="460"/>
-      <c r="Z6" s="460" t="s">
+      <c r="M6" s="463"/>
+      <c r="N6" s="463"/>
+      <c r="O6" s="463"/>
+      <c r="P6" s="463"/>
+      <c r="Q6" s="463"/>
+      <c r="R6" s="463"/>
+      <c r="S6" s="463"/>
+      <c r="T6" s="463"/>
+      <c r="U6" s="463"/>
+      <c r="V6" s="463"/>
+      <c r="W6" s="464"/>
+      <c r="X6" s="464"/>
+      <c r="Y6" s="463"/>
+      <c r="Z6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="AA6" s="460" t="s">
+      <c r="AA6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="460" t="s">
+      <c r="AB6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="AC6" s="460" t="s">
+      <c r="AC6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="460" t="s">
+      <c r="AD6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="460" t="s">
+      <c r="AE6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="460" t="s">
+      <c r="AF6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="460" t="s">
+      <c r="AG6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AH6" s="460" t="s">
+      <c r="AH6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AI6" s="460" t="s">
+      <c r="AI6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AJ6" s="460" t="s">
+      <c r="AJ6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AK6" s="460" t="s">
+      <c r="AK6" s="463" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="460"/>
-      <c r="B7" s="460"/>
-      <c r="C7" s="460"/>
-      <c r="D7" s="460"/>
-      <c r="E7" s="460"/>
-      <c r="F7" s="460"/>
-      <c r="G7" s="460"/>
-      <c r="H7" s="460"/>
-      <c r="I7" s="460"/>
-      <c r="J7" s="460"/>
-      <c r="K7" s="460"/>
-      <c r="L7" s="460"/>
-      <c r="M7" s="460"/>
-      <c r="N7" s="460"/>
+      <c r="A7" s="463"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
+      <c r="D7" s="463"/>
+      <c r="E7" s="463"/>
+      <c r="F7" s="463"/>
+      <c r="G7" s="463"/>
+      <c r="H7" s="463"/>
+      <c r="I7" s="463"/>
+      <c r="J7" s="463"/>
+      <c r="K7" s="463"/>
+      <c r="L7" s="463"/>
+      <c r="M7" s="463"/>
+      <c r="N7" s="463"/>
       <c r="O7" s="3" t="s">
         <v>13</v>
       </c>
@@ -41753,19 +41773,19 @@
       <c r="X7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y7" s="460"/>
-      <c r="Z7" s="460"/>
-      <c r="AA7" s="460"/>
-      <c r="AB7" s="460"/>
-      <c r="AC7" s="460"/>
-      <c r="AD7" s="460"/>
-      <c r="AE7" s="460"/>
-      <c r="AF7" s="460"/>
-      <c r="AG7" s="460"/>
-      <c r="AH7" s="460"/>
-      <c r="AI7" s="460"/>
-      <c r="AJ7" s="460"/>
-      <c r="AK7" s="460"/>
+      <c r="Y7" s="463"/>
+      <c r="Z7" s="463"/>
+      <c r="AA7" s="463"/>
+      <c r="AB7" s="463"/>
+      <c r="AC7" s="463"/>
+      <c r="AD7" s="463"/>
+      <c r="AE7" s="463"/>
+      <c r="AF7" s="463"/>
+      <c r="AG7" s="463"/>
+      <c r="AH7" s="463"/>
+      <c r="AI7" s="463"/>
+      <c r="AJ7" s="463"/>
+      <c r="AK7" s="463"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -41838,32 +41858,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="30" customHeight="1">
-      <c r="A1" s="463" t="s">
+      <c r="A1" s="466" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="463"/>
-      <c r="C1" s="463"/>
-      <c r="D1" s="463"/>
-      <c r="E1" s="463"/>
-      <c r="F1" s="463"/>
-      <c r="G1" s="463"/>
-      <c r="H1" s="463"/>
-      <c r="I1" s="463"/>
-      <c r="J1" s="463"/>
-      <c r="K1" s="463"/>
+      <c r="B1" s="466"/>
+      <c r="C1" s="466"/>
+      <c r="D1" s="466"/>
+      <c r="E1" s="466"/>
+      <c r="F1" s="466"/>
+      <c r="G1" s="466"/>
+      <c r="H1" s="466"/>
+      <c r="I1" s="466"/>
+      <c r="J1" s="466"/>
+      <c r="K1" s="466"/>
     </row>
     <row r="2" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="459"/>
-      <c r="B2" s="459"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="459"/>
-      <c r="E2" s="459"/>
-      <c r="F2" s="459"/>
-      <c r="G2" s="459"/>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="459"/>
-      <c r="K2" s="459"/>
+      <c r="A2" s="462"/>
+      <c r="B2" s="462"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="462"/>
+      <c r="E2" s="462"/>
+      <c r="F2" s="462"/>
+      <c r="G2" s="462"/>
+      <c r="H2" s="462"/>
+      <c r="I2" s="462"/>
+      <c r="J2" s="462"/>
+      <c r="K2" s="462"/>
     </row>
     <row r="3" spans="1:34" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41871,201 +41891,201 @@
       </c>
     </row>
     <row r="4" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="463" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="460" t="s">
+      <c r="B4" s="463" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="460" t="s">
+      <c r="C4" s="463" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="460"/>
-      <c r="E4" s="460"/>
-      <c r="F4" s="460"/>
-      <c r="G4" s="460" t="s">
+      <c r="D4" s="463"/>
+      <c r="E4" s="463"/>
+      <c r="F4" s="463"/>
+      <c r="G4" s="463" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="460"/>
-      <c r="I4" s="460"/>
-      <c r="J4" s="460"/>
-      <c r="K4" s="460" t="s">
+      <c r="H4" s="463"/>
+      <c r="I4" s="463"/>
+      <c r="J4" s="463"/>
+      <c r="K4" s="463" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="460" t="s">
+      <c r="L4" s="463" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="460"/>
-      <c r="N4" s="460" t="s">
+      <c r="M4" s="463"/>
+      <c r="N4" s="463" t="s">
         <v>82</v>
       </c>
-      <c r="O4" s="460"/>
-      <c r="P4" s="460"/>
-      <c r="Q4" s="460"/>
-      <c r="R4" s="460"/>
-      <c r="S4" s="460"/>
-      <c r="T4" s="460"/>
-      <c r="U4" s="460"/>
-      <c r="V4" s="460" t="s">
+      <c r="O4" s="463"/>
+      <c r="P4" s="463"/>
+      <c r="Q4" s="463"/>
+      <c r="R4" s="463"/>
+      <c r="S4" s="463"/>
+      <c r="T4" s="463"/>
+      <c r="U4" s="463"/>
+      <c r="V4" s="463" t="s">
         <v>83</v>
       </c>
-      <c r="W4" s="460" t="s">
+      <c r="W4" s="463" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="460"/>
-      <c r="Y4" s="460"/>
-      <c r="Z4" s="460"/>
-      <c r="AA4" s="460" t="s">
+      <c r="X4" s="463"/>
+      <c r="Y4" s="463"/>
+      <c r="Z4" s="463"/>
+      <c r="AA4" s="463" t="s">
         <v>84</v>
       </c>
-      <c r="AB4" s="460"/>
-      <c r="AC4" s="460"/>
-      <c r="AD4" s="460"/>
-      <c r="AE4" s="460"/>
-      <c r="AF4" s="460"/>
-      <c r="AG4" s="460"/>
-      <c r="AH4" s="460"/>
+      <c r="AB4" s="463"/>
+      <c r="AC4" s="463"/>
+      <c r="AD4" s="463"/>
+      <c r="AE4" s="463"/>
+      <c r="AF4" s="463"/>
+      <c r="AG4" s="463"/>
+      <c r="AH4" s="463"/>
     </row>
     <row r="5" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
-      <c r="D5" s="460"/>
-      <c r="E5" s="460"/>
-      <c r="F5" s="460"/>
-      <c r="G5" s="460" t="s">
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
+      <c r="D5" s="463"/>
+      <c r="E5" s="463"/>
+      <c r="F5" s="463"/>
+      <c r="G5" s="463" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="460" t="s">
+      <c r="H5" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="460" t="s">
+      <c r="I5" s="463" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="460" t="s">
+      <c r="J5" s="463" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="460"/>
-      <c r="L5" s="460"/>
-      <c r="M5" s="460"/>
-      <c r="N5" s="460"/>
-      <c r="O5" s="460"/>
-      <c r="P5" s="460"/>
-      <c r="Q5" s="460"/>
-      <c r="R5" s="460"/>
-      <c r="S5" s="460"/>
-      <c r="T5" s="460"/>
-      <c r="U5" s="460"/>
-      <c r="V5" s="460"/>
-      <c r="W5" s="460"/>
-      <c r="X5" s="460"/>
-      <c r="Y5" s="460"/>
-      <c r="Z5" s="460"/>
-      <c r="AA5" s="460" t="s">
+      <c r="K5" s="463"/>
+      <c r="L5" s="463"/>
+      <c r="M5" s="463"/>
+      <c r="N5" s="463"/>
+      <c r="O5" s="463"/>
+      <c r="P5" s="463"/>
+      <c r="Q5" s="463"/>
+      <c r="R5" s="463"/>
+      <c r="S5" s="463"/>
+      <c r="T5" s="463"/>
+      <c r="U5" s="463"/>
+      <c r="V5" s="463"/>
+      <c r="W5" s="463"/>
+      <c r="X5" s="463"/>
+      <c r="Y5" s="463"/>
+      <c r="Z5" s="463"/>
+      <c r="AA5" s="463" t="s">
         <v>29</v>
       </c>
-      <c r="AB5" s="460"/>
-      <c r="AC5" s="460" t="s">
+      <c r="AB5" s="463"/>
+      <c r="AC5" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="AD5" s="460"/>
-      <c r="AE5" s="460" t="s">
+      <c r="AD5" s="463"/>
+      <c r="AE5" s="463" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="460"/>
-      <c r="AG5" s="461" t="s">
+      <c r="AF5" s="463"/>
+      <c r="AG5" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="460"/>
+      <c r="AH5" s="463"/>
     </row>
     <row r="6" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460" t="s">
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="460" t="s">
+      <c r="D6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="460" t="s">
+      <c r="E6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="460" t="s">
+      <c r="F6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="460"/>
-      <c r="H6" s="460"/>
-      <c r="I6" s="460"/>
-      <c r="J6" s="460"/>
-      <c r="K6" s="460"/>
-      <c r="L6" s="460"/>
-      <c r="M6" s="460"/>
-      <c r="N6" s="460" t="s">
+      <c r="G6" s="463"/>
+      <c r="H6" s="463"/>
+      <c r="I6" s="463"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="463"/>
+      <c r="L6" s="463"/>
+      <c r="M6" s="463"/>
+      <c r="N6" s="463" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="460"/>
-      <c r="P6" s="460" t="s">
+      <c r="O6" s="463"/>
+      <c r="P6" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="460"/>
-      <c r="R6" s="460" t="s">
+      <c r="Q6" s="463"/>
+      <c r="R6" s="463" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="460"/>
-      <c r="T6" s="461" t="s">
+      <c r="S6" s="463"/>
+      <c r="T6" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="U6" s="460"/>
-      <c r="V6" s="460"/>
-      <c r="W6" s="460" t="s">
+      <c r="U6" s="463"/>
+      <c r="V6" s="463"/>
+      <c r="W6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="X6" s="460" t="s">
+      <c r="X6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="460" t="s">
+      <c r="Y6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="Z6" s="460" t="s">
+      <c r="Z6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="AA6" s="460" t="s">
+      <c r="AA6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="460" t="s">
+      <c r="AB6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="460" t="s">
+      <c r="AC6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="460" t="s">
+      <c r="AD6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="460" t="s">
+      <c r="AE6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="460" t="s">
+      <c r="AF6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AG6" s="460" t="s">
+      <c r="AG6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AH6" s="460" t="s">
+      <c r="AH6" s="463" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="460"/>
-      <c r="B7" s="460"/>
-      <c r="C7" s="460"/>
-      <c r="D7" s="460"/>
-      <c r="E7" s="460"/>
-      <c r="F7" s="460"/>
-      <c r="G7" s="460"/>
-      <c r="H7" s="460"/>
-      <c r="I7" s="460"/>
-      <c r="J7" s="460"/>
-      <c r="K7" s="460"/>
+      <c r="A7" s="463"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
+      <c r="D7" s="463"/>
+      <c r="E7" s="463"/>
+      <c r="F7" s="463"/>
+      <c r="G7" s="463"/>
+      <c r="H7" s="463"/>
+      <c r="I7" s="463"/>
+      <c r="J7" s="463"/>
+      <c r="K7" s="463"/>
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
@@ -42096,19 +42116,19 @@
       <c r="U7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="460"/>
-      <c r="W7" s="460"/>
-      <c r="X7" s="460"/>
-      <c r="Y7" s="460"/>
-      <c r="Z7" s="460"/>
-      <c r="AA7" s="460"/>
-      <c r="AB7" s="460"/>
-      <c r="AC7" s="460"/>
-      <c r="AD7" s="460"/>
-      <c r="AE7" s="460"/>
-      <c r="AF7" s="460"/>
-      <c r="AG7" s="460"/>
-      <c r="AH7" s="460"/>
+      <c r="V7" s="463"/>
+      <c r="W7" s="463"/>
+      <c r="X7" s="463"/>
+      <c r="Y7" s="463"/>
+      <c r="Z7" s="463"/>
+      <c r="AA7" s="463"/>
+      <c r="AB7" s="463"/>
+      <c r="AC7" s="463"/>
+      <c r="AD7" s="463"/>
+      <c r="AE7" s="463"/>
+      <c r="AF7" s="463"/>
+      <c r="AG7" s="463"/>
+      <c r="AH7" s="463"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -42176,238 +42196,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="30" customHeight="1">
-      <c r="A1" s="458" t="s">
+      <c r="A1" s="461" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="458"/>
-      <c r="C1" s="458"/>
-      <c r="D1" s="458"/>
-      <c r="E1" s="458"/>
-      <c r="F1" s="458"/>
-      <c r="G1" s="458"/>
-      <c r="H1" s="458"/>
-      <c r="I1" s="458"/>
-      <c r="J1" s="458"/>
-      <c r="K1" s="458"/>
-      <c r="L1" s="458"/>
-      <c r="M1" s="458"/>
-      <c r="N1" s="458"/>
-      <c r="O1" s="458"/>
+      <c r="B1" s="461"/>
+      <c r="C1" s="461"/>
+      <c r="D1" s="461"/>
+      <c r="E1" s="461"/>
+      <c r="F1" s="461"/>
+      <c r="G1" s="461"/>
+      <c r="H1" s="461"/>
+      <c r="I1" s="461"/>
+      <c r="J1" s="461"/>
+      <c r="K1" s="461"/>
+      <c r="L1" s="461"/>
+      <c r="M1" s="461"/>
+      <c r="N1" s="461"/>
+      <c r="O1" s="461"/>
     </row>
     <row r="2" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="464"/>
-      <c r="B2" s="464"/>
-      <c r="C2" s="464"/>
-      <c r="D2" s="464"/>
-      <c r="E2" s="464"/>
-      <c r="F2" s="464"/>
-      <c r="G2" s="464"/>
-      <c r="H2" s="464"/>
-      <c r="I2" s="464"/>
-      <c r="J2" s="464"/>
-      <c r="K2" s="464"/>
-      <c r="L2" s="464"/>
-      <c r="M2" s="464"/>
-      <c r="N2" s="464"/>
-      <c r="O2" s="464"/>
+      <c r="A2" s="467"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="467"/>
+      <c r="E2" s="467"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
+      <c r="K2" s="467"/>
+      <c r="L2" s="467"/>
+      <c r="M2" s="467"/>
+      <c r="N2" s="467"/>
+      <c r="O2" s="467"/>
     </row>
     <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="W3" s="462" t="s">
+      <c r="W3" s="465" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="462"/>
-      <c r="Y3" s="462"/>
+      <c r="X3" s="465"/>
+      <c r="Y3" s="465"/>
     </row>
     <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="460" t="s">
+      <c r="A4" s="463" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="460" t="s">
+      <c r="B4" s="463" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="460" t="s">
+      <c r="C4" s="463" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="460"/>
-      <c r="E4" s="460"/>
-      <c r="F4" s="460"/>
-      <c r="G4" s="460" t="s">
+      <c r="D4" s="463"/>
+      <c r="E4" s="463"/>
+      <c r="F4" s="463"/>
+      <c r="G4" s="463" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="460"/>
-      <c r="I4" s="460"/>
-      <c r="J4" s="460"/>
-      <c r="K4" s="460" t="s">
+      <c r="H4" s="463"/>
+      <c r="I4" s="463"/>
+      <c r="J4" s="463"/>
+      <c r="K4" s="463" t="s">
         <v>81</v>
       </c>
-      <c r="L4" s="460"/>
-      <c r="M4" s="460" t="s">
+      <c r="L4" s="463"/>
+      <c r="M4" s="463" t="s">
         <v>82</v>
       </c>
-      <c r="N4" s="460"/>
-      <c r="O4" s="460"/>
-      <c r="P4" s="460"/>
-      <c r="Q4" s="460"/>
-      <c r="R4" s="460"/>
-      <c r="S4" s="460"/>
-      <c r="T4" s="460"/>
-      <c r="U4" s="460" t="s">
+      <c r="N4" s="463"/>
+      <c r="O4" s="463"/>
+      <c r="P4" s="463"/>
+      <c r="Q4" s="463"/>
+      <c r="R4" s="463"/>
+      <c r="S4" s="463"/>
+      <c r="T4" s="463"/>
+      <c r="U4" s="463" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="460" t="s">
+      <c r="V4" s="463" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="460"/>
-      <c r="X4" s="460"/>
-      <c r="Y4" s="460"/>
-      <c r="Z4" s="460" t="s">
+      <c r="W4" s="463"/>
+      <c r="X4" s="463"/>
+      <c r="Y4" s="463"/>
+      <c r="Z4" s="463" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="460"/>
-      <c r="AB4" s="460"/>
-      <c r="AC4" s="460"/>
-      <c r="AD4" s="460"/>
-      <c r="AE4" s="460"/>
-      <c r="AF4" s="460"/>
-      <c r="AG4" s="460"/>
+      <c r="AA4" s="463"/>
+      <c r="AB4" s="463"/>
+      <c r="AC4" s="463"/>
+      <c r="AD4" s="463"/>
+      <c r="AE4" s="463"/>
+      <c r="AF4" s="463"/>
+      <c r="AG4" s="463"/>
     </row>
     <row r="5" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="460"/>
-      <c r="B5" s="460"/>
-      <c r="C5" s="460"/>
-      <c r="D5" s="460"/>
-      <c r="E5" s="460"/>
-      <c r="F5" s="460"/>
-      <c r="G5" s="460" t="s">
+      <c r="A5" s="463"/>
+      <c r="B5" s="463"/>
+      <c r="C5" s="463"/>
+      <c r="D5" s="463"/>
+      <c r="E5" s="463"/>
+      <c r="F5" s="463"/>
+      <c r="G5" s="463" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="460" t="s">
+      <c r="H5" s="463" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="460" t="s">
+      <c r="I5" s="463" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="460" t="s">
+      <c r="J5" s="463" t="s">
         <v>63</v>
       </c>
-      <c r="K5" s="460"/>
-      <c r="L5" s="460"/>
-      <c r="M5" s="460"/>
-      <c r="N5" s="460"/>
-      <c r="O5" s="460"/>
-      <c r="P5" s="460"/>
-      <c r="Q5" s="460"/>
-      <c r="R5" s="460"/>
-      <c r="S5" s="460"/>
-      <c r="T5" s="460"/>
-      <c r="U5" s="460"/>
-      <c r="V5" s="460"/>
-      <c r="W5" s="460"/>
-      <c r="X5" s="460"/>
-      <c r="Y5" s="460"/>
-      <c r="Z5" s="460" t="s">
+      <c r="K5" s="463"/>
+      <c r="L5" s="463"/>
+      <c r="M5" s="463"/>
+      <c r="N5" s="463"/>
+      <c r="O5" s="463"/>
+      <c r="P5" s="463"/>
+      <c r="Q5" s="463"/>
+      <c r="R5" s="463"/>
+      <c r="S5" s="463"/>
+      <c r="T5" s="463"/>
+      <c r="U5" s="463"/>
+      <c r="V5" s="463"/>
+      <c r="W5" s="463"/>
+      <c r="X5" s="463"/>
+      <c r="Y5" s="463"/>
+      <c r="Z5" s="463" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="460"/>
-      <c r="AB5" s="460" t="s">
+      <c r="AA5" s="463"/>
+      <c r="AB5" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="AC5" s="460"/>
-      <c r="AD5" s="460" t="s">
+      <c r="AC5" s="463"/>
+      <c r="AD5" s="463" t="s">
         <v>31</v>
       </c>
-      <c r="AE5" s="460"/>
-      <c r="AF5" s="461" t="s">
+      <c r="AE5" s="463"/>
+      <c r="AF5" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="460"/>
+      <c r="AG5" s="463"/>
     </row>
     <row r="6" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="460"/>
-      <c r="B6" s="460"/>
-      <c r="C6" s="460" t="s">
+      <c r="A6" s="463"/>
+      <c r="B6" s="463"/>
+      <c r="C6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="460" t="s">
+      <c r="D6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="460" t="s">
+      <c r="E6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="460" t="s">
+      <c r="F6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="460"/>
-      <c r="H6" s="460"/>
-      <c r="I6" s="460"/>
-      <c r="J6" s="460"/>
-      <c r="K6" s="460"/>
-      <c r="L6" s="460"/>
-      <c r="M6" s="460" t="s">
+      <c r="G6" s="463"/>
+      <c r="H6" s="463"/>
+      <c r="I6" s="463"/>
+      <c r="J6" s="463"/>
+      <c r="K6" s="463"/>
+      <c r="L6" s="463"/>
+      <c r="M6" s="463" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="460"/>
-      <c r="O6" s="460" t="s">
+      <c r="N6" s="463"/>
+      <c r="O6" s="463" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="460"/>
-      <c r="Q6" s="460" t="s">
+      <c r="P6" s="463"/>
+      <c r="Q6" s="463" t="s">
         <v>31</v>
       </c>
-      <c r="R6" s="460"/>
-      <c r="S6" s="461" t="s">
+      <c r="R6" s="463"/>
+      <c r="S6" s="464" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="460"/>
-      <c r="U6" s="460"/>
-      <c r="V6" s="460" t="s">
+      <c r="T6" s="463"/>
+      <c r="U6" s="463"/>
+      <c r="V6" s="463" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="460" t="s">
+      <c r="W6" s="463" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="460" t="s">
+      <c r="X6" s="463" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="460" t="s">
+      <c r="Y6" s="463" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="460" t="s">
+      <c r="Z6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AA6" s="460" t="s">
+      <c r="AA6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="460" t="s">
+      <c r="AB6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="460" t="s">
+      <c r="AC6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AD6" s="460" t="s">
+      <c r="AD6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AE6" s="460" t="s">
+      <c r="AE6" s="463" t="s">
         <v>16</v>
       </c>
-      <c r="AF6" s="460" t="s">
+      <c r="AF6" s="463" t="s">
         <v>15</v>
       </c>
-      <c r="AG6" s="460" t="s">
+      <c r="AG6" s="463" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="460"/>
-      <c r="B7" s="460"/>
-      <c r="C7" s="460"/>
-      <c r="D7" s="460"/>
-      <c r="E7" s="460"/>
-      <c r="F7" s="460"/>
-      <c r="G7" s="460"/>
-      <c r="H7" s="460"/>
-      <c r="I7" s="460"/>
-      <c r="J7" s="460"/>
+      <c r="A7" s="463"/>
+      <c r="B7" s="463"/>
+      <c r="C7" s="463"/>
+      <c r="D7" s="463"/>
+      <c r="E7" s="463"/>
+      <c r="F7" s="463"/>
+      <c r="G7" s="463"/>
+      <c r="H7" s="463"/>
+      <c r="I7" s="463"/>
+      <c r="J7" s="463"/>
       <c r="K7" s="3" t="s">
         <v>13</v>
       </c>
@@ -42438,19 +42458,19 @@
       <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="460"/>
-      <c r="V7" s="460"/>
-      <c r="W7" s="460"/>
-      <c r="X7" s="460"/>
-      <c r="Y7" s="460"/>
-      <c r="Z7" s="460"/>
-      <c r="AA7" s="460"/>
-      <c r="AB7" s="460"/>
-      <c r="AC7" s="460"/>
-      <c r="AD7" s="460"/>
-      <c r="AE7" s="460"/>
-      <c r="AF7" s="460"/>
-      <c r="AG7" s="460"/>
+      <c r="U7" s="463"/>
+      <c r="V7" s="463"/>
+      <c r="W7" s="463"/>
+      <c r="X7" s="463"/>
+      <c r="Y7" s="463"/>
+      <c r="Z7" s="463"/>
+      <c r="AA7" s="463"/>
+      <c r="AB7" s="463"/>
+      <c r="AC7" s="463"/>
+      <c r="AD7" s="463"/>
+      <c r="AE7" s="463"/>
+      <c r="AF7" s="463"/>
+      <c r="AG7" s="463"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -42526,12 +42546,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="469" t="s">
+      <c r="A1" s="472" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="469"/>
-      <c r="C1" s="469"/>
-      <c r="D1" s="469"/>
+      <c r="B1" s="472"/>
+      <c r="C1" s="472"/>
+      <c r="D1" s="472"/>
       <c r="E1" s="50"/>
       <c r="F1" s="6"/>
       <c r="G1" s="50"/>
@@ -42545,22 +42565,22 @@
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
-      <c r="R1" s="469" t="s">
+      <c r="R1" s="472" t="s">
         <v>104</v>
       </c>
-      <c r="S1" s="469"/>
-      <c r="T1" s="469"/>
-      <c r="U1" s="469"/>
-      <c r="V1" s="469"/>
-      <c r="W1" s="469"/>
+      <c r="S1" s="472"/>
+      <c r="T1" s="472"/>
+      <c r="U1" s="472"/>
+      <c r="V1" s="472"/>
+      <c r="W1" s="472"/>
     </row>
     <row r="2" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="470" t="s">
+      <c r="A2" s="473" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="470"/>
-      <c r="C2" s="470"/>
-      <c r="D2" s="470"/>
+      <c r="B2" s="473"/>
+      <c r="C2" s="473"/>
+      <c r="D2" s="473"/>
       <c r="E2" s="51"/>
       <c r="F2" s="20"/>
       <c r="G2" s="51"/>
@@ -42574,249 +42594,249 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20"/>
-      <c r="R2" s="470" t="s">
+      <c r="R2" s="473" t="s">
         <v>158</v>
       </c>
-      <c r="S2" s="470"/>
-      <c r="T2" s="470"/>
-      <c r="U2" s="470"/>
-      <c r="V2" s="470"/>
-      <c r="W2" s="470"/>
+      <c r="S2" s="473"/>
+      <c r="T2" s="473"/>
+      <c r="U2" s="473"/>
+      <c r="V2" s="473"/>
+      <c r="W2" s="473"/>
     </row>
     <row r="3" spans="1:23" ht="30" customHeight="1">
-      <c r="A3" s="471" t="s">
+      <c r="A3" s="474" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="471"/>
-      <c r="C3" s="471"/>
-      <c r="D3" s="471"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="471"/>
-      <c r="G3" s="471"/>
-      <c r="H3" s="471"/>
-      <c r="I3" s="471"/>
-      <c r="J3" s="471"/>
-      <c r="K3" s="471"/>
-      <c r="L3" s="471"/>
-      <c r="M3" s="471"/>
-      <c r="N3" s="471"/>
-      <c r="O3" s="471"/>
-      <c r="P3" s="471"/>
-      <c r="Q3" s="471"/>
-      <c r="R3" s="471"/>
-      <c r="S3" s="471"/>
-      <c r="T3" s="471"/>
-      <c r="U3" s="471"/>
-      <c r="V3" s="471"/>
-      <c r="W3" s="471"/>
+      <c r="B3" s="474"/>
+      <c r="C3" s="474"/>
+      <c r="D3" s="474"/>
+      <c r="E3" s="474"/>
+      <c r="F3" s="474"/>
+      <c r="G3" s="474"/>
+      <c r="H3" s="474"/>
+      <c r="I3" s="474"/>
+      <c r="J3" s="474"/>
+      <c r="K3" s="474"/>
+      <c r="L3" s="474"/>
+      <c r="M3" s="474"/>
+      <c r="N3" s="474"/>
+      <c r="O3" s="474"/>
+      <c r="P3" s="474"/>
+      <c r="Q3" s="474"/>
+      <c r="R3" s="474"/>
+      <c r="S3" s="474"/>
+      <c r="T3" s="474"/>
+      <c r="U3" s="474"/>
+      <c r="V3" s="474"/>
+      <c r="W3" s="474"/>
     </row>
     <row r="4" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="472"/>
-      <c r="B4" s="472"/>
-      <c r="C4" s="472"/>
-      <c r="D4" s="472"/>
-      <c r="E4" s="472"/>
-      <c r="F4" s="472"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
-      <c r="I4" s="472"/>
-      <c r="J4" s="472"/>
-      <c r="K4" s="472"/>
-      <c r="L4" s="472"/>
-      <c r="M4" s="472"/>
-      <c r="N4" s="472"/>
-      <c r="O4" s="472"/>
-      <c r="P4" s="472"/>
-      <c r="Q4" s="472"/>
-      <c r="R4" s="472"/>
-      <c r="S4" s="472"/>
-      <c r="T4" s="472"/>
-      <c r="U4" s="472"/>
-      <c r="V4" s="472"/>
-      <c r="W4" s="472"/>
+      <c r="A4" s="475"/>
+      <c r="B4" s="475"/>
+      <c r="C4" s="475"/>
+      <c r="D4" s="475"/>
+      <c r="E4" s="475"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="475"/>
+      <c r="H4" s="475"/>
+      <c r="I4" s="475"/>
+      <c r="J4" s="475"/>
+      <c r="K4" s="475"/>
+      <c r="L4" s="475"/>
+      <c r="M4" s="475"/>
+      <c r="N4" s="475"/>
+      <c r="O4" s="475"/>
+      <c r="P4" s="475"/>
+      <c r="Q4" s="475"/>
+      <c r="R4" s="475"/>
+      <c r="S4" s="475"/>
+      <c r="T4" s="475"/>
+      <c r="U4" s="475"/>
+      <c r="V4" s="475"/>
+      <c r="W4" s="475"/>
     </row>
     <row r="5" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="473"/>
-      <c r="B5" s="473"/>
-      <c r="C5" s="473"/>
-      <c r="D5" s="473"/>
-      <c r="E5" s="473"/>
-      <c r="F5" s="473"/>
-      <c r="G5" s="473"/>
-      <c r="H5" s="473"/>
-      <c r="I5" s="473"/>
-      <c r="J5" s="473"/>
-      <c r="K5" s="473"/>
-      <c r="L5" s="473"/>
-      <c r="M5" s="473"/>
-      <c r="N5" s="473"/>
-      <c r="O5" s="473"/>
-      <c r="P5" s="473"/>
-      <c r="Q5" s="473"/>
-      <c r="R5" s="473"/>
-      <c r="S5" s="473"/>
-      <c r="T5" s="473"/>
-      <c r="U5" s="473"/>
-      <c r="V5" s="473"/>
-      <c r="W5" s="473"/>
+      <c r="A5" s="476"/>
+      <c r="B5" s="476"/>
+      <c r="C5" s="476"/>
+      <c r="D5" s="476"/>
+      <c r="E5" s="476"/>
+      <c r="F5" s="476"/>
+      <c r="G5" s="476"/>
+      <c r="H5" s="476"/>
+      <c r="I5" s="476"/>
+      <c r="J5" s="476"/>
+      <c r="K5" s="476"/>
+      <c r="L5" s="476"/>
+      <c r="M5" s="476"/>
+      <c r="N5" s="476"/>
+      <c r="O5" s="476"/>
+      <c r="P5" s="476"/>
+      <c r="Q5" s="476"/>
+      <c r="R5" s="476"/>
+      <c r="S5" s="476"/>
+      <c r="T5" s="476"/>
+      <c r="U5" s="476"/>
+      <c r="V5" s="476"/>
+      <c r="W5" s="476"/>
     </row>
     <row r="6" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="489" t="s">
+      <c r="A6" s="492" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="489" t="s">
+      <c r="B6" s="492" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="489" t="s">
+      <c r="C6" s="492" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="489" t="s">
+      <c r="D6" s="492" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="476" t="s">
+      <c r="E6" s="479" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="476" t="s">
+      <c r="F6" s="479" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="476" t="s">
+      <c r="G6" s="479" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="476" t="s">
+      <c r="H6" s="479" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="476" t="s">
+      <c r="I6" s="479" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="465" t="s">
+      <c r="J6" s="468" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="466"/>
-      <c r="L6" s="465" t="s">
+      <c r="K6" s="469"/>
+      <c r="L6" s="468" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="474"/>
-      <c r="N6" s="474"/>
-      <c r="O6" s="466"/>
-      <c r="P6" s="465" t="s">
+      <c r="M6" s="477"/>
+      <c r="N6" s="477"/>
+      <c r="O6" s="469"/>
+      <c r="P6" s="468" t="s">
         <v>72</v>
       </c>
-      <c r="Q6" s="466"/>
-      <c r="R6" s="465" t="s">
+      <c r="Q6" s="469"/>
+      <c r="R6" s="468" t="s">
         <v>73</v>
       </c>
-      <c r="S6" s="466"/>
-      <c r="T6" s="465" t="s">
+      <c r="S6" s="469"/>
+      <c r="T6" s="468" t="s">
         <v>74</v>
       </c>
-      <c r="U6" s="466"/>
-      <c r="V6" s="465" t="s">
+      <c r="U6" s="469"/>
+      <c r="V6" s="468" t="s">
         <v>75</v>
       </c>
-      <c r="W6" s="466"/>
+      <c r="W6" s="469"/>
     </row>
     <row r="7" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="490"/>
-      <c r="B7" s="490"/>
-      <c r="C7" s="490"/>
-      <c r="D7" s="490"/>
-      <c r="E7" s="477"/>
-      <c r="F7" s="477"/>
-      <c r="G7" s="477"/>
-      <c r="H7" s="477"/>
-      <c r="I7" s="477"/>
-      <c r="J7" s="467"/>
-      <c r="K7" s="468"/>
-      <c r="L7" s="467"/>
-      <c r="M7" s="475"/>
-      <c r="N7" s="475"/>
-      <c r="O7" s="468"/>
-      <c r="P7" s="467"/>
-      <c r="Q7" s="468"/>
-      <c r="R7" s="467"/>
-      <c r="S7" s="468"/>
-      <c r="T7" s="467"/>
-      <c r="U7" s="468"/>
-      <c r="V7" s="467"/>
-      <c r="W7" s="468"/>
+      <c r="A7" s="493"/>
+      <c r="B7" s="493"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="480"/>
+      <c r="F7" s="480"/>
+      <c r="G7" s="480"/>
+      <c r="H7" s="480"/>
+      <c r="I7" s="480"/>
+      <c r="J7" s="470"/>
+      <c r="K7" s="471"/>
+      <c r="L7" s="470"/>
+      <c r="M7" s="478"/>
+      <c r="N7" s="478"/>
+      <c r="O7" s="471"/>
+      <c r="P7" s="470"/>
+      <c r="Q7" s="471"/>
+      <c r="R7" s="470"/>
+      <c r="S7" s="471"/>
+      <c r="T7" s="470"/>
+      <c r="U7" s="471"/>
+      <c r="V7" s="470"/>
+      <c r="W7" s="471"/>
     </row>
     <row r="8" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="490"/>
-      <c r="B8" s="490"/>
-      <c r="C8" s="490"/>
-      <c r="D8" s="490"/>
-      <c r="E8" s="477"/>
-      <c r="F8" s="477"/>
-      <c r="G8" s="477"/>
-      <c r="H8" s="477"/>
-      <c r="I8" s="477"/>
-      <c r="J8" s="483" t="s">
+      <c r="A8" s="493"/>
+      <c r="B8" s="493"/>
+      <c r="C8" s="493"/>
+      <c r="D8" s="493"/>
+      <c r="E8" s="480"/>
+      <c r="F8" s="480"/>
+      <c r="G8" s="480"/>
+      <c r="H8" s="480"/>
+      <c r="I8" s="480"/>
+      <c r="J8" s="486" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="481" t="s">
+      <c r="K8" s="484" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="479" t="s">
+      <c r="L8" s="482" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="479" t="s">
+      <c r="M8" s="482" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="479" t="s">
+      <c r="N8" s="482" t="s">
         <v>77</v>
       </c>
-      <c r="O8" s="479" t="s">
+      <c r="O8" s="482" t="s">
         <v>172</v>
       </c>
-      <c r="P8" s="483" t="s">
+      <c r="P8" s="486" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="483" t="s">
+      <c r="Q8" s="486" t="s">
         <v>34</v>
       </c>
-      <c r="R8" s="483" t="s">
+      <c r="R8" s="486" t="s">
         <v>76</v>
       </c>
-      <c r="S8" s="483" t="s">
+      <c r="S8" s="486" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="483" t="s">
+      <c r="T8" s="486" t="s">
         <v>76</v>
       </c>
-      <c r="U8" s="483" t="s">
+      <c r="U8" s="486" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="487" t="s">
+      <c r="V8" s="490" t="s">
         <v>15</v>
       </c>
-      <c r="W8" s="485" t="s">
+      <c r="W8" s="488" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="491"/>
-      <c r="B9" s="491"/>
-      <c r="C9" s="491"/>
-      <c r="D9" s="491"/>
-      <c r="E9" s="478"/>
-      <c r="F9" s="478"/>
-      <c r="G9" s="478"/>
-      <c r="H9" s="478"/>
-      <c r="I9" s="478"/>
-      <c r="J9" s="484"/>
-      <c r="K9" s="482"/>
-      <c r="L9" s="480"/>
-      <c r="M9" s="480"/>
-      <c r="N9" s="480"/>
-      <c r="O9" s="480"/>
-      <c r="P9" s="484"/>
-      <c r="Q9" s="484"/>
-      <c r="R9" s="484"/>
-      <c r="S9" s="484"/>
-      <c r="T9" s="484"/>
-      <c r="U9" s="484"/>
-      <c r="V9" s="488"/>
-      <c r="W9" s="486"/>
+      <c r="A9" s="494"/>
+      <c r="B9" s="494"/>
+      <c r="C9" s="494"/>
+      <c r="D9" s="494"/>
+      <c r="E9" s="481"/>
+      <c r="F9" s="481"/>
+      <c r="G9" s="481"/>
+      <c r="H9" s="481"/>
+      <c r="I9" s="481"/>
+      <c r="J9" s="487"/>
+      <c r="K9" s="485"/>
+      <c r="L9" s="483"/>
+      <c r="M9" s="483"/>
+      <c r="N9" s="483"/>
+      <c r="O9" s="483"/>
+      <c r="P9" s="487"/>
+      <c r="Q9" s="487"/>
+      <c r="R9" s="487"/>
+      <c r="S9" s="487"/>
+      <c r="T9" s="487"/>
+      <c r="U9" s="487"/>
+      <c r="V9" s="491"/>
+      <c r="W9" s="489"/>
     </row>
     <row r="226" spans="1:31" s="60" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A226" s="53"/>
@@ -43116,40 +43136,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="464" t="s">
+      <c r="A1" s="467" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="464"/>
-      <c r="C1" s="464"/>
-      <c r="D1" s="464"/>
-      <c r="E1" s="464"/>
-      <c r="F1" s="464"/>
-      <c r="G1" s="464"/>
-      <c r="H1" s="464"/>
-      <c r="I1" s="464"/>
-      <c r="J1" s="464"/>
-      <c r="K1" s="464"/>
-      <c r="L1" s="464"/>
-      <c r="M1" s="464"/>
-      <c r="N1" s="464"/>
+      <c r="B1" s="467"/>
+      <c r="C1" s="467"/>
+      <c r="D1" s="467"/>
+      <c r="E1" s="467"/>
+      <c r="F1" s="467"/>
+      <c r="G1" s="467"/>
+      <c r="H1" s="467"/>
+      <c r="I1" s="467"/>
+      <c r="J1" s="467"/>
+      <c r="K1" s="467"/>
+      <c r="L1" s="467"/>
+      <c r="M1" s="467"/>
+      <c r="N1" s="467"/>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="495" t="s">
+      <c r="A2" s="498" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="495"/>
-      <c r="C2" s="495"/>
-      <c r="D2" s="495"/>
-      <c r="E2" s="495"/>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="495"/>
-      <c r="I2" s="495"/>
-      <c r="J2" s="495"/>
-      <c r="K2" s="495"/>
-      <c r="L2" s="495"/>
-      <c r="M2" s="495"/>
-      <c r="N2" s="495"/>
+      <c r="B2" s="498"/>
+      <c r="C2" s="498"/>
+      <c r="D2" s="498"/>
+      <c r="E2" s="498"/>
+      <c r="F2" s="498"/>
+      <c r="G2" s="498"/>
+      <c r="H2" s="498"/>
+      <c r="I2" s="498"/>
+      <c r="J2" s="498"/>
+      <c r="K2" s="498"/>
+      <c r="L2" s="498"/>
+      <c r="M2" s="498"/>
+      <c r="N2" s="498"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="8"/>
@@ -43168,54 +43188,54 @@
       <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="496" t="s">
+      <c r="A4" s="499" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="496"/>
-      <c r="C4" s="496"/>
-      <c r="D4" s="496"/>
-      <c r="E4" s="496"/>
-      <c r="F4" s="496"/>
-      <c r="G4" s="496"/>
-      <c r="H4" s="496"/>
-      <c r="I4" s="496"/>
-      <c r="J4" s="496"/>
-      <c r="K4" s="496"/>
-      <c r="L4" s="496"/>
-      <c r="M4" s="496"/>
-      <c r="N4" s="496"/>
+      <c r="B4" s="499"/>
+      <c r="C4" s="499"/>
+      <c r="D4" s="499"/>
+      <c r="E4" s="499"/>
+      <c r="F4" s="499"/>
+      <c r="G4" s="499"/>
+      <c r="H4" s="499"/>
+      <c r="I4" s="499"/>
+      <c r="J4" s="499"/>
+      <c r="K4" s="499"/>
+      <c r="L4" s="499"/>
+      <c r="M4" s="499"/>
+      <c r="N4" s="499"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="497"/>
-      <c r="B5" s="497"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="497"/>
-      <c r="I5" s="497"/>
-      <c r="J5" s="497"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="497"/>
-      <c r="M5" s="497"/>
-      <c r="N5" s="497"/>
+      <c r="A5" s="500"/>
+      <c r="B5" s="500"/>
+      <c r="C5" s="500"/>
+      <c r="D5" s="500"/>
+      <c r="E5" s="500"/>
+      <c r="F5" s="500"/>
+      <c r="G5" s="500"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="500"/>
+      <c r="J5" s="500"/>
+      <c r="K5" s="500"/>
+      <c r="L5" s="500"/>
+      <c r="M5" s="500"/>
+      <c r="N5" s="500"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="497"/>
-      <c r="B6" s="497"/>
-      <c r="C6" s="497"/>
-      <c r="D6" s="497"/>
-      <c r="E6" s="497"/>
-      <c r="F6" s="497"/>
-      <c r="G6" s="497"/>
-      <c r="H6" s="497"/>
-      <c r="I6" s="497"/>
-      <c r="J6" s="497"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="497"/>
-      <c r="M6" s="497"/>
-      <c r="N6" s="497"/>
+      <c r="A6" s="500"/>
+      <c r="B6" s="500"/>
+      <c r="C6" s="500"/>
+      <c r="D6" s="500"/>
+      <c r="E6" s="500"/>
+      <c r="F6" s="500"/>
+      <c r="G6" s="500"/>
+      <c r="H6" s="500"/>
+      <c r="I6" s="500"/>
+      <c r="J6" s="500"/>
+      <c r="K6" s="500"/>
+      <c r="L6" s="500"/>
+      <c r="M6" s="500"/>
+      <c r="N6" s="500"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="28"/>
@@ -43231,102 +43251,102 @@
       <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="460" t="s">
+      <c r="A8" s="463" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="460" t="s">
+      <c r="B8" s="463" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="498" t="s">
+      <c r="C8" s="501" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="460" t="s">
+      <c r="D8" s="463" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="492" t="s">
+      <c r="E8" s="495" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="492"/>
-      <c r="G8" s="492" t="s">
+      <c r="F8" s="495"/>
+      <c r="G8" s="495" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="492"/>
-      <c r="I8" s="492"/>
-      <c r="J8" s="492"/>
-      <c r="K8" s="492" t="s">
+      <c r="H8" s="495"/>
+      <c r="I8" s="495"/>
+      <c r="J8" s="495"/>
+      <c r="K8" s="495" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="492" t="s">
+      <c r="L8" s="495" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="493" t="s">
+      <c r="M8" s="496" t="s">
         <v>58</v>
       </c>
-      <c r="N8" s="493"/>
+      <c r="N8" s="496"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="460"/>
-      <c r="B9" s="460"/>
-      <c r="C9" s="499"/>
-      <c r="D9" s="460"/>
-      <c r="E9" s="492"/>
-      <c r="F9" s="492"/>
-      <c r="G9" s="492"/>
-      <c r="H9" s="492"/>
-      <c r="I9" s="492"/>
-      <c r="J9" s="492"/>
-      <c r="K9" s="492"/>
-      <c r="L9" s="492"/>
-      <c r="M9" s="493"/>
-      <c r="N9" s="493"/>
+      <c r="A9" s="463"/>
+      <c r="B9" s="463"/>
+      <c r="C9" s="502"/>
+      <c r="D9" s="463"/>
+      <c r="E9" s="495"/>
+      <c r="F9" s="495"/>
+      <c r="G9" s="495"/>
+      <c r="H9" s="495"/>
+      <c r="I9" s="495"/>
+      <c r="J9" s="495"/>
+      <c r="K9" s="495"/>
+      <c r="L9" s="495"/>
+      <c r="M9" s="496"/>
+      <c r="N9" s="496"/>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="460"/>
-      <c r="B10" s="460"/>
-      <c r="C10" s="499"/>
-      <c r="D10" s="460"/>
-      <c r="E10" s="501" t="s">
+      <c r="A10" s="463"/>
+      <c r="B10" s="463"/>
+      <c r="C10" s="502"/>
+      <c r="D10" s="463"/>
+      <c r="E10" s="504" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="501" t="s">
+      <c r="F10" s="504" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="492" t="s">
+      <c r="G10" s="495" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="492" t="s">
+      <c r="H10" s="495" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="492" t="s">
+      <c r="I10" s="495" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="492" t="s">
+      <c r="J10" s="495" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="492"/>
-      <c r="L10" s="492"/>
-      <c r="M10" s="494" t="s">
+      <c r="K10" s="495"/>
+      <c r="L10" s="495"/>
+      <c r="M10" s="497" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="494" t="s">
+      <c r="N10" s="497" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="460"/>
-      <c r="B11" s="460"/>
-      <c r="C11" s="500"/>
-      <c r="D11" s="460"/>
-      <c r="E11" s="501"/>
-      <c r="F11" s="501"/>
-      <c r="G11" s="492"/>
-      <c r="H11" s="492"/>
-      <c r="I11" s="492"/>
-      <c r="J11" s="492"/>
-      <c r="K11" s="492"/>
-      <c r="L11" s="492"/>
-      <c r="M11" s="494"/>
-      <c r="N11" s="494"/>
+      <c r="A11" s="463"/>
+      <c r="B11" s="463"/>
+      <c r="C11" s="503"/>
+      <c r="D11" s="463"/>
+      <c r="E11" s="504"/>
+      <c r="F11" s="504"/>
+      <c r="G11" s="495"/>
+      <c r="H11" s="495"/>
+      <c r="I11" s="495"/>
+      <c r="J11" s="495"/>
+      <c r="K11" s="495"/>
+      <c r="L11" s="495"/>
+      <c r="M11" s="497"/>
+      <c r="N11" s="497"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -43381,50 +43401,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="76" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="502" t="s">
+      <c r="A1" s="505" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="502"/>
-      <c r="C1" s="502"/>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
       <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:9" s="76" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="503" t="s">
+      <c r="A2" s="506" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="503"/>
-      <c r="D2" s="503"/>
-      <c r="E2" s="503"/>
-      <c r="F2" s="503"/>
-      <c r="G2" s="503"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9" s="76" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
       <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:9" s="70" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="505" t="s">
+      <c r="A4" s="508" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="505"/>
-      <c r="C4" s="505"/>
-      <c r="D4" s="505"/>
-      <c r="E4" s="505"/>
-      <c r="F4" s="505"/>
-      <c r="G4" s="505"/>
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="508"/>
       <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:9" s="70" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -43435,24 +43455,24 @@
       <c r="F5" s="72"/>
     </row>
     <row r="6" spans="1:9" s="41" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="507" t="s">
+      <c r="A6" s="510" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="507" t="s">
+      <c r="B6" s="510" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="506" t="s">
+      <c r="C6" s="509" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="506"/>
-      <c r="E6" s="506"/>
-      <c r="F6" s="506"/>
-      <c r="G6" s="506"/>
+      <c r="D6" s="509"/>
+      <c r="E6" s="509"/>
+      <c r="F6" s="509"/>
+      <c r="G6" s="509"/>
       <c r="H6" s="52"/>
     </row>
     <row r="7" spans="1:9" s="70" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="507"/>
-      <c r="B7" s="507"/>
+      <c r="A7" s="510"/>
+      <c r="B7" s="510"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -43471,8 +43491,8 @@
       <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="507"/>
-      <c r="B8" s="507"/>
+      <c r="A8" s="510"/>
+      <c r="B8" s="510"/>
       <c r="C8" s="77" t="s">
         <v>40</v>
       </c>
@@ -43525,66 +43545,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="502" t="s">
+      <c r="A1" s="505" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="502"/>
-      <c r="C1" s="502"/>
-      <c r="D1" s="502"/>
-      <c r="E1" s="502"/>
-      <c r="F1" s="502"/>
-      <c r="G1" s="502"/>
+      <c r="B1" s="505"/>
+      <c r="C1" s="505"/>
+      <c r="D1" s="505"/>
+      <c r="E1" s="505"/>
+      <c r="F1" s="505"/>
+      <c r="G1" s="505"/>
     </row>
     <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
-      <c r="A2" s="503" t="s">
+      <c r="A2" s="506" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="503"/>
-      <c r="C2" s="503"/>
-      <c r="D2" s="503"/>
-      <c r="E2" s="503"/>
-      <c r="F2" s="503"/>
-      <c r="G2" s="503"/>
+      <c r="B2" s="506"/>
+      <c r="C2" s="506"/>
+      <c r="D2" s="506"/>
+      <c r="E2" s="506"/>
+      <c r="F2" s="506"/>
+      <c r="G2" s="506"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="504"/>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
+      <c r="A3" s="507"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="508" t="s">
+      <c r="A4" s="511" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="508"/>
-      <c r="C4" s="508"/>
-      <c r="D4" s="508"/>
-      <c r="E4" s="508"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="508"/>
+      <c r="B4" s="511"/>
+      <c r="C4" s="511"/>
+      <c r="D4" s="511"/>
+      <c r="E4" s="511"/>
+      <c r="F4" s="511"/>
+      <c r="G4" s="511"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="509" t="s">
+      <c r="A5" s="512" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="509" t="s">
+      <c r="B5" s="512" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="510" t="s">
+      <c r="C5" s="513" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="510"/>
-      <c r="E5" s="510"/>
-      <c r="F5" s="510"/>
-      <c r="G5" s="510"/>
+      <c r="D5" s="513"/>
+      <c r="E5" s="513"/>
+      <c r="F5" s="513"/>
+      <c r="G5" s="513"/>
       <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="509"/>
-      <c r="B6" s="509"/>
+      <c r="A6" s="512"/>
+      <c r="B6" s="512"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -43602,8 +43622,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="509"/>
-      <c r="B7" s="509"/>
+      <c r="A7" s="512"/>
+      <c r="B7" s="512"/>
       <c r="C7" s="30" t="s">
         <v>40</v>
       </c>

--- a/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
+++ b/TMS_API/DMS.API/Template/CoSoTinhMucGiamGia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\duAn\TMS\TMS_PLX\TMS_API\DMS.API\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55318F4-AF3C-49E2-9105-095C5010B579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2101A52-3B28-47E6-A669-2E47BB08EC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28065" windowHeight="16440" tabRatio="802" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" tabRatio="802" xr2:uid="{03CF8CCF-0D47-4835-A9E4-4FB4ACEA969F}"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu gốc" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="231">
   <si>
     <t>CƠ SỞ TÍNH MỨC GIẢM GIÁ PHỔ THÔNG</t>
   </si>
@@ -2181,7 +2181,7 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="525">
+  <cellXfs count="518">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2908,13 +2908,6 @@
     <xf numFmtId="0" fontId="40" fillId="19" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="46" fillId="0" borderId="22" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2929,13 +2922,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2949,7 +2935,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="41" xfId="149" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="37" xfId="149" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="3" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2978,173 +2963,129 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="159" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="34" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="43" fillId="0" borderId="36" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="37" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="41" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="38" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="34" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="43" fillId="0" borderId="36" xfId="213" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="212" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="34" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="212" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="34" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="36" xfId="226" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3154,16 +3095,149 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="20" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="171" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="21" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="21" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3190,17 +3264,200 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="9" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="5" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="11" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="12" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="6" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="8" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="7" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="22" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="22" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="40" fillId="17" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="46" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3237,481 +3494,200 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="53" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="23" xfId="210" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="27" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="28" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="3" fontId="42" fillId="0" borderId="29" xfId="226" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="171" fontId="40" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="11" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="226" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="30" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="9" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="31" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="6" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="7" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="27" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="28" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="17" borderId="29" xfId="226" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="42" fillId="2" borderId="23" xfId="210" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="149" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="37" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="41" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="38" xfId="214" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="8" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="6" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="7" xfId="212" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="212" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="149" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="22" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="9" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="5" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="11" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="12" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="6" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="8" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="7" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="21" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="21" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="149" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="47" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="9" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="3" xfId="149" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="46" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="17" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="18" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="34" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="40" fillId="17" borderId="36" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="36" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="46" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="47" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="45" fillId="2" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3720,12 +3696,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3736,14 +3706,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3756,31 +3718,25 @@
     <xf numFmtId="41" fontId="5" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3790,11 +3746,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4435,10 +4409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55DFD16-6734-4240-8F57-B4E46BBCF2BD}">
-  <dimension ref="A2:AH200"/>
+  <dimension ref="A1:AH200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172:B172"/>
+    <sheetView tabSelected="1" topLeftCell="F29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y31" sqref="Y31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="30" customHeight="1"/>
@@ -4464,356 +4438,370 @@
     <col min="21" max="21" width="25.5703125" customWidth="1"/>
     <col min="22" max="22" width="20.85546875" customWidth="1"/>
     <col min="23" max="23" width="17.5703125" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="17" customWidth="1"/>
+    <col min="24" max="24" width="28.42578125" customWidth="1"/>
+    <col min="25" max="25" width="26.42578125" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" ht="30" customHeight="1">
-      <c r="G2" s="310"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311"/>
-      <c r="K2" s="311"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="312"/>
-      <c r="R2" s="270" t="s">
+    <row r="1" spans="2:26" ht="30" hidden="1" customHeight="1"/>
+    <row r="2" spans="2:26" ht="30" hidden="1" customHeight="1">
+      <c r="G2" s="433"/>
+      <c r="H2" s="434"/>
+      <c r="I2" s="434"/>
+      <c r="J2" s="434"/>
+      <c r="K2" s="434"/>
+      <c r="L2" s="434"/>
+      <c r="M2" s="435"/>
+      <c r="R2" s="443" t="s">
         <v>173</v>
       </c>
-      <c r="S2" s="271"/>
-      <c r="T2" s="271"/>
-      <c r="U2" s="271"/>
-      <c r="V2" s="271"/>
-      <c r="W2" s="271"/>
-      <c r="X2" s="271"/>
-      <c r="Y2" s="271"/>
-      <c r="Z2" s="272"/>
-    </row>
-    <row r="3" spans="2:26" ht="30" customHeight="1">
-      <c r="B3" s="286" t="s">
+      <c r="S2" s="444"/>
+      <c r="T2" s="444"/>
+      <c r="U2" s="444"/>
+      <c r="V2" s="444"/>
+      <c r="W2" s="444"/>
+      <c r="X2" s="444"/>
+      <c r="Y2" s="444"/>
+      <c r="Z2" s="445"/>
+    </row>
+    <row r="3" spans="2:26" ht="30" hidden="1" customHeight="1">
+      <c r="B3" s="409" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="314"/>
-      <c r="L3" s="314"/>
-      <c r="M3" s="315"/>
-      <c r="R3" s="259"/>
-      <c r="S3" s="280"/>
-      <c r="T3" s="280"/>
-      <c r="U3" s="280"/>
-      <c r="V3" s="280"/>
-      <c r="W3" s="280"/>
-      <c r="X3" s="280"/>
-      <c r="Y3" s="280"/>
-      <c r="Z3" s="260"/>
-    </row>
-    <row r="4" spans="2:26" ht="42" customHeight="1">
-      <c r="B4" s="286"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286"/>
-      <c r="E4" s="286"/>
-      <c r="G4" s="293" t="s">
+      <c r="C3" s="409"/>
+      <c r="D3" s="409"/>
+      <c r="E3" s="409"/>
+      <c r="G3" s="436"/>
+      <c r="H3" s="437"/>
+      <c r="I3" s="437"/>
+      <c r="J3" s="437"/>
+      <c r="K3" s="437"/>
+      <c r="L3" s="437"/>
+      <c r="M3" s="438"/>
+      <c r="R3" s="254"/>
+      <c r="S3" s="451"/>
+      <c r="T3" s="451"/>
+      <c r="U3" s="451"/>
+      <c r="V3" s="451"/>
+      <c r="W3" s="451"/>
+      <c r="X3" s="451"/>
+      <c r="Y3" s="451"/>
+      <c r="Z3" s="255"/>
+    </row>
+    <row r="4" spans="2:26" ht="42" hidden="1" customHeight="1">
+      <c r="B4" s="409"/>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
+      <c r="G4" s="416" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="294"/>
-      <c r="I4" s="316" t="s">
+      <c r="H4" s="417"/>
+      <c r="I4" s="439" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="317"/>
-      <c r="K4" s="317"/>
-      <c r="L4" s="317"/>
-      <c r="M4" s="318"/>
-      <c r="R4" s="273" t="s">
+      <c r="J4" s="440"/>
+      <c r="K4" s="440"/>
+      <c r="L4" s="440"/>
+      <c r="M4" s="441"/>
+      <c r="R4" s="446" t="s">
         <v>176</v>
       </c>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
-      <c r="X4" s="274"/>
-      <c r="Y4" s="274"/>
-      <c r="Z4" s="275"/>
-    </row>
-    <row r="5" spans="2:26" ht="63" customHeight="1">
+      <c r="S4" s="447"/>
+      <c r="T4" s="447"/>
+      <c r="U4" s="447"/>
+      <c r="V4" s="447"/>
+      <c r="W4" s="447"/>
+      <c r="X4" s="447"/>
+      <c r="Y4" s="447"/>
+      <c r="Z4" s="448"/>
+    </row>
+    <row r="5" spans="2:26" ht="63" hidden="1" customHeight="1">
       <c r="B5" s="237" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="286" t="s">
+      <c r="C5" s="409" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="409"/>
       <c r="E5" s="237" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="295"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="297" t="s">
+      <c r="G5" s="418"/>
+      <c r="H5" s="419"/>
+      <c r="I5" s="420" t="s">
         <v>180</v>
       </c>
-      <c r="J5" s="298"/>
-      <c r="K5" s="307" t="s">
+      <c r="J5" s="421"/>
+      <c r="K5" s="430" t="s">
         <v>181</v>
       </c>
-      <c r="L5" s="308"/>
-      <c r="M5" s="309"/>
-      <c r="R5" s="256" t="s">
+      <c r="L5" s="431"/>
+      <c r="M5" s="432"/>
+      <c r="R5" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="276" t="s">
+      <c r="S5" s="449" t="s">
         <v>53</v>
       </c>
-      <c r="T5" s="277"/>
-      <c r="U5" s="276" t="s">
+      <c r="T5" s="450"/>
+      <c r="U5" s="449" t="s">
         <v>182</v>
       </c>
-      <c r="V5" s="277"/>
-      <c r="W5" s="276" t="s">
+      <c r="V5" s="450"/>
+      <c r="W5" s="449" t="s">
         <v>183</v>
       </c>
-      <c r="X5" s="277"/>
-      <c r="Y5" s="276" t="s">
+      <c r="X5" s="450"/>
+      <c r="Y5" s="449" t="s">
         <v>184</v>
       </c>
-      <c r="Z5" s="277"/>
-    </row>
-    <row r="6" spans="2:26" ht="30" customHeight="1">
+      <c r="Z5" s="450"/>
+    </row>
+    <row r="6" spans="2:26" ht="30" hidden="1" customHeight="1">
       <c r="B6" s="238"/>
-      <c r="C6" s="354"/>
-      <c r="D6" s="354"/>
+      <c r="C6" s="442"/>
+      <c r="D6" s="442"/>
       <c r="E6" s="238"/>
-      <c r="G6" s="319"/>
-      <c r="H6" s="320"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="301"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="303"/>
-      <c r="R6" s="257" t="s">
+      <c r="G6" s="262"/>
+      <c r="H6" s="263"/>
+      <c r="I6" s="422"/>
+      <c r="J6" s="423"/>
+      <c r="K6" s="424"/>
+      <c r="L6" s="425"/>
+      <c r="M6" s="426"/>
+      <c r="R6" s="252" t="s">
         <v>144</v>
       </c>
-      <c r="S6" s="281"/>
-      <c r="T6" s="282"/>
-      <c r="U6" s="282"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="282"/>
-      <c r="X6" s="282"/>
-      <c r="Y6" s="282"/>
-      <c r="Z6" s="283"/>
-    </row>
-    <row r="7" spans="2:26" ht="30" customHeight="1">
+      <c r="S6" s="364"/>
+      <c r="T6" s="365"/>
+      <c r="U6" s="365"/>
+      <c r="V6" s="365"/>
+      <c r="W6" s="365"/>
+      <c r="X6" s="365"/>
+      <c r="Y6" s="365"/>
+      <c r="Z6" s="366"/>
+    </row>
+    <row r="7" spans="2:26" ht="30" hidden="1" customHeight="1">
       <c r="B7" s="238"/>
-      <c r="C7" s="354"/>
-      <c r="D7" s="354"/>
+      <c r="C7" s="442"/>
+      <c r="D7" s="442"/>
       <c r="E7" s="238"/>
-      <c r="G7" s="319"/>
-      <c r="H7" s="320"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="302"/>
-      <c r="M7" s="303"/>
-      <c r="R7" s="244">
+      <c r="G7" s="262"/>
+      <c r="H7" s="263"/>
+      <c r="I7" s="422"/>
+      <c r="J7" s="423"/>
+      <c r="K7" s="424"/>
+      <c r="L7" s="425"/>
+      <c r="M7" s="426"/>
+      <c r="R7" s="242">
         <v>1</v>
       </c>
-      <c r="S7" s="284"/>
-      <c r="T7" s="285"/>
-      <c r="U7" s="278"/>
-      <c r="V7" s="279"/>
-      <c r="W7" s="278"/>
-      <c r="X7" s="279"/>
-      <c r="Y7" s="278"/>
-      <c r="Z7" s="279"/>
-    </row>
-    <row r="8" spans="2:26" ht="30" customHeight="1">
+      <c r="S7" s="282"/>
+      <c r="T7" s="283"/>
+      <c r="U7" s="280"/>
+      <c r="V7" s="281"/>
+      <c r="W7" s="280"/>
+      <c r="X7" s="281"/>
+      <c r="Y7" s="280"/>
+      <c r="Z7" s="281"/>
+    </row>
+    <row r="8" spans="2:26" ht="30" hidden="1" customHeight="1">
       <c r="B8" s="238"/>
-      <c r="C8" s="354"/>
-      <c r="D8" s="354"/>
+      <c r="C8" s="442"/>
+      <c r="D8" s="442"/>
       <c r="E8" s="238"/>
-      <c r="G8" s="319"/>
-      <c r="H8" s="320"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="300"/>
-      <c r="K8" s="301"/>
-      <c r="L8" s="302"/>
-      <c r="M8" s="303"/>
-      <c r="R8" s="244">
+      <c r="G8" s="262"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="422"/>
+      <c r="J8" s="423"/>
+      <c r="K8" s="424"/>
+      <c r="L8" s="425"/>
+      <c r="M8" s="426"/>
+      <c r="R8" s="242">
         <v>2</v>
       </c>
-      <c r="S8" s="284"/>
-      <c r="T8" s="285"/>
-      <c r="U8" s="278"/>
-      <c r="V8" s="279"/>
-      <c r="W8" s="278"/>
-      <c r="X8" s="279"/>
-      <c r="Y8" s="278"/>
-      <c r="Z8" s="279"/>
-    </row>
-    <row r="9" spans="2:26" ht="30" customHeight="1">
+      <c r="S8" s="282"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="280"/>
+      <c r="V8" s="281"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="281"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="281"/>
+    </row>
+    <row r="9" spans="2:26" ht="30" hidden="1" customHeight="1">
       <c r="B9" s="238"/>
-      <c r="C9" s="354"/>
-      <c r="D9" s="354"/>
+      <c r="C9" s="442"/>
+      <c r="D9" s="442"/>
       <c r="E9" s="238"/>
-      <c r="G9" s="319"/>
-      <c r="H9" s="320"/>
-      <c r="I9" s="299"/>
-      <c r="J9" s="300"/>
-      <c r="K9" s="301"/>
-      <c r="L9" s="302"/>
-      <c r="M9" s="303"/>
-      <c r="R9" s="244">
+      <c r="G9" s="262"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="422"/>
+      <c r="J9" s="423"/>
+      <c r="K9" s="424"/>
+      <c r="L9" s="425"/>
+      <c r="M9" s="426"/>
+      <c r="R9" s="242">
         <v>3</v>
       </c>
-      <c r="S9" s="284"/>
-      <c r="T9" s="285"/>
-      <c r="U9" s="278"/>
-      <c r="V9" s="279"/>
-      <c r="W9" s="278"/>
-      <c r="X9" s="279"/>
-      <c r="Y9" s="278"/>
-      <c r="Z9" s="279"/>
-    </row>
-    <row r="10" spans="2:26" ht="30" customHeight="1">
-      <c r="G10" s="287" t="s">
+      <c r="S9" s="282"/>
+      <c r="T9" s="283"/>
+      <c r="U9" s="280"/>
+      <c r="V9" s="281"/>
+      <c r="W9" s="280"/>
+      <c r="X9" s="281"/>
+      <c r="Y9" s="280"/>
+      <c r="Z9" s="281"/>
+    </row>
+    <row r="10" spans="2:26" ht="30" hidden="1" customHeight="1">
+      <c r="G10" s="410" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="288"/>
-      <c r="I10" s="288"/>
-      <c r="J10" s="288"/>
-      <c r="K10" s="288"/>
-      <c r="L10" s="288"/>
-      <c r="M10" s="289"/>
-      <c r="R10" s="244">
+      <c r="H10" s="411"/>
+      <c r="I10" s="411"/>
+      <c r="J10" s="411"/>
+      <c r="K10" s="411"/>
+      <c r="L10" s="411"/>
+      <c r="M10" s="412"/>
+      <c r="R10" s="242">
         <v>4</v>
       </c>
-      <c r="S10" s="284"/>
-      <c r="T10" s="285"/>
-      <c r="U10" s="278"/>
-      <c r="V10" s="279"/>
-      <c r="W10" s="278"/>
-      <c r="X10" s="279"/>
-      <c r="Y10" s="278"/>
-      <c r="Z10" s="279"/>
-    </row>
-    <row r="11" spans="2:26" ht="30" customHeight="1">
-      <c r="G11" s="304" t="s">
+      <c r="S10" s="282"/>
+      <c r="T10" s="283"/>
+      <c r="U10" s="280"/>
+      <c r="V10" s="281"/>
+      <c r="W10" s="280"/>
+      <c r="X10" s="281"/>
+      <c r="Y10" s="280"/>
+      <c r="Z10" s="281"/>
+    </row>
+    <row r="11" spans="2:26" ht="30" hidden="1" customHeight="1">
+      <c r="G11" s="427" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="305"/>
-      <c r="I11" s="305"/>
-      <c r="J11" s="305"/>
-      <c r="K11" s="305"/>
-      <c r="L11" s="305"/>
-      <c r="M11" s="306"/>
-      <c r="R11" s="257" t="s">
+      <c r="H11" s="428"/>
+      <c r="I11" s="428"/>
+      <c r="J11" s="428"/>
+      <c r="K11" s="428"/>
+      <c r="L11" s="428"/>
+      <c r="M11" s="429"/>
+      <c r="R11" s="252" t="s">
         <v>155</v>
       </c>
-      <c r="S11" s="281"/>
-      <c r="T11" s="282"/>
-      <c r="U11" s="282"/>
-      <c r="V11" s="282"/>
-      <c r="W11" s="282"/>
-      <c r="X11" s="282"/>
-      <c r="Y11" s="282"/>
-      <c r="Z11" s="283"/>
-    </row>
-    <row r="12" spans="2:26" ht="30" customHeight="1">
-      <c r="G12" s="287" t="s">
+      <c r="S11" s="364"/>
+      <c r="T11" s="365"/>
+      <c r="U11" s="365"/>
+      <c r="V11" s="365"/>
+      <c r="W11" s="365"/>
+      <c r="X11" s="365"/>
+      <c r="Y11" s="365"/>
+      <c r="Z11" s="366"/>
+    </row>
+    <row r="12" spans="2:26" ht="30" hidden="1" customHeight="1">
+      <c r="G12" s="410" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="288"/>
-      <c r="I12" s="288"/>
-      <c r="J12" s="288"/>
-      <c r="K12" s="288"/>
-      <c r="L12" s="288"/>
-      <c r="M12" s="289"/>
-      <c r="R12" s="244">
+      <c r="H12" s="411"/>
+      <c r="I12" s="411"/>
+      <c r="J12" s="411"/>
+      <c r="K12" s="411"/>
+      <c r="L12" s="411"/>
+      <c r="M12" s="412"/>
+      <c r="R12" s="242">
         <v>1</v>
       </c>
-      <c r="S12" s="284"/>
-      <c r="T12" s="285"/>
-      <c r="U12" s="278"/>
-      <c r="V12" s="279"/>
-      <c r="W12" s="278"/>
-      <c r="X12" s="279"/>
-      <c r="Y12" s="278"/>
-      <c r="Z12" s="279"/>
-    </row>
-    <row r="13" spans="2:26" ht="30" customHeight="1">
-      <c r="G13" s="290" t="s">
+      <c r="S12" s="282"/>
+      <c r="T12" s="283"/>
+      <c r="U12" s="280"/>
+      <c r="V12" s="281"/>
+      <c r="W12" s="280"/>
+      <c r="X12" s="281"/>
+      <c r="Y12" s="280"/>
+      <c r="Z12" s="281"/>
+    </row>
+    <row r="13" spans="2:26" ht="30" hidden="1" customHeight="1">
+      <c r="G13" s="413" t="s">
         <v>187</v>
       </c>
-      <c r="H13" s="291"/>
-      <c r="I13" s="291"/>
-      <c r="J13" s="291"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="291"/>
-      <c r="M13" s="292"/>
-      <c r="R13" s="244">
+      <c r="H13" s="414"/>
+      <c r="I13" s="414"/>
+      <c r="J13" s="414"/>
+      <c r="K13" s="414"/>
+      <c r="L13" s="414"/>
+      <c r="M13" s="415"/>
+      <c r="R13" s="242">
         <v>2</v>
       </c>
-      <c r="S13" s="284"/>
-      <c r="T13" s="285"/>
-      <c r="U13" s="278"/>
-      <c r="V13" s="279"/>
-      <c r="W13" s="278"/>
-      <c r="X13" s="279"/>
-      <c r="Y13" s="278"/>
-      <c r="Z13" s="279"/>
-    </row>
-    <row r="14" spans="2:26" ht="30" customHeight="1">
-      <c r="R14" s="244">
+      <c r="S13" s="282"/>
+      <c r="T13" s="283"/>
+      <c r="U13" s="280"/>
+      <c r="V13" s="281"/>
+      <c r="W13" s="280"/>
+      <c r="X13" s="281"/>
+      <c r="Y13" s="280"/>
+      <c r="Z13" s="281"/>
+    </row>
+    <row r="14" spans="2:26" ht="15.75" hidden="1" customHeight="1">
+      <c r="R14" s="242">
         <v>3</v>
       </c>
-      <c r="S14" s="284"/>
-      <c r="T14" s="285"/>
-      <c r="U14" s="278"/>
-      <c r="V14" s="279"/>
-      <c r="W14" s="278"/>
-      <c r="X14" s="279"/>
-      <c r="Y14" s="278"/>
-      <c r="Z14" s="279"/>
-    </row>
-    <row r="15" spans="2:26" ht="30" customHeight="1">
-      <c r="R15" s="244">
+      <c r="S14" s="282"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="280"/>
+      <c r="V14" s="281"/>
+      <c r="W14" s="280"/>
+      <c r="X14" s="281"/>
+      <c r="Y14" s="280"/>
+      <c r="Z14" s="281"/>
+    </row>
+    <row r="15" spans="2:26" ht="30" hidden="1" customHeight="1">
+      <c r="R15" s="242">
         <v>4</v>
       </c>
-      <c r="S15" s="284"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="278"/>
-      <c r="V15" s="279"/>
-      <c r="W15" s="278"/>
-      <c r="X15" s="279"/>
-      <c r="Y15" s="278"/>
-      <c r="Z15" s="279"/>
-    </row>
+      <c r="S15" s="282"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="280"/>
+      <c r="V15" s="281"/>
+      <c r="W15" s="280"/>
+      <c r="X15" s="281"/>
+      <c r="Y15" s="280"/>
+      <c r="Z15" s="281"/>
+    </row>
+    <row r="16" spans="2:26" ht="30" hidden="1" customHeight="1"/>
+    <row r="17" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="18" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="19" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="20" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="21" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="22" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="23" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="24" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="25" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="26" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="27" spans="1:23" ht="30" hidden="1" customHeight="1"/>
+    <row r="28" spans="1:23" ht="30" hidden="1" customHeight="1"/>
     <row r="31" spans="1:23" ht="30" customHeight="1">
-      <c r="A31" s="355" t="s">
+      <c r="A31" s="276" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="355"/>
-      <c r="C31" s="355"/>
-      <c r="D31" s="355"/>
+      <c r="B31" s="276"/>
+      <c r="C31" s="276"/>
+      <c r="D31" s="276"/>
       <c r="E31" s="87"/>
       <c r="F31" s="88"/>
       <c r="G31" s="88"/>
       <c r="H31" s="88"/>
       <c r="I31" s="87"/>
-      <c r="J31" s="356" t="s">
+      <c r="J31" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="K31" s="356"/>
-      <c r="L31" s="356"/>
-      <c r="M31" s="356"/>
-      <c r="N31" s="356"/>
-      <c r="O31" s="356"/>
-      <c r="P31" s="356"/>
+      <c r="K31" s="277"/>
+      <c r="L31" s="277"/>
+      <c r="M31" s="277"/>
+      <c r="N31" s="277"/>
+      <c r="O31" s="277"/>
+      <c r="P31" s="277"/>
       <c r="Q31" s="87"/>
       <c r="R31" s="87"/>
       <c r="S31" s="87"/>
@@ -4823,26 +4811,26 @@
       <c r="W31" s="89"/>
     </row>
     <row r="32" spans="1:23" ht="30" customHeight="1">
-      <c r="A32" s="332" t="s">
+      <c r="A32" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="332"/>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
       <c r="E32" s="87"/>
       <c r="F32" s="90"/>
       <c r="G32" s="90"/>
       <c r="H32" s="90"/>
       <c r="I32" s="87"/>
-      <c r="J32" s="394" t="s">
+      <c r="J32" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="K32" s="394"/>
-      <c r="L32" s="394"/>
-      <c r="M32" s="394"/>
-      <c r="N32" s="394"/>
-      <c r="O32" s="394"/>
-      <c r="P32" s="394"/>
+      <c r="K32" s="279"/>
+      <c r="L32" s="279"/>
+      <c r="M32" s="279"/>
+      <c r="N32" s="279"/>
+      <c r="O32" s="279"/>
+      <c r="P32" s="279"/>
       <c r="Q32" s="88"/>
       <c r="R32" s="88"/>
       <c r="S32" s="88"/>
@@ -4881,24 +4869,24 @@
       <c r="AA33" s="89"/>
     </row>
     <row r="34" spans="1:27" ht="30" customHeight="1">
-      <c r="A34" s="395" t="s">
+      <c r="A34" s="265" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="395"/>
-      <c r="C34" s="395"/>
-      <c r="D34" s="395"/>
-      <c r="E34" s="395"/>
-      <c r="F34" s="395"/>
-      <c r="G34" s="395"/>
-      <c r="H34" s="395"/>
-      <c r="I34" s="395"/>
-      <c r="J34" s="395"/>
-      <c r="K34" s="395"/>
-      <c r="L34" s="395"/>
-      <c r="M34" s="395"/>
-      <c r="N34" s="395"/>
-      <c r="O34" s="395"/>
-      <c r="P34" s="395"/>
+      <c r="B34" s="265"/>
+      <c r="C34" s="265"/>
+      <c r="D34" s="265"/>
+      <c r="E34" s="265"/>
+      <c r="F34" s="265"/>
+      <c r="G34" s="265"/>
+      <c r="H34" s="265"/>
+      <c r="I34" s="265"/>
+      <c r="J34" s="265"/>
+      <c r="K34" s="265"/>
+      <c r="L34" s="265"/>
+      <c r="M34" s="265"/>
+      <c r="N34" s="265"/>
+      <c r="O34" s="265"/>
+      <c r="P34" s="265"/>
       <c r="Q34" s="97"/>
       <c r="R34" s="97"/>
       <c r="S34" s="97"/>
@@ -4912,22 +4900,22 @@
       <c r="AA34" s="86"/>
     </row>
     <row r="35" spans="1:27" ht="30" customHeight="1">
-      <c r="A35" s="333"/>
-      <c r="B35" s="333"/>
-      <c r="C35" s="333"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="333"/>
-      <c r="G35" s="333"/>
-      <c r="H35" s="333"/>
-      <c r="I35" s="333"/>
-      <c r="J35" s="333"/>
-      <c r="K35" s="333"/>
-      <c r="L35" s="333"/>
-      <c r="M35" s="333"/>
-      <c r="N35" s="333"/>
-      <c r="O35" s="333"/>
-      <c r="P35" s="333"/>
+      <c r="A35" s="266"/>
+      <c r="B35" s="266"/>
+      <c r="C35" s="266"/>
+      <c r="D35" s="266"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
+      <c r="G35" s="266"/>
+      <c r="H35" s="266"/>
+      <c r="I35" s="266"/>
+      <c r="J35" s="266"/>
+      <c r="K35" s="266"/>
+      <c r="L35" s="266"/>
+      <c r="M35" s="266"/>
+      <c r="N35" s="266"/>
+      <c r="O35" s="266"/>
+      <c r="P35" s="266"/>
       <c r="Q35" s="99"/>
       <c r="R35" s="99"/>
       <c r="S35" s="99"/>
@@ -4970,92 +4958,92 @@
       <c r="AA36" s="86"/>
     </row>
     <row r="37" spans="1:27" ht="30" customHeight="1">
-      <c r="A37" s="397" t="s">
+      <c r="A37" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="397" t="s">
+      <c r="B37" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="397" t="s">
+      <c r="C37" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="368" t="s">
+      <c r="D37" s="273" t="s">
         <v>110</v>
       </c>
-      <c r="E37" s="364" t="s">
+      <c r="E37" s="267" t="s">
         <v>111</v>
       </c>
-      <c r="F37" s="402"/>
-      <c r="G37" s="365"/>
-      <c r="H37" s="368" t="s">
+      <c r="F37" s="268"/>
+      <c r="G37" s="269"/>
+      <c r="H37" s="273" t="s">
         <v>112</v>
       </c>
-      <c r="I37" s="364" t="s">
+      <c r="I37" s="267" t="s">
         <v>113</v>
       </c>
-      <c r="J37" s="402"/>
-      <c r="K37" s="402"/>
-      <c r="L37" s="365"/>
-      <c r="M37" s="364" t="s">
+      <c r="J37" s="268"/>
+      <c r="K37" s="268"/>
+      <c r="L37" s="269"/>
+      <c r="M37" s="267" t="s">
         <v>114</v>
       </c>
-      <c r="N37" s="402"/>
-      <c r="O37" s="402"/>
-      <c r="P37" s="365"/>
+      <c r="N37" s="268"/>
+      <c r="O37" s="268"/>
+      <c r="P37" s="269"/>
       <c r="Q37" s="103"/>
       <c r="R37" s="103"/>
       <c r="S37" s="103"/>
-      <c r="T37" s="445" t="s">
+      <c r="T37" s="392" t="s">
         <v>171</v>
       </c>
-      <c r="U37" s="436" t="s">
+      <c r="U37" s="285" t="s">
         <v>53</v>
       </c>
-      <c r="V37" s="436" t="s">
+      <c r="V37" s="285" t="s">
         <v>188</v>
       </c>
-      <c r="W37" s="436"/>
-      <c r="X37" s="436"/>
-      <c r="Y37" s="460" t="s">
+      <c r="W37" s="285"/>
+      <c r="X37" s="285"/>
+      <c r="Y37" s="264" t="s">
         <v>189</v>
       </c>
       <c r="Z37" s="104"/>
       <c r="AA37" s="104"/>
     </row>
     <row r="38" spans="1:27" ht="30" customHeight="1">
-      <c r="A38" s="398"/>
-      <c r="B38" s="398"/>
-      <c r="C38" s="398"/>
-      <c r="D38" s="369"/>
-      <c r="E38" s="366"/>
-      <c r="F38" s="403"/>
-      <c r="G38" s="367"/>
-      <c r="H38" s="369"/>
-      <c r="I38" s="366"/>
-      <c r="J38" s="403"/>
-      <c r="K38" s="403"/>
-      <c r="L38" s="367"/>
-      <c r="M38" s="366"/>
-      <c r="N38" s="403"/>
-      <c r="O38" s="403"/>
-      <c r="P38" s="367"/>
+      <c r="A38" s="330"/>
+      <c r="B38" s="330"/>
+      <c r="C38" s="330"/>
+      <c r="D38" s="274"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="272"/>
+      <c r="H38" s="274"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="271"/>
+      <c r="K38" s="271"/>
+      <c r="L38" s="272"/>
+      <c r="M38" s="270"/>
+      <c r="N38" s="271"/>
+      <c r="O38" s="271"/>
+      <c r="P38" s="272"/>
       <c r="Q38" s="103"/>
       <c r="R38" s="103"/>
       <c r="S38" s="103"/>
-      <c r="T38" s="446"/>
-      <c r="U38" s="436"/>
-      <c r="V38" s="436"/>
-      <c r="W38" s="436"/>
-      <c r="X38" s="436"/>
-      <c r="Y38" s="460"/>
+      <c r="T38" s="393"/>
+      <c r="U38" s="285"/>
+      <c r="V38" s="285"/>
+      <c r="W38" s="285"/>
+      <c r="X38" s="285"/>
+      <c r="Y38" s="264"/>
       <c r="Z38" s="104"/>
       <c r="AA38" s="104"/>
     </row>
     <row r="39" spans="1:27" ht="34.5" customHeight="1">
-      <c r="A39" s="399"/>
-      <c r="B39" s="399"/>
-      <c r="C39" s="399"/>
-      <c r="D39" s="370"/>
+      <c r="A39" s="331"/>
+      <c r="B39" s="331"/>
+      <c r="C39" s="331"/>
+      <c r="D39" s="275"/>
       <c r="E39" s="105" t="s">
         <v>115</v>
       </c>
@@ -5065,28 +5053,28 @@
       <c r="G39" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="H39" s="370"/>
-      <c r="I39" s="386" t="s">
+      <c r="H39" s="275"/>
+      <c r="I39" s="288" t="s">
         <v>118</v>
       </c>
-      <c r="J39" s="387"/>
-      <c r="K39" s="386" t="s">
+      <c r="J39" s="289"/>
+      <c r="K39" s="288" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="387"/>
-      <c r="M39" s="386" t="s">
+      <c r="L39" s="289"/>
+      <c r="M39" s="288" t="s">
         <v>120</v>
       </c>
-      <c r="N39" s="387"/>
-      <c r="O39" s="386" t="s">
+      <c r="N39" s="289"/>
+      <c r="O39" s="288" t="s">
         <v>119</v>
       </c>
-      <c r="P39" s="387"/>
+      <c r="P39" s="289"/>
       <c r="Q39" s="103"/>
       <c r="R39" s="103"/>
       <c r="S39" s="103"/>
-      <c r="T39" s="447"/>
-      <c r="U39" s="436"/>
+      <c r="T39" s="394"/>
+      <c r="U39" s="285"/>
       <c r="V39" s="106" t="s">
         <v>121</v>
       </c>
@@ -5096,7 +5084,7 @@
       <c r="X39" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="Y39" s="460"/>
+      <c r="Y39" s="264"/>
       <c r="Z39" s="107"/>
       <c r="AA39" s="107"/>
     </row>
@@ -5125,33 +5113,31 @@
       <c r="H40" s="110">
         <v>-6</v>
       </c>
-      <c r="I40" s="389">
+      <c r="I40" s="290">
         <v>-7</v>
       </c>
-      <c r="J40" s="390"/>
-      <c r="K40" s="389">
+      <c r="J40" s="291"/>
+      <c r="K40" s="290">
         <v>-8</v>
       </c>
-      <c r="L40" s="390"/>
-      <c r="M40" s="420" t="s">
+      <c r="L40" s="291"/>
+      <c r="M40" s="327" t="s">
         <v>197</v>
       </c>
-      <c r="N40" s="421"/>
-      <c r="O40" s="420" t="s">
+      <c r="N40" s="328"/>
+      <c r="O40" s="327" t="s">
         <v>198</v>
       </c>
-      <c r="P40" s="421"/>
+      <c r="P40" s="328"/>
       <c r="Q40" s="111"/>
       <c r="R40" s="111"/>
       <c r="S40" s="111"/>
-      <c r="T40" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="U40" s="451"/>
-      <c r="V40" s="452"/>
-      <c r="W40" s="452"/>
-      <c r="X40" s="452"/>
-      <c r="Y40" s="453"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="395"/>
+      <c r="V40" s="396"/>
+      <c r="W40" s="396"/>
+      <c r="X40" s="396"/>
+      <c r="Y40" s="397"/>
       <c r="Z40" s="113"/>
       <c r="AA40" s="113"/>
     </row>
@@ -5166,23 +5152,24 @@
       <c r="F41" s="118"/>
       <c r="G41" s="118"/>
       <c r="H41" s="123"/>
-      <c r="I41" s="443"/>
-      <c r="J41" s="444"/>
-      <c r="K41" s="430"/>
-      <c r="L41" s="431"/>
-      <c r="M41" s="430"/>
-      <c r="N41" s="431"/>
-      <c r="O41" s="430"/>
-      <c r="P41" s="431"/>
+      <c r="I41" s="378"/>
+      <c r="J41" s="379"/>
+      <c r="K41" s="286"/>
+      <c r="L41" s="287"/>
+      <c r="M41" s="286"/>
+      <c r="N41" s="287"/>
+      <c r="O41" s="286"/>
+      <c r="P41" s="287"/>
       <c r="Q41" s="119"/>
       <c r="R41" s="119"/>
       <c r="S41" s="119"/>
       <c r="T41" s="239">
         <v>1</v>
       </c>
-      <c r="U41" s="243"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="91"/>
+      <c r="U41" s="241"/>
+      <c r="V41" s="250"/>
+      <c r="W41" s="260"/>
+      <c r="X41" s="249"/>
       <c r="Y41" s="240" t="s">
         <v>199</v>
       </c>
@@ -5200,24 +5187,24 @@
       <c r="F42" s="118"/>
       <c r="G42" s="118"/>
       <c r="H42" s="123"/>
-      <c r="I42" s="443"/>
-      <c r="J42" s="444"/>
-      <c r="K42" s="430"/>
-      <c r="L42" s="431"/>
-      <c r="M42" s="430"/>
-      <c r="N42" s="431"/>
-      <c r="O42" s="430"/>
-      <c r="P42" s="431"/>
+      <c r="I42" s="378"/>
+      <c r="J42" s="379"/>
+      <c r="K42" s="286"/>
+      <c r="L42" s="287"/>
+      <c r="M42" s="286"/>
+      <c r="N42" s="287"/>
+      <c r="O42" s="286"/>
+      <c r="P42" s="287"/>
       <c r="Q42" s="119"/>
       <c r="R42" s="119"/>
       <c r="S42" s="119"/>
-      <c r="T42" s="245">
+      <c r="T42" s="243">
         <v>2</v>
       </c>
       <c r="U42" s="236"/>
-      <c r="V42" s="86"/>
+      <c r="V42" s="232"/>
       <c r="W42" s="86"/>
-      <c r="X42" s="87"/>
+      <c r="X42" s="233"/>
       <c r="Y42" s="240" t="s">
         <v>199</v>
       </c>
@@ -5235,24 +5222,24 @@
       <c r="F43" s="118"/>
       <c r="G43" s="118"/>
       <c r="H43" s="123"/>
-      <c r="I43" s="443"/>
-      <c r="J43" s="444"/>
-      <c r="K43" s="430"/>
-      <c r="L43" s="431"/>
-      <c r="M43" s="430"/>
-      <c r="N43" s="431"/>
-      <c r="O43" s="430"/>
-      <c r="P43" s="431"/>
+      <c r="I43" s="378"/>
+      <c r="J43" s="379"/>
+      <c r="K43" s="286"/>
+      <c r="L43" s="287"/>
+      <c r="M43" s="286"/>
+      <c r="N43" s="287"/>
+      <c r="O43" s="286"/>
+      <c r="P43" s="287"/>
       <c r="Q43" s="119"/>
       <c r="R43" s="119"/>
       <c r="S43" s="119"/>
-      <c r="T43" s="245">
+      <c r="T43" s="243">
         <v>3</v>
       </c>
       <c r="U43" s="236"/>
-      <c r="V43" s="98"/>
+      <c r="V43" s="248"/>
       <c r="W43" s="98"/>
-      <c r="X43" s="98"/>
+      <c r="X43" s="247"/>
       <c r="Y43" s="240" t="s">
         <v>199</v>
       </c>
@@ -5270,24 +5257,24 @@
       <c r="F44" s="118"/>
       <c r="G44" s="118"/>
       <c r="H44" s="123"/>
-      <c r="I44" s="441"/>
-      <c r="J44" s="442"/>
-      <c r="K44" s="439"/>
-      <c r="L44" s="440"/>
-      <c r="M44" s="439"/>
-      <c r="N44" s="440"/>
-      <c r="O44" s="439"/>
-      <c r="P44" s="440"/>
+      <c r="I44" s="390"/>
+      <c r="J44" s="391"/>
+      <c r="K44" s="300"/>
+      <c r="L44" s="301"/>
+      <c r="M44" s="300"/>
+      <c r="N44" s="301"/>
+      <c r="O44" s="300"/>
+      <c r="P44" s="301"/>
       <c r="Q44" s="119"/>
       <c r="R44" s="119"/>
       <c r="S44" s="119"/>
-      <c r="T44" s="246">
+      <c r="T44" s="244">
         <v>4</v>
       </c>
       <c r="U44" s="235"/>
-      <c r="V44" s="100"/>
-      <c r="W44" s="100"/>
-      <c r="X44" s="100"/>
+      <c r="V44" s="234"/>
+      <c r="W44" s="246"/>
+      <c r="X44" s="245"/>
       <c r="Y44" s="240" t="s">
         <v>199</v>
       </c>
@@ -5298,16 +5285,8 @@
       <c r="Q45" s="119"/>
       <c r="R45" s="119"/>
       <c r="S45" s="119"/>
-      <c r="T45" s="241" t="s">
-        <v>155</v>
-      </c>
-      <c r="U45" s="448"/>
-      <c r="V45" s="449"/>
-      <c r="W45" s="449"/>
-      <c r="X45" s="449"/>
-      <c r="Y45" s="450"/>
-      <c r="Z45" s="120"/>
-      <c r="AA45" s="120"/>
+      <c r="T45" s="120"/>
+      <c r="U45" s="120"/>
     </row>
     <row r="46" spans="1:27" ht="30" customHeight="1">
       <c r="A46" s="101"/>
@@ -5329,18 +5308,8 @@
       <c r="Q46" s="86"/>
       <c r="R46" s="86"/>
       <c r="S46" s="86"/>
-      <c r="T46" s="242">
-        <v>1</v>
-      </c>
-      <c r="U46" s="243"/>
-      <c r="V46" s="255"/>
-      <c r="W46" s="254"/>
-      <c r="X46" s="253"/>
-      <c r="Y46" s="240" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z46" s="86"/>
-      <c r="AA46" s="86"/>
+      <c r="T46" s="86"/>
+      <c r="U46" s="86"/>
     </row>
     <row r="47" spans="1:27" ht="30" customHeight="1">
       <c r="A47" s="126"/>
@@ -5352,67 +5321,47 @@
       <c r="G47" s="86"/>
       <c r="H47" s="86"/>
       <c r="I47" s="86"/>
-      <c r="J47" s="344"/>
-      <c r="K47" s="344"/>
-      <c r="L47" s="344"/>
-      <c r="M47" s="344"/>
-      <c r="N47" s="344"/>
-      <c r="O47" s="344"/>
-      <c r="P47" s="344"/>
+      <c r="J47" s="261"/>
+      <c r="K47" s="261"/>
+      <c r="L47" s="261"/>
+      <c r="M47" s="261"/>
+      <c r="N47" s="261"/>
+      <c r="O47" s="261"/>
+      <c r="P47" s="261"/>
       <c r="Q47" s="128"/>
       <c r="R47" s="128"/>
       <c r="S47" s="128"/>
-      <c r="T47" s="247">
-        <v>2</v>
-      </c>
-      <c r="U47" s="236"/>
-      <c r="V47" s="232"/>
-      <c r="W47" s="86"/>
-      <c r="X47" s="233"/>
-      <c r="Y47" s="240" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z47" s="129"/>
-      <c r="AA47" s="129"/>
+      <c r="T47" s="129"/>
+      <c r="U47" s="129"/>
     </row>
     <row r="48" spans="1:27" ht="30" customHeight="1">
-      <c r="A48" s="334" t="s">
+      <c r="A48" s="357" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="334"/>
-      <c r="C48" s="349" t="s">
+      <c r="B48" s="357"/>
+      <c r="C48" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="D48" s="349"/>
-      <c r="E48" s="349"/>
-      <c r="F48" s="349"/>
-      <c r="G48" s="350" t="s">
+      <c r="D48" s="304"/>
+      <c r="E48" s="304"/>
+      <c r="F48" s="304"/>
+      <c r="G48" s="305" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="350"/>
-      <c r="I48" s="350"/>
-      <c r="J48" s="350"/>
-      <c r="K48" s="350"/>
-      <c r="L48" s="350"/>
-      <c r="M48" s="350"/>
-      <c r="N48" s="350"/>
-      <c r="O48" s="350"/>
-      <c r="P48" s="350"/>
+      <c r="H48" s="305"/>
+      <c r="I48" s="305"/>
+      <c r="J48" s="305"/>
+      <c r="K48" s="305"/>
+      <c r="L48" s="305"/>
+      <c r="M48" s="305"/>
+      <c r="N48" s="305"/>
+      <c r="O48" s="305"/>
+      <c r="P48" s="305"/>
       <c r="Q48" s="130"/>
       <c r="R48" s="130"/>
       <c r="S48" s="130"/>
-      <c r="T48" s="247">
-        <v>3</v>
-      </c>
-      <c r="U48" s="236"/>
-      <c r="V48" s="252"/>
-      <c r="W48" s="98"/>
-      <c r="X48" s="251"/>
-      <c r="Y48" s="240" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z48" s="129"/>
-      <c r="AA48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
     </row>
     <row r="49" spans="1:30" ht="30" customHeight="1">
       <c r="A49" s="86"/>
@@ -5424,28 +5373,18 @@
       <c r="G49" s="130"/>
       <c r="H49" s="130"/>
       <c r="I49" s="130"/>
-      <c r="J49" s="350"/>
-      <c r="K49" s="350"/>
-      <c r="L49" s="350"/>
-      <c r="M49" s="350"/>
-      <c r="N49" s="350"/>
-      <c r="O49" s="350"/>
-      <c r="P49" s="350"/>
+      <c r="J49" s="305"/>
+      <c r="K49" s="305"/>
+      <c r="L49" s="305"/>
+      <c r="M49" s="305"/>
+      <c r="N49" s="305"/>
+      <c r="O49" s="305"/>
+      <c r="P49" s="305"/>
       <c r="Q49" s="130"/>
       <c r="R49" s="130"/>
       <c r="S49" s="130"/>
-      <c r="T49" s="248">
-        <v>4</v>
-      </c>
-      <c r="U49" s="235"/>
-      <c r="V49" s="234"/>
-      <c r="W49" s="250"/>
-      <c r="X49" s="249"/>
-      <c r="Y49" s="240" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z49" s="129"/>
-      <c r="AA49" s="129"/>
+      <c r="T49" s="129"/>
+      <c r="U49" s="129"/>
     </row>
     <row r="50" spans="1:30" ht="30" customHeight="1">
       <c r="A50" s="86"/>
@@ -5497,14 +5436,14 @@
       <c r="R51" s="86"/>
       <c r="S51" s="86"/>
       <c r="T51" s="86"/>
-      <c r="U51" s="335" t="s">
+      <c r="U51" s="398" t="s">
         <v>53</v>
       </c>
-      <c r="V51" s="338" t="s">
+      <c r="V51" s="401" t="s">
         <v>124</v>
       </c>
-      <c r="W51" s="339"/>
-      <c r="X51" s="340"/>
+      <c r="W51" s="402"/>
+      <c r="X51" s="403"/>
       <c r="Y51" s="86"/>
       <c r="Z51" s="86"/>
       <c r="AA51" s="86"/>
@@ -5530,10 +5469,10 @@
       <c r="R52" s="86"/>
       <c r="S52" s="86"/>
       <c r="T52" s="86"/>
-      <c r="U52" s="336"/>
-      <c r="V52" s="341"/>
-      <c r="W52" s="342"/>
-      <c r="X52" s="343"/>
+      <c r="U52" s="399"/>
+      <c r="V52" s="404"/>
+      <c r="W52" s="405"/>
+      <c r="X52" s="406"/>
       <c r="Y52" s="86"/>
       <c r="Z52" s="86"/>
       <c r="AA52" s="86"/>
@@ -5559,7 +5498,7 @@
       <c r="R53" s="86"/>
       <c r="S53" s="86"/>
       <c r="T53" s="132"/>
-      <c r="U53" s="337"/>
+      <c r="U53" s="400"/>
       <c r="V53" s="133" t="s">
         <v>121</v>
       </c>
@@ -5574,22 +5513,22 @@
       <c r="AA53" s="86"/>
     </row>
     <row r="54" spans="1:30" ht="30" customHeight="1">
-      <c r="A54" s="267"/>
-      <c r="B54" s="267"/>
-      <c r="C54" s="267"/>
-      <c r="D54" s="267"/>
-      <c r="E54" s="267"/>
-      <c r="F54" s="267"/>
-      <c r="G54" s="269"/>
-      <c r="H54" s="269"/>
-      <c r="I54" s="269"/>
-      <c r="J54" s="265"/>
-      <c r="K54" s="265"/>
-      <c r="L54" s="265"/>
-      <c r="M54" s="265"/>
-      <c r="N54" s="265"/>
-      <c r="O54" s="265"/>
-      <c r="P54" s="265"/>
+      <c r="A54" s="408"/>
+      <c r="B54" s="408"/>
+      <c r="C54" s="408"/>
+      <c r="D54" s="408"/>
+      <c r="E54" s="408"/>
+      <c r="F54" s="408"/>
+      <c r="G54" s="407"/>
+      <c r="H54" s="407"/>
+      <c r="I54" s="407"/>
+      <c r="J54" s="284"/>
+      <c r="K54" s="284"/>
+      <c r="L54" s="284"/>
+      <c r="M54" s="284"/>
+      <c r="N54" s="284"/>
+      <c r="O54" s="284"/>
+      <c r="P54" s="284"/>
       <c r="Q54" s="132"/>
       <c r="R54" s="132"/>
       <c r="S54" s="132"/>
@@ -6082,26 +6021,26 @@
       <c r="AD70" s="86"/>
     </row>
     <row r="71" spans="1:31" ht="30" customHeight="1">
-      <c r="A71" s="355" t="s">
+      <c r="A71" s="276" t="s">
         <v>103</v>
       </c>
-      <c r="B71" s="355"/>
-      <c r="C71" s="355"/>
-      <c r="D71" s="355"/>
+      <c r="B71" s="276"/>
+      <c r="C71" s="276"/>
+      <c r="D71" s="276"/>
       <c r="E71" s="87"/>
       <c r="F71" s="88"/>
       <c r="G71" s="88"/>
       <c r="H71" s="88"/>
       <c r="I71" s="87"/>
-      <c r="J71" s="356" t="s">
+      <c r="J71" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="K71" s="356"/>
-      <c r="L71" s="356"/>
-      <c r="M71" s="356"/>
-      <c r="N71" s="356"/>
-      <c r="O71" s="356"/>
-      <c r="P71" s="356"/>
+      <c r="K71" s="277"/>
+      <c r="L71" s="277"/>
+      <c r="M71" s="277"/>
+      <c r="N71" s="277"/>
+      <c r="O71" s="277"/>
+      <c r="P71" s="277"/>
       <c r="Q71" s="87"/>
       <c r="R71" s="87"/>
       <c r="S71" s="87"/>
@@ -6118,26 +6057,26 @@
       <c r="AD71" s="89"/>
     </row>
     <row r="72" spans="1:31" ht="30" customHeight="1">
-      <c r="A72" s="332" t="s">
+      <c r="A72" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="B72" s="332"/>
-      <c r="C72" s="332"/>
-      <c r="D72" s="332"/>
+      <c r="B72" s="278"/>
+      <c r="C72" s="278"/>
+      <c r="D72" s="278"/>
       <c r="E72" s="87"/>
       <c r="F72" s="90"/>
       <c r="G72" s="90"/>
       <c r="H72" s="90"/>
       <c r="I72" s="87"/>
-      <c r="J72" s="394" t="s">
+      <c r="J72" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="K72" s="394"/>
-      <c r="L72" s="394"/>
-      <c r="M72" s="394"/>
-      <c r="N72" s="394"/>
-      <c r="O72" s="394"/>
-      <c r="P72" s="394"/>
+      <c r="K72" s="279"/>
+      <c r="L72" s="279"/>
+      <c r="M72" s="279"/>
+      <c r="N72" s="279"/>
+      <c r="O72" s="279"/>
+      <c r="P72" s="279"/>
       <c r="Q72" s="88"/>
       <c r="R72" s="88"/>
       <c r="S72" s="88"/>
@@ -6196,31 +6135,31 @@
       <c r="AD73" s="86"/>
     </row>
     <row r="74" spans="1:31" ht="30" customHeight="1">
-      <c r="A74" s="395" t="s">
+      <c r="A74" s="265" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="395"/>
-      <c r="C74" s="395"/>
-      <c r="D74" s="395"/>
-      <c r="E74" s="395"/>
-      <c r="F74" s="395"/>
-      <c r="G74" s="395"/>
-      <c r="H74" s="395"/>
-      <c r="I74" s="395"/>
-      <c r="J74" s="395"/>
-      <c r="K74" s="395"/>
-      <c r="L74" s="395"/>
-      <c r="M74" s="395"/>
-      <c r="N74" s="395"/>
-      <c r="O74" s="395"/>
-      <c r="P74" s="395"/>
+      <c r="B74" s="265"/>
+      <c r="C74" s="265"/>
+      <c r="D74" s="265"/>
+      <c r="E74" s="265"/>
+      <c r="F74" s="265"/>
+      <c r="G74" s="265"/>
+      <c r="H74" s="265"/>
+      <c r="I74" s="265"/>
+      <c r="J74" s="265"/>
+      <c r="K74" s="265"/>
+      <c r="L74" s="265"/>
+      <c r="M74" s="265"/>
+      <c r="N74" s="265"/>
+      <c r="O74" s="265"/>
+      <c r="P74" s="265"/>
       <c r="Q74" s="97"/>
       <c r="R74" s="97"/>
       <c r="S74" s="97"/>
       <c r="T74" s="97"/>
       <c r="U74" s="142"/>
       <c r="V74" s="143"/>
-      <c r="W74" s="258" t="s">
+      <c r="W74" s="253" t="s">
         <v>223</v>
       </c>
       <c r="X74" s="98"/>
@@ -6232,22 +6171,22 @@
       <c r="AD74" s="86"/>
     </row>
     <row r="75" spans="1:31" ht="30" customHeight="1">
-      <c r="A75" s="333"/>
-      <c r="B75" s="333"/>
-      <c r="C75" s="333"/>
-      <c r="D75" s="333"/>
-      <c r="E75" s="333"/>
-      <c r="F75" s="333"/>
-      <c r="G75" s="333"/>
-      <c r="H75" s="333"/>
-      <c r="I75" s="333"/>
-      <c r="J75" s="333"/>
-      <c r="K75" s="333"/>
-      <c r="L75" s="333"/>
-      <c r="M75" s="333"/>
-      <c r="N75" s="333"/>
-      <c r="O75" s="333"/>
-      <c r="P75" s="333"/>
+      <c r="A75" s="266"/>
+      <c r="B75" s="266"/>
+      <c r="C75" s="266"/>
+      <c r="D75" s="266"/>
+      <c r="E75" s="266"/>
+      <c r="F75" s="266"/>
+      <c r="G75" s="266"/>
+      <c r="H75" s="266"/>
+      <c r="I75" s="266"/>
+      <c r="J75" s="266"/>
+      <c r="K75" s="266"/>
+      <c r="L75" s="266"/>
+      <c r="M75" s="266"/>
+      <c r="N75" s="266"/>
+      <c r="O75" s="266"/>
+      <c r="P75" s="266"/>
       <c r="Q75" s="144"/>
       <c r="R75" s="144"/>
       <c r="S75" s="144"/>
@@ -6298,54 +6237,54 @@
       <c r="AD76" s="86"/>
     </row>
     <row r="77" spans="1:31" ht="23.25" customHeight="1">
-      <c r="A77" s="397" t="s">
+      <c r="A77" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="397" t="s">
+      <c r="B77" s="329" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="397" t="s">
+      <c r="C77" s="329" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="368" t="s">
+      <c r="D77" s="273" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="364" t="s">
+      <c r="E77" s="267" t="s">
         <v>111</v>
       </c>
-      <c r="F77" s="402"/>
-      <c r="G77" s="365"/>
-      <c r="H77" s="364" t="s">
+      <c r="F77" s="268"/>
+      <c r="G77" s="269"/>
+      <c r="H77" s="267" t="s">
         <v>133</v>
       </c>
-      <c r="I77" s="365"/>
-      <c r="J77" s="364" t="s">
+      <c r="I77" s="269"/>
+      <c r="J77" s="267" t="s">
         <v>134</v>
       </c>
-      <c r="K77" s="365"/>
-      <c r="L77" s="364" t="s">
+      <c r="K77" s="269"/>
+      <c r="L77" s="267" t="s">
         <v>135</v>
       </c>
-      <c r="M77" s="365"/>
-      <c r="N77" s="364" t="s">
+      <c r="M77" s="269"/>
+      <c r="N77" s="267" t="s">
         <v>136</v>
       </c>
-      <c r="O77" s="365"/>
-      <c r="P77" s="432" t="s">
+      <c r="O77" s="269"/>
+      <c r="P77" s="383" t="s">
         <v>137</v>
       </c>
-      <c r="Q77" s="432" t="s">
+      <c r="Q77" s="383" t="s">
         <v>138</v>
       </c>
-      <c r="R77" s="432" t="s">
+      <c r="R77" s="383" t="s">
         <v>139</v>
       </c>
       <c r="S77" s="147"/>
       <c r="T77" s="148"/>
-      <c r="U77" s="428"/>
-      <c r="V77" s="428"/>
-      <c r="W77" s="428"/>
-      <c r="X77" s="428"/>
+      <c r="U77" s="381"/>
+      <c r="V77" s="381"/>
+      <c r="W77" s="381"/>
+      <c r="X77" s="381"/>
       <c r="Y77" s="96"/>
       <c r="Z77" s="96"/>
       <c r="AA77" s="96"/>
@@ -6354,30 +6293,30 @@
       <c r="AD77" s="149"/>
     </row>
     <row r="78" spans="1:31" ht="27" customHeight="1">
-      <c r="A78" s="398"/>
-      <c r="B78" s="398"/>
-      <c r="C78" s="398"/>
-      <c r="D78" s="369"/>
-      <c r="E78" s="366"/>
-      <c r="F78" s="403"/>
-      <c r="G78" s="367"/>
-      <c r="H78" s="366"/>
-      <c r="I78" s="367"/>
-      <c r="J78" s="366"/>
-      <c r="K78" s="367"/>
-      <c r="L78" s="366"/>
-      <c r="M78" s="367"/>
-      <c r="N78" s="366"/>
-      <c r="O78" s="367"/>
-      <c r="P78" s="433"/>
-      <c r="Q78" s="433"/>
-      <c r="R78" s="433"/>
+      <c r="A78" s="330"/>
+      <c r="B78" s="330"/>
+      <c r="C78" s="330"/>
+      <c r="D78" s="274"/>
+      <c r="E78" s="270"/>
+      <c r="F78" s="271"/>
+      <c r="G78" s="272"/>
+      <c r="H78" s="270"/>
+      <c r="I78" s="272"/>
+      <c r="J78" s="270"/>
+      <c r="K78" s="272"/>
+      <c r="L78" s="270"/>
+      <c r="M78" s="272"/>
+      <c r="N78" s="270"/>
+      <c r="O78" s="272"/>
+      <c r="P78" s="384"/>
+      <c r="Q78" s="384"/>
+      <c r="R78" s="384"/>
       <c r="S78" s="96"/>
       <c r="T78" s="148"/>
-      <c r="U78" s="429"/>
-      <c r="V78" s="429"/>
-      <c r="W78" s="429"/>
-      <c r="X78" s="429"/>
+      <c r="U78" s="382"/>
+      <c r="V78" s="382"/>
+      <c r="W78" s="382"/>
+      <c r="X78" s="382"/>
       <c r="Y78" s="86"/>
       <c r="Z78" s="86"/>
       <c r="AA78" s="86"/>
@@ -6386,56 +6325,56 @@
       <c r="AD78" s="149"/>
     </row>
     <row r="79" spans="1:31" ht="30" customHeight="1">
-      <c r="A79" s="398"/>
-      <c r="B79" s="398"/>
-      <c r="C79" s="398"/>
-      <c r="D79" s="369"/>
-      <c r="E79" s="400" t="s">
+      <c r="A79" s="330"/>
+      <c r="B79" s="330"/>
+      <c r="C79" s="330"/>
+      <c r="D79" s="274"/>
+      <c r="E79" s="302" t="s">
         <v>115</v>
       </c>
-      <c r="F79" s="400" t="s">
+      <c r="F79" s="302" t="s">
         <v>116</v>
       </c>
-      <c r="G79" s="400" t="s">
+      <c r="G79" s="302" t="s">
         <v>117</v>
       </c>
-      <c r="H79" s="400" t="s">
+      <c r="H79" s="302" t="s">
         <v>140</v>
       </c>
-      <c r="I79" s="400" t="s">
+      <c r="I79" s="302" t="s">
         <v>119</v>
       </c>
-      <c r="J79" s="400" t="s">
+      <c r="J79" s="302" t="s">
         <v>120</v>
       </c>
-      <c r="K79" s="400" t="s">
+      <c r="K79" s="302" t="s">
         <v>119</v>
       </c>
-      <c r="L79" s="400" t="s">
+      <c r="L79" s="302" t="s">
         <v>115</v>
       </c>
-      <c r="M79" s="400" t="s">
+      <c r="M79" s="302" t="s">
         <v>117</v>
       </c>
-      <c r="N79" s="400" t="s">
+      <c r="N79" s="302" t="s">
         <v>120</v>
       </c>
-      <c r="O79" s="400" t="s">
+      <c r="O79" s="302" t="s">
         <v>119</v>
       </c>
-      <c r="P79" s="433"/>
-      <c r="Q79" s="433"/>
-      <c r="R79" s="433"/>
+      <c r="P79" s="384"/>
+      <c r="Q79" s="384"/>
+      <c r="R79" s="384"/>
       <c r="S79" s="96"/>
       <c r="T79" s="148"/>
-      <c r="U79" s="437" t="s">
+      <c r="U79" s="387" t="s">
         <v>53</v>
       </c>
-      <c r="V79" s="435" t="s">
+      <c r="V79" s="386" t="s">
         <v>141</v>
       </c>
-      <c r="W79" s="435"/>
-      <c r="X79" s="435"/>
+      <c r="W79" s="386"/>
+      <c r="X79" s="386"/>
       <c r="Y79" s="150"/>
       <c r="Z79" s="150"/>
       <c r="AA79" s="150"/>
@@ -6444,27 +6383,27 @@
       <c r="AD79" s="149"/>
     </row>
     <row r="80" spans="1:31" ht="30" customHeight="1">
-      <c r="A80" s="399"/>
-      <c r="B80" s="399"/>
-      <c r="C80" s="399"/>
-      <c r="D80" s="370"/>
-      <c r="E80" s="401"/>
-      <c r="F80" s="401"/>
-      <c r="G80" s="401"/>
-      <c r="H80" s="401"/>
-      <c r="I80" s="401"/>
-      <c r="J80" s="401"/>
-      <c r="K80" s="401"/>
-      <c r="L80" s="401"/>
-      <c r="M80" s="401"/>
-      <c r="N80" s="401"/>
-      <c r="O80" s="401"/>
-      <c r="P80" s="434"/>
-      <c r="Q80" s="434"/>
-      <c r="R80" s="434"/>
+      <c r="A80" s="331"/>
+      <c r="B80" s="331"/>
+      <c r="C80" s="331"/>
+      <c r="D80" s="275"/>
+      <c r="E80" s="303"/>
+      <c r="F80" s="303"/>
+      <c r="G80" s="303"/>
+      <c r="H80" s="303"/>
+      <c r="I80" s="303"/>
+      <c r="J80" s="303"/>
+      <c r="K80" s="303"/>
+      <c r="L80" s="303"/>
+      <c r="M80" s="303"/>
+      <c r="N80" s="303"/>
+      <c r="O80" s="303"/>
+      <c r="P80" s="385"/>
+      <c r="Q80" s="385"/>
+      <c r="R80" s="385"/>
       <c r="S80" s="151"/>
       <c r="T80" s="148"/>
-      <c r="U80" s="438"/>
+      <c r="U80" s="388"/>
       <c r="V80" s="152" t="s">
         <v>142</v>
       </c>
@@ -6474,9 +6413,9 @@
       <c r="X80" s="152" t="s">
         <v>123</v>
       </c>
-      <c r="Y80" s="427"/>
-      <c r="Z80" s="427"/>
-      <c r="AA80" s="427"/>
+      <c r="Y80" s="380"/>
+      <c r="Z80" s="380"/>
+      <c r="AA80" s="380"/>
       <c r="AB80" s="151"/>
       <c r="AC80" s="151"/>
       <c r="AD80" s="149"/>
@@ -6551,23 +6490,23 @@
       <c r="A82" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="454"/>
-      <c r="C82" s="455"/>
-      <c r="D82" s="455"/>
-      <c r="E82" s="455"/>
-      <c r="F82" s="455"/>
-      <c r="G82" s="455"/>
-      <c r="H82" s="455"/>
-      <c r="I82" s="455"/>
-      <c r="J82" s="455"/>
-      <c r="K82" s="455"/>
-      <c r="L82" s="455"/>
-      <c r="M82" s="455"/>
-      <c r="N82" s="455"/>
-      <c r="O82" s="455"/>
-      <c r="P82" s="455"/>
-      <c r="Q82" s="455"/>
-      <c r="R82" s="456"/>
+      <c r="B82" s="372"/>
+      <c r="C82" s="373"/>
+      <c r="D82" s="373"/>
+      <c r="E82" s="373"/>
+      <c r="F82" s="373"/>
+      <c r="G82" s="373"/>
+      <c r="H82" s="373"/>
+      <c r="I82" s="373"/>
+      <c r="J82" s="373"/>
+      <c r="K82" s="373"/>
+      <c r="L82" s="373"/>
+      <c r="M82" s="373"/>
+      <c r="N82" s="373"/>
+      <c r="O82" s="373"/>
+      <c r="P82" s="373"/>
+      <c r="Q82" s="373"/>
+      <c r="R82" s="374"/>
       <c r="S82" s="160"/>
       <c r="T82" s="161"/>
       <c r="U82" s="162"/>
@@ -6728,23 +6667,23 @@
       <c r="A87" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="B87" s="457"/>
-      <c r="C87" s="458"/>
-      <c r="D87" s="458"/>
-      <c r="E87" s="458"/>
-      <c r="F87" s="458"/>
-      <c r="G87" s="458"/>
-      <c r="H87" s="458"/>
-      <c r="I87" s="458"/>
-      <c r="J87" s="458"/>
-      <c r="K87" s="458"/>
-      <c r="L87" s="458"/>
-      <c r="M87" s="458"/>
-      <c r="N87" s="458"/>
-      <c r="O87" s="458"/>
-      <c r="P87" s="458"/>
-      <c r="Q87" s="458"/>
-      <c r="R87" s="459"/>
+      <c r="B87" s="375"/>
+      <c r="C87" s="376"/>
+      <c r="D87" s="376"/>
+      <c r="E87" s="376"/>
+      <c r="F87" s="376"/>
+      <c r="G87" s="376"/>
+      <c r="H87" s="376"/>
+      <c r="I87" s="376"/>
+      <c r="J87" s="376"/>
+      <c r="K87" s="376"/>
+      <c r="L87" s="376"/>
+      <c r="M87" s="376"/>
+      <c r="N87" s="376"/>
+      <c r="O87" s="376"/>
+      <c r="P87" s="376"/>
+      <c r="Q87" s="376"/>
+      <c r="R87" s="377"/>
       <c r="S87" s="151"/>
       <c r="T87" s="148"/>
       <c r="U87" s="162"/>
@@ -6944,11 +6883,11 @@
       <c r="I93" s="86"/>
       <c r="J93" s="231"/>
       <c r="K93" s="231"/>
-      <c r="L93" s="357"/>
-      <c r="M93" s="357"/>
-      <c r="N93" s="357"/>
-      <c r="O93" s="357"/>
-      <c r="P93" s="357"/>
+      <c r="L93" s="389"/>
+      <c r="M93" s="389"/>
+      <c r="N93" s="389"/>
+      <c r="O93" s="389"/>
+      <c r="P93" s="389"/>
       <c r="Q93" s="128"/>
       <c r="R93" s="128"/>
       <c r="S93" s="156"/>
@@ -6966,40 +6905,40 @@
       <c r="AE93" s="188"/>
     </row>
     <row r="94" spans="1:31" ht="30" customHeight="1">
-      <c r="A94" s="349" t="s">
+      <c r="A94" s="304" t="s">
         <v>230</v>
       </c>
-      <c r="B94" s="349"/>
-      <c r="C94" s="349" t="s">
+      <c r="B94" s="304"/>
+      <c r="C94" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="D94" s="349"/>
-      <c r="E94" s="349"/>
-      <c r="F94" s="349"/>
-      <c r="G94" s="350" t="s">
+      <c r="D94" s="304"/>
+      <c r="E94" s="304"/>
+      <c r="F94" s="304"/>
+      <c r="G94" s="305" t="s">
         <v>127</v>
       </c>
-      <c r="H94" s="350"/>
-      <c r="I94" s="350"/>
-      <c r="J94" s="350"/>
-      <c r="K94" s="350"/>
-      <c r="L94" s="344"/>
-      <c r="M94" s="344"/>
-      <c r="N94" s="344"/>
-      <c r="O94" s="344"/>
-      <c r="P94" s="344"/>
+      <c r="H94" s="305"/>
+      <c r="I94" s="305"/>
+      <c r="J94" s="305"/>
+      <c r="K94" s="305"/>
+      <c r="L94" s="261"/>
+      <c r="M94" s="261"/>
+      <c r="N94" s="261"/>
+      <c r="O94" s="261"/>
+      <c r="P94" s="261"/>
       <c r="Q94" s="191"/>
       <c r="R94" s="191"/>
       <c r="S94" s="160"/>
       <c r="T94" s="161"/>
-      <c r="U94" s="407" t="s">
+      <c r="U94" s="370" t="s">
         <v>53</v>
       </c>
-      <c r="V94" s="404" t="s">
+      <c r="V94" s="367" t="s">
         <v>145</v>
       </c>
-      <c r="W94" s="405"/>
-      <c r="X94" s="406"/>
+      <c r="W94" s="368"/>
+      <c r="X94" s="369"/>
       <c r="Y94" s="89"/>
       <c r="Z94" s="89"/>
       <c r="AA94" s="89"/>
@@ -7020,16 +6959,16 @@
       <c r="I95" s="130"/>
       <c r="J95" s="85"/>
       <c r="K95" s="85"/>
-      <c r="L95" s="350"/>
-      <c r="M95" s="350"/>
-      <c r="N95" s="350"/>
-      <c r="O95" s="350"/>
-      <c r="P95" s="350"/>
+      <c r="L95" s="305"/>
+      <c r="M95" s="305"/>
+      <c r="N95" s="305"/>
+      <c r="O95" s="305"/>
+      <c r="P95" s="305"/>
       <c r="Q95" s="191"/>
       <c r="R95" s="191"/>
       <c r="S95" s="160"/>
       <c r="T95" s="161"/>
-      <c r="U95" s="408"/>
+      <c r="U95" s="371"/>
       <c r="V95" s="133" t="s">
         <v>146</v>
       </c>
@@ -7164,22 +7103,22 @@
       <c r="AA99" s="86"/>
     </row>
     <row r="100" spans="1:34" ht="30" customHeight="1">
-      <c r="A100" s="267"/>
-      <c r="B100" s="267"/>
-      <c r="C100" s="267"/>
-      <c r="D100" s="267"/>
-      <c r="E100" s="267"/>
-      <c r="F100" s="267"/>
-      <c r="G100" s="269"/>
-      <c r="H100" s="269"/>
-      <c r="I100" s="269"/>
-      <c r="J100" s="269"/>
-      <c r="K100" s="269"/>
-      <c r="L100" s="265"/>
-      <c r="M100" s="265"/>
-      <c r="N100" s="265"/>
-      <c r="O100" s="265"/>
-      <c r="P100" s="265"/>
+      <c r="A100" s="408"/>
+      <c r="B100" s="408"/>
+      <c r="C100" s="408"/>
+      <c r="D100" s="408"/>
+      <c r="E100" s="408"/>
+      <c r="F100" s="408"/>
+      <c r="G100" s="407"/>
+      <c r="H100" s="407"/>
+      <c r="I100" s="407"/>
+      <c r="J100" s="407"/>
+      <c r="K100" s="407"/>
+      <c r="L100" s="284"/>
+      <c r="M100" s="284"/>
+      <c r="N100" s="284"/>
+      <c r="O100" s="284"/>
+      <c r="P100" s="284"/>
       <c r="Q100" s="132"/>
       <c r="R100" s="132"/>
       <c r="S100" s="86"/>
@@ -7299,13 +7238,13 @@
       <c r="G104" s="132"/>
       <c r="H104" s="132"/>
       <c r="I104" s="132"/>
-      <c r="J104" s="265"/>
-      <c r="K104" s="265"/>
-      <c r="L104" s="265"/>
-      <c r="M104" s="265"/>
-      <c r="N104" s="265"/>
-      <c r="O104" s="265"/>
-      <c r="P104" s="265"/>
+      <c r="J104" s="284"/>
+      <c r="K104" s="284"/>
+      <c r="L104" s="284"/>
+      <c r="M104" s="284"/>
+      <c r="N104" s="284"/>
+      <c r="O104" s="284"/>
+      <c r="P104" s="284"/>
       <c r="Q104" s="132"/>
       <c r="R104" s="132"/>
       <c r="S104" s="86"/>
@@ -7315,13 +7254,13 @@
       <c r="W104" s="132"/>
       <c r="X104" s="132"/>
       <c r="Y104" s="132"/>
-      <c r="Z104" s="265"/>
-      <c r="AA104" s="265"/>
-      <c r="AB104" s="265"/>
-      <c r="AC104" s="265"/>
-      <c r="AD104" s="265"/>
-      <c r="AE104" s="265"/>
-      <c r="AF104" s="265"/>
+      <c r="Z104" s="284"/>
+      <c r="AA104" s="284"/>
+      <c r="AB104" s="284"/>
+      <c r="AC104" s="284"/>
+      <c r="AD104" s="284"/>
+      <c r="AE104" s="284"/>
+      <c r="AF104" s="284"/>
       <c r="AG104" s="132"/>
       <c r="AH104" s="132"/>
     </row>
@@ -7411,13 +7350,13 @@
       <c r="G108" s="132"/>
       <c r="H108" s="132"/>
       <c r="I108" s="132"/>
-      <c r="J108" s="265"/>
-      <c r="K108" s="265"/>
-      <c r="L108" s="265"/>
-      <c r="M108" s="265"/>
-      <c r="N108" s="265"/>
-      <c r="O108" s="265"/>
-      <c r="P108" s="265"/>
+      <c r="J108" s="284"/>
+      <c r="K108" s="284"/>
+      <c r="L108" s="284"/>
+      <c r="M108" s="284"/>
+      <c r="N108" s="284"/>
+      <c r="O108" s="284"/>
+      <c r="P108" s="284"/>
       <c r="Q108" s="132"/>
       <c r="R108" s="132"/>
       <c r="S108" s="86"/>
@@ -7427,13 +7366,13 @@
       <c r="W108" s="132"/>
       <c r="X108" s="132"/>
       <c r="Y108" s="132"/>
-      <c r="Z108" s="265"/>
-      <c r="AA108" s="265"/>
-      <c r="AB108" s="265"/>
-      <c r="AC108" s="265"/>
-      <c r="AD108" s="265"/>
-      <c r="AE108" s="265"/>
-      <c r="AF108" s="265"/>
+      <c r="Z108" s="284"/>
+      <c r="AA108" s="284"/>
+      <c r="AB108" s="284"/>
+      <c r="AC108" s="284"/>
+      <c r="AD108" s="284"/>
+      <c r="AE108" s="284"/>
+      <c r="AF108" s="284"/>
       <c r="AG108" s="132"/>
       <c r="AH108" s="132"/>
     </row>
@@ -7483,13 +7422,13 @@
       <c r="G110" s="132"/>
       <c r="H110" s="132"/>
       <c r="I110" s="132"/>
-      <c r="J110" s="265"/>
-      <c r="K110" s="265"/>
-      <c r="L110" s="265"/>
-      <c r="M110" s="265"/>
-      <c r="N110" s="265"/>
-      <c r="O110" s="265"/>
-      <c r="P110" s="265"/>
+      <c r="J110" s="284"/>
+      <c r="K110" s="284"/>
+      <c r="L110" s="284"/>
+      <c r="M110" s="284"/>
+      <c r="N110" s="284"/>
+      <c r="O110" s="284"/>
+      <c r="P110" s="284"/>
       <c r="Q110" s="132"/>
       <c r="R110" s="132"/>
       <c r="S110" s="86"/>
@@ -7532,26 +7471,26 @@
       <c r="AH111" s="86"/>
     </row>
     <row r="112" spans="1:34" ht="30" customHeight="1">
-      <c r="A112" s="355" t="s">
+      <c r="A112" s="276" t="s">
         <v>103</v>
       </c>
-      <c r="B112" s="355"/>
-      <c r="C112" s="355"/>
-      <c r="D112" s="355"/>
+      <c r="B112" s="276"/>
+      <c r="C112" s="276"/>
+      <c r="D112" s="276"/>
       <c r="E112" s="87"/>
       <c r="F112" s="88"/>
       <c r="G112" s="88"/>
       <c r="H112" s="88"/>
       <c r="I112" s="87"/>
-      <c r="J112" s="356" t="s">
+      <c r="J112" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="K112" s="356"/>
-      <c r="L112" s="356"/>
-      <c r="M112" s="356"/>
-      <c r="N112" s="356"/>
-      <c r="O112" s="356"/>
-      <c r="P112" s="356"/>
+      <c r="K112" s="277"/>
+      <c r="L112" s="277"/>
+      <c r="M112" s="277"/>
+      <c r="N112" s="277"/>
+      <c r="O112" s="277"/>
+      <c r="P112" s="277"/>
       <c r="Q112" s="87"/>
       <c r="R112" s="87"/>
       <c r="S112" s="87"/>
@@ -7572,26 +7511,26 @@
       <c r="AH112" s="86"/>
     </row>
     <row r="113" spans="1:34" ht="30" customHeight="1">
-      <c r="A113" s="332" t="s">
+      <c r="A113" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="B113" s="332"/>
-      <c r="C113" s="332"/>
-      <c r="D113" s="332"/>
+      <c r="B113" s="278"/>
+      <c r="C113" s="278"/>
+      <c r="D113" s="278"/>
       <c r="E113" s="87"/>
       <c r="F113" s="90"/>
       <c r="G113" s="90"/>
       <c r="H113" s="90"/>
       <c r="I113" s="87"/>
-      <c r="J113" s="394" t="s">
+      <c r="J113" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="K113" s="394"/>
-      <c r="L113" s="394"/>
-      <c r="M113" s="394"/>
-      <c r="N113" s="394"/>
-      <c r="O113" s="394"/>
-      <c r="P113" s="394"/>
+      <c r="K113" s="279"/>
+      <c r="L113" s="279"/>
+      <c r="M113" s="279"/>
+      <c r="N113" s="279"/>
+      <c r="O113" s="279"/>
+      <c r="P113" s="279"/>
       <c r="Q113" s="88"/>
       <c r="R113" s="88"/>
       <c r="S113" s="88"/>
@@ -7648,24 +7587,24 @@
       <c r="AH114" s="86"/>
     </row>
     <row r="115" spans="1:34" ht="30" customHeight="1">
-      <c r="A115" s="395" t="s">
+      <c r="A115" s="265" t="s">
         <v>148</v>
       </c>
-      <c r="B115" s="395"/>
-      <c r="C115" s="395"/>
-      <c r="D115" s="395"/>
-      <c r="E115" s="395"/>
-      <c r="F115" s="395"/>
-      <c r="G115" s="395"/>
-      <c r="H115" s="395"/>
-      <c r="I115" s="395"/>
-      <c r="J115" s="395"/>
-      <c r="K115" s="395"/>
-      <c r="L115" s="395"/>
-      <c r="M115" s="395"/>
-      <c r="N115" s="395"/>
-      <c r="O115" s="395"/>
-      <c r="P115" s="395"/>
+      <c r="B115" s="265"/>
+      <c r="C115" s="265"/>
+      <c r="D115" s="265"/>
+      <c r="E115" s="265"/>
+      <c r="F115" s="265"/>
+      <c r="G115" s="265"/>
+      <c r="H115" s="265"/>
+      <c r="I115" s="265"/>
+      <c r="J115" s="265"/>
+      <c r="K115" s="265"/>
+      <c r="L115" s="265"/>
+      <c r="M115" s="265"/>
+      <c r="N115" s="265"/>
+      <c r="O115" s="265"/>
+      <c r="P115" s="265"/>
       <c r="Q115" s="97"/>
       <c r="R115" s="97"/>
       <c r="S115" s="97"/>
@@ -7686,22 +7625,22 @@
       <c r="AH115" s="86"/>
     </row>
     <row r="116" spans="1:34" ht="30" customHeight="1">
-      <c r="A116" s="396"/>
-      <c r="B116" s="396"/>
-      <c r="C116" s="396"/>
-      <c r="D116" s="396"/>
-      <c r="E116" s="396"/>
-      <c r="F116" s="396"/>
-      <c r="G116" s="396"/>
-      <c r="H116" s="396"/>
-      <c r="I116" s="396"/>
-      <c r="J116" s="396"/>
-      <c r="K116" s="396"/>
-      <c r="L116" s="396"/>
-      <c r="M116" s="396"/>
-      <c r="N116" s="396"/>
-      <c r="O116" s="396"/>
-      <c r="P116" s="396"/>
+      <c r="A116" s="335"/>
+      <c r="B116" s="335"/>
+      <c r="C116" s="335"/>
+      <c r="D116" s="335"/>
+      <c r="E116" s="335"/>
+      <c r="F116" s="335"/>
+      <c r="G116" s="335"/>
+      <c r="H116" s="335"/>
+      <c r="I116" s="335"/>
+      <c r="J116" s="335"/>
+      <c r="K116" s="335"/>
+      <c r="L116" s="335"/>
+      <c r="M116" s="335"/>
+      <c r="N116" s="335"/>
+      <c r="O116" s="335"/>
+      <c r="P116" s="335"/>
       <c r="Q116" s="99"/>
       <c r="R116" s="99"/>
       <c r="S116" s="99"/>
@@ -7711,13 +7650,13 @@
       <c r="W116" s="132"/>
       <c r="X116" s="132"/>
       <c r="Y116" s="132"/>
-      <c r="Z116" s="265"/>
-      <c r="AA116" s="265"/>
-      <c r="AB116" s="265"/>
-      <c r="AC116" s="265"/>
-      <c r="AD116" s="265"/>
-      <c r="AE116" s="265"/>
-      <c r="AF116" s="265"/>
+      <c r="Z116" s="284"/>
+      <c r="AA116" s="284"/>
+      <c r="AB116" s="284"/>
+      <c r="AC116" s="284"/>
+      <c r="AD116" s="284"/>
+      <c r="AE116" s="284"/>
+      <c r="AF116" s="284"/>
       <c r="AG116" s="132"/>
       <c r="AH116" s="132"/>
     </row>
@@ -7758,56 +7697,56 @@
       <c r="AH117" s="86"/>
     </row>
     <row r="118" spans="1:34" ht="30" customHeight="1">
-      <c r="A118" s="397" t="s">
+      <c r="A118" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="326" t="s">
+      <c r="B118" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="C118" s="327"/>
-      <c r="D118" s="364" t="s">
+      <c r="C118" s="337"/>
+      <c r="D118" s="267" t="s">
         <v>109</v>
       </c>
-      <c r="E118" s="365"/>
-      <c r="F118" s="364" t="s">
+      <c r="E118" s="269"/>
+      <c r="F118" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="G118" s="402"/>
-      <c r="H118" s="365"/>
-      <c r="I118" s="364" t="s">
+      <c r="G118" s="268"/>
+      <c r="H118" s="269"/>
+      <c r="I118" s="267" t="s">
         <v>149</v>
       </c>
-      <c r="J118" s="402"/>
-      <c r="K118" s="402"/>
-      <c r="L118" s="365"/>
-      <c r="M118" s="409" t="s">
+      <c r="J118" s="268"/>
+      <c r="K118" s="268"/>
+      <c r="L118" s="269"/>
+      <c r="M118" s="316" t="s">
         <v>150</v>
       </c>
-      <c r="N118" s="410"/>
-      <c r="O118" s="410"/>
-      <c r="P118" s="411"/>
+      <c r="N118" s="317"/>
+      <c r="O118" s="317"/>
+      <c r="P118" s="318"/>
       <c r="Q118" s="197"/>
       <c r="R118" s="197"/>
       <c r="S118" s="197"/>
       <c r="T118" s="197"/>
     </row>
     <row r="119" spans="1:34" ht="30" customHeight="1">
-      <c r="A119" s="398"/>
-      <c r="B119" s="328"/>
-      <c r="C119" s="329"/>
-      <c r="D119" s="424"/>
-      <c r="E119" s="426"/>
-      <c r="F119" s="424"/>
-      <c r="G119" s="425"/>
-      <c r="H119" s="426"/>
-      <c r="I119" s="366"/>
-      <c r="J119" s="403"/>
-      <c r="K119" s="403"/>
-      <c r="L119" s="367"/>
-      <c r="M119" s="412"/>
-      <c r="N119" s="413"/>
-      <c r="O119" s="413"/>
-      <c r="P119" s="414"/>
+      <c r="A119" s="330"/>
+      <c r="B119" s="338"/>
+      <c r="C119" s="339"/>
+      <c r="D119" s="310"/>
+      <c r="E119" s="312"/>
+      <c r="F119" s="310"/>
+      <c r="G119" s="311"/>
+      <c r="H119" s="312"/>
+      <c r="I119" s="270"/>
+      <c r="J119" s="271"/>
+      <c r="K119" s="271"/>
+      <c r="L119" s="272"/>
+      <c r="M119" s="319"/>
+      <c r="N119" s="320"/>
+      <c r="O119" s="320"/>
+      <c r="P119" s="321"/>
       <c r="Q119" s="197"/>
       <c r="R119" s="197"/>
       <c r="S119" s="197"/>
@@ -7828,26 +7767,26 @@
       <c r="AH119" s="86"/>
     </row>
     <row r="120" spans="1:34" ht="30" customHeight="1">
-      <c r="A120" s="399"/>
-      <c r="B120" s="330"/>
-      <c r="C120" s="331"/>
-      <c r="D120" s="366"/>
-      <c r="E120" s="367"/>
-      <c r="F120" s="366"/>
-      <c r="G120" s="403"/>
-      <c r="H120" s="367"/>
-      <c r="I120" s="386" t="s">
+      <c r="A120" s="331"/>
+      <c r="B120" s="340"/>
+      <c r="C120" s="341"/>
+      <c r="D120" s="270"/>
+      <c r="E120" s="272"/>
+      <c r="F120" s="270"/>
+      <c r="G120" s="271"/>
+      <c r="H120" s="272"/>
+      <c r="I120" s="288" t="s">
         <v>151</v>
       </c>
-      <c r="J120" s="387"/>
-      <c r="K120" s="386" t="s">
+      <c r="J120" s="289"/>
+      <c r="K120" s="288" t="s">
         <v>152</v>
       </c>
-      <c r="L120" s="387"/>
-      <c r="M120" s="415"/>
-      <c r="N120" s="416"/>
-      <c r="O120" s="416"/>
-      <c r="P120" s="417"/>
+      <c r="L120" s="289"/>
+      <c r="M120" s="322"/>
+      <c r="N120" s="323"/>
+      <c r="O120" s="323"/>
+      <c r="P120" s="324"/>
       <c r="Q120" s="197"/>
       <c r="R120" s="197"/>
       <c r="S120" s="197"/>
@@ -7857,13 +7796,13 @@
       <c r="W120" s="132"/>
       <c r="X120" s="132"/>
       <c r="Y120" s="132"/>
-      <c r="Z120" s="265"/>
-      <c r="AA120" s="265"/>
-      <c r="AB120" s="265"/>
-      <c r="AC120" s="265"/>
-      <c r="AD120" s="265"/>
-      <c r="AE120" s="265"/>
-      <c r="AF120" s="265"/>
+      <c r="Z120" s="284"/>
+      <c r="AA120" s="284"/>
+      <c r="AB120" s="284"/>
+      <c r="AC120" s="284"/>
+      <c r="AD120" s="284"/>
+      <c r="AE120" s="284"/>
+      <c r="AF120" s="284"/>
       <c r="AG120" s="132"/>
       <c r="AH120" s="132"/>
     </row>
@@ -7871,33 +7810,33 @@
       <c r="A121" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B121" s="345" t="s">
+      <c r="B121" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="C121" s="346"/>
-      <c r="D121" s="422" t="s">
+      <c r="C121" s="307"/>
+      <c r="D121" s="308" t="s">
         <v>192</v>
       </c>
-      <c r="E121" s="423"/>
-      <c r="F121" s="389" t="s">
+      <c r="E121" s="309"/>
+      <c r="F121" s="290" t="s">
         <v>193</v>
       </c>
-      <c r="G121" s="393"/>
-      <c r="H121" s="390"/>
-      <c r="I121" s="420" t="s">
+      <c r="G121" s="315"/>
+      <c r="H121" s="291"/>
+      <c r="I121" s="327" t="s">
         <v>194</v>
       </c>
-      <c r="J121" s="421"/>
-      <c r="K121" s="418" t="s">
+      <c r="J121" s="328"/>
+      <c r="K121" s="325" t="s">
         <v>208</v>
       </c>
-      <c r="L121" s="419"/>
-      <c r="M121" s="389" t="s">
+      <c r="L121" s="326"/>
+      <c r="M121" s="290" t="s">
         <v>209</v>
       </c>
-      <c r="N121" s="393"/>
-      <c r="O121" s="393"/>
-      <c r="P121" s="390"/>
+      <c r="N121" s="315"/>
+      <c r="O121" s="315"/>
+      <c r="P121" s="291"/>
       <c r="Q121" s="199"/>
       <c r="R121" s="199"/>
       <c r="S121" s="199"/>
@@ -7921,21 +7860,21 @@
       <c r="A122" s="114">
         <v>1</v>
       </c>
-      <c r="B122" s="347"/>
-      <c r="C122" s="348"/>
-      <c r="D122" s="347"/>
-      <c r="E122" s="348"/>
-      <c r="F122" s="351"/>
-      <c r="G122" s="352"/>
-      <c r="H122" s="353"/>
-      <c r="I122" s="321"/>
-      <c r="J122" s="322"/>
-      <c r="K122" s="321"/>
-      <c r="L122" s="322"/>
-      <c r="M122" s="323"/>
-      <c r="N122" s="324"/>
-      <c r="O122" s="324"/>
-      <c r="P122" s="325"/>
+      <c r="B122" s="313"/>
+      <c r="C122" s="314"/>
+      <c r="D122" s="313"/>
+      <c r="E122" s="314"/>
+      <c r="F122" s="297"/>
+      <c r="G122" s="298"/>
+      <c r="H122" s="299"/>
+      <c r="I122" s="295"/>
+      <c r="J122" s="296"/>
+      <c r="K122" s="295"/>
+      <c r="L122" s="296"/>
+      <c r="M122" s="292"/>
+      <c r="N122" s="293"/>
+      <c r="O122" s="293"/>
+      <c r="P122" s="294"/>
       <c r="Q122" s="201"/>
       <c r="R122" s="201"/>
       <c r="S122" s="201"/>
@@ -7945,21 +7884,21 @@
       <c r="A123" s="114">
         <v>2</v>
       </c>
-      <c r="B123" s="347"/>
-      <c r="C123" s="348"/>
-      <c r="D123" s="347"/>
-      <c r="E123" s="348"/>
-      <c r="F123" s="351"/>
-      <c r="G123" s="352"/>
-      <c r="H123" s="353"/>
-      <c r="I123" s="321"/>
-      <c r="J123" s="322"/>
-      <c r="K123" s="321"/>
-      <c r="L123" s="322"/>
-      <c r="M123" s="323"/>
-      <c r="N123" s="324"/>
-      <c r="O123" s="324"/>
-      <c r="P123" s="325"/>
+      <c r="B123" s="313"/>
+      <c r="C123" s="314"/>
+      <c r="D123" s="313"/>
+      <c r="E123" s="314"/>
+      <c r="F123" s="297"/>
+      <c r="G123" s="298"/>
+      <c r="H123" s="299"/>
+      <c r="I123" s="295"/>
+      <c r="J123" s="296"/>
+      <c r="K123" s="295"/>
+      <c r="L123" s="296"/>
+      <c r="M123" s="292"/>
+      <c r="N123" s="293"/>
+      <c r="O123" s="293"/>
+      <c r="P123" s="294"/>
       <c r="Q123" s="201"/>
       <c r="R123" s="201"/>
       <c r="S123" s="201"/>
@@ -7983,21 +7922,21 @@
       <c r="A124" s="114">
         <v>3</v>
       </c>
-      <c r="B124" s="347"/>
-      <c r="C124" s="348"/>
-      <c r="D124" s="347"/>
-      <c r="E124" s="348"/>
-      <c r="F124" s="351"/>
-      <c r="G124" s="352"/>
-      <c r="H124" s="353"/>
-      <c r="I124" s="321"/>
-      <c r="J124" s="322"/>
-      <c r="K124" s="321"/>
-      <c r="L124" s="322"/>
-      <c r="M124" s="323"/>
-      <c r="N124" s="324"/>
-      <c r="O124" s="324"/>
-      <c r="P124" s="325"/>
+      <c r="B124" s="313"/>
+      <c r="C124" s="314"/>
+      <c r="D124" s="313"/>
+      <c r="E124" s="314"/>
+      <c r="F124" s="297"/>
+      <c r="G124" s="298"/>
+      <c r="H124" s="299"/>
+      <c r="I124" s="295"/>
+      <c r="J124" s="296"/>
+      <c r="K124" s="295"/>
+      <c r="L124" s="296"/>
+      <c r="M124" s="292"/>
+      <c r="N124" s="293"/>
+      <c r="O124" s="293"/>
+      <c r="P124" s="294"/>
       <c r="Q124" s="201"/>
       <c r="R124" s="201"/>
       <c r="S124" s="201"/>
@@ -8011,21 +7950,21 @@
       <c r="A125" s="114">
         <v>4</v>
       </c>
-      <c r="B125" s="347"/>
-      <c r="C125" s="348"/>
-      <c r="D125" s="347"/>
-      <c r="E125" s="348"/>
-      <c r="F125" s="351"/>
-      <c r="G125" s="352"/>
-      <c r="H125" s="353"/>
-      <c r="I125" s="321"/>
-      <c r="J125" s="322"/>
-      <c r="K125" s="321"/>
-      <c r="L125" s="322"/>
-      <c r="M125" s="323"/>
-      <c r="N125" s="324"/>
-      <c r="O125" s="324"/>
-      <c r="P125" s="325"/>
+      <c r="B125" s="313"/>
+      <c r="C125" s="314"/>
+      <c r="D125" s="313"/>
+      <c r="E125" s="314"/>
+      <c r="F125" s="297"/>
+      <c r="G125" s="298"/>
+      <c r="H125" s="299"/>
+      <c r="I125" s="295"/>
+      <c r="J125" s="296"/>
+      <c r="K125" s="295"/>
+      <c r="L125" s="296"/>
+      <c r="M125" s="292"/>
+      <c r="N125" s="293"/>
+      <c r="O125" s="293"/>
+      <c r="P125" s="294"/>
       <c r="Q125" s="201"/>
       <c r="R125" s="201"/>
       <c r="S125" s="201"/>
@@ -8136,13 +8075,13 @@
       <c r="G129" s="86"/>
       <c r="H129" s="86"/>
       <c r="I129" s="86"/>
-      <c r="J129" s="344"/>
-      <c r="K129" s="344"/>
-      <c r="L129" s="344"/>
-      <c r="M129" s="344"/>
-      <c r="N129" s="344"/>
-      <c r="O129" s="344"/>
-      <c r="P129" s="344"/>
+      <c r="J129" s="261"/>
+      <c r="K129" s="261"/>
+      <c r="L129" s="261"/>
+      <c r="M129" s="261"/>
+      <c r="N129" s="261"/>
+      <c r="O129" s="261"/>
+      <c r="P129" s="261"/>
       <c r="Q129" s="128"/>
       <c r="R129" s="128"/>
       <c r="S129" s="128"/>
@@ -8156,28 +8095,28 @@
       <c r="AA129" s="129"/>
     </row>
     <row r="130" spans="1:27" ht="30" customHeight="1">
-      <c r="A130" s="334" t="s">
+      <c r="A130" s="357" t="s">
         <v>125</v>
       </c>
-      <c r="B130" s="334"/>
-      <c r="C130" s="349" t="s">
+      <c r="B130" s="357"/>
+      <c r="C130" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="349"/>
-      <c r="E130" s="349"/>
-      <c r="F130" s="349"/>
-      <c r="G130" s="350" t="s">
+      <c r="D130" s="304"/>
+      <c r="E130" s="304"/>
+      <c r="F130" s="304"/>
+      <c r="G130" s="305" t="s">
         <v>127</v>
       </c>
-      <c r="H130" s="350"/>
-      <c r="I130" s="350"/>
-      <c r="J130" s="350"/>
-      <c r="K130" s="350"/>
-      <c r="L130" s="350"/>
-      <c r="M130" s="350"/>
-      <c r="N130" s="350"/>
-      <c r="O130" s="350"/>
-      <c r="P130" s="350"/>
+      <c r="H130" s="305"/>
+      <c r="I130" s="305"/>
+      <c r="J130" s="305"/>
+      <c r="K130" s="305"/>
+      <c r="L130" s="305"/>
+      <c r="M130" s="305"/>
+      <c r="N130" s="305"/>
+      <c r="O130" s="305"/>
+      <c r="P130" s="305"/>
       <c r="Q130" s="130"/>
       <c r="R130" s="130"/>
       <c r="S130" s="130"/>
@@ -8200,13 +8139,13 @@
       <c r="G131" s="130"/>
       <c r="H131" s="130"/>
       <c r="I131" s="130"/>
-      <c r="J131" s="350"/>
-      <c r="K131" s="350"/>
-      <c r="L131" s="350"/>
-      <c r="M131" s="350"/>
-      <c r="N131" s="350"/>
-      <c r="O131" s="350"/>
-      <c r="P131" s="350"/>
+      <c r="J131" s="305"/>
+      <c r="K131" s="305"/>
+      <c r="L131" s="305"/>
+      <c r="M131" s="305"/>
+      <c r="N131" s="305"/>
+      <c r="O131" s="305"/>
+      <c r="P131" s="305"/>
       <c r="Q131" s="130"/>
       <c r="R131" s="130"/>
       <c r="S131" s="130"/>
@@ -8336,22 +8275,22 @@
       <c r="AA135" s="86"/>
     </row>
     <row r="136" spans="1:27" ht="30" customHeight="1">
-      <c r="A136" s="268"/>
-      <c r="B136" s="268"/>
-      <c r="C136" s="268"/>
-      <c r="D136" s="268"/>
-      <c r="E136" s="268"/>
-      <c r="F136" s="268"/>
-      <c r="G136" s="265"/>
-      <c r="H136" s="265"/>
-      <c r="I136" s="265"/>
-      <c r="J136" s="265"/>
-      <c r="K136" s="265"/>
-      <c r="L136" s="265"/>
-      <c r="M136" s="265"/>
-      <c r="N136" s="265"/>
-      <c r="O136" s="265"/>
-      <c r="P136" s="265"/>
+      <c r="A136" s="453"/>
+      <c r="B136" s="453"/>
+      <c r="C136" s="453"/>
+      <c r="D136" s="453"/>
+      <c r="E136" s="453"/>
+      <c r="F136" s="453"/>
+      <c r="G136" s="284"/>
+      <c r="H136" s="284"/>
+      <c r="I136" s="284"/>
+      <c r="J136" s="284"/>
+      <c r="K136" s="284"/>
+      <c r="L136" s="284"/>
+      <c r="M136" s="284"/>
+      <c r="N136" s="284"/>
+      <c r="O136" s="284"/>
+      <c r="P136" s="284"/>
       <c r="Q136" s="132"/>
       <c r="R136" s="132"/>
       <c r="S136" s="132"/>
@@ -8481,24 +8420,24 @@
       <c r="AA140" s="96"/>
     </row>
     <row r="150" spans="1:27" ht="30" customHeight="1">
-      <c r="A150" s="355" t="s">
+      <c r="A150" s="276" t="s">
         <v>103</v>
       </c>
-      <c r="B150" s="355"/>
-      <c r="C150" s="355"/>
-      <c r="D150" s="355"/>
+      <c r="B150" s="276"/>
+      <c r="C150" s="276"/>
+      <c r="D150" s="276"/>
       <c r="E150" s="87"/>
       <c r="F150" s="88"/>
       <c r="G150" s="88"/>
       <c r="H150" s="88"/>
       <c r="I150" s="87"/>
-      <c r="J150" s="356" t="s">
+      <c r="J150" s="277" t="s">
         <v>104</v>
       </c>
-      <c r="K150" s="356"/>
-      <c r="L150" s="356"/>
-      <c r="M150" s="356"/>
-      <c r="N150" s="356"/>
+      <c r="K150" s="277"/>
+      <c r="L150" s="277"/>
+      <c r="M150" s="277"/>
+      <c r="N150" s="277"/>
       <c r="O150" s="87"/>
       <c r="P150" s="87"/>
       <c r="Q150" s="87"/>
@@ -8513,24 +8452,24 @@
       <c r="Z150" s="89"/>
     </row>
     <row r="151" spans="1:27" ht="30" customHeight="1">
-      <c r="A151" s="332" t="s">
+      <c r="A151" s="278" t="s">
         <v>105</v>
       </c>
-      <c r="B151" s="332"/>
-      <c r="C151" s="332"/>
-      <c r="D151" s="332"/>
+      <c r="B151" s="278"/>
+      <c r="C151" s="278"/>
+      <c r="D151" s="278"/>
       <c r="E151" s="87"/>
       <c r="F151" s="90"/>
       <c r="G151" s="90"/>
       <c r="H151" s="90"/>
       <c r="I151" s="87"/>
-      <c r="J151" s="394" t="s">
+      <c r="J151" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="K151" s="394"/>
-      <c r="L151" s="394"/>
-      <c r="M151" s="394"/>
-      <c r="N151" s="394"/>
+      <c r="K151" s="279"/>
+      <c r="L151" s="279"/>
+      <c r="M151" s="279"/>
+      <c r="N151" s="279"/>
       <c r="O151" s="88"/>
       <c r="P151" s="88"/>
       <c r="Q151" s="88"/>
@@ -8573,24 +8512,24 @@
       <c r="Z152" s="86"/>
     </row>
     <row r="153" spans="1:27" ht="30" customHeight="1">
-      <c r="A153" s="395" t="s">
+      <c r="A153" s="265" t="s">
         <v>210</v>
       </c>
-      <c r="B153" s="395"/>
-      <c r="C153" s="395"/>
-      <c r="D153" s="395"/>
-      <c r="E153" s="395"/>
-      <c r="F153" s="395"/>
-      <c r="G153" s="395"/>
-      <c r="H153" s="395"/>
-      <c r="I153" s="395"/>
-      <c r="J153" s="395"/>
-      <c r="K153" s="395"/>
-      <c r="L153" s="395"/>
-      <c r="M153" s="395"/>
-      <c r="N153" s="395"/>
-      <c r="O153" s="395"/>
-      <c r="P153" s="395"/>
+      <c r="B153" s="265"/>
+      <c r="C153" s="265"/>
+      <c r="D153" s="265"/>
+      <c r="E153" s="265"/>
+      <c r="F153" s="265"/>
+      <c r="G153" s="265"/>
+      <c r="H153" s="265"/>
+      <c r="I153" s="265"/>
+      <c r="J153" s="265"/>
+      <c r="K153" s="265"/>
+      <c r="L153" s="265"/>
+      <c r="M153" s="265"/>
+      <c r="N153" s="265"/>
+      <c r="O153" s="265"/>
+      <c r="P153" s="265"/>
       <c r="Q153" s="97"/>
       <c r="R153" s="97"/>
       <c r="S153" s="97"/>
@@ -8603,22 +8542,22 @@
       <c r="Z153" s="86"/>
     </row>
     <row r="154" spans="1:27" ht="30" customHeight="1">
-      <c r="A154" s="396"/>
-      <c r="B154" s="396"/>
-      <c r="C154" s="396"/>
-      <c r="D154" s="396"/>
-      <c r="E154" s="396"/>
-      <c r="F154" s="396"/>
-      <c r="G154" s="396"/>
-      <c r="H154" s="396"/>
-      <c r="I154" s="396"/>
-      <c r="J154" s="396"/>
-      <c r="K154" s="396"/>
-      <c r="L154" s="396"/>
-      <c r="M154" s="396"/>
-      <c r="N154" s="396"/>
-      <c r="O154" s="396"/>
-      <c r="P154" s="396"/>
+      <c r="A154" s="335"/>
+      <c r="B154" s="335"/>
+      <c r="C154" s="335"/>
+      <c r="D154" s="335"/>
+      <c r="E154" s="335"/>
+      <c r="F154" s="335"/>
+      <c r="G154" s="335"/>
+      <c r="H154" s="335"/>
+      <c r="I154" s="335"/>
+      <c r="J154" s="335"/>
+      <c r="K154" s="335"/>
+      <c r="L154" s="335"/>
+      <c r="M154" s="335"/>
+      <c r="N154" s="335"/>
+      <c r="O154" s="335"/>
+      <c r="P154" s="335"/>
       <c r="Q154" s="99"/>
       <c r="R154" s="99"/>
       <c r="S154" s="99"/>
@@ -8659,37 +8598,37 @@
       <c r="Z155" s="86"/>
     </row>
     <row r="156" spans="1:27" ht="30" customHeight="1">
-      <c r="A156" s="397" t="s">
+      <c r="A156" s="329" t="s">
         <v>2</v>
       </c>
-      <c r="B156" s="326" t="s">
+      <c r="B156" s="336" t="s">
         <v>108</v>
       </c>
-      <c r="C156" s="327"/>
-      <c r="D156" s="368" t="s">
+      <c r="C156" s="337"/>
+      <c r="D156" s="273" t="s">
         <v>109</v>
       </c>
-      <c r="E156" s="364" t="s">
+      <c r="E156" s="267" t="s">
         <v>110</v>
       </c>
-      <c r="F156" s="365"/>
-      <c r="G156" s="368" t="s">
+      <c r="F156" s="269"/>
+      <c r="G156" s="273" t="s">
         <v>211</v>
       </c>
-      <c r="H156" s="368" t="s">
+      <c r="H156" s="273" t="s">
         <v>212</v>
       </c>
-      <c r="I156" s="371" t="s">
+      <c r="I156" s="342" t="s">
         <v>229</v>
       </c>
-      <c r="J156" s="372"/>
-      <c r="K156" s="372"/>
-      <c r="L156" s="373"/>
-      <c r="M156" s="377" t="s">
+      <c r="J156" s="343"/>
+      <c r="K156" s="343"/>
+      <c r="L156" s="344"/>
+      <c r="M156" s="348" t="s">
         <v>213</v>
       </c>
-      <c r="N156" s="378"/>
-      <c r="O156" s="379"/>
+      <c r="N156" s="349"/>
+      <c r="O156" s="350"/>
       <c r="P156" s="107"/>
       <c r="Q156" s="211"/>
       <c r="R156" s="211"/>
@@ -8703,21 +8642,21 @@
       <c r="Z156" s="212"/>
     </row>
     <row r="157" spans="1:27" ht="30" customHeight="1">
-      <c r="A157" s="398"/>
-      <c r="B157" s="328"/>
-      <c r="C157" s="329"/>
-      <c r="D157" s="369"/>
-      <c r="E157" s="366"/>
-      <c r="F157" s="367"/>
-      <c r="G157" s="369"/>
-      <c r="H157" s="369"/>
-      <c r="I157" s="374"/>
-      <c r="J157" s="375"/>
-      <c r="K157" s="375"/>
-      <c r="L157" s="376"/>
-      <c r="M157" s="380"/>
-      <c r="N157" s="381"/>
-      <c r="O157" s="382"/>
+      <c r="A157" s="330"/>
+      <c r="B157" s="338"/>
+      <c r="C157" s="339"/>
+      <c r="D157" s="274"/>
+      <c r="E157" s="270"/>
+      <c r="F157" s="272"/>
+      <c r="G157" s="274"/>
+      <c r="H157" s="274"/>
+      <c r="I157" s="345"/>
+      <c r="J157" s="346"/>
+      <c r="K157" s="346"/>
+      <c r="L157" s="347"/>
+      <c r="M157" s="351"/>
+      <c r="N157" s="352"/>
+      <c r="O157" s="353"/>
       <c r="P157" s="107"/>
       <c r="Q157" s="211"/>
       <c r="R157" s="211"/>
@@ -8731,29 +8670,29 @@
       <c r="Z157" s="212"/>
     </row>
     <row r="158" spans="1:27" ht="30" customHeight="1">
-      <c r="A158" s="399"/>
-      <c r="B158" s="330"/>
-      <c r="C158" s="331"/>
-      <c r="D158" s="370"/>
+      <c r="A158" s="331"/>
+      <c r="B158" s="340"/>
+      <c r="C158" s="341"/>
+      <c r="D158" s="275"/>
       <c r="E158" s="105" t="s">
         <v>214</v>
       </c>
       <c r="F158" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="G158" s="370"/>
-      <c r="H158" s="370"/>
-      <c r="I158" s="386" t="s">
+      <c r="G158" s="275"/>
+      <c r="H158" s="275"/>
+      <c r="I158" s="288" t="s">
         <v>216</v>
       </c>
-      <c r="J158" s="387"/>
-      <c r="K158" s="386" t="s">
+      <c r="J158" s="289"/>
+      <c r="K158" s="288" t="s">
         <v>217</v>
       </c>
-      <c r="L158" s="387"/>
-      <c r="M158" s="383"/>
-      <c r="N158" s="384"/>
-      <c r="O158" s="385"/>
+      <c r="L158" s="289"/>
+      <c r="M158" s="354"/>
+      <c r="N158" s="355"/>
+      <c r="O158" s="356"/>
       <c r="P158" s="107"/>
       <c r="Q158" s="211"/>
       <c r="R158" s="211"/>
@@ -8771,10 +8710,10 @@
       <c r="A159" s="108" t="s">
         <v>190</v>
       </c>
-      <c r="B159" s="345" t="s">
+      <c r="B159" s="306" t="s">
         <v>191</v>
       </c>
-      <c r="C159" s="346"/>
+      <c r="C159" s="307"/>
       <c r="D159" s="155" t="s">
         <v>192</v>
       </c>
@@ -8790,19 +8729,19 @@
       <c r="H159" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="I159" s="389" t="s">
+      <c r="I159" s="290" t="s">
         <v>220</v>
       </c>
-      <c r="J159" s="390"/>
-      <c r="K159" s="389" t="s">
+      <c r="J159" s="291"/>
+      <c r="K159" s="290" t="s">
         <v>221</v>
       </c>
-      <c r="L159" s="390"/>
-      <c r="M159" s="389" t="s">
+      <c r="L159" s="291"/>
+      <c r="M159" s="290" t="s">
         <v>222</v>
       </c>
-      <c r="N159" s="393"/>
-      <c r="O159" s="390"/>
+      <c r="N159" s="315"/>
+      <c r="O159" s="291"/>
       <c r="P159" s="156"/>
       <c r="Q159" s="111"/>
       <c r="R159" s="111"/>
@@ -8820,22 +8759,22 @@
       <c r="A160" s="114">
         <v>1</v>
       </c>
-      <c r="B160" s="347"/>
-      <c r="C160" s="348"/>
+      <c r="B160" s="313"/>
+      <c r="C160" s="314"/>
       <c r="D160" s="116"/>
       <c r="E160" s="117"/>
       <c r="F160" s="215"/>
       <c r="G160" s="215"/>
       <c r="H160" s="117"/>
-      <c r="I160" s="391"/>
-      <c r="J160" s="392"/>
-      <c r="K160" s="321"/>
-      <c r="L160" s="322"/>
-      <c r="M160" s="321" t="s">
+      <c r="I160" s="333"/>
+      <c r="J160" s="334"/>
+      <c r="K160" s="295"/>
+      <c r="L160" s="296"/>
+      <c r="M160" s="295" t="s">
         <v>199</v>
       </c>
-      <c r="N160" s="388"/>
-      <c r="O160" s="322"/>
+      <c r="N160" s="332"/>
+      <c r="O160" s="296"/>
       <c r="P160" s="202"/>
       <c r="Q160" s="211"/>
       <c r="R160" s="216"/>
@@ -8853,22 +8792,22 @@
       <c r="A161" s="114">
         <v>2</v>
       </c>
-      <c r="B161" s="347"/>
-      <c r="C161" s="348"/>
+      <c r="B161" s="313"/>
+      <c r="C161" s="314"/>
       <c r="D161" s="116"/>
       <c r="E161" s="117"/>
       <c r="F161" s="215"/>
       <c r="G161" s="215"/>
       <c r="H161" s="117"/>
-      <c r="I161" s="391"/>
-      <c r="J161" s="392"/>
-      <c r="K161" s="321"/>
-      <c r="L161" s="322"/>
-      <c r="M161" s="321" t="s">
+      <c r="I161" s="333"/>
+      <c r="J161" s="334"/>
+      <c r="K161" s="295"/>
+      <c r="L161" s="296"/>
+      <c r="M161" s="295" t="s">
         <v>199</v>
       </c>
-      <c r="N161" s="388"/>
-      <c r="O161" s="322"/>
+      <c r="N161" s="332"/>
+      <c r="O161" s="296"/>
       <c r="P161" s="202"/>
       <c r="Q161" s="211"/>
       <c r="R161" s="216"/>
@@ -8886,22 +8825,22 @@
       <c r="A162" s="114">
         <v>3</v>
       </c>
-      <c r="B162" s="347"/>
-      <c r="C162" s="348"/>
+      <c r="B162" s="313"/>
+      <c r="C162" s="314"/>
       <c r="D162" s="116"/>
       <c r="E162" s="117"/>
       <c r="F162" s="215"/>
       <c r="G162" s="215"/>
       <c r="H162" s="117"/>
-      <c r="I162" s="391"/>
-      <c r="J162" s="392"/>
-      <c r="K162" s="321"/>
-      <c r="L162" s="322"/>
-      <c r="M162" s="321" t="s">
+      <c r="I162" s="333"/>
+      <c r="J162" s="334"/>
+      <c r="K162" s="295"/>
+      <c r="L162" s="296"/>
+      <c r="M162" s="295" t="s">
         <v>199</v>
       </c>
-      <c r="N162" s="388"/>
-      <c r="O162" s="322"/>
+      <c r="N162" s="332"/>
+      <c r="O162" s="296"/>
       <c r="P162" s="202"/>
       <c r="Q162" s="211"/>
       <c r="R162" s="216"/>
@@ -8919,22 +8858,22 @@
       <c r="A163" s="114">
         <v>4</v>
       </c>
-      <c r="B163" s="347"/>
-      <c r="C163" s="348"/>
+      <c r="B163" s="313"/>
+      <c r="C163" s="314"/>
       <c r="D163" s="116"/>
       <c r="E163" s="117"/>
       <c r="F163" s="215"/>
       <c r="G163" s="215"/>
       <c r="H163" s="117"/>
-      <c r="I163" s="391"/>
-      <c r="J163" s="392"/>
-      <c r="K163" s="321"/>
-      <c r="L163" s="322"/>
-      <c r="M163" s="321" t="s">
+      <c r="I163" s="333"/>
+      <c r="J163" s="334"/>
+      <c r="K163" s="295"/>
+      <c r="L163" s="296"/>
+      <c r="M163" s="295" t="s">
         <v>199</v>
       </c>
-      <c r="N163" s="388"/>
-      <c r="O163" s="322"/>
+      <c r="N163" s="332"/>
+      <c r="O163" s="296"/>
       <c r="P163" s="202"/>
       <c r="Q163" s="211"/>
       <c r="R163" s="216"/>
@@ -8987,13 +8926,13 @@
       <c r="G165" s="86"/>
       <c r="H165" s="86"/>
       <c r="I165" s="86"/>
-      <c r="J165" s="344"/>
-      <c r="K165" s="344"/>
-      <c r="L165" s="344"/>
-      <c r="M165" s="344"/>
-      <c r="N165" s="344"/>
-      <c r="O165" s="344"/>
-      <c r="P165" s="344"/>
+      <c r="J165" s="261"/>
+      <c r="K165" s="261"/>
+      <c r="L165" s="261"/>
+      <c r="M165" s="261"/>
+      <c r="N165" s="261"/>
+      <c r="O165" s="261"/>
+      <c r="P165" s="261"/>
       <c r="Q165" s="128"/>
       <c r="R165" s="216"/>
       <c r="S165" s="216"/>
@@ -9007,28 +8946,28 @@
       <c r="AA165" s="129"/>
     </row>
     <row r="166" spans="1:27" ht="30" customHeight="1">
-      <c r="A166" s="334" t="s">
+      <c r="A166" s="357" t="s">
         <v>125</v>
       </c>
-      <c r="B166" s="334"/>
-      <c r="C166" s="349" t="s">
+      <c r="B166" s="357"/>
+      <c r="C166" s="304" t="s">
         <v>126</v>
       </c>
-      <c r="D166" s="349"/>
-      <c r="E166" s="349"/>
-      <c r="F166" s="349"/>
-      <c r="G166" s="350" t="s">
+      <c r="D166" s="304"/>
+      <c r="E166" s="304"/>
+      <c r="F166" s="304"/>
+      <c r="G166" s="305" t="s">
         <v>127</v>
       </c>
-      <c r="H166" s="350"/>
-      <c r="I166" s="350"/>
-      <c r="J166" s="350"/>
-      <c r="K166" s="350"/>
-      <c r="L166" s="350"/>
-      <c r="M166" s="350"/>
-      <c r="N166" s="350"/>
-      <c r="O166" s="350"/>
-      <c r="P166" s="350"/>
+      <c r="H166" s="305"/>
+      <c r="I166" s="305"/>
+      <c r="J166" s="305"/>
+      <c r="K166" s="305"/>
+      <c r="L166" s="305"/>
+      <c r="M166" s="305"/>
+      <c r="N166" s="305"/>
+      <c r="O166" s="305"/>
+      <c r="P166" s="305"/>
       <c r="Q166" s="130"/>
       <c r="R166" s="130"/>
       <c r="S166" s="130"/>
@@ -9051,13 +8990,13 @@
       <c r="G167" s="130"/>
       <c r="H167" s="130"/>
       <c r="I167" s="130"/>
-      <c r="J167" s="350"/>
-      <c r="K167" s="350"/>
-      <c r="L167" s="350"/>
-      <c r="M167" s="350"/>
-      <c r="N167" s="350"/>
-      <c r="O167" s="350"/>
-      <c r="P167" s="350"/>
+      <c r="J167" s="305"/>
+      <c r="K167" s="305"/>
+      <c r="L167" s="305"/>
+      <c r="M167" s="305"/>
+      <c r="N167" s="305"/>
+      <c r="O167" s="305"/>
+      <c r="P167" s="305"/>
       <c r="Q167" s="130"/>
       <c r="R167" s="130"/>
       <c r="S167" s="130"/>
@@ -9187,22 +9126,22 @@
       <c r="AA171" s="86"/>
     </row>
     <row r="172" spans="1:27" ht="30" customHeight="1">
-      <c r="A172" s="267"/>
-      <c r="B172" s="267"/>
-      <c r="C172" s="266"/>
-      <c r="D172" s="266"/>
-      <c r="E172" s="266"/>
-      <c r="F172" s="266"/>
-      <c r="G172" s="265"/>
-      <c r="H172" s="265"/>
-      <c r="I172" s="265"/>
-      <c r="J172" s="265"/>
-      <c r="K172" s="265"/>
-      <c r="L172" s="265"/>
-      <c r="M172" s="265"/>
-      <c r="N172" s="265"/>
-      <c r="O172" s="265"/>
-      <c r="P172" s="265"/>
+      <c r="A172" s="408"/>
+      <c r="B172" s="408"/>
+      <c r="C172" s="452"/>
+      <c r="D172" s="452"/>
+      <c r="E172" s="452"/>
+      <c r="F172" s="452"/>
+      <c r="G172" s="284"/>
+      <c r="H172" s="284"/>
+      <c r="I172" s="284"/>
+      <c r="J172" s="284"/>
+      <c r="K172" s="284"/>
+      <c r="L172" s="284"/>
+      <c r="M172" s="284"/>
+      <c r="N172" s="284"/>
+      <c r="O172" s="284"/>
+      <c r="P172" s="284"/>
       <c r="Q172" s="132"/>
       <c r="R172" s="132"/>
       <c r="S172" s="132"/>
@@ -9794,13 +9733,13 @@
       <c r="G193" s="130"/>
       <c r="H193" s="130"/>
       <c r="I193" s="130"/>
-      <c r="J193" s="350"/>
-      <c r="K193" s="350"/>
-      <c r="L193" s="350"/>
-      <c r="M193" s="350"/>
-      <c r="N193" s="350"/>
-      <c r="O193" s="350"/>
-      <c r="P193" s="350"/>
+      <c r="J193" s="305"/>
+      <c r="K193" s="305"/>
+      <c r="L193" s="305"/>
+      <c r="M193" s="305"/>
+      <c r="N193" s="305"/>
+      <c r="O193" s="305"/>
+      <c r="P193" s="305"/>
       <c r="Q193" s="130"/>
       <c r="R193" s="130"/>
       <c r="S193" s="130"/>
@@ -9939,13 +9878,13 @@
       <c r="G198" s="132"/>
       <c r="H198" s="132"/>
       <c r="I198" s="132"/>
-      <c r="J198" s="265"/>
-      <c r="K198" s="265"/>
-      <c r="L198" s="265"/>
-      <c r="M198" s="265"/>
-      <c r="N198" s="265"/>
-      <c r="O198" s="265"/>
-      <c r="P198" s="265"/>
+      <c r="J198" s="284"/>
+      <c r="K198" s="284"/>
+      <c r="L198" s="284"/>
+      <c r="M198" s="284"/>
+      <c r="N198" s="284"/>
+      <c r="O198" s="284"/>
+      <c r="P198" s="284"/>
       <c r="Q198" s="132"/>
       <c r="R198" s="132"/>
       <c r="S198" s="132"/>
@@ -10017,7 +9956,264 @@
       <c r="AA200" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="281">
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="G136:I136"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="G100:K100"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="J129:P129"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="J130:P130"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="J166:P166"/>
+    <mergeCell ref="M159:O159"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="G156:G158"/>
+    <mergeCell ref="M125:P125"/>
+    <mergeCell ref="R2:Z2"/>
+    <mergeCell ref="R4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="S6:Z6"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="G10:M10"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="G2:M3"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="K125:L125"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="M124:P124"/>
+    <mergeCell ref="B118:C120"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U51:U53"/>
+    <mergeCell ref="V51:X52"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="Z120:AF120"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="J71:P71"/>
+    <mergeCell ref="L93:P93"/>
+    <mergeCell ref="L94:P94"/>
+    <mergeCell ref="L95:P95"/>
+    <mergeCell ref="K79:K80"/>
+    <mergeCell ref="N77:O78"/>
+    <mergeCell ref="P77:P80"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="T37:T39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="U40:Y40"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="L100:P100"/>
+    <mergeCell ref="Z104:AF104"/>
+    <mergeCell ref="Z108:AF108"/>
+    <mergeCell ref="Z116:AF116"/>
+    <mergeCell ref="U81:X81"/>
+    <mergeCell ref="U86:X86"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="S11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="V94:X94"/>
+    <mergeCell ref="U94:U95"/>
+    <mergeCell ref="B82:R82"/>
+    <mergeCell ref="B87:R87"/>
+    <mergeCell ref="J110:P110"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="U77:X78"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q77:Q80"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="R77:R80"/>
+    <mergeCell ref="U79:U80"/>
+    <mergeCell ref="J193:P193"/>
+    <mergeCell ref="B156:C158"/>
+    <mergeCell ref="E156:F157"/>
+    <mergeCell ref="H156:H158"/>
+    <mergeCell ref="I156:L157"/>
+    <mergeCell ref="M156:O158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="J167:P167"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M161:O161"/>
+    <mergeCell ref="M163:O163"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="J172:P172"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:F166"/>
+    <mergeCell ref="G166:I166"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="G172:I172"/>
+    <mergeCell ref="J136:P136"/>
+    <mergeCell ref="M162:O162"/>
+    <mergeCell ref="J131:P131"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="J150:N150"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="J151:N151"/>
+    <mergeCell ref="A153:P153"/>
+    <mergeCell ref="A154:P154"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="J198:P198"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C77:C80"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D77:D80"/>
+    <mergeCell ref="D156:D158"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="O79:O80"/>
+    <mergeCell ref="E77:G78"/>
+    <mergeCell ref="A116:P116"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="K120:L120"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="G94:K94"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="J113:P113"/>
+    <mergeCell ref="F118:H120"/>
+    <mergeCell ref="D118:E120"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="K124:L124"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="M122:P122"/>
+    <mergeCell ref="K122:L122"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="M121:P121"/>
+    <mergeCell ref="I118:L119"/>
+    <mergeCell ref="M118:P120"/>
+    <mergeCell ref="K121:L121"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="A115:P115"/>
+    <mergeCell ref="J108:P108"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="J104:P104"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="A74:P74"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="J72:P72"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="H77:I78"/>
+    <mergeCell ref="J77:K78"/>
+    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="J112:P112"/>
+    <mergeCell ref="I79:I80"/>
+    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="J49:P49"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="M79:M80"/>
+    <mergeCell ref="N79:N80"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="L77:M78"/>
+    <mergeCell ref="U37:U39"/>
+    <mergeCell ref="V37:X38"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
     <mergeCell ref="J165:P165"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
@@ -10042,264 +10238,6 @@
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="I37:L38"/>
     <mergeCell ref="M37:P38"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="T37:T39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="U45:Y45"/>
-    <mergeCell ref="U40:Y40"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="U77:X78"/>
-    <mergeCell ref="J49:P49"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="Q77:Q80"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="R77:R80"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="M79:M80"/>
-    <mergeCell ref="N79:N80"/>
-    <mergeCell ref="U37:U39"/>
-    <mergeCell ref="V37:X38"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="U79:U80"/>
-    <mergeCell ref="L77:M78"/>
-    <mergeCell ref="N77:O78"/>
-    <mergeCell ref="P77:P80"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A74:P74"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="J72:P72"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="H77:I78"/>
-    <mergeCell ref="J77:K78"/>
-    <mergeCell ref="H79:H80"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="J112:P112"/>
-    <mergeCell ref="I79:I80"/>
-    <mergeCell ref="J79:J80"/>
-    <mergeCell ref="A115:P115"/>
-    <mergeCell ref="J108:P108"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="B82:R82"/>
-    <mergeCell ref="B87:R87"/>
-    <mergeCell ref="J104:P104"/>
-    <mergeCell ref="J110:P110"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="K123:L123"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="G94:K94"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="J113:P113"/>
-    <mergeCell ref="F118:H120"/>
-    <mergeCell ref="D118:E120"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="K124:L124"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="M122:P122"/>
-    <mergeCell ref="K122:L122"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="M121:P121"/>
-    <mergeCell ref="I118:L119"/>
-    <mergeCell ref="M118:P120"/>
-    <mergeCell ref="K121:L121"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="J198:P198"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A77:A80"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C77:C80"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="D77:D80"/>
-    <mergeCell ref="D156:D158"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="M160:O160"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="O79:O80"/>
-    <mergeCell ref="E77:G78"/>
-    <mergeCell ref="A116:P116"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="K120:L120"/>
-    <mergeCell ref="J136:P136"/>
-    <mergeCell ref="M162:O162"/>
-    <mergeCell ref="J131:P131"/>
-    <mergeCell ref="A150:D150"/>
-    <mergeCell ref="J150:N150"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="J151:N151"/>
-    <mergeCell ref="A153:P153"/>
-    <mergeCell ref="A154:P154"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="J193:P193"/>
-    <mergeCell ref="B156:C158"/>
-    <mergeCell ref="E156:F157"/>
-    <mergeCell ref="H156:H158"/>
-    <mergeCell ref="I156:L157"/>
-    <mergeCell ref="M156:O158"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="J167:P167"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M161:O161"/>
-    <mergeCell ref="M163:O163"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="J172:P172"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:F166"/>
-    <mergeCell ref="G166:I166"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="Z120:AF120"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="J71:P71"/>
-    <mergeCell ref="L93:P93"/>
-    <mergeCell ref="L94:P94"/>
-    <mergeCell ref="L95:P95"/>
-    <mergeCell ref="L100:P100"/>
-    <mergeCell ref="Z104:AF104"/>
-    <mergeCell ref="Z108:AF108"/>
-    <mergeCell ref="Z116:AF116"/>
-    <mergeCell ref="U81:X81"/>
-    <mergeCell ref="U86:X86"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="S11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="V94:X94"/>
-    <mergeCell ref="U94:U95"/>
-    <mergeCell ref="M125:P125"/>
-    <mergeCell ref="K125:L125"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="M124:P124"/>
-    <mergeCell ref="B118:C120"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="A75:P75"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U51:U53"/>
-    <mergeCell ref="V51:X52"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="G10:M10"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="G2:M3"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="R4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="S6:Z6"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="G172:I172"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="G136:I136"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="G100:K100"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="J129:P129"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="J130:P130"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="J166:P166"/>
-    <mergeCell ref="M159:O159"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="G156:G158"/>
   </mergeCells>
   <conditionalFormatting sqref="B16">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -10334,65 +10272,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="505" t="s">
+      <c r="A1" s="498" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="505"/>
-      <c r="C1" s="505"/>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
+      <c r="B1" s="498"/>
+      <c r="C1" s="498"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
+      <c r="F1" s="498"/>
+      <c r="G1" s="498"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="514" t="s">
+      <c r="A2" s="507" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="514"/>
-      <c r="C2" s="514"/>
-      <c r="D2" s="514"/>
-      <c r="E2" s="514"/>
-      <c r="F2" s="514"/>
-      <c r="G2" s="514"/>
+      <c r="B2" s="507"/>
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="507"/>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
+      <c r="A3" s="500"/>
+      <c r="B3" s="500"/>
+      <c r="C3" s="500"/>
+      <c r="D3" s="500"/>
+      <c r="E3" s="500"/>
+      <c r="F3" s="500"/>
+      <c r="G3" s="500"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="511" t="s">
+      <c r="A4" s="504" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="511"/>
-      <c r="C4" s="511"/>
-      <c r="D4" s="511"/>
-      <c r="E4" s="511"/>
-      <c r="F4" s="511"/>
-      <c r="G4" s="511"/>
+      <c r="B4" s="504"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="504"/>
+      <c r="F4" s="504"/>
+      <c r="G4" s="504"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="512" t="s">
+      <c r="A5" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="512" t="s">
+      <c r="B5" s="505" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="513" t="s">
+      <c r="C5" s="506" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="513"/>
-      <c r="E5" s="513"/>
-      <c r="F5" s="513"/>
-      <c r="G5" s="513"/>
+      <c r="D5" s="506"/>
+      <c r="E5" s="506"/>
+      <c r="F5" s="506"/>
+      <c r="G5" s="506"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="512"/>
-      <c r="B6" s="512"/>
+      <c r="A6" s="505"/>
+      <c r="B6" s="505"/>
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
@@ -10410,8 +10348,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="512"/>
-      <c r="B7" s="512"/>
+      <c r="A7" s="505"/>
+      <c r="B7" s="505"/>
       <c r="C7" s="19" t="s">
         <v>40</v>
       </c>
@@ -10467,72 +10405,72 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="45"/>
-      <c r="C1" s="505" t="s">
+      <c r="C1" s="498" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="505"/>
-      <c r="E1" s="505"/>
-      <c r="F1" s="505"/>
-      <c r="G1" s="505"/>
+      <c r="D1" s="498"/>
+      <c r="E1" s="498"/>
+      <c r="F1" s="498"/>
+      <c r="G1" s="498"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="46"/>
-      <c r="C2" s="514" t="s">
+      <c r="C2" s="507" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="514"/>
-      <c r="E2" s="514"/>
-      <c r="F2" s="514"/>
-      <c r="G2" s="514"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507"/>
+      <c r="F2" s="507"/>
+      <c r="G2" s="507"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="46"/>
-      <c r="C3" s="514" t="s">
+      <c r="C3" s="507" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="514"/>
-      <c r="E3" s="514"/>
-      <c r="F3" s="514"/>
-      <c r="G3" s="514"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="47"/>
-      <c r="C4" s="507"/>
-      <c r="D4" s="507"/>
-      <c r="E4" s="507"/>
-      <c r="F4" s="507"/>
-      <c r="G4" s="507"/>
+      <c r="C4" s="500"/>
+      <c r="D4" s="500"/>
+      <c r="E4" s="500"/>
+      <c r="F4" s="500"/>
+      <c r="G4" s="500"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="48"/>
-      <c r="C5" s="511" t="s">
+      <c r="C5" s="504" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="511"/>
-      <c r="E5" s="511"/>
-      <c r="F5" s="511"/>
-      <c r="G5" s="511"/>
+      <c r="D5" s="504"/>
+      <c r="E5" s="504"/>
+      <c r="F5" s="504"/>
+      <c r="G5" s="504"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="512" t="s">
+      <c r="A6" s="505" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="512" t="s">
+      <c r="B6" s="505" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="513" t="s">
+      <c r="C6" s="506" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="513"/>
-      <c r="E6" s="513"/>
-      <c r="F6" s="513"/>
-      <c r="G6" s="513"/>
+      <c r="D6" s="506"/>
+      <c r="E6" s="506"/>
+      <c r="F6" s="506"/>
+      <c r="G6" s="506"/>
       <c r="H6" s="82"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="512"/>
-      <c r="B7" s="512"/>
+      <c r="A7" s="505"/>
+      <c r="B7" s="505"/>
       <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
@@ -10550,8 +10488,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="512"/>
-      <c r="B8" s="512"/>
+      <c r="A8" s="505"/>
+      <c r="B8" s="505"/>
       <c r="C8" s="49" t="s">
         <v>40</v>
       </c>
@@ -10751,10 +10689,10 @@
         <v>96</v>
       </c>
       <c r="M2" s="5"/>
-      <c r="N2" s="495" t="s">
+      <c r="N2" s="491" t="s">
         <v>94</v>
       </c>
-      <c r="O2" s="495"/>
+      <c r="O2" s="491"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5" t="s">
         <v>97</v>
@@ -11103,13 +11041,13 @@
       <c r="Q1" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="R1" s="261" t="s">
+      <c r="R1" s="256" t="s">
         <v>227</v>
       </c>
-      <c r="S1" s="261" t="s">
+      <c r="S1" s="256" t="s">
         <v>228</v>
       </c>
-      <c r="T1" s="264"/>
+      <c r="T1" s="259"/>
     </row>
     <row r="2" spans="1:20" ht="15.75">
       <c r="A2" s="23"/>
@@ -11151,73 +11089,73 @@
       <c r="Q2" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="262"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
+      <c r="R2" s="257"/>
+      <c r="S2" s="257"/>
+      <c r="T2" s="258"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="515" t="s">
+      <c r="A3" s="508" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="515" t="s">
+      <c r="B3" s="508" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="515" t="s">
+      <c r="C3" s="508" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="515" t="s">
+      <c r="D3" s="508" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="515" t="s">
+      <c r="E3" s="508" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="515" t="s">
+      <c r="F3" s="508" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="515"/>
-      <c r="H3" s="515"/>
-      <c r="I3" s="515"/>
-      <c r="J3" s="523" t="s">
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="516" t="s">
         <v>226</v>
       </c>
-      <c r="K3" s="515"/>
-      <c r="L3" s="515"/>
-      <c r="M3" s="515" t="s">
+      <c r="K3" s="508"/>
+      <c r="L3" s="508"/>
+      <c r="M3" s="508" t="s">
         <v>94</v>
       </c>
-      <c r="N3" s="515"/>
-      <c r="O3" s="515"/>
-      <c r="P3" s="515" t="s">
+      <c r="N3" s="508"/>
+      <c r="O3" s="508"/>
+      <c r="P3" s="508" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="515" t="s">
+      <c r="Q3" s="508" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="517"/>
-      <c r="S3" s="519"/>
-      <c r="T3" s="521"/>
+      <c r="R3" s="510"/>
+      <c r="S3" s="512"/>
+      <c r="T3" s="514"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="516"/>
-      <c r="B4" s="516"/>
-      <c r="C4" s="516"/>
-      <c r="D4" s="516"/>
-      <c r="E4" s="516"/>
-      <c r="F4" s="516"/>
-      <c r="G4" s="516"/>
-      <c r="H4" s="516"/>
-      <c r="I4" s="516"/>
-      <c r="J4" s="524"/>
-      <c r="K4" s="516"/>
-      <c r="L4" s="516"/>
-      <c r="M4" s="516"/>
-      <c r="N4" s="516"/>
-      <c r="O4" s="516"/>
-      <c r="P4" s="516"/>
-      <c r="Q4" s="516"/>
-      <c r="R4" s="518"/>
-      <c r="S4" s="520"/>
-      <c r="T4" s="522"/>
+      <c r="A4" s="509"/>
+      <c r="B4" s="509"/>
+      <c r="C4" s="509"/>
+      <c r="D4" s="509"/>
+      <c r="E4" s="509"/>
+      <c r="F4" s="509"/>
+      <c r="G4" s="509"/>
+      <c r="H4" s="509"/>
+      <c r="I4" s="509"/>
+      <c r="J4" s="517"/>
+      <c r="K4" s="509"/>
+      <c r="L4" s="509"/>
+      <c r="M4" s="509"/>
+      <c r="N4" s="509"/>
+      <c r="O4" s="509"/>
+      <c r="P4" s="509"/>
+      <c r="Q4" s="509"/>
+      <c r="R4" s="511"/>
+      <c r="S4" s="513"/>
+      <c r="T4" s="515"/>
     </row>
     <row r="5" spans="1:20" ht="15.75">
       <c r="A5" s="28"/>
@@ -41032,6 +40970,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
@@ -41041,17 +40990,6 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="N3:N4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41167,36 +41105,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="28" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="461" t="s">
+      <c r="A1" s="455" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="461"/>
-      <c r="C1" s="461"/>
-      <c r="D1" s="461"/>
-      <c r="E1" s="461"/>
-      <c r="F1" s="461"/>
-      <c r="G1" s="461"/>
-      <c r="H1" s="461"/>
-      <c r="I1" s="461"/>
-      <c r="J1" s="461"/>
-      <c r="K1" s="461"/>
-      <c r="L1" s="461"/>
-      <c r="M1" s="461"/>
+      <c r="B1" s="455"/>
+      <c r="C1" s="455"/>
+      <c r="D1" s="455"/>
+      <c r="E1" s="455"/>
+      <c r="F1" s="455"/>
+      <c r="G1" s="455"/>
+      <c r="H1" s="455"/>
+      <c r="I1" s="455"/>
+      <c r="J1" s="455"/>
+      <c r="K1" s="455"/>
+      <c r="L1" s="455"/>
+      <c r="M1" s="455"/>
     </row>
     <row r="2" spans="1:32" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="462"/>
-      <c r="B2" s="462"/>
-      <c r="C2" s="462"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="462"/>
-      <c r="F2" s="462"/>
-      <c r="G2" s="462"/>
-      <c r="H2" s="462"/>
-      <c r="I2" s="462"/>
-      <c r="J2" s="462"/>
-      <c r="K2" s="462"/>
-      <c r="L2" s="462"/>
-      <c r="M2" s="462"/>
+      <c r="A2" s="456"/>
+      <c r="B2" s="456"/>
+      <c r="C2" s="456"/>
+      <c r="D2" s="456"/>
+      <c r="E2" s="456"/>
+      <c r="F2" s="456"/>
+      <c r="G2" s="456"/>
+      <c r="H2" s="456"/>
+      <c r="I2" s="456"/>
+      <c r="J2" s="456"/>
+      <c r="K2" s="456"/>
+      <c r="L2" s="456"/>
+      <c r="M2" s="456"/>
     </row>
     <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="V3" s="4" t="s">
@@ -41204,192 +41142,192 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="463" t="s">
+      <c r="A4" s="454" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="463" t="s">
+      <c r="B4" s="454" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="463" t="s">
+      <c r="C4" s="454" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="463" t="s">
+      <c r="D4" s="454" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="463"/>
-      <c r="F4" s="463"/>
-      <c r="G4" s="463"/>
-      <c r="H4" s="463" t="s">
+      <c r="E4" s="454"/>
+      <c r="F4" s="454"/>
+      <c r="G4" s="454"/>
+      <c r="H4" s="454" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="463"/>
-      <c r="J4" s="463"/>
-      <c r="K4" s="463" t="s">
+      <c r="I4" s="454"/>
+      <c r="J4" s="454"/>
+      <c r="K4" s="454" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="463"/>
-      <c r="M4" s="463" t="s">
+      <c r="L4" s="454"/>
+      <c r="M4" s="454" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="463"/>
-      <c r="O4" s="463"/>
-      <c r="P4" s="463"/>
-      <c r="Q4" s="463"/>
-      <c r="R4" s="463"/>
-      <c r="S4" s="463"/>
-      <c r="T4" s="463"/>
-      <c r="U4" s="463" t="s">
+      <c r="N4" s="454"/>
+      <c r="O4" s="454"/>
+      <c r="P4" s="454"/>
+      <c r="Q4" s="454"/>
+      <c r="R4" s="454"/>
+      <c r="S4" s="454"/>
+      <c r="T4" s="454"/>
+      <c r="U4" s="454" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="463"/>
-      <c r="W4" s="463"/>
-      <c r="X4" s="463"/>
-      <c r="Y4" s="463" t="s">
+      <c r="V4" s="454"/>
+      <c r="W4" s="454"/>
+      <c r="X4" s="454"/>
+      <c r="Y4" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="Z4" s="463"/>
-      <c r="AA4" s="463" t="s">
+      <c r="Z4" s="454"/>
+      <c r="AA4" s="454" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="463"/>
-      <c r="AC4" s="463" t="s">
+      <c r="AB4" s="454"/>
+      <c r="AC4" s="454" t="s">
         <v>20</v>
       </c>
-      <c r="AD4" s="463"/>
-      <c r="AE4" s="463" t="s">
+      <c r="AD4" s="454"/>
+      <c r="AE4" s="454" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="463"/>
+      <c r="AF4" s="454"/>
     </row>
     <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="463"/>
-      <c r="B5" s="463"/>
-      <c r="C5" s="463"/>
-      <c r="D5" s="463"/>
-      <c r="E5" s="463"/>
-      <c r="F5" s="463"/>
-      <c r="G5" s="463"/>
-      <c r="H5" s="463" t="s">
+      <c r="A5" s="454"/>
+      <c r="B5" s="454"/>
+      <c r="C5" s="454"/>
+      <c r="D5" s="454"/>
+      <c r="E5" s="454"/>
+      <c r="F5" s="454"/>
+      <c r="G5" s="454"/>
+      <c r="H5" s="454" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="463" t="s">
+      <c r="I5" s="454" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="463" t="s">
+      <c r="J5" s="454" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="463"/>
-      <c r="L5" s="463"/>
-      <c r="M5" s="463"/>
-      <c r="N5" s="463"/>
-      <c r="O5" s="463"/>
-      <c r="P5" s="463"/>
-      <c r="Q5" s="463"/>
-      <c r="R5" s="463"/>
-      <c r="S5" s="463"/>
-      <c r="T5" s="463"/>
-      <c r="U5" s="463"/>
-      <c r="V5" s="463"/>
-      <c r="W5" s="463"/>
-      <c r="X5" s="463"/>
-      <c r="Y5" s="463"/>
-      <c r="Z5" s="463"/>
-      <c r="AA5" s="463"/>
-      <c r="AB5" s="463"/>
-      <c r="AC5" s="463"/>
-      <c r="AD5" s="463"/>
-      <c r="AE5" s="463"/>
-      <c r="AF5" s="463"/>
+      <c r="K5" s="454"/>
+      <c r="L5" s="454"/>
+      <c r="M5" s="454"/>
+      <c r="N5" s="454"/>
+      <c r="O5" s="454"/>
+      <c r="P5" s="454"/>
+      <c r="Q5" s="454"/>
+      <c r="R5" s="454"/>
+      <c r="S5" s="454"/>
+      <c r="T5" s="454"/>
+      <c r="U5" s="454"/>
+      <c r="V5" s="454"/>
+      <c r="W5" s="454"/>
+      <c r="X5" s="454"/>
+      <c r="Y5" s="454"/>
+      <c r="Z5" s="454"/>
+      <c r="AA5" s="454"/>
+      <c r="AB5" s="454"/>
+      <c r="AC5" s="454"/>
+      <c r="AD5" s="454"/>
+      <c r="AE5" s="454"/>
+      <c r="AF5" s="454"/>
     </row>
     <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="463"/>
-      <c r="B6" s="463"/>
-      <c r="C6" s="463"/>
-      <c r="D6" s="463" t="s">
+      <c r="A6" s="454"/>
+      <c r="B6" s="454"/>
+      <c r="C6" s="454"/>
+      <c r="D6" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="463" t="s">
+      <c r="E6" s="454" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="463" t="s">
+      <c r="F6" s="454" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="463" t="s">
+      <c r="G6" s="454" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="463"/>
-      <c r="I6" s="463"/>
-      <c r="J6" s="463"/>
+      <c r="H6" s="454"/>
+      <c r="I6" s="454"/>
+      <c r="J6" s="454"/>
       <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="463" t="s">
+      <c r="M6" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="463"/>
-      <c r="O6" s="463" t="s">
+      <c r="N6" s="454"/>
+      <c r="O6" s="454" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="463"/>
-      <c r="Q6" s="463" t="s">
+      <c r="P6" s="454"/>
+      <c r="Q6" s="454" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="463"/>
-      <c r="S6" s="463" t="s">
+      <c r="R6" s="454"/>
+      <c r="S6" s="454" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="463"/>
-      <c r="U6" s="463" t="s">
+      <c r="T6" s="454"/>
+      <c r="U6" s="454" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="463" t="s">
+      <c r="V6" s="454" t="s">
         <v>19</v>
       </c>
-      <c r="W6" s="463" t="s">
+      <c r="W6" s="454" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="463" t="s">
+      <c r="X6" s="454" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="463" t="s">
+      <c r="Y6" s="454" t="s">
         <v>15</v>
       </c>
-      <c r="Z6" s="463" t="s">
+      <c r="Z6" s="454" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="463" t="s">
+      <c r="AA6" s="454" t="s">
         <v>15</v>
       </c>
-      <c r="AB6" s="463" t="s">
+      <c r="AB6" s="454" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="463" t="s">
+      <c r="AC6" s="454" t="s">
         <v>15</v>
       </c>
-      <c r="AD6" s="463" t="s">
+      <c r="AD6" s="454" t="s">
         <v>16</v>
       </c>
-      <c r="AE6" s="463" t="s">
+      <c r="AE6" s="454" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="463" t="s">
+      <c r="AF6" s="454" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="463"/>
-      <c r="B7" s="463"/>
-      <c r="C7" s="463"/>
-      <c r="D7" s="463"/>
-      <c r="E7" s="463"/>
-      <c r="F7" s="463"/>
-      <c r="G7" s="463"/>
-      <c r="H7" s="463"/>
-      <c r="I7" s="463"/>
-      <c r="J7" s="463"/>
+      <c r="A7" s="454"/>
+      <c r="B7" s="454"/>
+      <c r="C7" s="454"/>
+      <c r="D7" s="454"/>
+      <c r="E7" s="454"/>
+      <c r="F7" s="454"/>
+      <c r="G7" s="454"/>
+      <c r="H7" s="454"/>
+      <c r="I7" s="454"/>
+      <c r="J7" s="454"/>
       <c r="K7" s="3" t="s">
         <v>17</v>
       </c>
@@ -41420,42 +41358,21 @@
       <c r="T7" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="U7" s="463"/>
-      <c r=